--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -27,13 +27,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>玩法设计：</t>
+    <t>核心玩法：</t>
   </si>
   <si>
     <t>主场景是一个月球，有一个炮台环绕着月球。玩家通过下方的左右按键来控制炮台的左右移动。
-双击左右按钮触发对角线闪现。</t>
+双击左右按钮触发对角线闪现。
+发射器每隔一小段时间发射一颗子弹。
+月球上不规律的出现敌人，消灭敌人获得碎片。
+敌人受物理引擎影响，在场地内四处碰撞，玩家需要操控发射器攻击敌人的同时躲避碰撞。</t>
+  </si>
+  <si>
+    <t>资源系统：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+金币、碎片。
+金币用来解锁皮肤，购买道具？
+碎片只能用来升级组件、配件等。
+</t>
+  </si>
+  <si>
+    <t>关卡系统：</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">关卡不论胜利失败，根据击杀的敌人数量获得金币及碎片。
+玩家可以在战斗结束后，消耗碎片升级发射器。
+可升级的内容包括且不限于：射速、伤害、生命等。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使玩家形成：打关卡-&gt;升级炮台-&gt;打更厉害的关卡 的循环。</t>
+    </r>
+  </si>
+  <si>
+    <t>配件系统：</t>
+  </si>
+  <si>
+    <t>配件系统随关卡或练度开放。
+可以理解成是附着在发射器上的子发射器。
+每种配件拥有不同的能力，包括且不限于：子弹爆炸、子弹反弹、子弹穿透等。</t>
+  </si>
+  <si>
+    <t>皮肤系统：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+发射器可以是各种类型的东西，包括且不限于：炮台、飞机、猫咪、小狗等。
+需要通过消耗金币、观看广告来解锁。
+每种皮肤拥有独特的特殊能力？
+</t>
   </si>
 </sst>
 </file>
@@ -46,7 +97,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +112,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -203,6 +260,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="黑体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -525,144 +588,150 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -976,32 +1045,57 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C8:C11"/>
+  <dimension ref="B9:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="2"/>
   <cols>
-    <col min="3" max="3" width="160.625" customWidth="1"/>
+    <col min="2" max="2" width="27" style="1" customWidth="1"/>
+    <col min="3" max="3" width="160.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="114.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" ht="24" spans="3:3">
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" ht="24" spans="3:3">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" ht="24" spans="3:3">
-      <c r="C10" s="1" t="s">
+    <row r="9" ht="140" customHeight="1" spans="2:3">
+      <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" ht="83" customHeight="1" spans="3:3">
-      <c r="C11" s="2" t="s">
-        <v>1</v>
+    <row r="10" ht="101" customHeight="1" spans="2:3">
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" ht="101" customHeight="1" spans="2:3">
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" ht="103" customHeight="1" spans="2:3">
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" ht="71.25" spans="2:3">
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -45,17 +45,23 @@
     <t xml:space="preserve">
 金币、碎片。
 金币用来解锁皮肤，购买道具？
-碎片只能用来升级组件、配件等。
+碎片只能用来升级炮台、配件等。
 </t>
   </si>
   <si>
     <t>关卡系统：</t>
   </si>
   <si>
+    <t>关卡胜利时，获得金币奖励。
+关卡不论胜利失败，根据击杀的敌人数量获得碎片。</t>
+  </si>
+  <si>
+    <t>升级系统：</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">关卡不论胜利失败，根据击杀的敌人数量获得金币及碎片。
-玩家可以在战斗结束后，消耗碎片升级发射器。
-可升级的内容包括且不限于：射速、伤害、生命等。
+      <t xml:space="preserve">玩家可以消耗碎片升级炮台。
+可升级的内容包括且不限于：射速、伤害等。
 </t>
     </r>
     <r>
@@ -1045,10 +1051,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B9:C13"/>
+  <dimension ref="B9:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="2"/>
@@ -1090,12 +1096,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" ht="71.25" spans="2:3">
+    <row r="13" ht="103" customHeight="1" spans="2:3">
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="14" ht="71.25" spans="2:3">
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30735" windowHeight="15645"/>
+    <workbookView windowWidth="30735" windowHeight="15645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
+    <sheet name="怪物" sheetId="9" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,6 +61,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">玩家可以消耗碎片升级炮台。
 可升级的内容包括且不限于：射速、伤害等。
 </t>
@@ -103,13 +110,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
@@ -118,7 +131,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="黑体"/>
       <charset val="134"/>
@@ -594,137 +607,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -734,10 +747,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1053,62 +1069,62 @@
   <sheetPr/>
   <dimension ref="B9:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="27" style="1" customWidth="1"/>
-    <col min="3" max="3" width="160.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="114.125" customWidth="1"/>
+    <col min="2" max="2" width="27" style="2" customWidth="1"/>
+    <col min="3" max="3" width="105.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="114.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="9" ht="140" customHeight="1" spans="2:3">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" ht="101" customHeight="1" spans="2:3">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" ht="101" customHeight="1" spans="2:3">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" ht="103" customHeight="1" spans="2:3">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" ht="103" customHeight="1" spans="2:3">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" ht="71.25" spans="2:3">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1116,4 +1132,25 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="31.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30735" windowHeight="15645" activeTab="1"/>
+    <workbookView windowWidth="30735" windowHeight="15645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
     <sheet name="怪物" sheetId="9" r:id="rId2"/>
+    <sheet name="配件" sheetId="10" r:id="rId3"/>
+    <sheet name="皮肤" sheetId="11" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -98,6 +100,108 @@
 需要通过消耗金币、观看广告来解锁。
 每种皮肤拥有独特的特殊能力？
 </t>
+  </si>
+  <si>
+    <t>肉鸽系统：</t>
+  </si>
+  <si>
+    <t>？？？</t>
+  </si>
+  <si>
+    <t>圆</t>
+  </si>
+  <si>
+    <t>普通怪物</t>
+  </si>
+  <si>
+    <t>方</t>
+  </si>
+  <si>
+    <t>比普通怪物的血量更多</t>
+  </si>
+  <si>
+    <t>三角</t>
+  </si>
+  <si>
+    <t>皮薄，但是会发射子弹</t>
+  </si>
+  <si>
+    <t>菱形</t>
+  </si>
+  <si>
+    <t>移动速度较快</t>
+  </si>
+  <si>
+    <t>治疗</t>
+  </si>
+  <si>
+    <t>为周围的同伴恢复生命</t>
+  </si>
+  <si>
+    <t>Boss1</t>
+  </si>
+  <si>
+    <t>会发射子弹。
+发射射线，射线旋转180度。</t>
+  </si>
+  <si>
+    <t>枪口</t>
+  </si>
+  <si>
+    <t>每隔一段时间发射1颗普通子弹</t>
+  </si>
+  <si>
+    <t>升级项：攻击力、攻速</t>
+  </si>
+  <si>
+    <t>激光</t>
+  </si>
+  <si>
+    <t>瞄准距离最近的敌人，发射射线。</t>
+  </si>
+  <si>
+    <t>冰弹</t>
+  </si>
+  <si>
+    <t>每隔一段时间发射1颗可以降低敌人速度的子弹</t>
+  </si>
+  <si>
+    <t>升级项：攻击力、减速幅度</t>
+  </si>
+  <si>
+    <t>炮台</t>
+  </si>
+  <si>
+    <t>普通子弹</t>
+  </si>
+  <si>
+    <t>升级项：攻击力、攻速
+攻速达到10J，解锁双列子弹
+攻速达到30J，解锁三列子弹</t>
+  </si>
+  <si>
+    <t>分裂</t>
+  </si>
+  <si>
+    <t>可分裂的子弹
+击中敌人时分裂出一颗子弹。</t>
+  </si>
+  <si>
+    <t>升级项：攻击力、攻速
+攻速达到10J，分裂2颗子弹
+攻速达到30J，分裂3颗子弹</t>
+  </si>
+  <si>
+    <t>反弹</t>
+  </si>
+  <si>
+    <t>可以反弹的子弹
+击中圆环边缘会触发反弹</t>
+  </si>
+  <si>
+    <t>升级项：攻击力、攻速
+攻速达到10J，反弹2次
+攻速达到30J，分裂3次</t>
   </si>
 </sst>
 </file>
@@ -737,12 +841,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1067,65 +1174,73 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B9:C14"/>
+  <dimension ref="B3:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="27" style="2" customWidth="1"/>
-    <col min="3" max="3" width="105.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="114.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="27" style="3" customWidth="1"/>
+    <col min="3" max="3" width="105.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="114.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" ht="140" customHeight="1" spans="2:3">
-      <c r="B9" s="2" t="s">
+    <row r="3" ht="140" customHeight="1" spans="2:3">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="101" customHeight="1" spans="2:3">
-      <c r="B10" s="2" t="s">
+    <row r="4" ht="101" customHeight="1" spans="2:3">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" ht="101" customHeight="1" spans="2:3">
-      <c r="B11" s="2" t="s">
+    <row r="5" ht="101" customHeight="1" spans="2:3">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" ht="103" customHeight="1" spans="2:3">
-      <c r="B12" s="2" t="s">
+    <row r="6" ht="103" customHeight="1" spans="2:3">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" ht="103" customHeight="1" spans="2:3">
-      <c r="B13" s="2" t="s">
+    <row r="7" ht="103" customHeight="1" spans="2:3">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" ht="71.25" spans="2:3">
-      <c r="B14" s="2" t="s">
+    <row r="8" ht="71.25" spans="2:3">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1137,19 +1252,225 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A9:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>100</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>101</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>102</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>103</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>104</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" ht="28.5" spans="1:3">
+      <c r="A14" s="1">
+        <v>105</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A8:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.75" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1">
+        <v>1003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A8:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="31.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="56.375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="8" ht="42.75" spans="1:4">
+      <c r="A8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" ht="42.75" spans="1:4">
+      <c r="A10" s="1">
+        <v>10001</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" ht="42.75" spans="1:4">
+      <c r="A11" s="1">
+        <v>10002</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30735" windowHeight="15645" activeTab="3"/>
+    <workbookView windowWidth="30735" windowHeight="15645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
-    <sheet name="怪物" sheetId="9" r:id="rId2"/>
+    <sheet name="皮肤" sheetId="11" r:id="rId2"/>
     <sheet name="配件" sheetId="10" r:id="rId3"/>
-    <sheet name="皮肤" sheetId="11" r:id="rId4"/>
+    <sheet name="怪物" sheetId="9" r:id="rId4"/>
+    <sheet name="7.22" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -108,67 +109,6 @@
     <t>？？？</t>
   </si>
   <si>
-    <t>圆</t>
-  </si>
-  <si>
-    <t>普通怪物</t>
-  </si>
-  <si>
-    <t>方</t>
-  </si>
-  <si>
-    <t>比普通怪物的血量更多</t>
-  </si>
-  <si>
-    <t>三角</t>
-  </si>
-  <si>
-    <t>皮薄，但是会发射子弹</t>
-  </si>
-  <si>
-    <t>菱形</t>
-  </si>
-  <si>
-    <t>移动速度较快</t>
-  </si>
-  <si>
-    <t>治疗</t>
-  </si>
-  <si>
-    <t>为周围的同伴恢复生命</t>
-  </si>
-  <si>
-    <t>Boss1</t>
-  </si>
-  <si>
-    <t>会发射子弹。
-发射射线，射线旋转180度。</t>
-  </si>
-  <si>
-    <t>枪口</t>
-  </si>
-  <si>
-    <t>每隔一段时间发射1颗普通子弹</t>
-  </si>
-  <si>
-    <t>升级项：攻击力、攻速</t>
-  </si>
-  <si>
-    <t>激光</t>
-  </si>
-  <si>
-    <t>瞄准距离最近的敌人，发射射线。</t>
-  </si>
-  <si>
-    <t>冰弹</t>
-  </si>
-  <si>
-    <t>每隔一段时间发射1颗可以降低敌人速度的子弹</t>
-  </si>
-  <si>
-    <t>升级项：攻击力、减速幅度</t>
-  </si>
-  <si>
     <t>炮台</t>
   </si>
   <si>
@@ -202,6 +142,85 @@
     <t>升级项：攻击力、攻速
 攻速达到10J，反弹2次
 攻速达到30J，分裂3次</t>
+  </si>
+  <si>
+    <t>枪口</t>
+  </si>
+  <si>
+    <t>每隔一段时间发射1颗普通子弹</t>
+  </si>
+  <si>
+    <t>升级项：攻击力、攻速</t>
+  </si>
+  <si>
+    <t>激光</t>
+  </si>
+  <si>
+    <t>瞄准距离最近的敌人，发射射线。</t>
+  </si>
+  <si>
+    <t>冰弹</t>
+  </si>
+  <si>
+    <t>每隔一段时间发射1颗可以降低敌人速度的子弹</t>
+  </si>
+  <si>
+    <t>升级项：攻击力、减速幅度</t>
+  </si>
+  <si>
+    <t>圆</t>
+  </si>
+  <si>
+    <t>普通怪物</t>
+  </si>
+  <si>
+    <t>方</t>
+  </si>
+  <si>
+    <t>比普通怪物的血量更多</t>
+  </si>
+  <si>
+    <t>三角</t>
+  </si>
+  <si>
+    <t>皮薄，但是会发射子弹</t>
+  </si>
+  <si>
+    <t>菱形</t>
+  </si>
+  <si>
+    <t>移动速度较快</t>
+  </si>
+  <si>
+    <t>治疗</t>
+  </si>
+  <si>
+    <t>为周围的同伴恢复生命</t>
+  </si>
+  <si>
+    <t>Boss1</t>
+  </si>
+  <si>
+    <t>会发射子弹。
+发射射线，射线旋转180度。</t>
+  </si>
+  <si>
+    <t>关卡的表格配置及读取</t>
+  </si>
+  <si>
+    <t>初版怪物逻辑的实现</t>
+  </si>
+  <si>
+    <t>初版皮肤升级额外功能的实现</t>
+  </si>
+  <si>
+    <t>关卡拓展至10关（包含怪物逻辑的实现）</t>
+  </si>
+  <si>
+    <t>配件种类完善及功能实现</t>
+  </si>
+  <si>
+    <t>游戏内部肉鸽玩法的设计及实现</t>
   </si>
 </sst>
 </file>
@@ -400,6 +419,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -509,12 +534,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,7 +736,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -741,16 +760,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -759,54 +778,54 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -841,9 +860,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -854,14 +882,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1182,61 +1204,61 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="27" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27" style="6" customWidth="1"/>
     <col min="3" max="3" width="105.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="114.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="114.125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="140" customHeight="1" spans="2:3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="101" customHeight="1" spans="2:3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="101" customHeight="1" spans="2:3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="103" customHeight="1" spans="2:3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="103" customHeight="1" spans="2:3">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="71.25" spans="2:3">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1252,84 +1274,62 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A9:C14"/>
+  <dimension ref="A8:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="14.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="28" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>100</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="8" ht="42.75" spans="1:4">
+      <c r="A8" s="4">
+        <v>10000</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>101</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="10" ht="42.75" spans="1:4">
+      <c r="A10" s="4">
+        <v>10001</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>102</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>103</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="11" ht="42.75" spans="1:4">
+      <c r="A11" s="4">
+        <v>10002</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>104</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" ht="28.5" spans="1:3">
-      <c r="A14" s="1">
-        <v>105</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1349,57 +1349,57 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="53.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.75" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="13.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="53.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="34.75" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="8" spans="1:4">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>1000</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4">
+        <v>1001</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4">
+        <v>1002</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>1001</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>1002</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <v>1003</v>
       </c>
     </row>
@@ -1412,64 +1412,138 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A8:D11"/>
+  <dimension ref="A9:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13" style="4" customWidth="1"/>
+    <col min="3" max="3" width="55.625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4">
+        <v>100</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4">
+        <v>101</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4">
+        <v>102</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4">
+        <v>103</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4">
+        <v>104</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" ht="28.5" spans="1:3">
+      <c r="A14" s="4">
+        <v>105</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A7:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="51.375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="8" ht="42.75" spans="1:4">
-      <c r="A8" s="1">
-        <v>10000</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" ht="42.75" spans="1:4">
-      <c r="A10" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" ht="42.75" spans="1:4">
-      <c r="A11" s="1">
-        <v>10002</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
+    <row r="7" ht="66" customHeight="1" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" ht="33" customHeight="1" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" ht="43" customHeight="1" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" ht="51" customHeight="1" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" ht="50" customHeight="1" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" ht="98" customHeight="1" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" ht="56" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30735" windowHeight="15645" activeTab="4"/>
+    <workbookView windowWidth="30735" windowHeight="15645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -177,7 +177,7 @@
     <t>方</t>
   </si>
   <si>
-    <t>比普通怪物的血量更多</t>
+    <t>比普通怪物血量的2倍</t>
   </si>
   <si>
     <t>三角</t>
@@ -860,7 +860,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -874,6 +874,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1204,61 +1207,61 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="27" style="6" customWidth="1"/>
+    <col min="2" max="2" width="27" style="7" customWidth="1"/>
     <col min="3" max="3" width="105.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="114.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="114.125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="140" customHeight="1" spans="2:3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="101" customHeight="1" spans="2:3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="101" customHeight="1" spans="2:3">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="103" customHeight="1" spans="2:3">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="103" customHeight="1" spans="2:3">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="71.25" spans="2:3">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1300,7 +1303,7 @@
       <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1311,10 +1314,10 @@
       <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1325,10 +1328,10 @@
       <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1414,8 +1417,8 @@
   <sheetPr/>
   <dimension ref="A9:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1427,24 +1430,24 @@
   </cols>
   <sheetData>
     <row r="9" spans="1:3">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>100</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>101</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1460,13 +1463,13 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>103</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1488,7 +1491,7 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1503,7 +1506,7 @@
   <sheetPr/>
   <dimension ref="A7:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30735" windowHeight="15645" activeTab="3"/>
+    <workbookView windowWidth="30735" windowHeight="15645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
-    <sheet name="皮肤" sheetId="11" r:id="rId2"/>
-    <sheet name="配件" sheetId="10" r:id="rId3"/>
-    <sheet name="怪物" sheetId="9" r:id="rId4"/>
-    <sheet name="7.22" sheetId="12" r:id="rId5"/>
+    <sheet name="头脑风暴" sheetId="13" r:id="rId2"/>
+    <sheet name="皮肤" sheetId="11" r:id="rId3"/>
+    <sheet name="配件" sheetId="10" r:id="rId4"/>
+    <sheet name="怪物" sheetId="9" r:id="rId5"/>
+    <sheet name="7.22" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -109,6 +110,15 @@
     <t>？？？</t>
   </si>
   <si>
+    <t>考虑把皮肤系统设计成武器，例如：弓箭、太刀、巨剑、铁锤等，每种皮肤对应的闪现技能也有不同的特殊逻辑
+武器是自动攻击的。
+弓箭：远程攻击，发射箭矢。发射双箭矢；发射三箭矢；箭矢可反弹；
+太刀：近战攻击，溅射伤害。可发射剑气；可反弹子弹；反弹的子弹可以对敌人造成伤害；
+巨剑：
+大锤：近战攻击，击飞目标，伤害高。被击飞的目标撞击其他目标时，对双方都造成一定的伤害。撞击墙壁也会造成伤害。
+把配件系统做成一种加成？</t>
+  </si>
+  <si>
     <t>炮台</t>
   </si>
   <si>
@@ -144,6 +154,18 @@
 攻速达到30J，分裂3次</t>
   </si>
   <si>
+    <t>弓箭</t>
+  </si>
+  <si>
+    <t>太刀</t>
+  </si>
+  <si>
+    <t>巨剑</t>
+  </si>
+  <si>
+    <t>大锤</t>
+  </si>
+  <si>
     <t>枪口</t>
   </si>
   <si>
@@ -198,7 +220,13 @@
     <t>为周围的同伴恢复生命</t>
   </si>
   <si>
-    <t>Boss1</t>
+    <t>1号精英</t>
+  </si>
+  <si>
+    <t>朝周围发射6颗子弹</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
   <si>
     <t>会发射子弹。
@@ -860,7 +888,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -878,6 +906,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1201,19 +1232,19 @@
   <sheetPr/>
   <dimension ref="B3:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="27" style="7" customWidth="1"/>
+    <col min="2" max="2" width="27" style="8" customWidth="1"/>
     <col min="3" max="3" width="105.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="114.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="114.125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="140" customHeight="1" spans="2:3">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1221,7 +1252,7 @@
       </c>
     </row>
     <row r="4" ht="101" customHeight="1" spans="2:3">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1229,7 +1260,7 @@
       </c>
     </row>
     <row r="5" ht="101" customHeight="1" spans="2:3">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1237,7 +1268,7 @@
       </c>
     </row>
     <row r="6" ht="103" customHeight="1" spans="2:3">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1245,7 +1276,7 @@
       </c>
     </row>
     <row r="7" ht="103" customHeight="1" spans="2:3">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1253,7 +1284,7 @@
       </c>
     </row>
     <row r="8" ht="71.25" spans="2:3">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1261,7 +1292,7 @@
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1277,10 +1308,36 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A8:D11"/>
+  <dimension ref="A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="101" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="12" ht="219" customHeight="1" spans="1:1">
+      <c r="A12" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A8:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1298,13 +1355,13 @@
         <v>10000</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" ht="42.75" spans="1:4">
@@ -1312,13 +1369,13 @@
         <v>10001</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="42.75" spans="1:4">
@@ -1326,13 +1383,33 @@
         <v>10002</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1341,7 +1418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A8:D11"/>
@@ -1364,13 +1441,13 @@
         <v>1000</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1378,13 +1455,13 @@
         <v>1001</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1392,13 +1469,13 @@
         <v>1002</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -1412,13 +1489,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A9:C14"/>
+  <dimension ref="A9:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1434,10 +1511,10 @@
         <v>100</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1445,21 +1522,21 @@
         <v>101</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>102</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>36</v>
+      <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1467,32 +1544,40 @@
         <v>103</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>104</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" ht="28.5" spans="1:3">
-      <c r="A14" s="4">
+      <c r="B13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5">
         <v>105</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>42</v>
+      <c r="B14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" ht="28.5" spans="2:3">
+      <c r="B20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1501,13 +1586,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A7:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1518,32 +1603,32 @@
   <sheetData>
     <row r="7" ht="66" customHeight="1" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>44</v>
+      <c r="A8" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" ht="43" customHeight="1" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" ht="51" customHeight="1" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" ht="98" customHeight="1" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" ht="56" customHeight="1"/>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30735" windowHeight="15645" activeTab="5"/>
+    <workbookView windowWidth="30735" windowHeight="15645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -119,53 +119,78 @@
 把配件系统做成一种加成？</t>
   </si>
   <si>
-    <t>炮台</t>
-  </si>
-  <si>
-    <t>普通子弹</t>
-  </si>
-  <si>
-    <t>升级项：攻击力、攻速
-攻速达到10J，解锁双列子弹
-攻速达到30J，解锁三列子弹</t>
-  </si>
-  <si>
-    <t>分裂</t>
-  </si>
-  <si>
-    <t>可分裂的子弹
-击中敌人时分裂出一颗子弹。</t>
-  </si>
-  <si>
-    <t>升级项：攻击力、攻速
-攻速达到10J，分裂2颗子弹
-攻速达到30J，分裂3颗子弹</t>
-  </si>
-  <si>
-    <t>反弹</t>
-  </si>
-  <si>
-    <t>可以反弹的子弹
-击中圆环边缘会触发反弹</t>
-  </si>
-  <si>
-    <t>升级项：攻击力、攻速
-攻速达到10J，反弹2次
-攻速达到30J，分裂3次</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>攻击分支</t>
+  </si>
+  <si>
+    <t>攻速分支</t>
   </si>
   <si>
     <t>弓箭</t>
   </si>
   <si>
+    <t>远程攻击，发射箭矢。</t>
+  </si>
+  <si>
+    <t>发射2/3/4箭矢；
+箭矢可反弹1/2/3次；
+箭矢击中目标后分裂1/2/4支；
+箭矢可穿透1/2/3次；</t>
+  </si>
+  <si>
+    <t>等级3：
+多重射击：发射的箭矢数量+1/2/3。
+分裂箭矢：击中目标后分裂出1/2/3枚箭矢。
+散射：箭矢可以追踪场上的敌人，最多追踪1/2/3个敌人。
+等级15：
+穿透：箭矢可穿透1/2/3次。
+反弹：箭矢可反弹1/2/3次。</t>
+  </si>
+  <si>
+    <t>等级8：
+刷新：发射后有10/15/20%的概率再次发射。
+晕眩：被击中的敌人有8/12/20%的概率晕眩1.5秒
+等级25：
+必杀：被击中的敌人有1/3/5%的概率直接死亡。(精英、Boss除外)
+标记：被击中的敌人在5秒内受到的伤害提高10/25/50%。</t>
+  </si>
+  <si>
     <t>太刀</t>
   </si>
   <si>
+    <t>近战攻击，溅射伤害。</t>
+  </si>
+  <si>
+    <t>攻击范围变大10/25/50；
+可发射1/2/3道剑气（穿透）；
+可抵挡子弹；
+可反弹子弹，反弹的子弹可以对敌人造成伤害；</t>
+  </si>
+  <si>
     <t>巨剑</t>
   </si>
   <si>
     <t>大锤</t>
   </si>
   <si>
+    <t>近战攻击，击飞目标，伤害高。</t>
+  </si>
+  <si>
+    <t>被击飞的目标撞击其他目标时，对双方都造成一定的伤害。
+撞击墙壁也会造成伤害。</t>
+  </si>
+  <si>
     <t>枪口</t>
   </si>
   <si>
@@ -188,6 +213,31 @@
   </si>
   <si>
     <t>升级项：攻击力、减速幅度</t>
+  </si>
+  <si>
+    <t>配件效果：</t>
+  </si>
+  <si>
+    <t>爆炸</t>
+  </si>
+  <si>
+    <t>每次击中产生爆炸</t>
+  </si>
+  <si>
+    <t>冰冻</t>
+  </si>
+  <si>
+    <t>每次击中产生减速，累计达到一定的阈值可以冰冻一小段时间。
+冰冻期间不产生新的减速效果</t>
+  </si>
+  <si>
+    <t>毒液</t>
+  </si>
+  <si>
+    <t>敌人是否拥有弱点？</t>
+  </si>
+  <si>
+    <t>比如火、冰、雷等弱点?</t>
   </si>
   <si>
     <t>圆</t>
@@ -261,7 +311,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +323,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="方正粗黑宋简体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -758,137 +814,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -901,22 +957,37 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1238,64 +1309,64 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="27" style="8" customWidth="1"/>
-    <col min="3" max="3" width="105.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="114.125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="27" style="13" customWidth="1"/>
+    <col min="3" max="3" width="105.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="114.125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="140" customHeight="1" spans="2:3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="101" customHeight="1" spans="2:3">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="101" customHeight="1" spans="2:3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="103" customHeight="1" spans="2:3">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="103" customHeight="1" spans="2:3">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="71.25" spans="2:3">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1321,7 +1392,7 @@
   </cols>
   <sheetData>
     <row r="12" ht="219" customHeight="1" spans="1:1">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1334,84 +1405,99 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A8:D26"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="14.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="30.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="28" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="14.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="40.375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="8" ht="42.75" spans="1:4">
-      <c r="A8" s="4">
+    <row r="1" s="6" customFormat="1" ht="27" spans="1:6">
+      <c r="A1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="170" customHeight="1" spans="1:6">
+      <c r="A2" s="8">
         <v>10000</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" ht="42.75" spans="1:4">
-      <c r="A10" s="4">
-        <v>10001</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" ht="42.75" spans="1:4">
-      <c r="A11" s="4">
-        <v>10002</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="4" t="s">
+      <c r="E2" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="4" t="s">
+      <c r="F2" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="4" t="s">
+    <row r="3" ht="102" customHeight="1" spans="1:5">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
+      <c r="D3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" ht="119" customHeight="1" spans="1:5">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" ht="118" customHeight="1" spans="1:5">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="13" ht="98" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1421,66 +1507,92 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A8:D11"/>
+  <dimension ref="A8:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="13.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="53.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="34.75" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="13.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="68.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="34.75" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="8" spans="1:4">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>1000</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>30</v>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>1001</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>30</v>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>1002</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>35</v>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>1003</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" ht="28.5" spans="2:3">
+      <c r="B22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1492,92 +1604,100 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A9:C20"/>
+  <dimension ref="A5:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:C14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13" style="4" customWidth="1"/>
-    <col min="3" max="3" width="55.625" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="55.625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
+    <row r="5" spans="2:3">
+      <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>100</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>37</v>
+      <c r="B9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>101</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>39</v>
+      <c r="B10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>102</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>41</v>
+      <c r="B11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>103</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>43</v>
+      <c r="B12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>104</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>45</v>
+      <c r="B13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>105</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>47</v>
+      <c r="B14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20" ht="28.5" spans="2:3">
-      <c r="B20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>49</v>
+      <c r="B20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1591,7 +1711,7 @@
   <sheetPr/>
   <dimension ref="A7:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1603,32 +1723,32 @@
   <sheetData>
     <row r="7" ht="66" customHeight="1" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:1">
       <c r="A8" s="3" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" ht="43" customHeight="1" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" ht="51" customHeight="1" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" ht="98" customHeight="1" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" ht="56" customHeight="1"/>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30735" windowHeight="15645" activeTab="2"/>
+    <workbookView windowWidth="30735" windowHeight="15645"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
     <sheet name="头脑风暴" sheetId="13" r:id="rId2"/>
-    <sheet name="皮肤" sheetId="11" r:id="rId3"/>
+    <sheet name="武器" sheetId="11" r:id="rId3"/>
     <sheet name="配件" sheetId="10" r:id="rId4"/>
     <sheet name="怪物" sheetId="9" r:id="rId5"/>
     <sheet name="7.22" sheetId="12" r:id="rId6"/>
@@ -32,16 +32,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>核心玩法：</t>
   </si>
   <si>
-    <t>主场景是一个月球，有一个炮台环绕着月球。玩家通过下方的左右按键来控制炮台的左右移动。
-双击左右按钮触发对角线闪现。
-发射器每隔一小段时间发射一颗子弹。
-月球上不规律的出现敌人，消灭敌人获得碎片。
-敌人受物理引擎影响，在场地内四处碰撞，玩家需要操控发射器攻击敌人的同时躲避碰撞。</t>
+    <t>主场景是一个圆弧，有一把武器环绕着圆弧。玩家通过下方的左右按键来控制武器的左右移动。
+双击左右按钮触发武器的对应特殊效果。
+武器每个一段时间会自动攻击一次。
+圆弧内不规律的出现敌人，消灭敌人获得碎片。
+敌人受物理引擎影响，在场地内四处碰撞，玩家需要操控武器攻击敌人的同时躲避碰撞。</t>
   </si>
   <si>
     <t>资源系统：</t>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">
 金币、碎片。
 金币用来解锁皮肤，购买道具？
-碎片只能用来升级炮台、配件等。
+碎片只能用来升级武器、配件等。
 </t>
   </si>
   <si>
@@ -65,12 +65,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">玩家可以消耗碎片升级炮台。
 可升级的内容包括且不限于：射速、伤害等。
 </t>
@@ -86,21 +80,13 @@
     </r>
   </si>
   <si>
-    <t>配件系统：</t>
-  </si>
-  <si>
-    <t>配件系统随关卡或练度开放。
-可以理解成是附着在发射器上的子发射器。
-每种配件拥有不同的能力，包括且不限于：子弹爆炸、子弹反弹、子弹穿透等。</t>
-  </si>
-  <si>
-    <t>皮肤系统：</t>
+    <t>武器系统：</t>
   </si>
   <si>
     <t xml:space="preserve">
-发射器可以是各种类型的东西，包括且不限于：炮台、飞机、猫咪、小狗等。
-需要通过消耗金币、观看广告来解锁。
-每种皮肤拥有独特的特殊能力？
+玩家可以是不同类型的各式武器，包括弓箭、太刀、大锤等等。
+需要通过消耗金币、观看广告来解锁不同的武器。
+每种武器都有一套独立的技能组。
 </t>
   </si>
   <si>
@@ -1301,13 +1287,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:C9"/>
+  <dimension ref="B3:C8"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="27" style="13" customWidth="1"/>
     <col min="3" max="3" width="105.125" style="2" customWidth="1"/>
@@ -1346,7 +1332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="103" customHeight="1" spans="2:3">
+    <row r="7" ht="100" customHeight="1" spans="2:3">
       <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
@@ -1354,20 +1340,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" ht="71.25" spans="2:3">
+    <row r="8" spans="2:3">
       <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1393,7 +1371,7 @@
   <sheetData>
     <row r="12" ht="219" customHeight="1" spans="1:1">
       <c r="A12" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1407,7 +1385,7 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1424,22 +1402,22 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" ht="27" spans="1:6">
       <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" ht="170" customHeight="1" spans="1:6">
@@ -1447,38 +1425,38 @@
         <v>10000</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="E2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="F2" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:5">
       <c r="A3" s="8"/>
       <c r="B3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="E3" s="8"/>
     </row>
     <row r="4" ht="119" customHeight="1" spans="1:5">
       <c r="A4" s="8"/>
       <c r="B4" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1487,13 +1465,13 @@
     <row r="5" ht="118" customHeight="1" spans="1:5">
       <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -1527,13 +1505,13 @@
         <v>1000</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1541,13 +1519,13 @@
         <v>1001</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1555,13 +1533,13 @@
         <v>1002</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -1571,28 +1549,28 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" ht="28.5" spans="2:3">
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1620,10 +1598,10 @@
   <sheetData>
     <row r="5" spans="2:3">
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1631,10 +1609,10 @@
         <v>100</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1642,10 +1620,10 @@
         <v>101</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1653,10 +1631,10 @@
         <v>102</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1664,10 +1642,10 @@
         <v>103</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1675,10 +1653,10 @@
         <v>104</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1686,18 +1664,18 @@
         <v>105</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" ht="28.5" spans="2:3">
       <c r="B20" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1723,32 +1701,32 @@
   <sheetData>
     <row r="7" ht="66" customHeight="1" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:1">
       <c r="A8" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" ht="43" customHeight="1" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" ht="51" customHeight="1" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" ht="98" customHeight="1" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" ht="56" customHeight="1"/>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30735" windowHeight="15645"/>
+    <workbookView windowWidth="29535" windowHeight="13170" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">玩家可以消耗碎片升级炮台。
 可升级的内容包括且不限于：射速、伤害等。
 </t>
@@ -138,7 +144,7 @@
     <t>等级3：
 多重射击：发射的箭矢数量+1/2/3。
 分裂箭矢：击中目标后分裂出1/2/3枚箭矢。
-散射：箭矢可以追踪场上的敌人，最多追踪1/2/3个敌人。
+追踪射击：箭矢可以追踪场上的敌人，最多追踪1/2/3个敌人。
 等级15：
 穿透：箭矢可穿透1/2/3次。
 反弹：箭矢可反弹1/2/3次。</t>
@@ -930,7 +936,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -956,19 +962,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1289,19 +1286,19 @@
   <sheetPr/>
   <dimension ref="B3:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+    <sheetView topLeftCell="B3" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="27" style="13" customWidth="1"/>
+    <col min="2" max="2" width="27" style="10" customWidth="1"/>
     <col min="3" max="3" width="105.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="114.125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="114.125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="140" customHeight="1" spans="2:3">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1309,7 +1306,7 @@
       </c>
     </row>
     <row r="4" ht="101" customHeight="1" spans="2:3">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1317,7 +1314,7 @@
       </c>
     </row>
     <row r="5" ht="101" customHeight="1" spans="2:3">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1325,7 +1322,7 @@
       </c>
     </row>
     <row r="6" ht="103" customHeight="1" spans="2:3">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1333,7 +1330,7 @@
       </c>
     </row>
     <row r="7" ht="100" customHeight="1" spans="2:3">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1341,7 +1338,7 @@
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1421,59 +1418,59 @@
       </c>
     </row>
     <row r="2" ht="170" customHeight="1" spans="1:6">
-      <c r="A2" s="8">
+      <c r="A2" s="1">
         <v>10000</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:5">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" ht="119" customHeight="1" spans="1:5">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" ht="118" customHeight="1" spans="1:5">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="13" ht="98" customHeight="1"/>
   </sheetData>
@@ -1487,7 +1484,7 @@
   <sheetPr/>
   <dimension ref="A8:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -1689,8 +1686,8 @@
   <sheetPr/>
   <dimension ref="A7:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1710,7 +1707,7 @@
       </c>
     </row>
     <row r="9" ht="43" customHeight="1" spans="1:1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>63</v>
       </c>
     </row>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29535" windowHeight="13170" activeTab="5"/>
+    <workbookView windowWidth="26910" windowHeight="13170" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -141,21 +141,22 @@
 箭矢可穿透1/2/3次；</t>
   </si>
   <si>
-    <t>等级3：
-多重射击：发射的箭矢数量+1/2/3。
+    <t>多重射击：发射的箭矢数量+1/2/3。
 分裂箭矢：击中目标后分裂出1/2/3枚箭矢。
 追踪射击：箭矢可以追踪场上的敌人，最多追踪1/2/3个敌人。
-等级15：
 穿透：箭矢可穿透1/2/3次。
-反弹：箭矢可反弹1/2/3次。</t>
-  </si>
-  <si>
-    <t>等级8：
-刷新：发射后有10/15/20%的概率再次发射。
+反弹：箭矢可反弹1/2/3次。
+爆炸箭矢：击中产生爆炸效果，半径为100/150/200
+冰冻箭矢：击中产生减速效果，减速效果10/20/30
+毒液箭矢：击中使目标中毒，中毒层数1/2/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">刷新：发射后有10/15/20%的概率再次发射。
 晕眩：被击中的敌人有8/12/20%的概率晕眩1.5秒
-等级25：
+急速箭矢：箭矢移动速度提高#%
 必杀：被击中的敌人有1/3/5%的概率直接死亡。(精英、Boss除外)
-标记：被击中的敌人在5秒内受到的伤害提高10/25/50%。</t>
+标记：被击中的敌人在5秒内受到的伤害提高10/25/50%。
+</t>
   </si>
   <si>
     <t>太刀</t>
@@ -1382,8 +1383,8 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1417,7 +1418,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" ht="170" customHeight="1" spans="1:6">
+    <row r="2" ht="273" customHeight="1" spans="1:6">
       <c r="A2" s="1">
         <v>10000</v>
       </c>
@@ -1686,7 +1687,7 @@
   <sheetPr/>
   <dimension ref="A7:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26910" windowHeight="13170" activeTab="2"/>
+    <workbookView windowWidth="26910" windowHeight="13170" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
-    <sheet name="头脑风暴" sheetId="13" r:id="rId2"/>
-    <sheet name="武器" sheetId="11" r:id="rId3"/>
-    <sheet name="配件" sheetId="10" r:id="rId4"/>
-    <sheet name="怪物" sheetId="9" r:id="rId5"/>
-    <sheet name="7.22" sheetId="12" r:id="rId6"/>
+    <sheet name="数值表" sheetId="14" r:id="rId2"/>
+    <sheet name="头脑风暴" sheetId="13" r:id="rId3"/>
+    <sheet name="武器" sheetId="11" r:id="rId4"/>
+    <sheet name="配件" sheetId="10" r:id="rId5"/>
+    <sheet name="怪物" sheetId="9" r:id="rId6"/>
+    <sheet name="7.22" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -100,6 +101,33 @@
   </si>
   <si>
     <t>？？？</t>
+  </si>
+  <si>
+    <t>属性=初始攻击力+(等级-1)*成长系数</t>
+  </si>
+  <si>
+    <t>初始攻击力</t>
+  </si>
+  <si>
+    <t>初始攻速</t>
+  </si>
+  <si>
+    <t>攻速成长</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>攻击力成长系数</t>
+  </si>
+  <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>攻速成长系数</t>
+  </si>
+  <si>
+    <t>攻速</t>
   </si>
   <si>
     <t>考虑把皮肤系统设计成武器，例如：弓箭、太刀、巨剑、铁锤等，每种皮肤对应的闪现技能也有不同的特殊逻辑
@@ -487,7 +515,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,6 +525,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,7 +847,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -837,16 +871,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -855,89 +889,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -967,6 +1001,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1293,13 +1330,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="27" style="10" customWidth="1"/>
+    <col min="2" max="2" width="27" style="11" customWidth="1"/>
     <col min="3" max="3" width="105.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="114.125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="114.125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="140" customHeight="1" spans="2:3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1307,7 +1344,7 @@
       </c>
     </row>
     <row r="4" ht="101" customHeight="1" spans="2:3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1315,7 +1352,7 @@
       </c>
     </row>
     <row r="5" ht="101" customHeight="1" spans="2:3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1323,7 +1360,7 @@
       </c>
     </row>
     <row r="6" ht="103" customHeight="1" spans="2:3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1331,7 +1368,7 @@
       </c>
     </row>
     <row r="7" ht="100" customHeight="1" spans="2:3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1339,7 +1376,7 @@
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1353,6 +1390,815 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:E41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="15.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19" style="2" customWidth="1"/>
+    <col min="3" max="4" width="13.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.75" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <f>FLOOR((A7-1)/3,1)+1</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <f>1+(A7-1)*B7</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f>FLOOR((A7-1)/5,1)+1</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <f>300/(1+(3*(A7-1)*D7)/100)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" ref="B8:B26" si="0">FLOOR((A8-1)/3,1)+1</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" ref="C8:C26" si="1">1+(A8-1)*B8</f>
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8:D26" si="2">FLOOR((A8-1)/5,1)+1</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" ref="E8:E26" si="3">300/(1+(3*(A8-1)*D8)/100)</f>
+        <v>291.26213592233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="3"/>
+        <v>283.018867924528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="3"/>
+        <v>275.229357798165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="3"/>
+        <v>267.857142857143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="3"/>
+        <v>230.769230769231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="3"/>
+        <v>220.588235294118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="3"/>
+        <v>211.267605633803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="3"/>
+        <v>202.702702702703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="3"/>
+        <v>194.805194805195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="3"/>
+        <v>157.894736842105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="3"/>
+        <v>150.753768844221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="3"/>
+        <v>144.230769230769</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>14</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="3"/>
+        <v>138.248847926267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="3"/>
+        <v>132.743362831858</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="3"/>
+        <v>107.142857142857</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="3"/>
+        <v>102.739726027397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>18</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="3"/>
+        <v>98.6842105263158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>19</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>94.9367088607595</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>20</v>
+      </c>
+      <c r="B26" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="3"/>
+        <v>91.4634146341463</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>21</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" ref="B27:B41" si="4">FLOOR((A27-1)/3,1)+1</f>
+        <v>7</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" ref="C27:C41" si="5">1+(A27-1)*B27</f>
+        <v>141</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" ref="D27:D41" si="6">FLOOR((A27-1)/5,1)+1</f>
+        <v>5</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" ref="E27:E41" si="7">300/(1+(3*(A27-1)*D27)/100)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
+        <v>22</v>
+      </c>
+      <c r="B28" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="5"/>
+        <v>169</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="7"/>
+        <v>72.289156626506</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
+        <v>23</v>
+      </c>
+      <c r="B29" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="5"/>
+        <v>177</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="7"/>
+        <v>69.7674418604651</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
+        <v>24</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="5"/>
+        <v>185</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="7"/>
+        <v>67.4157303370786</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
+        <v>25</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="5"/>
+        <v>217</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="7"/>
+        <v>65.2173913043478</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
+        <v>26</v>
+      </c>
+      <c r="B32" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="5"/>
+        <v>226</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="7"/>
+        <v>54.5454545454545</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <v>27</v>
+      </c>
+      <c r="B33" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="5"/>
+        <v>235</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="7"/>
+        <v>52.8169014084507</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
+        <v>28</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="5"/>
+        <v>271</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="7"/>
+        <v>51.1945392491468</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
+        <v>29</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="5"/>
+        <v>281</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="7"/>
+        <v>49.6688741721854</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
+        <v>30</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="5"/>
+        <v>291</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="7"/>
+        <v>48.2315112540193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>31</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="5"/>
+        <v>331</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="7"/>
+        <v>41.0958904109589</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>32</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="5"/>
+        <v>342</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="7"/>
+        <v>39.9467376830892</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>33</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="5"/>
+        <v>353</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="7"/>
+        <v>38.860103626943</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>34</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="5"/>
+        <v>397</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="7"/>
+        <v>37.8310214375788</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>35</v>
+      </c>
+      <c r="B41" s="2">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="5"/>
+        <v>409</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="7"/>
+        <v>36.8550368550369</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A12"/>
@@ -1369,7 +2215,7 @@
   <sheetData>
     <row r="12" ht="219" customHeight="1" spans="1:1">
       <c r="A12" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1378,12 +2224,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1400,22 +2246,22 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" ht="27" spans="1:6">
       <c r="A1" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" ht="273" customHeight="1" spans="1:6">
@@ -1423,38 +2269,38 @@
         <v>10000</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" ht="119" customHeight="1" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1463,13 +2309,13 @@
     <row r="5" ht="118" customHeight="1" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -1480,7 +2326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A8:D23"/>
@@ -1503,13 +2349,13 @@
         <v>1000</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1517,13 +2363,13 @@
         <v>1001</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1531,13 +2377,13 @@
         <v>1002</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -1547,28 +2393,28 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" ht="28.5" spans="2:3">
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1577,7 +2423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A5:C20"/>
@@ -1596,10 +2442,10 @@
   <sheetData>
     <row r="5" spans="2:3">
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1607,10 +2453,10 @@
         <v>100</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1618,10 +2464,10 @@
         <v>101</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1629,10 +2475,10 @@
         <v>102</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1640,10 +2486,10 @@
         <v>103</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1651,10 +2497,10 @@
         <v>104</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1662,18 +2508,18 @@
         <v>105</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" ht="28.5" spans="2:3">
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1682,7 +2528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A7:A13"/>
@@ -1699,32 +2545,32 @@
   <sheetData>
     <row r="7" ht="66" customHeight="1" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:1">
       <c r="A8" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" ht="43" customHeight="1" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" ht="51" customHeight="1" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" ht="98" customHeight="1" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" ht="56" customHeight="1"/>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -103,31 +103,61 @@
     <t>？？？</t>
   </si>
   <si>
-    <t>属性=初始攻击力+(等级-1)*成长系数</t>
+    <t>当前攻击力=初始攻击力+(等级-1)*成长系数</t>
   </si>
   <si>
     <t>初始攻击力</t>
   </si>
   <si>
+    <t>消耗=初始消耗*等级^成长指数*成长系数</t>
+  </si>
+  <si>
+    <t>初始消耗</t>
+  </si>
+  <si>
+    <t>成长指数</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>攻击力成长系数</t>
+  </si>
+  <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>消耗</t>
+  </si>
+  <si>
     <t>初始攻速</t>
   </si>
   <si>
     <t>攻速成长</t>
   </si>
   <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>攻击力成长系数</t>
-  </si>
-  <si>
-    <t>攻击力</t>
-  </si>
-  <si>
     <t>攻速成长系数</t>
   </si>
   <si>
     <t>攻速</t>
+  </si>
+  <si>
+    <t>攻击消耗</t>
+  </si>
+  <si>
+    <t>攻速消耗</t>
+  </si>
+  <si>
+    <t>总消耗</t>
+  </si>
+  <si>
+    <t>停留时间(分钟)</t>
+  </si>
+  <si>
+    <t>产出效率(分钟)</t>
+  </si>
+  <si>
+    <t>总计</t>
   </si>
   <si>
     <t>考虑把皮肤系统设计成武器，例如：弓箭、太刀、巨剑、铁锤等，每种皮肤对应的闪现技能也有不同的特殊逻辑
@@ -515,7 +545,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -531,6 +561,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,12 +675,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,7 +895,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -871,16 +919,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -889,25 +937,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -934,44 +970,56 @@
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1003,6 +1051,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1330,13 +1390,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="27" style="11" customWidth="1"/>
+    <col min="2" max="2" width="27" style="15" customWidth="1"/>
     <col min="3" max="3" width="105.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="114.125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="114.125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="140" customHeight="1" spans="2:3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1344,7 +1404,7 @@
       </c>
     </row>
     <row r="4" ht="101" customHeight="1" spans="2:3">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1352,7 +1412,7 @@
       </c>
     </row>
     <row r="5" ht="101" customHeight="1" spans="2:3">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1360,7 +1420,7 @@
       </c>
     </row>
     <row r="6" ht="103" customHeight="1" spans="2:3">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1368,7 +1428,7 @@
       </c>
     </row>
     <row r="7" ht="100" customHeight="1" spans="2:3">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1376,7 +1436,7 @@
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1392,44 +1452,41 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:E41"/>
+  <dimension ref="A2:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="19" style="2" customWidth="1"/>
-    <col min="3" max="4" width="13.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.75" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="13.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="2">
-        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1437,113 +1494,87 @@
         <v>15</v>
       </c>
       <c r="B5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <f>FLOOR((A8-1)/3,1)+1</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <f>$B$3+(A8-1)*B8</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <f>$B$5*POWER(A8,$B$6)*B8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" ref="B9:B27" si="0">FLOOR((A9-1)/3,1)+1</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" ref="C9:C42" si="1">$B$3+(A9-1)*B9</f>
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" ref="D9:D42" si="2">$B$5*POWER(A9,$B$6)*B9</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2">
-        <f>FLOOR((A7-1)/3,1)+1</f>
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <f>1+(A7-1)*B7</f>
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <f>FLOOR((A7-1)/5,1)+1</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <f>300/(1+(3*(A7-1)*D7)/100)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2">
-        <f t="shared" ref="B8:B26" si="0">FLOOR((A8-1)/3,1)+1</f>
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" ref="C8:C26" si="1">1+(A8-1)*B8</f>
-        <v>2</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" ref="D8:D26" si="2">FLOOR((A8-1)/5,1)+1</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" ref="E8:E26" si="3">300/(1+(3*(A8-1)*D8)/100)</f>
-        <v>291.26213592233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D9" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="3"/>
-        <v>283.018867924528</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
       <c r="D10" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="3"/>
-        <v>275.229357798165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
@@ -1551,20 +1582,16 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="3"/>
-        <v>267.857142857143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
@@ -1572,41 +1599,33 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="3"/>
-        <v>230.769230769231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="3"/>
-        <v>220.588235294118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
@@ -1614,20 +1633,16 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="3"/>
-        <v>211.267605633803</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
@@ -1635,41 +1650,33 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="3"/>
-        <v>202.702702702703</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="3"/>
-        <v>194.805194805195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
@@ -1677,20 +1684,16 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="3"/>
-        <v>157.894736842105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
@@ -1698,41 +1701,33 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="3"/>
-        <v>150.753768844221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="3"/>
-        <v>144.230769230769</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" si="0"/>
@@ -1740,20 +1735,16 @@
       </c>
       <c r="C20" s="2">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="3"/>
-        <v>138.248847926267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" si="0"/>
@@ -1761,41 +1752,33 @@
       </c>
       <c r="C21" s="2">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="3"/>
-        <v>132.743362831858</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" si="3"/>
-        <v>107.142857142857</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
@@ -1803,20 +1786,16 @@
       </c>
       <c r="C23" s="2">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="3"/>
-        <v>102.739726027397</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
@@ -1824,41 +1803,33 @@
       </c>
       <c r="C24" s="2">
         <f t="shared" si="1"/>
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="3"/>
-        <v>98.6842105263158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="1"/>
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="3"/>
-        <v>94.9367088607595</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
@@ -1866,330 +1837,1817 @@
       </c>
       <c r="C26" s="2">
         <f t="shared" si="1"/>
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="2"/>
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2">
+        <v>20</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="2"/>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2">
+        <v>21</v>
+      </c>
+      <c r="B28" s="2">
+        <f t="shared" ref="B28:B42" si="3">FLOOR((A28-1)/3,1)+1</f>
+        <v>7</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="1"/>
+        <v>141</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="2"/>
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2">
+        <v>22</v>
+      </c>
+      <c r="B29" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="1"/>
+        <v>169</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="2"/>
+        <v>3872</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2">
+        <v>23</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="1"/>
+        <v>177</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="2"/>
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2">
+        <v>24</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="2"/>
+        <v>4608</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2">
+        <v>25</v>
+      </c>
+      <c r="B32" s="2">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="1"/>
+        <v>217</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="2"/>
+        <v>5625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2">
+        <v>26</v>
+      </c>
+      <c r="B33" s="2">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="1"/>
+        <v>226</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="2"/>
+        <v>6084</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2">
+        <v>27</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="2"/>
+        <v>6561</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2">
+        <v>28</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="1"/>
+        <v>271</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="2"/>
+        <v>7840</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2">
+        <v>29</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="1"/>
+        <v>281</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="2"/>
+        <v>8410</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
+        <v>30</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="1"/>
+        <v>291</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="2"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2">
+        <v>31</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="1"/>
+        <v>331</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="2"/>
+        <v>10571</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2">
+        <v>32</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="1"/>
+        <v>342</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="2"/>
+        <v>11264</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2">
+        <v>33</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="1"/>
+        <v>353</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="2"/>
+        <v>11979</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2">
+        <v>34</v>
+      </c>
+      <c r="B41" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="1"/>
+        <v>397</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="2"/>
+        <v>13872</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2">
+        <v>35</v>
+      </c>
+      <c r="B42" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="1"/>
+        <v>409</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="2"/>
+        <v>14700</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="13"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="13"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="13"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2">
+        <v>1</v>
+      </c>
+      <c r="B51" s="2">
+        <f>FLOOR((A51-1)/3,1)+1</f>
+        <v>1</v>
+      </c>
+      <c r="C51" s="2">
+        <f>$B$45/(1+((A51-1)*B51*$B$46)/100)</f>
+        <v>450</v>
+      </c>
+      <c r="D51" s="2">
+        <f>FLOOR($B$48*POWER(A51,$B$49)*B51,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2">
+        <v>2</v>
+      </c>
+      <c r="B52" s="2">
+        <f t="shared" ref="B52:B85" si="4">FLOOR((A52-1)/3,1)+1</f>
+        <v>1</v>
+      </c>
+      <c r="C52" s="2">
+        <f t="shared" ref="C52:C85" si="5">$B$45/(1+((A52-1)*B52*$B$46)/100)</f>
+        <v>445.544554455446</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" ref="D52:D85" si="6">FLOOR($B$48*POWER(A52,$B$49)*B52,1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2">
+        <v>3</v>
+      </c>
+      <c r="B53" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" si="5"/>
+        <v>441.176470588235</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2">
         <v>4</v>
       </c>
-      <c r="E26" s="2">
-        <f t="shared" si="3"/>
-        <v>91.4634146341463</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2">
+      <c r="B54" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C54" s="2">
+        <f t="shared" si="5"/>
+        <v>424.528301886792</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2">
+        <v>5</v>
+      </c>
+      <c r="B55" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C55" s="2">
+        <f t="shared" si="5"/>
+        <v>416.666666666667</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="6"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2">
+        <v>6</v>
+      </c>
+      <c r="B56" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C56" s="2">
+        <f t="shared" si="5"/>
+        <v>409.090909090909</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2">
+        <v>7</v>
+      </c>
+      <c r="B57" s="2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C57" s="2">
+        <f t="shared" si="5"/>
+        <v>381.35593220339</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="6"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2">
+        <v>8</v>
+      </c>
+      <c r="B58" s="2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C58" s="2">
+        <f t="shared" si="5"/>
+        <v>371.900826446281</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="6"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2">
+        <v>9</v>
+      </c>
+      <c r="B59" s="2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C59" s="2">
+        <f t="shared" si="5"/>
+        <v>362.903225806452</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" si="6"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2">
+        <v>10</v>
+      </c>
+      <c r="B60" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C60" s="2">
+        <f t="shared" si="5"/>
+        <v>330.882352941177</v>
+      </c>
+      <c r="D60" s="2">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2">
+        <v>11</v>
+      </c>
+      <c r="B61" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C61" s="2">
+        <f t="shared" si="5"/>
+        <v>321.428571428571</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" si="6"/>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2">
+        <v>12</v>
+      </c>
+      <c r="B62" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C62" s="2">
+        <f t="shared" si="5"/>
+        <v>312.5</v>
+      </c>
+      <c r="D62" s="2">
+        <f t="shared" si="6"/>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2">
+        <v>13</v>
+      </c>
+      <c r="B63" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C63" s="2">
+        <f t="shared" si="5"/>
+        <v>281.25</v>
+      </c>
+      <c r="D63" s="2">
+        <f t="shared" si="6"/>
+        <v>782</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="2">
+        <v>14</v>
+      </c>
+      <c r="B64" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C64" s="2">
+        <f t="shared" si="5"/>
+        <v>272.727272727273</v>
+      </c>
+      <c r="D64" s="2">
+        <f t="shared" si="6"/>
+        <v>888</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2">
+        <v>15</v>
+      </c>
+      <c r="B65" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C65" s="2">
+        <f t="shared" si="5"/>
+        <v>264.705882352941</v>
+      </c>
+      <c r="D65" s="2">
+        <f t="shared" si="6"/>
+        <v>998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="2">
+        <v>16</v>
+      </c>
+      <c r="B66" s="2">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C66" s="2">
+        <f t="shared" si="5"/>
+        <v>236.842105263158</v>
+      </c>
+      <c r="D66" s="2">
+        <f t="shared" si="6"/>
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2">
+        <v>17</v>
+      </c>
+      <c r="B67" s="2">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C67" s="2">
+        <f t="shared" si="5"/>
+        <v>229.591836734694</v>
+      </c>
+      <c r="D67" s="2">
+        <f t="shared" si="6"/>
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="2">
+        <v>18</v>
+      </c>
+      <c r="B68" s="2">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C68" s="2">
+        <f t="shared" si="5"/>
+        <v>222.772277227723</v>
+      </c>
+      <c r="D68" s="2">
+        <f t="shared" si="6"/>
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2">
+        <v>19</v>
+      </c>
+      <c r="B69" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="C69" s="2">
+        <f t="shared" si="5"/>
+        <v>199.115044247788</v>
+      </c>
+      <c r="D69" s="2">
+        <f t="shared" si="6"/>
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="2">
+        <v>20</v>
+      </c>
+      <c r="B70" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="C70" s="2">
+        <f t="shared" si="5"/>
+        <v>193.1330472103</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" si="6"/>
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="2">
         <v>21</v>
       </c>
-      <c r="B27" s="2">
-        <f t="shared" ref="B27:B41" si="4">FLOOR((A27-1)/3,1)+1</f>
+      <c r="B71" s="2">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C27" s="2">
-        <f t="shared" ref="C27:C41" si="5">1+(A27-1)*B27</f>
-        <v>141</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" ref="D27:D41" si="6">FLOOR((A27-1)/5,1)+1</f>
-        <v>5</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" ref="E27:E41" si="7">300/(1+(3*(A27-1)*D27)/100)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2">
+      <c r="C71" s="2">
+        <f t="shared" si="5"/>
+        <v>187.5</v>
+      </c>
+      <c r="D71" s="2">
+        <f t="shared" si="6"/>
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="2">
         <v>22</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B72" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C72" s="2">
         <f t="shared" si="5"/>
-        <v>169</v>
-      </c>
-      <c r="D28" s="2">
+        <v>167.910447761194</v>
+      </c>
+      <c r="D72" s="2">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="7"/>
-        <v>72.289156626506</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="2">
         <v>23</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B73" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C73" s="2">
         <f t="shared" si="5"/>
-        <v>177</v>
-      </c>
-      <c r="D29" s="2">
+        <v>163.04347826087</v>
+      </c>
+      <c r="D73" s="2">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="E29" s="2">
-        <f t="shared" si="7"/>
-        <v>69.7674418604651</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2">
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="2">
         <v>24</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B74" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C74" s="2">
         <f t="shared" si="5"/>
-        <v>185</v>
-      </c>
-      <c r="D30" s="2">
+        <v>158.450704225352</v>
+      </c>
+      <c r="D74" s="2">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="E30" s="2">
-        <f t="shared" si="7"/>
-        <v>67.4157303370786</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2">
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="2">
         <v>25</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B75" s="2">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C75" s="2">
         <f t="shared" si="5"/>
-        <v>217</v>
-      </c>
-      <c r="D31" s="2">
+        <v>142.405063291139</v>
+      </c>
+      <c r="D75" s="2">
         <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" si="7"/>
-        <v>65.2173913043478</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="2">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="2">
         <v>26</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B76" s="2">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C76" s="2">
         <f t="shared" si="5"/>
-        <v>226</v>
-      </c>
-      <c r="D32" s="2">
+        <v>138.461538461538</v>
+      </c>
+      <c r="D76" s="2">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="E32" s="2">
-        <f t="shared" si="7"/>
-        <v>54.5454545454545</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="2">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="2">
         <v>27</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B77" s="2">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C77" s="2">
         <f t="shared" si="5"/>
-        <v>235</v>
-      </c>
-      <c r="D33" s="2">
+        <v>134.730538922156</v>
+      </c>
+      <c r="D77" s="2">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="E33" s="2">
-        <f t="shared" si="7"/>
-        <v>52.8169014084507</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="2">
+        <v>4881</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="2">
         <v>28</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B78" s="2">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C78" s="2">
         <f t="shared" si="5"/>
-        <v>271</v>
-      </c>
-      <c r="D34" s="2">
+        <v>121.621621621622</v>
+      </c>
+      <c r="D78" s="2">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="E34" s="2">
-        <f t="shared" si="7"/>
-        <v>51.1945392491468</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="2">
+        <v>5770</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="2">
         <v>29</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B79" s="2">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C79" s="2">
         <f t="shared" si="5"/>
-        <v>281</v>
-      </c>
-      <c r="D35" s="2">
+        <v>118.421052631579</v>
+      </c>
+      <c r="D79" s="2">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="E35" s="2">
-        <f t="shared" si="7"/>
-        <v>49.6688741721854</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="2">
+        <v>6125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="2">
         <v>30</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B80" s="2">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C80" s="2">
         <f t="shared" si="5"/>
-        <v>291</v>
-      </c>
-      <c r="D36" s="2">
+        <v>115.384615384615</v>
+      </c>
+      <c r="D80" s="2">
         <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="E36" s="2">
-        <f t="shared" si="7"/>
-        <v>48.2315112540193</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="2">
+        <v>6488</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="2">
         <v>31</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B81" s="2">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C81" s="2">
         <f t="shared" si="5"/>
-        <v>331</v>
-      </c>
-      <c r="D37" s="2">
+        <v>104.651162790698</v>
+      </c>
+      <c r="D81" s="2">
         <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="E37" s="2">
-        <f t="shared" si="7"/>
-        <v>41.0958904109589</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="2">
+        <v>7546</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="2">
         <v>32</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B82" s="2">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C82" s="2">
         <f t="shared" si="5"/>
-        <v>342</v>
-      </c>
-      <c r="D38" s="2">
+        <v>102.040816326531</v>
+      </c>
+      <c r="D82" s="2">
         <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="E38" s="2">
-        <f t="shared" si="7"/>
-        <v>39.9467376830892</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="2">
+        <v>7964</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="2">
         <v>33</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B83" s="2">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C83" s="2">
         <f t="shared" si="5"/>
-        <v>353</v>
-      </c>
-      <c r="D39" s="2">
+        <v>99.5575221238938</v>
+      </c>
+      <c r="D83" s="2">
         <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="E39" s="2">
-        <f t="shared" si="7"/>
-        <v>38.860103626943</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="2">
+        <v>8392</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="2">
         <v>34</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B84" s="2">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C84" s="2">
         <f t="shared" si="5"/>
-        <v>397</v>
-      </c>
-      <c r="D40" s="2">
+        <v>90.7258064516129</v>
+      </c>
+      <c r="D84" s="2">
         <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="E40" s="2">
-        <f t="shared" si="7"/>
-        <v>37.8310214375788</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="2">
+        <v>9632</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="2">
         <v>35</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B85" s="2">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C85" s="2">
         <f t="shared" si="5"/>
-        <v>409</v>
-      </c>
-      <c r="D41" s="2">
+        <v>88.5826771653543</v>
+      </c>
+      <c r="D85" s="2">
         <f t="shared" si="6"/>
+        <v>10118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="2">
+        <v>1</v>
+      </c>
+      <c r="B96" s="2">
+        <f>D8</f>
+        <v>1</v>
+      </c>
+      <c r="C96" s="2">
+        <f>D51</f>
+        <v>2</v>
+      </c>
+      <c r="D96" s="2">
+        <f>B96+C96</f>
+        <v>3</v>
+      </c>
+      <c r="E96" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F96" s="2">
+        <f>D96/E96</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="2">
+        <v>2</v>
+      </c>
+      <c r="B97" s="2">
+        <f t="shared" ref="B97:B130" si="7">D9</f>
+        <v>4</v>
+      </c>
+      <c r="C97" s="2">
+        <f t="shared" ref="C97:C130" si="8">D52</f>
+        <v>6</v>
+      </c>
+      <c r="D97" s="2">
+        <f t="shared" ref="D97:D130" si="9">B97+C97</f>
+        <v>10</v>
+      </c>
+      <c r="E97" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="F97" s="2">
+        <f t="shared" ref="F97:F130" si="10">D97/E97</f>
+        <v>13.3333333333333</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="2">
+        <v>3</v>
+      </c>
+      <c r="B98" s="2">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="C98" s="2">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="D98" s="2">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="E98" s="2">
+        <v>1</v>
+      </c>
+      <c r="F98" s="2">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="2">
+        <v>4</v>
+      </c>
+      <c r="B99" s="2">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="C99" s="2">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="D99" s="2">
+        <f t="shared" si="9"/>
+        <v>74</v>
+      </c>
+      <c r="E99" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F99" s="2">
+        <f t="shared" si="10"/>
+        <v>49.3333333333333</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="2">
+        <v>5</v>
+      </c>
+      <c r="B100" s="2">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="C100" s="2">
+        <f t="shared" si="8"/>
+        <v>61</v>
+      </c>
+      <c r="D100" s="2">
+        <f t="shared" si="9"/>
+        <v>111</v>
+      </c>
+      <c r="E100" s="2">
+        <v>2</v>
+      </c>
+      <c r="F100" s="2">
+        <f t="shared" si="10"/>
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="2">
+        <v>6</v>
+      </c>
+      <c r="B101" s="2">
+        <f t="shared" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="C101" s="2">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="D101" s="2">
+        <f t="shared" si="9"/>
+        <v>156</v>
+      </c>
+      <c r="E101" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F101" s="2">
+        <f t="shared" si="10"/>
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="2">
         <v>7</v>
       </c>
-      <c r="E41" s="2">
+      <c r="B102" s="2">
         <f t="shared" si="7"/>
-        <v>36.8550368550369</v>
+        <v>147</v>
+      </c>
+      <c r="C102" s="2">
+        <f t="shared" si="8"/>
+        <v>163</v>
+      </c>
+      <c r="D102" s="2">
+        <f t="shared" si="9"/>
+        <v>310</v>
+      </c>
+      <c r="E102" s="2">
+        <v>3</v>
+      </c>
+      <c r="F102" s="2">
+        <f t="shared" si="10"/>
+        <v>103.333333333333</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="2">
+        <v>8</v>
+      </c>
+      <c r="B103" s="2">
+        <f t="shared" si="7"/>
+        <v>192</v>
+      </c>
+      <c r="C103" s="2">
+        <f t="shared" si="8"/>
+        <v>205</v>
+      </c>
+      <c r="D103" s="2">
+        <f t="shared" si="9"/>
+        <v>397</v>
+      </c>
+      <c r="E103" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F103" s="2">
+        <f t="shared" si="10"/>
+        <v>113.428571428571</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="2">
+        <v>9</v>
+      </c>
+      <c r="B104" s="2">
+        <f t="shared" si="7"/>
+        <v>243</v>
+      </c>
+      <c r="C104" s="2">
+        <f t="shared" si="8"/>
+        <v>251</v>
+      </c>
+      <c r="D104" s="2">
+        <f t="shared" si="9"/>
+        <v>494</v>
+      </c>
+      <c r="E104" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F104" s="2">
+        <f t="shared" si="10"/>
+        <v>109.777777777778</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="2">
+        <v>10</v>
+      </c>
+      <c r="B105" s="2">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="C105" s="2">
+        <f t="shared" si="8"/>
+        <v>400</v>
+      </c>
+      <c r="D105" s="2">
+        <f t="shared" si="9"/>
+        <v>800</v>
+      </c>
+      <c r="E105" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F105" s="2">
+        <f t="shared" si="10"/>
+        <v>145.454545454545</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="2">
+        <v>11</v>
+      </c>
+      <c r="B106" s="2">
+        <f t="shared" si="7"/>
+        <v>484</v>
+      </c>
+      <c r="C106" s="2">
+        <f t="shared" si="8"/>
+        <v>471</v>
+      </c>
+      <c r="D106" s="2">
+        <f t="shared" si="9"/>
+        <v>955</v>
+      </c>
+      <c r="E106" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F106" s="2">
+        <f t="shared" si="10"/>
+        <v>146.923076923077</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="2">
+        <v>12</v>
+      </c>
+      <c r="B107" s="2">
+        <f t="shared" si="7"/>
+        <v>576</v>
+      </c>
+      <c r="C107" s="2">
+        <f t="shared" si="8"/>
+        <v>546</v>
+      </c>
+      <c r="D107" s="2">
+        <f t="shared" si="9"/>
+        <v>1122</v>
+      </c>
+      <c r="E107" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F107" s="2">
+        <f t="shared" si="10"/>
+        <v>149.6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="2">
+        <v>13</v>
+      </c>
+      <c r="B108" s="2">
+        <f t="shared" si="7"/>
+        <v>845</v>
+      </c>
+      <c r="C108" s="2">
+        <f t="shared" si="8"/>
+        <v>782</v>
+      </c>
+      <c r="D108" s="2">
+        <f t="shared" si="9"/>
+        <v>1627</v>
+      </c>
+      <c r="E108" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="F108" s="2">
+        <f t="shared" si="10"/>
+        <v>191.411764705882</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="2">
+        <v>14</v>
+      </c>
+      <c r="B109" s="2">
+        <f t="shared" si="7"/>
+        <v>980</v>
+      </c>
+      <c r="C109" s="2">
+        <f t="shared" si="8"/>
+        <v>888</v>
+      </c>
+      <c r="D109" s="2">
+        <f t="shared" si="9"/>
+        <v>1868</v>
+      </c>
+      <c r="E109" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="F109" s="2">
+        <f t="shared" si="10"/>
+        <v>196.631578947368</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="2">
+        <v>15</v>
+      </c>
+      <c r="B110" s="2">
+        <f t="shared" si="7"/>
+        <v>1125</v>
+      </c>
+      <c r="C110" s="2">
+        <f t="shared" si="8"/>
+        <v>998</v>
+      </c>
+      <c r="D110" s="2">
+        <f t="shared" si="9"/>
+        <v>2123</v>
+      </c>
+      <c r="E110" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="F110" s="2">
+        <f t="shared" si="10"/>
+        <v>202.190476190476</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="2">
+        <v>16</v>
+      </c>
+      <c r="B111" s="2">
+        <f t="shared" si="7"/>
+        <v>1536</v>
+      </c>
+      <c r="C111" s="2">
+        <f t="shared" si="8"/>
+        <v>1337</v>
+      </c>
+      <c r="D111" s="2">
+        <f t="shared" si="9"/>
+        <v>2873</v>
+      </c>
+      <c r="E111" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="F111" s="2">
+        <f t="shared" si="10"/>
+        <v>229.84</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="2">
+        <v>17</v>
+      </c>
+      <c r="B112" s="2">
+        <f t="shared" si="7"/>
+        <v>1734</v>
+      </c>
+      <c r="C112" s="2">
+        <f t="shared" si="8"/>
+        <v>1482</v>
+      </c>
+      <c r="D112" s="2">
+        <f t="shared" si="9"/>
+        <v>3216</v>
+      </c>
+      <c r="E112" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="F112" s="2">
+        <f t="shared" si="10"/>
+        <v>221.793103448276</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="2">
+        <v>18</v>
+      </c>
+      <c r="B113" s="2">
+        <f t="shared" si="7"/>
+        <v>1944</v>
+      </c>
+      <c r="C113" s="2">
+        <f t="shared" si="8"/>
+        <v>1633</v>
+      </c>
+      <c r="D113" s="2">
+        <f t="shared" si="9"/>
+        <v>3577</v>
+      </c>
+      <c r="E113" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="F113" s="2">
+        <f t="shared" si="10"/>
+        <v>216.787878787879</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="2">
+        <v>19</v>
+      </c>
+      <c r="B114" s="2">
+        <f t="shared" si="7"/>
+        <v>2527</v>
+      </c>
+      <c r="C114" s="2">
+        <f t="shared" si="8"/>
+        <v>2089</v>
+      </c>
+      <c r="D114" s="2">
+        <f t="shared" si="9"/>
+        <v>4616</v>
+      </c>
+      <c r="E114" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="F114" s="2">
+        <f t="shared" si="10"/>
+        <v>249.513513513514</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="2">
+        <v>20</v>
+      </c>
+      <c r="B115" s="2">
+        <f t="shared" si="7"/>
+        <v>2800</v>
+      </c>
+      <c r="C115" s="2">
+        <f t="shared" si="8"/>
+        <v>2279</v>
+      </c>
+      <c r="D115" s="2">
+        <f t="shared" si="9"/>
+        <v>5079</v>
+      </c>
+      <c r="E115" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="F115" s="2">
+        <f t="shared" si="10"/>
+        <v>247.756097560976</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="2">
+        <v>21</v>
+      </c>
+      <c r="B116" s="2">
+        <f t="shared" si="7"/>
+        <v>3087</v>
+      </c>
+      <c r="C116" s="2">
+        <f t="shared" si="8"/>
+        <v>2476</v>
+      </c>
+      <c r="D116" s="2">
+        <f t="shared" si="9"/>
+        <v>5563</v>
+      </c>
+      <c r="E116" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="F116" s="2">
+        <f t="shared" si="10"/>
+        <v>247.244444444444</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="2">
+        <v>22</v>
+      </c>
+      <c r="B117" s="2">
+        <f t="shared" si="7"/>
+        <v>3872</v>
+      </c>
+      <c r="C117" s="2">
+        <f t="shared" si="8"/>
+        <v>3063</v>
+      </c>
+      <c r="D117" s="2">
+        <f t="shared" si="9"/>
+        <v>6935</v>
+      </c>
+      <c r="E117" s="2">
+        <v>24.5</v>
+      </c>
+      <c r="F117" s="2">
+        <f t="shared" si="10"/>
+        <v>283.061224489796</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="2">
+        <v>23</v>
+      </c>
+      <c r="B118" s="2">
+        <f t="shared" si="7"/>
+        <v>4232</v>
+      </c>
+      <c r="C118" s="2">
+        <f t="shared" si="8"/>
+        <v>3304</v>
+      </c>
+      <c r="D118" s="2">
+        <f t="shared" si="9"/>
+        <v>7536</v>
+      </c>
+      <c r="E118" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="F118" s="2">
+        <f t="shared" si="10"/>
+        <v>284.377358490566</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="2">
+        <v>24</v>
+      </c>
+      <c r="B119" s="2">
+        <f t="shared" si="7"/>
+        <v>4608</v>
+      </c>
+      <c r="C119" s="2">
+        <f t="shared" si="8"/>
+        <v>3552</v>
+      </c>
+      <c r="D119" s="2">
+        <f t="shared" si="9"/>
+        <v>8160</v>
+      </c>
+      <c r="E119" s="2">
+        <v>28.5</v>
+      </c>
+      <c r="F119" s="2">
+        <f t="shared" si="10"/>
+        <v>286.315789473684</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="2">
+        <v>25</v>
+      </c>
+      <c r="B120" s="2">
+        <f t="shared" si="7"/>
+        <v>5625</v>
+      </c>
+      <c r="C120" s="2">
+        <f t="shared" si="8"/>
+        <v>4283</v>
+      </c>
+      <c r="D120" s="2">
+        <f t="shared" si="9"/>
+        <v>9908</v>
+      </c>
+      <c r="E120" s="2">
+        <v>30.5</v>
+      </c>
+      <c r="F120" s="2">
+        <f t="shared" si="10"/>
+        <v>324.852459016393</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="2">
+        <v>26</v>
+      </c>
+      <c r="B121" s="2">
+        <f t="shared" si="7"/>
+        <v>6084</v>
+      </c>
+      <c r="C121" s="2">
+        <f t="shared" si="8"/>
+        <v>4578</v>
+      </c>
+      <c r="D121" s="2">
+        <f t="shared" si="9"/>
+        <v>10662</v>
+      </c>
+      <c r="E121" s="2">
+        <v>35</v>
+      </c>
+      <c r="F121" s="2">
+        <f t="shared" si="10"/>
+        <v>304.628571428571</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="2">
+        <v>27</v>
+      </c>
+      <c r="B122" s="2">
+        <f t="shared" si="7"/>
+        <v>6561</v>
+      </c>
+      <c r="C122" s="2">
+        <f t="shared" si="8"/>
+        <v>4881</v>
+      </c>
+      <c r="D122" s="2">
+        <f t="shared" si="9"/>
+        <v>11442</v>
+      </c>
+      <c r="E122" s="2">
+        <v>40</v>
+      </c>
+      <c r="F122" s="2">
+        <f t="shared" si="10"/>
+        <v>286.05</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="2">
+        <v>28</v>
+      </c>
+      <c r="B123" s="2">
+        <f t="shared" si="7"/>
+        <v>7840</v>
+      </c>
+      <c r="C123" s="2">
+        <f t="shared" si="8"/>
+        <v>5770</v>
+      </c>
+      <c r="D123" s="2">
+        <f t="shared" si="9"/>
+        <v>13610</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45</v>
+      </c>
+      <c r="F123" s="2">
+        <f t="shared" si="10"/>
+        <v>302.444444444444</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="2">
+        <v>29</v>
+      </c>
+      <c r="B124" s="2">
+        <f t="shared" si="7"/>
+        <v>8410</v>
+      </c>
+      <c r="C124" s="2">
+        <f t="shared" si="8"/>
+        <v>6125</v>
+      </c>
+      <c r="D124" s="2">
+        <f t="shared" si="9"/>
+        <v>14535</v>
+      </c>
+      <c r="E124" s="2">
+        <v>50</v>
+      </c>
+      <c r="F124" s="2">
+        <f t="shared" si="10"/>
+        <v>290.7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="2">
+        <v>30</v>
+      </c>
+      <c r="B125" s="2">
+        <f t="shared" si="7"/>
+        <v>9000</v>
+      </c>
+      <c r="C125" s="2">
+        <f t="shared" si="8"/>
+        <v>6488</v>
+      </c>
+      <c r="D125" s="2">
+        <f t="shared" si="9"/>
+        <v>15488</v>
+      </c>
+      <c r="E125" s="2">
+        <v>55</v>
+      </c>
+      <c r="F125" s="2">
+        <f t="shared" si="10"/>
+        <v>281.6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="2">
+        <v>31</v>
+      </c>
+      <c r="B126" s="2">
+        <f t="shared" si="7"/>
+        <v>10571</v>
+      </c>
+      <c r="C126" s="2">
+        <f t="shared" si="8"/>
+        <v>7546</v>
+      </c>
+      <c r="D126" s="2">
+        <f t="shared" si="9"/>
+        <v>18117</v>
+      </c>
+      <c r="E126" s="2">
+        <v>60</v>
+      </c>
+      <c r="F126" s="2">
+        <f t="shared" si="10"/>
+        <v>301.95</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="2">
+        <v>32</v>
+      </c>
+      <c r="B127" s="2">
+        <f t="shared" si="7"/>
+        <v>11264</v>
+      </c>
+      <c r="C127" s="2">
+        <f t="shared" si="8"/>
+        <v>7964</v>
+      </c>
+      <c r="D127" s="2">
+        <f t="shared" si="9"/>
+        <v>19228</v>
+      </c>
+      <c r="E127" s="2">
+        <v>65</v>
+      </c>
+      <c r="F127" s="2">
+        <f t="shared" si="10"/>
+        <v>295.815384615385</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="2">
+        <v>33</v>
+      </c>
+      <c r="B128" s="2">
+        <f t="shared" si="7"/>
+        <v>11979</v>
+      </c>
+      <c r="C128" s="2">
+        <f t="shared" si="8"/>
+        <v>8392</v>
+      </c>
+      <c r="D128" s="2">
+        <f t="shared" si="9"/>
+        <v>20371</v>
+      </c>
+      <c r="E128" s="2">
+        <v>70</v>
+      </c>
+      <c r="F128" s="2">
+        <f t="shared" si="10"/>
+        <v>291.014285714286</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="2">
+        <v>34</v>
+      </c>
+      <c r="B129" s="2">
+        <f t="shared" si="7"/>
+        <v>13872</v>
+      </c>
+      <c r="C129" s="2">
+        <f t="shared" si="8"/>
+        <v>9632</v>
+      </c>
+      <c r="D129" s="2">
+        <f t="shared" si="9"/>
+        <v>23504</v>
+      </c>
+      <c r="E129" s="2">
+        <v>75</v>
+      </c>
+      <c r="F129" s="2">
+        <f t="shared" si="10"/>
+        <v>313.386666666667</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="2">
+        <v>35</v>
+      </c>
+      <c r="B130" s="2">
+        <f t="shared" si="7"/>
+        <v>14700</v>
+      </c>
+      <c r="C130" s="2">
+        <f t="shared" si="8"/>
+        <v>10118</v>
+      </c>
+      <c r="D130" s="2">
+        <f t="shared" si="9"/>
+        <v>24818</v>
+      </c>
+      <c r="E130" s="2">
+        <v>80</v>
+      </c>
+      <c r="F130" s="2">
+        <f t="shared" si="10"/>
+        <v>310.225</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B132" s="2">
+        <f>SUM(B96:B130)</f>
+        <v>137406</v>
+      </c>
+      <c r="C132" s="2">
+        <f>SUM(C96:C130)</f>
+        <v>101903</v>
+      </c>
+      <c r="D132" s="2">
+        <f>SUM(D96:D130)</f>
+        <v>239309</v>
+      </c>
+      <c r="E132" s="2">
+        <f>SUM(E96:E130)</f>
+        <v>857.25</v>
       </c>
     </row>
   </sheetData>
@@ -2215,7 +3673,7 @@
   <sheetData>
     <row r="12" ht="219" customHeight="1" spans="1:1">
       <c r="A12" s="5" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2246,22 +3704,22 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" ht="27" spans="1:6">
       <c r="A1" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="273" customHeight="1" spans="1:6">
@@ -2269,38 +3727,38 @@
         <v>10000</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" ht="119" customHeight="1" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2309,13 +3767,13 @@
     <row r="5" ht="118" customHeight="1" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -2349,13 +3807,13 @@
         <v>1000</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2363,13 +3821,13 @@
         <v>1001</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2377,13 +3835,13 @@
         <v>1002</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -2393,28 +3851,28 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" ht="28.5" spans="2:3">
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2442,10 +3900,10 @@
   <sheetData>
     <row r="5" spans="2:3">
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2453,10 +3911,10 @@
         <v>100</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2464,10 +3922,10 @@
         <v>101</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2475,10 +3933,10 @@
         <v>102</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2486,10 +3944,10 @@
         <v>103</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2497,10 +3955,10 @@
         <v>104</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2508,18 +3966,18 @@
         <v>105</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" ht="28.5" spans="2:3">
       <c r="B20" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2545,32 +4003,32 @@
   <sheetData>
     <row r="7" ht="66" customHeight="1" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:1">
       <c r="A8" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" ht="43" customHeight="1" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" ht="51" customHeight="1" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" ht="98" customHeight="1" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" ht="56" customHeight="1"/>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -103,6 +103,9 @@
     <t>？？？</t>
   </si>
   <si>
+    <t>攻击力</t>
+  </si>
+  <si>
     <t>当前攻击力=初始攻击力+(等级-1)*成长系数</t>
   </si>
   <si>
@@ -124,12 +127,12 @@
     <t>攻击力成长系数</t>
   </si>
   <si>
-    <t>攻击力</t>
-  </si>
-  <si>
     <t>消耗</t>
   </si>
   <si>
+    <t>攻速</t>
+  </si>
+  <si>
     <t>初始攻速</t>
   </si>
   <si>
@@ -139,7 +142,7 @@
     <t>攻速成长系数</t>
   </si>
   <si>
-    <t>攻速</t>
+    <t>产出</t>
   </si>
   <si>
     <t>攻击消耗</t>
@@ -362,7 +365,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +381,12 @@
     </font>
     <font>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="方正粗黑宋简体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="方正粗黑宋简体"/>
       <charset val="134"/>
@@ -545,7 +554,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -585,6 +594,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,12 +672,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,137 +904,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1050,6 +1065,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1065,10 +1083,16 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1390,13 +1414,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="27" style="15" customWidth="1"/>
+    <col min="2" max="2" width="27" style="18" customWidth="1"/>
     <col min="3" max="3" width="105.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="114.125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="114.125" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="140" customHeight="1" spans="2:3">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1404,7 +1428,7 @@
       </c>
     </row>
     <row r="4" ht="101" customHeight="1" spans="2:3">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1412,7 +1436,7 @@
       </c>
     </row>
     <row r="5" ht="101" customHeight="1" spans="2:3">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1420,7 +1444,7 @@
       </c>
     </row>
     <row r="6" ht="103" customHeight="1" spans="2:3">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1428,7 +1452,7 @@
       </c>
     </row>
     <row r="7" ht="100" customHeight="1" spans="2:3">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1436,7 +1460,7 @@
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="18" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1452,10 +1476,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F132"/>
+  <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1469,16 +1493,21 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
+    <row r="1" ht="28.5" spans="1:1">
+      <c r="A1" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -1486,38 +1515,38 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="A6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="12">
         <v>2</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2116,9 +2145,14 @@
         <v>14700</v>
       </c>
     </row>
+    <row r="44" ht="28.5" spans="1:1">
+      <c r="A44" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B45" s="4">
         <v>450</v>
@@ -2126,7 +2160,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B46" s="4">
         <v>1</v>
@@ -2134,43 +2168,43 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="13"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="14"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B48" s="2">
         <v>2</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="13"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="14"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="11">
+      <c r="A49" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="12">
         <v>1.7</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="13"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" s="12" t="s">
+      <c r="A50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="C50" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2769,24 +2803,29 @@
         <v>10118</v>
       </c>
     </row>
+    <row r="94" ht="28.5" spans="1:1">
+      <c r="A94" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B95" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C95" s="12" t="s">
+      <c r="A95" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D95" s="14" t="s">
+      <c r="C95" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="D95" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="E95" s="17" t="s">
         <v>29</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3166,11 +3205,11 @@
         <v>2873</v>
       </c>
       <c r="E111" s="2">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="F111" s="2">
         <f t="shared" si="10"/>
-        <v>229.84</v>
+        <v>239.416666666667</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3190,11 +3229,11 @@
         <v>3216</v>
       </c>
       <c r="E112" s="2">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="F112" s="2">
         <f t="shared" si="10"/>
-        <v>221.793103448276</v>
+        <v>238.222222222222</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3214,11 +3253,11 @@
         <v>3577</v>
       </c>
       <c r="E113" s="2">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="F113" s="2">
         <f t="shared" si="10"/>
-        <v>216.787878787879</v>
+        <v>238.466666666667</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3238,11 +3277,11 @@
         <v>4616</v>
       </c>
       <c r="E114" s="2">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="F114" s="2">
         <f t="shared" si="10"/>
-        <v>249.513513513514</v>
+        <v>279.757575757576</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3262,11 +3301,11 @@
         <v>5079</v>
       </c>
       <c r="E115" s="2">
-        <v>20.5</v>
+        <v>18</v>
       </c>
       <c r="F115" s="2">
         <f t="shared" si="10"/>
-        <v>247.756097560976</v>
+        <v>282.166666666667</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3286,11 +3325,11 @@
         <v>5563</v>
       </c>
       <c r="E116" s="2">
-        <v>22.5</v>
+        <v>19.5</v>
       </c>
       <c r="F116" s="2">
         <f t="shared" si="10"/>
-        <v>247.244444444444</v>
+        <v>285.282051282051</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3310,11 +3349,11 @@
         <v>6935</v>
       </c>
       <c r="E117" s="2">
-        <v>24.5</v>
+        <v>21</v>
       </c>
       <c r="F117" s="2">
         <f t="shared" si="10"/>
-        <v>283.061224489796</v>
+        <v>330.238095238095</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3334,11 +3373,11 @@
         <v>7536</v>
       </c>
       <c r="E118" s="2">
-        <v>26.5</v>
+        <v>22.5</v>
       </c>
       <c r="F118" s="2">
         <f t="shared" si="10"/>
-        <v>284.377358490566</v>
+        <v>334.933333333333</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3358,11 +3397,11 @@
         <v>8160</v>
       </c>
       <c r="E119" s="2">
-        <v>28.5</v>
+        <v>24</v>
       </c>
       <c r="F119" s="2">
         <f t="shared" si="10"/>
-        <v>286.315789473684</v>
+        <v>340</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3382,11 +3421,11 @@
         <v>9908</v>
       </c>
       <c r="E120" s="2">
-        <v>30.5</v>
+        <v>25.5</v>
       </c>
       <c r="F120" s="2">
         <f t="shared" si="10"/>
-        <v>324.852459016393</v>
+        <v>388.549019607843</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3406,11 +3445,11 @@
         <v>10662</v>
       </c>
       <c r="E121" s="2">
-        <v>35</v>
+        <v>27.5</v>
       </c>
       <c r="F121" s="2">
         <f t="shared" si="10"/>
-        <v>304.628571428571</v>
+        <v>387.709090909091</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3430,11 +3469,11 @@
         <v>11442</v>
       </c>
       <c r="E122" s="2">
-        <v>40</v>
+        <v>29.5</v>
       </c>
       <c r="F122" s="2">
         <f t="shared" si="10"/>
-        <v>286.05</v>
+        <v>387.864406779661</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3454,11 +3493,11 @@
         <v>13610</v>
       </c>
       <c r="E123" s="2">
-        <v>45</v>
+        <v>31.5</v>
       </c>
       <c r="F123" s="2">
         <f t="shared" si="10"/>
-        <v>302.444444444444</v>
+        <v>432.063492063492</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3478,11 +3517,11 @@
         <v>14535</v>
       </c>
       <c r="E124" s="2">
-        <v>50</v>
+        <v>33.5</v>
       </c>
       <c r="F124" s="2">
         <f t="shared" si="10"/>
-        <v>290.7</v>
+        <v>433.880597014925</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3502,11 +3541,11 @@
         <v>15488</v>
       </c>
       <c r="E125" s="2">
-        <v>55</v>
+        <v>35.5</v>
       </c>
       <c r="F125" s="2">
         <f t="shared" si="10"/>
-        <v>281.6</v>
+        <v>436.281690140845</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3526,11 +3565,11 @@
         <v>18117</v>
       </c>
       <c r="E126" s="2">
-        <v>60</v>
+        <v>37.5</v>
       </c>
       <c r="F126" s="2">
         <f t="shared" si="10"/>
-        <v>301.95</v>
+        <v>483.12</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3550,11 +3589,11 @@
         <v>19228</v>
       </c>
       <c r="E127" s="2">
-        <v>65</v>
+        <v>39.5</v>
       </c>
       <c r="F127" s="2">
         <f t="shared" si="10"/>
-        <v>295.815384615385</v>
+        <v>486.784810126582</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3574,11 +3613,11 @@
         <v>20371</v>
       </c>
       <c r="E128" s="2">
-        <v>70</v>
+        <v>41.5</v>
       </c>
       <c r="F128" s="2">
         <f t="shared" si="10"/>
-        <v>291.014285714286</v>
+        <v>490.867469879518</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3598,11 +3637,11 @@
         <v>23504</v>
       </c>
       <c r="E129" s="2">
-        <v>75</v>
+        <v>43.5</v>
       </c>
       <c r="F129" s="2">
         <f t="shared" si="10"/>
-        <v>313.386666666667</v>
+        <v>540.32183908046</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3622,16 +3661,16 @@
         <v>24818</v>
       </c>
       <c r="E130" s="2">
-        <v>80</v>
+        <v>45.5</v>
       </c>
       <c r="F130" s="2">
         <f t="shared" si="10"/>
-        <v>310.225</v>
+        <v>545.450549450549</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B132" s="2">
         <f>SUM(B96:B130)</f>
@@ -3647,7 +3686,7 @@
       </c>
       <c r="E132" s="2">
         <f>SUM(E96:E130)</f>
-        <v>857.25</v>
+        <v>619.75</v>
       </c>
     </row>
   </sheetData>
@@ -3673,7 +3712,7 @@
   <sheetData>
     <row r="12" ht="219" customHeight="1" spans="1:1">
       <c r="A12" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3704,22 +3743,22 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" ht="27" spans="1:6">
       <c r="A1" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="273" customHeight="1" spans="1:6">
@@ -3727,38 +3766,38 @@
         <v>10000</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" ht="119" customHeight="1" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3767,13 +3806,13 @@
     <row r="5" ht="118" customHeight="1" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -3807,13 +3846,13 @@
         <v>1000</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3821,13 +3860,13 @@
         <v>1001</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3835,13 +3874,13 @@
         <v>1002</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -3851,28 +3890,28 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" ht="28.5" spans="2:3">
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3900,10 +3939,10 @@
   <sheetData>
     <row r="5" spans="2:3">
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3911,10 +3950,10 @@
         <v>100</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3922,10 +3961,10 @@
         <v>101</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3933,10 +3972,10 @@
         <v>102</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3944,10 +3983,10 @@
         <v>103</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3955,10 +3994,10 @@
         <v>104</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3966,18 +4005,18 @@
         <v>105</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" ht="28.5" spans="2:3">
       <c r="B20" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4003,32 +4042,32 @@
   <sheetData>
     <row r="7" ht="66" customHeight="1" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:1">
       <c r="A8" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" ht="43" customHeight="1" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" ht="51" customHeight="1" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" ht="98" customHeight="1" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" ht="56" customHeight="1"/>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26910" windowHeight="13170" activeTab="1"/>
+    <workbookView windowWidth="28620" windowHeight="15540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -142,6 +142,12 @@
     <t>攻速成长系数</t>
   </si>
   <si>
+    <t>难度曲线</t>
+  </si>
+  <si>
+    <t>秒伤</t>
+  </si>
+  <si>
     <t>产出</t>
   </si>
   <si>
@@ -303,7 +309,7 @@
     <t>方</t>
   </si>
   <si>
-    <t>比普通怪物血量的2倍</t>
+    <t>是普通怪物血量的2倍</t>
   </si>
   <si>
     <t>三角</t>
@@ -1476,10 +1482,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F132"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H129" sqref="H129"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C80" sqref="C80:D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2803,889 +2809,1217 @@
         <v>10118</v>
       </c>
     </row>
-    <row r="94" ht="28.5" spans="1:1">
-      <c r="A94" s="10" t="s">
+    <row r="88" ht="28.5" spans="1:1">
+      <c r="A88" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="16" t="s">
+    <row r="89" spans="1:2">
+      <c r="A89" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="B89" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C95" s="16" t="s">
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="2">
+        <v>1</v>
+      </c>
+      <c r="B90" s="2">
+        <f>C8/(C51/1000)</f>
+        <v>2.22222222222222</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="2">
+        <v>2</v>
+      </c>
+      <c r="B91" s="2">
+        <f t="shared" ref="B91:B124" si="7">C9/(C52/1000)</f>
+        <v>4.48888888888889</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2">
+        <v>3</v>
+      </c>
+      <c r="B92" s="2">
+        <f t="shared" si="7"/>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2">
+        <v>4</v>
+      </c>
+      <c r="B93" s="2">
+        <f t="shared" si="7"/>
+        <v>16.4888888888889</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2">
+        <v>5</v>
+      </c>
+      <c r="B94" s="2">
+        <f t="shared" si="7"/>
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2">
+        <v>6</v>
+      </c>
+      <c r="B95" s="2">
+        <f t="shared" si="7"/>
+        <v>26.8888888888889</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2">
+        <v>7</v>
+      </c>
+      <c r="B96" s="2">
+        <f t="shared" si="7"/>
+        <v>49.8222222222222</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2">
+        <v>8</v>
+      </c>
+      <c r="B97" s="2">
+        <f t="shared" si="7"/>
+        <v>59.1555555555556</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2">
+        <v>9</v>
+      </c>
+      <c r="B98" s="2">
+        <f t="shared" si="7"/>
+        <v>68.8888888888889</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2">
+        <v>10</v>
+      </c>
+      <c r="B99" s="2">
+        <f t="shared" si="7"/>
+        <v>111.822222222222</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2">
+        <v>11</v>
+      </c>
+      <c r="B100" s="2">
+        <f t="shared" si="7"/>
+        <v>127.555555555556</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="2">
+        <v>12</v>
+      </c>
+      <c r="B101" s="2">
+        <f t="shared" si="7"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="2">
+        <v>13</v>
+      </c>
+      <c r="B102" s="2">
+        <f t="shared" si="7"/>
+        <v>216.888888888889</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="2">
+        <v>14</v>
+      </c>
+      <c r="B103" s="2">
+        <f t="shared" si="7"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="2">
+        <v>15</v>
+      </c>
+      <c r="B104" s="2">
+        <f t="shared" si="7"/>
+        <v>268.222222222222</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="2">
+        <v>16</v>
+      </c>
+      <c r="B105" s="2">
+        <f t="shared" si="7"/>
+        <v>384.222222222222</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="2">
+        <v>17</v>
+      </c>
+      <c r="B106" s="2">
+        <f t="shared" si="7"/>
+        <v>422.488888888889</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="2">
+        <v>18</v>
+      </c>
+      <c r="B107" s="2">
+        <f t="shared" si="7"/>
+        <v>462.355555555556</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="2">
+        <v>19</v>
+      </c>
+      <c r="B108" s="2">
+        <f t="shared" si="7"/>
+        <v>637.822222222222</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2">
+        <v>20</v>
+      </c>
+      <c r="B109" s="2">
+        <f t="shared" si="7"/>
+        <v>693.822222222222</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2">
+        <v>21</v>
+      </c>
+      <c r="B110" s="2">
+        <f t="shared" si="7"/>
+        <v>752</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="2">
+        <v>22</v>
+      </c>
+      <c r="B111" s="2">
+        <f t="shared" si="7"/>
+        <v>1006.48888888889</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2">
+        <v>23</v>
+      </c>
+      <c r="B112" s="2">
+        <f t="shared" si="7"/>
+        <v>1085.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2">
+        <v>24</v>
+      </c>
+      <c r="B113" s="2">
+        <f t="shared" si="7"/>
+        <v>1167.55555555556</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2">
+        <v>25</v>
+      </c>
+      <c r="B114" s="2">
+        <f t="shared" si="7"/>
+        <v>1523.82222222222</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2">
+        <v>26</v>
+      </c>
+      <c r="B115" s="2">
+        <f t="shared" si="7"/>
+        <v>1632.22222222222</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="2">
         <v>27</v>
       </c>
-      <c r="D95" s="17" t="s">
+      <c r="B116" s="2">
+        <f t="shared" si="7"/>
+        <v>1744.22222222222</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2">
         <v>28</v>
       </c>
-      <c r="E95" s="17" t="s">
+      <c r="B117" s="2">
+        <f t="shared" si="7"/>
+        <v>2228.22222222222</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="2">
         <v>29</v>
       </c>
-      <c r="F95" s="17" t="s">
+      <c r="B118" s="2">
+        <f t="shared" si="7"/>
+        <v>2372.88888888889</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="2">
+      <c r="B119" s="2">
+        <f t="shared" si="7"/>
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="2">
+        <v>31</v>
+      </c>
+      <c r="B120" s="2">
+        <f t="shared" si="7"/>
+        <v>3162.88888888889</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2">
+        <v>32</v>
+      </c>
+      <c r="B121" s="2">
+        <f t="shared" si="7"/>
+        <v>3351.6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2">
+        <v>33</v>
+      </c>
+      <c r="B122" s="2">
+        <f t="shared" si="7"/>
+        <v>3545.68888888889</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2">
+        <v>34</v>
+      </c>
+      <c r="B123" s="2">
+        <f t="shared" si="7"/>
+        <v>4375.82222222222</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2">
+        <v>35</v>
+      </c>
+      <c r="B124" s="2">
+        <f t="shared" si="7"/>
+        <v>4617.15555555556</v>
+      </c>
+    </row>
+    <row r="129" ht="28.5" spans="1:1">
+      <c r="A129" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E130" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F130" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="2">
         <v>1</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B131" s="2">
         <f>D8</f>
         <v>1</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C131" s="2">
         <f>D51</f>
         <v>2</v>
       </c>
-      <c r="D96" s="2">
-        <f>B96+C96</f>
+      <c r="D131" s="2">
+        <f>B131+C131</f>
         <v>3</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E131" s="2">
         <v>0.5</v>
       </c>
-      <c r="F96" s="2">
-        <f>D96/E96</f>
+      <c r="F131" s="2">
+        <f>D131/E131</f>
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="2">
+    <row r="132" spans="1:6">
+      <c r="A132" s="2">
         <v>2</v>
       </c>
-      <c r="B97" s="2">
-        <f t="shared" ref="B97:B130" si="7">D9</f>
+      <c r="B132" s="2">
+        <f t="shared" ref="B132:B165" si="8">D9</f>
         <v>4</v>
       </c>
-      <c r="C97" s="2">
-        <f t="shared" ref="C97:C130" si="8">D52</f>
+      <c r="C132" s="2">
+        <f t="shared" ref="C132:C165" si="9">D52</f>
         <v>6</v>
       </c>
-      <c r="D97" s="2">
-        <f t="shared" ref="D97:D130" si="9">B97+C97</f>
+      <c r="D132" s="2">
+        <f t="shared" ref="D132:D165" si="10">B132+C132</f>
         <v>10</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E132" s="2">
         <v>0.75</v>
       </c>
-      <c r="F97" s="2">
-        <f t="shared" ref="F97:F130" si="10">D97/E97</f>
+      <c r="F132" s="2">
+        <f t="shared" ref="F132:F165" si="11">D132/E132</f>
         <v>13.3333333333333</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="2">
+    <row r="133" spans="1:6">
+      <c r="A133" s="2">
         <v>3</v>
       </c>
-      <c r="B98" s="2">
-        <f t="shared" si="7"/>
+      <c r="B133" s="2">
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="C98" s="2">
-        <f t="shared" si="8"/>
+      <c r="C133" s="2">
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="D98" s="2">
-        <f t="shared" si="9"/>
-        <v>21</v>
-      </c>
-      <c r="E98" s="2">
-        <v>1</v>
-      </c>
-      <c r="F98" s="2">
+      <c r="D133" s="2">
         <f t="shared" si="10"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="2">
+      <c r="E133" s="2">
+        <v>1</v>
+      </c>
+      <c r="F133" s="2">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="2">
         <v>4</v>
       </c>
-      <c r="B99" s="2">
-        <f t="shared" si="7"/>
+      <c r="B134" s="2">
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C134" s="2">
+        <f t="shared" si="9"/>
+        <v>42</v>
+      </c>
+      <c r="D134" s="2">
+        <f t="shared" si="10"/>
+        <v>74</v>
+      </c>
+      <c r="E134" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F134" s="2">
+        <f t="shared" si="11"/>
+        <v>49.3333333333333</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="2">
+        <v>5</v>
+      </c>
+      <c r="B135" s="2">
         <f t="shared" si="8"/>
-        <v>42</v>
-      </c>
-      <c r="D99" s="2">
+        <v>50</v>
+      </c>
+      <c r="C135" s="2">
         <f t="shared" si="9"/>
-        <v>74</v>
-      </c>
-      <c r="E99" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="F99" s="2">
+        <v>61</v>
+      </c>
+      <c r="D135" s="2">
         <f t="shared" si="10"/>
-        <v>49.3333333333333</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="2">
-        <v>5</v>
-      </c>
-      <c r="B100" s="2">
-        <f t="shared" si="7"/>
-        <v>50</v>
-      </c>
-      <c r="C100" s="2">
+        <v>111</v>
+      </c>
+      <c r="E135" s="2">
+        <v>2</v>
+      </c>
+      <c r="F135" s="2">
+        <f t="shared" si="11"/>
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="2">
+        <v>6</v>
+      </c>
+      <c r="B136" s="2">
         <f t="shared" si="8"/>
-        <v>61</v>
-      </c>
-      <c r="D100" s="2">
+        <v>72</v>
+      </c>
+      <c r="C136" s="2">
         <f t="shared" si="9"/>
-        <v>111</v>
-      </c>
-      <c r="E100" s="2">
-        <v>2</v>
-      </c>
-      <c r="F100" s="2">
+        <v>84</v>
+      </c>
+      <c r="D136" s="2">
         <f t="shared" si="10"/>
-        <v>55.5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="2">
-        <v>6</v>
-      </c>
-      <c r="B101" s="2">
-        <f t="shared" si="7"/>
-        <v>72</v>
-      </c>
-      <c r="C101" s="2">
+        <v>156</v>
+      </c>
+      <c r="E136" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F136" s="2">
+        <f t="shared" si="11"/>
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="2">
+        <v>7</v>
+      </c>
+      <c r="B137" s="2">
         <f t="shared" si="8"/>
-        <v>84</v>
-      </c>
-      <c r="D101" s="2">
+        <v>147</v>
+      </c>
+      <c r="C137" s="2">
         <f t="shared" si="9"/>
-        <v>156</v>
-      </c>
-      <c r="E101" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="F101" s="2">
+        <v>163</v>
+      </c>
+      <c r="D137" s="2">
         <f t="shared" si="10"/>
-        <v>62.4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="2">
-        <v>7</v>
-      </c>
-      <c r="B102" s="2">
-        <f t="shared" si="7"/>
-        <v>147</v>
-      </c>
-      <c r="C102" s="2">
+        <v>310</v>
+      </c>
+      <c r="E137" s="2">
+        <v>3</v>
+      </c>
+      <c r="F137" s="2">
+        <f t="shared" si="11"/>
+        <v>103.333333333333</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="2">
+        <v>8</v>
+      </c>
+      <c r="B138" s="2">
         <f t="shared" si="8"/>
-        <v>163</v>
-      </c>
-      <c r="D102" s="2">
+        <v>192</v>
+      </c>
+      <c r="C138" s="2">
         <f t="shared" si="9"/>
-        <v>310</v>
-      </c>
-      <c r="E102" s="2">
-        <v>3</v>
-      </c>
-      <c r="F102" s="2">
+        <v>205</v>
+      </c>
+      <c r="D138" s="2">
         <f t="shared" si="10"/>
-        <v>103.333333333333</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="2">
-        <v>8</v>
-      </c>
-      <c r="B103" s="2">
-        <f t="shared" si="7"/>
-        <v>192</v>
-      </c>
-      <c r="C103" s="2">
+        <v>397</v>
+      </c>
+      <c r="E138" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F138" s="2">
+        <f t="shared" si="11"/>
+        <v>113.428571428571</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="2">
+        <v>9</v>
+      </c>
+      <c r="B139" s="2">
         <f t="shared" si="8"/>
-        <v>205</v>
-      </c>
-      <c r="D103" s="2">
+        <v>243</v>
+      </c>
+      <c r="C139" s="2">
         <f t="shared" si="9"/>
-        <v>397</v>
-      </c>
-      <c r="E103" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="F103" s="2">
+        <v>251</v>
+      </c>
+      <c r="D139" s="2">
         <f t="shared" si="10"/>
-        <v>113.428571428571</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="2">
-        <v>9</v>
-      </c>
-      <c r="B104" s="2">
-        <f t="shared" si="7"/>
-        <v>243</v>
-      </c>
-      <c r="C104" s="2">
-        <f t="shared" si="8"/>
-        <v>251</v>
-      </c>
-      <c r="D104" s="2">
-        <f t="shared" si="9"/>
         <v>494</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E139" s="2">
         <v>4.5</v>
       </c>
-      <c r="F104" s="2">
-        <f t="shared" si="10"/>
+      <c r="F139" s="2">
+        <f t="shared" si="11"/>
         <v>109.777777777778</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="2">
+    <row r="140" spans="1:6">
+      <c r="A140" s="2">
         <v>10</v>
       </c>
-      <c r="B105" s="2">
-        <f t="shared" si="7"/>
-        <v>400</v>
-      </c>
-      <c r="C105" s="2">
+      <c r="B140" s="2">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
-      <c r="D105" s="2">
+      <c r="C140" s="2">
         <f t="shared" si="9"/>
+        <v>400</v>
+      </c>
+      <c r="D140" s="2">
+        <f t="shared" si="10"/>
         <v>800</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E140" s="2">
         <v>5.5</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F140" s="2">
+        <f t="shared" si="11"/>
+        <v>145.454545454545</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="2">
+        <v>11</v>
+      </c>
+      <c r="B141" s="2">
+        <f t="shared" si="8"/>
+        <v>484</v>
+      </c>
+      <c r="C141" s="2">
+        <f t="shared" si="9"/>
+        <v>471</v>
+      </c>
+      <c r="D141" s="2">
         <f t="shared" si="10"/>
-        <v>145.454545454545</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="2">
-        <v>11</v>
-      </c>
-      <c r="B106" s="2">
-        <f t="shared" si="7"/>
-        <v>484</v>
-      </c>
-      <c r="C106" s="2">
+        <v>955</v>
+      </c>
+      <c r="E141" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F141" s="2">
+        <f t="shared" si="11"/>
+        <v>146.923076923077</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="2">
+        <v>12</v>
+      </c>
+      <c r="B142" s="2">
         <f t="shared" si="8"/>
-        <v>471</v>
-      </c>
-      <c r="D106" s="2">
+        <v>576</v>
+      </c>
+      <c r="C142" s="2">
         <f t="shared" si="9"/>
-        <v>955</v>
-      </c>
-      <c r="E106" s="2">
-        <v>6.5</v>
-      </c>
-      <c r="F106" s="2">
+        <v>546</v>
+      </c>
+      <c r="D142" s="2">
         <f t="shared" si="10"/>
-        <v>146.923076923077</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="2">
+        <v>1122</v>
+      </c>
+      <c r="E142" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F142" s="2">
+        <f t="shared" si="11"/>
+        <v>149.6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="2">
+        <v>13</v>
+      </c>
+      <c r="B143" s="2">
+        <f t="shared" si="8"/>
+        <v>845</v>
+      </c>
+      <c r="C143" s="2">
+        <f t="shared" si="9"/>
+        <v>782</v>
+      </c>
+      <c r="D143" s="2">
+        <f t="shared" si="10"/>
+        <v>1627</v>
+      </c>
+      <c r="E143" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="F143" s="2">
+        <f t="shared" si="11"/>
+        <v>191.411764705882</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="2">
+        <v>14</v>
+      </c>
+      <c r="B144" s="2">
+        <f t="shared" si="8"/>
+        <v>980</v>
+      </c>
+      <c r="C144" s="2">
+        <f t="shared" si="9"/>
+        <v>888</v>
+      </c>
+      <c r="D144" s="2">
+        <f t="shared" si="10"/>
+        <v>1868</v>
+      </c>
+      <c r="E144" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="F144" s="2">
+        <f t="shared" si="11"/>
+        <v>196.631578947368</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="2">
+        <v>15</v>
+      </c>
+      <c r="B145" s="2">
+        <f t="shared" si="8"/>
+        <v>1125</v>
+      </c>
+      <c r="C145" s="2">
+        <f t="shared" si="9"/>
+        <v>998</v>
+      </c>
+      <c r="D145" s="2">
+        <f t="shared" si="10"/>
+        <v>2123</v>
+      </c>
+      <c r="E145" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="F145" s="2">
+        <f t="shared" si="11"/>
+        <v>202.190476190476</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="2">
+        <v>16</v>
+      </c>
+      <c r="B146" s="2">
+        <f t="shared" si="8"/>
+        <v>1536</v>
+      </c>
+      <c r="C146" s="2">
+        <f t="shared" si="9"/>
+        <v>1337</v>
+      </c>
+      <c r="D146" s="2">
+        <f t="shared" si="10"/>
+        <v>2873</v>
+      </c>
+      <c r="E146" s="2">
         <v>12</v>
       </c>
-      <c r="B107" s="2">
-        <f t="shared" si="7"/>
-        <v>576</v>
-      </c>
-      <c r="C107" s="2">
+      <c r="F146" s="2">
+        <f t="shared" si="11"/>
+        <v>239.416666666667</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="2">
+        <v>17</v>
+      </c>
+      <c r="B147" s="2">
         <f t="shared" si="8"/>
-        <v>546</v>
-      </c>
-      <c r="D107" s="2">
+        <v>1734</v>
+      </c>
+      <c r="C147" s="2">
         <f t="shared" si="9"/>
-        <v>1122</v>
-      </c>
-      <c r="E107" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="F107" s="2">
+        <v>1482</v>
+      </c>
+      <c r="D147" s="2">
         <f t="shared" si="10"/>
-        <v>149.6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="2">
-        <v>13</v>
-      </c>
-      <c r="B108" s="2">
-        <f t="shared" si="7"/>
-        <v>845</v>
-      </c>
-      <c r="C108" s="2">
+        <v>3216</v>
+      </c>
+      <c r="E147" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="F147" s="2">
+        <f t="shared" si="11"/>
+        <v>238.222222222222</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="2">
+        <v>18</v>
+      </c>
+      <c r="B148" s="2">
         <f t="shared" si="8"/>
-        <v>782</v>
-      </c>
-      <c r="D108" s="2">
+        <v>1944</v>
+      </c>
+      <c r="C148" s="2">
         <f t="shared" si="9"/>
-        <v>1627</v>
-      </c>
-      <c r="E108" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="F108" s="2">
+        <v>1633</v>
+      </c>
+      <c r="D148" s="2">
         <f t="shared" si="10"/>
-        <v>191.411764705882</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="2">
-        <v>14</v>
-      </c>
-      <c r="B109" s="2">
-        <f t="shared" si="7"/>
-        <v>980</v>
-      </c>
-      <c r="C109" s="2">
+        <v>3577</v>
+      </c>
+      <c r="E148" s="2">
+        <v>15</v>
+      </c>
+      <c r="F148" s="2">
+        <f t="shared" si="11"/>
+        <v>238.466666666667</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="2">
+        <v>19</v>
+      </c>
+      <c r="B149" s="2">
         <f t="shared" si="8"/>
-        <v>888</v>
-      </c>
-      <c r="D109" s="2">
+        <v>2527</v>
+      </c>
+      <c r="C149" s="2">
         <f t="shared" si="9"/>
-        <v>1868</v>
-      </c>
-      <c r="E109" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="F109" s="2">
+        <v>2089</v>
+      </c>
+      <c r="D149" s="2">
         <f t="shared" si="10"/>
-        <v>196.631578947368</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="2">
-        <v>15</v>
-      </c>
-      <c r="B110" s="2">
-        <f t="shared" si="7"/>
-        <v>1125</v>
-      </c>
-      <c r="C110" s="2">
+        <v>4616</v>
+      </c>
+      <c r="E149" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="F149" s="2">
+        <f t="shared" si="11"/>
+        <v>279.757575757576</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="2">
+        <v>20</v>
+      </c>
+      <c r="B150" s="2">
         <f t="shared" si="8"/>
-        <v>998</v>
-      </c>
-      <c r="D110" s="2">
+        <v>2800</v>
+      </c>
+      <c r="C150" s="2">
         <f t="shared" si="9"/>
-        <v>2123</v>
-      </c>
-      <c r="E110" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="F110" s="2">
+        <v>2279</v>
+      </c>
+      <c r="D150" s="2">
         <f t="shared" si="10"/>
-        <v>202.190476190476</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="2">
-        <v>16</v>
-      </c>
-      <c r="B111" s="2">
-        <f t="shared" si="7"/>
-        <v>1536</v>
-      </c>
-      <c r="C111" s="2">
+        <v>5079</v>
+      </c>
+      <c r="E150" s="2">
+        <v>18</v>
+      </c>
+      <c r="F150" s="2">
+        <f t="shared" si="11"/>
+        <v>282.166666666667</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="2">
+        <v>21</v>
+      </c>
+      <c r="B151" s="2">
         <f t="shared" si="8"/>
-        <v>1337</v>
-      </c>
-      <c r="D111" s="2">
+        <v>3087</v>
+      </c>
+      <c r="C151" s="2">
         <f t="shared" si="9"/>
-        <v>2873</v>
-      </c>
-      <c r="E111" s="2">
-        <v>12</v>
-      </c>
-      <c r="F111" s="2">
+        <v>2476</v>
+      </c>
+      <c r="D151" s="2">
         <f t="shared" si="10"/>
-        <v>239.416666666667</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="2">
-        <v>17</v>
-      </c>
-      <c r="B112" s="2">
-        <f t="shared" si="7"/>
-        <v>1734</v>
-      </c>
-      <c r="C112" s="2">
+        <v>5563</v>
+      </c>
+      <c r="E151" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="F151" s="2">
+        <f t="shared" si="11"/>
+        <v>285.282051282051</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="2">
+        <v>22</v>
+      </c>
+      <c r="B152" s="2">
         <f t="shared" si="8"/>
-        <v>1482</v>
-      </c>
-      <c r="D112" s="2">
+        <v>3872</v>
+      </c>
+      <c r="C152" s="2">
         <f t="shared" si="9"/>
-        <v>3216</v>
-      </c>
-      <c r="E112" s="2">
-        <v>13.5</v>
-      </c>
-      <c r="F112" s="2">
+        <v>3063</v>
+      </c>
+      <c r="D152" s="2">
         <f t="shared" si="10"/>
-        <v>238.222222222222</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="2">
-        <v>18</v>
-      </c>
-      <c r="B113" s="2">
-        <f t="shared" si="7"/>
-        <v>1944</v>
-      </c>
-      <c r="C113" s="2">
+        <v>6935</v>
+      </c>
+      <c r="E152" s="2">
+        <v>21</v>
+      </c>
+      <c r="F152" s="2">
+        <f t="shared" si="11"/>
+        <v>330.238095238095</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="2">
+        <v>23</v>
+      </c>
+      <c r="B153" s="2">
         <f t="shared" si="8"/>
-        <v>1633</v>
-      </c>
-      <c r="D113" s="2">
+        <v>4232</v>
+      </c>
+      <c r="C153" s="2">
         <f t="shared" si="9"/>
-        <v>3577</v>
-      </c>
-      <c r="E113" s="2">
-        <v>15</v>
-      </c>
-      <c r="F113" s="2">
+        <v>3304</v>
+      </c>
+      <c r="D153" s="2">
         <f t="shared" si="10"/>
-        <v>238.466666666667</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="2">
-        <v>19</v>
-      </c>
-      <c r="B114" s="2">
-        <f t="shared" si="7"/>
-        <v>2527</v>
-      </c>
-      <c r="C114" s="2">
+        <v>7536</v>
+      </c>
+      <c r="E153" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="F153" s="2">
+        <f t="shared" si="11"/>
+        <v>334.933333333333</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="2">
+        <v>24</v>
+      </c>
+      <c r="B154" s="2">
         <f t="shared" si="8"/>
-        <v>2089</v>
-      </c>
-      <c r="D114" s="2">
+        <v>4608</v>
+      </c>
+      <c r="C154" s="2">
         <f t="shared" si="9"/>
-        <v>4616</v>
-      </c>
-      <c r="E114" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="F114" s="2">
+        <v>3552</v>
+      </c>
+      <c r="D154" s="2">
         <f t="shared" si="10"/>
-        <v>279.757575757576</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="2">
-        <v>20</v>
-      </c>
-      <c r="B115" s="2">
-        <f t="shared" si="7"/>
-        <v>2800</v>
-      </c>
-      <c r="C115" s="2">
+        <v>8160</v>
+      </c>
+      <c r="E154" s="2">
+        <v>24</v>
+      </c>
+      <c r="F154" s="2">
+        <f t="shared" si="11"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="2">
+        <v>25</v>
+      </c>
+      <c r="B155" s="2">
         <f t="shared" si="8"/>
-        <v>2279</v>
-      </c>
-      <c r="D115" s="2">
+        <v>5625</v>
+      </c>
+      <c r="C155" s="2">
         <f t="shared" si="9"/>
-        <v>5079</v>
-      </c>
-      <c r="E115" s="2">
-        <v>18</v>
-      </c>
-      <c r="F115" s="2">
+        <v>4283</v>
+      </c>
+      <c r="D155" s="2">
         <f t="shared" si="10"/>
-        <v>282.166666666667</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="2">
-        <v>21</v>
-      </c>
-      <c r="B116" s="2">
-        <f t="shared" si="7"/>
-        <v>3087</v>
-      </c>
-      <c r="C116" s="2">
+        <v>9908</v>
+      </c>
+      <c r="E155" s="2">
+        <v>25.5</v>
+      </c>
+      <c r="F155" s="2">
+        <f t="shared" si="11"/>
+        <v>388.549019607843</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="2">
+        <v>26</v>
+      </c>
+      <c r="B156" s="2">
         <f t="shared" si="8"/>
-        <v>2476</v>
-      </c>
-      <c r="D116" s="2">
+        <v>6084</v>
+      </c>
+      <c r="C156" s="2">
         <f t="shared" si="9"/>
-        <v>5563</v>
-      </c>
-      <c r="E116" s="2">
-        <v>19.5</v>
-      </c>
-      <c r="F116" s="2">
+        <v>4578</v>
+      </c>
+      <c r="D156" s="2">
         <f t="shared" si="10"/>
-        <v>285.282051282051</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="2">
-        <v>22</v>
-      </c>
-      <c r="B117" s="2">
-        <f t="shared" si="7"/>
-        <v>3872</v>
-      </c>
-      <c r="C117" s="2">
+        <v>10662</v>
+      </c>
+      <c r="E156" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="F156" s="2">
+        <f t="shared" si="11"/>
+        <v>387.709090909091</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="2">
+        <v>27</v>
+      </c>
+      <c r="B157" s="2">
         <f t="shared" si="8"/>
-        <v>3063</v>
-      </c>
-      <c r="D117" s="2">
+        <v>6561</v>
+      </c>
+      <c r="C157" s="2">
         <f t="shared" si="9"/>
-        <v>6935</v>
-      </c>
-      <c r="E117" s="2">
-        <v>21</v>
-      </c>
-      <c r="F117" s="2">
+        <v>4881</v>
+      </c>
+      <c r="D157" s="2">
         <f t="shared" si="10"/>
-        <v>330.238095238095</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="2">
-        <v>23</v>
-      </c>
-      <c r="B118" s="2">
-        <f t="shared" si="7"/>
-        <v>4232</v>
-      </c>
-      <c r="C118" s="2">
+        <v>11442</v>
+      </c>
+      <c r="E157" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="F157" s="2">
+        <f t="shared" si="11"/>
+        <v>387.864406779661</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="2">
+        <v>28</v>
+      </c>
+      <c r="B158" s="2">
         <f t="shared" si="8"/>
-        <v>3304</v>
-      </c>
-      <c r="D118" s="2">
+        <v>7840</v>
+      </c>
+      <c r="C158" s="2">
         <f t="shared" si="9"/>
-        <v>7536</v>
-      </c>
-      <c r="E118" s="2">
-        <v>22.5</v>
-      </c>
-      <c r="F118" s="2">
+        <v>5770</v>
+      </c>
+      <c r="D158" s="2">
         <f t="shared" si="10"/>
-        <v>334.933333333333</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="2">
-        <v>24</v>
-      </c>
-      <c r="B119" s="2">
-        <f t="shared" si="7"/>
-        <v>4608</v>
-      </c>
-      <c r="C119" s="2">
+        <v>13610</v>
+      </c>
+      <c r="E158" s="2">
+        <v>31.5</v>
+      </c>
+      <c r="F158" s="2">
+        <f t="shared" si="11"/>
+        <v>432.063492063492</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="2">
+        <v>29</v>
+      </c>
+      <c r="B159" s="2">
         <f t="shared" si="8"/>
-        <v>3552</v>
-      </c>
-      <c r="D119" s="2">
+        <v>8410</v>
+      </c>
+      <c r="C159" s="2">
         <f t="shared" si="9"/>
-        <v>8160</v>
-      </c>
-      <c r="E119" s="2">
-        <v>24</v>
-      </c>
-      <c r="F119" s="2">
+        <v>6125</v>
+      </c>
+      <c r="D159" s="2">
         <f t="shared" si="10"/>
-        <v>340</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="2">
-        <v>25</v>
-      </c>
-      <c r="B120" s="2">
-        <f t="shared" si="7"/>
-        <v>5625</v>
-      </c>
-      <c r="C120" s="2">
+        <v>14535</v>
+      </c>
+      <c r="E159" s="2">
+        <v>33.5</v>
+      </c>
+      <c r="F159" s="2">
+        <f t="shared" si="11"/>
+        <v>433.880597014925</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="2">
+        <v>30</v>
+      </c>
+      <c r="B160" s="2">
         <f t="shared" si="8"/>
-        <v>4283</v>
-      </c>
-      <c r="D120" s="2">
+        <v>9000</v>
+      </c>
+      <c r="C160" s="2">
         <f t="shared" si="9"/>
-        <v>9908</v>
-      </c>
-      <c r="E120" s="2">
-        <v>25.5</v>
-      </c>
-      <c r="F120" s="2">
+        <v>6488</v>
+      </c>
+      <c r="D160" s="2">
         <f t="shared" si="10"/>
-        <v>388.549019607843</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="2">
-        <v>26</v>
-      </c>
-      <c r="B121" s="2">
-        <f t="shared" si="7"/>
-        <v>6084</v>
-      </c>
-      <c r="C121" s="2">
+        <v>15488</v>
+      </c>
+      <c r="E160" s="2">
+        <v>35.5</v>
+      </c>
+      <c r="F160" s="2">
+        <f t="shared" si="11"/>
+        <v>436.281690140845</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="2">
+        <v>31</v>
+      </c>
+      <c r="B161" s="2">
         <f t="shared" si="8"/>
-        <v>4578</v>
-      </c>
-      <c r="D121" s="2">
+        <v>10571</v>
+      </c>
+      <c r="C161" s="2">
         <f t="shared" si="9"/>
-        <v>10662</v>
-      </c>
-      <c r="E121" s="2">
-        <v>27.5</v>
-      </c>
-      <c r="F121" s="2">
+        <v>7546</v>
+      </c>
+      <c r="D161" s="2">
         <f t="shared" si="10"/>
-        <v>387.709090909091</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="2">
-        <v>27</v>
-      </c>
-      <c r="B122" s="2">
-        <f t="shared" si="7"/>
-        <v>6561</v>
-      </c>
-      <c r="C122" s="2">
+        <v>18117</v>
+      </c>
+      <c r="E161" s="2">
+        <v>37.5</v>
+      </c>
+      <c r="F161" s="2">
+        <f t="shared" si="11"/>
+        <v>483.12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="2">
+        <v>32</v>
+      </c>
+      <c r="B162" s="2">
         <f t="shared" si="8"/>
-        <v>4881</v>
-      </c>
-      <c r="D122" s="2">
+        <v>11264</v>
+      </c>
+      <c r="C162" s="2">
         <f t="shared" si="9"/>
-        <v>11442</v>
-      </c>
-      <c r="E122" s="2">
-        <v>29.5</v>
-      </c>
-      <c r="F122" s="2">
+        <v>7964</v>
+      </c>
+      <c r="D162" s="2">
         <f t="shared" si="10"/>
-        <v>387.864406779661</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="2">
-        <v>28</v>
-      </c>
-      <c r="B123" s="2">
-        <f t="shared" si="7"/>
-        <v>7840</v>
-      </c>
-      <c r="C123" s="2">
+        <v>19228</v>
+      </c>
+      <c r="E162" s="2">
+        <v>39.5</v>
+      </c>
+      <c r="F162" s="2">
+        <f t="shared" si="11"/>
+        <v>486.784810126582</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="2">
+        <v>33</v>
+      </c>
+      <c r="B163" s="2">
         <f t="shared" si="8"/>
-        <v>5770</v>
-      </c>
-      <c r="D123" s="2">
+        <v>11979</v>
+      </c>
+      <c r="C163" s="2">
         <f t="shared" si="9"/>
-        <v>13610</v>
-      </c>
-      <c r="E123" s="2">
-        <v>31.5</v>
-      </c>
-      <c r="F123" s="2">
+        <v>8392</v>
+      </c>
+      <c r="D163" s="2">
         <f t="shared" si="10"/>
-        <v>432.063492063492</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="2">
-        <v>29</v>
-      </c>
-      <c r="B124" s="2">
-        <f t="shared" si="7"/>
-        <v>8410</v>
-      </c>
-      <c r="C124" s="2">
+        <v>20371</v>
+      </c>
+      <c r="E163" s="2">
+        <v>41.5</v>
+      </c>
+      <c r="F163" s="2">
+        <f t="shared" si="11"/>
+        <v>490.867469879518</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="2">
+        <v>34</v>
+      </c>
+      <c r="B164" s="2">
         <f t="shared" si="8"/>
-        <v>6125</v>
-      </c>
-      <c r="D124" s="2">
+        <v>13872</v>
+      </c>
+      <c r="C164" s="2">
         <f t="shared" si="9"/>
-        <v>14535</v>
-      </c>
-      <c r="E124" s="2">
-        <v>33.5</v>
-      </c>
-      <c r="F124" s="2">
+        <v>9632</v>
+      </c>
+      <c r="D164" s="2">
         <f t="shared" si="10"/>
-        <v>433.880597014925</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="2">
-        <v>30</v>
-      </c>
-      <c r="B125" s="2">
-        <f t="shared" si="7"/>
-        <v>9000</v>
-      </c>
-      <c r="C125" s="2">
+        <v>23504</v>
+      </c>
+      <c r="E164" s="2">
+        <v>43.5</v>
+      </c>
+      <c r="F164" s="2">
+        <f t="shared" si="11"/>
+        <v>540.32183908046</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="2">
+        <v>35</v>
+      </c>
+      <c r="B165" s="2">
         <f t="shared" si="8"/>
-        <v>6488</v>
-      </c>
-      <c r="D125" s="2">
+        <v>14700</v>
+      </c>
+      <c r="C165" s="2">
         <f t="shared" si="9"/>
-        <v>15488</v>
-      </c>
-      <c r="E125" s="2">
-        <v>35.5</v>
-      </c>
-      <c r="F125" s="2">
+        <v>10118</v>
+      </c>
+      <c r="D165" s="2">
         <f t="shared" si="10"/>
-        <v>436.281690140845</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="2">
-        <v>31</v>
-      </c>
-      <c r="B126" s="2">
-        <f t="shared" si="7"/>
-        <v>10571</v>
-      </c>
-      <c r="C126" s="2">
-        <f t="shared" si="8"/>
-        <v>7546</v>
-      </c>
-      <c r="D126" s="2">
-        <f t="shared" si="9"/>
-        <v>18117</v>
-      </c>
-      <c r="E126" s="2">
-        <v>37.5</v>
-      </c>
-      <c r="F126" s="2">
-        <f t="shared" si="10"/>
-        <v>483.12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="2">
-        <v>32</v>
-      </c>
-      <c r="B127" s="2">
-        <f t="shared" si="7"/>
-        <v>11264</v>
-      </c>
-      <c r="C127" s="2">
-        <f t="shared" si="8"/>
-        <v>7964</v>
-      </c>
-      <c r="D127" s="2">
-        <f t="shared" si="9"/>
-        <v>19228</v>
-      </c>
-      <c r="E127" s="2">
-        <v>39.5</v>
-      </c>
-      <c r="F127" s="2">
-        <f t="shared" si="10"/>
-        <v>486.784810126582</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="2">
+        <v>24818</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="F165" s="2">
+        <f t="shared" si="11"/>
+        <v>545.450549450549</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B128" s="2">
-        <f t="shared" si="7"/>
-        <v>11979</v>
-      </c>
-      <c r="C128" s="2">
-        <f t="shared" si="8"/>
-        <v>8392</v>
-      </c>
-      <c r="D128" s="2">
-        <f t="shared" si="9"/>
-        <v>20371</v>
-      </c>
-      <c r="E128" s="2">
-        <v>41.5</v>
-      </c>
-      <c r="F128" s="2">
-        <f t="shared" si="10"/>
-        <v>490.867469879518</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="2">
-        <v>34</v>
-      </c>
-      <c r="B129" s="2">
-        <f t="shared" si="7"/>
-        <v>13872</v>
-      </c>
-      <c r="C129" s="2">
-        <f t="shared" si="8"/>
-        <v>9632</v>
-      </c>
-      <c r="D129" s="2">
-        <f t="shared" si="9"/>
-        <v>23504</v>
-      </c>
-      <c r="E129" s="2">
-        <v>43.5</v>
-      </c>
-      <c r="F129" s="2">
-        <f t="shared" si="10"/>
-        <v>540.32183908046</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="2">
-        <v>35</v>
-      </c>
-      <c r="B130" s="2">
-        <f t="shared" si="7"/>
-        <v>14700</v>
-      </c>
-      <c r="C130" s="2">
-        <f t="shared" si="8"/>
-        <v>10118</v>
-      </c>
-      <c r="D130" s="2">
-        <f t="shared" si="9"/>
-        <v>24818</v>
-      </c>
-      <c r="E130" s="2">
-        <v>45.5</v>
-      </c>
-      <c r="F130" s="2">
-        <f t="shared" si="10"/>
-        <v>545.450549450549</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B132" s="2">
-        <f>SUM(B96:B130)</f>
+      <c r="B167" s="2">
+        <f>SUM(B131:B165)</f>
         <v>137406</v>
       </c>
-      <c r="C132" s="2">
-        <f>SUM(C96:C130)</f>
+      <c r="C167" s="2">
+        <f>SUM(C131:C165)</f>
         <v>101903</v>
       </c>
-      <c r="D132" s="2">
-        <f>SUM(D96:D130)</f>
+      <c r="D167" s="2">
+        <f>SUM(D131:D165)</f>
         <v>239309</v>
       </c>
-      <c r="E132" s="2">
-        <f>SUM(E96:E130)</f>
+      <c r="E167" s="2">
+        <f>SUM(E131:E165)</f>
         <v>619.75</v>
       </c>
     </row>
@@ -3712,7 +4046,7 @@
   <sheetData>
     <row r="12" ht="219" customHeight="1" spans="1:1">
       <c r="A12" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3743,22 +4077,22 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" ht="27" spans="1:6">
       <c r="A1" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" ht="273" customHeight="1" spans="1:6">
@@ -3766,38 +4100,38 @@
         <v>10000</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" ht="119" customHeight="1" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3806,13 +4140,13 @@
     <row r="5" ht="118" customHeight="1" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -3846,13 +4180,13 @@
         <v>1000</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3860,13 +4194,13 @@
         <v>1001</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3874,13 +4208,13 @@
         <v>1002</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -3890,28 +4224,28 @@
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" ht="28.5" spans="2:3">
       <c r="B22" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3925,8 +4259,8 @@
   <sheetPr/>
   <dimension ref="A5:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -3939,10 +4273,10 @@
   <sheetData>
     <row r="5" spans="2:3">
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3950,10 +4284,10 @@
         <v>100</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3961,10 +4295,10 @@
         <v>101</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3972,10 +4306,10 @@
         <v>102</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3983,10 +4317,10 @@
         <v>103</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3994,10 +4328,10 @@
         <v>104</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4005,18 +4339,18 @@
         <v>105</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" ht="28.5" spans="2:3">
       <c r="B20" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -4042,32 +4376,32 @@
   <sheetData>
     <row r="7" ht="66" customHeight="1" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:1">
       <c r="A8" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" ht="43" customHeight="1" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" ht="51" customHeight="1" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" ht="98" customHeight="1" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" ht="56" customHeight="1"/>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28620" windowHeight="15540" activeTab="5"/>
+    <workbookView windowWidth="28620" windowHeight="15540" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="配件" sheetId="10" r:id="rId5"/>
     <sheet name="怪物" sheetId="9" r:id="rId6"/>
     <sheet name="7.22" sheetId="12" r:id="rId7"/>
+    <sheet name="7.29" sheetId="15" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -359,6 +360,9 @@
   </si>
   <si>
     <t>游戏内部肉鸽玩法的设计及实现</t>
+  </si>
+  <si>
+    <t>技能重置功能（包括资源的返还）</t>
   </si>
 </sst>
 </file>
@@ -560,7 +564,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -588,24 +592,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,7 +902,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -940,16 +926,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -958,18 +944,30 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -979,7 +977,7 @@
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -991,7 +989,7 @@
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1003,45 +1001,36 @@
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1084,15 +1073,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1420,56 +1400,56 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="27" style="18" customWidth="1"/>
-    <col min="3" max="3" width="105.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="114.125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="27" style="16" customWidth="1"/>
+    <col min="3" max="3" width="105.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="114.125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="140" customHeight="1" spans="2:3">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="101" customHeight="1" spans="2:3">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="101" customHeight="1" spans="2:3">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="103" customHeight="1" spans="2:3">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="100" customHeight="1" spans="2:3">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1490,2535 +1470,2534 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="15.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="1:1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="13">
         <v>2</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <f>FLOOR((A8-1)/3,1)+1</f>
         <v>1</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <f>$B$3+(A8-1)*B8</f>
         <v>1</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <f>$B$5*POWER(A8,$B$6)*B8</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <f t="shared" ref="B9:B27" si="0">FLOOR((A9-1)/3,1)+1</f>
         <v>1</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <f t="shared" ref="C9:C42" si="1">$B$3+(A9-1)*B9</f>
         <v>2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <f t="shared" ref="D9:D42" si="2">$B$5*POWER(A9,$B$6)*B9</f>
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>4</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>5</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>6</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>7</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>8</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>9</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <f t="shared" si="2"/>
         <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>10</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>11</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <f t="shared" si="2"/>
         <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>12</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <f t="shared" si="2"/>
         <v>576</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>13</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <f t="shared" si="2"/>
         <v>845</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>14</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <f t="shared" si="2"/>
         <v>980</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>15</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <f t="shared" si="2"/>
         <v>1125</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>16</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="3">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="3">
         <f t="shared" si="2"/>
         <v>1536</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>17</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="3">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="3">
         <f t="shared" si="2"/>
         <v>1734</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>18</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="3">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="3">
         <f t="shared" si="2"/>
         <v>1944</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>19</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="3">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="3">
         <f t="shared" si="2"/>
         <v>2527</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>20</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="3">
         <f t="shared" si="1"/>
         <v>134</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="3">
         <f t="shared" si="2"/>
         <v>2800</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>21</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <f t="shared" ref="B28:B42" si="3">FLOOR((A28-1)/3,1)+1</f>
         <v>7</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="3">
         <f t="shared" si="1"/>
         <v>141</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="3">
         <f t="shared" si="2"/>
         <v>3087</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>22</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="3">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="3">
         <f t="shared" si="1"/>
         <v>169</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="3">
         <f t="shared" si="2"/>
         <v>3872</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>23</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="3">
         <f t="shared" si="1"/>
         <v>177</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="3">
         <f t="shared" si="2"/>
         <v>4232</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>24</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="3">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="3">
         <f t="shared" si="1"/>
         <v>185</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="3">
         <f t="shared" si="2"/>
         <v>4608</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>25</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="3">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="3">
         <f t="shared" si="1"/>
         <v>217</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="3">
         <f t="shared" si="2"/>
         <v>5625</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>26</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="3">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="3">
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="3">
         <f t="shared" si="2"/>
         <v>6084</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>27</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="3">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="3">
         <f t="shared" si="1"/>
         <v>235</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="3">
         <f t="shared" si="2"/>
         <v>6561</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>28</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="3">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="3">
         <f t="shared" si="1"/>
         <v>271</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="3">
         <f t="shared" si="2"/>
         <v>7840</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>29</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="3">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="3">
         <f t="shared" si="1"/>
         <v>281</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="3">
         <f t="shared" si="2"/>
         <v>8410</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>30</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="3">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="3">
         <f t="shared" si="1"/>
         <v>291</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="3">
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>31</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="3">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="3">
         <f t="shared" si="1"/>
         <v>331</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="3">
         <f t="shared" si="2"/>
         <v>10571</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>32</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="3">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="3">
         <f t="shared" si="1"/>
         <v>342</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="3">
         <f t="shared" si="2"/>
         <v>11264</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>33</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="3">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="3">
         <f t="shared" si="1"/>
         <v>353</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="3">
         <f t="shared" si="2"/>
         <v>11979</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>34</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="3">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="3">
         <f t="shared" si="1"/>
         <v>397</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="3">
         <f t="shared" si="2"/>
         <v>13872</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>35</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="3">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="3">
         <f t="shared" si="1"/>
         <v>409</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="3">
         <f t="shared" si="2"/>
         <v>14700</v>
       </c>
     </row>
     <row r="44" ht="28.5" spans="1:1">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="5">
         <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="14"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="3">
         <v>2</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="14"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="13">
         <v>1.7</v>
       </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="14"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="2">
+      <c r="A51" s="3">
         <v>1</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="3">
         <f>FLOOR((A51-1)/3,1)+1</f>
         <v>1</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="3">
         <f>$B$45/(1+((A51-1)*B51*$B$46)/100)</f>
         <v>450</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="3">
         <f>FLOOR($B$48*POWER(A51,$B$49)*B51,1)</f>
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <v>2</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="3">
         <f t="shared" ref="B52:B85" si="4">FLOOR((A52-1)/3,1)+1</f>
         <v>1</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="3">
         <f t="shared" ref="C52:C85" si="5">$B$45/(1+((A52-1)*B52*$B$46)/100)</f>
         <v>445.544554455446</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="3">
         <f t="shared" ref="D52:D85" si="6">FLOOR($B$48*POWER(A52,$B$49)*B52,1)</f>
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="2">
+      <c r="A53" s="3">
         <v>3</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="3">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="3">
         <f t="shared" si="5"/>
         <v>441.176470588235</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="3">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="2">
+      <c r="A54" s="3">
         <v>4</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="3">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="3">
         <f t="shared" si="5"/>
         <v>424.528301886792</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="3">
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="2">
+      <c r="A55" s="3">
         <v>5</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="3">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="3">
         <f t="shared" si="5"/>
         <v>416.666666666667</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="3">
         <f t="shared" si="6"/>
         <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="2">
+      <c r="A56" s="3">
         <v>6</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="3">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="3">
         <f t="shared" si="5"/>
         <v>409.090909090909</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="3">
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="2">
+      <c r="A57" s="3">
         <v>7</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="3">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="3">
         <f t="shared" si="5"/>
         <v>381.35593220339</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="3">
         <f t="shared" si="6"/>
         <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="2">
+      <c r="A58" s="3">
         <v>8</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="3">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="3">
         <f t="shared" si="5"/>
         <v>371.900826446281</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="3">
         <f t="shared" si="6"/>
         <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="2">
+      <c r="A59" s="3">
         <v>9</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="3">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="3">
         <f t="shared" si="5"/>
         <v>362.903225806452</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="3">
         <f t="shared" si="6"/>
         <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="2">
+      <c r="A60" s="3">
         <v>10</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="3">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="3">
         <f t="shared" si="5"/>
         <v>330.882352941177</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="3">
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="2">
+      <c r="A61" s="3">
         <v>11</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="3">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="3">
         <f t="shared" si="5"/>
         <v>321.428571428571</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="3">
         <f t="shared" si="6"/>
         <v>471</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="2">
+      <c r="A62" s="3">
         <v>12</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="3">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="3">
         <f t="shared" si="5"/>
         <v>312.5</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="3">
         <f t="shared" si="6"/>
         <v>546</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="2">
+      <c r="A63" s="3">
         <v>13</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="3">
         <f t="shared" si="5"/>
         <v>281.25</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="3">
         <f t="shared" si="6"/>
         <v>782</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="2">
+      <c r="A64" s="3">
         <v>14</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="3">
         <f t="shared" si="5"/>
         <v>272.727272727273</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="3">
         <f t="shared" si="6"/>
         <v>888</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="2">
+      <c r="A65" s="3">
         <v>15</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="3">
         <f t="shared" si="5"/>
         <v>264.705882352941</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="3">
         <f t="shared" si="6"/>
         <v>998</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="2">
+      <c r="A66" s="3">
         <v>16</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="3">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="3">
         <f t="shared" si="5"/>
         <v>236.842105263158</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="3">
         <f t="shared" si="6"/>
         <v>1337</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="2">
+      <c r="A67" s="3">
         <v>17</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="3">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="3">
         <f t="shared" si="5"/>
         <v>229.591836734694</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="3">
         <f t="shared" si="6"/>
         <v>1482</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="2">
+      <c r="A68" s="3">
         <v>18</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="3">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="3">
         <f t="shared" si="5"/>
         <v>222.772277227723</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="3">
         <f t="shared" si="6"/>
         <v>1633</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="2">
+      <c r="A69" s="3">
         <v>19</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="3">
         <f t="shared" si="5"/>
         <v>199.115044247788</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="3">
         <f t="shared" si="6"/>
         <v>2089</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="2">
+      <c r="A70" s="3">
         <v>20</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="3">
         <f t="shared" si="5"/>
         <v>193.1330472103</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="3">
         <f t="shared" si="6"/>
         <v>2279</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="2">
+      <c r="A71" s="3">
         <v>21</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="3">
         <f t="shared" si="5"/>
         <v>187.5</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="3">
         <f t="shared" si="6"/>
         <v>2476</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="2">
+      <c r="A72" s="3">
         <v>22</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="3">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="3">
         <f t="shared" si="5"/>
         <v>167.910447761194</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="3">
         <f t="shared" si="6"/>
         <v>3063</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="2">
+      <c r="A73" s="3">
         <v>23</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="3">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="3">
         <f t="shared" si="5"/>
         <v>163.04347826087</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="3">
         <f t="shared" si="6"/>
         <v>3304</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="2">
+      <c r="A74" s="3">
         <v>24</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="3">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="3">
         <f t="shared" si="5"/>
         <v>158.450704225352</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="3">
         <f t="shared" si="6"/>
         <v>3552</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="2">
+      <c r="A75" s="3">
         <v>25</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="3">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="3">
         <f t="shared" si="5"/>
         <v>142.405063291139</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="3">
         <f t="shared" si="6"/>
         <v>4283</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="2">
+      <c r="A76" s="3">
         <v>26</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="3">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="3">
         <f t="shared" si="5"/>
         <v>138.461538461538</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="3">
         <f t="shared" si="6"/>
         <v>4578</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="2">
+      <c r="A77" s="3">
         <v>27</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="3">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="3">
         <f t="shared" si="5"/>
         <v>134.730538922156</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="3">
         <f t="shared" si="6"/>
         <v>4881</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="2">
+      <c r="A78" s="3">
         <v>28</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="3">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="3">
         <f t="shared" si="5"/>
         <v>121.621621621622</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="3">
         <f t="shared" si="6"/>
         <v>5770</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="2">
+      <c r="A79" s="3">
         <v>29</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="3">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="3">
         <f t="shared" si="5"/>
         <v>118.421052631579</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="3">
         <f t="shared" si="6"/>
         <v>6125</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="2">
+      <c r="A80" s="3">
         <v>30</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="3">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="3">
         <f t="shared" si="5"/>
         <v>115.384615384615</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="3">
         <f t="shared" si="6"/>
         <v>6488</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="2">
+      <c r="A81" s="3">
         <v>31</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="3">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="3">
         <f t="shared" si="5"/>
         <v>104.651162790698</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="3">
         <f t="shared" si="6"/>
         <v>7546</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="2">
+      <c r="A82" s="3">
         <v>32</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="3">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="3">
         <f t="shared" si="5"/>
         <v>102.040816326531</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="3">
         <f t="shared" si="6"/>
         <v>7964</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="2">
+      <c r="A83" s="3">
         <v>33</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="3">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="3">
         <f t="shared" si="5"/>
         <v>99.5575221238938</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="3">
         <f t="shared" si="6"/>
         <v>8392</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="2">
+      <c r="A84" s="3">
         <v>34</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="3">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="3">
         <f t="shared" si="5"/>
         <v>90.7258064516129</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="3">
         <f t="shared" si="6"/>
         <v>9632</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="2">
+      <c r="A85" s="3">
         <v>35</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="3">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="3">
         <f t="shared" si="5"/>
         <v>88.5826771653543</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="3">
         <f t="shared" si="6"/>
         <v>10118</v>
       </c>
     </row>
     <row r="88" ht="28.5" spans="1:1">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="2">
+      <c r="A90" s="3">
         <v>1</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="3">
         <f>C8/(C51/1000)</f>
         <v>2.22222222222222</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="2">
+      <c r="A91" s="3">
         <v>2</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="3">
         <f t="shared" ref="B91:B124" si="7">C9/(C52/1000)</f>
         <v>4.48888888888889</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="2">
+      <c r="A92" s="3">
         <v>3</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="3">
         <f t="shared" si="7"/>
         <v>6.8</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="2">
+      <c r="A93" s="3">
         <v>4</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="3">
         <f t="shared" si="7"/>
         <v>16.4888888888889</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="2">
+      <c r="A94" s="3">
         <v>5</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="3">
         <f t="shared" si="7"/>
         <v>21.6</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="2">
+      <c r="A95" s="3">
         <v>6</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="3">
         <f t="shared" si="7"/>
         <v>26.8888888888889</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="2">
+      <c r="A96" s="3">
         <v>7</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="3">
         <f t="shared" si="7"/>
         <v>49.8222222222222</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="2">
+      <c r="A97" s="3">
         <v>8</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="3">
         <f t="shared" si="7"/>
         <v>59.1555555555556</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="2">
+      <c r="A98" s="3">
         <v>9</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="3">
         <f t="shared" si="7"/>
         <v>68.8888888888889</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="2">
+      <c r="A99" s="3">
         <v>10</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="3">
         <f t="shared" si="7"/>
         <v>111.822222222222</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="2">
+      <c r="A100" s="3">
         <v>11</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="3">
         <f t="shared" si="7"/>
         <v>127.555555555556</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="2">
+      <c r="A101" s="3">
         <v>12</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="3">
         <f t="shared" si="7"/>
         <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="2">
+      <c r="A102" s="3">
         <v>13</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="3">
         <f t="shared" si="7"/>
         <v>216.888888888889</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="2">
+      <c r="A103" s="3">
         <v>14</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="3">
         <f t="shared" si="7"/>
         <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="2">
+      <c r="A104" s="3">
         <v>15</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="3">
         <f t="shared" si="7"/>
         <v>268.222222222222</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="2">
+      <c r="A105" s="3">
         <v>16</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="3">
         <f t="shared" si="7"/>
         <v>384.222222222222</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="2">
+      <c r="A106" s="3">
         <v>17</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="3">
         <f t="shared" si="7"/>
         <v>422.488888888889</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="2">
+      <c r="A107" s="3">
         <v>18</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="3">
         <f t="shared" si="7"/>
         <v>462.355555555556</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="2">
+      <c r="A108" s="3">
         <v>19</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="3">
         <f t="shared" si="7"/>
         <v>637.822222222222</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="2">
+      <c r="A109" s="3">
         <v>20</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="3">
         <f t="shared" si="7"/>
         <v>693.822222222222</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="2">
+      <c r="A110" s="3">
         <v>21</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="3">
         <f t="shared" si="7"/>
         <v>752</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="2">
+      <c r="A111" s="3">
         <v>22</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="3">
         <f t="shared" si="7"/>
         <v>1006.48888888889</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="2">
+      <c r="A112" s="3">
         <v>23</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="3">
         <f t="shared" si="7"/>
         <v>1085.6</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="2">
+      <c r="A113" s="3">
         <v>24</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="3">
         <f t="shared" si="7"/>
         <v>1167.55555555556</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="2">
+      <c r="A114" s="3">
         <v>25</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="3">
         <f t="shared" si="7"/>
         <v>1523.82222222222</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="2">
+      <c r="A115" s="3">
         <v>26</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="3">
         <f t="shared" si="7"/>
         <v>1632.22222222222</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="2">
+      <c r="A116" s="3">
         <v>27</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="3">
         <f t="shared" si="7"/>
         <v>1744.22222222222</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="2">
+      <c r="A117" s="3">
         <v>28</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="3">
         <f t="shared" si="7"/>
         <v>2228.22222222222</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="2">
+      <c r="A118" s="3">
         <v>29</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="3">
         <f t="shared" si="7"/>
         <v>2372.88888888889</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="2">
+      <c r="A119" s="3">
         <v>30</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="3">
         <f t="shared" si="7"/>
         <v>2522</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="2">
+      <c r="A120" s="3">
         <v>31</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="3">
         <f t="shared" si="7"/>
         <v>3162.88888888889</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="2">
+      <c r="A121" s="3">
         <v>32</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="3">
         <f t="shared" si="7"/>
         <v>3351.6</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="2">
+      <c r="A122" s="3">
         <v>33</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="3">
         <f t="shared" si="7"/>
         <v>3545.68888888889</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="2">
+      <c r="A123" s="3">
         <v>34</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="3">
         <f t="shared" si="7"/>
         <v>4375.82222222222</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="2">
+      <c r="A124" s="3">
         <v>35</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="3">
         <f t="shared" si="7"/>
         <v>4617.15555555556</v>
       </c>
     </row>
     <row r="129" ht="28.5" spans="1:1">
-      <c r="A129" s="10" t="s">
+      <c r="A129" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="16" t="s">
+      <c r="A130" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B130" s="16" t="s">
+      <c r="B130" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C130" s="16" t="s">
+      <c r="C130" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D130" s="17" t="s">
+      <c r="D130" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E130" s="17" t="s">
+      <c r="E130" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F130" s="17" t="s">
+      <c r="F130" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="2">
+      <c r="A131" s="3">
         <v>1</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="3">
         <f>D8</f>
         <v>1</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131" s="3">
         <f>D51</f>
         <v>2</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131" s="3">
         <f>B131+C131</f>
         <v>3</v>
       </c>
-      <c r="E131" s="2">
+      <c r="E131" s="3">
         <v>0.5</v>
       </c>
-      <c r="F131" s="2">
+      <c r="F131" s="3">
         <f>D131/E131</f>
         <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="2">
+      <c r="A132" s="3">
         <v>2</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="3">
         <f t="shared" ref="B132:B165" si="8">D9</f>
         <v>4</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132" s="3">
         <f t="shared" ref="C132:C165" si="9">D52</f>
         <v>6</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D132" s="3">
         <f t="shared" ref="D132:D165" si="10">B132+C132</f>
         <v>10</v>
       </c>
-      <c r="E132" s="2">
+      <c r="E132" s="3">
         <v>0.75</v>
       </c>
-      <c r="F132" s="2">
+      <c r="F132" s="3">
         <f t="shared" ref="F132:F165" si="11">D132/E132</f>
         <v>13.3333333333333</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="2">
+      <c r="A133" s="3">
         <v>3</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="3">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133" s="3">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133" s="3">
         <f t="shared" si="10"/>
         <v>21</v>
       </c>
-      <c r="E133" s="2">
+      <c r="E133" s="3">
         <v>1</v>
       </c>
-      <c r="F133" s="2">
+      <c r="F133" s="3">
         <f t="shared" si="11"/>
         <v>21</v>
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="2">
+      <c r="A134" s="3">
         <v>4</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="3">
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134" s="3">
         <f t="shared" si="9"/>
         <v>42</v>
       </c>
-      <c r="D134" s="2">
+      <c r="D134" s="3">
         <f t="shared" si="10"/>
         <v>74</v>
       </c>
-      <c r="E134" s="2">
+      <c r="E134" s="3">
         <v>1.5</v>
       </c>
-      <c r="F134" s="2">
+      <c r="F134" s="3">
         <f t="shared" si="11"/>
         <v>49.3333333333333</v>
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="2">
+      <c r="A135" s="3">
         <v>5</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="3">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C135" s="3">
         <f t="shared" si="9"/>
         <v>61</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135" s="3">
         <f t="shared" si="10"/>
         <v>111</v>
       </c>
-      <c r="E135" s="2">
+      <c r="E135" s="3">
         <v>2</v>
       </c>
-      <c r="F135" s="2">
+      <c r="F135" s="3">
         <f t="shared" si="11"/>
         <v>55.5</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="2">
+      <c r="A136" s="3">
         <v>6</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="3">
         <f t="shared" si="8"/>
         <v>72</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136" s="3">
         <f t="shared" si="9"/>
         <v>84</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D136" s="3">
         <f t="shared" si="10"/>
         <v>156</v>
       </c>
-      <c r="E136" s="2">
+      <c r="E136" s="3">
         <v>2.5</v>
       </c>
-      <c r="F136" s="2">
+      <c r="F136" s="3">
         <f t="shared" si="11"/>
         <v>62.4</v>
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="2">
+      <c r="A137" s="3">
         <v>7</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="3">
         <f t="shared" si="8"/>
         <v>147</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137" s="3">
         <f t="shared" si="9"/>
         <v>163</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D137" s="3">
         <f t="shared" si="10"/>
         <v>310</v>
       </c>
-      <c r="E137" s="2">
+      <c r="E137" s="3">
         <v>3</v>
       </c>
-      <c r="F137" s="2">
+      <c r="F137" s="3">
         <f t="shared" si="11"/>
         <v>103.333333333333</v>
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="2">
+      <c r="A138" s="3">
         <v>8</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="3">
         <f t="shared" si="8"/>
         <v>192</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138" s="3">
         <f t="shared" si="9"/>
         <v>205</v>
       </c>
-      <c r="D138" s="2">
+      <c r="D138" s="3">
         <f t="shared" si="10"/>
         <v>397</v>
       </c>
-      <c r="E138" s="2">
+      <c r="E138" s="3">
         <v>3.5</v>
       </c>
-      <c r="F138" s="2">
+      <c r="F138" s="3">
         <f t="shared" si="11"/>
         <v>113.428571428571</v>
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="2">
+      <c r="A139" s="3">
         <v>9</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="3">
         <f t="shared" si="8"/>
         <v>243</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C139" s="3">
         <f t="shared" si="9"/>
         <v>251</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D139" s="3">
         <f t="shared" si="10"/>
         <v>494</v>
       </c>
-      <c r="E139" s="2">
+      <c r="E139" s="3">
         <v>4.5</v>
       </c>
-      <c r="F139" s="2">
+      <c r="F139" s="3">
         <f t="shared" si="11"/>
         <v>109.777777777778</v>
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="2">
+      <c r="A140" s="3">
         <v>10</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="3">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C140" s="3">
         <f t="shared" si="9"/>
         <v>400</v>
       </c>
-      <c r="D140" s="2">
+      <c r="D140" s="3">
         <f t="shared" si="10"/>
         <v>800</v>
       </c>
-      <c r="E140" s="2">
+      <c r="E140" s="3">
         <v>5.5</v>
       </c>
-      <c r="F140" s="2">
+      <c r="F140" s="3">
         <f t="shared" si="11"/>
         <v>145.454545454545</v>
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="2">
+      <c r="A141" s="3">
         <v>11</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="3">
         <f t="shared" si="8"/>
         <v>484</v>
       </c>
-      <c r="C141" s="2">
+      <c r="C141" s="3">
         <f t="shared" si="9"/>
         <v>471</v>
       </c>
-      <c r="D141" s="2">
+      <c r="D141" s="3">
         <f t="shared" si="10"/>
         <v>955</v>
       </c>
-      <c r="E141" s="2">
+      <c r="E141" s="3">
         <v>6.5</v>
       </c>
-      <c r="F141" s="2">
+      <c r="F141" s="3">
         <f t="shared" si="11"/>
         <v>146.923076923077</v>
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="2">
+      <c r="A142" s="3">
         <v>12</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="3">
         <f t="shared" si="8"/>
         <v>576</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C142" s="3">
         <f t="shared" si="9"/>
         <v>546</v>
       </c>
-      <c r="D142" s="2">
+      <c r="D142" s="3">
         <f t="shared" si="10"/>
         <v>1122</v>
       </c>
-      <c r="E142" s="2">
+      <c r="E142" s="3">
         <v>7.5</v>
       </c>
-      <c r="F142" s="2">
+      <c r="F142" s="3">
         <f t="shared" si="11"/>
         <v>149.6</v>
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="2">
+      <c r="A143" s="3">
         <v>13</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="3">
         <f t="shared" si="8"/>
         <v>845</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C143" s="3">
         <f t="shared" si="9"/>
         <v>782</v>
       </c>
-      <c r="D143" s="2">
+      <c r="D143" s="3">
         <f t="shared" si="10"/>
         <v>1627</v>
       </c>
-      <c r="E143" s="2">
+      <c r="E143" s="3">
         <v>8.5</v>
       </c>
-      <c r="F143" s="2">
+      <c r="F143" s="3">
         <f t="shared" si="11"/>
         <v>191.411764705882</v>
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="2">
+      <c r="A144" s="3">
         <v>14</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" s="3">
         <f t="shared" si="8"/>
         <v>980</v>
       </c>
-      <c r="C144" s="2">
+      <c r="C144" s="3">
         <f t="shared" si="9"/>
         <v>888</v>
       </c>
-      <c r="D144" s="2">
+      <c r="D144" s="3">
         <f t="shared" si="10"/>
         <v>1868</v>
       </c>
-      <c r="E144" s="2">
+      <c r="E144" s="3">
         <v>9.5</v>
       </c>
-      <c r="F144" s="2">
+      <c r="F144" s="3">
         <f t="shared" si="11"/>
         <v>196.631578947368</v>
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="2">
+      <c r="A145" s="3">
         <v>15</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="3">
         <f t="shared" si="8"/>
         <v>1125</v>
       </c>
-      <c r="C145" s="2">
+      <c r="C145" s="3">
         <f t="shared" si="9"/>
         <v>998</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D145" s="3">
         <f t="shared" si="10"/>
         <v>2123</v>
       </c>
-      <c r="E145" s="2">
+      <c r="E145" s="3">
         <v>10.5</v>
       </c>
-      <c r="F145" s="2">
+      <c r="F145" s="3">
         <f t="shared" si="11"/>
         <v>202.190476190476</v>
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="2">
+      <c r="A146" s="3">
         <v>16</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="3">
         <f t="shared" si="8"/>
         <v>1536</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C146" s="3">
         <f t="shared" si="9"/>
         <v>1337</v>
       </c>
-      <c r="D146" s="2">
+      <c r="D146" s="3">
         <f t="shared" si="10"/>
         <v>2873</v>
       </c>
-      <c r="E146" s="2">
+      <c r="E146" s="3">
         <v>12</v>
       </c>
-      <c r="F146" s="2">
+      <c r="F146" s="3">
         <f t="shared" si="11"/>
         <v>239.416666666667</v>
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="2">
+      <c r="A147" s="3">
         <v>17</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="3">
         <f t="shared" si="8"/>
         <v>1734</v>
       </c>
-      <c r="C147" s="2">
+      <c r="C147" s="3">
         <f t="shared" si="9"/>
         <v>1482</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D147" s="3">
         <f t="shared" si="10"/>
         <v>3216</v>
       </c>
-      <c r="E147" s="2">
+      <c r="E147" s="3">
         <v>13.5</v>
       </c>
-      <c r="F147" s="2">
+      <c r="F147" s="3">
         <f t="shared" si="11"/>
         <v>238.222222222222</v>
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="2">
+      <c r="A148" s="3">
         <v>18</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="3">
         <f t="shared" si="8"/>
         <v>1944</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C148" s="3">
         <f t="shared" si="9"/>
         <v>1633</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D148" s="3">
         <f t="shared" si="10"/>
         <v>3577</v>
       </c>
-      <c r="E148" s="2">
+      <c r="E148" s="3">
         <v>15</v>
       </c>
-      <c r="F148" s="2">
+      <c r="F148" s="3">
         <f t="shared" si="11"/>
         <v>238.466666666667</v>
       </c>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="2">
+      <c r="A149" s="3">
         <v>19</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="3">
         <f t="shared" si="8"/>
         <v>2527</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C149" s="3">
         <f t="shared" si="9"/>
         <v>2089</v>
       </c>
-      <c r="D149" s="2">
+      <c r="D149" s="3">
         <f t="shared" si="10"/>
         <v>4616</v>
       </c>
-      <c r="E149" s="2">
+      <c r="E149" s="3">
         <v>16.5</v>
       </c>
-      <c r="F149" s="2">
+      <c r="F149" s="3">
         <f t="shared" si="11"/>
         <v>279.757575757576</v>
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="2">
+      <c r="A150" s="3">
         <v>20</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="3">
         <f t="shared" si="8"/>
         <v>2800</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C150" s="3">
         <f t="shared" si="9"/>
         <v>2279</v>
       </c>
-      <c r="D150" s="2">
+      <c r="D150" s="3">
         <f t="shared" si="10"/>
         <v>5079</v>
       </c>
-      <c r="E150" s="2">
+      <c r="E150" s="3">
         <v>18</v>
       </c>
-      <c r="F150" s="2">
+      <c r="F150" s="3">
         <f t="shared" si="11"/>
         <v>282.166666666667</v>
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="2">
+      <c r="A151" s="3">
         <v>21</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="3">
         <f t="shared" si="8"/>
         <v>3087</v>
       </c>
-      <c r="C151" s="2">
+      <c r="C151" s="3">
         <f t="shared" si="9"/>
         <v>2476</v>
       </c>
-      <c r="D151" s="2">
+      <c r="D151" s="3">
         <f t="shared" si="10"/>
         <v>5563</v>
       </c>
-      <c r="E151" s="2">
+      <c r="E151" s="3">
         <v>19.5</v>
       </c>
-      <c r="F151" s="2">
+      <c r="F151" s="3">
         <f t="shared" si="11"/>
         <v>285.282051282051</v>
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="2">
+      <c r="A152" s="3">
         <v>22</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="3">
         <f t="shared" si="8"/>
         <v>3872</v>
       </c>
-      <c r="C152" s="2">
+      <c r="C152" s="3">
         <f t="shared" si="9"/>
         <v>3063</v>
       </c>
-      <c r="D152" s="2">
+      <c r="D152" s="3">
         <f t="shared" si="10"/>
         <v>6935</v>
       </c>
-      <c r="E152" s="2">
+      <c r="E152" s="3">
         <v>21</v>
       </c>
-      <c r="F152" s="2">
+      <c r="F152" s="3">
         <f t="shared" si="11"/>
         <v>330.238095238095</v>
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="2">
+      <c r="A153" s="3">
         <v>23</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="3">
         <f t="shared" si="8"/>
         <v>4232</v>
       </c>
-      <c r="C153" s="2">
+      <c r="C153" s="3">
         <f t="shared" si="9"/>
         <v>3304</v>
       </c>
-      <c r="D153" s="2">
+      <c r="D153" s="3">
         <f t="shared" si="10"/>
         <v>7536</v>
       </c>
-      <c r="E153" s="2">
+      <c r="E153" s="3">
         <v>22.5</v>
       </c>
-      <c r="F153" s="2">
+      <c r="F153" s="3">
         <f t="shared" si="11"/>
         <v>334.933333333333</v>
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="2">
+      <c r="A154" s="3">
         <v>24</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="3">
         <f t="shared" si="8"/>
         <v>4608</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C154" s="3">
         <f t="shared" si="9"/>
         <v>3552</v>
       </c>
-      <c r="D154" s="2">
+      <c r="D154" s="3">
         <f t="shared" si="10"/>
         <v>8160</v>
       </c>
-      <c r="E154" s="2">
+      <c r="E154" s="3">
         <v>24</v>
       </c>
-      <c r="F154" s="2">
+      <c r="F154" s="3">
         <f t="shared" si="11"/>
         <v>340</v>
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="2">
+      <c r="A155" s="3">
         <v>25</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="3">
         <f t="shared" si="8"/>
         <v>5625</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C155" s="3">
         <f t="shared" si="9"/>
         <v>4283</v>
       </c>
-      <c r="D155" s="2">
+      <c r="D155" s="3">
         <f t="shared" si="10"/>
         <v>9908</v>
       </c>
-      <c r="E155" s="2">
+      <c r="E155" s="3">
         <v>25.5</v>
       </c>
-      <c r="F155" s="2">
+      <c r="F155" s="3">
         <f t="shared" si="11"/>
         <v>388.549019607843</v>
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="2">
+      <c r="A156" s="3">
         <v>26</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="3">
         <f t="shared" si="8"/>
         <v>6084</v>
       </c>
-      <c r="C156" s="2">
+      <c r="C156" s="3">
         <f t="shared" si="9"/>
         <v>4578</v>
       </c>
-      <c r="D156" s="2">
+      <c r="D156" s="3">
         <f t="shared" si="10"/>
         <v>10662</v>
       </c>
-      <c r="E156" s="2">
+      <c r="E156" s="3">
         <v>27.5</v>
       </c>
-      <c r="F156" s="2">
+      <c r="F156" s="3">
         <f t="shared" si="11"/>
         <v>387.709090909091</v>
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="2">
+      <c r="A157" s="3">
         <v>27</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="3">
         <f t="shared" si="8"/>
         <v>6561</v>
       </c>
-      <c r="C157" s="2">
+      <c r="C157" s="3">
         <f t="shared" si="9"/>
         <v>4881</v>
       </c>
-      <c r="D157" s="2">
+      <c r="D157" s="3">
         <f t="shared" si="10"/>
         <v>11442</v>
       </c>
-      <c r="E157" s="2">
+      <c r="E157" s="3">
         <v>29.5</v>
       </c>
-      <c r="F157" s="2">
+      <c r="F157" s="3">
         <f t="shared" si="11"/>
         <v>387.864406779661</v>
       </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="2">
+      <c r="A158" s="3">
         <v>28</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158" s="3">
         <f t="shared" si="8"/>
         <v>7840</v>
       </c>
-      <c r="C158" s="2">
+      <c r="C158" s="3">
         <f t="shared" si="9"/>
         <v>5770</v>
       </c>
-      <c r="D158" s="2">
+      <c r="D158" s="3">
         <f t="shared" si="10"/>
         <v>13610</v>
       </c>
-      <c r="E158" s="2">
+      <c r="E158" s="3">
         <v>31.5</v>
       </c>
-      <c r="F158" s="2">
+      <c r="F158" s="3">
         <f t="shared" si="11"/>
         <v>432.063492063492</v>
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="2">
+      <c r="A159" s="3">
         <v>29</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="3">
         <f t="shared" si="8"/>
         <v>8410</v>
       </c>
-      <c r="C159" s="2">
+      <c r="C159" s="3">
         <f t="shared" si="9"/>
         <v>6125</v>
       </c>
-      <c r="D159" s="2">
+      <c r="D159" s="3">
         <f t="shared" si="10"/>
         <v>14535</v>
       </c>
-      <c r="E159" s="2">
+      <c r="E159" s="3">
         <v>33.5</v>
       </c>
-      <c r="F159" s="2">
+      <c r="F159" s="3">
         <f t="shared" si="11"/>
         <v>433.880597014925</v>
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="2">
+      <c r="A160" s="3">
         <v>30</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="3">
         <f t="shared" si="8"/>
         <v>9000</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C160" s="3">
         <f t="shared" si="9"/>
         <v>6488</v>
       </c>
-      <c r="D160" s="2">
+      <c r="D160" s="3">
         <f t="shared" si="10"/>
         <v>15488</v>
       </c>
-      <c r="E160" s="2">
+      <c r="E160" s="3">
         <v>35.5</v>
       </c>
-      <c r="F160" s="2">
+      <c r="F160" s="3">
         <f t="shared" si="11"/>
         <v>436.281690140845</v>
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="2">
+      <c r="A161" s="3">
         <v>31</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="3">
         <f t="shared" si="8"/>
         <v>10571</v>
       </c>
-      <c r="C161" s="2">
+      <c r="C161" s="3">
         <f t="shared" si="9"/>
         <v>7546</v>
       </c>
-      <c r="D161" s="2">
+      <c r="D161" s="3">
         <f t="shared" si="10"/>
         <v>18117</v>
       </c>
-      <c r="E161" s="2">
+      <c r="E161" s="3">
         <v>37.5</v>
       </c>
-      <c r="F161" s="2">
+      <c r="F161" s="3">
         <f t="shared" si="11"/>
         <v>483.12</v>
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="2">
+      <c r="A162" s="3">
         <v>32</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162" s="3">
         <f t="shared" si="8"/>
         <v>11264</v>
       </c>
-      <c r="C162" s="2">
+      <c r="C162" s="3">
         <f t="shared" si="9"/>
         <v>7964</v>
       </c>
-      <c r="D162" s="2">
+      <c r="D162" s="3">
         <f t="shared" si="10"/>
         <v>19228</v>
       </c>
-      <c r="E162" s="2">
+      <c r="E162" s="3">
         <v>39.5</v>
       </c>
-      <c r="F162" s="2">
+      <c r="F162" s="3">
         <f t="shared" si="11"/>
         <v>486.784810126582</v>
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="2">
+      <c r="A163" s="3">
         <v>33</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="3">
         <f t="shared" si="8"/>
         <v>11979</v>
       </c>
-      <c r="C163" s="2">
+      <c r="C163" s="3">
         <f t="shared" si="9"/>
         <v>8392</v>
       </c>
-      <c r="D163" s="2">
+      <c r="D163" s="3">
         <f t="shared" si="10"/>
         <v>20371</v>
       </c>
-      <c r="E163" s="2">
+      <c r="E163" s="3">
         <v>41.5</v>
       </c>
-      <c r="F163" s="2">
+      <c r="F163" s="3">
         <f t="shared" si="11"/>
         <v>490.867469879518</v>
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="2">
+      <c r="A164" s="3">
         <v>34</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164" s="3">
         <f t="shared" si="8"/>
         <v>13872</v>
       </c>
-      <c r="C164" s="2">
+      <c r="C164" s="3">
         <f t="shared" si="9"/>
         <v>9632</v>
       </c>
-      <c r="D164" s="2">
+      <c r="D164" s="3">
         <f t="shared" si="10"/>
         <v>23504</v>
       </c>
-      <c r="E164" s="2">
+      <c r="E164" s="3">
         <v>43.5</v>
       </c>
-      <c r="F164" s="2">
+      <c r="F164" s="3">
         <f t="shared" si="11"/>
         <v>540.32183908046</v>
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="2">
+      <c r="A165" s="3">
         <v>35</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165" s="3">
         <f t="shared" si="8"/>
         <v>14700</v>
       </c>
-      <c r="C165" s="2">
+      <c r="C165" s="3">
         <f t="shared" si="9"/>
         <v>10118</v>
       </c>
-      <c r="D165" s="2">
+      <c r="D165" s="3">
         <f t="shared" si="10"/>
         <v>24818</v>
       </c>
-      <c r="E165" s="2">
+      <c r="E165" s="3">
         <v>45.5</v>
       </c>
-      <c r="F165" s="2">
+      <c r="F165" s="3">
         <f t="shared" si="11"/>
         <v>545.450549450549</v>
       </c>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="2" t="s">
+      <c r="A167" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167" s="3">
         <f>SUM(B131:B165)</f>
         <v>137406</v>
       </c>
-      <c r="C167" s="2">
+      <c r="C167" s="3">
         <f>SUM(C131:C165)</f>
         <v>101903</v>
       </c>
-      <c r="D167" s="2">
+      <c r="D167" s="3">
         <f>SUM(D131:D165)</f>
         <v>239309</v>
       </c>
-      <c r="E167" s="2">
+      <c r="E167" s="3">
         <f>SUM(E131:E165)</f>
         <v>619.75</v>
       </c>
@@ -4040,12 +4019,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="101" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="101" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="12" ht="219" customHeight="1" spans="1:1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4066,89 +4045,89 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="14.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="45.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="40.375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="14.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="44.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="45.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="40.375" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="27" spans="1:6">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="7" customFormat="1" ht="27" spans="1:6">
+      <c r="A1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" ht="273" customHeight="1" spans="1:6">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>10000</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" ht="119" customHeight="1" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" ht="118" customHeight="1" spans="1:5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="13" ht="98" customHeight="1"/>
   </sheetData>
@@ -4168,83 +4147,83 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="13.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="68.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="34.75" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="68.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="34.75" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="8" spans="1:4">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>1000</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>1001</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>1002</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>1003</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" ht="28.5" spans="2:3">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4259,97 +4238,97 @@
   <sheetPr/>
   <dimension ref="A5:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="55.625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="6.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="55.625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:3">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>100</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>101</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>102</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>103</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>104</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>105</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="20" ht="28.5" spans="2:3">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4365,42 +4344,42 @@
   <dimension ref="A7:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="51.375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="51.375" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="7" ht="66" customHeight="1" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" ht="43" customHeight="1" spans="1:1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10" ht="51" customHeight="1" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:1">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="12" ht="98" customHeight="1" spans="1:1">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4409,4 +4388,35 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A12:A13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="52.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="12" ht="62" customHeight="1" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" ht="66" customHeight="1" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28620" windowHeight="15540" activeTab="7"/>
+    <workbookView windowWidth="28620" windowHeight="10275" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
     <sheet name="数值表" sheetId="14" r:id="rId2"/>
-    <sheet name="头脑风暴" sheetId="13" r:id="rId3"/>
-    <sheet name="武器" sheetId="11" r:id="rId4"/>
-    <sheet name="配件" sheetId="10" r:id="rId5"/>
-    <sheet name="怪物" sheetId="9" r:id="rId6"/>
-    <sheet name="7.22" sheetId="12" r:id="rId7"/>
-    <sheet name="7.29" sheetId="15" r:id="rId8"/>
+    <sheet name="关卡数值" sheetId="16" r:id="rId3"/>
+    <sheet name="头脑风暴" sheetId="13" r:id="rId4"/>
+    <sheet name="武器" sheetId="11" r:id="rId5"/>
+    <sheet name="配件" sheetId="10" r:id="rId6"/>
+    <sheet name="怪物" sheetId="9" r:id="rId7"/>
+    <sheet name="7.22" sheetId="12" r:id="rId8"/>
+    <sheet name="7.29" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -170,6 +171,15 @@
     <t>总计</t>
   </si>
   <si>
+    <t>基础产出</t>
+  </si>
+  <si>
+    <t>差分</t>
+  </si>
+  <si>
+    <t>关卡</t>
+  </si>
+  <si>
     <t>考虑把皮肤系统设计成武器，例如：弓箭、太刀、巨剑、铁锤等，每种皮肤对应的闪现技能也有不同的特殊逻辑
 武器是自动攻击的。
 弓箭：远程攻击，发射箭矢。发射双箭矢；发射三箭矢；箭矢可反弹；
@@ -301,7 +311,7 @@
     <t>比如火、冰、雷等弱点?</t>
   </si>
   <si>
-    <t>圆</t>
+    <t>蝙蝠</t>
   </si>
   <si>
     <t>普通怪物</t>
@@ -335,6 +345,12 @@
   </si>
   <si>
     <t>朝周围发射6颗子弹</t>
+  </si>
+  <si>
+    <t>电磁蜘蛛</t>
+  </si>
+  <si>
+    <t>出生自带一个可抵挡2次攻击的护盾</t>
   </si>
   <si>
     <t>?</t>
@@ -342,6 +358,18 @@
   <si>
     <t>会发射子弹。
 发射射线，射线旋转180度。</t>
+  </si>
+  <si>
+    <t>给队友上护盾</t>
+  </si>
+  <si>
+    <t>史莱姆</t>
+  </si>
+  <si>
+    <t>分裂成小怪</t>
+  </si>
+  <si>
+    <t>场上有其他怪物时，射向此怪物的投射物将被反弹向其他怪物</t>
   </si>
   <si>
     <t>关卡的表格配置及读取</t>
@@ -579,6 +607,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -592,12 +626,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,21 +993,21 @@
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1026,11 +1054,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1060,19 +1091,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1400,56 +1434,56 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="27" style="16" customWidth="1"/>
-    <col min="3" max="3" width="105.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="114.125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="27" style="18" customWidth="1"/>
+    <col min="3" max="3" width="105.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="114.125" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="140" customHeight="1" spans="2:3">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="101" customHeight="1" spans="2:3">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="101" customHeight="1" spans="2:3">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="103" customHeight="1" spans="2:3">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="100" customHeight="1" spans="2:3">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1464,2540 +1498,2540 @@
   <sheetPr/>
   <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C80" sqref="C80:D80"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="15.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="1:1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="15">
         <v>2</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>1</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <f>FLOOR((A8-1)/3,1)+1</f>
         <v>1</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <f>$B$3+(A8-1)*B8</f>
         <v>1</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <f>$B$5*POWER(A8,$B$6)*B8</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>2</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <f t="shared" ref="B9:B27" si="0">FLOOR((A9-1)/3,1)+1</f>
         <v>1</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <f t="shared" ref="C9:C42" si="1">$B$3+(A9-1)*B9</f>
         <v>2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <f t="shared" ref="D9:D42" si="2">$B$5*POWER(A9,$B$6)*B9</f>
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>3</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>4</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>5</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>6</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>7</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>8</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>9</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <f t="shared" si="2"/>
         <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>10</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="4">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>11</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="4">
         <f t="shared" si="2"/>
         <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>12</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <f t="shared" si="2"/>
         <v>576</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>13</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="4">
         <f t="shared" si="2"/>
         <v>845</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>14</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="4">
         <f t="shared" si="2"/>
         <v>980</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>15</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="4">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="4">
         <f t="shared" si="2"/>
         <v>1125</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>16</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="4">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4">
         <f t="shared" si="2"/>
         <v>1536</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>17</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="4">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="4">
         <f t="shared" si="2"/>
         <v>1734</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>18</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="4">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="4">
         <f t="shared" si="2"/>
         <v>1944</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>19</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="4">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="4">
         <f t="shared" si="2"/>
         <v>2527</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>20</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="4">
         <f t="shared" si="1"/>
         <v>134</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="4">
         <f t="shared" si="2"/>
         <v>2800</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>21</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <f t="shared" ref="B28:B42" si="3">FLOOR((A28-1)/3,1)+1</f>
         <v>7</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="4">
         <f t="shared" si="1"/>
         <v>141</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="4">
         <f t="shared" si="2"/>
         <v>3087</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>22</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="4">
         <f t="shared" si="1"/>
         <v>169</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="4">
         <f t="shared" si="2"/>
         <v>3872</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>23</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="4">
         <f t="shared" si="1"/>
         <v>177</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="4">
         <f t="shared" si="2"/>
         <v>4232</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>24</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="4">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="4">
         <f t="shared" si="1"/>
         <v>185</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="4">
         <f t="shared" si="2"/>
         <v>4608</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>25</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="4">
         <f t="shared" si="1"/>
         <v>217</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="4">
         <f t="shared" si="2"/>
         <v>5625</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>26</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="4">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="4">
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="4">
         <f t="shared" si="2"/>
         <v>6084</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>27</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="4">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="4">
         <f t="shared" si="1"/>
         <v>235</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="4">
         <f t="shared" si="2"/>
         <v>6561</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>28</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="4">
         <f t="shared" si="1"/>
         <v>271</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="4">
         <f t="shared" si="2"/>
         <v>7840</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>29</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="4">
         <f t="shared" si="1"/>
         <v>281</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="4">
         <f t="shared" si="2"/>
         <v>8410</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>30</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="4">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="4">
         <f t="shared" si="1"/>
         <v>291</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="4">
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="3">
+      <c r="A38" s="4">
         <v>31</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="4">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="4">
         <f t="shared" si="1"/>
         <v>331</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="4">
         <f t="shared" si="2"/>
         <v>10571</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="3">
+      <c r="A39" s="4">
         <v>32</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="4">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="4">
         <f t="shared" si="1"/>
         <v>342</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="4">
         <f t="shared" si="2"/>
         <v>11264</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="3">
+      <c r="A40" s="4">
         <v>33</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="4">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="4">
         <f t="shared" si="1"/>
         <v>353</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="4">
         <f t="shared" si="2"/>
         <v>11979</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="3">
+      <c r="A41" s="4">
         <v>34</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="4">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="4">
         <f t="shared" si="1"/>
         <v>397</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="4">
         <f t="shared" si="2"/>
         <v>13872</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="3">
+      <c r="A42" s="4">
         <v>35</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="4">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="4">
         <f t="shared" si="1"/>
         <v>409</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="4">
         <f t="shared" si="2"/>
         <v>14700</v>
       </c>
     </row>
     <row r="44" ht="28.5" spans="1:1">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="6">
         <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="4">
         <v>2</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="15">
         <v>1.7</v>
       </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="3">
+      <c r="A51" s="4">
         <v>1</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="4">
         <f>FLOOR((A51-1)/3,1)+1</f>
         <v>1</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="4">
         <f>$B$45/(1+((A51-1)*B51*$B$46)/100)</f>
         <v>450</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="4">
         <f>FLOOR($B$48*POWER(A51,$B$49)*B51,1)</f>
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="3">
+      <c r="A52" s="4">
         <v>2</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="4">
         <f t="shared" ref="B52:B85" si="4">FLOOR((A52-1)/3,1)+1</f>
         <v>1</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="4">
         <f t="shared" ref="C52:C85" si="5">$B$45/(1+((A52-1)*B52*$B$46)/100)</f>
         <v>445.544554455446</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="4">
         <f t="shared" ref="D52:D85" si="6">FLOOR($B$48*POWER(A52,$B$49)*B52,1)</f>
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="3">
+      <c r="A53" s="4">
         <v>3</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="4">
         <f t="shared" si="5"/>
         <v>441.176470588235</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="4">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="3">
+      <c r="A54" s="4">
         <v>4</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="4">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="4">
         <f t="shared" si="5"/>
         <v>424.528301886792</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="4">
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="3">
+      <c r="A55" s="4">
         <v>5</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="4">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="4">
         <f t="shared" si="5"/>
         <v>416.666666666667</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="4">
         <f t="shared" si="6"/>
         <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="3">
+      <c r="A56" s="4">
         <v>6</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="4">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="4">
         <f t="shared" si="5"/>
         <v>409.090909090909</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="4">
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="3">
+      <c r="A57" s="4">
         <v>7</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="4">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="4">
         <f t="shared" si="5"/>
         <v>381.35593220339</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="4">
         <f t="shared" si="6"/>
         <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="3">
+      <c r="A58" s="4">
         <v>8</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="4">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="4">
         <f t="shared" si="5"/>
         <v>371.900826446281</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="4">
         <f t="shared" si="6"/>
         <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="3">
+      <c r="A59" s="4">
         <v>9</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="4">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="4">
         <f t="shared" si="5"/>
         <v>362.903225806452</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="4">
         <f t="shared" si="6"/>
         <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="3">
+      <c r="A60" s="4">
         <v>10</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="4">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="4">
         <f t="shared" si="5"/>
         <v>330.882352941177</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="4">
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="3">
+      <c r="A61" s="4">
         <v>11</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="4">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="4">
         <f t="shared" si="5"/>
         <v>321.428571428571</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="4">
         <f t="shared" si="6"/>
         <v>471</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="3">
+      <c r="A62" s="4">
         <v>12</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="4">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="4">
         <f t="shared" si="5"/>
         <v>312.5</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="4">
         <f t="shared" si="6"/>
         <v>546</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="3">
+      <c r="A63" s="4">
         <v>13</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="4">
         <f t="shared" si="5"/>
         <v>281.25</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="4">
         <f t="shared" si="6"/>
         <v>782</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="3">
+      <c r="A64" s="4">
         <v>14</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="4">
         <f t="shared" si="5"/>
         <v>272.727272727273</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="4">
         <f t="shared" si="6"/>
         <v>888</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="3">
+      <c r="A65" s="4">
         <v>15</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="4">
         <f t="shared" si="5"/>
         <v>264.705882352941</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="4">
         <f t="shared" si="6"/>
         <v>998</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="3">
+      <c r="A66" s="4">
         <v>16</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="4">
         <f t="shared" si="5"/>
         <v>236.842105263158</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="4">
         <f t="shared" si="6"/>
         <v>1337</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="3">
+      <c r="A67" s="4">
         <v>17</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="4">
         <f t="shared" si="5"/>
         <v>229.591836734694</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="4">
         <f t="shared" si="6"/>
         <v>1482</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="3">
+      <c r="A68" s="4">
         <v>18</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="4">
         <f t="shared" si="5"/>
         <v>222.772277227723</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="4">
         <f t="shared" si="6"/>
         <v>1633</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="3">
+      <c r="A69" s="4">
         <v>19</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="4">
         <f t="shared" si="5"/>
         <v>199.115044247788</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="4">
         <f t="shared" si="6"/>
         <v>2089</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="3">
+      <c r="A70" s="4">
         <v>20</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="4">
         <f t="shared" si="5"/>
         <v>193.1330472103</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="4">
         <f t="shared" si="6"/>
         <v>2279</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="3">
+      <c r="A71" s="4">
         <v>21</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="4">
         <f t="shared" si="5"/>
         <v>187.5</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="4">
         <f t="shared" si="6"/>
         <v>2476</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="3">
+      <c r="A72" s="4">
         <v>22</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="4">
         <f t="shared" si="5"/>
         <v>167.910447761194</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="4">
         <f t="shared" si="6"/>
         <v>3063</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="3">
+      <c r="A73" s="4">
         <v>23</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="4">
         <f t="shared" si="5"/>
         <v>163.04347826087</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="4">
         <f t="shared" si="6"/>
         <v>3304</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="3">
+      <c r="A74" s="4">
         <v>24</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="4">
         <f t="shared" si="5"/>
         <v>158.450704225352</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="4">
         <f t="shared" si="6"/>
         <v>3552</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="3">
+      <c r="A75" s="4">
         <v>25</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="4">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="4">
         <f t="shared" si="5"/>
         <v>142.405063291139</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="4">
         <f t="shared" si="6"/>
         <v>4283</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="3">
+      <c r="A76" s="4">
         <v>26</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="4">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="4">
         <f t="shared" si="5"/>
         <v>138.461538461538</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="4">
         <f t="shared" si="6"/>
         <v>4578</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="3">
+      <c r="A77" s="4">
         <v>27</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="4">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="4">
         <f t="shared" si="5"/>
         <v>134.730538922156</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="4">
         <f t="shared" si="6"/>
         <v>4881</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="3">
+      <c r="A78" s="4">
         <v>28</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="4">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="4">
         <f t="shared" si="5"/>
         <v>121.621621621622</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="4">
         <f t="shared" si="6"/>
         <v>5770</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="3">
+      <c r="A79" s="4">
         <v>29</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="4">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="4">
         <f t="shared" si="5"/>
         <v>118.421052631579</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="4">
         <f t="shared" si="6"/>
         <v>6125</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="3">
+      <c r="A80" s="4">
         <v>30</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="4">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="4">
         <f t="shared" si="5"/>
         <v>115.384615384615</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="4">
         <f t="shared" si="6"/>
         <v>6488</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="3">
+      <c r="A81" s="4">
         <v>31</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="4">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="4">
         <f t="shared" si="5"/>
         <v>104.651162790698</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="4">
         <f t="shared" si="6"/>
         <v>7546</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="3">
+      <c r="A82" s="4">
         <v>32</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="4">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="4">
         <f t="shared" si="5"/>
         <v>102.040816326531</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="4">
         <f t="shared" si="6"/>
         <v>7964</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="3">
+      <c r="A83" s="4">
         <v>33</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="4">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="4">
         <f t="shared" si="5"/>
         <v>99.5575221238938</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="4">
         <f t="shared" si="6"/>
         <v>8392</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="3">
+      <c r="A84" s="4">
         <v>34</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="4">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="4">
         <f t="shared" si="5"/>
         <v>90.7258064516129</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="4">
         <f t="shared" si="6"/>
         <v>9632</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="3">
+      <c r="A85" s="4">
         <v>35</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="4">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="4">
         <f t="shared" si="5"/>
         <v>88.5826771653543</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="4">
         <f t="shared" si="6"/>
         <v>10118</v>
       </c>
     </row>
     <row r="88" ht="28.5" spans="1:1">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="3">
+      <c r="A90" s="4">
         <v>1</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="4">
         <f>C8/(C51/1000)</f>
         <v>2.22222222222222</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="3">
+      <c r="A91" s="4">
         <v>2</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="4">
         <f t="shared" ref="B91:B124" si="7">C9/(C52/1000)</f>
         <v>4.48888888888889</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="3">
+      <c r="A92" s="4">
         <v>3</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="4">
         <f t="shared" si="7"/>
         <v>6.8</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="3">
+      <c r="A93" s="4">
         <v>4</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="4">
         <f t="shared" si="7"/>
         <v>16.4888888888889</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="3">
+      <c r="A94" s="4">
         <v>5</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="4">
         <f t="shared" si="7"/>
         <v>21.6</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="3">
+      <c r="A95" s="4">
         <v>6</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="4">
         <f t="shared" si="7"/>
         <v>26.8888888888889</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="3">
+      <c r="A96" s="4">
         <v>7</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="4">
         <f t="shared" si="7"/>
         <v>49.8222222222222</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="3">
+      <c r="A97" s="4">
         <v>8</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="4">
         <f t="shared" si="7"/>
         <v>59.1555555555556</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="3">
+      <c r="A98" s="4">
         <v>9</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="4">
         <f t="shared" si="7"/>
         <v>68.8888888888889</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="3">
+      <c r="A99" s="4">
         <v>10</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="4">
         <f t="shared" si="7"/>
         <v>111.822222222222</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="3">
+      <c r="A100" s="4">
         <v>11</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="4">
         <f t="shared" si="7"/>
         <v>127.555555555556</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="3">
+      <c r="A101" s="4">
         <v>12</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="4">
         <f t="shared" si="7"/>
         <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="3">
+      <c r="A102" s="4">
         <v>13</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="4">
         <f t="shared" si="7"/>
         <v>216.888888888889</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="3">
+      <c r="A103" s="4">
         <v>14</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="4">
         <f t="shared" si="7"/>
         <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="3">
+      <c r="A104" s="4">
         <v>15</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="4">
         <f t="shared" si="7"/>
         <v>268.222222222222</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="3">
+      <c r="A105" s="4">
         <v>16</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="4">
         <f t="shared" si="7"/>
         <v>384.222222222222</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="3">
+      <c r="A106" s="4">
         <v>17</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="4">
         <f t="shared" si="7"/>
         <v>422.488888888889</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="3">
+      <c r="A107" s="4">
         <v>18</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="4">
         <f t="shared" si="7"/>
         <v>462.355555555556</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="3">
+      <c r="A108" s="4">
         <v>19</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="4">
         <f t="shared" si="7"/>
         <v>637.822222222222</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="3">
+      <c r="A109" s="4">
         <v>20</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="4">
         <f t="shared" si="7"/>
         <v>693.822222222222</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="3">
+      <c r="A110" s="4">
         <v>21</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="4">
         <f t="shared" si="7"/>
         <v>752</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="3">
+      <c r="A111" s="4">
         <v>22</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="4">
         <f t="shared" si="7"/>
         <v>1006.48888888889</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="3">
+      <c r="A112" s="4">
         <v>23</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="4">
         <f t="shared" si="7"/>
         <v>1085.6</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="3">
+      <c r="A113" s="4">
         <v>24</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="4">
         <f t="shared" si="7"/>
         <v>1167.55555555556</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="3">
+      <c r="A114" s="4">
         <v>25</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="4">
         <f t="shared" si="7"/>
         <v>1523.82222222222</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="3">
+      <c r="A115" s="4">
         <v>26</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="4">
         <f t="shared" si="7"/>
         <v>1632.22222222222</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="3">
+      <c r="A116" s="4">
         <v>27</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="4">
         <f t="shared" si="7"/>
         <v>1744.22222222222</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="3">
+      <c r="A117" s="4">
         <v>28</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="4">
         <f t="shared" si="7"/>
         <v>2228.22222222222</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="3">
+      <c r="A118" s="4">
         <v>29</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="4">
         <f t="shared" si="7"/>
         <v>2372.88888888889</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="3">
+      <c r="A119" s="4">
         <v>30</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="4">
         <f t="shared" si="7"/>
         <v>2522</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="3">
+      <c r="A120" s="4">
         <v>31</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="4">
         <f t="shared" si="7"/>
         <v>3162.88888888889</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="3">
+      <c r="A121" s="4">
         <v>32</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="4">
         <f t="shared" si="7"/>
         <v>3351.6</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="3">
+      <c r="A122" s="4">
         <v>33</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="4">
         <f t="shared" si="7"/>
         <v>3545.68888888889</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="3">
+      <c r="A123" s="4">
         <v>34</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="4">
         <f t="shared" si="7"/>
         <v>4375.82222222222</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="3">
+      <c r="A124" s="4">
         <v>35</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="4">
         <f t="shared" si="7"/>
         <v>4617.15555555556</v>
       </c>
     </row>
     <row r="129" ht="28.5" spans="1:1">
-      <c r="A129" s="11" t="s">
+      <c r="A129" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="15" t="s">
+      <c r="A130" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B130" s="15" t="s">
+      <c r="B130" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C130" s="15" t="s">
+      <c r="C130" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D130" s="15" t="s">
+      <c r="D130" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E130" s="15" t="s">
+      <c r="E130" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F130" s="15" t="s">
+      <c r="F130" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="3">
+      <c r="A131" s="4">
         <v>1</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" s="4">
         <f>D8</f>
         <v>1</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C131" s="4">
         <f>D51</f>
         <v>2</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D131" s="4">
         <f>B131+C131</f>
         <v>3</v>
       </c>
-      <c r="E131" s="3">
+      <c r="E131" s="4">
         <v>0.5</v>
       </c>
-      <c r="F131" s="3">
+      <c r="F131" s="4">
         <f>D131/E131</f>
         <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="3">
+      <c r="A132" s="4">
         <v>2</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" s="4">
         <f t="shared" ref="B132:B165" si="8">D9</f>
         <v>4</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132" s="4">
         <f t="shared" ref="C132:C165" si="9">D52</f>
         <v>6</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D132" s="4">
         <f t="shared" ref="D132:D165" si="10">B132+C132</f>
         <v>10</v>
       </c>
-      <c r="E132" s="3">
+      <c r="E132" s="4">
         <v>0.75</v>
       </c>
-      <c r="F132" s="3">
+      <c r="F132" s="4">
         <f t="shared" ref="F132:F165" si="11">D132/E132</f>
         <v>13.3333333333333</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="3">
+      <c r="A133" s="4">
         <v>3</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" s="4">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C133" s="4">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="D133" s="3">
+      <c r="D133" s="4">
         <f t="shared" si="10"/>
         <v>21</v>
       </c>
-      <c r="E133" s="3">
+      <c r="E133" s="4">
         <v>1</v>
       </c>
-      <c r="F133" s="3">
+      <c r="F133" s="4">
         <f t="shared" si="11"/>
         <v>21</v>
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="3">
+      <c r="A134" s="4">
         <v>4</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="4">
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C134" s="4">
         <f t="shared" si="9"/>
         <v>42</v>
       </c>
-      <c r="D134" s="3">
+      <c r="D134" s="4">
         <f t="shared" si="10"/>
         <v>74</v>
       </c>
-      <c r="E134" s="3">
+      <c r="E134" s="4">
         <v>1.5</v>
       </c>
-      <c r="F134" s="3">
+      <c r="F134" s="4">
         <f t="shared" si="11"/>
         <v>49.3333333333333</v>
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="3">
+      <c r="A135" s="4">
         <v>5</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="4">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135" s="4">
         <f t="shared" si="9"/>
         <v>61</v>
       </c>
-      <c r="D135" s="3">
+      <c r="D135" s="4">
         <f t="shared" si="10"/>
         <v>111</v>
       </c>
-      <c r="E135" s="3">
+      <c r="E135" s="4">
         <v>2</v>
       </c>
-      <c r="F135" s="3">
+      <c r="F135" s="4">
         <f t="shared" si="11"/>
         <v>55.5</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="3">
+      <c r="A136" s="4">
         <v>6</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="4">
         <f t="shared" si="8"/>
         <v>72</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="4">
         <f t="shared" si="9"/>
         <v>84</v>
       </c>
-      <c r="D136" s="3">
+      <c r="D136" s="4">
         <f t="shared" si="10"/>
         <v>156</v>
       </c>
-      <c r="E136" s="3">
+      <c r="E136" s="4">
         <v>2.5</v>
       </c>
-      <c r="F136" s="3">
+      <c r="F136" s="4">
         <f t="shared" si="11"/>
         <v>62.4</v>
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="3">
+      <c r="A137" s="4">
         <v>7</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="4">
         <f t="shared" si="8"/>
         <v>147</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="4">
         <f t="shared" si="9"/>
         <v>163</v>
       </c>
-      <c r="D137" s="3">
+      <c r="D137" s="4">
         <f t="shared" si="10"/>
         <v>310</v>
       </c>
-      <c r="E137" s="3">
+      <c r="E137" s="4">
         <v>3</v>
       </c>
-      <c r="F137" s="3">
+      <c r="F137" s="4">
         <f t="shared" si="11"/>
         <v>103.333333333333</v>
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="3">
+      <c r="A138" s="4">
         <v>8</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="4">
         <f t="shared" si="8"/>
         <v>192</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="4">
         <f t="shared" si="9"/>
         <v>205</v>
       </c>
-      <c r="D138" s="3">
+      <c r="D138" s="4">
         <f t="shared" si="10"/>
         <v>397</v>
       </c>
-      <c r="E138" s="3">
+      <c r="E138" s="4">
         <v>3.5</v>
       </c>
-      <c r="F138" s="3">
+      <c r="F138" s="4">
         <f t="shared" si="11"/>
         <v>113.428571428571</v>
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="3">
+      <c r="A139" s="4">
         <v>9</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="4">
         <f t="shared" si="8"/>
         <v>243</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="4">
         <f t="shared" si="9"/>
         <v>251</v>
       </c>
-      <c r="D139" s="3">
+      <c r="D139" s="4">
         <f t="shared" si="10"/>
         <v>494</v>
       </c>
-      <c r="E139" s="3">
+      <c r="E139" s="4">
         <v>4.5</v>
       </c>
-      <c r="F139" s="3">
+      <c r="F139" s="4">
         <f t="shared" si="11"/>
         <v>109.777777777778</v>
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="3">
+      <c r="A140" s="4">
         <v>10</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="4">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="4">
         <f t="shared" si="9"/>
         <v>400</v>
       </c>
-      <c r="D140" s="3">
+      <c r="D140" s="4">
         <f t="shared" si="10"/>
         <v>800</v>
       </c>
-      <c r="E140" s="3">
+      <c r="E140" s="4">
         <v>5.5</v>
       </c>
-      <c r="F140" s="3">
+      <c r="F140" s="4">
         <f t="shared" si="11"/>
         <v>145.454545454545</v>
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="3">
+      <c r="A141" s="4">
         <v>11</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="4">
         <f t="shared" si="8"/>
         <v>484</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="4">
         <f t="shared" si="9"/>
         <v>471</v>
       </c>
-      <c r="D141" s="3">
+      <c r="D141" s="4">
         <f t="shared" si="10"/>
         <v>955</v>
       </c>
-      <c r="E141" s="3">
+      <c r="E141" s="4">
         <v>6.5</v>
       </c>
-      <c r="F141" s="3">
+      <c r="F141" s="4">
         <f t="shared" si="11"/>
         <v>146.923076923077</v>
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="3">
+      <c r="A142" s="4">
         <v>12</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="4">
         <f t="shared" si="8"/>
         <v>576</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="4">
         <f t="shared" si="9"/>
         <v>546</v>
       </c>
-      <c r="D142" s="3">
+      <c r="D142" s="4">
         <f t="shared" si="10"/>
         <v>1122</v>
       </c>
-      <c r="E142" s="3">
+      <c r="E142" s="4">
         <v>7.5</v>
       </c>
-      <c r="F142" s="3">
+      <c r="F142" s="4">
         <f t="shared" si="11"/>
         <v>149.6</v>
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="3">
+      <c r="A143" s="4">
         <v>13</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="4">
         <f t="shared" si="8"/>
         <v>845</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="4">
         <f t="shared" si="9"/>
         <v>782</v>
       </c>
-      <c r="D143" s="3">
+      <c r="D143" s="4">
         <f t="shared" si="10"/>
         <v>1627</v>
       </c>
-      <c r="E143" s="3">
+      <c r="E143" s="4">
         <v>8.5</v>
       </c>
-      <c r="F143" s="3">
+      <c r="F143" s="4">
         <f t="shared" si="11"/>
         <v>191.411764705882</v>
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="3">
+      <c r="A144" s="4">
         <v>14</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="4">
         <f t="shared" si="8"/>
         <v>980</v>
       </c>
-      <c r="C144" s="3">
+      <c r="C144" s="4">
         <f t="shared" si="9"/>
         <v>888</v>
       </c>
-      <c r="D144" s="3">
+      <c r="D144" s="4">
         <f t="shared" si="10"/>
         <v>1868</v>
       </c>
-      <c r="E144" s="3">
+      <c r="E144" s="4">
         <v>9.5</v>
       </c>
-      <c r="F144" s="3">
+      <c r="F144" s="4">
         <f t="shared" si="11"/>
         <v>196.631578947368</v>
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="3">
+      <c r="A145" s="4">
         <v>15</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="4">
         <f t="shared" si="8"/>
         <v>1125</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C145" s="4">
         <f t="shared" si="9"/>
         <v>998</v>
       </c>
-      <c r="D145" s="3">
+      <c r="D145" s="4">
         <f t="shared" si="10"/>
         <v>2123</v>
       </c>
-      <c r="E145" s="3">
+      <c r="E145" s="4">
         <v>10.5</v>
       </c>
-      <c r="F145" s="3">
+      <c r="F145" s="4">
         <f t="shared" si="11"/>
         <v>202.190476190476</v>
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="3">
+      <c r="A146" s="4">
         <v>16</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="4">
         <f t="shared" si="8"/>
         <v>1536</v>
       </c>
-      <c r="C146" s="3">
+      <c r="C146" s="4">
         <f t="shared" si="9"/>
         <v>1337</v>
       </c>
-      <c r="D146" s="3">
+      <c r="D146" s="4">
         <f t="shared" si="10"/>
         <v>2873</v>
       </c>
-      <c r="E146" s="3">
+      <c r="E146" s="4">
         <v>12</v>
       </c>
-      <c r="F146" s="3">
+      <c r="F146" s="4">
         <f t="shared" si="11"/>
         <v>239.416666666667</v>
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="3">
+      <c r="A147" s="4">
         <v>17</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="4">
         <f t="shared" si="8"/>
         <v>1734</v>
       </c>
-      <c r="C147" s="3">
+      <c r="C147" s="4">
         <f t="shared" si="9"/>
         <v>1482</v>
       </c>
-      <c r="D147" s="3">
+      <c r="D147" s="4">
         <f t="shared" si="10"/>
         <v>3216</v>
       </c>
-      <c r="E147" s="3">
+      <c r="E147" s="4">
         <v>13.5</v>
       </c>
-      <c r="F147" s="3">
+      <c r="F147" s="4">
         <f t="shared" si="11"/>
         <v>238.222222222222</v>
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="3">
+      <c r="A148" s="4">
         <v>18</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" s="4">
         <f t="shared" si="8"/>
         <v>1944</v>
       </c>
-      <c r="C148" s="3">
+      <c r="C148" s="4">
         <f t="shared" si="9"/>
         <v>1633</v>
       </c>
-      <c r="D148" s="3">
+      <c r="D148" s="4">
         <f t="shared" si="10"/>
         <v>3577</v>
       </c>
-      <c r="E148" s="3">
+      <c r="E148" s="4">
         <v>15</v>
       </c>
-      <c r="F148" s="3">
+      <c r="F148" s="4">
         <f t="shared" si="11"/>
         <v>238.466666666667</v>
       </c>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="3">
+      <c r="A149" s="4">
         <v>19</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149" s="4">
         <f t="shared" si="8"/>
         <v>2527</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C149" s="4">
         <f t="shared" si="9"/>
         <v>2089</v>
       </c>
-      <c r="D149" s="3">
+      <c r="D149" s="4">
         <f t="shared" si="10"/>
         <v>4616</v>
       </c>
-      <c r="E149" s="3">
+      <c r="E149" s="4">
         <v>16.5</v>
       </c>
-      <c r="F149" s="3">
+      <c r="F149" s="4">
         <f t="shared" si="11"/>
         <v>279.757575757576</v>
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="3">
+      <c r="A150" s="4">
         <v>20</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="4">
         <f t="shared" si="8"/>
         <v>2800</v>
       </c>
-      <c r="C150" s="3">
+      <c r="C150" s="4">
         <f t="shared" si="9"/>
         <v>2279</v>
       </c>
-      <c r="D150" s="3">
+      <c r="D150" s="4">
         <f t="shared" si="10"/>
         <v>5079</v>
       </c>
-      <c r="E150" s="3">
+      <c r="E150" s="4">
         <v>18</v>
       </c>
-      <c r="F150" s="3">
+      <c r="F150" s="4">
         <f t="shared" si="11"/>
         <v>282.166666666667</v>
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="3">
+      <c r="A151" s="4">
         <v>21</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="4">
         <f t="shared" si="8"/>
         <v>3087</v>
       </c>
-      <c r="C151" s="3">
+      <c r="C151" s="4">
         <f t="shared" si="9"/>
         <v>2476</v>
       </c>
-      <c r="D151" s="3">
+      <c r="D151" s="4">
         <f t="shared" si="10"/>
         <v>5563</v>
       </c>
-      <c r="E151" s="3">
+      <c r="E151" s="4">
         <v>19.5</v>
       </c>
-      <c r="F151" s="3">
+      <c r="F151" s="4">
         <f t="shared" si="11"/>
         <v>285.282051282051</v>
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="3">
+      <c r="A152" s="4">
         <v>22</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="4">
         <f t="shared" si="8"/>
         <v>3872</v>
       </c>
-      <c r="C152" s="3">
+      <c r="C152" s="4">
         <f t="shared" si="9"/>
         <v>3063</v>
       </c>
-      <c r="D152" s="3">
+      <c r="D152" s="4">
         <f t="shared" si="10"/>
         <v>6935</v>
       </c>
-      <c r="E152" s="3">
+      <c r="E152" s="4">
         <v>21</v>
       </c>
-      <c r="F152" s="3">
+      <c r="F152" s="4">
         <f t="shared" si="11"/>
         <v>330.238095238095</v>
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="3">
+      <c r="A153" s="4">
         <v>23</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153" s="4">
         <f t="shared" si="8"/>
         <v>4232</v>
       </c>
-      <c r="C153" s="3">
+      <c r="C153" s="4">
         <f t="shared" si="9"/>
         <v>3304</v>
       </c>
-      <c r="D153" s="3">
+      <c r="D153" s="4">
         <f t="shared" si="10"/>
         <v>7536</v>
       </c>
-      <c r="E153" s="3">
+      <c r="E153" s="4">
         <v>22.5</v>
       </c>
-      <c r="F153" s="3">
+      <c r="F153" s="4">
         <f t="shared" si="11"/>
         <v>334.933333333333</v>
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="3">
+      <c r="A154" s="4">
         <v>24</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" s="4">
         <f t="shared" si="8"/>
         <v>4608</v>
       </c>
-      <c r="C154" s="3">
+      <c r="C154" s="4">
         <f t="shared" si="9"/>
         <v>3552</v>
       </c>
-      <c r="D154" s="3">
+      <c r="D154" s="4">
         <f t="shared" si="10"/>
         <v>8160</v>
       </c>
-      <c r="E154" s="3">
+      <c r="E154" s="4">
         <v>24</v>
       </c>
-      <c r="F154" s="3">
+      <c r="F154" s="4">
         <f t="shared" si="11"/>
         <v>340</v>
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="3">
+      <c r="A155" s="4">
         <v>25</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" s="4">
         <f t="shared" si="8"/>
         <v>5625</v>
       </c>
-      <c r="C155" s="3">
+      <c r="C155" s="4">
         <f t="shared" si="9"/>
         <v>4283</v>
       </c>
-      <c r="D155" s="3">
+      <c r="D155" s="4">
         <f t="shared" si="10"/>
         <v>9908</v>
       </c>
-      <c r="E155" s="3">
+      <c r="E155" s="4">
         <v>25.5</v>
       </c>
-      <c r="F155" s="3">
+      <c r="F155" s="4">
         <f t="shared" si="11"/>
         <v>388.549019607843</v>
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="3">
+      <c r="A156" s="4">
         <v>26</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156" s="4">
         <f t="shared" si="8"/>
         <v>6084</v>
       </c>
-      <c r="C156" s="3">
+      <c r="C156" s="4">
         <f t="shared" si="9"/>
         <v>4578</v>
       </c>
-      <c r="D156" s="3">
+      <c r="D156" s="4">
         <f t="shared" si="10"/>
         <v>10662</v>
       </c>
-      <c r="E156" s="3">
+      <c r="E156" s="4">
         <v>27.5</v>
       </c>
-      <c r="F156" s="3">
+      <c r="F156" s="4">
         <f t="shared" si="11"/>
         <v>387.709090909091</v>
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="3">
+      <c r="A157" s="4">
         <v>27</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157" s="4">
         <f t="shared" si="8"/>
         <v>6561</v>
       </c>
-      <c r="C157" s="3">
+      <c r="C157" s="4">
         <f t="shared" si="9"/>
         <v>4881</v>
       </c>
-      <c r="D157" s="3">
+      <c r="D157" s="4">
         <f t="shared" si="10"/>
         <v>11442</v>
       </c>
-      <c r="E157" s="3">
+      <c r="E157" s="4">
         <v>29.5</v>
       </c>
-      <c r="F157" s="3">
+      <c r="F157" s="4">
         <f t="shared" si="11"/>
         <v>387.864406779661</v>
       </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="3">
+      <c r="A158" s="4">
         <v>28</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158" s="4">
         <f t="shared" si="8"/>
         <v>7840</v>
       </c>
-      <c r="C158" s="3">
+      <c r="C158" s="4">
         <f t="shared" si="9"/>
         <v>5770</v>
       </c>
-      <c r="D158" s="3">
+      <c r="D158" s="4">
         <f t="shared" si="10"/>
         <v>13610</v>
       </c>
-      <c r="E158" s="3">
+      <c r="E158" s="4">
         <v>31.5</v>
       </c>
-      <c r="F158" s="3">
+      <c r="F158" s="4">
         <f t="shared" si="11"/>
         <v>432.063492063492</v>
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="3">
+      <c r="A159" s="4">
         <v>29</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159" s="4">
         <f t="shared" si="8"/>
         <v>8410</v>
       </c>
-      <c r="C159" s="3">
+      <c r="C159" s="4">
         <f t="shared" si="9"/>
         <v>6125</v>
       </c>
-      <c r="D159" s="3">
+      <c r="D159" s="4">
         <f t="shared" si="10"/>
         <v>14535</v>
       </c>
-      <c r="E159" s="3">
+      <c r="E159" s="4">
         <v>33.5</v>
       </c>
-      <c r="F159" s="3">
+      <c r="F159" s="4">
         <f t="shared" si="11"/>
         <v>433.880597014925</v>
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="3">
+      <c r="A160" s="4">
         <v>30</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" s="4">
         <f t="shared" si="8"/>
         <v>9000</v>
       </c>
-      <c r="C160" s="3">
+      <c r="C160" s="4">
         <f t="shared" si="9"/>
         <v>6488</v>
       </c>
-      <c r="D160" s="3">
+      <c r="D160" s="4">
         <f t="shared" si="10"/>
         <v>15488</v>
       </c>
-      <c r="E160" s="3">
+      <c r="E160" s="4">
         <v>35.5</v>
       </c>
-      <c r="F160" s="3">
+      <c r="F160" s="4">
         <f t="shared" si="11"/>
         <v>436.281690140845</v>
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="3">
+      <c r="A161" s="4">
         <v>31</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161" s="4">
         <f t="shared" si="8"/>
         <v>10571</v>
       </c>
-      <c r="C161" s="3">
+      <c r="C161" s="4">
         <f t="shared" si="9"/>
         <v>7546</v>
       </c>
-      <c r="D161" s="3">
+      <c r="D161" s="4">
         <f t="shared" si="10"/>
         <v>18117</v>
       </c>
-      <c r="E161" s="3">
+      <c r="E161" s="4">
         <v>37.5</v>
       </c>
-      <c r="F161" s="3">
+      <c r="F161" s="4">
         <f t="shared" si="11"/>
         <v>483.12</v>
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="3">
+      <c r="A162" s="4">
         <v>32</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162" s="4">
         <f t="shared" si="8"/>
         <v>11264</v>
       </c>
-      <c r="C162" s="3">
+      <c r="C162" s="4">
         <f t="shared" si="9"/>
         <v>7964</v>
       </c>
-      <c r="D162" s="3">
+      <c r="D162" s="4">
         <f t="shared" si="10"/>
         <v>19228</v>
       </c>
-      <c r="E162" s="3">
+      <c r="E162" s="4">
         <v>39.5</v>
       </c>
-      <c r="F162" s="3">
+      <c r="F162" s="4">
         <f t="shared" si="11"/>
         <v>486.784810126582</v>
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="3">
+      <c r="A163" s="4">
         <v>33</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163" s="4">
         <f t="shared" si="8"/>
         <v>11979</v>
       </c>
-      <c r="C163" s="3">
+      <c r="C163" s="4">
         <f t="shared" si="9"/>
         <v>8392</v>
       </c>
-      <c r="D163" s="3">
+      <c r="D163" s="4">
         <f t="shared" si="10"/>
         <v>20371</v>
       </c>
-      <c r="E163" s="3">
+      <c r="E163" s="4">
         <v>41.5</v>
       </c>
-      <c r="F163" s="3">
+      <c r="F163" s="4">
         <f t="shared" si="11"/>
         <v>490.867469879518</v>
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="3">
+      <c r="A164" s="4">
         <v>34</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164" s="4">
         <f t="shared" si="8"/>
         <v>13872</v>
       </c>
-      <c r="C164" s="3">
+      <c r="C164" s="4">
         <f t="shared" si="9"/>
         <v>9632</v>
       </c>
-      <c r="D164" s="3">
+      <c r="D164" s="4">
         <f t="shared" si="10"/>
         <v>23504</v>
       </c>
-      <c r="E164" s="3">
+      <c r="E164" s="4">
         <v>43.5</v>
       </c>
-      <c r="F164" s="3">
+      <c r="F164" s="4">
         <f t="shared" si="11"/>
         <v>540.32183908046</v>
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="3">
+      <c r="A165" s="4">
         <v>35</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165" s="4">
         <f t="shared" si="8"/>
         <v>14700</v>
       </c>
-      <c r="C165" s="3">
+      <c r="C165" s="4">
         <f t="shared" si="9"/>
         <v>10118</v>
       </c>
-      <c r="D165" s="3">
+      <c r="D165" s="4">
         <f t="shared" si="10"/>
         <v>24818</v>
       </c>
-      <c r="E165" s="3">
+      <c r="E165" s="4">
         <v>45.5</v>
       </c>
-      <c r="F165" s="3">
+      <c r="F165" s="4">
         <f t="shared" si="11"/>
         <v>545.450549450549</v>
       </c>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167" s="4">
         <f>SUM(B131:B165)</f>
         <v>137406</v>
       </c>
-      <c r="C167" s="3">
+      <c r="C167" s="4">
         <f>SUM(C131:C165)</f>
         <v>101903</v>
       </c>
-      <c r="D167" s="3">
+      <c r="D167" s="4">
         <f>SUM(D131:D165)</f>
         <v>239309</v>
       </c>
-      <c r="E167" s="3">
+      <c r="E167" s="4">
         <f>SUM(E131:E165)</f>
         <v>619.75</v>
       </c>
@@ -4009,6 +4043,230 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <f>($B$3*A6*A6)/2-($B$3*A6)/2+$B$2</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" ref="B7:B15" si="0">($B$3*A7*A7)/2-($B$3*A7)/2+$B$2</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" ref="B16:B25" si="1">($B$3*A16*A16)/2-($B$3*A16)/2+$B$2</f>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="1"/>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="1"/>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="1"/>
+        <v>610</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="1"/>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="1"/>
+        <v>775</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="1"/>
+        <v>865</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="1"/>
+        <v>960</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A12"/>
@@ -4019,13 +4277,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="101" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="101" style="4" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="12" ht="219" customHeight="1" spans="1:1">
-      <c r="A12" s="6" t="s">
-        <v>34</v>
+      <c r="A12" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4034,7 +4292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F13"/>
@@ -4045,89 +4303,89 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="14.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="30.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="44.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="45.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="40.375" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="14.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="44.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="45.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="40.375" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="27" spans="1:6">
-      <c r="A1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="8" t="s">
+    <row r="1" s="8" customFormat="1" ht="27" spans="1:6">
+      <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="C1" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="D1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="2" ht="273" customHeight="1" spans="1:6">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>10000</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="B2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="D2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="2"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" ht="119" customHeight="1" spans="1:5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" ht="118" customHeight="1" spans="1:5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="3"/>
     </row>
     <row r="13" ht="98" customHeight="1"/>
   </sheetData>
@@ -4136,7 +4394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A8:D23"/>
@@ -4147,189 +4405,84 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="68.25" style="3" customWidth="1"/>
-    <col min="4" max="4" width="34.75" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="13.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="68.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="34.75" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="8" spans="1:4">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>1000</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>55</v>
+      <c r="B8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>1001</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>55</v>
+      <c r="B9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>1002</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>60</v>
+      <c r="B10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>1003</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="3" t="s">
-        <v>61</v>
+      <c r="B20" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>63</v>
+      <c r="B21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="22" ht="28.5" spans="2:3">
-      <c r="B22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>65</v>
+      <c r="B22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A5:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="6.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="55.625" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="2:3">
-      <c r="B5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="5">
-        <v>100</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="5">
-        <v>101</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="5">
-        <v>102</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="5">
-        <v>103</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="5">
-        <v>104</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="5">
-        <v>105</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" ht="28.5" spans="2:3">
-      <c r="B20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -4339,6 +4492,149 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A5:C26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="55.625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:3">
+      <c r="B5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="6">
+        <v>100</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6">
+        <v>101</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="6">
+        <v>102</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6">
+        <v>103</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="6">
+        <v>104</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6">
+        <v>105</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4">
+        <v>106</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" ht="28.5" spans="2:3">
+      <c r="B23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A7:A13"/>
@@ -4349,38 +4645,38 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="51.375" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="51.375" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="7" ht="66" customHeight="1" spans="1:1">
-      <c r="A7" s="4" t="s">
-        <v>83</v>
+      <c r="A7" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:1">
-      <c r="A8" s="4" t="s">
-        <v>84</v>
+      <c r="A8" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="9" ht="43" customHeight="1" spans="1:1">
-      <c r="A9" s="4" t="s">
-        <v>85</v>
+      <c r="A9" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="10" ht="51" customHeight="1" spans="1:1">
-      <c r="A10" s="2" t="s">
-        <v>86</v>
+      <c r="A10" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>87</v>
+      <c r="A11" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="12" ht="98" customHeight="1" spans="1:1">
-      <c r="A12" s="2" t="s">
-        <v>88</v>
+      <c r="A12" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="13" ht="56" customHeight="1"/>
@@ -4390,13 +4686,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A12:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4406,13 +4702,13 @@
   </cols>
   <sheetData>
     <row r="12" ht="62" customHeight="1" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>89</v>
+      <c r="A12" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="13" ht="66" customHeight="1" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>86</v>
+      <c r="A13" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28620" windowHeight="10275" activeTab="6"/>
+    <workbookView windowWidth="28620" windowHeight="12585" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -189,6 +189,9 @@
 把配件系统做成一种加成？</t>
   </si>
   <si>
+    <t>需要加入暴击率、暴击伤害？</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -341,7 +344,7 @@
     <t>为周围的同伴恢复生命</t>
   </si>
   <si>
-    <t>1号精英</t>
+    <t>1号小Boss</t>
   </si>
   <si>
     <t>朝周围发射6颗子弹</t>
@@ -1054,7 +1057,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1067,15 +1070,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1104,9 +1101,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1434,56 +1428,56 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="27" style="18" customWidth="1"/>
-    <col min="3" max="3" width="105.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="114.125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="27" style="15" customWidth="1"/>
+    <col min="3" max="3" width="105.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="114.125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="140" customHeight="1" spans="2:3">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="101" customHeight="1" spans="2:3">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="101" customHeight="1" spans="2:3">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="103" customHeight="1" spans="2:3">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="100" customHeight="1" spans="2:3">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1504,2534 +1498,2534 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="1:1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>2</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="1">
         <f>FLOOR((A8-1)/3,1)+1</f>
         <v>1</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <f>$B$3+(A8-1)*B8</f>
         <v>1</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <f>$B$5*POWER(A8,$B$6)*B8</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="1">
         <f t="shared" ref="B9:B27" si="0">FLOOR((A9-1)/3,1)+1</f>
         <v>1</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="1">
         <f t="shared" ref="C9:C42" si="1">$B$3+(A9-1)*B9</f>
         <v>2</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <f t="shared" ref="D9:D42" si="2">$B$5*POWER(A9,$B$6)*B9</f>
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4">
+      <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4">
+      <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="1">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4">
+      <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="1">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4">
+      <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="1">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="1">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="4">
+      <c r="A15" s="1">
         <v>8</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="1">
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="4">
+      <c r="A16" s="1">
         <v>9</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="1">
         <f t="shared" si="2"/>
         <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="4">
+      <c r="A17" s="1">
         <v>10</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="1">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="1">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="4">
+      <c r="A18" s="1">
         <v>11</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="1">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="1">
         <f t="shared" si="2"/>
         <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="4">
+      <c r="A19" s="1">
         <v>12</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="1">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="1">
         <f t="shared" si="2"/>
         <v>576</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="4">
+      <c r="A20" s="1">
         <v>13</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="1">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="1">
         <f t="shared" si="2"/>
         <v>845</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="4">
+      <c r="A21" s="1">
         <v>14</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="1">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="1">
         <f t="shared" si="2"/>
         <v>980</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="4">
+      <c r="A22" s="1">
         <v>15</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="1">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="1">
         <f t="shared" si="2"/>
         <v>1125</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4">
+      <c r="A23" s="1">
         <v>16</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="1">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="1">
         <f t="shared" si="2"/>
         <v>1536</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="4">
+      <c r="A24" s="1">
         <v>17</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="1">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="1">
         <f t="shared" si="2"/>
         <v>1734</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="4">
+      <c r="A25" s="1">
         <v>18</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="1">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="1">
         <f t="shared" si="2"/>
         <v>1944</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="4">
+      <c r="A26" s="1">
         <v>19</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="1">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="1">
         <f t="shared" si="2"/>
         <v>2527</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="4">
+      <c r="A27" s="1">
         <v>20</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="1">
         <f t="shared" si="1"/>
         <v>134</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="1">
         <f t="shared" si="2"/>
         <v>2800</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="4">
+      <c r="A28" s="1">
         <v>21</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="1">
         <f t="shared" ref="B28:B42" si="3">FLOOR((A28-1)/3,1)+1</f>
         <v>7</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="1">
         <f t="shared" si="1"/>
         <v>141</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="1">
         <f t="shared" si="2"/>
         <v>3087</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="4">
+      <c r="A29" s="1">
         <v>22</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="1">
         <f t="shared" si="1"/>
         <v>169</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="1">
         <f t="shared" si="2"/>
         <v>3872</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="4">
+      <c r="A30" s="1">
         <v>23</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="1">
         <f t="shared" si="1"/>
         <v>177</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="1">
         <f t="shared" si="2"/>
         <v>4232</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="4">
+      <c r="A31" s="1">
         <v>24</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="1">
         <f t="shared" si="1"/>
         <v>185</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="1">
         <f t="shared" si="2"/>
         <v>4608</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4">
+      <c r="A32" s="1">
         <v>25</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="1">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="1">
         <f t="shared" si="1"/>
         <v>217</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="1">
         <f t="shared" si="2"/>
         <v>5625</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="4">
+      <c r="A33" s="1">
         <v>26</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="1">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="1">
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="1">
         <f t="shared" si="2"/>
         <v>6084</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="4">
+      <c r="A34" s="1">
         <v>27</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="1">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="1">
         <f t="shared" si="1"/>
         <v>235</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="1">
         <f t="shared" si="2"/>
         <v>6561</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="4">
+      <c r="A35" s="1">
         <v>28</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="1">
         <f t="shared" si="1"/>
         <v>271</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="1">
         <f t="shared" si="2"/>
         <v>7840</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="4">
+      <c r="A36" s="1">
         <v>29</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="1">
         <f t="shared" si="1"/>
         <v>281</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="1">
         <f t="shared" si="2"/>
         <v>8410</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="4">
+      <c r="A37" s="1">
         <v>30</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="1">
         <f t="shared" si="1"/>
         <v>291</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="1">
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="4">
+      <c r="A38" s="1">
         <v>31</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="1">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="1">
         <f t="shared" si="1"/>
         <v>331</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="1">
         <f t="shared" si="2"/>
         <v>10571</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="4">
+      <c r="A39" s="1">
         <v>32</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="1">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="1">
         <f t="shared" si="1"/>
         <v>342</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="1">
         <f t="shared" si="2"/>
         <v>11264</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="4">
+      <c r="A40" s="1">
         <v>33</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="1">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="1">
         <f t="shared" si="1"/>
         <v>353</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="1">
         <f t="shared" si="2"/>
         <v>11979</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="4">
+      <c r="A41" s="1">
         <v>34</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="1">
         <f t="shared" si="1"/>
         <v>397</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="1">
         <f t="shared" si="2"/>
         <v>13872</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="4">
+      <c r="A42" s="1">
         <v>35</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="1">
         <f t="shared" si="1"/>
         <v>409</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="1">
         <f t="shared" si="2"/>
         <v>14700</v>
       </c>
     </row>
     <row r="44" ht="28.5" spans="1:1">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="2">
         <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="1">
         <v>2</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="15">
+      <c r="B49" s="13">
         <v>1.7</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="4">
+      <c r="A51" s="1">
         <v>1</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="1">
         <f>FLOOR((A51-1)/3,1)+1</f>
         <v>1</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="1">
         <f>$B$45/(1+((A51-1)*B51*$B$46)/100)</f>
         <v>450</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="1">
         <f>FLOOR($B$48*POWER(A51,$B$49)*B51,1)</f>
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="4">
+      <c r="A52" s="1">
         <v>2</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="1">
         <f t="shared" ref="B52:B85" si="4">FLOOR((A52-1)/3,1)+1</f>
         <v>1</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="1">
         <f t="shared" ref="C52:C85" si="5">$B$45/(1+((A52-1)*B52*$B$46)/100)</f>
         <v>445.544554455446</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="1">
         <f t="shared" ref="D52:D85" si="6">FLOOR($B$48*POWER(A52,$B$49)*B52,1)</f>
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="4">
+      <c r="A53" s="1">
         <v>3</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="1">
         <f t="shared" si="5"/>
         <v>441.176470588235</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="1">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="4">
+      <c r="A54" s="1">
         <v>4</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="1">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="1">
         <f t="shared" si="5"/>
         <v>424.528301886792</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="1">
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="4">
+      <c r="A55" s="1">
         <v>5</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="1">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="1">
         <f t="shared" si="5"/>
         <v>416.666666666667</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="1">
         <f t="shared" si="6"/>
         <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="4">
+      <c r="A56" s="1">
         <v>6</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="1">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="1">
         <f t="shared" si="5"/>
         <v>409.090909090909</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="1">
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="4">
+      <c r="A57" s="1">
         <v>7</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="1">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="1">
         <f t="shared" si="5"/>
         <v>381.35593220339</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="1">
         <f t="shared" si="6"/>
         <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="4">
+      <c r="A58" s="1">
         <v>8</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="1">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="1">
         <f t="shared" si="5"/>
         <v>371.900826446281</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="1">
         <f t="shared" si="6"/>
         <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="4">
+      <c r="A59" s="1">
         <v>9</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="1">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="1">
         <f t="shared" si="5"/>
         <v>362.903225806452</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="1">
         <f t="shared" si="6"/>
         <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="4">
+      <c r="A60" s="1">
         <v>10</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="1">
         <f t="shared" si="5"/>
         <v>330.882352941177</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="1">
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="4">
+      <c r="A61" s="1">
         <v>11</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="1">
         <f t="shared" si="5"/>
         <v>321.428571428571</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="1">
         <f t="shared" si="6"/>
         <v>471</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="4">
+      <c r="A62" s="1">
         <v>12</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="1">
         <f t="shared" si="5"/>
         <v>312.5</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="1">
         <f t="shared" si="6"/>
         <v>546</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="4">
+      <c r="A63" s="1">
         <v>13</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="1">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="1">
         <f t="shared" si="5"/>
         <v>281.25</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="1">
         <f t="shared" si="6"/>
         <v>782</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="4">
+      <c r="A64" s="1">
         <v>14</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="1">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="1">
         <f t="shared" si="5"/>
         <v>272.727272727273</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="1">
         <f t="shared" si="6"/>
         <v>888</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="4">
+      <c r="A65" s="1">
         <v>15</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="1">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="1">
         <f t="shared" si="5"/>
         <v>264.705882352941</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="1">
         <f t="shared" si="6"/>
         <v>998</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="4">
+      <c r="A66" s="1">
         <v>16</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="1">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="1">
         <f t="shared" si="5"/>
         <v>236.842105263158</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="1">
         <f t="shared" si="6"/>
         <v>1337</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="4">
+      <c r="A67" s="1">
         <v>17</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="1">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="1">
         <f t="shared" si="5"/>
         <v>229.591836734694</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="1">
         <f t="shared" si="6"/>
         <v>1482</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="4">
+      <c r="A68" s="1">
         <v>18</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="1">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="1">
         <f t="shared" si="5"/>
         <v>222.772277227723</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="1">
         <f t="shared" si="6"/>
         <v>1633</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="4">
+      <c r="A69" s="1">
         <v>19</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="1">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="1">
         <f t="shared" si="5"/>
         <v>199.115044247788</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="1">
         <f t="shared" si="6"/>
         <v>2089</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="4">
+      <c r="A70" s="1">
         <v>20</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="1">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="1">
         <f t="shared" si="5"/>
         <v>193.1330472103</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="1">
         <f t="shared" si="6"/>
         <v>2279</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="4">
+      <c r="A71" s="1">
         <v>21</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="1">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="1">
         <f t="shared" si="5"/>
         <v>187.5</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="1">
         <f t="shared" si="6"/>
         <v>2476</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="4">
+      <c r="A72" s="1">
         <v>22</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="1">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="1">
         <f t="shared" si="5"/>
         <v>167.910447761194</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="1">
         <f t="shared" si="6"/>
         <v>3063</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="4">
+      <c r="A73" s="1">
         <v>23</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="1">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="1">
         <f t="shared" si="5"/>
         <v>163.04347826087</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="1">
         <f t="shared" si="6"/>
         <v>3304</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="4">
+      <c r="A74" s="1">
         <v>24</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="1">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="1">
         <f t="shared" si="5"/>
         <v>158.450704225352</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="1">
         <f t="shared" si="6"/>
         <v>3552</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="4">
+      <c r="A75" s="1">
         <v>25</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="1">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="1">
         <f t="shared" si="5"/>
         <v>142.405063291139</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="1">
         <f t="shared" si="6"/>
         <v>4283</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="4">
+      <c r="A76" s="1">
         <v>26</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="1">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="1">
         <f t="shared" si="5"/>
         <v>138.461538461538</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="1">
         <f t="shared" si="6"/>
         <v>4578</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="4">
+      <c r="A77" s="1">
         <v>27</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="1">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="1">
         <f t="shared" si="5"/>
         <v>134.730538922156</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="1">
         <f t="shared" si="6"/>
         <v>4881</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="4">
+      <c r="A78" s="1">
         <v>28</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="1">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="1">
         <f t="shared" si="5"/>
         <v>121.621621621622</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="1">
         <f t="shared" si="6"/>
         <v>5770</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="4">
+      <c r="A79" s="1">
         <v>29</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="1">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="1">
         <f t="shared" si="5"/>
         <v>118.421052631579</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="1">
         <f t="shared" si="6"/>
         <v>6125</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="4">
+      <c r="A80" s="1">
         <v>30</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="1">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="1">
         <f t="shared" si="5"/>
         <v>115.384615384615</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="1">
         <f t="shared" si="6"/>
         <v>6488</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="4">
+      <c r="A81" s="1">
         <v>31</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="1">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="1">
         <f t="shared" si="5"/>
         <v>104.651162790698</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="1">
         <f t="shared" si="6"/>
         <v>7546</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="4">
+      <c r="A82" s="1">
         <v>32</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="1">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="1">
         <f t="shared" si="5"/>
         <v>102.040816326531</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="1">
         <f t="shared" si="6"/>
         <v>7964</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="4">
+      <c r="A83" s="1">
         <v>33</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="1">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="1">
         <f t="shared" si="5"/>
         <v>99.5575221238938</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="1">
         <f t="shared" si="6"/>
         <v>8392</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="4">
+      <c r="A84" s="1">
         <v>34</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="1">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="1">
         <f t="shared" si="5"/>
         <v>90.7258064516129</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="1">
         <f t="shared" si="6"/>
         <v>9632</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="4">
+      <c r="A85" s="1">
         <v>35</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" s="1">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="1">
         <f t="shared" si="5"/>
         <v>88.5826771653543</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="1">
         <f t="shared" si="6"/>
         <v>10118</v>
       </c>
     </row>
     <row r="88" ht="28.5" spans="1:1">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="4">
+      <c r="A90" s="1">
         <v>1</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" s="1">
         <f>C8/(C51/1000)</f>
         <v>2.22222222222222</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="4">
+      <c r="A91" s="1">
         <v>2</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91" s="1">
         <f t="shared" ref="B91:B124" si="7">C9/(C52/1000)</f>
         <v>4.48888888888889</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="4">
+      <c r="A92" s="1">
         <v>3</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" s="1">
         <f t="shared" si="7"/>
         <v>6.8</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="4">
+      <c r="A93" s="1">
         <v>4</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="1">
         <f t="shared" si="7"/>
         <v>16.4888888888889</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="4">
+      <c r="A94" s="1">
         <v>5</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" s="1">
         <f t="shared" si="7"/>
         <v>21.6</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="4">
+      <c r="A95" s="1">
         <v>6</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="1">
         <f t="shared" si="7"/>
         <v>26.8888888888889</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="4">
+      <c r="A96" s="1">
         <v>7</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="1">
         <f t="shared" si="7"/>
         <v>49.8222222222222</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="4">
+      <c r="A97" s="1">
         <v>8</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" s="1">
         <f t="shared" si="7"/>
         <v>59.1555555555556</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="4">
+      <c r="A98" s="1">
         <v>9</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="1">
         <f t="shared" si="7"/>
         <v>68.8888888888889</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="4">
+      <c r="A99" s="1">
         <v>10</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99" s="1">
         <f t="shared" si="7"/>
         <v>111.822222222222</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="4">
+      <c r="A100" s="1">
         <v>11</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100" s="1">
         <f t="shared" si="7"/>
         <v>127.555555555556</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="4">
+      <c r="A101" s="1">
         <v>12</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="1">
         <f t="shared" si="7"/>
         <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="4">
+      <c r="A102" s="1">
         <v>13</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="1">
         <f t="shared" si="7"/>
         <v>216.888888888889</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="4">
+      <c r="A103" s="1">
         <v>14</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="1">
         <f t="shared" si="7"/>
         <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="4">
+      <c r="A104" s="1">
         <v>15</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="1">
         <f t="shared" si="7"/>
         <v>268.222222222222</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="4">
+      <c r="A105" s="1">
         <v>16</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="1">
         <f t="shared" si="7"/>
         <v>384.222222222222</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="4">
+      <c r="A106" s="1">
         <v>17</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="1">
         <f t="shared" si="7"/>
         <v>422.488888888889</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="4">
+      <c r="A107" s="1">
         <v>18</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" s="1">
         <f t="shared" si="7"/>
         <v>462.355555555556</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="4">
+      <c r="A108" s="1">
         <v>19</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="1">
         <f t="shared" si="7"/>
         <v>637.822222222222</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="4">
+      <c r="A109" s="1">
         <v>20</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="1">
         <f t="shared" si="7"/>
         <v>693.822222222222</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="4">
+      <c r="A110" s="1">
         <v>21</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="1">
         <f t="shared" si="7"/>
         <v>752</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="4">
+      <c r="A111" s="1">
         <v>22</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111" s="1">
         <f t="shared" si="7"/>
         <v>1006.48888888889</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="4">
+      <c r="A112" s="1">
         <v>23</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112" s="1">
         <f t="shared" si="7"/>
         <v>1085.6</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="4">
+      <c r="A113" s="1">
         <v>24</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113" s="1">
         <f t="shared" si="7"/>
         <v>1167.55555555556</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="4">
+      <c r="A114" s="1">
         <v>25</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114" s="1">
         <f t="shared" si="7"/>
         <v>1523.82222222222</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="4">
+      <c r="A115" s="1">
         <v>26</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115" s="1">
         <f t="shared" si="7"/>
         <v>1632.22222222222</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="4">
+      <c r="A116" s="1">
         <v>27</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116" s="1">
         <f t="shared" si="7"/>
         <v>1744.22222222222</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="4">
+      <c r="A117" s="1">
         <v>28</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117" s="1">
         <f t="shared" si="7"/>
         <v>2228.22222222222</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="4">
+      <c r="A118" s="1">
         <v>29</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118" s="1">
         <f t="shared" si="7"/>
         <v>2372.88888888889</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="4">
+      <c r="A119" s="1">
         <v>30</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119" s="1">
         <f t="shared" si="7"/>
         <v>2522</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="4">
+      <c r="A120" s="1">
         <v>31</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120" s="1">
         <f t="shared" si="7"/>
         <v>3162.88888888889</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="4">
+      <c r="A121" s="1">
         <v>32</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B121" s="1">
         <f t="shared" si="7"/>
         <v>3351.6</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="4">
+      <c r="A122" s="1">
         <v>33</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122" s="1">
         <f t="shared" si="7"/>
         <v>3545.68888888889</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="4">
+      <c r="A123" s="1">
         <v>34</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123" s="1">
         <f t="shared" si="7"/>
         <v>4375.82222222222</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="4">
+      <c r="A124" s="1">
         <v>35</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124" s="1">
         <f t="shared" si="7"/>
         <v>4617.15555555556</v>
       </c>
     </row>
     <row r="129" ht="28.5" spans="1:1">
-      <c r="A129" s="13" t="s">
+      <c r="A129" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="17" t="s">
+      <c r="A130" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B130" s="17" t="s">
+      <c r="B130" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C130" s="17" t="s">
+      <c r="C130" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D130" s="17" t="s">
+      <c r="D130" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E130" s="17" t="s">
+      <c r="E130" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F130" s="17" t="s">
+      <c r="F130" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="4">
+      <c r="A131" s="1">
         <v>1</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131" s="1">
         <f>D8</f>
         <v>1</v>
       </c>
-      <c r="C131" s="4">
+      <c r="C131" s="1">
         <f>D51</f>
         <v>2</v>
       </c>
-      <c r="D131" s="4">
+      <c r="D131" s="1">
         <f>B131+C131</f>
         <v>3</v>
       </c>
-      <c r="E131" s="4">
+      <c r="E131" s="1">
         <v>0.5</v>
       </c>
-      <c r="F131" s="4">
+      <c r="F131" s="1">
         <f>D131/E131</f>
         <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="4">
+      <c r="A132" s="1">
         <v>2</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132" s="1">
         <f t="shared" ref="B132:B165" si="8">D9</f>
         <v>4</v>
       </c>
-      <c r="C132" s="4">
+      <c r="C132" s="1">
         <f t="shared" ref="C132:C165" si="9">D52</f>
         <v>6</v>
       </c>
-      <c r="D132" s="4">
+      <c r="D132" s="1">
         <f t="shared" ref="D132:D165" si="10">B132+C132</f>
         <v>10</v>
       </c>
-      <c r="E132" s="4">
+      <c r="E132" s="1">
         <v>0.75</v>
       </c>
-      <c r="F132" s="4">
+      <c r="F132" s="1">
         <f t="shared" ref="F132:F165" si="11">D132/E132</f>
         <v>13.3333333333333</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="4">
+      <c r="A133" s="1">
         <v>3</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133" s="1">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="C133" s="4">
+      <c r="C133" s="1">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="D133" s="4">
+      <c r="D133" s="1">
         <f t="shared" si="10"/>
         <v>21</v>
       </c>
-      <c r="E133" s="4">
+      <c r="E133" s="1">
         <v>1</v>
       </c>
-      <c r="F133" s="4">
+      <c r="F133" s="1">
         <f t="shared" si="11"/>
         <v>21</v>
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="4">
+      <c r="A134" s="1">
         <v>4</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134" s="1">
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="C134" s="4">
+      <c r="C134" s="1">
         <f t="shared" si="9"/>
         <v>42</v>
       </c>
-      <c r="D134" s="4">
+      <c r="D134" s="1">
         <f t="shared" si="10"/>
         <v>74</v>
       </c>
-      <c r="E134" s="4">
+      <c r="E134" s="1">
         <v>1.5</v>
       </c>
-      <c r="F134" s="4">
+      <c r="F134" s="1">
         <f t="shared" si="11"/>
         <v>49.3333333333333</v>
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="4">
+      <c r="A135" s="1">
         <v>5</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B135" s="1">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="C135" s="4">
+      <c r="C135" s="1">
         <f t="shared" si="9"/>
         <v>61</v>
       </c>
-      <c r="D135" s="4">
+      <c r="D135" s="1">
         <f t="shared" si="10"/>
         <v>111</v>
       </c>
-      <c r="E135" s="4">
+      <c r="E135" s="1">
         <v>2</v>
       </c>
-      <c r="F135" s="4">
+      <c r="F135" s="1">
         <f t="shared" si="11"/>
         <v>55.5</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="4">
+      <c r="A136" s="1">
         <v>6</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136" s="1">
         <f t="shared" si="8"/>
         <v>72</v>
       </c>
-      <c r="C136" s="4">
+      <c r="C136" s="1">
         <f t="shared" si="9"/>
         <v>84</v>
       </c>
-      <c r="D136" s="4">
+      <c r="D136" s="1">
         <f t="shared" si="10"/>
         <v>156</v>
       </c>
-      <c r="E136" s="4">
+      <c r="E136" s="1">
         <v>2.5</v>
       </c>
-      <c r="F136" s="4">
+      <c r="F136" s="1">
         <f t="shared" si="11"/>
         <v>62.4</v>
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="4">
+      <c r="A137" s="1">
         <v>7</v>
       </c>
-      <c r="B137" s="4">
+      <c r="B137" s="1">
         <f t="shared" si="8"/>
         <v>147</v>
       </c>
-      <c r="C137" s="4">
+      <c r="C137" s="1">
         <f t="shared" si="9"/>
         <v>163</v>
       </c>
-      <c r="D137" s="4">
+      <c r="D137" s="1">
         <f t="shared" si="10"/>
         <v>310</v>
       </c>
-      <c r="E137" s="4">
+      <c r="E137" s="1">
         <v>3</v>
       </c>
-      <c r="F137" s="4">
+      <c r="F137" s="1">
         <f t="shared" si="11"/>
         <v>103.333333333333</v>
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="4">
+      <c r="A138" s="1">
         <v>8</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B138" s="1">
         <f t="shared" si="8"/>
         <v>192</v>
       </c>
-      <c r="C138" s="4">
+      <c r="C138" s="1">
         <f t="shared" si="9"/>
         <v>205</v>
       </c>
-      <c r="D138" s="4">
+      <c r="D138" s="1">
         <f t="shared" si="10"/>
         <v>397</v>
       </c>
-      <c r="E138" s="4">
+      <c r="E138" s="1">
         <v>3.5</v>
       </c>
-      <c r="F138" s="4">
+      <c r="F138" s="1">
         <f t="shared" si="11"/>
         <v>113.428571428571</v>
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="4">
+      <c r="A139" s="1">
         <v>9</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B139" s="1">
         <f t="shared" si="8"/>
         <v>243</v>
       </c>
-      <c r="C139" s="4">
+      <c r="C139" s="1">
         <f t="shared" si="9"/>
         <v>251</v>
       </c>
-      <c r="D139" s="4">
+      <c r="D139" s="1">
         <f t="shared" si="10"/>
         <v>494</v>
       </c>
-      <c r="E139" s="4">
+      <c r="E139" s="1">
         <v>4.5</v>
       </c>
-      <c r="F139" s="4">
+      <c r="F139" s="1">
         <f t="shared" si="11"/>
         <v>109.777777777778</v>
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="4">
+      <c r="A140" s="1">
         <v>10</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B140" s="1">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
-      <c r="C140" s="4">
+      <c r="C140" s="1">
         <f t="shared" si="9"/>
         <v>400</v>
       </c>
-      <c r="D140" s="4">
+      <c r="D140" s="1">
         <f t="shared" si="10"/>
         <v>800</v>
       </c>
-      <c r="E140" s="4">
+      <c r="E140" s="1">
         <v>5.5</v>
       </c>
-      <c r="F140" s="4">
+      <c r="F140" s="1">
         <f t="shared" si="11"/>
         <v>145.454545454545</v>
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="4">
+      <c r="A141" s="1">
         <v>11</v>
       </c>
-      <c r="B141" s="4">
+      <c r="B141" s="1">
         <f t="shared" si="8"/>
         <v>484</v>
       </c>
-      <c r="C141" s="4">
+      <c r="C141" s="1">
         <f t="shared" si="9"/>
         <v>471</v>
       </c>
-      <c r="D141" s="4">
+      <c r="D141" s="1">
         <f t="shared" si="10"/>
         <v>955</v>
       </c>
-      <c r="E141" s="4">
+      <c r="E141" s="1">
         <v>6.5</v>
       </c>
-      <c r="F141" s="4">
+      <c r="F141" s="1">
         <f t="shared" si="11"/>
         <v>146.923076923077</v>
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="4">
+      <c r="A142" s="1">
         <v>12</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B142" s="1">
         <f t="shared" si="8"/>
         <v>576</v>
       </c>
-      <c r="C142" s="4">
+      <c r="C142" s="1">
         <f t="shared" si="9"/>
         <v>546</v>
       </c>
-      <c r="D142" s="4">
+      <c r="D142" s="1">
         <f t="shared" si="10"/>
         <v>1122</v>
       </c>
-      <c r="E142" s="4">
+      <c r="E142" s="1">
         <v>7.5</v>
       </c>
-      <c r="F142" s="4">
+      <c r="F142" s="1">
         <f t="shared" si="11"/>
         <v>149.6</v>
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="4">
+      <c r="A143" s="1">
         <v>13</v>
       </c>
-      <c r="B143" s="4">
+      <c r="B143" s="1">
         <f t="shared" si="8"/>
         <v>845</v>
       </c>
-      <c r="C143" s="4">
+      <c r="C143" s="1">
         <f t="shared" si="9"/>
         <v>782</v>
       </c>
-      <c r="D143" s="4">
+      <c r="D143" s="1">
         <f t="shared" si="10"/>
         <v>1627</v>
       </c>
-      <c r="E143" s="4">
+      <c r="E143" s="1">
         <v>8.5</v>
       </c>
-      <c r="F143" s="4">
+      <c r="F143" s="1">
         <f t="shared" si="11"/>
         <v>191.411764705882</v>
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="4">
+      <c r="A144" s="1">
         <v>14</v>
       </c>
-      <c r="B144" s="4">
+      <c r="B144" s="1">
         <f t="shared" si="8"/>
         <v>980</v>
       </c>
-      <c r="C144" s="4">
+      <c r="C144" s="1">
         <f t="shared" si="9"/>
         <v>888</v>
       </c>
-      <c r="D144" s="4">
+      <c r="D144" s="1">
         <f t="shared" si="10"/>
         <v>1868</v>
       </c>
-      <c r="E144" s="4">
+      <c r="E144" s="1">
         <v>9.5</v>
       </c>
-      <c r="F144" s="4">
+      <c r="F144" s="1">
         <f t="shared" si="11"/>
         <v>196.631578947368</v>
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="4">
+      <c r="A145" s="1">
         <v>15</v>
       </c>
-      <c r="B145" s="4">
+      <c r="B145" s="1">
         <f t="shared" si="8"/>
         <v>1125</v>
       </c>
-      <c r="C145" s="4">
+      <c r="C145" s="1">
         <f t="shared" si="9"/>
         <v>998</v>
       </c>
-      <c r="D145" s="4">
+      <c r="D145" s="1">
         <f t="shared" si="10"/>
         <v>2123</v>
       </c>
-      <c r="E145" s="4">
+      <c r="E145" s="1">
         <v>10.5</v>
       </c>
-      <c r="F145" s="4">
+      <c r="F145" s="1">
         <f t="shared" si="11"/>
         <v>202.190476190476</v>
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="4">
+      <c r="A146" s="1">
         <v>16</v>
       </c>
-      <c r="B146" s="4">
+      <c r="B146" s="1">
         <f t="shared" si="8"/>
         <v>1536</v>
       </c>
-      <c r="C146" s="4">
+      <c r="C146" s="1">
         <f t="shared" si="9"/>
         <v>1337</v>
       </c>
-      <c r="D146" s="4">
+      <c r="D146" s="1">
         <f t="shared" si="10"/>
         <v>2873</v>
       </c>
-      <c r="E146" s="4">
+      <c r="E146" s="1">
         <v>12</v>
       </c>
-      <c r="F146" s="4">
+      <c r="F146" s="1">
         <f t="shared" si="11"/>
         <v>239.416666666667</v>
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="4">
+      <c r="A147" s="1">
         <v>17</v>
       </c>
-      <c r="B147" s="4">
+      <c r="B147" s="1">
         <f t="shared" si="8"/>
         <v>1734</v>
       </c>
-      <c r="C147" s="4">
+      <c r="C147" s="1">
         <f t="shared" si="9"/>
         <v>1482</v>
       </c>
-      <c r="D147" s="4">
+      <c r="D147" s="1">
         <f t="shared" si="10"/>
         <v>3216</v>
       </c>
-      <c r="E147" s="4">
+      <c r="E147" s="1">
         <v>13.5</v>
       </c>
-      <c r="F147" s="4">
+      <c r="F147" s="1">
         <f t="shared" si="11"/>
         <v>238.222222222222</v>
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="4">
+      <c r="A148" s="1">
         <v>18</v>
       </c>
-      <c r="B148" s="4">
+      <c r="B148" s="1">
         <f t="shared" si="8"/>
         <v>1944</v>
       </c>
-      <c r="C148" s="4">
+      <c r="C148" s="1">
         <f t="shared" si="9"/>
         <v>1633</v>
       </c>
-      <c r="D148" s="4">
+      <c r="D148" s="1">
         <f t="shared" si="10"/>
         <v>3577</v>
       </c>
-      <c r="E148" s="4">
+      <c r="E148" s="1">
         <v>15</v>
       </c>
-      <c r="F148" s="4">
+      <c r="F148" s="1">
         <f t="shared" si="11"/>
         <v>238.466666666667</v>
       </c>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="4">
+      <c r="A149" s="1">
         <v>19</v>
       </c>
-      <c r="B149" s="4">
+      <c r="B149" s="1">
         <f t="shared" si="8"/>
         <v>2527</v>
       </c>
-      <c r="C149" s="4">
+      <c r="C149" s="1">
         <f t="shared" si="9"/>
         <v>2089</v>
       </c>
-      <c r="D149" s="4">
+      <c r="D149" s="1">
         <f t="shared" si="10"/>
         <v>4616</v>
       </c>
-      <c r="E149" s="4">
+      <c r="E149" s="1">
         <v>16.5</v>
       </c>
-      <c r="F149" s="4">
+      <c r="F149" s="1">
         <f t="shared" si="11"/>
         <v>279.757575757576</v>
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="4">
+      <c r="A150" s="1">
         <v>20</v>
       </c>
-      <c r="B150" s="4">
+      <c r="B150" s="1">
         <f t="shared" si="8"/>
         <v>2800</v>
       </c>
-      <c r="C150" s="4">
+      <c r="C150" s="1">
         <f t="shared" si="9"/>
         <v>2279</v>
       </c>
-      <c r="D150" s="4">
+      <c r="D150" s="1">
         <f t="shared" si="10"/>
         <v>5079</v>
       </c>
-      <c r="E150" s="4">
+      <c r="E150" s="1">
         <v>18</v>
       </c>
-      <c r="F150" s="4">
+      <c r="F150" s="1">
         <f t="shared" si="11"/>
         <v>282.166666666667</v>
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="4">
+      <c r="A151" s="1">
         <v>21</v>
       </c>
-      <c r="B151" s="4">
+      <c r="B151" s="1">
         <f t="shared" si="8"/>
         <v>3087</v>
       </c>
-      <c r="C151" s="4">
+      <c r="C151" s="1">
         <f t="shared" si="9"/>
         <v>2476</v>
       </c>
-      <c r="D151" s="4">
+      <c r="D151" s="1">
         <f t="shared" si="10"/>
         <v>5563</v>
       </c>
-      <c r="E151" s="4">
+      <c r="E151" s="1">
         <v>19.5</v>
       </c>
-      <c r="F151" s="4">
+      <c r="F151" s="1">
         <f t="shared" si="11"/>
         <v>285.282051282051</v>
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="4">
+      <c r="A152" s="1">
         <v>22</v>
       </c>
-      <c r="B152" s="4">
+      <c r="B152" s="1">
         <f t="shared" si="8"/>
         <v>3872</v>
       </c>
-      <c r="C152" s="4">
+      <c r="C152" s="1">
         <f t="shared" si="9"/>
         <v>3063</v>
       </c>
-      <c r="D152" s="4">
+      <c r="D152" s="1">
         <f t="shared" si="10"/>
         <v>6935</v>
       </c>
-      <c r="E152" s="4">
+      <c r="E152" s="1">
         <v>21</v>
       </c>
-      <c r="F152" s="4">
+      <c r="F152" s="1">
         <f t="shared" si="11"/>
         <v>330.238095238095</v>
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="4">
+      <c r="A153" s="1">
         <v>23</v>
       </c>
-      <c r="B153" s="4">
+      <c r="B153" s="1">
         <f t="shared" si="8"/>
         <v>4232</v>
       </c>
-      <c r="C153" s="4">
+      <c r="C153" s="1">
         <f t="shared" si="9"/>
         <v>3304</v>
       </c>
-      <c r="D153" s="4">
+      <c r="D153" s="1">
         <f t="shared" si="10"/>
         <v>7536</v>
       </c>
-      <c r="E153" s="4">
+      <c r="E153" s="1">
         <v>22.5</v>
       </c>
-      <c r="F153" s="4">
+      <c r="F153" s="1">
         <f t="shared" si="11"/>
         <v>334.933333333333</v>
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="4">
+      <c r="A154" s="1">
         <v>24</v>
       </c>
-      <c r="B154" s="4">
+      <c r="B154" s="1">
         <f t="shared" si="8"/>
         <v>4608</v>
       </c>
-      <c r="C154" s="4">
+      <c r="C154" s="1">
         <f t="shared" si="9"/>
         <v>3552</v>
       </c>
-      <c r="D154" s="4">
+      <c r="D154" s="1">
         <f t="shared" si="10"/>
         <v>8160</v>
       </c>
-      <c r="E154" s="4">
+      <c r="E154" s="1">
         <v>24</v>
       </c>
-      <c r="F154" s="4">
+      <c r="F154" s="1">
         <f t="shared" si="11"/>
         <v>340</v>
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="4">
+      <c r="A155" s="1">
         <v>25</v>
       </c>
-      <c r="B155" s="4">
+      <c r="B155" s="1">
         <f t="shared" si="8"/>
         <v>5625</v>
       </c>
-      <c r="C155" s="4">
+      <c r="C155" s="1">
         <f t="shared" si="9"/>
         <v>4283</v>
       </c>
-      <c r="D155" s="4">
+      <c r="D155" s="1">
         <f t="shared" si="10"/>
         <v>9908</v>
       </c>
-      <c r="E155" s="4">
+      <c r="E155" s="1">
         <v>25.5</v>
       </c>
-      <c r="F155" s="4">
+      <c r="F155" s="1">
         <f t="shared" si="11"/>
         <v>388.549019607843</v>
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="4">
+      <c r="A156" s="1">
         <v>26</v>
       </c>
-      <c r="B156" s="4">
+      <c r="B156" s="1">
         <f t="shared" si="8"/>
         <v>6084</v>
       </c>
-      <c r="C156" s="4">
+      <c r="C156" s="1">
         <f t="shared" si="9"/>
         <v>4578</v>
       </c>
-      <c r="D156" s="4">
+      <c r="D156" s="1">
         <f t="shared" si="10"/>
         <v>10662</v>
       </c>
-      <c r="E156" s="4">
+      <c r="E156" s="1">
         <v>27.5</v>
       </c>
-      <c r="F156" s="4">
+      <c r="F156" s="1">
         <f t="shared" si="11"/>
         <v>387.709090909091</v>
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="4">
+      <c r="A157" s="1">
         <v>27</v>
       </c>
-      <c r="B157" s="4">
+      <c r="B157" s="1">
         <f t="shared" si="8"/>
         <v>6561</v>
       </c>
-      <c r="C157" s="4">
+      <c r="C157" s="1">
         <f t="shared" si="9"/>
         <v>4881</v>
       </c>
-      <c r="D157" s="4">
+      <c r="D157" s="1">
         <f t="shared" si="10"/>
         <v>11442</v>
       </c>
-      <c r="E157" s="4">
+      <c r="E157" s="1">
         <v>29.5</v>
       </c>
-      <c r="F157" s="4">
+      <c r="F157" s="1">
         <f t="shared" si="11"/>
         <v>387.864406779661</v>
       </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="4">
+      <c r="A158" s="1">
         <v>28</v>
       </c>
-      <c r="B158" s="4">
+      <c r="B158" s="1">
         <f t="shared" si="8"/>
         <v>7840</v>
       </c>
-      <c r="C158" s="4">
+      <c r="C158" s="1">
         <f t="shared" si="9"/>
         <v>5770</v>
       </c>
-      <c r="D158" s="4">
+      <c r="D158" s="1">
         <f t="shared" si="10"/>
         <v>13610</v>
       </c>
-      <c r="E158" s="4">
+      <c r="E158" s="1">
         <v>31.5</v>
       </c>
-      <c r="F158" s="4">
+      <c r="F158" s="1">
         <f t="shared" si="11"/>
         <v>432.063492063492</v>
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="4">
+      <c r="A159" s="1">
         <v>29</v>
       </c>
-      <c r="B159" s="4">
+      <c r="B159" s="1">
         <f t="shared" si="8"/>
         <v>8410</v>
       </c>
-      <c r="C159" s="4">
+      <c r="C159" s="1">
         <f t="shared" si="9"/>
         <v>6125</v>
       </c>
-      <c r="D159" s="4">
+      <c r="D159" s="1">
         <f t="shared" si="10"/>
         <v>14535</v>
       </c>
-      <c r="E159" s="4">
+      <c r="E159" s="1">
         <v>33.5</v>
       </c>
-      <c r="F159" s="4">
+      <c r="F159" s="1">
         <f t="shared" si="11"/>
         <v>433.880597014925</v>
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="4">
+      <c r="A160" s="1">
         <v>30</v>
       </c>
-      <c r="B160" s="4">
+      <c r="B160" s="1">
         <f t="shared" si="8"/>
         <v>9000</v>
       </c>
-      <c r="C160" s="4">
+      <c r="C160" s="1">
         <f t="shared" si="9"/>
         <v>6488</v>
       </c>
-      <c r="D160" s="4">
+      <c r="D160" s="1">
         <f t="shared" si="10"/>
         <v>15488</v>
       </c>
-      <c r="E160" s="4">
+      <c r="E160" s="1">
         <v>35.5</v>
       </c>
-      <c r="F160" s="4">
+      <c r="F160" s="1">
         <f t="shared" si="11"/>
         <v>436.281690140845</v>
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="4">
+      <c r="A161" s="1">
         <v>31</v>
       </c>
-      <c r="B161" s="4">
+      <c r="B161" s="1">
         <f t="shared" si="8"/>
         <v>10571</v>
       </c>
-      <c r="C161" s="4">
+      <c r="C161" s="1">
         <f t="shared" si="9"/>
         <v>7546</v>
       </c>
-      <c r="D161" s="4">
+      <c r="D161" s="1">
         <f t="shared" si="10"/>
         <v>18117</v>
       </c>
-      <c r="E161" s="4">
+      <c r="E161" s="1">
         <v>37.5</v>
       </c>
-      <c r="F161" s="4">
+      <c r="F161" s="1">
         <f t="shared" si="11"/>
         <v>483.12</v>
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="4">
+      <c r="A162" s="1">
         <v>32</v>
       </c>
-      <c r="B162" s="4">
+      <c r="B162" s="1">
         <f t="shared" si="8"/>
         <v>11264</v>
       </c>
-      <c r="C162" s="4">
+      <c r="C162" s="1">
         <f t="shared" si="9"/>
         <v>7964</v>
       </c>
-      <c r="D162" s="4">
+      <c r="D162" s="1">
         <f t="shared" si="10"/>
         <v>19228</v>
       </c>
-      <c r="E162" s="4">
+      <c r="E162" s="1">
         <v>39.5</v>
       </c>
-      <c r="F162" s="4">
+      <c r="F162" s="1">
         <f t="shared" si="11"/>
         <v>486.784810126582</v>
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="4">
+      <c r="A163" s="1">
         <v>33</v>
       </c>
-      <c r="B163" s="4">
+      <c r="B163" s="1">
         <f t="shared" si="8"/>
         <v>11979</v>
       </c>
-      <c r="C163" s="4">
+      <c r="C163" s="1">
         <f t="shared" si="9"/>
         <v>8392</v>
       </c>
-      <c r="D163" s="4">
+      <c r="D163" s="1">
         <f t="shared" si="10"/>
         <v>20371</v>
       </c>
-      <c r="E163" s="4">
+      <c r="E163" s="1">
         <v>41.5</v>
       </c>
-      <c r="F163" s="4">
+      <c r="F163" s="1">
         <f t="shared" si="11"/>
         <v>490.867469879518</v>
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="4">
+      <c r="A164" s="1">
         <v>34</v>
       </c>
-      <c r="B164" s="4">
+      <c r="B164" s="1">
         <f t="shared" si="8"/>
         <v>13872</v>
       </c>
-      <c r="C164" s="4">
+      <c r="C164" s="1">
         <f t="shared" si="9"/>
         <v>9632</v>
       </c>
-      <c r="D164" s="4">
+      <c r="D164" s="1">
         <f t="shared" si="10"/>
         <v>23504</v>
       </c>
-      <c r="E164" s="4">
+      <c r="E164" s="1">
         <v>43.5</v>
       </c>
-      <c r="F164" s="4">
+      <c r="F164" s="1">
         <f t="shared" si="11"/>
         <v>540.32183908046</v>
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="4">
+      <c r="A165" s="1">
         <v>35</v>
       </c>
-      <c r="B165" s="4">
+      <c r="B165" s="1">
         <f t="shared" si="8"/>
         <v>14700</v>
       </c>
-      <c r="C165" s="4">
+      <c r="C165" s="1">
         <f t="shared" si="9"/>
         <v>10118</v>
       </c>
-      <c r="D165" s="4">
+      <c r="D165" s="1">
         <f t="shared" si="10"/>
         <v>24818</v>
       </c>
-      <c r="E165" s="4">
+      <c r="E165" s="1">
         <v>45.5</v>
       </c>
-      <c r="F165" s="4">
+      <c r="F165" s="1">
         <f t="shared" si="11"/>
         <v>545.450549450549</v>
       </c>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="4" t="s">
+      <c r="A167" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B167" s="4">
+      <c r="B167" s="1">
         <f>SUM(B131:B165)</f>
         <v>137406</v>
       </c>
-      <c r="C167" s="4">
+      <c r="C167" s="1">
         <f>SUM(C131:C165)</f>
         <v>101903</v>
       </c>
-      <c r="D167" s="4">
+      <c r="D167" s="1">
         <f>SUM(D131:D165)</f>
         <v>239309</v>
       </c>
-      <c r="E167" s="4">
+      <c r="E167" s="1">
         <f>SUM(E131:E165)</f>
         <v>619.75</v>
       </c>
@@ -4048,7 +4042,7 @@
   <dimension ref="A2:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -4073,10 +4067,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4269,21 +4263,26 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A12"/>
+  <dimension ref="A12:A15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="101" style="4" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="101" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="12" ht="219" customHeight="1" spans="1:1">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4303,33 +4302,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="14.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="30.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="44.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="45.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="40.375" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40.375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="27" spans="1:6">
-      <c r="A1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="1" s="6" customFormat="1" ht="27" spans="1:6">
+      <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>43</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" ht="273" customHeight="1" spans="1:6">
@@ -4337,38 +4336,38 @@
         <v>10000</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>48</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:5">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="10" t="s">
         <v>51</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="119" customHeight="1" spans="1:5">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -4377,13 +4376,13 @@
     <row r="5" ht="118" customHeight="1" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="10" t="s">
         <v>55</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -4405,84 +4404,84 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="13.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="68.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="34.75" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="68.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.75" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="1:4">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>1000</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
         <v>1001</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4">
+      <c r="A10" s="1">
         <v>1002</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="4">
+      <c r="A11" s="1">
         <v>1003</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="4" t="s">
-        <v>64</v>
+      <c r="B20" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="B21" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="C21" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="22" ht="28.5" spans="2:3">
-      <c r="B22" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="C22" s="5" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="4" t="s">
-        <v>69</v>
+      <c r="B23" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -4496,136 +4495,136 @@
   <sheetPr/>
   <dimension ref="A5:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="30.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="55.625" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:3">
-      <c r="B5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6">
+      <c r="A9" s="2">
         <v>100</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6">
+      <c r="A10" s="2">
         <v>101</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="6">
+      <c r="A11" s="2">
         <v>102</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="6">
+      <c r="A12" s="2">
         <v>103</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6">
+      <c r="A13" s="2">
         <v>104</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6">
+      <c r="A14" s="2">
         <v>105</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="4">
+      <c r="A15" s="1">
         <v>106</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="7"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="7"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="7"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" ht="28.5" spans="2:3">
-      <c r="B23" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="C23" s="5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="4" t="s">
-        <v>88</v>
+      <c r="C24" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="B25" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="C25" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="4" t="s">
-        <v>91</v>
+      <c r="C26" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4646,37 +4645,37 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="51.375" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="4"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="7" ht="66" customHeight="1" spans="1:1">
-      <c r="A7" s="5" t="s">
-        <v>92</v>
+      <c r="A7" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:1">
-      <c r="A8" s="5" t="s">
-        <v>93</v>
+      <c r="A8" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="9" ht="43" customHeight="1" spans="1:1">
-      <c r="A9" s="5" t="s">
-        <v>94</v>
+      <c r="A9" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="10" ht="51" customHeight="1" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" ht="98" customHeight="1" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" ht="56" customHeight="1"/>
@@ -4703,12 +4702,12 @@
   <sheetData>
     <row r="12" ht="62" customHeight="1" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" ht="66" customHeight="1" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28620" windowHeight="12585" activeTab="3"/>
+    <workbookView windowWidth="28620" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -12,10 +12,10 @@
     <sheet name="关卡数值" sheetId="16" r:id="rId3"/>
     <sheet name="头脑风暴" sheetId="13" r:id="rId4"/>
     <sheet name="武器" sheetId="11" r:id="rId5"/>
-    <sheet name="配件" sheetId="10" r:id="rId6"/>
-    <sheet name="怪物" sheetId="9" r:id="rId7"/>
-    <sheet name="7.22" sheetId="12" r:id="rId8"/>
-    <sheet name="7.29" sheetId="15" r:id="rId9"/>
+    <sheet name="怪物" sheetId="9" r:id="rId6"/>
+    <sheet name="7.22" sheetId="12" r:id="rId7"/>
+    <sheet name="7.29" sheetId="15" r:id="rId8"/>
+    <sheet name="7.30" sheetId="17" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -105,6 +105,12 @@
     <t>？？？</t>
   </si>
   <si>
+    <t>广告活动：</t>
+  </si>
+  <si>
+    <t>收看广告解锁奖励，每看1次广告，获得对应的奖品。最终的奖品是某个武器。</t>
+  </si>
+  <si>
     <t>攻击力</t>
   </si>
   <si>
@@ -265,49 +271,6 @@
 撞击墙壁也会造成伤害。</t>
   </si>
   <si>
-    <t>枪口</t>
-  </si>
-  <si>
-    <t>每隔一段时间发射1颗普通子弹</t>
-  </si>
-  <si>
-    <t>升级项：攻击力、攻速</t>
-  </si>
-  <si>
-    <t>激光</t>
-  </si>
-  <si>
-    <t>瞄准距离最近的敌人，发射射线。</t>
-  </si>
-  <si>
-    <t>冰弹</t>
-  </si>
-  <si>
-    <t>每隔一段时间发射1颗可以降低敌人速度的子弹</t>
-  </si>
-  <si>
-    <t>升级项：攻击力、减速幅度</t>
-  </si>
-  <si>
-    <t>配件效果：</t>
-  </si>
-  <si>
-    <t>爆炸</t>
-  </si>
-  <si>
-    <t>每次击中产生爆炸</t>
-  </si>
-  <si>
-    <t>冰冻</t>
-  </si>
-  <si>
-    <t>每次击中产生减速，累计达到一定的阈值可以冰冻一小段时间。
-冰冻期间不产生新的减速效果</t>
-  </si>
-  <si>
-    <t>毒液</t>
-  </si>
-  <si>
     <t>敌人是否拥有弱点？</t>
   </si>
   <si>
@@ -394,6 +357,9 @@
   </si>
   <si>
     <t>技能重置功能（包括资源的返还）</t>
+  </si>
+  <si>
+    <t>设计怪物及实现对应逻辑</t>
   </si>
 </sst>
 </file>
@@ -1057,21 +1023,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1420,65 +1395,73 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:C8"/>
+  <dimension ref="B3:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="27" style="15" customWidth="1"/>
-    <col min="3" max="3" width="105.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="114.125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="27" style="18" customWidth="1"/>
+    <col min="3" max="3" width="105.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="114.125" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="140" customHeight="1" spans="2:3">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="101" customHeight="1" spans="2:3">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="101" customHeight="1" spans="2:3">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="103" customHeight="1" spans="2:3">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="100" customHeight="1" spans="2:3">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1498,2534 +1481,2534 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="15.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="1:1">
-      <c r="A1" s="11" t="s">
-        <v>12</v>
+      <c r="A1" s="14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+      <c r="A2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="16">
+        <v>2</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2">
+      <c r="D7" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="13">
-        <v>2</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <f>FLOOR((A8-1)/3,1)+1</f>
         <v>1</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <f>$B$3+(A8-1)*B8</f>
         <v>1</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <f>$B$5*POWER(A8,$B$6)*B8</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <f t="shared" ref="B9:B27" si="0">FLOOR((A9-1)/3,1)+1</f>
         <v>1</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <f t="shared" ref="C9:C42" si="1">$B$3+(A9-1)*B9</f>
         <v>2</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <f t="shared" ref="D9:D42" si="2">$B$5*POWER(A9,$B$6)*B9</f>
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>5</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>6</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>7</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>8</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>9</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <f t="shared" si="2"/>
         <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>10</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>11</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <f t="shared" si="2"/>
         <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>12</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <f t="shared" si="2"/>
         <v>576</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>13</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <f t="shared" si="2"/>
         <v>845</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>14</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <f t="shared" si="2"/>
         <v>980</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>15</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <f t="shared" si="2"/>
         <v>1125</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>16</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <f t="shared" si="2"/>
         <v>1536</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>17</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <f t="shared" si="2"/>
         <v>1734</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>18</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <f t="shared" si="2"/>
         <v>1944</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>19</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <f t="shared" si="2"/>
         <v>2527</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>20</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <f t="shared" si="1"/>
         <v>134</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <f t="shared" si="2"/>
         <v>2800</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>21</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <f t="shared" ref="B28:B42" si="3">FLOOR((A28-1)/3,1)+1</f>
         <v>7</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <f t="shared" si="1"/>
         <v>141</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <f t="shared" si="2"/>
         <v>3087</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>22</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <f t="shared" si="1"/>
         <v>169</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <f t="shared" si="2"/>
         <v>3872</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>23</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <f t="shared" si="1"/>
         <v>177</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <f t="shared" si="2"/>
         <v>4232</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>24</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <f t="shared" si="1"/>
         <v>185</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <f t="shared" si="2"/>
         <v>4608</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>25</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <f t="shared" si="1"/>
         <v>217</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <f t="shared" si="2"/>
         <v>5625</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>26</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <f t="shared" si="2"/>
         <v>6084</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>27</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2">
         <f t="shared" si="1"/>
         <v>235</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <f t="shared" si="2"/>
         <v>6561</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>28</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
         <f t="shared" si="1"/>
         <v>271</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <f t="shared" si="2"/>
         <v>7840</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>29</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
         <f t="shared" si="1"/>
         <v>281</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <f t="shared" si="2"/>
         <v>8410</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>30</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
         <f t="shared" si="1"/>
         <v>291</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>31</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="2">
         <f t="shared" si="1"/>
         <v>331</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <f t="shared" si="2"/>
         <v>10571</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>32</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="2">
         <f t="shared" si="1"/>
         <v>342</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="2">
         <f t="shared" si="2"/>
         <v>11264</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>33</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="2">
         <f t="shared" si="1"/>
         <v>353</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="2">
         <f t="shared" si="2"/>
         <v>11979</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>34</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="2">
         <f t="shared" si="1"/>
         <v>397</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="2">
         <f t="shared" si="2"/>
         <v>13872</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>35</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="2">
         <f t="shared" si="1"/>
         <v>409</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="2">
         <f t="shared" si="2"/>
         <v>14700</v>
       </c>
     </row>
     <row r="44" ht="28.5" spans="1:1">
-      <c r="A44" s="11" t="s">
-        <v>21</v>
+      <c r="A44" s="14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="7">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="16">
+        <v>1.7</v>
+      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="2">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="2">
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" s="1">
-        <v>2</v>
-      </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="13">
-        <v>1.7</v>
-      </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="1">
-        <v>1</v>
-      </c>
-      <c r="B51" s="1">
+      <c r="B51" s="2">
         <f>FLOOR((A51-1)/3,1)+1</f>
         <v>1</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="2">
         <f>$B$45/(1+((A51-1)*B51*$B$46)/100)</f>
         <v>450</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="2">
         <f>FLOOR($B$48*POWER(A51,$B$49)*B51,1)</f>
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>2</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="2">
         <f t="shared" ref="B52:B85" si="4">FLOOR((A52-1)/3,1)+1</f>
         <v>1</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="2">
         <f t="shared" ref="C52:C85" si="5">$B$45/(1+((A52-1)*B52*$B$46)/100)</f>
         <v>445.544554455446</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="2">
         <f t="shared" ref="D52:D85" si="6">FLOOR($B$48*POWER(A52,$B$49)*B52,1)</f>
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="1">
+      <c r="A53" s="2">
         <v>3</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="2">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="2">
         <f t="shared" si="5"/>
         <v>441.176470588235</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="2">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="1">
+      <c r="A54" s="2">
         <v>4</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="2">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="2">
         <f t="shared" si="5"/>
         <v>424.528301886792</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="2">
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="1">
+      <c r="A55" s="2">
         <v>5</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="2">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="2">
         <f t="shared" si="5"/>
         <v>416.666666666667</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="2">
         <f t="shared" si="6"/>
         <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="1">
+      <c r="A56" s="2">
         <v>6</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="2">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="2">
         <f t="shared" si="5"/>
         <v>409.090909090909</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="2">
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="1">
+      <c r="A57" s="2">
         <v>7</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="2">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="2">
         <f t="shared" si="5"/>
         <v>381.35593220339</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="2">
         <f t="shared" si="6"/>
         <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="1">
+      <c r="A58" s="2">
         <v>8</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="2">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="2">
         <f t="shared" si="5"/>
         <v>371.900826446281</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="2">
         <f t="shared" si="6"/>
         <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="1">
+      <c r="A59" s="2">
         <v>9</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="2">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="2">
         <f t="shared" si="5"/>
         <v>362.903225806452</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="2">
         <f t="shared" si="6"/>
         <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="1">
+      <c r="A60" s="2">
         <v>10</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="2">
         <f t="shared" si="5"/>
         <v>330.882352941177</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="2">
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="1">
+      <c r="A61" s="2">
         <v>11</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="2">
         <f t="shared" si="5"/>
         <v>321.428571428571</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="2">
         <f t="shared" si="6"/>
         <v>471</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="1">
+      <c r="A62" s="2">
         <v>12</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="2">
         <f t="shared" si="5"/>
         <v>312.5</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="2">
         <f t="shared" si="6"/>
         <v>546</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="1">
+      <c r="A63" s="2">
         <v>13</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="2">
         <f t="shared" si="5"/>
         <v>281.25</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="2">
         <f t="shared" si="6"/>
         <v>782</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="1">
+      <c r="A64" s="2">
         <v>14</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="2">
         <f t="shared" si="5"/>
         <v>272.727272727273</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="2">
         <f t="shared" si="6"/>
         <v>888</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="1">
+      <c r="A65" s="2">
         <v>15</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="2">
         <f t="shared" si="5"/>
         <v>264.705882352941</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="2">
         <f t="shared" si="6"/>
         <v>998</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="1">
+      <c r="A66" s="2">
         <v>16</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="2">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="2">
         <f t="shared" si="5"/>
         <v>236.842105263158</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="2">
         <f t="shared" si="6"/>
         <v>1337</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="1">
+      <c r="A67" s="2">
         <v>17</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="2">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="2">
         <f t="shared" si="5"/>
         <v>229.591836734694</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="2">
         <f t="shared" si="6"/>
         <v>1482</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="1">
+      <c r="A68" s="2">
         <v>18</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="2">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="2">
         <f t="shared" si="5"/>
         <v>222.772277227723</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="2">
         <f t="shared" si="6"/>
         <v>1633</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="1">
+      <c r="A69" s="2">
         <v>19</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="2">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="2">
         <f t="shared" si="5"/>
         <v>199.115044247788</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="2">
         <f t="shared" si="6"/>
         <v>2089</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="1">
+      <c r="A70" s="2">
         <v>20</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="2">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="2">
         <f t="shared" si="5"/>
         <v>193.1330472103</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="2">
         <f t="shared" si="6"/>
         <v>2279</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="1">
+      <c r="A71" s="2">
         <v>21</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="2">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="2">
         <f t="shared" si="5"/>
         <v>187.5</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="2">
         <f t="shared" si="6"/>
         <v>2476</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="1">
+      <c r="A72" s="2">
         <v>22</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="2">
         <f t="shared" si="5"/>
         <v>167.910447761194</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="2">
         <f t="shared" si="6"/>
         <v>3063</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="1">
+      <c r="A73" s="2">
         <v>23</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="2">
         <f t="shared" si="5"/>
         <v>163.04347826087</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="2">
         <f t="shared" si="6"/>
         <v>3304</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="1">
+      <c r="A74" s="2">
         <v>24</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="2">
         <f t="shared" si="5"/>
         <v>158.450704225352</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="2">
         <f t="shared" si="6"/>
         <v>3552</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="1">
+      <c r="A75" s="2">
         <v>25</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="2">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="2">
         <f t="shared" si="5"/>
         <v>142.405063291139</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="2">
         <f t="shared" si="6"/>
         <v>4283</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="1">
+      <c r="A76" s="2">
         <v>26</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="2">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="2">
         <f t="shared" si="5"/>
         <v>138.461538461538</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="2">
         <f t="shared" si="6"/>
         <v>4578</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="1">
+      <c r="A77" s="2">
         <v>27</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="2">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="2">
         <f t="shared" si="5"/>
         <v>134.730538922156</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="2">
         <f t="shared" si="6"/>
         <v>4881</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="1">
+      <c r="A78" s="2">
         <v>28</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="2">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="2">
         <f t="shared" si="5"/>
         <v>121.621621621622</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="2">
         <f t="shared" si="6"/>
         <v>5770</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="1">
+      <c r="A79" s="2">
         <v>29</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="2">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="2">
         <f t="shared" si="5"/>
         <v>118.421052631579</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="2">
         <f t="shared" si="6"/>
         <v>6125</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="1">
+      <c r="A80" s="2">
         <v>30</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="2">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="2">
         <f t="shared" si="5"/>
         <v>115.384615384615</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="2">
         <f t="shared" si="6"/>
         <v>6488</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="1">
+      <c r="A81" s="2">
         <v>31</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="2">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="2">
         <f t="shared" si="5"/>
         <v>104.651162790698</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="2">
         <f t="shared" si="6"/>
         <v>7546</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="1">
+      <c r="A82" s="2">
         <v>32</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="2">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="2">
         <f t="shared" si="5"/>
         <v>102.040816326531</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="2">
         <f t="shared" si="6"/>
         <v>7964</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="1">
+      <c r="A83" s="2">
         <v>33</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="2">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="2">
         <f t="shared" si="5"/>
         <v>99.5575221238938</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="2">
         <f t="shared" si="6"/>
         <v>8392</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="1">
+      <c r="A84" s="2">
         <v>34</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="2">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="2">
         <f t="shared" si="5"/>
         <v>90.7258064516129</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84" s="2">
         <f t="shared" si="6"/>
         <v>9632</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="1">
+      <c r="A85" s="2">
         <v>35</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="2">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="2">
         <f t="shared" si="5"/>
         <v>88.5826771653543</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="2">
         <f t="shared" si="6"/>
         <v>10118</v>
       </c>
     </row>
     <row r="88" ht="28.5" spans="1:1">
-      <c r="A88" s="11" t="s">
-        <v>25</v>
+      <c r="A88" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>26</v>
+      <c r="A89" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="1">
+      <c r="A90" s="2">
         <v>1</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="2">
         <f>C8/(C51/1000)</f>
         <v>2.22222222222222</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="1">
+      <c r="A91" s="2">
         <v>2</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="2">
         <f t="shared" ref="B91:B124" si="7">C9/(C52/1000)</f>
         <v>4.48888888888889</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="1">
+      <c r="A92" s="2">
         <v>3</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="2">
         <f t="shared" si="7"/>
         <v>6.8</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="1">
+      <c r="A93" s="2">
         <v>4</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="2">
         <f t="shared" si="7"/>
         <v>16.4888888888889</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="1">
+      <c r="A94" s="2">
         <v>5</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="2">
         <f t="shared" si="7"/>
         <v>21.6</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="1">
+      <c r="A95" s="2">
         <v>6</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="2">
         <f t="shared" si="7"/>
         <v>26.8888888888889</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="1">
+      <c r="A96" s="2">
         <v>7</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="2">
         <f t="shared" si="7"/>
         <v>49.8222222222222</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="1">
+      <c r="A97" s="2">
         <v>8</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="2">
         <f t="shared" si="7"/>
         <v>59.1555555555556</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="1">
+      <c r="A98" s="2">
         <v>9</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="2">
         <f t="shared" si="7"/>
         <v>68.8888888888889</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="1">
+      <c r="A99" s="2">
         <v>10</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="2">
         <f t="shared" si="7"/>
         <v>111.822222222222</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="1">
+      <c r="A100" s="2">
         <v>11</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="2">
         <f t="shared" si="7"/>
         <v>127.555555555556</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="1">
+      <c r="A101" s="2">
         <v>12</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="2">
         <f t="shared" si="7"/>
         <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="1">
+      <c r="A102" s="2">
         <v>13</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="2">
         <f t="shared" si="7"/>
         <v>216.888888888889</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="1">
+      <c r="A103" s="2">
         <v>14</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="2">
         <f t="shared" si="7"/>
         <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="1">
+      <c r="A104" s="2">
         <v>15</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="2">
         <f t="shared" si="7"/>
         <v>268.222222222222</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="1">
+      <c r="A105" s="2">
         <v>16</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="2">
         <f t="shared" si="7"/>
         <v>384.222222222222</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="1">
+      <c r="A106" s="2">
         <v>17</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="2">
         <f t="shared" si="7"/>
         <v>422.488888888889</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="1">
+      <c r="A107" s="2">
         <v>18</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="2">
         <f t="shared" si="7"/>
         <v>462.355555555556</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="1">
+      <c r="A108" s="2">
         <v>19</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="2">
         <f t="shared" si="7"/>
         <v>637.822222222222</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="1">
+      <c r="A109" s="2">
         <v>20</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="2">
         <f t="shared" si="7"/>
         <v>693.822222222222</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="1">
+      <c r="A110" s="2">
         <v>21</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="2">
         <f t="shared" si="7"/>
         <v>752</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="1">
+      <c r="A111" s="2">
         <v>22</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="2">
         <f t="shared" si="7"/>
         <v>1006.48888888889</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="1">
+      <c r="A112" s="2">
         <v>23</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="2">
         <f t="shared" si="7"/>
         <v>1085.6</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="1">
+      <c r="A113" s="2">
         <v>24</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="2">
         <f t="shared" si="7"/>
         <v>1167.55555555556</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="1">
+      <c r="A114" s="2">
         <v>25</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="2">
         <f t="shared" si="7"/>
         <v>1523.82222222222</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="1">
+      <c r="A115" s="2">
         <v>26</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="2">
         <f t="shared" si="7"/>
         <v>1632.22222222222</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="1">
+      <c r="A116" s="2">
         <v>27</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="2">
         <f t="shared" si="7"/>
         <v>1744.22222222222</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="1">
+      <c r="A117" s="2">
         <v>28</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="2">
         <f t="shared" si="7"/>
         <v>2228.22222222222</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="1">
+      <c r="A118" s="2">
         <v>29</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="2">
         <f t="shared" si="7"/>
         <v>2372.88888888889</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="1">
+      <c r="A119" s="2">
         <v>30</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="2">
         <f t="shared" si="7"/>
         <v>2522</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="1">
+      <c r="A120" s="2">
         <v>31</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120" s="2">
         <f t="shared" si="7"/>
         <v>3162.88888888889</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="1">
+      <c r="A121" s="2">
         <v>32</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121" s="2">
         <f t="shared" si="7"/>
         <v>3351.6</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="1">
+      <c r="A122" s="2">
         <v>33</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122" s="2">
         <f t="shared" si="7"/>
         <v>3545.68888888889</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="1">
+      <c r="A123" s="2">
         <v>34</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123" s="2">
         <f t="shared" si="7"/>
         <v>4375.82222222222</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="1">
+      <c r="A124" s="2">
         <v>35</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124" s="2">
         <f t="shared" si="7"/>
         <v>4617.15555555556</v>
       </c>
     </row>
     <row r="129" ht="28.5" spans="1:1">
-      <c r="A129" s="11" t="s">
-        <v>27</v>
+      <c r="A129" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D130" s="10" t="s">
+      <c r="A130" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B130" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E130" s="10" t="s">
+      <c r="C130" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F130" s="10" t="s">
+      <c r="D130" s="13" t="s">
         <v>32</v>
       </c>
+      <c r="E130" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F130" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="1">
+      <c r="A131" s="2">
         <v>1</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131" s="2">
         <f>D8</f>
         <v>1</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C131" s="2">
         <f>D51</f>
         <v>2</v>
       </c>
-      <c r="D131" s="1">
+      <c r="D131" s="2">
         <f>B131+C131</f>
         <v>3</v>
       </c>
-      <c r="E131" s="1">
+      <c r="E131" s="2">
         <v>0.5</v>
       </c>
-      <c r="F131" s="1">
+      <c r="F131" s="2">
         <f>D131/E131</f>
         <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="1">
+      <c r="A132" s="2">
         <v>2</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B132" s="2">
         <f t="shared" ref="B132:B165" si="8">D9</f>
         <v>4</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C132" s="2">
         <f t="shared" ref="C132:C165" si="9">D52</f>
         <v>6</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D132" s="2">
         <f t="shared" ref="D132:D165" si="10">B132+C132</f>
         <v>10</v>
       </c>
-      <c r="E132" s="1">
+      <c r="E132" s="2">
         <v>0.75</v>
       </c>
-      <c r="F132" s="1">
+      <c r="F132" s="2">
         <f t="shared" ref="F132:F165" si="11">D132/E132</f>
         <v>13.3333333333333</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="1">
+      <c r="A133" s="2">
         <v>3</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133" s="2">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C133" s="2">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="D133" s="1">
+      <c r="D133" s="2">
         <f t="shared" si="10"/>
         <v>21</v>
       </c>
-      <c r="E133" s="1">
+      <c r="E133" s="2">
         <v>1</v>
       </c>
-      <c r="F133" s="1">
+      <c r="F133" s="2">
         <f t="shared" si="11"/>
         <v>21</v>
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="1">
+      <c r="A134" s="2">
         <v>4</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134" s="2">
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C134" s="2">
         <f t="shared" si="9"/>
         <v>42</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D134" s="2">
         <f t="shared" si="10"/>
         <v>74</v>
       </c>
-      <c r="E134" s="1">
+      <c r="E134" s="2">
         <v>1.5</v>
       </c>
-      <c r="F134" s="1">
+      <c r="F134" s="2">
         <f t="shared" si="11"/>
         <v>49.3333333333333</v>
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="1">
+      <c r="A135" s="2">
         <v>5</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135" s="2">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C135" s="2">
         <f t="shared" si="9"/>
         <v>61</v>
       </c>
-      <c r="D135" s="1">
+      <c r="D135" s="2">
         <f t="shared" si="10"/>
         <v>111</v>
       </c>
-      <c r="E135" s="1">
+      <c r="E135" s="2">
         <v>2</v>
       </c>
-      <c r="F135" s="1">
+      <c r="F135" s="2">
         <f t="shared" si="11"/>
         <v>55.5</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="1">
+      <c r="A136" s="2">
         <v>6</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136" s="2">
         <f t="shared" si="8"/>
         <v>72</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C136" s="2">
         <f t="shared" si="9"/>
         <v>84</v>
       </c>
-      <c r="D136" s="1">
+      <c r="D136" s="2">
         <f t="shared" si="10"/>
         <v>156</v>
       </c>
-      <c r="E136" s="1">
+      <c r="E136" s="2">
         <v>2.5</v>
       </c>
-      <c r="F136" s="1">
+      <c r="F136" s="2">
         <f t="shared" si="11"/>
         <v>62.4</v>
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="1">
+      <c r="A137" s="2">
         <v>7</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137" s="2">
         <f t="shared" si="8"/>
         <v>147</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C137" s="2">
         <f t="shared" si="9"/>
         <v>163</v>
       </c>
-      <c r="D137" s="1">
+      <c r="D137" s="2">
         <f t="shared" si="10"/>
         <v>310</v>
       </c>
-      <c r="E137" s="1">
+      <c r="E137" s="2">
         <v>3</v>
       </c>
-      <c r="F137" s="1">
+      <c r="F137" s="2">
         <f t="shared" si="11"/>
         <v>103.333333333333</v>
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="1">
+      <c r="A138" s="2">
         <v>8</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138" s="2">
         <f t="shared" si="8"/>
         <v>192</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C138" s="2">
         <f t="shared" si="9"/>
         <v>205</v>
       </c>
-      <c r="D138" s="1">
+      <c r="D138" s="2">
         <f t="shared" si="10"/>
         <v>397</v>
       </c>
-      <c r="E138" s="1">
+      <c r="E138" s="2">
         <v>3.5</v>
       </c>
-      <c r="F138" s="1">
+      <c r="F138" s="2">
         <f t="shared" si="11"/>
         <v>113.428571428571</v>
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="1">
+      <c r="A139" s="2">
         <v>9</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139" s="2">
         <f t="shared" si="8"/>
         <v>243</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C139" s="2">
         <f t="shared" si="9"/>
         <v>251</v>
       </c>
-      <c r="D139" s="1">
+      <c r="D139" s="2">
         <f t="shared" si="10"/>
         <v>494</v>
       </c>
-      <c r="E139" s="1">
+      <c r="E139" s="2">
         <v>4.5</v>
       </c>
-      <c r="F139" s="1">
+      <c r="F139" s="2">
         <f t="shared" si="11"/>
         <v>109.777777777778</v>
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="1">
+      <c r="A140" s="2">
         <v>10</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B140" s="2">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C140" s="2">
         <f t="shared" si="9"/>
         <v>400</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D140" s="2">
         <f t="shared" si="10"/>
         <v>800</v>
       </c>
-      <c r="E140" s="1">
+      <c r="E140" s="2">
         <v>5.5</v>
       </c>
-      <c r="F140" s="1">
+      <c r="F140" s="2">
         <f t="shared" si="11"/>
         <v>145.454545454545</v>
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="1">
+      <c r="A141" s="2">
         <v>11</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141" s="2">
         <f t="shared" si="8"/>
         <v>484</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141" s="2">
         <f t="shared" si="9"/>
         <v>471</v>
       </c>
-      <c r="D141" s="1">
+      <c r="D141" s="2">
         <f t="shared" si="10"/>
         <v>955</v>
       </c>
-      <c r="E141" s="1">
+      <c r="E141" s="2">
         <v>6.5</v>
       </c>
-      <c r="F141" s="1">
+      <c r="F141" s="2">
         <f t="shared" si="11"/>
         <v>146.923076923077</v>
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="1">
+      <c r="A142" s="2">
         <v>12</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142" s="2">
         <f t="shared" si="8"/>
         <v>576</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C142" s="2">
         <f t="shared" si="9"/>
         <v>546</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D142" s="2">
         <f t="shared" si="10"/>
         <v>1122</v>
       </c>
-      <c r="E142" s="1">
+      <c r="E142" s="2">
         <v>7.5</v>
       </c>
-      <c r="F142" s="1">
+      <c r="F142" s="2">
         <f t="shared" si="11"/>
         <v>149.6</v>
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="1">
+      <c r="A143" s="2">
         <v>13</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143" s="2">
         <f t="shared" si="8"/>
         <v>845</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C143" s="2">
         <f t="shared" si="9"/>
         <v>782</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D143" s="2">
         <f t="shared" si="10"/>
         <v>1627</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E143" s="2">
         <v>8.5</v>
       </c>
-      <c r="F143" s="1">
+      <c r="F143" s="2">
         <f t="shared" si="11"/>
         <v>191.411764705882</v>
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="1">
+      <c r="A144" s="2">
         <v>14</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144" s="2">
         <f t="shared" si="8"/>
         <v>980</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C144" s="2">
         <f t="shared" si="9"/>
         <v>888</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D144" s="2">
         <f t="shared" si="10"/>
         <v>1868</v>
       </c>
-      <c r="E144" s="1">
+      <c r="E144" s="2">
         <v>9.5</v>
       </c>
-      <c r="F144" s="1">
+      <c r="F144" s="2">
         <f t="shared" si="11"/>
         <v>196.631578947368</v>
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="1">
+      <c r="A145" s="2">
         <v>15</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145" s="2">
         <f t="shared" si="8"/>
         <v>1125</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C145" s="2">
         <f t="shared" si="9"/>
         <v>998</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D145" s="2">
         <f t="shared" si="10"/>
         <v>2123</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E145" s="2">
         <v>10.5</v>
       </c>
-      <c r="F145" s="1">
+      <c r="F145" s="2">
         <f t="shared" si="11"/>
         <v>202.190476190476</v>
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="1">
+      <c r="A146" s="2">
         <v>16</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B146" s="2">
         <f t="shared" si="8"/>
         <v>1536</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C146" s="2">
         <f t="shared" si="9"/>
         <v>1337</v>
       </c>
-      <c r="D146" s="1">
+      <c r="D146" s="2">
         <f t="shared" si="10"/>
         <v>2873</v>
       </c>
-      <c r="E146" s="1">
+      <c r="E146" s="2">
         <v>12</v>
       </c>
-      <c r="F146" s="1">
+      <c r="F146" s="2">
         <f t="shared" si="11"/>
         <v>239.416666666667</v>
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="1">
+      <c r="A147" s="2">
         <v>17</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B147" s="2">
         <f t="shared" si="8"/>
         <v>1734</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C147" s="2">
         <f t="shared" si="9"/>
         <v>1482</v>
       </c>
-      <c r="D147" s="1">
+      <c r="D147" s="2">
         <f t="shared" si="10"/>
         <v>3216</v>
       </c>
-      <c r="E147" s="1">
+      <c r="E147" s="2">
         <v>13.5</v>
       </c>
-      <c r="F147" s="1">
+      <c r="F147" s="2">
         <f t="shared" si="11"/>
         <v>238.222222222222</v>
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="1">
+      <c r="A148" s="2">
         <v>18</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B148" s="2">
         <f t="shared" si="8"/>
         <v>1944</v>
       </c>
-      <c r="C148" s="1">
+      <c r="C148" s="2">
         <f t="shared" si="9"/>
         <v>1633</v>
       </c>
-      <c r="D148" s="1">
+      <c r="D148" s="2">
         <f t="shared" si="10"/>
         <v>3577</v>
       </c>
-      <c r="E148" s="1">
+      <c r="E148" s="2">
         <v>15</v>
       </c>
-      <c r="F148" s="1">
+      <c r="F148" s="2">
         <f t="shared" si="11"/>
         <v>238.466666666667</v>
       </c>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="1">
+      <c r="A149" s="2">
         <v>19</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B149" s="2">
         <f t="shared" si="8"/>
         <v>2527</v>
       </c>
-      <c r="C149" s="1">
+      <c r="C149" s="2">
         <f t="shared" si="9"/>
         <v>2089</v>
       </c>
-      <c r="D149" s="1">
+      <c r="D149" s="2">
         <f t="shared" si="10"/>
         <v>4616</v>
       </c>
-      <c r="E149" s="1">
+      <c r="E149" s="2">
         <v>16.5</v>
       </c>
-      <c r="F149" s="1">
+      <c r="F149" s="2">
         <f t="shared" si="11"/>
         <v>279.757575757576</v>
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="1">
+      <c r="A150" s="2">
         <v>20</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150" s="2">
         <f t="shared" si="8"/>
         <v>2800</v>
       </c>
-      <c r="C150" s="1">
+      <c r="C150" s="2">
         <f t="shared" si="9"/>
         <v>2279</v>
       </c>
-      <c r="D150" s="1">
+      <c r="D150" s="2">
         <f t="shared" si="10"/>
         <v>5079</v>
       </c>
-      <c r="E150" s="1">
+      <c r="E150" s="2">
         <v>18</v>
       </c>
-      <c r="F150" s="1">
+      <c r="F150" s="2">
         <f t="shared" si="11"/>
         <v>282.166666666667</v>
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="1">
+      <c r="A151" s="2">
         <v>21</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B151" s="2">
         <f t="shared" si="8"/>
         <v>3087</v>
       </c>
-      <c r="C151" s="1">
+      <c r="C151" s="2">
         <f t="shared" si="9"/>
         <v>2476</v>
       </c>
-      <c r="D151" s="1">
+      <c r="D151" s="2">
         <f t="shared" si="10"/>
         <v>5563</v>
       </c>
-      <c r="E151" s="1">
+      <c r="E151" s="2">
         <v>19.5</v>
       </c>
-      <c r="F151" s="1">
+      <c r="F151" s="2">
         <f t="shared" si="11"/>
         <v>285.282051282051</v>
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="1">
+      <c r="A152" s="2">
         <v>22</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B152" s="2">
         <f t="shared" si="8"/>
         <v>3872</v>
       </c>
-      <c r="C152" s="1">
+      <c r="C152" s="2">
         <f t="shared" si="9"/>
         <v>3063</v>
       </c>
-      <c r="D152" s="1">
+      <c r="D152" s="2">
         <f t="shared" si="10"/>
         <v>6935</v>
       </c>
-      <c r="E152" s="1">
+      <c r="E152" s="2">
         <v>21</v>
       </c>
-      <c r="F152" s="1">
+      <c r="F152" s="2">
         <f t="shared" si="11"/>
         <v>330.238095238095</v>
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="1">
+      <c r="A153" s="2">
         <v>23</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B153" s="2">
         <f t="shared" si="8"/>
         <v>4232</v>
       </c>
-      <c r="C153" s="1">
+      <c r="C153" s="2">
         <f t="shared" si="9"/>
         <v>3304</v>
       </c>
-      <c r="D153" s="1">
+      <c r="D153" s="2">
         <f t="shared" si="10"/>
         <v>7536</v>
       </c>
-      <c r="E153" s="1">
+      <c r="E153" s="2">
         <v>22.5</v>
       </c>
-      <c r="F153" s="1">
+      <c r="F153" s="2">
         <f t="shared" si="11"/>
         <v>334.933333333333</v>
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="1">
+      <c r="A154" s="2">
         <v>24</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B154" s="2">
         <f t="shared" si="8"/>
         <v>4608</v>
       </c>
-      <c r="C154" s="1">
+      <c r="C154" s="2">
         <f t="shared" si="9"/>
         <v>3552</v>
       </c>
-      <c r="D154" s="1">
+      <c r="D154" s="2">
         <f t="shared" si="10"/>
         <v>8160</v>
       </c>
-      <c r="E154" s="1">
+      <c r="E154" s="2">
         <v>24</v>
       </c>
-      <c r="F154" s="1">
+      <c r="F154" s="2">
         <f t="shared" si="11"/>
         <v>340</v>
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="1">
+      <c r="A155" s="2">
         <v>25</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B155" s="2">
         <f t="shared" si="8"/>
         <v>5625</v>
       </c>
-      <c r="C155" s="1">
+      <c r="C155" s="2">
         <f t="shared" si="9"/>
         <v>4283</v>
       </c>
-      <c r="D155" s="1">
+      <c r="D155" s="2">
         <f t="shared" si="10"/>
         <v>9908</v>
       </c>
-      <c r="E155" s="1">
+      <c r="E155" s="2">
         <v>25.5</v>
       </c>
-      <c r="F155" s="1">
+      <c r="F155" s="2">
         <f t="shared" si="11"/>
         <v>388.549019607843</v>
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="1">
+      <c r="A156" s="2">
         <v>26</v>
       </c>
-      <c r="B156" s="1">
+      <c r="B156" s="2">
         <f t="shared" si="8"/>
         <v>6084</v>
       </c>
-      <c r="C156" s="1">
+      <c r="C156" s="2">
         <f t="shared" si="9"/>
         <v>4578</v>
       </c>
-      <c r="D156" s="1">
+      <c r="D156" s="2">
         <f t="shared" si="10"/>
         <v>10662</v>
       </c>
-      <c r="E156" s="1">
+      <c r="E156" s="2">
         <v>27.5</v>
       </c>
-      <c r="F156" s="1">
+      <c r="F156" s="2">
         <f t="shared" si="11"/>
         <v>387.709090909091</v>
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="1">
+      <c r="A157" s="2">
         <v>27</v>
       </c>
-      <c r="B157" s="1">
+      <c r="B157" s="2">
         <f t="shared" si="8"/>
         <v>6561</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C157" s="2">
         <f t="shared" si="9"/>
         <v>4881</v>
       </c>
-      <c r="D157" s="1">
+      <c r="D157" s="2">
         <f t="shared" si="10"/>
         <v>11442</v>
       </c>
-      <c r="E157" s="1">
+      <c r="E157" s="2">
         <v>29.5</v>
       </c>
-      <c r="F157" s="1">
+      <c r="F157" s="2">
         <f t="shared" si="11"/>
         <v>387.864406779661</v>
       </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="1">
+      <c r="A158" s="2">
         <v>28</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B158" s="2">
         <f t="shared" si="8"/>
         <v>7840</v>
       </c>
-      <c r="C158" s="1">
+      <c r="C158" s="2">
         <f t="shared" si="9"/>
         <v>5770</v>
       </c>
-      <c r="D158" s="1">
+      <c r="D158" s="2">
         <f t="shared" si="10"/>
         <v>13610</v>
       </c>
-      <c r="E158" s="1">
+      <c r="E158" s="2">
         <v>31.5</v>
       </c>
-      <c r="F158" s="1">
+      <c r="F158" s="2">
         <f t="shared" si="11"/>
         <v>432.063492063492</v>
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="1">
+      <c r="A159" s="2">
         <v>29</v>
       </c>
-      <c r="B159" s="1">
+      <c r="B159" s="2">
         <f t="shared" si="8"/>
         <v>8410</v>
       </c>
-      <c r="C159" s="1">
+      <c r="C159" s="2">
         <f t="shared" si="9"/>
         <v>6125</v>
       </c>
-      <c r="D159" s="1">
+      <c r="D159" s="2">
         <f t="shared" si="10"/>
         <v>14535</v>
       </c>
-      <c r="E159" s="1">
+      <c r="E159" s="2">
         <v>33.5</v>
       </c>
-      <c r="F159" s="1">
+      <c r="F159" s="2">
         <f t="shared" si="11"/>
         <v>433.880597014925</v>
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="1">
+      <c r="A160" s="2">
         <v>30</v>
       </c>
-      <c r="B160" s="1">
+      <c r="B160" s="2">
         <f t="shared" si="8"/>
         <v>9000</v>
       </c>
-      <c r="C160" s="1">
+      <c r="C160" s="2">
         <f t="shared" si="9"/>
         <v>6488</v>
       </c>
-      <c r="D160" s="1">
+      <c r="D160" s="2">
         <f t="shared" si="10"/>
         <v>15488</v>
       </c>
-      <c r="E160" s="1">
+      <c r="E160" s="2">
         <v>35.5</v>
       </c>
-      <c r="F160" s="1">
+      <c r="F160" s="2">
         <f t="shared" si="11"/>
         <v>436.281690140845</v>
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="1">
+      <c r="A161" s="2">
         <v>31</v>
       </c>
-      <c r="B161" s="1">
+      <c r="B161" s="2">
         <f t="shared" si="8"/>
         <v>10571</v>
       </c>
-      <c r="C161" s="1">
+      <c r="C161" s="2">
         <f t="shared" si="9"/>
         <v>7546</v>
       </c>
-      <c r="D161" s="1">
+      <c r="D161" s="2">
         <f t="shared" si="10"/>
         <v>18117</v>
       </c>
-      <c r="E161" s="1">
+      <c r="E161" s="2">
         <v>37.5</v>
       </c>
-      <c r="F161" s="1">
+      <c r="F161" s="2">
         <f t="shared" si="11"/>
         <v>483.12</v>
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="1">
+      <c r="A162" s="2">
         <v>32</v>
       </c>
-      <c r="B162" s="1">
+      <c r="B162" s="2">
         <f t="shared" si="8"/>
         <v>11264</v>
       </c>
-      <c r="C162" s="1">
+      <c r="C162" s="2">
         <f t="shared" si="9"/>
         <v>7964</v>
       </c>
-      <c r="D162" s="1">
+      <c r="D162" s="2">
         <f t="shared" si="10"/>
         <v>19228</v>
       </c>
-      <c r="E162" s="1">
+      <c r="E162" s="2">
         <v>39.5</v>
       </c>
-      <c r="F162" s="1">
+      <c r="F162" s="2">
         <f t="shared" si="11"/>
         <v>486.784810126582</v>
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="1">
+      <c r="A163" s="2">
         <v>33</v>
       </c>
-      <c r="B163" s="1">
+      <c r="B163" s="2">
         <f t="shared" si="8"/>
         <v>11979</v>
       </c>
-      <c r="C163" s="1">
+      <c r="C163" s="2">
         <f t="shared" si="9"/>
         <v>8392</v>
       </c>
-      <c r="D163" s="1">
+      <c r="D163" s="2">
         <f t="shared" si="10"/>
         <v>20371</v>
       </c>
-      <c r="E163" s="1">
+      <c r="E163" s="2">
         <v>41.5</v>
       </c>
-      <c r="F163" s="1">
+      <c r="F163" s="2">
         <f t="shared" si="11"/>
         <v>490.867469879518</v>
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="1">
+      <c r="A164" s="2">
         <v>34</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B164" s="2">
         <f t="shared" si="8"/>
         <v>13872</v>
       </c>
-      <c r="C164" s="1">
+      <c r="C164" s="2">
         <f t="shared" si="9"/>
         <v>9632</v>
       </c>
-      <c r="D164" s="1">
+      <c r="D164" s="2">
         <f t="shared" si="10"/>
         <v>23504</v>
       </c>
-      <c r="E164" s="1">
+      <c r="E164" s="2">
         <v>43.5</v>
       </c>
-      <c r="F164" s="1">
+      <c r="F164" s="2">
         <f t="shared" si="11"/>
         <v>540.32183908046</v>
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="1">
+      <c r="A165" s="2">
         <v>35</v>
       </c>
-      <c r="B165" s="1">
+      <c r="B165" s="2">
         <f t="shared" si="8"/>
         <v>14700</v>
       </c>
-      <c r="C165" s="1">
+      <c r="C165" s="2">
         <f t="shared" si="9"/>
         <v>10118</v>
       </c>
-      <c r="D165" s="1">
+      <c r="D165" s="2">
         <f t="shared" si="10"/>
         <v>24818</v>
       </c>
-      <c r="E165" s="1">
+      <c r="E165" s="2">
         <v>45.5</v>
       </c>
-      <c r="F165" s="1">
+      <c r="F165" s="2">
         <f t="shared" si="11"/>
         <v>545.450549450549</v>
       </c>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B167" s="1">
+      <c r="A167" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B167" s="2">
         <f>SUM(B131:B165)</f>
         <v>137406</v>
       </c>
-      <c r="C167" s="1">
+      <c r="C167" s="2">
         <f>SUM(C131:C165)</f>
         <v>101903</v>
       </c>
-      <c r="D167" s="1">
+      <c r="D167" s="2">
         <f>SUM(D131:D165)</f>
         <v>239309</v>
       </c>
-      <c r="E167" s="1">
+      <c r="E167" s="2">
         <f>SUM(E131:E165)</f>
         <v>619.75</v>
       </c>
@@ -4047,209 +4030,209 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>27</v>
+      <c r="A5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <f>($B$3*A6*A6)/2-($B$3*A6)/2+$B$2</f>
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <f t="shared" ref="B7:B15" si="0">($B$3*A7*A7)/2-($B$3*A7)/2+$B$2</f>
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>4</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>6</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>7</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>8</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>9</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>10</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>11</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <f t="shared" ref="B16:B25" si="1">($B$3*A16*A16)/2-($B$3*A16)/2+$B$2</f>
         <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>12</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <f t="shared" si="1"/>
         <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>13</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>14</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>15</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <f t="shared" si="1"/>
         <v>535</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>16</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <f t="shared" si="1"/>
         <v>610</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>17</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>18</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <f t="shared" si="1"/>
         <v>775</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>19</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <f t="shared" si="1"/>
         <v>865</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>20</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <f t="shared" si="1"/>
         <v>960</v>
       </c>
@@ -4265,24 +4248,24 @@
   <sheetPr/>
   <dimension ref="A12:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="101" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="101" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="12" ht="219" customHeight="1" spans="1:1">
-      <c r="A12" s="5" t="s">
-        <v>37</v>
+      <c r="A12" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>38</v>
+      <c r="A15" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -4297,94 +4280,94 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="45.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="14.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="40.375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="27" spans="1:6">
-      <c r="A1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="7" t="s">
+    <row r="1" s="9" customFormat="1" ht="27" spans="1:6">
+      <c r="A1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="D1" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="E1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="2" ht="273" customHeight="1" spans="1:6">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>10000</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="D2" s="11" t="s">
         <v>49</v>
       </c>
+      <c r="E2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="C3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" ht="119" customHeight="1" spans="1:5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" ht="118" customHeight="1" spans="1:5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="C5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="5"/>
     </row>
     <row r="13" ht="98" customHeight="1"/>
   </sheetData>
@@ -4396,103 +4379,6 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A8:D23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="68.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.75" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>1001</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>1002</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" ht="28.5" spans="2:3">
-      <c r="B22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A5:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4501,130 +4387,130 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="55.625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:3">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="7">
+        <v>100</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="7">
+        <v>101</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="7">
+        <v>102</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="7">
+        <v>103</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="7">
+        <v>104</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="7">
+        <v>105</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2">
-        <v>100</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>106</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2">
-        <v>101</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="20" spans="3:3">
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" ht="28.5" spans="2:3">
+      <c r="B23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C23" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2">
-        <v>102</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="24" spans="3:3">
+      <c r="C24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="2" t="s">
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2">
-        <v>103</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="2" t="s">
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="2" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2">
-        <v>104</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2">
-        <v>105</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>106</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" ht="28.5" spans="2:3">
-      <c r="B23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4633,7 +4519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A7:A13"/>
@@ -4644,41 +4530,72 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="51.375" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="51.375" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="7" ht="66" customHeight="1" spans="1:1">
-      <c r="A7" s="4" t="s">
-        <v>93</v>
+      <c r="A7" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:1">
-      <c r="A8" s="4" t="s">
-        <v>94</v>
+      <c r="A8" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" ht="43" customHeight="1" spans="1:1">
-      <c r="A9" s="4" t="s">
-        <v>95</v>
+      <c r="A9" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10" ht="51" customHeight="1" spans="1:1">
-      <c r="A10" s="3" t="s">
-        <v>96</v>
+      <c r="A10" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:1">
-      <c r="A11" s="3" t="s">
-        <v>97</v>
+      <c r="A11" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12" ht="98" customHeight="1" spans="1:1">
+      <c r="A12" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" ht="56" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A12:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="52.625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="12" ht="62" customHeight="1" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" ht="56" customHeight="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" ht="66" customHeight="1" spans="1:1">
+      <c r="A13" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4688,26 +4605,21 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A12:A13"/>
+  <dimension ref="A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="52.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.25" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="12" ht="62" customHeight="1" spans="1:1">
-      <c r="A12" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" ht="66" customHeight="1" spans="1:1">
-      <c r="A13" s="3" t="s">
-        <v>96</v>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28620" windowHeight="12585"/>
+    <workbookView windowWidth="28620" windowHeight="12585" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="91">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -186,13 +186,13 @@
     <t>关卡</t>
   </si>
   <si>
-    <t>考虑把皮肤系统设计成武器，例如：弓箭、太刀、巨剑、铁锤等，每种皮肤对应的闪现技能也有不同的特殊逻辑
+    <t xml:space="preserve">考虑把皮肤系统设计成武器，例如：弓箭、太刀、巨剑、铁锤等，每种皮肤对应的闪现技能也有不同的特殊逻辑
 武器是自动攻击的。
 弓箭：远程攻击，发射箭矢。发射双箭矢；发射三箭矢；箭矢可反弹；
 太刀：近战攻击，溅射伤害。可发射剑气；可反弹子弹；反弹的子弹可以对敌人造成伤害；
 巨剑：
 大锤：近战攻击，击飞目标，伤害高。被击飞的目标撞击其他目标时，对双方都造成一定的伤害。撞击墙壁也会造成伤害。
-把配件系统做成一种加成？</t>
+</t>
   </si>
   <si>
     <t>需要加入暴击率、暴击伤害？</t>
@@ -319,6 +319,12 @@
     <t>出生自带一个可抵挡2次攻击的护盾</t>
   </si>
   <si>
+    <t>无法移动；定期发射3颗子弹，攻击频率高；</t>
+  </si>
+  <si>
+    <t>为周围2个友方附加护盾</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
@@ -326,9 +332,6 @@
 发射射线，射线旋转180度。</t>
   </si>
   <si>
-    <t>给队友上护盾</t>
-  </si>
-  <si>
     <t>史莱姆</t>
   </si>
   <si>
@@ -336,6 +339,9 @@
   </si>
   <si>
     <t>场上有其他怪物时，射向此怪物的投射物将被反弹向其他怪物</t>
+  </si>
+  <si>
+    <t>始终跟随玩家</t>
   </si>
   <si>
     <t>关卡的表格配置及读取</t>
@@ -1023,18 +1029,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1397,70 +1397,70 @@
   <sheetPr/>
   <dimension ref="B3:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="27" style="18" customWidth="1"/>
-    <col min="3" max="3" width="105.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="114.125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="27" style="16" customWidth="1"/>
+    <col min="3" max="3" width="105.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="114.125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="140" customHeight="1" spans="2:3">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="101" customHeight="1" spans="2:3">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="101" customHeight="1" spans="2:3">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="103" customHeight="1" spans="2:3">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="100" customHeight="1" spans="2:3">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1481,2534 +1481,2534 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>2</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <f>FLOOR((A8-1)/3,1)+1</f>
         <v>1</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <f>$B$3+(A8-1)*B8</f>
         <v>1</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <f>$B$5*POWER(A8,$B$6)*B8</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <f t="shared" ref="B9:B27" si="0">FLOOR((A9-1)/3,1)+1</f>
         <v>1</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <f t="shared" ref="C9:C42" si="1">$B$3+(A9-1)*B9</f>
         <v>2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <f t="shared" ref="D9:D42" si="2">$B$5*POWER(A9,$B$6)*B9</f>
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>8</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>9</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <f t="shared" si="2"/>
         <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>10</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>11</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <f t="shared" si="2"/>
         <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>12</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <f t="shared" si="2"/>
         <v>576</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>13</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <f t="shared" si="2"/>
         <v>845</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>14</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <f t="shared" si="2"/>
         <v>980</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>15</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <f t="shared" si="2"/>
         <v>1125</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>16</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <f t="shared" si="2"/>
         <v>1536</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>17</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <f t="shared" si="2"/>
         <v>1734</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>18</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <f t="shared" si="2"/>
         <v>1944</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>19</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <f t="shared" si="2"/>
         <v>2527</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>20</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <f t="shared" si="1"/>
         <v>134</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <f t="shared" si="2"/>
         <v>2800</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>21</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <f t="shared" ref="B28:B42" si="3">FLOOR((A28-1)/3,1)+1</f>
         <v>7</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <f t="shared" si="1"/>
         <v>141</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <f t="shared" si="2"/>
         <v>3087</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>22</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <f t="shared" si="1"/>
         <v>169</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <f t="shared" si="2"/>
         <v>3872</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>23</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <f t="shared" si="1"/>
         <v>177</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <f t="shared" si="2"/>
         <v>4232</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>24</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <f t="shared" si="1"/>
         <v>185</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <f t="shared" si="2"/>
         <v>4608</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>25</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <f t="shared" si="1"/>
         <v>217</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <f t="shared" si="2"/>
         <v>5625</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>26</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <f t="shared" si="1"/>
         <v>226</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <f t="shared" si="2"/>
         <v>6084</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>27</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <f t="shared" si="1"/>
         <v>235</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <f t="shared" si="2"/>
         <v>6561</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>28</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <f t="shared" si="1"/>
         <v>271</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <f t="shared" si="2"/>
         <v>7840</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>29</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <f t="shared" si="1"/>
         <v>281</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <f t="shared" si="2"/>
         <v>8410</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>30</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <f t="shared" si="1"/>
         <v>291</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <f t="shared" si="2"/>
         <v>9000</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>31</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <f t="shared" si="1"/>
         <v>331</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <f t="shared" si="2"/>
         <v>10571</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>32</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <f t="shared" si="1"/>
         <v>342</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <f t="shared" si="2"/>
         <v>11264</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>33</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <f t="shared" si="1"/>
         <v>353</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <f t="shared" si="2"/>
         <v>11979</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>34</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <f t="shared" si="1"/>
         <v>397</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <f t="shared" si="2"/>
         <v>13872</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>35</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <f t="shared" si="1"/>
         <v>409</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <f t="shared" si="2"/>
         <v>14700</v>
       </c>
     </row>
     <row r="44" ht="28.5" spans="1:1">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="5">
         <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>2</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="14">
         <v>1.7</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>1</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <f>FLOOR((A51-1)/3,1)+1</f>
         <v>1</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="1">
         <f>$B$45/(1+((A51-1)*B51*$B$46)/100)</f>
         <v>450</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="1">
         <f>FLOOR($B$48*POWER(A51,$B$49)*B51,1)</f>
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>2</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <f t="shared" ref="B52:B85" si="4">FLOOR((A52-1)/3,1)+1</f>
         <v>1</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="1">
         <f t="shared" ref="C52:C85" si="5">$B$45/(1+((A52-1)*B52*$B$46)/100)</f>
         <v>445.544554455446</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1">
         <f t="shared" ref="D52:D85" si="6">FLOOR($B$48*POWER(A52,$B$49)*B52,1)</f>
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>3</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="1">
         <f t="shared" si="5"/>
         <v>441.176470588235</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="1">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>4</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="1">
         <f t="shared" si="5"/>
         <v>424.528301886792</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="1">
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>5</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="1">
         <f t="shared" si="5"/>
         <v>416.666666666667</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="1">
         <f t="shared" si="6"/>
         <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>6</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="1">
         <f t="shared" si="5"/>
         <v>409.090909090909</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="1">
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>7</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="1">
         <f t="shared" si="5"/>
         <v>381.35593220339</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="1">
         <f t="shared" si="6"/>
         <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>8</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="1">
         <f t="shared" si="5"/>
         <v>371.900826446281</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="1">
         <f t="shared" si="6"/>
         <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>9</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="1">
         <f t="shared" si="5"/>
         <v>362.903225806452</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="1">
         <f t="shared" si="6"/>
         <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>10</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="1">
         <f t="shared" si="5"/>
         <v>330.882352941177</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="1">
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>11</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="1">
         <f t="shared" si="5"/>
         <v>321.428571428571</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="1">
         <f t="shared" si="6"/>
         <v>471</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>12</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="1">
         <f t="shared" si="5"/>
         <v>312.5</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="1">
         <f t="shared" si="6"/>
         <v>546</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>13</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="1">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="1">
         <f t="shared" si="5"/>
         <v>281.25</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="1">
         <f t="shared" si="6"/>
         <v>782</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>14</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="1">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="1">
         <f t="shared" si="5"/>
         <v>272.727272727273</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="1">
         <f t="shared" si="6"/>
         <v>888</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>15</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="1">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="1">
         <f t="shared" si="5"/>
         <v>264.705882352941</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="1">
         <f t="shared" si="6"/>
         <v>998</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>16</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="1">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="1">
         <f t="shared" si="5"/>
         <v>236.842105263158</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="1">
         <f t="shared" si="6"/>
         <v>1337</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>17</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="1">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="1">
         <f t="shared" si="5"/>
         <v>229.591836734694</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="1">
         <f t="shared" si="6"/>
         <v>1482</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>18</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="1">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="1">
         <f t="shared" si="5"/>
         <v>222.772277227723</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="1">
         <f t="shared" si="6"/>
         <v>1633</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>19</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="1">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="1">
         <f t="shared" si="5"/>
         <v>199.115044247788</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="1">
         <f t="shared" si="6"/>
         <v>2089</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>20</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="1">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="1">
         <f t="shared" si="5"/>
         <v>193.1330472103</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="1">
         <f t="shared" si="6"/>
         <v>2279</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="2">
+      <c r="A71" s="1">
         <v>21</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="1">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="1">
         <f t="shared" si="5"/>
         <v>187.5</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="1">
         <f t="shared" si="6"/>
         <v>2476</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="2">
+      <c r="A72" s="1">
         <v>22</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="1">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="1">
         <f t="shared" si="5"/>
         <v>167.910447761194</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="1">
         <f t="shared" si="6"/>
         <v>3063</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="2">
+      <c r="A73" s="1">
         <v>23</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="1">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="1">
         <f t="shared" si="5"/>
         <v>163.04347826087</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="1">
         <f t="shared" si="6"/>
         <v>3304</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="2">
+      <c r="A74" s="1">
         <v>24</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="1">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="1">
         <f t="shared" si="5"/>
         <v>158.450704225352</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="1">
         <f t="shared" si="6"/>
         <v>3552</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="2">
+      <c r="A75" s="1">
         <v>25</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="1">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="1">
         <f t="shared" si="5"/>
         <v>142.405063291139</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="1">
         <f t="shared" si="6"/>
         <v>4283</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="2">
+      <c r="A76" s="1">
         <v>26</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="1">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="1">
         <f t="shared" si="5"/>
         <v>138.461538461538</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="1">
         <f t="shared" si="6"/>
         <v>4578</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="2">
+      <c r="A77" s="1">
         <v>27</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="1">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="1">
         <f t="shared" si="5"/>
         <v>134.730538922156</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="1">
         <f t="shared" si="6"/>
         <v>4881</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="2">
+      <c r="A78" s="1">
         <v>28</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="1">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="1">
         <f t="shared" si="5"/>
         <v>121.621621621622</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="1">
         <f t="shared" si="6"/>
         <v>5770</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="2">
+      <c r="A79" s="1">
         <v>29</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="1">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="1">
         <f t="shared" si="5"/>
         <v>118.421052631579</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="1">
         <f t="shared" si="6"/>
         <v>6125</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="2">
+      <c r="A80" s="1">
         <v>30</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="1">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="1">
         <f t="shared" si="5"/>
         <v>115.384615384615</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="1">
         <f t="shared" si="6"/>
         <v>6488</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="2">
+      <c r="A81" s="1">
         <v>31</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="1">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="1">
         <f t="shared" si="5"/>
         <v>104.651162790698</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="1">
         <f t="shared" si="6"/>
         <v>7546</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="2">
+      <c r="A82" s="1">
         <v>32</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="1">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="1">
         <f t="shared" si="5"/>
         <v>102.040816326531</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="1">
         <f t="shared" si="6"/>
         <v>7964</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="2">
+      <c r="A83" s="1">
         <v>33</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="1">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="1">
         <f t="shared" si="5"/>
         <v>99.5575221238938</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="1">
         <f t="shared" si="6"/>
         <v>8392</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="2">
+      <c r="A84" s="1">
         <v>34</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="1">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="1">
         <f t="shared" si="5"/>
         <v>90.7258064516129</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="1">
         <f t="shared" si="6"/>
         <v>9632</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="2">
+      <c r="A85" s="1">
         <v>35</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="1">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="1">
         <f t="shared" si="5"/>
         <v>88.5826771653543</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="1">
         <f t="shared" si="6"/>
         <v>10118</v>
       </c>
     </row>
     <row r="88" ht="28.5" spans="1:1">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="2">
+      <c r="A90" s="1">
         <v>1</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="1">
         <f>C8/(C51/1000)</f>
         <v>2.22222222222222</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="2">
+      <c r="A91" s="1">
         <v>2</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="1">
         <f t="shared" ref="B91:B124" si="7">C9/(C52/1000)</f>
         <v>4.48888888888889</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="2">
+      <c r="A92" s="1">
         <v>3</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="1">
         <f t="shared" si="7"/>
         <v>6.8</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="2">
+      <c r="A93" s="1">
         <v>4</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="1">
         <f t="shared" si="7"/>
         <v>16.4888888888889</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="2">
+      <c r="A94" s="1">
         <v>5</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="1">
         <f t="shared" si="7"/>
         <v>21.6</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="2">
+      <c r="A95" s="1">
         <v>6</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="1">
         <f t="shared" si="7"/>
         <v>26.8888888888889</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="2">
+      <c r="A96" s="1">
         <v>7</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="1">
         <f t="shared" si="7"/>
         <v>49.8222222222222</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="2">
+      <c r="A97" s="1">
         <v>8</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="1">
         <f t="shared" si="7"/>
         <v>59.1555555555556</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="2">
+      <c r="A98" s="1">
         <v>9</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="1">
         <f t="shared" si="7"/>
         <v>68.8888888888889</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="2">
+      <c r="A99" s="1">
         <v>10</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="1">
         <f t="shared" si="7"/>
         <v>111.822222222222</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="2">
+      <c r="A100" s="1">
         <v>11</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="1">
         <f t="shared" si="7"/>
         <v>127.555555555556</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="2">
+      <c r="A101" s="1">
         <v>12</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="1">
         <f t="shared" si="7"/>
         <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="2">
+      <c r="A102" s="1">
         <v>13</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="1">
         <f t="shared" si="7"/>
         <v>216.888888888889</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="2">
+      <c r="A103" s="1">
         <v>14</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="1">
         <f t="shared" si="7"/>
         <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="2">
+      <c r="A104" s="1">
         <v>15</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="1">
         <f t="shared" si="7"/>
         <v>268.222222222222</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="2">
+      <c r="A105" s="1">
         <v>16</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="1">
         <f t="shared" si="7"/>
         <v>384.222222222222</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="2">
+      <c r="A106" s="1">
         <v>17</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="1">
         <f t="shared" si="7"/>
         <v>422.488888888889</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="2">
+      <c r="A107" s="1">
         <v>18</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="1">
         <f t="shared" si="7"/>
         <v>462.355555555556</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="2">
+      <c r="A108" s="1">
         <v>19</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="1">
         <f t="shared" si="7"/>
         <v>637.822222222222</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="2">
+      <c r="A109" s="1">
         <v>20</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="1">
         <f t="shared" si="7"/>
         <v>693.822222222222</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="2">
+      <c r="A110" s="1">
         <v>21</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="1">
         <f t="shared" si="7"/>
         <v>752</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="2">
+      <c r="A111" s="1">
         <v>22</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="1">
         <f t="shared" si="7"/>
         <v>1006.48888888889</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="2">
+      <c r="A112" s="1">
         <v>23</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="1">
         <f t="shared" si="7"/>
         <v>1085.6</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="2">
+      <c r="A113" s="1">
         <v>24</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="1">
         <f t="shared" si="7"/>
         <v>1167.55555555556</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="2">
+      <c r="A114" s="1">
         <v>25</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="1">
         <f t="shared" si="7"/>
         <v>1523.82222222222</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="2">
+      <c r="A115" s="1">
         <v>26</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="1">
         <f t="shared" si="7"/>
         <v>1632.22222222222</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="2">
+      <c r="A116" s="1">
         <v>27</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="1">
         <f t="shared" si="7"/>
         <v>1744.22222222222</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="2">
+      <c r="A117" s="1">
         <v>28</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="1">
         <f t="shared" si="7"/>
         <v>2228.22222222222</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="2">
+      <c r="A118" s="1">
         <v>29</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="1">
         <f t="shared" si="7"/>
         <v>2372.88888888889</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="2">
+      <c r="A119" s="1">
         <v>30</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="1">
         <f t="shared" si="7"/>
         <v>2522</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="2">
+      <c r="A120" s="1">
         <v>31</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="1">
         <f t="shared" si="7"/>
         <v>3162.88888888889</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="2">
+      <c r="A121" s="1">
         <v>32</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="1">
         <f t="shared" si="7"/>
         <v>3351.6</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="2">
+      <c r="A122" s="1">
         <v>33</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="1">
         <f t="shared" si="7"/>
         <v>3545.68888888889</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="2">
+      <c r="A123" s="1">
         <v>34</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="1">
         <f t="shared" si="7"/>
         <v>4375.82222222222</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="2">
+      <c r="A124" s="1">
         <v>35</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="1">
         <f t="shared" si="7"/>
         <v>4617.15555555556</v>
       </c>
     </row>
     <row r="129" ht="28.5" spans="1:1">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="13" t="s">
+      <c r="A130" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B130" s="13" t="s">
+      <c r="B130" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C130" s="13" t="s">
+      <c r="C130" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D130" s="13" t="s">
+      <c r="D130" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E130" s="13" t="s">
+      <c r="E130" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F130" s="13" t="s">
+      <c r="F130" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="2">
+      <c r="A131" s="1">
         <v>1</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="1">
         <f>D8</f>
         <v>1</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131" s="1">
         <f>D51</f>
         <v>2</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131" s="1">
         <f>B131+C131</f>
         <v>3</v>
       </c>
-      <c r="E131" s="2">
+      <c r="E131" s="1">
         <v>0.5</v>
       </c>
-      <c r="F131" s="2">
+      <c r="F131" s="1">
         <f>D131/E131</f>
         <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="2">
+      <c r="A132" s="1">
         <v>2</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="1">
         <f t="shared" ref="B132:B165" si="8">D9</f>
         <v>4</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132" s="1">
         <f t="shared" ref="C132:C165" si="9">D52</f>
         <v>6</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D132" s="1">
         <f t="shared" ref="D132:D165" si="10">B132+C132</f>
         <v>10</v>
       </c>
-      <c r="E132" s="2">
+      <c r="E132" s="1">
         <v>0.75</v>
       </c>
-      <c r="F132" s="2">
+      <c r="F132" s="1">
         <f t="shared" ref="F132:F165" si="11">D132/E132</f>
         <v>13.3333333333333</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="2">
+      <c r="A133" s="1">
         <v>3</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="1">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133" s="1">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133" s="1">
         <f t="shared" si="10"/>
         <v>21</v>
       </c>
-      <c r="E133" s="2">
+      <c r="E133" s="1">
         <v>1</v>
       </c>
-      <c r="F133" s="2">
+      <c r="F133" s="1">
         <f t="shared" si="11"/>
         <v>21</v>
       </c>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="2">
+      <c r="A134" s="1">
         <v>4</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="1">
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134" s="1">
         <f t="shared" si="9"/>
         <v>42</v>
       </c>
-      <c r="D134" s="2">
+      <c r="D134" s="1">
         <f t="shared" si="10"/>
         <v>74</v>
       </c>
-      <c r="E134" s="2">
+      <c r="E134" s="1">
         <v>1.5</v>
       </c>
-      <c r="F134" s="2">
+      <c r="F134" s="1">
         <f t="shared" si="11"/>
         <v>49.3333333333333</v>
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="2">
+      <c r="A135" s="1">
         <v>5</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="1">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C135" s="1">
         <f t="shared" si="9"/>
         <v>61</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135" s="1">
         <f t="shared" si="10"/>
         <v>111</v>
       </c>
-      <c r="E135" s="2">
+      <c r="E135" s="1">
         <v>2</v>
       </c>
-      <c r="F135" s="2">
+      <c r="F135" s="1">
         <f t="shared" si="11"/>
         <v>55.5</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="2">
+      <c r="A136" s="1">
         <v>6</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="1">
         <f t="shared" si="8"/>
         <v>72</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136" s="1">
         <f t="shared" si="9"/>
         <v>84</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D136" s="1">
         <f t="shared" si="10"/>
         <v>156</v>
       </c>
-      <c r="E136" s="2">
+      <c r="E136" s="1">
         <v>2.5</v>
       </c>
-      <c r="F136" s="2">
+      <c r="F136" s="1">
         <f t="shared" si="11"/>
         <v>62.4</v>
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="2">
+      <c r="A137" s="1">
         <v>7</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="1">
         <f t="shared" si="8"/>
         <v>147</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137" s="1">
         <f t="shared" si="9"/>
         <v>163</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D137" s="1">
         <f t="shared" si="10"/>
         <v>310</v>
       </c>
-      <c r="E137" s="2">
+      <c r="E137" s="1">
         <v>3</v>
       </c>
-      <c r="F137" s="2">
+      <c r="F137" s="1">
         <f t="shared" si="11"/>
         <v>103.333333333333</v>
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="2">
+      <c r="A138" s="1">
         <v>8</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="1">
         <f t="shared" si="8"/>
         <v>192</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138" s="1">
         <f t="shared" si="9"/>
         <v>205</v>
       </c>
-      <c r="D138" s="2">
+      <c r="D138" s="1">
         <f t="shared" si="10"/>
         <v>397</v>
       </c>
-      <c r="E138" s="2">
+      <c r="E138" s="1">
         <v>3.5</v>
       </c>
-      <c r="F138" s="2">
+      <c r="F138" s="1">
         <f t="shared" si="11"/>
         <v>113.428571428571</v>
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="2">
+      <c r="A139" s="1">
         <v>9</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="1">
         <f t="shared" si="8"/>
         <v>243</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C139" s="1">
         <f t="shared" si="9"/>
         <v>251</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D139" s="1">
         <f t="shared" si="10"/>
         <v>494</v>
       </c>
-      <c r="E139" s="2">
+      <c r="E139" s="1">
         <v>4.5</v>
       </c>
-      <c r="F139" s="2">
+      <c r="F139" s="1">
         <f t="shared" si="11"/>
         <v>109.777777777778</v>
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="2">
+      <c r="A140" s="1">
         <v>10</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="1">
         <f t="shared" si="8"/>
         <v>400</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C140" s="1">
         <f t="shared" si="9"/>
         <v>400</v>
       </c>
-      <c r="D140" s="2">
+      <c r="D140" s="1">
         <f t="shared" si="10"/>
         <v>800</v>
       </c>
-      <c r="E140" s="2">
+      <c r="E140" s="1">
         <v>5.5</v>
       </c>
-      <c r="F140" s="2">
+      <c r="F140" s="1">
         <f t="shared" si="11"/>
         <v>145.454545454545</v>
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="2">
+      <c r="A141" s="1">
         <v>11</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="1">
         <f t="shared" si="8"/>
         <v>484</v>
       </c>
-      <c r="C141" s="2">
+      <c r="C141" s="1">
         <f t="shared" si="9"/>
         <v>471</v>
       </c>
-      <c r="D141" s="2">
+      <c r="D141" s="1">
         <f t="shared" si="10"/>
         <v>955</v>
       </c>
-      <c r="E141" s="2">
+      <c r="E141" s="1">
         <v>6.5</v>
       </c>
-      <c r="F141" s="2">
+      <c r="F141" s="1">
         <f t="shared" si="11"/>
         <v>146.923076923077</v>
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="2">
+      <c r="A142" s="1">
         <v>12</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="1">
         <f t="shared" si="8"/>
         <v>576</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C142" s="1">
         <f t="shared" si="9"/>
         <v>546</v>
       </c>
-      <c r="D142" s="2">
+      <c r="D142" s="1">
         <f t="shared" si="10"/>
         <v>1122</v>
       </c>
-      <c r="E142" s="2">
+      <c r="E142" s="1">
         <v>7.5</v>
       </c>
-      <c r="F142" s="2">
+      <c r="F142" s="1">
         <f t="shared" si="11"/>
         <v>149.6</v>
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="2">
+      <c r="A143" s="1">
         <v>13</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="1">
         <f t="shared" si="8"/>
         <v>845</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C143" s="1">
         <f t="shared" si="9"/>
         <v>782</v>
       </c>
-      <c r="D143" s="2">
+      <c r="D143" s="1">
         <f t="shared" si="10"/>
         <v>1627</v>
       </c>
-      <c r="E143" s="2">
+      <c r="E143" s="1">
         <v>8.5</v>
       </c>
-      <c r="F143" s="2">
+      <c r="F143" s="1">
         <f t="shared" si="11"/>
         <v>191.411764705882</v>
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="2">
+      <c r="A144" s="1">
         <v>14</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" s="1">
         <f t="shared" si="8"/>
         <v>980</v>
       </c>
-      <c r="C144" s="2">
+      <c r="C144" s="1">
         <f t="shared" si="9"/>
         <v>888</v>
       </c>
-      <c r="D144" s="2">
+      <c r="D144" s="1">
         <f t="shared" si="10"/>
         <v>1868</v>
       </c>
-      <c r="E144" s="2">
+      <c r="E144" s="1">
         <v>9.5</v>
       </c>
-      <c r="F144" s="2">
+      <c r="F144" s="1">
         <f t="shared" si="11"/>
         <v>196.631578947368</v>
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="2">
+      <c r="A145" s="1">
         <v>15</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="1">
         <f t="shared" si="8"/>
         <v>1125</v>
       </c>
-      <c r="C145" s="2">
+      <c r="C145" s="1">
         <f t="shared" si="9"/>
         <v>998</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D145" s="1">
         <f t="shared" si="10"/>
         <v>2123</v>
       </c>
-      <c r="E145" s="2">
+      <c r="E145" s="1">
         <v>10.5</v>
       </c>
-      <c r="F145" s="2">
+      <c r="F145" s="1">
         <f t="shared" si="11"/>
         <v>202.190476190476</v>
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="2">
+      <c r="A146" s="1">
         <v>16</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="1">
         <f t="shared" si="8"/>
         <v>1536</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C146" s="1">
         <f t="shared" si="9"/>
         <v>1337</v>
       </c>
-      <c r="D146" s="2">
+      <c r="D146" s="1">
         <f t="shared" si="10"/>
         <v>2873</v>
       </c>
-      <c r="E146" s="2">
+      <c r="E146" s="1">
         <v>12</v>
       </c>
-      <c r="F146" s="2">
+      <c r="F146" s="1">
         <f t="shared" si="11"/>
         <v>239.416666666667</v>
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="2">
+      <c r="A147" s="1">
         <v>17</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="1">
         <f t="shared" si="8"/>
         <v>1734</v>
       </c>
-      <c r="C147" s="2">
+      <c r="C147" s="1">
         <f t="shared" si="9"/>
         <v>1482</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D147" s="1">
         <f t="shared" si="10"/>
         <v>3216</v>
       </c>
-      <c r="E147" s="2">
+      <c r="E147" s="1">
         <v>13.5</v>
       </c>
-      <c r="F147" s="2">
+      <c r="F147" s="1">
         <f t="shared" si="11"/>
         <v>238.222222222222</v>
       </c>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="2">
+      <c r="A148" s="1">
         <v>18</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="1">
         <f t="shared" si="8"/>
         <v>1944</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C148" s="1">
         <f t="shared" si="9"/>
         <v>1633</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D148" s="1">
         <f t="shared" si="10"/>
         <v>3577</v>
       </c>
-      <c r="E148" s="2">
+      <c r="E148" s="1">
         <v>15</v>
       </c>
-      <c r="F148" s="2">
+      <c r="F148" s="1">
         <f t="shared" si="11"/>
         <v>238.466666666667</v>
       </c>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="2">
+      <c r="A149" s="1">
         <v>19</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="1">
         <f t="shared" si="8"/>
         <v>2527</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C149" s="1">
         <f t="shared" si="9"/>
         <v>2089</v>
       </c>
-      <c r="D149" s="2">
+      <c r="D149" s="1">
         <f t="shared" si="10"/>
         <v>4616</v>
       </c>
-      <c r="E149" s="2">
+      <c r="E149" s="1">
         <v>16.5</v>
       </c>
-      <c r="F149" s="2">
+      <c r="F149" s="1">
         <f t="shared" si="11"/>
         <v>279.757575757576</v>
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="2">
+      <c r="A150" s="1">
         <v>20</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="1">
         <f t="shared" si="8"/>
         <v>2800</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C150" s="1">
         <f t="shared" si="9"/>
         <v>2279</v>
       </c>
-      <c r="D150" s="2">
+      <c r="D150" s="1">
         <f t="shared" si="10"/>
         <v>5079</v>
       </c>
-      <c r="E150" s="2">
+      <c r="E150" s="1">
         <v>18</v>
       </c>
-      <c r="F150" s="2">
+      <c r="F150" s="1">
         <f t="shared" si="11"/>
         <v>282.166666666667</v>
       </c>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="2">
+      <c r="A151" s="1">
         <v>21</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="1">
         <f t="shared" si="8"/>
         <v>3087</v>
       </c>
-      <c r="C151" s="2">
+      <c r="C151" s="1">
         <f t="shared" si="9"/>
         <v>2476</v>
       </c>
-      <c r="D151" s="2">
+      <c r="D151" s="1">
         <f t="shared" si="10"/>
         <v>5563</v>
       </c>
-      <c r="E151" s="2">
+      <c r="E151" s="1">
         <v>19.5</v>
       </c>
-      <c r="F151" s="2">
+      <c r="F151" s="1">
         <f t="shared" si="11"/>
         <v>285.282051282051</v>
       </c>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="2">
+      <c r="A152" s="1">
         <v>22</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="1">
         <f t="shared" si="8"/>
         <v>3872</v>
       </c>
-      <c r="C152" s="2">
+      <c r="C152" s="1">
         <f t="shared" si="9"/>
         <v>3063</v>
       </c>
-      <c r="D152" s="2">
+      <c r="D152" s="1">
         <f t="shared" si="10"/>
         <v>6935</v>
       </c>
-      <c r="E152" s="2">
+      <c r="E152" s="1">
         <v>21</v>
       </c>
-      <c r="F152" s="2">
+      <c r="F152" s="1">
         <f t="shared" si="11"/>
         <v>330.238095238095</v>
       </c>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="2">
+      <c r="A153" s="1">
         <v>23</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="1">
         <f t="shared" si="8"/>
         <v>4232</v>
       </c>
-      <c r="C153" s="2">
+      <c r="C153" s="1">
         <f t="shared" si="9"/>
         <v>3304</v>
       </c>
-      <c r="D153" s="2">
+      <c r="D153" s="1">
         <f t="shared" si="10"/>
         <v>7536</v>
       </c>
-      <c r="E153" s="2">
+      <c r="E153" s="1">
         <v>22.5</v>
       </c>
-      <c r="F153" s="2">
+      <c r="F153" s="1">
         <f t="shared" si="11"/>
         <v>334.933333333333</v>
       </c>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="2">
+      <c r="A154" s="1">
         <v>24</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="1">
         <f t="shared" si="8"/>
         <v>4608</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C154" s="1">
         <f t="shared" si="9"/>
         <v>3552</v>
       </c>
-      <c r="D154" s="2">
+      <c r="D154" s="1">
         <f t="shared" si="10"/>
         <v>8160</v>
       </c>
-      <c r="E154" s="2">
+      <c r="E154" s="1">
         <v>24</v>
       </c>
-      <c r="F154" s="2">
+      <c r="F154" s="1">
         <f t="shared" si="11"/>
         <v>340</v>
       </c>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="2">
+      <c r="A155" s="1">
         <v>25</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="1">
         <f t="shared" si="8"/>
         <v>5625</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C155" s="1">
         <f t="shared" si="9"/>
         <v>4283</v>
       </c>
-      <c r="D155" s="2">
+      <c r="D155" s="1">
         <f t="shared" si="10"/>
         <v>9908</v>
       </c>
-      <c r="E155" s="2">
+      <c r="E155" s="1">
         <v>25.5</v>
       </c>
-      <c r="F155" s="2">
+      <c r="F155" s="1">
         <f t="shared" si="11"/>
         <v>388.549019607843</v>
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="2">
+      <c r="A156" s="1">
         <v>26</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="1">
         <f t="shared" si="8"/>
         <v>6084</v>
       </c>
-      <c r="C156" s="2">
+      <c r="C156" s="1">
         <f t="shared" si="9"/>
         <v>4578</v>
       </c>
-      <c r="D156" s="2">
+      <c r="D156" s="1">
         <f t="shared" si="10"/>
         <v>10662</v>
       </c>
-      <c r="E156" s="2">
+      <c r="E156" s="1">
         <v>27.5</v>
       </c>
-      <c r="F156" s="2">
+      <c r="F156" s="1">
         <f t="shared" si="11"/>
         <v>387.709090909091</v>
       </c>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="2">
+      <c r="A157" s="1">
         <v>27</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="1">
         <f t="shared" si="8"/>
         <v>6561</v>
       </c>
-      <c r="C157" s="2">
+      <c r="C157" s="1">
         <f t="shared" si="9"/>
         <v>4881</v>
       </c>
-      <c r="D157" s="2">
+      <c r="D157" s="1">
         <f t="shared" si="10"/>
         <v>11442</v>
       </c>
-      <c r="E157" s="2">
+      <c r="E157" s="1">
         <v>29.5</v>
       </c>
-      <c r="F157" s="2">
+      <c r="F157" s="1">
         <f t="shared" si="11"/>
         <v>387.864406779661</v>
       </c>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="2">
+      <c r="A158" s="1">
         <v>28</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158" s="1">
         <f t="shared" si="8"/>
         <v>7840</v>
       </c>
-      <c r="C158" s="2">
+      <c r="C158" s="1">
         <f t="shared" si="9"/>
         <v>5770</v>
       </c>
-      <c r="D158" s="2">
+      <c r="D158" s="1">
         <f t="shared" si="10"/>
         <v>13610</v>
       </c>
-      <c r="E158" s="2">
+      <c r="E158" s="1">
         <v>31.5</v>
       </c>
-      <c r="F158" s="2">
+      <c r="F158" s="1">
         <f t="shared" si="11"/>
         <v>432.063492063492</v>
       </c>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="2">
+      <c r="A159" s="1">
         <v>29</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="1">
         <f t="shared" si="8"/>
         <v>8410</v>
       </c>
-      <c r="C159" s="2">
+      <c r="C159" s="1">
         <f t="shared" si="9"/>
         <v>6125</v>
       </c>
-      <c r="D159" s="2">
+      <c r="D159" s="1">
         <f t="shared" si="10"/>
         <v>14535</v>
       </c>
-      <c r="E159" s="2">
+      <c r="E159" s="1">
         <v>33.5</v>
       </c>
-      <c r="F159" s="2">
+      <c r="F159" s="1">
         <f t="shared" si="11"/>
         <v>433.880597014925</v>
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="2">
+      <c r="A160" s="1">
         <v>30</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="1">
         <f t="shared" si="8"/>
         <v>9000</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C160" s="1">
         <f t="shared" si="9"/>
         <v>6488</v>
       </c>
-      <c r="D160" s="2">
+      <c r="D160" s="1">
         <f t="shared" si="10"/>
         <v>15488</v>
       </c>
-      <c r="E160" s="2">
+      <c r="E160" s="1">
         <v>35.5</v>
       </c>
-      <c r="F160" s="2">
+      <c r="F160" s="1">
         <f t="shared" si="11"/>
         <v>436.281690140845</v>
       </c>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="2">
+      <c r="A161" s="1">
         <v>31</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="1">
         <f t="shared" si="8"/>
         <v>10571</v>
       </c>
-      <c r="C161" s="2">
+      <c r="C161" s="1">
         <f t="shared" si="9"/>
         <v>7546</v>
       </c>
-      <c r="D161" s="2">
+      <c r="D161" s="1">
         <f t="shared" si="10"/>
         <v>18117</v>
       </c>
-      <c r="E161" s="2">
+      <c r="E161" s="1">
         <v>37.5</v>
       </c>
-      <c r="F161" s="2">
+      <c r="F161" s="1">
         <f t="shared" si="11"/>
         <v>483.12</v>
       </c>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="2">
+      <c r="A162" s="1">
         <v>32</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162" s="1">
         <f t="shared" si="8"/>
         <v>11264</v>
       </c>
-      <c r="C162" s="2">
+      <c r="C162" s="1">
         <f t="shared" si="9"/>
         <v>7964</v>
       </c>
-      <c r="D162" s="2">
+      <c r="D162" s="1">
         <f t="shared" si="10"/>
         <v>19228</v>
       </c>
-      <c r="E162" s="2">
+      <c r="E162" s="1">
         <v>39.5</v>
       </c>
-      <c r="F162" s="2">
+      <c r="F162" s="1">
         <f t="shared" si="11"/>
         <v>486.784810126582</v>
       </c>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="2">
+      <c r="A163" s="1">
         <v>33</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="1">
         <f t="shared" si="8"/>
         <v>11979</v>
       </c>
-      <c r="C163" s="2">
+      <c r="C163" s="1">
         <f t="shared" si="9"/>
         <v>8392</v>
       </c>
-      <c r="D163" s="2">
+      <c r="D163" s="1">
         <f t="shared" si="10"/>
         <v>20371</v>
       </c>
-      <c r="E163" s="2">
+      <c r="E163" s="1">
         <v>41.5</v>
       </c>
-      <c r="F163" s="2">
+      <c r="F163" s="1">
         <f t="shared" si="11"/>
         <v>490.867469879518</v>
       </c>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="2">
+      <c r="A164" s="1">
         <v>34</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164" s="1">
         <f t="shared" si="8"/>
         <v>13872</v>
       </c>
-      <c r="C164" s="2">
+      <c r="C164" s="1">
         <f t="shared" si="9"/>
         <v>9632</v>
       </c>
-      <c r="D164" s="2">
+      <c r="D164" s="1">
         <f t="shared" si="10"/>
         <v>23504</v>
       </c>
-      <c r="E164" s="2">
+      <c r="E164" s="1">
         <v>43.5</v>
       </c>
-      <c r="F164" s="2">
+      <c r="F164" s="1">
         <f t="shared" si="11"/>
         <v>540.32183908046</v>
       </c>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="2">
+      <c r="A165" s="1">
         <v>35</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165" s="1">
         <f t="shared" si="8"/>
         <v>14700</v>
       </c>
-      <c r="C165" s="2">
+      <c r="C165" s="1">
         <f t="shared" si="9"/>
         <v>10118</v>
       </c>
-      <c r="D165" s="2">
+      <c r="D165" s="1">
         <f t="shared" si="10"/>
         <v>24818</v>
       </c>
-      <c r="E165" s="2">
+      <c r="E165" s="1">
         <v>45.5</v>
       </c>
-      <c r="F165" s="2">
+      <c r="F165" s="1">
         <f t="shared" si="11"/>
         <v>545.450549450549</v>
       </c>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="2" t="s">
+      <c r="A167" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167" s="1">
         <f>SUM(B131:B165)</f>
         <v>137406</v>
       </c>
-      <c r="C167" s="2">
+      <c r="C167" s="1">
         <f>SUM(C131:C165)</f>
         <v>101903</v>
       </c>
-      <c r="D167" s="2">
+      <c r="D167" s="1">
         <f>SUM(D131:D165)</f>
         <v>239309</v>
       </c>
-      <c r="E167" s="2">
+      <c r="E167" s="1">
         <f>SUM(E131:E165)</f>
         <v>619.75</v>
       </c>
@@ -4030,209 +4030,209 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="2"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <f>($B$3*A6*A6)/2-($B$3*A6)/2+$B$2</f>
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <f t="shared" ref="B7:B15" si="0">($B$3*A7*A7)/2-($B$3*A7)/2+$B$2</f>
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <f t="shared" ref="B16:B25" si="1">($B$3*A16*A16)/2-($B$3*A16)/2+$B$2</f>
         <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <f t="shared" si="1"/>
         <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>13</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>14</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>15</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <f t="shared" si="1"/>
         <v>535</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>16</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <f t="shared" si="1"/>
         <v>610</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>17</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>18</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <f t="shared" si="1"/>
         <v>775</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>19</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <f t="shared" si="1"/>
         <v>865</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>20</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <f t="shared" si="1"/>
         <v>960</v>
       </c>
@@ -4249,22 +4249,22 @@
   <dimension ref="A12:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="101" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="101" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="12" ht="219" customHeight="1" spans="1:1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4285,89 +4285,89 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="14.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="45.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="40.375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40.375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="27" spans="1:6">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="7" customFormat="1" ht="27" spans="1:6">
+      <c r="A1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" ht="273" customHeight="1" spans="1:6">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>10000</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:5">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" ht="119" customHeight="1" spans="1:5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" ht="118" customHeight="1" spans="1:5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="13" ht="98" customHeight="1"/>
   </sheetData>
@@ -4379,138 +4379,155 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A5:C26"/>
+  <dimension ref="A5:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="55.625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:3">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>100</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>101</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>102</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>103</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>104</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="7">
+      <c r="A14" s="5">
         <v>105</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2">
+      <c r="A15" s="5">
         <v>106</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="5" t="s">
         <v>74</v>
       </c>
     </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5">
+        <v>107</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>108</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="8"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="8"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="8"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" ht="28.5" spans="2:3">
-      <c r="B23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="C23" s="6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="C25" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="2" t="s">
-        <v>80</v>
+      <c r="C26" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -4530,38 +4547,38 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="51.375" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="51.375" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="7" ht="66" customHeight="1" spans="1:1">
-      <c r="A7" s="6" t="s">
-        <v>81</v>
+      <c r="A7" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:1">
-      <c r="A8" s="6" t="s">
-        <v>82</v>
+      <c r="A8" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" ht="43" customHeight="1" spans="1:1">
-      <c r="A9" s="6" t="s">
-        <v>83</v>
+      <c r="A9" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10" ht="51" customHeight="1" spans="1:1">
-      <c r="A10" s="5" t="s">
-        <v>84</v>
+      <c r="A10" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:1">
-      <c r="A11" s="5" t="s">
-        <v>85</v>
+      <c r="A11" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" ht="98" customHeight="1" spans="1:1">
-      <c r="A12" s="5" t="s">
-        <v>86</v>
+      <c r="A12" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13" ht="56" customHeight="1"/>
@@ -4582,18 +4599,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="52.625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="52.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="12" ht="62" customHeight="1" spans="1:1">
-      <c r="A12" s="3" t="s">
-        <v>87</v>
+      <c r="A12" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="13" ht="66" customHeight="1" spans="1:1">
-      <c r="A13" s="4" t="s">
-        <v>84</v>
+      <c r="A13" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -4619,7 +4636,7 @@
   <sheetData>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -341,7 +341,7 @@
     <t>场上有其他怪物时，射向此怪物的投射物将被反弹向其他怪物</t>
   </si>
   <si>
-    <t>始终跟随玩家</t>
+    <t>始终跟随玩家|始终弹向玩家</t>
   </si>
   <si>
     <t>关卡的表格配置及读取</t>
@@ -4382,7 +4382,7 @@
   <dimension ref="A5:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28620" windowHeight="12585" activeTab="5"/>
+    <workbookView windowWidth="28620" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="95">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -99,10 +99,20 @@
 </t>
   </si>
   <si>
-    <t>肉鸽系统：</t>
-  </si>
-  <si>
-    <t>？？？</t>
+    <t>宝珠系统：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">武器最多携带3枚宝珠
+</t>
+  </si>
+  <si>
+    <t>会心宝珠：暴击率提高5|10|15
+重击宝珠：暴击伤害提高25|50|75
+迅捷宝珠：移动速度提高50/100/150
+生命宝珠：生命值提高1/2/3
+持续宝珠：获得的增益Buff持续时间提高%
+碎片宝珠：关卡获得的碎片数量提高5%|10%|20%
+龙之宝珠：对Boss造成的伤害提高5%|10%|20%</t>
   </si>
   <si>
     <t>广告活动：</t>
@@ -195,7 +205,9 @@
 </t>
   </si>
   <si>
-    <t>需要加入暴击率、暴击伤害？</t>
+    <t>圆环边界周期性的出现Buff，玩家触碰获得对应Buff
+Buff：攻击力提高|攻速提高|移动速度提高|暴击率提高|暴击伤害提高
+DeBuff：攻击力降低|攻速降低|移动速度降低</t>
   </si>
   <si>
     <t>ID</t>
@@ -342,6 +354,15 @@
   </si>
   <si>
     <t>始终跟随玩家|始终弹向玩家</t>
+  </si>
+  <si>
+    <t>刺猬</t>
+  </si>
+  <si>
+    <t>每次受击会发射尖刺</t>
+  </si>
+  <si>
+    <t>每次撞击墙壁会发射尖刺</t>
   </si>
   <si>
     <t>关卡的表格配置及读取</t>
@@ -1029,7 +1050,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1063,6 +1084,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1083,6 +1107,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1395,21 +1422,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:C9"/>
+  <dimension ref="B3:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="27" style="16" customWidth="1"/>
+    <col min="2" max="2" width="27" style="17" customWidth="1"/>
     <col min="3" max="3" width="105.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="114.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="114.125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="140" customHeight="1" spans="2:3">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1417,7 +1444,7 @@
       </c>
     </row>
     <row r="4" ht="101" customHeight="1" spans="2:3">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1425,7 +1452,7 @@
       </c>
     </row>
     <row r="5" ht="101" customHeight="1" spans="2:3">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1433,7 +1460,7 @@
       </c>
     </row>
     <row r="6" ht="103" customHeight="1" spans="2:3">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1441,27 +1468,30 @@
       </c>
     </row>
     <row r="7" ht="100" customHeight="1" spans="2:3">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="16" t="s">
+    <row r="8" ht="94.5" spans="2:4">
+      <c r="B8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
+      <c r="D8" s="19" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="16" t="s">
-        <v>12</v>
+      <c r="B9" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1491,20 +1521,20 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="1:1">
-      <c r="A1" s="12" t="s">
-        <v>14</v>
+      <c r="A1" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="A2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -1512,39 +1542,39 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="14">
+      <c r="A6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="15">
         <v>2</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="B7" s="16" t="s">
         <v>22</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2143,13 +2173,13 @@
       </c>
     </row>
     <row r="44" ht="28.5" spans="1:1">
-      <c r="A44" s="12" t="s">
-        <v>23</v>
+      <c r="A44" s="13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B45" s="5">
         <v>450</v>
@@ -2157,7 +2187,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B46" s="5">
         <v>1</v>
@@ -2165,43 +2195,43 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B48" s="1">
         <v>2</v>
       </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" s="14">
+      <c r="A49" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="15">
         <v>1.7</v>
       </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" s="15" t="s">
+      <c r="A50" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2800,16 +2830,16 @@
       </c>
     </row>
     <row r="88" ht="28.5" spans="1:1">
-      <c r="A88" s="12" t="s">
-        <v>27</v>
+      <c r="A88" s="13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -3128,28 +3158,28 @@
       </c>
     </row>
     <row r="129" ht="28.5" spans="1:1">
-      <c r="A129" s="12" t="s">
-        <v>29</v>
+      <c r="A129" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C130" s="11" t="s">
+      <c r="A130" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B130" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D130" s="11" t="s">
+      <c r="C130" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E130" s="11" t="s">
+      <c r="D130" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F130" s="11" t="s">
+      <c r="E130" s="12" t="s">
         <v>34</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3994,7 +4024,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B167" s="1">
         <f>SUM(B131:B165)</f>
@@ -4025,7 +4055,7 @@
   <dimension ref="A2:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -4035,7 +4065,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
@@ -4043,18 +4073,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>29</v>
+      <c r="A5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4246,10 +4276,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A12:A15"/>
+  <dimension ref="A12:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4260,13 +4290,16 @@
   <sheetData>
     <row r="12" ht="219" customHeight="1" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
+    </row>
+    <row r="15" ht="71.25" spans="1:1">
+      <c r="A15" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4296,22 +4329,22 @@
   <sheetData>
     <row r="1" s="7" customFormat="1" ht="27" spans="1:6">
       <c r="A1" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" ht="273" customHeight="1" spans="1:6">
@@ -4319,38 +4352,38 @@
         <v>10000</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:5">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="119" customHeight="1" spans="1:5">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -4359,13 +4392,13 @@
     <row r="5" ht="118" customHeight="1" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -4379,9 +4412,9 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A5:C27"/>
+  <dimension ref="A5:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -4395,10 +4428,10 @@
   <sheetData>
     <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4406,10 +4439,10 @@
         <v>100</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4417,10 +4450,10 @@
         <v>101</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4428,10 +4461,10 @@
         <v>102</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4439,10 +4472,10 @@
         <v>103</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4450,10 +4483,10 @@
         <v>104</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4461,10 +4494,10 @@
         <v>105</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4472,10 +4505,10 @@
         <v>106</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4484,7 +4517,7 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4492,7 +4525,7 @@
         <v>108</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="3:3">
@@ -4506,28 +4539,41 @@
     </row>
     <row r="23" ht="28.5" spans="2:3">
       <c r="B23" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -4553,32 +4599,32 @@
   <sheetData>
     <row r="7" ht="66" customHeight="1" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" ht="43" customHeight="1" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" ht="51" customHeight="1" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" ht="98" customHeight="1" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" ht="56" customHeight="1"/>
@@ -4605,12 +4651,12 @@
   <sheetData>
     <row r="12" ht="62" customHeight="1" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" ht="66" customHeight="1" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -4636,7 +4682,7 @@
   <sheetData>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28620" windowHeight="12585"/>
+    <workbookView windowWidth="28620" windowHeight="12585" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -13,9 +13,10 @@
     <sheet name="头脑风暴" sheetId="13" r:id="rId4"/>
     <sheet name="武器" sheetId="11" r:id="rId5"/>
     <sheet name="怪物" sheetId="9" r:id="rId6"/>
-    <sheet name="7.22" sheetId="12" r:id="rId7"/>
-    <sheet name="7.29" sheetId="15" r:id="rId8"/>
-    <sheet name="7.30" sheetId="17" r:id="rId9"/>
+    <sheet name="待完善" sheetId="18" r:id="rId7"/>
+    <sheet name="7.22" sheetId="12" r:id="rId8"/>
+    <sheet name="7.29" sheetId="15" r:id="rId9"/>
+    <sheet name="7.30" sheetId="17" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="97">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -365,6 +366,9 @@
     <t>每次撞击墙壁会发射尖刺</t>
   </si>
   <si>
+    <t>暴击特效需要完善</t>
+  </si>
+  <si>
     <t>关卡的表格配置及读取</t>
   </si>
   <si>
@@ -387,6 +391,9 @@
   </si>
   <si>
     <t>设计怪物及实现对应逻辑</t>
+  </si>
+  <si>
+    <t>前面的关卡出怪可以紧凑一点</t>
   </si>
 </sst>
 </file>
@@ -1066,6 +1073,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1083,9 +1093,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1424,7 +1431,7 @@
   <sheetPr/>
   <dimension ref="B3:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+    <sheetView topLeftCell="C5" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1439,7 +1446,7 @@
       <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1447,7 +1454,7 @@
       <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1455,7 +1462,7 @@
       <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1463,7 +1470,7 @@
       <c r="B6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1471,7 +1478,7 @@
       <c r="B7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1479,7 +1486,7 @@
       <c r="B8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -1492,6 +1499,37 @@
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A8:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="41.25" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1533,10 +1571,10 @@
       <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2178,18 +2216,18 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="6">
         <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4289,17 +4327,17 @@
   </cols>
   <sheetData>
     <row r="12" ht="219" customHeight="1" spans="1:1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" ht="71.25" spans="1:1">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="11"/>
+      <c r="A18" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4327,23 +4365,23 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="27" spans="1:6">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="8" customFormat="1" ht="27" spans="1:6">
+      <c r="A1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4357,13 +4395,13 @@
       <c r="C2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4375,7 +4413,7 @@
       <c r="C3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>55</v>
       </c>
       <c r="E3" s="3"/>
@@ -4397,7 +4435,7 @@
       <c r="C5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>59</v>
       </c>
       <c r="E5" s="3"/>
@@ -4435,88 +4473,88 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>100</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>101</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>102</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>103</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>104</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <v>105</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>106</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="5">
+      <c r="A16" s="6">
         <v>107</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4529,19 +4567,19 @@
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="6"/>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="6"/>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="6"/>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" ht="28.5" spans="2:3">
       <c r="B23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4583,6 +4621,32 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="30.625" style="5" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="1:1">
+      <c r="A10" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A7:A13"/>
@@ -4599,32 +4663,32 @@
   <sheetData>
     <row r="7" ht="66" customHeight="1" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" ht="43" customHeight="1" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" ht="51" customHeight="1" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" ht="98" customHeight="1" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" ht="56" customHeight="1"/>
@@ -4634,7 +4698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A12:A13"/>
@@ -4651,38 +4715,12 @@
   <sheetData>
     <row r="12" ht="62" customHeight="1" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" ht="66" customHeight="1" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
-  <cols>
-    <col min="1" max="1" width="41.25" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28620" windowHeight="12585" activeTab="6"/>
+    <workbookView windowWidth="26130" windowHeight="12585" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="101">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -65,17 +65,19 @@
 关卡不论胜利失败，根据击杀的敌人数量获得碎片。</t>
   </si>
   <si>
+    <t>Buff系统：</t>
+  </si>
+  <si>
+    <t>圆环边界周期性的出现Buff，一段时间后会消失，玩家触碰获得对应Buff
+Buff：攻击力提高|攻速提高|移动速度提高|暴击率提高|暴击伤害提高
+DeBuff：攻击力降低|攻速降低|移动速度降低</t>
+  </si>
+  <si>
     <t>升级系统：</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">玩家可以消耗碎片升级炮台。
+      <t xml:space="preserve">玩家可以消耗碎片升级武器。
 可升级的内容包括且不限于：射速、伤害等。
 </t>
     </r>
@@ -86,7 +88,7 @@
         <rFont val="黑体"/>
         <charset val="134"/>
       </rPr>
-      <t>使玩家形成：打关卡-&gt;升级炮台-&gt;打更厉害的关卡 的循环。</t>
+      <t>使玩家形成：打关卡-&gt;升级武器-&gt;打更厉害的关卡 的循环。</t>
     </r>
   </si>
   <si>
@@ -103,7 +105,9 @@
     <t>宝珠系统：</t>
   </si>
   <si>
-    <t xml:space="preserve">武器最多携带3枚宝珠
+    <t xml:space="preserve">通过关卡15后开放。
+15关会给一颗珠子。
+武器最多携带3枚宝珠。
 </t>
   </si>
   <si>
@@ -197,18 +201,14 @@
     <t>关卡</t>
   </si>
   <si>
-    <t xml:space="preserve">考虑把皮肤系统设计成武器，例如：弓箭、太刀、巨剑、铁锤等，每种皮肤对应的闪现技能也有不同的特殊逻辑
+    <t xml:space="preserve">考虑把皮肤系统设计成武器，例如：弓箭、太刀、巨剑、铁锤等。
+每种皮肤对应的闪现技能也有不同的特殊逻辑？
 武器是自动攻击的。
 弓箭：远程攻击，发射箭矢。发射双箭矢；发射三箭矢；箭矢可反弹；
 太刀：近战攻击，溅射伤害。可发射剑气；可反弹子弹；反弹的子弹可以对敌人造成伤害；
 巨剑：
 大锤：近战攻击，击飞目标，伤害高。被击飞的目标撞击其他目标时，对双方都造成一定的伤害。撞击墙壁也会造成伤害。
 </t>
-  </si>
-  <si>
-    <t>圆环边界周期性的出现Buff，玩家触碰获得对应Buff
-Buff：攻击力提高|攻速提高|移动速度提高|暴击率提高|暴击伤害提高
-DeBuff：攻击力降低|攻速降低|移动速度降低</t>
   </si>
   <si>
     <t>ID</t>
@@ -274,6 +274,9 @@
     <t>巨剑</t>
   </si>
   <si>
+    <t>纯纯近战</t>
+  </si>
+  <si>
     <t>大锤</t>
   </si>
   <si>
@@ -282,6 +285,13 @@
   <si>
     <t>被击飞的目标撞击其他目标时，对双方都造成一定的伤害。
 撞击墙壁也会造成伤害。</t>
+  </si>
+  <si>
+    <t>匕首</t>
+  </si>
+  <si>
+    <t>近战攻击，高闪避
+可释放手里剑之类的</t>
   </si>
   <si>
     <t>敌人是否拥有弱点？</t>
@@ -1073,9 +1083,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1093,6 +1100,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1429,10 +1439,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:D9"/>
+  <dimension ref="B3:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="3"/>
@@ -1446,7 +1456,7 @@
       <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1454,7 +1464,7 @@
       <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1462,7 +1472,7 @@
       <c r="B5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1470,35 +1480,43 @@
       <c r="B6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="100" customHeight="1" spans="2:3">
+    <row r="7" ht="103" customHeight="1" spans="2:3">
       <c r="B7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" ht="94.5" spans="2:4">
+    <row r="8" ht="100" customHeight="1" spans="2:3">
       <c r="B8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="19" t="s">
+    </row>
+    <row r="9" ht="94.5" spans="2:4">
+      <c r="B9" s="17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="17" t="s">
+      <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="19" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1524,12 +1542,12 @@
   <sheetData>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1543,7 +1561,7 @@
   <sheetPr/>
   <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
@@ -1560,32 +1578,32 @@
   <sheetData>
     <row r="1" ht="28.5" spans="1:1">
       <c r="A1" s="13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -1593,7 +1611,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" s="15">
         <v>2</v>
@@ -1603,16 +1621,16 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2212,35 +2230,35 @@
     </row>
     <row r="44" ht="28.5" spans="1:1">
       <c r="A44" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" s="6">
+      <c r="A45" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="5">
         <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B46" s="6">
+      <c r="A46" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B48" s="1">
         <v>2</v>
@@ -2250,7 +2268,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B49" s="15">
         <v>1.7</v>
@@ -2260,16 +2278,16 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2869,15 +2887,15 @@
     </row>
     <row r="88" ht="28.5" spans="1:1">
       <c r="A88" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -3197,27 +3215,27 @@
     </row>
     <row r="129" ht="28.5" spans="1:1">
       <c r="A129" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4062,7 +4080,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B167" s="1">
         <f>SUM(B131:B165)</f>
@@ -4103,7 +4121,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
@@ -4111,7 +4129,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
@@ -4119,10 +4137,10 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4316,8 +4334,8 @@
   <sheetPr/>
   <dimension ref="A12:A18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4327,17 +4345,15 @@
   </cols>
   <sheetData>
     <row r="12" ht="219" customHeight="1" spans="1:1">
-      <c r="A12" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" ht="71.25" spans="1:1">
-      <c r="A15" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="A12" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="6"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4350,8 +4366,8 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -4365,24 +4381,24 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="27" spans="1:6">
-      <c r="A1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="1" s="7" customFormat="1" ht="27" spans="1:6">
+      <c r="A1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>47</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" ht="273" customHeight="1" spans="1:6">
@@ -4390,55 +4406,65 @@
         <v>10000</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>52</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:5">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="10" t="s">
         <v>55</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" ht="119" customHeight="1" spans="1:5">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" ht="118" customHeight="1" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="E5" s="3"/>
+    </row>
+    <row r="6" ht="28.5" spans="2:3">
+      <c r="B6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" ht="98" customHeight="1"/>
   </sheetData>
@@ -4466,96 +4492,96 @@
   <sheetData>
     <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>100</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>63</v>
+      <c r="B9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>101</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>65</v>
+      <c r="B10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>102</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>67</v>
+      <c r="B11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>103</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>69</v>
+      <c r="B12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>104</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>71</v>
+      <c r="B13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>105</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>73</v>
+      <c r="B14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>106</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>75</v>
+      <c r="B15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>107</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>76</v>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4563,55 +4589,55 @@
         <v>108</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="7"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="7"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="7"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" ht="28.5" spans="2:3">
       <c r="B23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -4625,19 +4651,19 @@
   <sheetPr/>
   <dimension ref="A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="30.625" style="5" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="30.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="10" spans="1:1">
-      <c r="A10" s="5" t="s">
-        <v>87</v>
+      <c r="A10" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4663,32 +4689,32 @@
   <sheetData>
     <row r="7" ht="66" customHeight="1" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" ht="43" customHeight="1" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" ht="51" customHeight="1" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" ht="98" customHeight="1" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" ht="56" customHeight="1"/>
@@ -4715,12 +4741,12 @@
   <sheetData>
     <row r="12" ht="62" customHeight="1" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" ht="66" customHeight="1" spans="1:1">
       <c r="A13" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26130" windowHeight="12585" activeTab="3"/>
+    <workbookView windowWidth="30180" windowHeight="12585" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="104">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -229,6 +229,9 @@
     <t>攻速分支</t>
   </si>
   <si>
+    <t>特殊技</t>
+  </si>
+  <si>
     <t>弓箭</t>
   </si>
   <si>
@@ -259,6 +262,9 @@
 </t>
   </si>
   <si>
+    <t>击退面前的敌人</t>
+  </si>
+  <si>
     <t>太刀</t>
   </si>
   <si>
@@ -269,6 +275,9 @@
 可发射1/2/3道剑气（穿透）；
 可抵挡子弹；
 可反弹子弹，反弹的子弹可以对敌人造成伤害；</t>
+  </si>
+  <si>
+    <t>见切，闪现至对角线处，并对沿途的目标造成伤害</t>
   </si>
   <si>
     <t>巨剑</t>
@@ -1074,6 +1083,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1082,9 +1094,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1441,8 +1450,8 @@
   <sheetPr/>
   <dimension ref="B3:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="3"/>
@@ -1531,7 +1540,7 @@
   <dimension ref="A8:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1541,13 +1550,13 @@
   </cols>
   <sheetData>
     <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>99</v>
+      <c r="A8" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>100</v>
+      <c r="A12" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1589,10 +1598,10 @@
       <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2234,18 +2243,18 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="2">
         <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4334,7 +4343,7 @@
   <sheetPr/>
   <dimension ref="A12:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -4364,13 +4373,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
@@ -4378,10 +4387,11 @@
     <col min="4" max="4" width="44.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="45.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="40.375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="35.375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="27" spans="1:6">
+    <row r="1" s="7" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="8" t="s">
         <v>43</v>
       </c>
@@ -4400,70 +4410,79 @@
       <c r="F1" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" ht="273" customHeight="1" spans="1:6">
-      <c r="A2" s="3">
+      <c r="G1" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" ht="273" customHeight="1" spans="1:7">
+      <c r="A2" s="4">
         <v>10000</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D2" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" ht="102" customHeight="1" spans="1:5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>55</v>
       </c>
+    </row>
+    <row r="3" ht="102" customHeight="1" spans="1:7">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="G3" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4" ht="119" customHeight="1" spans="1:5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" ht="118" customHeight="1" spans="1:5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>60</v>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" ht="28.5" spans="2:3">
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" ht="98" customHeight="1"/>
@@ -4492,96 +4511,96 @@
   <sheetData>
     <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5">
+      <c r="A9" s="2">
         <v>100</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>67</v>
+      <c r="B9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="5">
+      <c r="A10" s="2">
         <v>101</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>69</v>
+      <c r="B10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="5">
+      <c r="A11" s="2">
         <v>102</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>71</v>
+      <c r="B11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="5">
+      <c r="A12" s="2">
         <v>103</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>73</v>
+      <c r="B12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="5">
+      <c r="A13" s="2">
         <v>104</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>75</v>
+      <c r="B13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="5">
+      <c r="A14" s="2">
         <v>105</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>77</v>
+      <c r="B14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="5">
+      <c r="A15" s="2">
         <v>106</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>79</v>
+      <c r="B15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="5">
+      <c r="A16" s="2">
         <v>107</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
-        <v>80</v>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4589,7 +4608,7 @@
         <v>108</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="3:3">
@@ -4603,41 +4622,41 @@
     </row>
     <row r="23" ht="28.5" spans="2:3">
       <c r="B23" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4663,7 +4682,7 @@
   <sheetData>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4683,38 +4702,38 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="51.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="51.375" style="4" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="7" ht="66" customHeight="1" spans="1:1">
-      <c r="A7" s="4" t="s">
-        <v>92</v>
+      <c r="A7" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:1">
-      <c r="A8" s="4" t="s">
-        <v>93</v>
+      <c r="A8" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9" ht="43" customHeight="1" spans="1:1">
-      <c r="A9" s="4" t="s">
-        <v>94</v>
+      <c r="A9" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" ht="51" customHeight="1" spans="1:1">
-      <c r="A10" s="3" t="s">
-        <v>95</v>
+      <c r="A10" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:1">
-      <c r="A11" s="3" t="s">
-        <v>96</v>
+      <c r="A11" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="12" ht="98" customHeight="1" spans="1:1">
-      <c r="A12" s="3" t="s">
-        <v>97</v>
+      <c r="A12" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="13" ht="56" customHeight="1"/>
@@ -4740,13 +4759,13 @@
   </cols>
   <sheetData>
     <row r="12" ht="62" customHeight="1" spans="1:1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" ht="66" customHeight="1" spans="1:1">
+      <c r="A13" s="3" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="13" ht="66" customHeight="1" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30180" windowHeight="12585" activeTab="4"/>
+    <workbookView windowWidth="30180" windowHeight="14265"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">玩家可以消耗碎片升级武器。
 可升级的内容包括且不限于：射速、伤害等。
 </t>
@@ -105,10 +111,10 @@
     <t>宝珠系统：</t>
   </si>
   <si>
-    <t xml:space="preserve">通过关卡15后开放。
+    <t>通过关卡15后开放。
 15关会给一颗珠子。
 武器最多携带3枚宝珠。
-</t>
+宝珠的升级机制是什么</t>
   </si>
   <si>
     <t>会心宝珠：暴击率提高5|10|15
@@ -1076,7 +1082,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1109,9 +1115,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1450,19 +1453,19 @@
   <sheetPr/>
   <dimension ref="B3:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="27" style="17" customWidth="1"/>
+    <col min="2" max="2" width="27" style="16" customWidth="1"/>
     <col min="3" max="3" width="105.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="114.125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="114.125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="140" customHeight="1" spans="2:3">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1470,7 +1473,7 @@
       </c>
     </row>
     <row r="4" ht="101" customHeight="1" spans="2:3">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1478,7 +1481,7 @@
       </c>
     </row>
     <row r="5" ht="101" customHeight="1" spans="2:3">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1486,7 +1489,7 @@
       </c>
     </row>
     <row r="6" ht="103" customHeight="1" spans="2:3">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1494,7 +1497,7 @@
       </c>
     </row>
     <row r="7" ht="103" customHeight="1" spans="2:3">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1502,7 +1505,7 @@
       </c>
     </row>
     <row r="8" ht="100" customHeight="1" spans="2:3">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1510,18 +1513,18 @@
       </c>
     </row>
     <row r="9" ht="94.5" spans="2:4">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1570,7 +1573,7 @@
   <sheetPr/>
   <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
@@ -1586,16 +1589,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="1:1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
@@ -1619,26 +1622,26 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>2</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2238,7 +2241,7 @@
       </c>
     </row>
     <row r="44" ht="28.5" spans="1:1">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2262,8 +2265,8 @@
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
@@ -2272,30 +2275,30 @@
       <c r="B48" s="1">
         <v>2</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="15">
+      <c r="B49" s="14">
         <v>1.7</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2895,7 +2898,7 @@
       </c>
     </row>
     <row r="88" ht="28.5" spans="1:1">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3223,27 +3226,27 @@
       </c>
     </row>
     <row r="129" ht="28.5" spans="1:1">
-      <c r="A129" s="13" t="s">
+      <c r="A129" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="12" t="s">
+      <c r="A130" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B130" s="12" t="s">
+      <c r="B130" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C130" s="12" t="s">
+      <c r="C130" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D130" s="12" t="s">
+      <c r="D130" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E130" s="12" t="s">
+      <c r="E130" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F130" s="12" t="s">
+      <c r="F130" s="11" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4145,10 +4148,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4375,8 +4378,8 @@
   <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -4481,7 +4484,7 @@
       <c r="B6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="6" t="s">
         <v>66</v>
       </c>
     </row>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -68,9 +68,29 @@
     <t>Buff系统：</t>
   </si>
   <si>
-    <t>圆环边界周期性的出现Buff，一段时间后会消失，玩家触碰获得对应Buff
-Buff：攻击力提高|攻速提高|移动速度提高|暴击率提高|暴击伤害提高
+    <r>
+      <t>圆环边界周期性的出现Buff，一段时间后会消失，玩家触碰获得对应Buff
+Buff：攻击力提高|攻速提高|移动速度提高|暴击率提高|暴击伤害提高|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减缓场上敌人的移动速度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 DeBuff：攻击力降低|攻速降低|移动速度降低</t>
+    </r>
   </si>
   <si>
     <t>升级系统：</t>
@@ -431,7 +451,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,6 +632,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="黑体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1454,7 +1480,7 @@
   <dimension ref="B3:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="3"/>
@@ -1512,7 +1538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="94.5" spans="2:4">
+    <row r="9" ht="130" customHeight="1" spans="2:4">
       <c r="B9" s="16" t="s">
         <v>12</v>
       </c>
@@ -1523,7 +1549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" ht="76" customHeight="1" spans="2:3">
       <c r="B10" s="16" t="s">
         <v>15</v>
       </c>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30180" windowHeight="14265"/>
+    <workbookView windowWidth="30180" windowHeight="14265" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -68,29 +68,9 @@
     <t>Buff系统：</t>
   </si>
   <si>
-    <r>
-      <t>圆环边界周期性的出现Buff，一段时间后会消失，玩家触碰获得对应Buff
-Buff：攻击力提高|攻速提高|移动速度提高|暴击率提高|暴击伤害提高|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5"/>
-        <rFont val="黑体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>减缓场上敌人的移动速度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t>圆环边界周期性的出现Buff，一段时间后会消失，玩家触碰获得对应Buff
+Buff：攻击力提高|攻速提高|移动速度提高|暴击率提高|暴击伤害提高|减缓场上敌人的移动速度
 DeBuff：攻击力降低|攻速降低|移动速度降低</t>
-    </r>
   </si>
   <si>
     <t>升级系统：</t>
@@ -237,6 +217,9 @@
 </t>
   </si>
   <si>
+    <t>前9关的怪物还是有点稀，可以加大数量，减少血量。</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -451,7 +434,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,12 +615,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="5"/>
-      <name val="黑体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1479,7 +1456,7 @@
   <sheetPr/>
   <dimension ref="B3:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1580,12 +1557,12 @@
   <sheetData>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4370,10 +4347,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A12:A18"/>
+  <dimension ref="A12:A20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4392,6 +4369,11 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="6"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4422,25 +4404,25 @@
   <sheetData>
     <row r="1" s="7" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" ht="273" customHeight="1" spans="1:7">
@@ -4448,47 +4430,47 @@
         <v>10000</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:7">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3" s="4"/>
       <c r="G3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" ht="119" customHeight="1" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -4496,22 +4478,22 @@
     <row r="5" ht="118" customHeight="1" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" ht="28.5" spans="2:3">
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" ht="98" customHeight="1"/>
@@ -4527,7 +4509,7 @@
   <dimension ref="A5:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -4540,10 +4522,10 @@
   <sheetData>
     <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4551,10 +4533,10 @@
         <v>100</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4562,10 +4544,10 @@
         <v>101</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4573,10 +4555,10 @@
         <v>102</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4584,10 +4566,10 @@
         <v>103</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4595,10 +4577,10 @@
         <v>104</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4606,10 +4588,10 @@
         <v>105</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4617,10 +4599,10 @@
         <v>106</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4629,7 +4611,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4637,7 +4619,7 @@
         <v>108</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="3:3">
@@ -4651,41 +4633,41 @@
     </row>
     <row r="23" ht="28.5" spans="2:3">
       <c r="B23" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4711,7 +4693,7 @@
   <sheetData>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4737,32 +4719,32 @@
   <sheetData>
     <row r="7" ht="66" customHeight="1" spans="1:1">
       <c r="A7" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:1">
       <c r="A8" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" ht="43" customHeight="1" spans="1:1">
       <c r="A9" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" ht="51" customHeight="1" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" ht="98" customHeight="1" spans="1:1">
       <c r="A12" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" ht="56" customHeight="1"/>
@@ -4789,12 +4771,12 @@
   <sheetData>
     <row r="12" ht="62" customHeight="1" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" ht="66" customHeight="1" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="104">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -215,9 +215,6 @@
 巨剑：
 大锤：近战攻击，击飞目标，伤害高。被击飞的目标撞击其他目标时，对双方都造成一定的伤害。撞击墙壁也会造成伤害。
 </t>
-  </si>
-  <si>
-    <t>前9关的怪物还是有点稀，可以加大数量，减少血量。</t>
   </si>
   <si>
     <t>ID</t>
@@ -1557,12 +1554,12 @@
   <sheetData>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4347,10 +4344,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A12:A20"/>
+  <dimension ref="A12:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4369,11 +4366,6 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="6"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>43</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4404,25 +4396,25 @@
   <sheetData>
     <row r="1" s="7" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" ht="273" customHeight="1" spans="1:7">
@@ -4430,47 +4422,47 @@
         <v>10000</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:7">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="E3" s="4"/>
       <c r="G3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" ht="119" customHeight="1" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -4478,22 +4470,22 @@
     <row r="5" ht="118" customHeight="1" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" ht="28.5" spans="2:3">
       <c r="B6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="13" ht="98" customHeight="1"/>
@@ -4522,10 +4514,10 @@
   <sheetData>
     <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4533,10 +4525,10 @@
         <v>100</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4544,10 +4536,10 @@
         <v>101</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4555,10 +4547,10 @@
         <v>102</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4566,10 +4558,10 @@
         <v>103</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4577,10 +4569,10 @@
         <v>104</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4588,10 +4580,10 @@
         <v>105</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4599,10 +4591,10 @@
         <v>106</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4611,7 +4603,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4619,7 +4611,7 @@
         <v>108</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="3:3">
@@ -4633,41 +4625,41 @@
     </row>
     <row r="23" ht="28.5" spans="2:3">
       <c r="B23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4693,7 +4685,7 @@
   <sheetData>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4719,32 +4711,32 @@
   <sheetData>
     <row r="7" ht="66" customHeight="1" spans="1:1">
       <c r="A7" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:1">
       <c r="A8" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" ht="43" customHeight="1" spans="1:1">
       <c r="A9" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" ht="51" customHeight="1" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" ht="98" customHeight="1" spans="1:1">
       <c r="A12" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" ht="56" customHeight="1"/>
@@ -4771,12 +4763,12 @@
   <sheetData>
     <row r="12" ht="62" customHeight="1" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" ht="66" customHeight="1" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30180" windowHeight="14265" activeTab="3"/>
+    <workbookView windowWidth="26325" windowHeight="14265"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
-    <sheet name="数值表" sheetId="14" r:id="rId2"/>
+    <sheet name="弓箭" sheetId="19" r:id="rId2"/>
     <sheet name="关卡数值" sheetId="16" r:id="rId3"/>
     <sheet name="头脑风暴" sheetId="13" r:id="rId4"/>
     <sheet name="武器" sheetId="11" r:id="rId5"/>
     <sheet name="怪物" sheetId="9" r:id="rId6"/>
     <sheet name="待完善" sheetId="18" r:id="rId7"/>
-    <sheet name="7.22" sheetId="12" r:id="rId8"/>
-    <sheet name="7.29" sheetId="15" r:id="rId9"/>
-    <sheet name="7.30" sheetId="17" r:id="rId10"/>
+    <sheet name="废弃" sheetId="14" r:id="rId8"/>
+    <sheet name="7.22" sheetId="12" r:id="rId9"/>
+    <sheet name="7.29" sheetId="15" r:id="rId10"/>
+    <sheet name="7.30" sheetId="17" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="105">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -111,19 +112,23 @@
     <t>宝珠系统：</t>
   </si>
   <si>
-    <t>通过关卡15后开放。
+    <t>宝珠分成5个等级:白、绿、蓝、紫、红
+通过关卡15后开放。
 15关会给一颗珠子。
 武器最多携带3枚宝珠。
-宝珠的升级机制是什么</t>
-  </si>
-  <si>
-    <t>会心宝珠：暴击率提高5|10|15
-重击宝珠：暴击伤害提高25|50|75
-迅捷宝珠：移动速度提高50/100/150
-生命宝珠：生命值提高1/2/3
+宝珠的升级机制是什么
+合成系统，任意三颗宝珠可以合成更高阶的随机宝珠
+三颗相同宝珠可以合成下一阶宝珠</t>
+  </si>
+  <si>
+    <t>会心宝珠：暴击率提高3|6|10|15|20
+重击宝珠：暴击伤害提高25|50|75|100|150
+迅捷宝珠：移动速度提高25|50|75|100|125
+生命宝珠：生命值提高1|2|3|4|5
 持续宝珠：获得的增益Buff持续时间提高%
-碎片宝珠：关卡获得的碎片数量提高5%|10%|20%
-龙之宝珠：对Boss造成的伤害提高5%|10%|20%</t>
+碎片宝珠：关卡获得的碎片数量提高3%|5%|8%|12%|20%
+龙之宝珠：对Boss造成的伤害提高5%|10%|15%|20%|30%
+箭矢宝珠：箭矢伤害提高5|10|15|25</t>
   </si>
   <si>
     <t>广告活动：</t>
@@ -177,34 +182,16 @@
     <t>秒伤</t>
   </si>
   <si>
+    <t>基础产出</t>
+  </si>
+  <si>
+    <t>差分</t>
+  </si>
+  <si>
+    <t>关卡</t>
+  </si>
+  <si>
     <t>产出</t>
-  </si>
-  <si>
-    <t>攻击消耗</t>
-  </si>
-  <si>
-    <t>攻速消耗</t>
-  </si>
-  <si>
-    <t>总消耗</t>
-  </si>
-  <si>
-    <t>停留时间(分钟)</t>
-  </si>
-  <si>
-    <t>产出效率(分钟)</t>
-  </si>
-  <si>
-    <t>总计</t>
-  </si>
-  <si>
-    <t>基础产出</t>
-  </si>
-  <si>
-    <t>差分</t>
-  </si>
-  <si>
-    <t>关卡</t>
   </si>
   <si>
     <t xml:space="preserve">考虑把皮肤系统设计成武器，例如：弓箭、太刀、巨剑、铁锤等。
@@ -289,7 +276,17 @@
     <t>巨剑</t>
   </si>
   <si>
-    <t>纯纯近战</t>
+    <t>纯纯近战
+基础伤害高
+血量8</t>
+  </si>
+  <si>
+    <t>攻击范围提高
+暴击率提高
+暴击伤害提高
+血量越低，伤害越高
+受到撞击有概率不受伤害，并立即进行反击
+击杀目标恢复血量</t>
   </si>
   <si>
     <t>大锤</t>
@@ -392,6 +389,24 @@
   </si>
   <si>
     <t>暴击特效需要完善</t>
+  </si>
+  <si>
+    <t>攻击消耗</t>
+  </si>
+  <si>
+    <t>攻速消耗</t>
+  </si>
+  <si>
+    <t>总消耗</t>
+  </si>
+  <si>
+    <t>停留时间(分钟)</t>
+  </si>
+  <si>
+    <t>产出效率(分钟)</t>
+  </si>
+  <si>
+    <t>总计</t>
   </si>
   <si>
     <t>关卡的表格配置及读取</t>
@@ -446,13 +461,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="方正粗黑宋简体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="22"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="方正粗黑宋简体"/>
       <charset val="134"/>
@@ -635,12 +650,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -654,6 +663,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,7 +1036,7 @@
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1033,7 +1048,7 @@
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1101,13 +1116,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1115,21 +1145,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1453,14 +1468,14 @@
   <sheetPr/>
   <dimension ref="B3:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="27" style="16" customWidth="1"/>
-    <col min="3" max="3" width="105.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="92.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="114.125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1468,7 +1483,7 @@
       <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1476,7 +1491,7 @@
       <c r="B4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1484,7 +1499,7 @@
       <c r="B5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1492,7 +1507,7 @@
       <c r="B6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1500,7 +1515,7 @@
       <c r="B7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1508,7 +1523,7 @@
       <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1516,7 +1531,7 @@
       <c r="B9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="18" t="s">
@@ -1538,6 +1553,37 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A12:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="52.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="12" ht="62" customHeight="1" spans="1:1">
+      <c r="A12" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" ht="66" customHeight="1" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A8:A12"/>
@@ -1554,12 +1600,12 @@
   <sheetData>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1571,86 +1617,94 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F167"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" spans="1:1">
-      <c r="A1" s="12" t="s">
+    <row r="1" ht="28.5" spans="1:4">
+      <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:4">
+      <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="14" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:4">
+      <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="15" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:4">
+      <c r="A7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" ht="14.25" spans="1:4">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <f>FLOOR((A8-1)/3,1)+1</f>
+        <f t="shared" ref="B8:B42" si="0">FLOOR((A8-1)/3,1)+1</f>
         <v>1</v>
       </c>
       <c r="C8" s="1">
@@ -1662,24 +1716,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" ht="14.25" spans="1:4">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" ref="B9:B27" si="0">FLOOR((A9-1)/3,1)+1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" ref="C9:C42" si="1">$B$3+(A9-1)*B9</f>
+        <f>$B$3+(A9-1)*B9</f>
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" ref="D9:D42" si="2">$B$5*POWER(A9,$B$6)*B9</f>
+        <f>$B$5*POWER(A9,$B$6)*B9</f>
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" ht="14.25" spans="1:4">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -1688,15 +1742,15 @@
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$3+(A10-1)*B10</f>
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$5*POWER(A10,$B$6)*B10</f>
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" ht="14.25" spans="1:4">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -1705,15 +1759,15 @@
         <v>2</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$3+(A11-1)*B11</f>
         <v>7</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$5*POWER(A11,$B$6)*B11</f>
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" ht="14.25" spans="1:4">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -1722,15 +1776,15 @@
         <v>2</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$3+(A12-1)*B12</f>
         <v>9</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$5*POWER(A12,$B$6)*B12</f>
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" ht="14.25" spans="1:4">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -1739,15 +1793,15 @@
         <v>2</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$3+(A13-1)*B13</f>
         <v>11</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$5*POWER(A13,$B$6)*B13</f>
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" ht="14.25" spans="1:4">
       <c r="A14" s="1">
         <v>7</v>
       </c>
@@ -1756,15 +1810,15 @@
         <v>3</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$3+(A14-1)*B14</f>
         <v>19</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$5*POWER(A14,$B$6)*B14</f>
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" ht="14.25" spans="1:4">
       <c r="A15" s="1">
         <v>8</v>
       </c>
@@ -1773,15 +1827,15 @@
         <v>3</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$3+(A15-1)*B15</f>
         <v>22</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$5*POWER(A15,$B$6)*B15</f>
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" ht="14.25" spans="1:4">
       <c r="A16" s="1">
         <v>9</v>
       </c>
@@ -1790,15 +1844,15 @@
         <v>3</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$3+(A16-1)*B16</f>
         <v>25</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$5*POWER(A16,$B$6)*B16</f>
         <v>243</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" ht="14.25" spans="1:4">
       <c r="A17" s="1">
         <v>10</v>
       </c>
@@ -1807,15 +1861,15 @@
         <v>4</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$3+(A17-1)*B17</f>
         <v>37</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$5*POWER(A17,$B$6)*B17</f>
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" ht="14.25" spans="1:4">
       <c r="A18" s="1">
         <v>11</v>
       </c>
@@ -1824,15 +1878,15 @@
         <v>4</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$3+(A18-1)*B18</f>
         <v>41</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$5*POWER(A18,$B$6)*B18</f>
         <v>484</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" ht="14.25" spans="1:4">
       <c r="A19" s="1">
         <v>12</v>
       </c>
@@ -1841,15 +1895,15 @@
         <v>4</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$3+(A19-1)*B19</f>
         <v>45</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$5*POWER(A19,$B$6)*B19</f>
         <v>576</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" ht="14.25" spans="1:4">
       <c r="A20" s="1">
         <v>13</v>
       </c>
@@ -1858,15 +1912,15 @@
         <v>5</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$3+(A20-1)*B20</f>
         <v>61</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$5*POWER(A20,$B$6)*B20</f>
         <v>845</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" ht="14.25" spans="1:4">
       <c r="A21" s="1">
         <v>14</v>
       </c>
@@ -1875,15 +1929,15 @@
         <v>5</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$3+(A21-1)*B21</f>
         <v>66</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$5*POWER(A21,$B$6)*B21</f>
         <v>980</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" ht="14.25" spans="1:4">
       <c r="A22" s="1">
         <v>15</v>
       </c>
@@ -1892,15 +1946,15 @@
         <v>5</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$3+(A22-1)*B22</f>
         <v>71</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$5*POWER(A22,$B$6)*B22</f>
         <v>1125</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" ht="14.25" spans="1:4">
       <c r="A23" s="1">
         <v>16</v>
       </c>
@@ -1909,15 +1963,15 @@
         <v>6</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$3+(A23-1)*B23</f>
         <v>91</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$5*POWER(A23,$B$6)*B23</f>
         <v>1536</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" ht="14.25" spans="1:4">
       <c r="A24" s="1">
         <v>17</v>
       </c>
@@ -1926,15 +1980,15 @@
         <v>6</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$3+(A24-1)*B24</f>
         <v>97</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$5*POWER(A24,$B$6)*B24</f>
         <v>1734</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" ht="14.25" spans="1:4">
       <c r="A25" s="1">
         <v>18</v>
       </c>
@@ -1943,15 +1997,15 @@
         <v>6</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$3+(A25-1)*B25</f>
         <v>103</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$5*POWER(A25,$B$6)*B25</f>
         <v>1944</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" ht="14.25" spans="1:4">
       <c r="A26" s="1">
         <v>19</v>
       </c>
@@ -1960,15 +2014,15 @@
         <v>7</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$3+(A26-1)*B26</f>
         <v>127</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$5*POWER(A26,$B$6)*B26</f>
         <v>2527</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" ht="14.25" spans="1:4">
       <c r="A27" s="1">
         <v>20</v>
       </c>
@@ -1977,940 +2031,970 @@
         <v>7</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$3+(A27-1)*B27</f>
         <v>134</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$5*POWER(A27,$B$6)*B27</f>
         <v>2800</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" ht="14.25" spans="1:4">
       <c r="A28" s="1">
         <v>21</v>
       </c>
       <c r="B28" s="1">
-        <f t="shared" ref="B28:B42" si="3">FLOOR((A28-1)/3,1)+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$3+(A28-1)*B28</f>
         <v>141</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$5*POWER(A28,$B$6)*B28</f>
         <v>3087</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" ht="14.25" spans="1:4">
       <c r="A29" s="1">
         <v>22</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$3+(A29-1)*B29</f>
         <v>169</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$5*POWER(A29,$B$6)*B29</f>
         <v>3872</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" ht="14.25" spans="1:4">
       <c r="A30" s="1">
         <v>23</v>
       </c>
       <c r="B30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$3+(A30-1)*B30</f>
         <v>177</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$5*POWER(A30,$B$6)*B30</f>
         <v>4232</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" ht="14.25" spans="1:4">
       <c r="A31" s="1">
         <v>24</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$3+(A31-1)*B31</f>
         <v>185</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$5*POWER(A31,$B$6)*B31</f>
         <v>4608</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" ht="14.25" spans="1:4">
       <c r="A32" s="1">
         <v>25</v>
       </c>
       <c r="B32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$3+(A32-1)*B32</f>
         <v>217</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$5*POWER(A32,$B$6)*B32</f>
         <v>5625</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" ht="14.25" spans="1:4">
       <c r="A33" s="1">
         <v>26</v>
       </c>
       <c r="B33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$3+(A33-1)*B33</f>
         <v>226</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$5*POWER(A33,$B$6)*B33</f>
         <v>6084</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" ht="14.25" spans="1:4">
       <c r="A34" s="1">
         <v>27</v>
       </c>
       <c r="B34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$3+(A34-1)*B34</f>
         <v>235</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$5*POWER(A34,$B$6)*B34</f>
         <v>6561</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" ht="14.25" spans="1:4">
       <c r="A35" s="1">
         <v>28</v>
       </c>
       <c r="B35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$3+(A35-1)*B35</f>
         <v>271</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$5*POWER(A35,$B$6)*B35</f>
         <v>7840</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" ht="14.25" spans="1:4">
       <c r="A36" s="1">
         <v>29</v>
       </c>
       <c r="B36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$3+(A36-1)*B36</f>
         <v>281</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$5*POWER(A36,$B$6)*B36</f>
         <v>8410</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" ht="14.25" spans="1:4">
       <c r="A37" s="1">
         <v>30</v>
       </c>
       <c r="B37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$3+(A37-1)*B37</f>
         <v>291</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$5*POWER(A37,$B$6)*B37</f>
         <v>9000</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" ht="14.25" spans="1:4">
       <c r="A38" s="1">
         <v>31</v>
       </c>
       <c r="B38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$3+(A38-1)*B38</f>
         <v>331</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$5*POWER(A38,$B$6)*B38</f>
         <v>10571</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" ht="14.25" spans="1:4">
       <c r="A39" s="1">
         <v>32</v>
       </c>
       <c r="B39" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$3+(A39-1)*B39</f>
         <v>342</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$5*POWER(A39,$B$6)*B39</f>
         <v>11264</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" ht="14.25" spans="1:4">
       <c r="A40" s="1">
         <v>33</v>
       </c>
       <c r="B40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="1"/>
+        <f>$B$3+(A40-1)*B40</f>
         <v>353</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="2"/>
+        <f>$B$5*POWER(A40,$B$6)*B40</f>
         <v>11979</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" ht="14.25" spans="1:4">
       <c r="A41" s="1">
         <v>34</v>
       </c>
       <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C41" s="1">
+        <f>$B$3+(A41-1)*B41</f>
+        <v>397</v>
+      </c>
+      <c r="D41" s="1">
+        <f>$B$5*POWER(A41,$B$6)*B41</f>
+        <v>13872</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" spans="1:4">
+      <c r="A42" s="1">
+        <v>35</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C42" s="1">
+        <f>$B$3+(A42-1)*B42</f>
+        <v>409</v>
+      </c>
+      <c r="D42" s="1">
+        <f>$B$5*POWER(A42,$B$6)*B42</f>
+        <v>14700</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" spans="1:4">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" ht="28.5" spans="1:4">
+      <c r="A44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" ht="14.25" spans="1:4">
+      <c r="A45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="2">
+        <v>450</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" ht="14.25" spans="1:4">
+      <c r="A46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" ht="14.25" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" ht="14.25" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" ht="14.25" spans="1:4">
+      <c r="A49" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" ht="14.25" spans="1:4">
+      <c r="A50" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" spans="1:4">
+      <c r="A51" s="1">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1">
+        <f t="shared" ref="B51:B85" si="1">FLOOR((A51-1)/3,1)+1</f>
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" ref="C51:C85" si="2">$B$45/(1+((A51-1)*B51*$B$46)/100)</f>
+        <v>450</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" ref="D51:D85" si="3">FLOOR($B$48*POWER(A51,$B$49)*B51,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25" spans="1:4">
+      <c r="A52" s="1">
+        <v>2</v>
+      </c>
+      <c r="B52" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="2"/>
+        <v>445.544554455446</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" spans="1:4">
+      <c r="A53" s="1">
+        <v>3</v>
+      </c>
+      <c r="B53" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="2"/>
+        <v>441.176470588235</v>
+      </c>
+      <c r="D53" s="1">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="C41" s="1">
-        <f t="shared" si="1"/>
-        <v>397</v>
-      </c>
-      <c r="D41" s="1">
-        <f t="shared" si="2"/>
-        <v>13872</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1">
-        <v>35</v>
-      </c>
-      <c r="B42" s="1">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="C42" s="1">
-        <f t="shared" si="1"/>
-        <v>409</v>
-      </c>
-      <c r="D42" s="1">
-        <f t="shared" si="2"/>
-        <v>14700</v>
-      </c>
-    </row>
-    <row r="44" ht="28.5" spans="1:1">
-      <c r="A44" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="2">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="1">
-        <v>2</v>
-      </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" s="14">
-        <v>1.7</v>
-      </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="1">
-        <v>1</v>
-      </c>
-      <c r="B51" s="1">
-        <f>FLOOR((A51-1)/3,1)+1</f>
-        <v>1</v>
-      </c>
-      <c r="C51" s="1">
-        <f>$B$45/(1+((A51-1)*B51*$B$46)/100)</f>
-        <v>450</v>
-      </c>
-      <c r="D51" s="1">
-        <f>FLOOR($B$48*POWER(A51,$B$49)*B51,1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="1">
-        <v>2</v>
-      </c>
-      <c r="B52" s="1">
-        <f t="shared" ref="B52:B85" si="4">FLOOR((A52-1)/3,1)+1</f>
-        <v>1</v>
-      </c>
-      <c r="C52" s="1">
-        <f t="shared" ref="C52:C85" si="5">$B$45/(1+((A52-1)*B52*$B$46)/100)</f>
-        <v>445.544554455446</v>
-      </c>
-      <c r="D52" s="1">
-        <f t="shared" ref="D52:D85" si="6">FLOOR($B$48*POWER(A52,$B$49)*B52,1)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="1">
-        <v>3</v>
-      </c>
-      <c r="B53" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="C53" s="1">
-        <f t="shared" si="5"/>
-        <v>441.176470588235</v>
-      </c>
-      <c r="D53" s="1">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+    </row>
+    <row r="54" ht="14.25" spans="1:4">
       <c r="A54" s="1">
         <v>4</v>
       </c>
       <c r="B54" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>424.528301886792</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" ht="14.25" spans="1:4">
       <c r="A55" s="1">
         <v>5</v>
       </c>
       <c r="B55" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>416.666666666667</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" ht="14.25" spans="1:4">
       <c r="A56" s="1">
         <v>6</v>
       </c>
       <c r="B56" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>409.090909090909</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" ht="14.25" spans="1:4">
       <c r="A57" s="1">
         <v>7</v>
       </c>
       <c r="B57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>381.35593220339</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" ht="14.25" spans="1:4">
       <c r="A58" s="1">
         <v>8</v>
       </c>
       <c r="B58" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>371.900826446281</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" ht="14.25" spans="1:4">
       <c r="A59" s="1">
         <v>9</v>
       </c>
       <c r="B59" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>362.903225806452</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>251</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" ht="14.25" spans="1:4">
       <c r="A60" s="1">
         <v>10</v>
       </c>
       <c r="B60" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>330.882352941177</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" ht="14.25" spans="1:4">
       <c r="A61" s="1">
         <v>11</v>
       </c>
       <c r="B61" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>321.428571428571</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>471</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" ht="14.25" spans="1:4">
       <c r="A62" s="1">
         <v>12</v>
       </c>
       <c r="B62" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>312.5</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>546</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" ht="14.25" spans="1:4">
       <c r="A63" s="1">
         <v>13</v>
       </c>
       <c r="B63" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>281.25</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>782</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" ht="14.25" spans="1:4">
       <c r="A64" s="1">
         <v>14</v>
       </c>
       <c r="B64" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>272.727272727273</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>888</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" ht="14.25" spans="1:4">
       <c r="A65" s="1">
         <v>15</v>
       </c>
       <c r="B65" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>264.705882352941</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>998</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" ht="14.25" spans="1:4">
       <c r="A66" s="1">
         <v>16</v>
       </c>
       <c r="B66" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>236.842105263158</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1337</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" ht="14.25" spans="1:4">
       <c r="A67" s="1">
         <v>17</v>
       </c>
       <c r="B67" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>229.591836734694</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1482</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" ht="14.25" spans="1:4">
       <c r="A68" s="1">
         <v>18</v>
       </c>
       <c r="B68" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>222.772277227723</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1633</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" ht="14.25" spans="1:4">
       <c r="A69" s="1">
         <v>19</v>
       </c>
       <c r="B69" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>199.115044247788</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2089</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" ht="14.25" spans="1:4">
       <c r="A70" s="1">
         <v>20</v>
       </c>
       <c r="B70" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>193.1330472103</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2279</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" ht="14.25" spans="1:4">
       <c r="A71" s="1">
         <v>21</v>
       </c>
       <c r="B71" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>187.5</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>2476</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" ht="14.25" spans="1:4">
       <c r="A72" s="1">
         <v>22</v>
       </c>
       <c r="B72" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>167.910447761194</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3063</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" ht="14.25" spans="1:4">
       <c r="A73" s="1">
         <v>23</v>
       </c>
       <c r="B73" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>163.04347826087</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3304</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" ht="14.25" spans="1:4">
       <c r="A74" s="1">
         <v>24</v>
       </c>
       <c r="B74" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>158.450704225352</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>3552</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" ht="14.25" spans="1:4">
       <c r="A75" s="1">
         <v>25</v>
       </c>
       <c r="B75" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>142.405063291139</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4283</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" ht="14.25" spans="1:4">
       <c r="A76" s="1">
         <v>26</v>
       </c>
       <c r="B76" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>138.461538461538</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4578</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" ht="14.25" spans="1:4">
       <c r="A77" s="1">
         <v>27</v>
       </c>
       <c r="B77" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>134.730538922156</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>4881</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" ht="14.25" spans="1:4">
       <c r="A78" s="1">
         <v>28</v>
       </c>
       <c r="B78" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>121.621621621622</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>5770</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" ht="14.25" spans="1:4">
       <c r="A79" s="1">
         <v>29</v>
       </c>
       <c r="B79" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>118.421052631579</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6125</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" ht="14.25" spans="1:4">
       <c r="A80" s="1">
         <v>30</v>
       </c>
       <c r="B80" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>115.384615384615</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>6488</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" ht="14.25" spans="1:4">
       <c r="A81" s="1">
         <v>31</v>
       </c>
       <c r="B81" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>104.651162790698</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7546</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" ht="14.25" spans="1:4">
       <c r="A82" s="1">
         <v>32</v>
       </c>
       <c r="B82" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>102.040816326531</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>7964</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" ht="14.25" spans="1:4">
       <c r="A83" s="1">
         <v>33</v>
       </c>
       <c r="B83" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>99.5575221238938</v>
       </c>
       <c r="D83" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>8392</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" ht="14.25" spans="1:4">
       <c r="A84" s="1">
         <v>34</v>
       </c>
       <c r="B84" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>90.7258064516129</v>
       </c>
       <c r="D84" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>9632</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" ht="14.25" spans="1:4">
       <c r="A85" s="1">
         <v>35</v>
       </c>
       <c r="B85" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>88.5826771653543</v>
       </c>
       <c r="D85" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>10118</v>
       </c>
     </row>
-    <row r="88" ht="28.5" spans="1:1">
-      <c r="A88" s="12" t="s">
+    <row r="86" ht="14.25" spans="1:4">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" ht="14.25" spans="1:4">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" ht="28.5" spans="1:4">
+      <c r="A88" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" ht="14.25" spans="1:4">
       <c r="A89" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" ht="14.25" spans="1:4">
       <c r="A90" s="1">
         <v>1</v>
       </c>
@@ -2918,1198 +3002,382 @@
         <f>C8/(C51/1000)</f>
         <v>2.22222222222222</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" ht="14.25" spans="1:4">
       <c r="A91" s="1">
         <v>2</v>
       </c>
       <c r="B91" s="1">
-        <f t="shared" ref="B91:B124" si="7">C9/(C52/1000)</f>
+        <f t="shared" ref="B91:B124" si="4">C9/(C52/1000)</f>
         <v>4.48888888888889</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" ht="14.25" spans="1:4">
       <c r="A92" s="1">
         <v>3</v>
       </c>
       <c r="B92" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>6.8</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" ht="14.25" spans="1:4">
       <c r="A93" s="1">
         <v>4</v>
       </c>
       <c r="B93" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>16.4888888888889</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" ht="14.25" spans="1:4">
       <c r="A94" s="1">
         <v>5</v>
       </c>
       <c r="B94" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>21.6</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" ht="14.25" spans="1:4">
       <c r="A95" s="1">
         <v>6</v>
       </c>
       <c r="B95" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>26.8888888888889</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" ht="14.25" spans="1:4">
       <c r="A96" s="1">
         <v>7</v>
       </c>
       <c r="B96" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>49.8222222222222</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" ht="14.25" spans="1:4">
       <c r="A97" s="1">
         <v>8</v>
       </c>
       <c r="B97" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>59.1555555555556</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" ht="14.25" spans="1:4">
       <c r="A98" s="1">
         <v>9</v>
       </c>
       <c r="B98" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>68.8888888888889</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" ht="14.25" spans="1:4">
       <c r="A99" s="1">
         <v>10</v>
       </c>
       <c r="B99" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>111.822222222222</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" ht="14.25" spans="1:4">
       <c r="A100" s="1">
         <v>11</v>
       </c>
       <c r="B100" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>127.555555555556</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" ht="14.25" spans="1:4">
       <c r="A101" s="1">
         <v>12</v>
       </c>
       <c r="B101" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>144</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" ht="14.25" spans="1:4">
       <c r="A102" s="1">
         <v>13</v>
       </c>
       <c r="B102" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>216.888888888889</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" ht="14.25" spans="1:4">
       <c r="A103" s="1">
         <v>14</v>
       </c>
       <c r="B103" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>242</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" ht="14.25" spans="1:4">
       <c r="A104" s="1">
         <v>15</v>
       </c>
       <c r="B104" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>268.222222222222</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" ht="14.25" spans="1:4">
       <c r="A105" s="1">
         <v>16</v>
       </c>
       <c r="B105" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>384.222222222222</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" ht="14.25" spans="1:4">
       <c r="A106" s="1">
         <v>17</v>
       </c>
       <c r="B106" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>422.488888888889</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" ht="14.25" spans="1:4">
       <c r="A107" s="1">
         <v>18</v>
       </c>
       <c r="B107" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>462.355555555556</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" ht="14.25" spans="1:4">
       <c r="A108" s="1">
         <v>19</v>
       </c>
       <c r="B108" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>637.822222222222</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" ht="14.25" spans="1:4">
       <c r="A109" s="1">
         <v>20</v>
       </c>
       <c r="B109" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>693.822222222222</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" ht="14.25" spans="1:4">
       <c r="A110" s="1">
         <v>21</v>
       </c>
       <c r="B110" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>752</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" ht="14.25" spans="1:4">
       <c r="A111" s="1">
         <v>22</v>
       </c>
       <c r="B111" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1006.48888888889</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" ht="14.25" spans="1:4">
       <c r="A112" s="1">
         <v>23</v>
       </c>
       <c r="B112" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1085.6</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" ht="14.25" spans="1:4">
       <c r="A113" s="1">
         <v>24</v>
       </c>
       <c r="B113" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1167.55555555556</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" ht="14.25" spans="1:4">
       <c r="A114" s="1">
         <v>25</v>
       </c>
       <c r="B114" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1523.82222222222</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" ht="14.25" spans="1:4">
       <c r="A115" s="1">
         <v>26</v>
       </c>
       <c r="B115" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1632.22222222222</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" ht="14.25" spans="1:4">
       <c r="A116" s="1">
         <v>27</v>
       </c>
       <c r="B116" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>1744.22222222222</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" ht="14.25" spans="1:4">
       <c r="A117" s="1">
         <v>28</v>
       </c>
       <c r="B117" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2228.22222222222</v>
       </c>
-    </row>
-    <row r="118" spans="1:2">
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" ht="14.25" spans="1:4">
       <c r="A118" s="1">
         <v>29</v>
       </c>
       <c r="B118" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2372.88888888889</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" ht="14.25" spans="1:4">
       <c r="A119" s="1">
         <v>30</v>
       </c>
       <c r="B119" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2522</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" ht="14.25" spans="1:4">
       <c r="A120" s="1">
         <v>31</v>
       </c>
       <c r="B120" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3162.88888888889</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" ht="14.25" spans="1:4">
       <c r="A121" s="1">
         <v>32</v>
       </c>
       <c r="B121" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3351.6</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" ht="14.25" spans="1:4">
       <c r="A122" s="1">
         <v>33</v>
       </c>
       <c r="B122" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>3545.68888888889</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" ht="14.25" spans="1:4">
       <c r="A123" s="1">
         <v>34</v>
       </c>
       <c r="B123" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>4375.82222222222</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" ht="14.25" spans="1:4">
       <c r="A124" s="1">
         <v>35</v>
       </c>
       <c r="B124" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>4617.15555555556</v>
       </c>
-    </row>
-    <row r="129" ht="28.5" spans="1:1">
-      <c r="A129" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C130" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D130" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E130" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F130" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="1">
-        <v>1</v>
-      </c>
-      <c r="B131" s="1">
-        <f>D8</f>
-        <v>1</v>
-      </c>
-      <c r="C131" s="1">
-        <f>D51</f>
-        <v>2</v>
-      </c>
-      <c r="D131" s="1">
-        <f>B131+C131</f>
-        <v>3</v>
-      </c>
-      <c r="E131" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F131" s="1">
-        <f>D131/E131</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="1">
-        <v>2</v>
-      </c>
-      <c r="B132" s="1">
-        <f t="shared" ref="B132:B165" si="8">D9</f>
-        <v>4</v>
-      </c>
-      <c r="C132" s="1">
-        <f t="shared" ref="C132:C165" si="9">D52</f>
-        <v>6</v>
-      </c>
-      <c r="D132" s="1">
-        <f t="shared" ref="D132:D165" si="10">B132+C132</f>
-        <v>10</v>
-      </c>
-      <c r="E132" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="F132" s="1">
-        <f t="shared" ref="F132:F165" si="11">D132/E132</f>
-        <v>13.3333333333333</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="1">
-        <v>3</v>
-      </c>
-      <c r="B133" s="1">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="C133" s="1">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="D133" s="1">
-        <f t="shared" si="10"/>
-        <v>21</v>
-      </c>
-      <c r="E133" s="1">
-        <v>1</v>
-      </c>
-      <c r="F133" s="1">
-        <f t="shared" si="11"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="1">
-        <v>4</v>
-      </c>
-      <c r="B134" s="1">
-        <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="C134" s="1">
-        <f t="shared" si="9"/>
-        <v>42</v>
-      </c>
-      <c r="D134" s="1">
-        <f t="shared" si="10"/>
-        <v>74</v>
-      </c>
-      <c r="E134" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="F134" s="1">
-        <f t="shared" si="11"/>
-        <v>49.3333333333333</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="1">
-        <v>5</v>
-      </c>
-      <c r="B135" s="1">
-        <f t="shared" si="8"/>
-        <v>50</v>
-      </c>
-      <c r="C135" s="1">
-        <f t="shared" si="9"/>
-        <v>61</v>
-      </c>
-      <c r="D135" s="1">
-        <f t="shared" si="10"/>
-        <v>111</v>
-      </c>
-      <c r="E135" s="1">
-        <v>2</v>
-      </c>
-      <c r="F135" s="1">
-        <f t="shared" si="11"/>
-        <v>55.5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="1">
-        <v>6</v>
-      </c>
-      <c r="B136" s="1">
-        <f t="shared" si="8"/>
-        <v>72</v>
-      </c>
-      <c r="C136" s="1">
-        <f t="shared" si="9"/>
-        <v>84</v>
-      </c>
-      <c r="D136" s="1">
-        <f t="shared" si="10"/>
-        <v>156</v>
-      </c>
-      <c r="E136" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="F136" s="1">
-        <f t="shared" si="11"/>
-        <v>62.4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="1">
-        <v>7</v>
-      </c>
-      <c r="B137" s="1">
-        <f t="shared" si="8"/>
-        <v>147</v>
-      </c>
-      <c r="C137" s="1">
-        <f t="shared" si="9"/>
-        <v>163</v>
-      </c>
-      <c r="D137" s="1">
-        <f t="shared" si="10"/>
-        <v>310</v>
-      </c>
-      <c r="E137" s="1">
-        <v>3</v>
-      </c>
-      <c r="F137" s="1">
-        <f t="shared" si="11"/>
-        <v>103.333333333333</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="1">
-        <v>8</v>
-      </c>
-      <c r="B138" s="1">
-        <f t="shared" si="8"/>
-        <v>192</v>
-      </c>
-      <c r="C138" s="1">
-        <f t="shared" si="9"/>
-        <v>205</v>
-      </c>
-      <c r="D138" s="1">
-        <f t="shared" si="10"/>
-        <v>397</v>
-      </c>
-      <c r="E138" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="F138" s="1">
-        <f t="shared" si="11"/>
-        <v>113.428571428571</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="1">
-        <v>9</v>
-      </c>
-      <c r="B139" s="1">
-        <f t="shared" si="8"/>
-        <v>243</v>
-      </c>
-      <c r="C139" s="1">
-        <f t="shared" si="9"/>
-        <v>251</v>
-      </c>
-      <c r="D139" s="1">
-        <f t="shared" si="10"/>
-        <v>494</v>
-      </c>
-      <c r="E139" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="F139" s="1">
-        <f t="shared" si="11"/>
-        <v>109.777777777778</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="1">
-        <v>10</v>
-      </c>
-      <c r="B140" s="1">
-        <f t="shared" si="8"/>
-        <v>400</v>
-      </c>
-      <c r="C140" s="1">
-        <f t="shared" si="9"/>
-        <v>400</v>
-      </c>
-      <c r="D140" s="1">
-        <f t="shared" si="10"/>
-        <v>800</v>
-      </c>
-      <c r="E140" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="F140" s="1">
-        <f t="shared" si="11"/>
-        <v>145.454545454545</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="1">
-        <v>11</v>
-      </c>
-      <c r="B141" s="1">
-        <f t="shared" si="8"/>
-        <v>484</v>
-      </c>
-      <c r="C141" s="1">
-        <f t="shared" si="9"/>
-        <v>471</v>
-      </c>
-      <c r="D141" s="1">
-        <f t="shared" si="10"/>
-        <v>955</v>
-      </c>
-      <c r="E141" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="F141" s="1">
-        <f t="shared" si="11"/>
-        <v>146.923076923077</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="1">
-        <v>12</v>
-      </c>
-      <c r="B142" s="1">
-        <f t="shared" si="8"/>
-        <v>576</v>
-      </c>
-      <c r="C142" s="1">
-        <f t="shared" si="9"/>
-        <v>546</v>
-      </c>
-      <c r="D142" s="1">
-        <f t="shared" si="10"/>
-        <v>1122</v>
-      </c>
-      <c r="E142" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="F142" s="1">
-        <f t="shared" si="11"/>
-        <v>149.6</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="1">
-        <v>13</v>
-      </c>
-      <c r="B143" s="1">
-        <f t="shared" si="8"/>
-        <v>845</v>
-      </c>
-      <c r="C143" s="1">
-        <f t="shared" si="9"/>
-        <v>782</v>
-      </c>
-      <c r="D143" s="1">
-        <f t="shared" si="10"/>
-        <v>1627</v>
-      </c>
-      <c r="E143" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="F143" s="1">
-        <f t="shared" si="11"/>
-        <v>191.411764705882</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="1">
-        <v>14</v>
-      </c>
-      <c r="B144" s="1">
-        <f t="shared" si="8"/>
-        <v>980</v>
-      </c>
-      <c r="C144" s="1">
-        <f t="shared" si="9"/>
-        <v>888</v>
-      </c>
-      <c r="D144" s="1">
-        <f t="shared" si="10"/>
-        <v>1868</v>
-      </c>
-      <c r="E144" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="F144" s="1">
-        <f t="shared" si="11"/>
-        <v>196.631578947368</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="1">
-        <v>15</v>
-      </c>
-      <c r="B145" s="1">
-        <f t="shared" si="8"/>
-        <v>1125</v>
-      </c>
-      <c r="C145" s="1">
-        <f t="shared" si="9"/>
-        <v>998</v>
-      </c>
-      <c r="D145" s="1">
-        <f t="shared" si="10"/>
-        <v>2123</v>
-      </c>
-      <c r="E145" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="F145" s="1">
-        <f t="shared" si="11"/>
-        <v>202.190476190476</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146" s="1">
-        <v>16</v>
-      </c>
-      <c r="B146" s="1">
-        <f t="shared" si="8"/>
-        <v>1536</v>
-      </c>
-      <c r="C146" s="1">
-        <f t="shared" si="9"/>
-        <v>1337</v>
-      </c>
-      <c r="D146" s="1">
-        <f t="shared" si="10"/>
-        <v>2873</v>
-      </c>
-      <c r="E146" s="1">
-        <v>12</v>
-      </c>
-      <c r="F146" s="1">
-        <f t="shared" si="11"/>
-        <v>239.416666666667</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147" s="1">
-        <v>17</v>
-      </c>
-      <c r="B147" s="1">
-        <f t="shared" si="8"/>
-        <v>1734</v>
-      </c>
-      <c r="C147" s="1">
-        <f t="shared" si="9"/>
-        <v>1482</v>
-      </c>
-      <c r="D147" s="1">
-        <f t="shared" si="10"/>
-        <v>3216</v>
-      </c>
-      <c r="E147" s="1">
-        <v>13.5</v>
-      </c>
-      <c r="F147" s="1">
-        <f t="shared" si="11"/>
-        <v>238.222222222222</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="1">
-        <v>18</v>
-      </c>
-      <c r="B148" s="1">
-        <f t="shared" si="8"/>
-        <v>1944</v>
-      </c>
-      <c r="C148" s="1">
-        <f t="shared" si="9"/>
-        <v>1633</v>
-      </c>
-      <c r="D148" s="1">
-        <f t="shared" si="10"/>
-        <v>3577</v>
-      </c>
-      <c r="E148" s="1">
-        <v>15</v>
-      </c>
-      <c r="F148" s="1">
-        <f t="shared" si="11"/>
-        <v>238.466666666667</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="1">
-        <v>19</v>
-      </c>
-      <c r="B149" s="1">
-        <f t="shared" si="8"/>
-        <v>2527</v>
-      </c>
-      <c r="C149" s="1">
-        <f t="shared" si="9"/>
-        <v>2089</v>
-      </c>
-      <c r="D149" s="1">
-        <f t="shared" si="10"/>
-        <v>4616</v>
-      </c>
-      <c r="E149" s="1">
-        <v>16.5</v>
-      </c>
-      <c r="F149" s="1">
-        <f t="shared" si="11"/>
-        <v>279.757575757576</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="1">
-        <v>20</v>
-      </c>
-      <c r="B150" s="1">
-        <f t="shared" si="8"/>
-        <v>2800</v>
-      </c>
-      <c r="C150" s="1">
-        <f t="shared" si="9"/>
-        <v>2279</v>
-      </c>
-      <c r="D150" s="1">
-        <f t="shared" si="10"/>
-        <v>5079</v>
-      </c>
-      <c r="E150" s="1">
-        <v>18</v>
-      </c>
-      <c r="F150" s="1">
-        <f t="shared" si="11"/>
-        <v>282.166666666667</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="1">
-        <v>21</v>
-      </c>
-      <c r="B151" s="1">
-        <f t="shared" si="8"/>
-        <v>3087</v>
-      </c>
-      <c r="C151" s="1">
-        <f t="shared" si="9"/>
-        <v>2476</v>
-      </c>
-      <c r="D151" s="1">
-        <f t="shared" si="10"/>
-        <v>5563</v>
-      </c>
-      <c r="E151" s="1">
-        <v>19.5</v>
-      </c>
-      <c r="F151" s="1">
-        <f t="shared" si="11"/>
-        <v>285.282051282051</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="1">
-        <v>22</v>
-      </c>
-      <c r="B152" s="1">
-        <f t="shared" si="8"/>
-        <v>3872</v>
-      </c>
-      <c r="C152" s="1">
-        <f t="shared" si="9"/>
-        <v>3063</v>
-      </c>
-      <c r="D152" s="1">
-        <f t="shared" si="10"/>
-        <v>6935</v>
-      </c>
-      <c r="E152" s="1">
-        <v>21</v>
-      </c>
-      <c r="F152" s="1">
-        <f t="shared" si="11"/>
-        <v>330.238095238095</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="1">
-        <v>23</v>
-      </c>
-      <c r="B153" s="1">
-        <f t="shared" si="8"/>
-        <v>4232</v>
-      </c>
-      <c r="C153" s="1">
-        <f t="shared" si="9"/>
-        <v>3304</v>
-      </c>
-      <c r="D153" s="1">
-        <f t="shared" si="10"/>
-        <v>7536</v>
-      </c>
-      <c r="E153" s="1">
-        <v>22.5</v>
-      </c>
-      <c r="F153" s="1">
-        <f t="shared" si="11"/>
-        <v>334.933333333333</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154" s="1">
-        <v>24</v>
-      </c>
-      <c r="B154" s="1">
-        <f t="shared" si="8"/>
-        <v>4608</v>
-      </c>
-      <c r="C154" s="1">
-        <f t="shared" si="9"/>
-        <v>3552</v>
-      </c>
-      <c r="D154" s="1">
-        <f t="shared" si="10"/>
-        <v>8160</v>
-      </c>
-      <c r="E154" s="1">
-        <v>24</v>
-      </c>
-      <c r="F154" s="1">
-        <f t="shared" si="11"/>
-        <v>340</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155" s="1">
-        <v>25</v>
-      </c>
-      <c r="B155" s="1">
-        <f t="shared" si="8"/>
-        <v>5625</v>
-      </c>
-      <c r="C155" s="1">
-        <f t="shared" si="9"/>
-        <v>4283</v>
-      </c>
-      <c r="D155" s="1">
-        <f t="shared" si="10"/>
-        <v>9908</v>
-      </c>
-      <c r="E155" s="1">
-        <v>25.5</v>
-      </c>
-      <c r="F155" s="1">
-        <f t="shared" si="11"/>
-        <v>388.549019607843</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156" s="1">
-        <v>26</v>
-      </c>
-      <c r="B156" s="1">
-        <f t="shared" si="8"/>
-        <v>6084</v>
-      </c>
-      <c r="C156" s="1">
-        <f t="shared" si="9"/>
-        <v>4578</v>
-      </c>
-      <c r="D156" s="1">
-        <f t="shared" si="10"/>
-        <v>10662</v>
-      </c>
-      <c r="E156" s="1">
-        <v>27.5</v>
-      </c>
-      <c r="F156" s="1">
-        <f t="shared" si="11"/>
-        <v>387.709090909091</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157" s="1">
-        <v>27</v>
-      </c>
-      <c r="B157" s="1">
-        <f t="shared" si="8"/>
-        <v>6561</v>
-      </c>
-      <c r="C157" s="1">
-        <f t="shared" si="9"/>
-        <v>4881</v>
-      </c>
-      <c r="D157" s="1">
-        <f t="shared" si="10"/>
-        <v>11442</v>
-      </c>
-      <c r="E157" s="1">
-        <v>29.5</v>
-      </c>
-      <c r="F157" s="1">
-        <f t="shared" si="11"/>
-        <v>387.864406779661</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158" s="1">
-        <v>28</v>
-      </c>
-      <c r="B158" s="1">
-        <f t="shared" si="8"/>
-        <v>7840</v>
-      </c>
-      <c r="C158" s="1">
-        <f t="shared" si="9"/>
-        <v>5770</v>
-      </c>
-      <c r="D158" s="1">
-        <f t="shared" si="10"/>
-        <v>13610</v>
-      </c>
-      <c r="E158" s="1">
-        <v>31.5</v>
-      </c>
-      <c r="F158" s="1">
-        <f t="shared" si="11"/>
-        <v>432.063492063492</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159" s="1">
-        <v>29</v>
-      </c>
-      <c r="B159" s="1">
-        <f t="shared" si="8"/>
-        <v>8410</v>
-      </c>
-      <c r="C159" s="1">
-        <f t="shared" si="9"/>
-        <v>6125</v>
-      </c>
-      <c r="D159" s="1">
-        <f t="shared" si="10"/>
-        <v>14535</v>
-      </c>
-      <c r="E159" s="1">
-        <v>33.5</v>
-      </c>
-      <c r="F159" s="1">
-        <f t="shared" si="11"/>
-        <v>433.880597014925</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160" s="1">
-        <v>30</v>
-      </c>
-      <c r="B160" s="1">
-        <f t="shared" si="8"/>
-        <v>9000</v>
-      </c>
-      <c r="C160" s="1">
-        <f t="shared" si="9"/>
-        <v>6488</v>
-      </c>
-      <c r="D160" s="1">
-        <f t="shared" si="10"/>
-        <v>15488</v>
-      </c>
-      <c r="E160" s="1">
-        <v>35.5</v>
-      </c>
-      <c r="F160" s="1">
-        <f t="shared" si="11"/>
-        <v>436.281690140845</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161" s="1">
-        <v>31</v>
-      </c>
-      <c r="B161" s="1">
-        <f t="shared" si="8"/>
-        <v>10571</v>
-      </c>
-      <c r="C161" s="1">
-        <f t="shared" si="9"/>
-        <v>7546</v>
-      </c>
-      <c r="D161" s="1">
-        <f t="shared" si="10"/>
-        <v>18117</v>
-      </c>
-      <c r="E161" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="F161" s="1">
-        <f t="shared" si="11"/>
-        <v>483.12</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162" s="1">
-        <v>32</v>
-      </c>
-      <c r="B162" s="1">
-        <f t="shared" si="8"/>
-        <v>11264</v>
-      </c>
-      <c r="C162" s="1">
-        <f t="shared" si="9"/>
-        <v>7964</v>
-      </c>
-      <c r="D162" s="1">
-        <f t="shared" si="10"/>
-        <v>19228</v>
-      </c>
-      <c r="E162" s="1">
-        <v>39.5</v>
-      </c>
-      <c r="F162" s="1">
-        <f t="shared" si="11"/>
-        <v>486.784810126582</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163" s="1">
-        <v>33</v>
-      </c>
-      <c r="B163" s="1">
-        <f t="shared" si="8"/>
-        <v>11979</v>
-      </c>
-      <c r="C163" s="1">
-        <f t="shared" si="9"/>
-        <v>8392</v>
-      </c>
-      <c r="D163" s="1">
-        <f t="shared" si="10"/>
-        <v>20371</v>
-      </c>
-      <c r="E163" s="1">
-        <v>41.5</v>
-      </c>
-      <c r="F163" s="1">
-        <f t="shared" si="11"/>
-        <v>490.867469879518</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164" s="1">
-        <v>34</v>
-      </c>
-      <c r="B164" s="1">
-        <f t="shared" si="8"/>
-        <v>13872</v>
-      </c>
-      <c r="C164" s="1">
-        <f t="shared" si="9"/>
-        <v>9632</v>
-      </c>
-      <c r="D164" s="1">
-        <f t="shared" si="10"/>
-        <v>23504</v>
-      </c>
-      <c r="E164" s="1">
-        <v>43.5</v>
-      </c>
-      <c r="F164" s="1">
-        <f t="shared" si="11"/>
-        <v>540.32183908046</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165" s="1">
-        <v>35</v>
-      </c>
-      <c r="B165" s="1">
-        <f t="shared" si="8"/>
-        <v>14700</v>
-      </c>
-      <c r="C165" s="1">
-        <f t="shared" si="9"/>
-        <v>10118</v>
-      </c>
-      <c r="D165" s="1">
-        <f t="shared" si="10"/>
-        <v>24818</v>
-      </c>
-      <c r="E165" s="1">
-        <v>45.5</v>
-      </c>
-      <c r="F165" s="1">
-        <f t="shared" si="11"/>
-        <v>545.450549450549</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B167" s="1">
-        <f>SUM(B131:B165)</f>
-        <v>137406</v>
-      </c>
-      <c r="C167" s="1">
-        <f>SUM(C131:C165)</f>
-        <v>101903</v>
-      </c>
-      <c r="D167" s="1">
-        <f>SUM(D131:D165)</f>
-        <v>239309</v>
-      </c>
-      <c r="E167" s="1">
-        <f>SUM(E131:E165)</f>
-        <v>619.75</v>
-      </c>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4133,7 +3401,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
@@ -4141,18 +3409,18 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>32</v>
+      <c r="A5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4346,7 +3614,7 @@
   <sheetPr/>
   <dimension ref="A12:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -4357,15 +3625,15 @@
   </cols>
   <sheetData>
     <row r="12" ht="219" customHeight="1" spans="1:1">
-      <c r="A12" s="6" t="s">
-        <v>42</v>
+      <c r="A12" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="6"/>
+      <c r="A15" s="11"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="6"/>
+      <c r="A18" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4379,7 +3647,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -4394,27 +3662,27 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="27" spans="1:7">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="12" customFormat="1" ht="27" spans="1:7">
+      <c r="A1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" ht="273" customHeight="1" spans="1:7">
@@ -4422,70 +3690,72 @@
         <v>10000</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>54</v>
+        <v>45</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:7">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>58</v>
+        <v>51</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="E3" s="4"/>
       <c r="G3" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" ht="119" customHeight="1" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" ht="118" customHeight="1" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" ht="28.5" spans="2:3">
       <c r="B6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" ht="98" customHeight="1"/>
@@ -4514,10 +3784,10 @@
   <sheetData>
     <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4525,10 +3795,10 @@
         <v>100</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4536,10 +3806,10 @@
         <v>101</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4547,10 +3817,10 @@
         <v>102</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4558,10 +3828,10 @@
         <v>103</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4569,10 +3839,10 @@
         <v>104</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4580,10 +3850,10 @@
         <v>105</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4591,10 +3861,10 @@
         <v>106</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4603,7 +3873,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4611,55 +3881,55 @@
         <v>108</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="6"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="6"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="6"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" ht="28.5" spans="2:3">
       <c r="B23" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -4685,7 +3955,7 @@
   <sheetData>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -4695,6 +3965,2572 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F167"/>
+  <sheetViews>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="D166" sqref="D166"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.5" spans="1:1">
+      <c r="A1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <f>FLOOR((A8-1)/3,1)+1</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <f>$B$3+(A8-1)*B8</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <f>$B$5*POWER(A8,$B$6)*B8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" ref="B9:B27" si="0">FLOOR((A9-1)/3,1)+1</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" ref="C9:C42" si="1">$B$3+(A9-1)*B9</f>
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" ref="D9:D42" si="2">$B$5*POWER(A9,$B$6)*B9</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="2"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="2"/>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>12</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="2"/>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="2"/>
+        <v>845</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="2"/>
+        <v>980</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="2"/>
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="2"/>
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="2"/>
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>18</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="2"/>
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>19</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="2"/>
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>20</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="2"/>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>21</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" ref="B28:B42" si="3">FLOOR((A28-1)/3,1)+1</f>
+        <v>7</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="1"/>
+        <v>141</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="2"/>
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>22</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="1"/>
+        <v>169</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="2"/>
+        <v>3872</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>23</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="1"/>
+        <v>177</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="2"/>
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>24</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="2"/>
+        <v>4608</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>25</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="1"/>
+        <v>217</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="2"/>
+        <v>5625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>26</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="1"/>
+        <v>226</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="2"/>
+        <v>6084</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>27</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="2"/>
+        <v>6561</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>28</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="1"/>
+        <v>271</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="2"/>
+        <v>7840</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>29</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="1"/>
+        <v>281</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="2"/>
+        <v>8410</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>30</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="1"/>
+        <v>291</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="2"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>31</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="1"/>
+        <v>331</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="2"/>
+        <v>10571</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>32</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="1"/>
+        <v>342</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="2"/>
+        <v>11264</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>33</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="1"/>
+        <v>353</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="2"/>
+        <v>11979</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>34</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="1"/>
+        <v>397</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="2"/>
+        <v>13872</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>35</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="1"/>
+        <v>409</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="2"/>
+        <v>14700</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>36</v>
+      </c>
+      <c r="B43" s="1">
+        <f>FLOOR((A43-1)/3,1)+1</f>
+        <v>12</v>
+      </c>
+      <c r="C43" s="1">
+        <f>$B$3+(A43-1)*B43</f>
+        <v>421</v>
+      </c>
+      <c r="D43" s="1">
+        <f>$B$5*POWER(A43,$B$6)*B43</f>
+        <v>15552</v>
+      </c>
+    </row>
+    <row r="44" ht="28.5" spans="1:1">
+      <c r="A44" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1">
+        <f>FLOOR((A51-1)/3,1)+1</f>
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
+        <f>$B$45/(1+((A51-1)*B51*$B$46)/100)</f>
+        <v>450</v>
+      </c>
+      <c r="D51" s="1">
+        <f>FLOOR($B$48*POWER(A51,$B$49)*B51,1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>2</v>
+      </c>
+      <c r="B52" s="1">
+        <f t="shared" ref="B52:B85" si="4">FLOOR((A52-1)/3,1)+1</f>
+        <v>1</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" ref="C52:C85" si="5">$B$45/(1+((A52-1)*B52*$B$46)/100)</f>
+        <v>445.544554455446</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" ref="D52:D85" si="6">FLOOR($B$48*POWER(A52,$B$49)*B52,1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>3</v>
+      </c>
+      <c r="B53" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="5"/>
+        <v>441.176470588235</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>4</v>
+      </c>
+      <c r="B54" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="5"/>
+        <v>424.528301886792</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>5</v>
+      </c>
+      <c r="B55" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="5"/>
+        <v>416.666666666667</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="6"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="5"/>
+        <v>409.090909090909</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>7</v>
+      </c>
+      <c r="B57" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="5"/>
+        <v>381.35593220339</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="6"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>8</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="5"/>
+        <v>371.900826446281</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="6"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>9</v>
+      </c>
+      <c r="B59" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="5"/>
+        <v>362.903225806452</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="6"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>10</v>
+      </c>
+      <c r="B60" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="5"/>
+        <v>330.882352941177</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>11</v>
+      </c>
+      <c r="B61" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="5"/>
+        <v>321.428571428571</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="6"/>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>12</v>
+      </c>
+      <c r="B62" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="5"/>
+        <v>312.5</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="6"/>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>13</v>
+      </c>
+      <c r="B63" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="5"/>
+        <v>281.25</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="6"/>
+        <v>782</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>14</v>
+      </c>
+      <c r="B64" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="5"/>
+        <v>272.727272727273</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="6"/>
+        <v>888</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>15</v>
+      </c>
+      <c r="B65" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" si="5"/>
+        <v>264.705882352941</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="6"/>
+        <v>998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>16</v>
+      </c>
+      <c r="B66" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C66" s="1">
+        <f t="shared" si="5"/>
+        <v>236.842105263158</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="6"/>
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>17</v>
+      </c>
+      <c r="B67" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" si="5"/>
+        <v>229.591836734694</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="6"/>
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>18</v>
+      </c>
+      <c r="B68" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="5"/>
+        <v>222.772277227723</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="6"/>
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>19</v>
+      </c>
+      <c r="B69" s="1">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="5"/>
+        <v>199.115044247788</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="6"/>
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>20</v>
+      </c>
+      <c r="B70" s="1">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="5"/>
+        <v>193.1330472103</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="6"/>
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>21</v>
+      </c>
+      <c r="B71" s="1">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" si="5"/>
+        <v>187.5</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="6"/>
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>22</v>
+      </c>
+      <c r="B72" s="1">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="C72" s="1">
+        <f t="shared" si="5"/>
+        <v>167.910447761194</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="6"/>
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>23</v>
+      </c>
+      <c r="B73" s="1">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" si="5"/>
+        <v>163.04347826087</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" si="6"/>
+        <v>3304</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>24</v>
+      </c>
+      <c r="B74" s="1">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" si="5"/>
+        <v>158.450704225352</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="6"/>
+        <v>3552</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>25</v>
+      </c>
+      <c r="B75" s="1">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" si="5"/>
+        <v>142.405063291139</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="6"/>
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>26</v>
+      </c>
+      <c r="B76" s="1">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="5"/>
+        <v>138.461538461538</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" si="6"/>
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>27</v>
+      </c>
+      <c r="B77" s="1">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="5"/>
+        <v>134.730538922156</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="6"/>
+        <v>4881</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>28</v>
+      </c>
+      <c r="B78" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="5"/>
+        <v>121.621621621622</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="6"/>
+        <v>5770</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>29</v>
+      </c>
+      <c r="B79" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="5"/>
+        <v>118.421052631579</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="6"/>
+        <v>6125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>30</v>
+      </c>
+      <c r="B80" s="1">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="5"/>
+        <v>115.384615384615</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="6"/>
+        <v>6488</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>31</v>
+      </c>
+      <c r="B81" s="1">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" si="5"/>
+        <v>104.651162790698</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="6"/>
+        <v>7546</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>32</v>
+      </c>
+      <c r="B82" s="1">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="5"/>
+        <v>102.040816326531</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="6"/>
+        <v>7964</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>33</v>
+      </c>
+      <c r="B83" s="1">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="C83" s="1">
+        <f t="shared" si="5"/>
+        <v>99.5575221238938</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="6"/>
+        <v>8392</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>34</v>
+      </c>
+      <c r="B84" s="1">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C84" s="1">
+        <f t="shared" si="5"/>
+        <v>90.7258064516129</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="6"/>
+        <v>9632</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>35</v>
+      </c>
+      <c r="B85" s="1">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" si="5"/>
+        <v>88.5826771653543</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" si="6"/>
+        <v>10118</v>
+      </c>
+    </row>
+    <row r="88" ht="28.5" spans="1:1">
+      <c r="A88" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1">
+        <v>1</v>
+      </c>
+      <c r="B90" s="1">
+        <f>C8/(C51/1000)</f>
+        <v>2.22222222222222</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1">
+        <v>2</v>
+      </c>
+      <c r="B91" s="1">
+        <f t="shared" ref="B91:B124" si="7">C9/(C52/1000)</f>
+        <v>4.48888888888888</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1">
+        <v>3</v>
+      </c>
+      <c r="B92" s="1">
+        <f t="shared" si="7"/>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1">
+        <v>4</v>
+      </c>
+      <c r="B93" s="1">
+        <f t="shared" si="7"/>
+        <v>16.4888888888889</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <f t="shared" si="7"/>
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1">
+        <v>6</v>
+      </c>
+      <c r="B95" s="1">
+        <f t="shared" si="7"/>
+        <v>26.8888888888889</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1">
+        <v>7</v>
+      </c>
+      <c r="B96" s="1">
+        <f t="shared" si="7"/>
+        <v>49.8222222222222</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1">
+        <v>8</v>
+      </c>
+      <c r="B97" s="1">
+        <f t="shared" si="7"/>
+        <v>59.1555555555556</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1">
+        <v>9</v>
+      </c>
+      <c r="B98" s="1">
+        <f t="shared" si="7"/>
+        <v>68.8888888888888</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1">
+        <v>10</v>
+      </c>
+      <c r="B99" s="1">
+        <f t="shared" si="7"/>
+        <v>111.822222222222</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1">
+        <v>11</v>
+      </c>
+      <c r="B100" s="1">
+        <f t="shared" si="7"/>
+        <v>127.555555555556</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1">
+        <v>12</v>
+      </c>
+      <c r="B101" s="1">
+        <f t="shared" si="7"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1">
+        <v>13</v>
+      </c>
+      <c r="B102" s="1">
+        <f t="shared" si="7"/>
+        <v>216.888888888889</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1">
+        <v>14</v>
+      </c>
+      <c r="B103" s="1">
+        <f t="shared" si="7"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1">
+        <v>15</v>
+      </c>
+      <c r="B104" s="1">
+        <f t="shared" si="7"/>
+        <v>268.222222222222</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1">
+        <v>16</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" si="7"/>
+        <v>384.222222222222</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1">
+        <v>17</v>
+      </c>
+      <c r="B106" s="1">
+        <f t="shared" si="7"/>
+        <v>422.488888888889</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1">
+        <v>18</v>
+      </c>
+      <c r="B107" s="1">
+        <f t="shared" si="7"/>
+        <v>462.355555555555</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1">
+        <v>19</v>
+      </c>
+      <c r="B108" s="1">
+        <f t="shared" si="7"/>
+        <v>637.822222222221</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1">
+        <v>20</v>
+      </c>
+      <c r="B109" s="1">
+        <f t="shared" si="7"/>
+        <v>693.822222222224</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1">
+        <v>21</v>
+      </c>
+      <c r="B110" s="1">
+        <f t="shared" si="7"/>
+        <v>752</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1">
+        <v>22</v>
+      </c>
+      <c r="B111" s="1">
+        <f t="shared" si="7"/>
+        <v>1006.48888888889</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1">
+        <v>23</v>
+      </c>
+      <c r="B112" s="1">
+        <f t="shared" si="7"/>
+        <v>1085.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1">
+        <v>24</v>
+      </c>
+      <c r="B113" s="1">
+        <f t="shared" si="7"/>
+        <v>1167.55555555556</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1">
+        <v>25</v>
+      </c>
+      <c r="B114" s="1">
+        <f t="shared" si="7"/>
+        <v>1523.82222222222</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1">
+        <v>26</v>
+      </c>
+      <c r="B115" s="1">
+        <f t="shared" si="7"/>
+        <v>1632.22222222223</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1">
+        <v>27</v>
+      </c>
+      <c r="B116" s="1">
+        <f t="shared" si="7"/>
+        <v>1744.22222222222</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1">
+        <v>28</v>
+      </c>
+      <c r="B117" s="1">
+        <f t="shared" si="7"/>
+        <v>2228.22222222222</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1">
+        <v>29</v>
+      </c>
+      <c r="B118" s="1">
+        <f t="shared" si="7"/>
+        <v>2372.88888888889</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1">
+        <v>30</v>
+      </c>
+      <c r="B119" s="1">
+        <f t="shared" si="7"/>
+        <v>2522.00000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1">
+        <v>31</v>
+      </c>
+      <c r="B120" s="1">
+        <f t="shared" si="7"/>
+        <v>3162.88888888888</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1">
+        <v>32</v>
+      </c>
+      <c r="B121" s="1">
+        <f t="shared" si="7"/>
+        <v>3351.59999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1">
+        <v>33</v>
+      </c>
+      <c r="B122" s="1">
+        <f t="shared" si="7"/>
+        <v>3545.68888888889</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1">
+        <v>34</v>
+      </c>
+      <c r="B123" s="1">
+        <f t="shared" si="7"/>
+        <v>4375.82222222222</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1">
+        <v>35</v>
+      </c>
+      <c r="B124" s="1">
+        <f t="shared" si="7"/>
+        <v>4617.15555555556</v>
+      </c>
+    </row>
+    <row r="129" ht="28.5" spans="1:1">
+      <c r="A129" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
+        <v>1</v>
+      </c>
+      <c r="B131" s="1">
+        <f>D8</f>
+        <v>1</v>
+      </c>
+      <c r="C131" s="1">
+        <f>D51</f>
+        <v>2</v>
+      </c>
+      <c r="D131" s="1">
+        <f>B131+C131</f>
+        <v>3</v>
+      </c>
+      <c r="E131" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F131" s="1">
+        <f>D131/E131</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1">
+        <v>2</v>
+      </c>
+      <c r="B132" s="1">
+        <f t="shared" ref="B132:B165" si="8">D9</f>
+        <v>4</v>
+      </c>
+      <c r="C132" s="1">
+        <f t="shared" ref="C132:C165" si="9">D52</f>
+        <v>6</v>
+      </c>
+      <c r="D132" s="1">
+        <f t="shared" ref="D132:D165" si="10">B132+C132</f>
+        <v>10</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="F132" s="1">
+        <f t="shared" ref="F132:F165" si="11">D132/E132</f>
+        <v>13.3333333333333</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1">
+        <v>3</v>
+      </c>
+      <c r="B133" s="1">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="C133" s="1">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="D133" s="1">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="E133" s="1">
+        <v>1</v>
+      </c>
+      <c r="F133" s="1">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1">
+        <v>4</v>
+      </c>
+      <c r="B134" s="1">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="C134" s="1">
+        <f t="shared" si="9"/>
+        <v>42</v>
+      </c>
+      <c r="D134" s="1">
+        <f t="shared" si="10"/>
+        <v>74</v>
+      </c>
+      <c r="E134" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F134" s="1">
+        <f t="shared" si="11"/>
+        <v>49.3333333333333</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1">
+        <v>5</v>
+      </c>
+      <c r="B135" s="1">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="C135" s="1">
+        <f t="shared" si="9"/>
+        <v>61</v>
+      </c>
+      <c r="D135" s="1">
+        <f t="shared" si="10"/>
+        <v>111</v>
+      </c>
+      <c r="E135" s="1">
+        <v>2</v>
+      </c>
+      <c r="F135" s="1">
+        <f t="shared" si="11"/>
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1">
+        <v>6</v>
+      </c>
+      <c r="B136" s="1">
+        <f t="shared" si="8"/>
+        <v>72</v>
+      </c>
+      <c r="C136" s="1">
+        <f t="shared" si="9"/>
+        <v>84</v>
+      </c>
+      <c r="D136" s="1">
+        <f t="shared" si="10"/>
+        <v>156</v>
+      </c>
+      <c r="E136" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F136" s="1">
+        <f t="shared" si="11"/>
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1">
+        <v>7</v>
+      </c>
+      <c r="B137" s="1">
+        <f t="shared" si="8"/>
+        <v>147</v>
+      </c>
+      <c r="C137" s="1">
+        <f t="shared" si="9"/>
+        <v>163</v>
+      </c>
+      <c r="D137" s="1">
+        <f t="shared" si="10"/>
+        <v>310</v>
+      </c>
+      <c r="E137" s="1">
+        <v>3</v>
+      </c>
+      <c r="F137" s="1">
+        <f t="shared" si="11"/>
+        <v>103.333333333333</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1">
+        <v>8</v>
+      </c>
+      <c r="B138" s="1">
+        <f t="shared" si="8"/>
+        <v>192</v>
+      </c>
+      <c r="C138" s="1">
+        <f t="shared" si="9"/>
+        <v>205</v>
+      </c>
+      <c r="D138" s="1">
+        <f t="shared" si="10"/>
+        <v>397</v>
+      </c>
+      <c r="E138" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F138" s="1">
+        <f t="shared" si="11"/>
+        <v>113.428571428571</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1">
+        <v>9</v>
+      </c>
+      <c r="B139" s="1">
+        <f t="shared" si="8"/>
+        <v>243</v>
+      </c>
+      <c r="C139" s="1">
+        <f t="shared" si="9"/>
+        <v>251</v>
+      </c>
+      <c r="D139" s="1">
+        <f t="shared" si="10"/>
+        <v>494</v>
+      </c>
+      <c r="E139" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F139" s="1">
+        <f t="shared" si="11"/>
+        <v>109.777777777778</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1">
+        <v>10</v>
+      </c>
+      <c r="B140" s="1">
+        <f t="shared" si="8"/>
+        <v>400</v>
+      </c>
+      <c r="C140" s="1">
+        <f t="shared" si="9"/>
+        <v>400</v>
+      </c>
+      <c r="D140" s="1">
+        <f t="shared" si="10"/>
+        <v>800</v>
+      </c>
+      <c r="E140" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="F140" s="1">
+        <f t="shared" si="11"/>
+        <v>145.454545454545</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1">
+        <v>11</v>
+      </c>
+      <c r="B141" s="1">
+        <f t="shared" si="8"/>
+        <v>484</v>
+      </c>
+      <c r="C141" s="1">
+        <f t="shared" si="9"/>
+        <v>471</v>
+      </c>
+      <c r="D141" s="1">
+        <f t="shared" si="10"/>
+        <v>955</v>
+      </c>
+      <c r="E141" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="F141" s="1">
+        <f t="shared" si="11"/>
+        <v>146.923076923077</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1">
+        <v>12</v>
+      </c>
+      <c r="B142" s="1">
+        <f t="shared" si="8"/>
+        <v>576</v>
+      </c>
+      <c r="C142" s="1">
+        <f t="shared" si="9"/>
+        <v>546</v>
+      </c>
+      <c r="D142" s="1">
+        <f t="shared" si="10"/>
+        <v>1122</v>
+      </c>
+      <c r="E142" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F142" s="1">
+        <f t="shared" si="11"/>
+        <v>149.6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1">
+        <v>13</v>
+      </c>
+      <c r="B143" s="1">
+        <f t="shared" si="8"/>
+        <v>845</v>
+      </c>
+      <c r="C143" s="1">
+        <f t="shared" si="9"/>
+        <v>782</v>
+      </c>
+      <c r="D143" s="1">
+        <f t="shared" si="10"/>
+        <v>1627</v>
+      </c>
+      <c r="E143" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="F143" s="1">
+        <f t="shared" si="11"/>
+        <v>191.411764705882</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1">
+        <v>14</v>
+      </c>
+      <c r="B144" s="1">
+        <f t="shared" si="8"/>
+        <v>980</v>
+      </c>
+      <c r="C144" s="1">
+        <f t="shared" si="9"/>
+        <v>888</v>
+      </c>
+      <c r="D144" s="1">
+        <f t="shared" si="10"/>
+        <v>1868</v>
+      </c>
+      <c r="E144" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="F144" s="1">
+        <f t="shared" si="11"/>
+        <v>196.631578947368</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1">
+        <v>15</v>
+      </c>
+      <c r="B145" s="1">
+        <f t="shared" si="8"/>
+        <v>1125</v>
+      </c>
+      <c r="C145" s="1">
+        <f t="shared" si="9"/>
+        <v>998</v>
+      </c>
+      <c r="D145" s="1">
+        <f t="shared" si="10"/>
+        <v>2123</v>
+      </c>
+      <c r="E145" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="F145" s="1">
+        <f t="shared" si="11"/>
+        <v>202.190476190476</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1">
+        <v>16</v>
+      </c>
+      <c r="B146" s="1">
+        <f t="shared" si="8"/>
+        <v>1536</v>
+      </c>
+      <c r="C146" s="1">
+        <f t="shared" si="9"/>
+        <v>1337</v>
+      </c>
+      <c r="D146" s="1">
+        <f t="shared" si="10"/>
+        <v>2873</v>
+      </c>
+      <c r="E146" s="1">
+        <v>12</v>
+      </c>
+      <c r="F146" s="1">
+        <f t="shared" si="11"/>
+        <v>239.416666666667</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1">
+        <v>17</v>
+      </c>
+      <c r="B147" s="1">
+        <f t="shared" si="8"/>
+        <v>1734</v>
+      </c>
+      <c r="C147" s="1">
+        <f t="shared" si="9"/>
+        <v>1482</v>
+      </c>
+      <c r="D147" s="1">
+        <f t="shared" si="10"/>
+        <v>3216</v>
+      </c>
+      <c r="E147" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="F147" s="1">
+        <f t="shared" si="11"/>
+        <v>238.222222222222</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1">
+        <v>18</v>
+      </c>
+      <c r="B148" s="1">
+        <f t="shared" si="8"/>
+        <v>1944</v>
+      </c>
+      <c r="C148" s="1">
+        <f t="shared" si="9"/>
+        <v>1633</v>
+      </c>
+      <c r="D148" s="1">
+        <f t="shared" si="10"/>
+        <v>3577</v>
+      </c>
+      <c r="E148" s="1">
+        <v>15</v>
+      </c>
+      <c r="F148" s="1">
+        <f t="shared" si="11"/>
+        <v>238.466666666667</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1">
+        <v>19</v>
+      </c>
+      <c r="B149" s="1">
+        <f t="shared" si="8"/>
+        <v>2527</v>
+      </c>
+      <c r="C149" s="1">
+        <f t="shared" si="9"/>
+        <v>2089</v>
+      </c>
+      <c r="D149" s="1">
+        <f t="shared" si="10"/>
+        <v>4616</v>
+      </c>
+      <c r="E149" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="F149" s="1">
+        <f t="shared" si="11"/>
+        <v>279.757575757576</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1">
+        <v>20</v>
+      </c>
+      <c r="B150" s="1">
+        <f t="shared" si="8"/>
+        <v>2800</v>
+      </c>
+      <c r="C150" s="1">
+        <f t="shared" si="9"/>
+        <v>2279</v>
+      </c>
+      <c r="D150" s="1">
+        <f t="shared" si="10"/>
+        <v>5079</v>
+      </c>
+      <c r="E150" s="1">
+        <v>18</v>
+      </c>
+      <c r="F150" s="1">
+        <f t="shared" si="11"/>
+        <v>282.166666666667</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1">
+        <v>21</v>
+      </c>
+      <c r="B151" s="1">
+        <f t="shared" si="8"/>
+        <v>3087</v>
+      </c>
+      <c r="C151" s="1">
+        <f t="shared" si="9"/>
+        <v>2476</v>
+      </c>
+      <c r="D151" s="1">
+        <f t="shared" si="10"/>
+        <v>5563</v>
+      </c>
+      <c r="E151" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="F151" s="1">
+        <f t="shared" si="11"/>
+        <v>285.282051282051</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1">
+        <v>22</v>
+      </c>
+      <c r="B152" s="1">
+        <f t="shared" si="8"/>
+        <v>3872</v>
+      </c>
+      <c r="C152" s="1">
+        <f t="shared" si="9"/>
+        <v>3063</v>
+      </c>
+      <c r="D152" s="1">
+        <f t="shared" si="10"/>
+        <v>6935</v>
+      </c>
+      <c r="E152" s="1">
+        <v>21</v>
+      </c>
+      <c r="F152" s="1">
+        <f t="shared" si="11"/>
+        <v>330.238095238095</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1">
+        <v>23</v>
+      </c>
+      <c r="B153" s="1">
+        <f t="shared" si="8"/>
+        <v>4232</v>
+      </c>
+      <c r="C153" s="1">
+        <f t="shared" si="9"/>
+        <v>3304</v>
+      </c>
+      <c r="D153" s="1">
+        <f t="shared" si="10"/>
+        <v>7536</v>
+      </c>
+      <c r="E153" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="F153" s="1">
+        <f t="shared" si="11"/>
+        <v>334.933333333333</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1">
+        <v>24</v>
+      </c>
+      <c r="B154" s="1">
+        <f t="shared" si="8"/>
+        <v>4608</v>
+      </c>
+      <c r="C154" s="1">
+        <f t="shared" si="9"/>
+        <v>3552</v>
+      </c>
+      <c r="D154" s="1">
+        <f t="shared" si="10"/>
+        <v>8160</v>
+      </c>
+      <c r="E154" s="1">
+        <v>24</v>
+      </c>
+      <c r="F154" s="1">
+        <f t="shared" si="11"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1">
+        <v>25</v>
+      </c>
+      <c r="B155" s="1">
+        <f t="shared" si="8"/>
+        <v>5625</v>
+      </c>
+      <c r="C155" s="1">
+        <f t="shared" si="9"/>
+        <v>4283</v>
+      </c>
+      <c r="D155" s="1">
+        <f t="shared" si="10"/>
+        <v>9908</v>
+      </c>
+      <c r="E155" s="1">
+        <v>25.5</v>
+      </c>
+      <c r="F155" s="1">
+        <f t="shared" si="11"/>
+        <v>388.549019607843</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1">
+        <v>26</v>
+      </c>
+      <c r="B156" s="1">
+        <f t="shared" si="8"/>
+        <v>6084</v>
+      </c>
+      <c r="C156" s="1">
+        <f t="shared" si="9"/>
+        <v>4578</v>
+      </c>
+      <c r="D156" s="1">
+        <f t="shared" si="10"/>
+        <v>10662</v>
+      </c>
+      <c r="E156" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="F156" s="1">
+        <f t="shared" si="11"/>
+        <v>387.709090909091</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1">
+        <v>27</v>
+      </c>
+      <c r="B157" s="1">
+        <f t="shared" si="8"/>
+        <v>6561</v>
+      </c>
+      <c r="C157" s="1">
+        <f t="shared" si="9"/>
+        <v>4881</v>
+      </c>
+      <c r="D157" s="1">
+        <f t="shared" si="10"/>
+        <v>11442</v>
+      </c>
+      <c r="E157" s="1">
+        <v>29.5</v>
+      </c>
+      <c r="F157" s="1">
+        <f t="shared" si="11"/>
+        <v>387.864406779661</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1">
+        <v>28</v>
+      </c>
+      <c r="B158" s="1">
+        <f t="shared" si="8"/>
+        <v>7840</v>
+      </c>
+      <c r="C158" s="1">
+        <f t="shared" si="9"/>
+        <v>5770</v>
+      </c>
+      <c r="D158" s="1">
+        <f t="shared" si="10"/>
+        <v>13610</v>
+      </c>
+      <c r="E158" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="F158" s="1">
+        <f t="shared" si="11"/>
+        <v>432.063492063492</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1">
+        <v>29</v>
+      </c>
+      <c r="B159" s="1">
+        <f t="shared" si="8"/>
+        <v>8410</v>
+      </c>
+      <c r="C159" s="1">
+        <f t="shared" si="9"/>
+        <v>6125</v>
+      </c>
+      <c r="D159" s="1">
+        <f t="shared" si="10"/>
+        <v>14535</v>
+      </c>
+      <c r="E159" s="1">
+        <v>33.5</v>
+      </c>
+      <c r="F159" s="1">
+        <f t="shared" si="11"/>
+        <v>433.880597014925</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1">
+        <v>30</v>
+      </c>
+      <c r="B160" s="1">
+        <f t="shared" si="8"/>
+        <v>9000</v>
+      </c>
+      <c r="C160" s="1">
+        <f t="shared" si="9"/>
+        <v>6488</v>
+      </c>
+      <c r="D160" s="1">
+        <f t="shared" si="10"/>
+        <v>15488</v>
+      </c>
+      <c r="E160" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="F160" s="1">
+        <f t="shared" si="11"/>
+        <v>436.281690140845</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1">
+        <v>31</v>
+      </c>
+      <c r="B161" s="1">
+        <f t="shared" si="8"/>
+        <v>10571</v>
+      </c>
+      <c r="C161" s="1">
+        <f t="shared" si="9"/>
+        <v>7546</v>
+      </c>
+      <c r="D161" s="1">
+        <f t="shared" si="10"/>
+        <v>18117</v>
+      </c>
+      <c r="E161" s="1">
+        <v>37.5</v>
+      </c>
+      <c r="F161" s="1">
+        <f t="shared" si="11"/>
+        <v>483.12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1">
+        <v>32</v>
+      </c>
+      <c r="B162" s="1">
+        <f t="shared" si="8"/>
+        <v>11264</v>
+      </c>
+      <c r="C162" s="1">
+        <f t="shared" si="9"/>
+        <v>7964</v>
+      </c>
+      <c r="D162" s="1">
+        <f t="shared" si="10"/>
+        <v>19228</v>
+      </c>
+      <c r="E162" s="1">
+        <v>39.5</v>
+      </c>
+      <c r="F162" s="1">
+        <f t="shared" si="11"/>
+        <v>486.784810126582</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1">
+        <v>33</v>
+      </c>
+      <c r="B163" s="1">
+        <f t="shared" si="8"/>
+        <v>11979</v>
+      </c>
+      <c r="C163" s="1">
+        <f t="shared" si="9"/>
+        <v>8392</v>
+      </c>
+      <c r="D163" s="1">
+        <f t="shared" si="10"/>
+        <v>20371</v>
+      </c>
+      <c r="E163" s="1">
+        <v>41.5</v>
+      </c>
+      <c r="F163" s="1">
+        <f t="shared" si="11"/>
+        <v>490.867469879518</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1">
+        <v>34</v>
+      </c>
+      <c r="B164" s="1">
+        <f t="shared" si="8"/>
+        <v>13872</v>
+      </c>
+      <c r="C164" s="1">
+        <f t="shared" si="9"/>
+        <v>9632</v>
+      </c>
+      <c r="D164" s="1">
+        <f t="shared" si="10"/>
+        <v>23504</v>
+      </c>
+      <c r="E164" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="F164" s="1">
+        <f t="shared" si="11"/>
+        <v>540.32183908046</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1">
+        <v>35</v>
+      </c>
+      <c r="B165" s="1">
+        <f t="shared" si="8"/>
+        <v>14700</v>
+      </c>
+      <c r="C165" s="1">
+        <f t="shared" si="9"/>
+        <v>10118</v>
+      </c>
+      <c r="D165" s="1">
+        <f t="shared" si="10"/>
+        <v>24818</v>
+      </c>
+      <c r="E165" s="1">
+        <v>45.5</v>
+      </c>
+      <c r="F165" s="1">
+        <f t="shared" si="11"/>
+        <v>545.450549450549</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B167" s="1">
+        <f>SUM(B131:B165)</f>
+        <v>137406</v>
+      </c>
+      <c r="C167" s="1">
+        <f>SUM(C131:C165)</f>
+        <v>101903</v>
+      </c>
+      <c r="D167" s="1">
+        <f>SUM(D131:D165)</f>
+        <v>239309</v>
+      </c>
+      <c r="E167" s="1">
+        <f>SUM(E131:E165)</f>
+        <v>619.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A7:A13"/>
@@ -4711,32 +6547,32 @@
   <sheetData>
     <row r="7" ht="66" customHeight="1" spans="1:1">
       <c r="A7" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:1">
       <c r="A8" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" ht="43" customHeight="1" spans="1:1">
       <c r="A9" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" ht="51" customHeight="1" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" ht="98" customHeight="1" spans="1:1">
       <c r="A12" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" ht="56" customHeight="1"/>
@@ -4744,35 +6580,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A12:A13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="52.625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="12" ht="62" customHeight="1" spans="1:1">
-      <c r="A12" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" ht="66" customHeight="1" spans="1:1">
-      <c r="A13" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="104">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -116,19 +116,9 @@
 通过关卡15后开放。
 15关会给一颗珠子。
 武器最多携带3枚宝珠。
-宝珠的升级机制是什么
-合成系统，任意三颗宝珠可以合成更高阶的随机宝珠
-三颗相同宝珠可以合成下一阶宝珠</t>
-  </si>
-  <si>
-    <t>会心宝珠：暴击率提高3|6|10|15|20
-重击宝珠：暴击伤害提高25|50|75|100|150
-迅捷宝珠：移动速度提高25|50|75|100|125
-生命宝珠：生命值提高1|2|3|4|5
-持续宝珠：获得的增益Buff持续时间提高%
-碎片宝珠：关卡获得的碎片数量提高3%|5%|8%|12%|20%
-龙之宝珠：对Boss造成的伤害提高5%|10%|15%|20%|30%
-箭矢宝珠：箭矢伤害提高5|10|15|25</t>
+宝珠合成系统，任意相同品质三颗宝珠可以合成更高品质的随机宝珠
+三颗相同品质宝珠可以合成下一品质宝珠
+如果只花2颗宝珠合成，则成功率只有50%</t>
   </si>
   <si>
     <t>广告活动：</t>
@@ -1468,8 +1458,8 @@
   <sheetPr/>
   <dimension ref="B3:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="3"/>
@@ -1527,23 +1517,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="130" customHeight="1" spans="2:4">
+    <row r="9" ht="154" customHeight="1" spans="2:4">
       <c r="B9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>14</v>
-      </c>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" ht="76" customHeight="1" spans="2:3">
       <c r="B10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1569,12 +1557,12 @@
   <sheetData>
     <row r="12" ht="62" customHeight="1" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" ht="66" customHeight="1" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1600,12 +1588,12 @@
   <sheetData>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1633,7 +1621,7 @@
   <sheetData>
     <row r="1" ht="28.5" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1641,7 +1629,7 @@
     </row>
     <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1649,7 +1637,7 @@
     </row>
     <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -1659,7 +1647,7 @@
     </row>
     <row r="4" ht="14.25" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1667,7 +1655,7 @@
     </row>
     <row r="5" ht="14.25" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -1677,7 +1665,7 @@
     </row>
     <row r="6" ht="14.25" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="8">
         <v>2</v>
@@ -1687,16 +1675,16 @@
     </row>
     <row r="7" ht="14.25" spans="1:4">
       <c r="A7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
@@ -2302,7 +2290,7 @@
     </row>
     <row r="44" ht="28.5" spans="1:4">
       <c r="A44" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2310,7 +2298,7 @@
     </row>
     <row r="45" ht="14.25" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B45" s="2">
         <v>450</v>
@@ -2320,7 +2308,7 @@
     </row>
     <row r="46" ht="14.25" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
@@ -2330,7 +2318,7 @@
     </row>
     <row r="47" ht="14.25" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="8"/>
@@ -2338,7 +2326,7 @@
     </row>
     <row r="48" ht="14.25" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B48" s="1">
         <v>2</v>
@@ -2348,7 +2336,7 @@
     </row>
     <row r="49" ht="14.25" spans="1:4">
       <c r="A49" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B49" s="8">
         <v>1.7</v>
@@ -2358,16 +2346,16 @@
     </row>
     <row r="50" ht="14.25" spans="1:4">
       <c r="A50" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:4">
@@ -2979,17 +2967,17 @@
     </row>
     <row r="88" ht="28.5" spans="1:4">
       <c r="A88" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
     <row r="89" ht="14.25" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3401,7 +3389,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
@@ -3409,7 +3397,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
@@ -3417,10 +3405,10 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3626,7 +3614,7 @@
   <sheetData>
     <row r="12" ht="219" customHeight="1" spans="1:1">
       <c r="A12" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -3664,25 +3652,25 @@
   <sheetData>
     <row r="1" s="12" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" ht="273" customHeight="1" spans="1:7">
@@ -3690,72 +3678,72 @@
         <v>10000</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:7">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="14" t="s">
         <v>51</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>52</v>
       </c>
       <c r="E3" s="4"/>
       <c r="G3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" ht="119" customHeight="1" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>56</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" ht="118" customHeight="1" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>59</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" ht="28.5" spans="2:3">
       <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" ht="98" customHeight="1"/>
@@ -3784,10 +3772,10 @@
   <sheetData>
     <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3795,10 +3783,10 @@
         <v>100</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3806,10 +3794,10 @@
         <v>101</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3817,10 +3805,10 @@
         <v>102</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3828,10 +3816,10 @@
         <v>103</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3839,10 +3827,10 @@
         <v>104</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3850,10 +3838,10 @@
         <v>105</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3861,10 +3849,10 @@
         <v>106</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3873,7 +3861,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3881,7 +3869,7 @@
         <v>108</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="3:3">
@@ -3895,41 +3883,41 @@
     </row>
     <row r="23" ht="28.5" spans="2:3">
       <c r="B23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3955,7 +3943,7 @@
   <sheetData>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3986,19 +3974,19 @@
   <sheetData>
     <row r="1" ht="28.5" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -4006,12 +3994,12 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -4019,7 +4007,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="8">
         <v>2</v>
@@ -4029,16 +4017,16 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4655,12 +4643,12 @@
     </row>
     <row r="44" ht="28.5" spans="1:1">
       <c r="A44" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B45" s="2">
         <v>450</v>
@@ -4668,7 +4656,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B46" s="2">
         <v>1</v>
@@ -4676,14 +4664,14 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B48" s="1">
         <v>2</v>
@@ -4693,7 +4681,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B49" s="8">
         <v>1.7</v>
@@ -4703,16 +4691,16 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -5312,15 +5300,15 @@
     </row>
     <row r="88" ht="28.5" spans="1:1">
       <c r="A88" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -5640,27 +5628,27 @@
     </row>
     <row r="129" ht="28.5" spans="1:1">
       <c r="A129" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B130" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C130" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="D130" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D130" s="10" t="s">
+      <c r="E130" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E130" s="10" t="s">
+      <c r="F130" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="F130" s="10" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6505,7 +6493,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B167" s="1">
         <f>SUM(B131:B165)</f>
@@ -6547,32 +6535,32 @@
   <sheetData>
     <row r="7" ht="66" customHeight="1" spans="1:1">
       <c r="A7" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:1">
       <c r="A8" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" ht="43" customHeight="1" spans="1:1">
       <c r="A9" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" ht="51" customHeight="1" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" ht="98" customHeight="1" spans="1:1">
       <c r="A12" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" ht="56" customHeight="1"/>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26325" windowHeight="14265"/>
+    <workbookView windowWidth="26325" windowHeight="14265" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -15,9 +15,7 @@
     <sheet name="怪物" sheetId="9" r:id="rId6"/>
     <sheet name="待完善" sheetId="18" r:id="rId7"/>
     <sheet name="废弃" sheetId="14" r:id="rId8"/>
-    <sheet name="7.22" sheetId="12" r:id="rId9"/>
-    <sheet name="7.29" sheetId="15" r:id="rId10"/>
-    <sheet name="7.30" sheetId="17" r:id="rId11"/>
+    <sheet name="8.5" sheetId="20" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="96">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -302,25 +300,22 @@
     <t>比如火、冰、雷等弱点?</t>
   </si>
   <si>
+    <t>普通怪物</t>
+  </si>
+  <si>
+    <t>方</t>
+  </si>
+  <si>
+    <t>是普通怪物血量的2倍</t>
+  </si>
+  <si>
+    <t>三角</t>
+  </si>
+  <si>
+    <t>皮薄，但是会发射子弹</t>
+  </si>
+  <si>
     <t>蝙蝠</t>
-  </si>
-  <si>
-    <t>普通怪物</t>
-  </si>
-  <si>
-    <t>方</t>
-  </si>
-  <si>
-    <t>是普通怪物血量的2倍</t>
-  </si>
-  <si>
-    <t>三角</t>
-  </si>
-  <si>
-    <t>皮薄，但是会发射子弹</t>
-  </si>
-  <si>
-    <t>菱形</t>
   </si>
   <si>
     <t>移动速度较快</t>
@@ -399,31 +394,10 @@
     <t>总计</t>
   </si>
   <si>
-    <t>关卡的表格配置及读取</t>
-  </si>
-  <si>
-    <t>初版怪物逻辑的实现</t>
-  </si>
-  <si>
-    <t>初版皮肤升级额外功能的实现</t>
-  </si>
-  <si>
-    <t>关卡拓展至10关（包含怪物逻辑的实现）</t>
-  </si>
-  <si>
-    <t>配件种类完善及功能实现</t>
-  </si>
-  <si>
-    <t>游戏内部肉鸽玩法的设计及实现</t>
-  </si>
-  <si>
-    <t>技能重置功能（包括资源的返还）</t>
-  </si>
-  <si>
-    <t>设计怪物及实现对应逻辑</t>
-  </si>
-  <si>
-    <t>前面的关卡出怪可以紧凑一点</t>
+    <t>宝珠掉落逻辑</t>
+  </si>
+  <si>
+    <t>宝珠合成逻辑及UI</t>
   </si>
 </sst>
 </file>
@@ -634,13 +608,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,7 +1024,7 @@
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1087,28 +1061,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1128,6 +1093,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1458,142 +1426,80 @@
   <sheetPr/>
   <dimension ref="B3:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="27" style="16" customWidth="1"/>
+    <col min="2" max="2" width="27" style="14" customWidth="1"/>
     <col min="3" max="3" width="92.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="114.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="114.125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="140" customHeight="1" spans="2:3">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="101" customHeight="1" spans="2:3">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="101" customHeight="1" spans="2:3">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="103" customHeight="1" spans="2:3">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="103" customHeight="1" spans="2:3">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="100" customHeight="1" spans="2:3">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" ht="154" customHeight="1" spans="2:4">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" ht="76" customHeight="1" spans="2:3">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A12:A13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="52.625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="12" ht="62" customHeight="1" spans="1:1">
-      <c r="A12" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" ht="66" customHeight="1" spans="1:1">
-      <c r="A13" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A8:A12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="41.25" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1620,7 +1526,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1"/>
@@ -1628,18 +1534,18 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" ht="14.25" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
@@ -1664,26 +1570,26 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" ht="14.25" spans="1:4">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2289,7 +2195,7 @@
       <c r="D43" s="1"/>
     </row>
     <row r="44" ht="28.5" spans="1:4">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B44" s="1"/>
@@ -2297,20 +2203,20 @@
       <c r="D44" s="1"/>
     </row>
     <row r="45" ht="14.25" spans="1:4">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="4">
         <v>450</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
     <row r="46" ht="14.25" spans="1:4">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="4">
         <v>1</v>
       </c>
       <c r="C46" s="1"/>
@@ -2321,8 +2227,8 @@
         <v>19</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
     </row>
     <row r="48" ht="14.25" spans="1:4">
       <c r="A48" s="1" t="s">
@@ -2331,30 +2237,30 @@
       <c r="B48" s="1">
         <v>2</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
     </row>
     <row r="49" ht="14.25" spans="1:4">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="5">
         <v>1.7</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
     </row>
     <row r="50" ht="14.25" spans="1:4">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2966,7 +2872,7 @@
       <c r="D87" s="1"/>
     </row>
     <row r="88" ht="28.5" spans="1:4">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C88" s="1"/>
@@ -3404,10 +3310,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3613,15 +3519,15 @@
   </cols>
   <sheetData>
     <row r="12" ht="219" customHeight="1" spans="1:1">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="11"/>
+      <c r="A15" s="8"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="11"/>
+      <c r="A18" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3650,46 +3556,46 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="27" spans="1:7">
-      <c r="A1" s="13" t="s">
+    <row r="1" s="9" customFormat="1" ht="27" spans="1:7">
+      <c r="A1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" ht="273" customHeight="1" spans="1:7">
-      <c r="A2" s="4">
+      <c r="A2" s="11">
         <v>10000</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -3697,52 +3603,52 @@
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:7">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="11"/>
       <c r="G3" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" ht="119" customHeight="1" spans="1:5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" ht="118" customHeight="1" spans="1:5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" ht="28.5" spans="2:3">
       <c r="B6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3759,7 +3665,7 @@
   <dimension ref="A5:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -3779,89 +3685,87 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>100</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4">
+        <v>101</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2">
-        <v>101</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4">
+        <v>102</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2">
-        <v>102</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4">
+        <v>103</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2">
-        <v>103</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4">
+        <v>104</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2">
-        <v>104</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4">
+        <v>105</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2">
-        <v>105</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4">
+        <v>106</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2">
-        <v>106</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4">
+        <v>107</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2">
-        <v>107</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3869,55 +3773,55 @@
         <v>108</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="11"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="11"/>
+      <c r="C21" s="8"/>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="11"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" ht="28.5" spans="2:3">
       <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3943,7 +3847,7 @@
   <sheetData>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3973,22 +3877,22 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="1:1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4006,26 +3910,26 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4055,11 +3959,11 @@
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" ref="C9:C42" si="1">$B$3+(A9-1)*B9</f>
+        <f t="shared" ref="C9:C43" si="1">$B$3+(A9-1)*B9</f>
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" ref="D9:D42" si="2">$B$5*POWER(A9,$B$6)*B9</f>
+        <f t="shared" ref="D9:D43" si="2">$B$5*POWER(A9,$B$6)*B9</f>
         <v>4</v>
       </c>
     </row>
@@ -4374,7 +4278,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="1">
-        <f t="shared" ref="B28:B42" si="3">FLOOR((A28-1)/3,1)+1</f>
+        <f t="shared" ref="B28:B43" si="3">FLOOR((A28-1)/3,1)+1</f>
         <v>7</v>
       </c>
       <c r="C28" s="1">
@@ -4629,36 +4533,36 @@
         <v>36</v>
       </c>
       <c r="B43" s="1">
-        <f>FLOOR((A43-1)/3,1)+1</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="C43" s="1">
-        <f>$B$3+(A43-1)*B43</f>
+        <f t="shared" si="1"/>
         <v>421</v>
       </c>
       <c r="D43" s="1">
-        <f>$B$5*POWER(A43,$B$6)*B43</f>
+        <f t="shared" si="2"/>
         <v>15552</v>
       </c>
     </row>
     <row r="44" ht="28.5" spans="1:1">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="4">
         <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4666,8 +4570,8 @@
       <c r="A47" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
@@ -4676,30 +4580,30 @@
       <c r="B48" s="1">
         <v>2</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="5">
         <v>1.7</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5299,7 +5203,7 @@
       </c>
     </row>
     <row r="88" ht="28.5" spans="1:1">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5627,28 +5531,28 @@
       </c>
     </row>
     <row r="129" ht="28.5" spans="1:1">
-      <c r="A129" s="6" t="s">
+      <c r="A129" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="10" t="s">
+      <c r="A130" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C130" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="D130" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D130" s="10" t="s">
+      <c r="E130" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E130" s="10" t="s">
+      <c r="F130" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F130" s="10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6493,7 +6397,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B167" s="1">
         <f>SUM(B131:B165)</f>
@@ -6521,49 +6425,24 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A7:A13"/>
+  <dimension ref="A12:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="51.375" style="4" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="7" ht="66" customHeight="1" spans="1:1">
-      <c r="A7" s="5" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" ht="33" customHeight="1" spans="1:1">
-      <c r="A8" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" ht="43" customHeight="1" spans="1:1">
-      <c r="A9" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" ht="51" customHeight="1" spans="1:1">
-      <c r="A10" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" ht="50" customHeight="1" spans="1:1">
-      <c r="A11" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" ht="98" customHeight="1" spans="1:1">
-      <c r="A12" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" ht="56" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26325" windowHeight="14265" activeTab="8"/>
+    <workbookView windowWidth="28260" windowHeight="14265" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="100">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -192,6 +192,15 @@
 </t>
   </si>
   <si>
+    <t>攻速和攻击可以一直升下去吗？</t>
+  </si>
+  <si>
+    <t>攻速的成长需要越来越缓</t>
+  </si>
+  <si>
+    <t>每击杀一个敌人，提高1攻击力</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -298,6 +307,9 @@
   </si>
   <si>
     <t>比如火、冰、雷等弱点?</t>
+  </si>
+  <si>
+    <t>小僵尸</t>
   </si>
   <si>
     <t>普通怪物</t>
@@ -1511,10 +1523,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67:B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2189,1089 +2201,1605 @@
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:4">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" ht="28.5" spans="1:4">
-      <c r="A44" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="A43" s="1">
+        <v>36</v>
+      </c>
+      <c r="B43" s="1">
+        <f t="shared" ref="B43:B57" si="1">FLOOR((A43-1)/3,1)+1</f>
+        <v>12</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" ref="C43:C57" si="2">$B$3+(A43-1)*B43</f>
+        <v>421</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" ref="D43:D57" si="3">$B$5*POWER(A43,$B$6)*B43</f>
+        <v>15552</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25" spans="1:4">
+      <c r="A44" s="1">
+        <v>37</v>
+      </c>
+      <c r="B44" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="2"/>
+        <v>469</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="3"/>
+        <v>17797</v>
+      </c>
     </row>
     <row r="45" ht="14.25" spans="1:4">
-      <c r="A45" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="4">
-        <v>450</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="A45" s="1">
+        <v>38</v>
+      </c>
+      <c r="B45" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="2"/>
+        <v>482</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="3"/>
+        <v>18772</v>
+      </c>
     </row>
     <row r="46" ht="14.25" spans="1:4">
-      <c r="A46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="4">
-        <v>1</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="A46" s="1">
+        <v>39</v>
+      </c>
+      <c r="B46" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="2"/>
+        <v>495</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="3"/>
+        <v>19773</v>
+      </c>
     </row>
     <row r="47" ht="14.25" spans="1:4">
-      <c r="A47" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="A47" s="1">
+        <v>40</v>
+      </c>
+      <c r="B47" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="2"/>
+        <v>547</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="3"/>
+        <v>22400</v>
+      </c>
     </row>
     <row r="48" ht="14.25" spans="1:4">
-      <c r="A48" s="1" t="s">
-        <v>20</v>
+      <c r="A48" s="1">
+        <v>41</v>
       </c>
       <c r="B48" s="1">
-        <v>2</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="2"/>
+        <v>561</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="3"/>
+        <v>23534</v>
+      </c>
     </row>
     <row r="49" ht="14.25" spans="1:4">
-      <c r="A49" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" s="5">
-        <v>1.7</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="A49" s="1">
+        <v>42</v>
+      </c>
+      <c r="B49" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="2"/>
+        <v>575</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="3"/>
+        <v>24696</v>
+      </c>
     </row>
     <row r="50" ht="14.25" spans="1:4">
-      <c r="A50" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>24</v>
+      <c r="A50" s="1">
+        <v>43</v>
+      </c>
+      <c r="B50" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="2"/>
+        <v>631</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="3"/>
+        <v>27735</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:4">
       <c r="A51" s="1">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B51" s="1">
-        <f t="shared" ref="B51:B85" si="1">FLOOR((A51-1)/3,1)+1</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" ref="C51:C85" si="2">$B$45/(1+((A51-1)*B51*$B$46)/100)</f>
-        <v>450</v>
+        <f t="shared" si="2"/>
+        <v>646</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" ref="D51:D85" si="3">FLOOR($B$48*POWER(A51,$B$49)*B51,1)</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>29040</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:4">
       <c r="A52" s="1">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C52" s="1">
         <f t="shared" si="2"/>
-        <v>445.544554455446</v>
+        <v>661</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>30375</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:4">
       <c r="A53" s="1">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C53" s="1">
         <f t="shared" si="2"/>
-        <v>441.176470588235</v>
+        <v>721</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>33856</v>
       </c>
     </row>
     <row r="54" ht="14.25" spans="1:4">
       <c r="A54" s="1">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C54" s="1">
         <f t="shared" si="2"/>
-        <v>424.528301886792</v>
+        <v>737</v>
       </c>
       <c r="D54" s="1">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>35344</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:4">
       <c r="A55" s="1">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C55" s="1">
         <f t="shared" si="2"/>
-        <v>416.666666666667</v>
+        <v>753</v>
       </c>
       <c r="D55" s="1">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>36864</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:4">
       <c r="A56" s="1">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C56" s="1">
         <f t="shared" si="2"/>
-        <v>409.090909090909</v>
+        <v>817</v>
       </c>
       <c r="D56" s="1">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>40817</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:4">
       <c r="A57" s="1">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C57" s="1">
         <f t="shared" si="2"/>
-        <v>381.35593220339</v>
+        <v>834</v>
       </c>
       <c r="D57" s="1">
         <f t="shared" si="3"/>
-        <v>163</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25" spans="1:4">
-      <c r="A58" s="1">
-        <v>8</v>
-      </c>
-      <c r="B58" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="C58" s="1">
-        <f t="shared" si="2"/>
-        <v>371.900826446281</v>
-      </c>
-      <c r="D58" s="1">
-        <f t="shared" si="3"/>
-        <v>205</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25" spans="1:4">
-      <c r="A59" s="1">
-        <v>9</v>
-      </c>
-      <c r="B59" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="C59" s="1">
-        <f t="shared" si="2"/>
-        <v>362.903225806452</v>
-      </c>
-      <c r="D59" s="1">
-        <f t="shared" si="3"/>
-        <v>251</v>
-      </c>
-    </row>
-    <row r="60" ht="14.25" spans="1:4">
-      <c r="A60" s="1">
-        <v>10</v>
-      </c>
-      <c r="B60" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="C60" s="1">
-        <f t="shared" si="2"/>
-        <v>330.882352941177</v>
-      </c>
-      <c r="D60" s="1">
-        <f t="shared" si="3"/>
-        <v>400</v>
-      </c>
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="58" ht="28.5" spans="1:4">
+      <c r="A58" s="2"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" ht="28.5" spans="1:4">
+      <c r="A59" s="2"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" ht="28.5" spans="1:4">
+      <c r="A60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
     </row>
     <row r="61" ht="14.25" spans="1:4">
-      <c r="A61" s="1">
-        <v>11</v>
-      </c>
-      <c r="B61" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="C61" s="1">
-        <f t="shared" si="2"/>
-        <v>321.428571428571</v>
-      </c>
-      <c r="D61" s="1">
-        <f t="shared" si="3"/>
-        <v>471</v>
-      </c>
+      <c r="A61" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="4">
+        <v>450</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
     </row>
     <row r="62" ht="14.25" spans="1:4">
-      <c r="A62" s="1">
-        <v>12</v>
-      </c>
-      <c r="B62" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="C62" s="1">
-        <f t="shared" si="2"/>
-        <v>312.5</v>
-      </c>
-      <c r="D62" s="1">
-        <f t="shared" si="3"/>
-        <v>546</v>
-      </c>
+      <c r="A62" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="4">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
     </row>
     <row r="63" ht="14.25" spans="1:4">
-      <c r="A63" s="1">
-        <v>13</v>
-      </c>
-      <c r="B63" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C63" s="1">
-        <f t="shared" si="2"/>
-        <v>281.25</v>
-      </c>
-      <c r="D63" s="1">
-        <f t="shared" si="3"/>
-        <v>782</v>
-      </c>
+      <c r="A63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
     </row>
     <row r="64" ht="14.25" spans="1:4">
-      <c r="A64" s="1">
-        <v>14</v>
+      <c r="A64" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B64" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C64" s="1">
-        <f t="shared" si="2"/>
-        <v>272.727272727273</v>
-      </c>
-      <c r="D64" s="1">
-        <f t="shared" si="3"/>
-        <v>888</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
     </row>
     <row r="65" ht="14.25" spans="1:4">
-      <c r="A65" s="1">
-        <v>15</v>
-      </c>
-      <c r="B65" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C65" s="1">
-        <f t="shared" si="2"/>
-        <v>264.705882352941</v>
-      </c>
-      <c r="D65" s="1">
-        <f t="shared" si="3"/>
-        <v>998</v>
-      </c>
+      <c r="A65" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
     </row>
     <row r="66" ht="14.25" spans="1:4">
-      <c r="A66" s="1">
-        <v>16</v>
-      </c>
-      <c r="B66" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="C66" s="1">
-        <f t="shared" si="2"/>
-        <v>236.842105263158</v>
-      </c>
-      <c r="D66" s="1">
-        <f t="shared" si="3"/>
-        <v>1337</v>
+      <c r="A66" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:4">
       <c r="A67" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B67" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f>FLOOR((A67-1)/(3),1)+1</f>
+        <v>1</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="2"/>
-        <v>229.591836734694</v>
+        <f t="shared" ref="C67:C101" si="4">$B$61/(1+((A67-1)*B67*$B$62)/100)</f>
+        <v>450</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="3"/>
-        <v>1482</v>
+        <f t="shared" ref="D67:D101" si="5">FLOOR($B$64*POWER(A67,$B$65)*B67,1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:4">
       <c r="A68" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B68" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B68:B99" si="6">FLOOR((A68-1)/(3),1)+1</f>
+        <v>1</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" si="4"/>
+        <v>445.544554455446</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="5"/>
         <v>6</v>
-      </c>
-      <c r="C68" s="1">
-        <f t="shared" si="2"/>
-        <v>222.772277227723</v>
-      </c>
-      <c r="D68" s="1">
-        <f t="shared" si="3"/>
-        <v>1633</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:4">
       <c r="A69" s="1">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B69" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="2"/>
-        <v>199.115044247788</v>
+        <f t="shared" si="4"/>
+        <v>441.176470588235</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="3"/>
-        <v>2089</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:4">
       <c r="A70" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B70" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" si="2"/>
-        <v>193.1330472103</v>
+        <f t="shared" si="4"/>
+        <v>424.528301886792</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="3"/>
-        <v>2279</v>
+        <f t="shared" si="5"/>
+        <v>42</v>
       </c>
     </row>
     <row r="71" ht="14.25" spans="1:4">
       <c r="A71" s="1">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B71" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" si="2"/>
-        <v>187.5</v>
+        <f t="shared" si="4"/>
+        <v>416.666666666667</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="3"/>
-        <v>2476</v>
+        <f t="shared" si="5"/>
+        <v>61</v>
       </c>
     </row>
     <row r="72" ht="14.25" spans="1:4">
       <c r="A72" s="1">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B72" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="2"/>
-        <v>167.910447761194</v>
+        <f t="shared" si="4"/>
+        <v>409.090909090909</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="3"/>
-        <v>3063</v>
+        <f t="shared" si="5"/>
+        <v>84</v>
       </c>
     </row>
     <row r="73" ht="14.25" spans="1:4">
       <c r="A73" s="1">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B73" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" si="2"/>
-        <v>163.04347826087</v>
+        <f t="shared" si="4"/>
+        <v>381.35593220339</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="3"/>
-        <v>3304</v>
+        <f t="shared" si="5"/>
+        <v>163</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:4">
       <c r="A74" s="1">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B74" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" si="2"/>
-        <v>158.450704225352</v>
+        <f t="shared" si="4"/>
+        <v>371.900826446281</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="3"/>
-        <v>3552</v>
+        <f t="shared" si="5"/>
+        <v>205</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:4">
       <c r="A75" s="1">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B75" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="2"/>
-        <v>142.405063291139</v>
+        <f t="shared" si="4"/>
+        <v>362.903225806452</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="3"/>
-        <v>4283</v>
+        <f t="shared" si="5"/>
+        <v>251</v>
       </c>
     </row>
     <row r="76" ht="14.25" spans="1:4">
       <c r="A76" s="1">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B76" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="2"/>
-        <v>138.461538461538</v>
+        <f t="shared" si="4"/>
+        <v>330.882352941177</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="3"/>
-        <v>4578</v>
+        <f t="shared" si="5"/>
+        <v>400</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:4">
       <c r="A77" s="1">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B77" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="2"/>
-        <v>134.730538922156</v>
+        <f t="shared" si="4"/>
+        <v>321.428571428571</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" si="3"/>
-        <v>4881</v>
+        <f t="shared" si="5"/>
+        <v>471</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:4">
       <c r="A78" s="1">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B78" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="2"/>
-        <v>121.621621621622</v>
+        <f t="shared" si="4"/>
+        <v>312.5</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" si="3"/>
-        <v>5770</v>
+        <f t="shared" si="5"/>
+        <v>546</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:4">
       <c r="A79" s="1">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B79" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="2"/>
-        <v>118.421052631579</v>
+        <f t="shared" si="4"/>
+        <v>281.25</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="3"/>
-        <v>6125</v>
+        <f t="shared" si="5"/>
+        <v>782</v>
       </c>
     </row>
     <row r="80" ht="14.25" spans="1:4">
       <c r="A80" s="1">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B80" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" si="2"/>
-        <v>115.384615384615</v>
+        <f t="shared" si="4"/>
+        <v>272.727272727273</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="3"/>
-        <v>6488</v>
+        <f t="shared" si="5"/>
+        <v>888</v>
       </c>
     </row>
     <row r="81" ht="14.25" spans="1:4">
       <c r="A81" s="1">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B81" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="2"/>
-        <v>104.651162790698</v>
+        <f t="shared" si="4"/>
+        <v>264.705882352941</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="3"/>
-        <v>7546</v>
+        <f t="shared" si="5"/>
+        <v>998</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:4">
       <c r="A82" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B82" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="2"/>
-        <v>102.040816326531</v>
+        <f t="shared" si="4"/>
+        <v>236.842105263158</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" si="3"/>
-        <v>7964</v>
+        <f t="shared" si="5"/>
+        <v>1337</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:4">
       <c r="A83" s="1">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B83" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="2"/>
-        <v>99.5575221238938</v>
+        <f t="shared" si="4"/>
+        <v>229.591836734694</v>
       </c>
       <c r="D83" s="1">
-        <f t="shared" si="3"/>
-        <v>8392</v>
+        <f t="shared" si="5"/>
+        <v>1482</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:4">
       <c r="A84" s="1">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B84" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="2"/>
-        <v>90.7258064516129</v>
+        <f t="shared" si="4"/>
+        <v>222.772277227723</v>
       </c>
       <c r="D84" s="1">
-        <f t="shared" si="3"/>
-        <v>9632</v>
+        <f t="shared" si="5"/>
+        <v>1633</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:4">
       <c r="A85" s="1">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B85" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="2"/>
-        <v>88.5826771653543</v>
+        <f t="shared" si="4"/>
+        <v>199.115044247788</v>
       </c>
       <c r="D85" s="1">
-        <f t="shared" si="3"/>
-        <v>10118</v>
+        <f t="shared" si="5"/>
+        <v>2089</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:4">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
+      <c r="A86" s="1">
+        <v>20</v>
+      </c>
+      <c r="B86" s="1">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="shared" si="4"/>
+        <v>193.1330472103</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="5"/>
+        <v>2279</v>
+      </c>
     </row>
     <row r="87" ht="14.25" spans="1:4">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-    </row>
-    <row r="88" ht="28.5" spans="1:4">
-      <c r="A88" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
+      <c r="A87" s="1">
+        <v>21</v>
+      </c>
+      <c r="B87" s="1">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" si="4"/>
+        <v>187.5</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="5"/>
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25" spans="1:4">
+      <c r="A88" s="1">
+        <v>22</v>
+      </c>
+      <c r="B88" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" si="4"/>
+        <v>167.910447761194</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="5"/>
+        <v>3063</v>
+      </c>
     </row>
     <row r="89" ht="14.25" spans="1:4">
-      <c r="A89" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
+      <c r="A89" s="1">
+        <v>23</v>
+      </c>
+      <c r="B89" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" si="4"/>
+        <v>163.04347826087</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="5"/>
+        <v>3304</v>
+      </c>
     </row>
     <row r="90" ht="14.25" spans="1:4">
       <c r="A90" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B90" s="1">
-        <f>C8/(C51/1000)</f>
-        <v>2.22222222222222</v>
-      </c>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="4"/>
+        <v>158.450704225352</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="5"/>
+        <v>3552</v>
+      </c>
     </row>
     <row r="91" ht="14.25" spans="1:4">
       <c r="A91" s="1">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B91" s="1">
-        <f t="shared" ref="B91:B124" si="4">C9/(C52/1000)</f>
-        <v>4.48888888888889</v>
-      </c>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="4"/>
+        <v>142.405063291139</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="5"/>
+        <v>4283</v>
+      </c>
     </row>
     <row r="92" ht="14.25" spans="1:4">
       <c r="A92" s="1">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B92" s="1">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="C92" s="1">
         <f t="shared" si="4"/>
-        <v>6.8</v>
-      </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
+        <v>138.461538461538</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="5"/>
+        <v>4578</v>
+      </c>
     </row>
     <row r="93" ht="14.25" spans="1:4">
       <c r="A93" s="1">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B93" s="1">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="C93" s="1">
         <f t="shared" si="4"/>
-        <v>16.4888888888889</v>
-      </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
+        <v>134.730538922156</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="5"/>
+        <v>4881</v>
+      </c>
     </row>
     <row r="94" ht="14.25" spans="1:4">
       <c r="A94" s="1">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B94" s="1">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C94" s="1">
         <f t="shared" si="4"/>
-        <v>21.6</v>
-      </c>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
+        <v>121.621621621622</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="5"/>
+        <v>5770</v>
+      </c>
     </row>
     <row r="95" ht="14.25" spans="1:4">
       <c r="A95" s="1">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B95" s="1">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C95" s="1">
         <f t="shared" si="4"/>
-        <v>26.8888888888889</v>
-      </c>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
+        <v>118.421052631579</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" si="5"/>
+        <v>6125</v>
+      </c>
     </row>
     <row r="96" ht="14.25" spans="1:4">
       <c r="A96" s="1">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B96" s="1">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C96" s="1">
         <f t="shared" si="4"/>
-        <v>49.8222222222222</v>
-      </c>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
+        <v>115.384615384615</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" si="5"/>
+        <v>6488</v>
+      </c>
     </row>
     <row r="97" ht="14.25" spans="1:4">
       <c r="A97" s="1">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B97" s="1">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="C97" s="1">
         <f t="shared" si="4"/>
-        <v>59.1555555555556</v>
-      </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
+        <v>104.651162790698</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="5"/>
+        <v>7546</v>
+      </c>
     </row>
     <row r="98" ht="14.25" spans="1:4">
       <c r="A98" s="1">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B98" s="1">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="C98" s="1">
         <f t="shared" si="4"/>
-        <v>68.8888888888889</v>
-      </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
+        <v>102.040816326531</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="5"/>
+        <v>7964</v>
+      </c>
     </row>
     <row r="99" ht="14.25" spans="1:4">
       <c r="A99" s="1">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B99" s="1">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="C99" s="1">
         <f t="shared" si="4"/>
-        <v>111.822222222222</v>
-      </c>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
+        <v>99.5575221238938</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="5"/>
+        <v>8392</v>
+      </c>
     </row>
     <row r="100" ht="14.25" spans="1:4">
       <c r="A100" s="1">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B100" s="1">
+        <f t="shared" ref="B100:B116" si="7">FLOOR((A100-1)/(3),1)+1</f>
+        <v>12</v>
+      </c>
+      <c r="C100" s="1">
         <f t="shared" si="4"/>
-        <v>127.555555555556</v>
-      </c>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
+        <v>90.7258064516129</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="5"/>
+        <v>9632</v>
+      </c>
     </row>
     <row r="101" ht="14.25" spans="1:4">
       <c r="A101" s="1">
+        <v>35</v>
+      </c>
+      <c r="B101" s="1">
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="B101" s="1">
+      <c r="C101" s="1">
         <f t="shared" si="4"/>
-        <v>144</v>
-      </c>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
+        <v>88.5826771653543</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="5"/>
+        <v>10118</v>
+      </c>
     </row>
     <row r="102" ht="14.25" spans="1:4">
       <c r="A102" s="1">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B102" s="1">
-        <f t="shared" si="4"/>
-        <v>216.888888888889</v>
-      </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="C102" s="1">
+        <f t="shared" ref="C102:C116" si="8">$B$61/(1+((A102-1)*B102*$B$62)/100)</f>
+        <v>86.5384615384615</v>
+      </c>
+      <c r="D102" s="1">
+        <f t="shared" ref="D102:D116" si="9">FLOOR($B$64*POWER(A102,$B$65)*B102,1)</f>
+        <v>10615</v>
+      </c>
     </row>
     <row r="103" ht="14.25" spans="1:4">
       <c r="A103" s="1">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B103" s="1">
-        <f t="shared" si="4"/>
-        <v>242</v>
-      </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="C103" s="1">
+        <f t="shared" si="8"/>
+        <v>79.2253521126761</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" si="9"/>
+        <v>12048</v>
+      </c>
     </row>
     <row r="104" ht="14.25" spans="1:4">
       <c r="A104" s="1">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B104" s="1">
-        <f t="shared" si="4"/>
-        <v>268.222222222222</v>
-      </c>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="C104" s="1">
+        <f t="shared" si="8"/>
+        <v>77.4526678141136</v>
+      </c>
+      <c r="D104" s="1">
+        <f t="shared" si="9"/>
+        <v>12606</v>
+      </c>
     </row>
     <row r="105" ht="14.25" spans="1:4">
       <c r="A105" s="1">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B105" s="1">
-        <f t="shared" si="4"/>
-        <v>384.222222222222</v>
-      </c>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="8"/>
+        <v>75.7575757575758</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="9"/>
+        <v>13175</v>
+      </c>
     </row>
     <row r="106" ht="14.25" spans="1:4">
       <c r="A106" s="1">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B106" s="1">
-        <f t="shared" si="4"/>
-        <v>422.488888888889</v>
-      </c>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" si="8"/>
+        <v>69.6594427244582</v>
+      </c>
+      <c r="D106" s="1">
+        <f t="shared" si="9"/>
+        <v>14813</v>
+      </c>
     </row>
     <row r="107" ht="14.25" spans="1:4">
       <c r="A107" s="1">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B107" s="1">
-        <f t="shared" si="4"/>
-        <v>462.355555555556</v>
-      </c>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" si="8"/>
+        <v>68.1818181818182</v>
+      </c>
+      <c r="D107" s="1">
+        <f t="shared" si="9"/>
+        <v>15448</v>
+      </c>
     </row>
     <row r="108" ht="14.25" spans="1:4">
       <c r="A108" s="1">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B108" s="1">
-        <f t="shared" si="4"/>
-        <v>637.822222222222</v>
-      </c>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="C108" s="1">
+        <f t="shared" si="8"/>
+        <v>66.7655786350148</v>
+      </c>
+      <c r="D108" s="1">
+        <f t="shared" si="9"/>
+        <v>16094</v>
+      </c>
     </row>
     <row r="109" ht="14.25" spans="1:4">
       <c r="A109" s="1">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B109" s="1">
-        <f t="shared" si="4"/>
-        <v>693.822222222222</v>
-      </c>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="C109" s="1">
+        <f t="shared" si="8"/>
+        <v>61.6438356164384</v>
+      </c>
+      <c r="D109" s="1">
+        <f t="shared" si="9"/>
+        <v>17948</v>
+      </c>
     </row>
     <row r="110" ht="14.25" spans="1:4">
       <c r="A110" s="1">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B110" s="1">
-        <f t="shared" si="4"/>
-        <v>752</v>
-      </c>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="C110" s="1">
+        <f t="shared" si="8"/>
+        <v>60.4026845637584</v>
+      </c>
+      <c r="D110" s="1">
+        <f t="shared" si="9"/>
+        <v>18663</v>
+      </c>
     </row>
     <row r="111" ht="14.25" spans="1:4">
       <c r="A111" s="1">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B111" s="1">
-        <f t="shared" si="4"/>
-        <v>1006.48888888889</v>
-      </c>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="C111" s="1">
+        <f t="shared" si="8"/>
+        <v>59.2105263157895</v>
+      </c>
+      <c r="D111" s="1">
+        <f t="shared" si="9"/>
+        <v>19390</v>
+      </c>
     </row>
     <row r="112" ht="14.25" spans="1:4">
       <c r="A112" s="1">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B112" s="1">
-        <f t="shared" si="4"/>
-        <v>1085.6</v>
-      </c>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="C112" s="1">
+        <f t="shared" si="8"/>
+        <v>54.8780487804878</v>
+      </c>
+      <c r="D112" s="1">
+        <f t="shared" si="9"/>
+        <v>21470</v>
+      </c>
     </row>
     <row r="113" ht="14.25" spans="1:4">
       <c r="A113" s="1">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B113" s="1">
-        <f t="shared" si="4"/>
-        <v>1167.55555555556</v>
-      </c>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="C113" s="1">
+        <f t="shared" si="8"/>
+        <v>53.8277511961723</v>
+      </c>
+      <c r="D113" s="1">
+        <f t="shared" si="9"/>
+        <v>22269</v>
+      </c>
     </row>
     <row r="114" ht="14.25" spans="1:4">
       <c r="A114" s="1">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B114" s="1">
-        <f t="shared" si="4"/>
-        <v>1523.82222222222</v>
-      </c>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="C114" s="1">
+        <f t="shared" si="8"/>
+        <v>52.8169014084507</v>
+      </c>
+      <c r="D114" s="1">
+        <f t="shared" si="9"/>
+        <v>23081</v>
+      </c>
     </row>
     <row r="115" ht="14.25" spans="1:4">
       <c r="A115" s="1">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B115" s="1">
-        <f t="shared" si="4"/>
-        <v>1632.22222222222</v>
-      </c>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="C115" s="1">
+        <f t="shared" si="8"/>
+        <v>49.1266375545852</v>
+      </c>
+      <c r="D115" s="1">
+        <f t="shared" si="9"/>
+        <v>25398</v>
+      </c>
     </row>
     <row r="116" ht="14.25" spans="1:4">
       <c r="A116" s="1">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B116" s="1">
-        <f t="shared" si="4"/>
-        <v>1744.22222222222</v>
-      </c>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="C116" s="1">
+        <f t="shared" si="8"/>
+        <v>48.2315112540193</v>
+      </c>
+      <c r="D116" s="1">
+        <f t="shared" si="9"/>
+        <v>26286</v>
+      </c>
     </row>
     <row r="117" ht="14.25" spans="1:4">
-      <c r="A117" s="1">
-        <v>28</v>
-      </c>
-      <c r="B117" s="1">
-        <f t="shared" si="4"/>
-        <v>2228.22222222222</v>
-      </c>
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
     <row r="118" ht="14.25" spans="1:4">
-      <c r="A118" s="1">
-        <v>29</v>
-      </c>
-      <c r="B118" s="1">
-        <f t="shared" si="4"/>
-        <v>2372.88888888889</v>
-      </c>
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" ht="14.25" spans="1:4">
-      <c r="A119" s="1">
-        <v>30</v>
-      </c>
-      <c r="B119" s="1">
-        <f t="shared" si="4"/>
-        <v>2522</v>
+    <row r="119" ht="28.5" spans="1:4">
+      <c r="A119" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
     </row>
     <row r="120" ht="14.25" spans="1:4">
-      <c r="A120" s="1">
-        <v>31</v>
-      </c>
-      <c r="B120" s="1">
-        <f t="shared" si="4"/>
-        <v>3162.88888888889</v>
+      <c r="A120" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
     <row r="121" ht="14.25" spans="1:4">
       <c r="A121" s="1">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B121" s="1">
-        <f t="shared" si="4"/>
-        <v>3351.6</v>
+        <f>C8/(C67/1000)</f>
+        <v>2.22222222222222</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
     </row>
     <row r="122" ht="14.25" spans="1:4">
       <c r="A122" s="1">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B122" s="1">
-        <f t="shared" si="4"/>
-        <v>3545.68888888889</v>
+        <f t="shared" ref="B122:B155" si="10">C9/(C68/1000)</f>
+        <v>4.48888888888889</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
     <row r="123" ht="14.25" spans="1:4">
       <c r="A123" s="1">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B123" s="1">
-        <f t="shared" si="4"/>
-        <v>4375.82222222222</v>
+        <f t="shared" si="10"/>
+        <v>6.8</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
     <row r="124" ht="14.25" spans="1:4">
       <c r="A124" s="1">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B124" s="1">
-        <f t="shared" si="4"/>
-        <v>4617.15555555556</v>
+        <f t="shared" si="10"/>
+        <v>16.4888888888889</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
+    </row>
+    <row r="125" ht="14.25" spans="1:4">
+      <c r="A125" s="1">
+        <v>5</v>
+      </c>
+      <c r="B125" s="1">
+        <f t="shared" si="10"/>
+        <v>21.6</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" ht="14.25" spans="1:4">
+      <c r="A126" s="1">
+        <v>6</v>
+      </c>
+      <c r="B126" s="1">
+        <f t="shared" si="10"/>
+        <v>26.8888888888889</v>
+      </c>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" ht="14.25" spans="1:4">
+      <c r="A127" s="1">
+        <v>7</v>
+      </c>
+      <c r="B127" s="1">
+        <f t="shared" si="10"/>
+        <v>49.8222222222222</v>
+      </c>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" ht="14.25" spans="1:4">
+      <c r="A128" s="1">
+        <v>8</v>
+      </c>
+      <c r="B128" s="1">
+        <f t="shared" si="10"/>
+        <v>59.1555555555556</v>
+      </c>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" ht="14.25" spans="1:4">
+      <c r="A129" s="1">
+        <v>9</v>
+      </c>
+      <c r="B129" s="1">
+        <f t="shared" si="10"/>
+        <v>68.8888888888889</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+    </row>
+    <row r="130" ht="14.25" spans="1:4">
+      <c r="A130" s="1">
+        <v>10</v>
+      </c>
+      <c r="B130" s="1">
+        <f t="shared" si="10"/>
+        <v>111.822222222222</v>
+      </c>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" ht="14.25" spans="1:4">
+      <c r="A131" s="1">
+        <v>11</v>
+      </c>
+      <c r="B131" s="1">
+        <f t="shared" si="10"/>
+        <v>127.555555555556</v>
+      </c>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" ht="14.25" spans="1:4">
+      <c r="A132" s="1">
+        <v>12</v>
+      </c>
+      <c r="B132" s="1">
+        <f t="shared" si="10"/>
+        <v>144</v>
+      </c>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" ht="14.25" spans="1:4">
+      <c r="A133" s="1">
+        <v>13</v>
+      </c>
+      <c r="B133" s="1">
+        <f t="shared" si="10"/>
+        <v>216.888888888889</v>
+      </c>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" ht="14.25" spans="1:4">
+      <c r="A134" s="1">
+        <v>14</v>
+      </c>
+      <c r="B134" s="1">
+        <f t="shared" si="10"/>
+        <v>242</v>
+      </c>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" ht="14.25" spans="1:4">
+      <c r="A135" s="1">
+        <v>15</v>
+      </c>
+      <c r="B135" s="1">
+        <f t="shared" si="10"/>
+        <v>268.222222222222</v>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" ht="14.25" spans="1:4">
+      <c r="A136" s="1">
+        <v>16</v>
+      </c>
+      <c r="B136" s="1">
+        <f t="shared" si="10"/>
+        <v>384.222222222222</v>
+      </c>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" ht="14.25" spans="1:4">
+      <c r="A137" s="1">
+        <v>17</v>
+      </c>
+      <c r="B137" s="1">
+        <f t="shared" si="10"/>
+        <v>422.488888888889</v>
+      </c>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" ht="14.25" spans="1:4">
+      <c r="A138" s="1">
+        <v>18</v>
+      </c>
+      <c r="B138" s="1">
+        <f t="shared" si="10"/>
+        <v>462.355555555556</v>
+      </c>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" ht="14.25" spans="1:4">
+      <c r="A139" s="1">
+        <v>19</v>
+      </c>
+      <c r="B139" s="1">
+        <f t="shared" si="10"/>
+        <v>637.822222222222</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" ht="14.25" spans="1:4">
+      <c r="A140" s="1">
+        <v>20</v>
+      </c>
+      <c r="B140" s="1">
+        <f t="shared" si="10"/>
+        <v>693.822222222222</v>
+      </c>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" ht="14.25" spans="1:4">
+      <c r="A141" s="1">
+        <v>21</v>
+      </c>
+      <c r="B141" s="1">
+        <f t="shared" si="10"/>
+        <v>752</v>
+      </c>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" ht="14.25" spans="1:4">
+      <c r="A142" s="1">
+        <v>22</v>
+      </c>
+      <c r="B142" s="1">
+        <f t="shared" si="10"/>
+        <v>1006.48888888889</v>
+      </c>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" ht="14.25" spans="1:4">
+      <c r="A143" s="1">
+        <v>23</v>
+      </c>
+      <c r="B143" s="1">
+        <f t="shared" si="10"/>
+        <v>1085.6</v>
+      </c>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" ht="14.25" spans="1:4">
+      <c r="A144" s="1">
+        <v>24</v>
+      </c>
+      <c r="B144" s="1">
+        <f t="shared" si="10"/>
+        <v>1167.55555555556</v>
+      </c>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" ht="14.25" spans="1:4">
+      <c r="A145" s="1">
+        <v>25</v>
+      </c>
+      <c r="B145" s="1">
+        <f t="shared" si="10"/>
+        <v>1523.82222222222</v>
+      </c>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" ht="14.25" spans="1:4">
+      <c r="A146" s="1">
+        <v>26</v>
+      </c>
+      <c r="B146" s="1">
+        <f t="shared" si="10"/>
+        <v>1632.22222222222</v>
+      </c>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" ht="14.25" spans="1:4">
+      <c r="A147" s="1">
+        <v>27</v>
+      </c>
+      <c r="B147" s="1">
+        <f t="shared" si="10"/>
+        <v>1744.22222222222</v>
+      </c>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" ht="14.25" spans="1:4">
+      <c r="A148" s="1">
+        <v>28</v>
+      </c>
+      <c r="B148" s="1">
+        <f t="shared" si="10"/>
+        <v>2228.22222222222</v>
+      </c>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" ht="14.25" spans="1:4">
+      <c r="A149" s="1">
+        <v>29</v>
+      </c>
+      <c r="B149" s="1">
+        <f t="shared" si="10"/>
+        <v>2372.88888888889</v>
+      </c>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" ht="14.25" spans="1:4">
+      <c r="A150" s="1">
+        <v>30</v>
+      </c>
+      <c r="B150" s="1">
+        <f t="shared" si="10"/>
+        <v>2522</v>
+      </c>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" ht="14.25" spans="1:4">
+      <c r="A151" s="1">
+        <v>31</v>
+      </c>
+      <c r="B151" s="1">
+        <f t="shared" si="10"/>
+        <v>3162.88888888889</v>
+      </c>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" ht="14.25" spans="1:4">
+      <c r="A152" s="1">
+        <v>32</v>
+      </c>
+      <c r="B152" s="1">
+        <f t="shared" si="10"/>
+        <v>3351.6</v>
+      </c>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" ht="14.25" spans="1:4">
+      <c r="A153" s="1">
+        <v>33</v>
+      </c>
+      <c r="B153" s="1">
+        <f t="shared" si="10"/>
+        <v>3545.68888888889</v>
+      </c>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" ht="14.25" spans="1:4">
+      <c r="A154" s="1">
+        <v>34</v>
+      </c>
+      <c r="B154" s="1">
+        <f t="shared" si="10"/>
+        <v>4375.82222222222</v>
+      </c>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" ht="14.25" spans="1:4">
+      <c r="A155" s="1">
+        <v>35</v>
+      </c>
+      <c r="B155" s="1">
+        <f t="shared" si="10"/>
+        <v>4617.15555555556</v>
+      </c>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3508,8 +4036,8 @@
   <sheetPr/>
   <dimension ref="A12:A18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3524,10 +4052,19 @@
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="8"/>
+      <c r="A15" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="8"/>
+      <c r="A18" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3558,25 +4095,25 @@
   <sheetData>
     <row r="1" s="9" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" ht="273" customHeight="1" spans="1:7">
@@ -3584,72 +4121,72 @@
         <v>10000</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:7">
       <c r="A3" s="11"/>
       <c r="B3" s="11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E3" s="11"/>
       <c r="G3" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="119" customHeight="1" spans="1:5">
       <c r="A4" s="11"/>
       <c r="B4" s="11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E4" s="11"/>
     </row>
     <row r="5" ht="118" customHeight="1" spans="1:5">
       <c r="A5" s="11"/>
       <c r="B5" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E5" s="11"/>
     </row>
     <row r="6" ht="28.5" spans="2:3">
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" ht="98" customHeight="1"/>
@@ -3665,7 +4202,7 @@
   <dimension ref="A5:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -3678,19 +4215,21 @@
   <sheetData>
     <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4">
         <v>100</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C9" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3698,10 +4237,10 @@
         <v>101</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3709,10 +4248,10 @@
         <v>102</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3720,10 +4259,10 @@
         <v>103</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3731,10 +4270,10 @@
         <v>104</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3742,10 +4281,10 @@
         <v>105</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3753,10 +4292,10 @@
         <v>106</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3765,7 +4304,7 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3773,7 +4312,7 @@
         <v>108</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="3:3">
@@ -3787,41 +4326,41 @@
     </row>
     <row r="23" ht="28.5" spans="2:3">
       <c r="B23" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3847,7 +4386,7 @@
   <sheetData>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -5540,19 +6079,19 @@
         <v>22</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6397,7 +6936,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B167" s="1">
         <f>SUM(B131:B165)</f>
@@ -6427,7 +6966,7 @@
   <sheetPr/>
   <dimension ref="A12:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -6435,12 +6974,12 @@
   <sheetData>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28260" windowHeight="14265" activeTab="3"/>
+    <workbookView windowWidth="28260" windowHeight="14265" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="102">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -201,6 +201,9 @@
     <t>每击杀一个敌人，提高1攻击力</t>
   </si>
   <si>
+    <t>打击感不足</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -315,13 +318,13 @@
     <t>普通怪物</t>
   </si>
   <si>
-    <t>方</t>
+    <t>憎恶</t>
   </si>
   <si>
     <t>是普通怪物血量的2倍</t>
   </si>
   <si>
-    <t>三角</t>
+    <t>眼魔</t>
   </si>
   <si>
     <t>皮薄，但是会发射子弹</t>
@@ -333,7 +336,7 @@
     <t>移动速度较快</t>
   </si>
   <si>
-    <t>治疗</t>
+    <t>幽灵</t>
   </si>
   <si>
     <t>为周围的同伴恢复生命</t>
@@ -349,6 +352,9 @@
   </si>
   <si>
     <t>出生自带一个可抵挡2次攻击的护盾</t>
+  </si>
+  <si>
+    <t>食人花</t>
   </si>
   <si>
     <t>无法移动；定期发射3颗子弹，攻击频率高；</t>
@@ -4034,10 +4040,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A12:A18"/>
+  <dimension ref="A12:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4064,6 +4070,11 @@
     <row r="18" spans="1:1">
       <c r="A18" s="8" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4095,25 +4106,25 @@
   <sheetData>
     <row r="1" s="9" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" ht="273" customHeight="1" spans="1:7">
@@ -4121,72 +4132,72 @@
         <v>10000</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:7">
       <c r="A3" s="11"/>
       <c r="B3" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3" s="11"/>
       <c r="G3" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" ht="119" customHeight="1" spans="1:5">
       <c r="A4" s="11"/>
       <c r="B4" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" s="11"/>
     </row>
     <row r="5" ht="118" customHeight="1" spans="1:5">
       <c r="A5" s="11"/>
       <c r="B5" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" s="11"/>
     </row>
     <row r="6" ht="28.5" spans="2:3">
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" ht="98" customHeight="1"/>
@@ -4201,8 +4212,8 @@
   <sheetPr/>
   <dimension ref="A5:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -4215,10 +4226,10 @@
   <sheetData>
     <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4226,10 +4237,10 @@
         <v>100</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4237,10 +4248,10 @@
         <v>101</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4248,10 +4259,10 @@
         <v>102</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4259,10 +4270,10 @@
         <v>103</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4270,49 +4281,52 @@
         <v>104</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="4">
         <v>105</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>76</v>
+      <c r="B14" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="4">
         <v>106</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>78</v>
+      <c r="B15" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4">
         <v>107</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="C16" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>108</v>
       </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="3:3">
@@ -4326,41 +4340,41 @@
     </row>
     <row r="23" ht="28.5" spans="2:3">
       <c r="B23" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4386,7 +4400,7 @@
   <sheetData>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -6079,19 +6093,19 @@
         <v>22</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6936,7 +6950,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B167" s="1">
         <f>SUM(B131:B165)</f>
@@ -6967,19 +6981,19 @@
   <dimension ref="A12:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -348,7 +348,7 @@
     <t>朝周围发射6颗子弹</t>
   </si>
   <si>
-    <t>电磁蜘蛛</t>
+    <t>小蜘蛛</t>
   </si>
   <si>
     <t>出生自带一个可抵挡2次攻击的护盾</t>
@@ -4213,7 +4213,7 @@
   <dimension ref="A5:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -4302,7 +4302,7 @@
       <c r="A15" s="4">
         <v>106</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C15" s="4" t="s">

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="103">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -324,27 +324,27 @@
     <t>是普通怪物血量的2倍</t>
   </si>
   <si>
+    <t>黄蜂</t>
+  </si>
+  <si>
+    <t>皮薄，但是会发射子弹</t>
+  </si>
+  <si>
+    <t>蝙蝠</t>
+  </si>
+  <si>
+    <t>移动速度较快</t>
+  </si>
+  <si>
+    <t>幽灵</t>
+  </si>
+  <si>
+    <t>为周围的同伴恢复生命</t>
+  </si>
+  <si>
     <t>眼魔</t>
   </si>
   <si>
-    <t>皮薄，但是会发射子弹</t>
-  </si>
-  <si>
-    <t>蝙蝠</t>
-  </si>
-  <si>
-    <t>移动速度较快</t>
-  </si>
-  <si>
-    <t>幽灵</t>
-  </si>
-  <si>
-    <t>为周围的同伴恢复生命</t>
-  </si>
-  <si>
-    <t>1号小Boss</t>
-  </si>
-  <si>
     <t>朝周围发射6颗子弹</t>
   </si>
   <si>
@@ -360,7 +360,13 @@
     <t>无法移动；定期发射3颗子弹，攻击频率高；</t>
   </si>
   <si>
-    <t>为周围2个友方附加护盾</t>
+    <t>向四周喷吐2条蛛丝，碰撞到敌人则产生蛛网护盾</t>
+  </si>
+  <si>
+    <t>软泥怪</t>
+  </si>
+  <si>
+    <t>死亡后分裂成小软泥怪</t>
   </si>
   <si>
     <t>?</t>
@@ -370,12 +376,6 @@
 发射射线，射线旋转180度。</t>
   </si>
   <si>
-    <t>史莱姆</t>
-  </si>
-  <si>
-    <t>分裂成小怪</t>
-  </si>
-  <si>
     <t>场上有其他怪物时，射向此怪物的投射物将被反弹向其他怪物</t>
   </si>
   <si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t>暴击特效需要完善</t>
+  </si>
+  <si>
+    <t>蛛网的打击、破碎音效</t>
   </si>
   <si>
     <t>攻击消耗</t>
@@ -4210,17 +4213,17 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A5:C29"/>
+  <dimension ref="A5:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4258,7 +4261,7 @@
       <c r="A11" s="4">
         <v>102</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -4291,7 +4294,7 @@
       <c r="A14" s="4">
         <v>105</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -4329,6 +4332,17 @@
         <v>83</v>
       </c>
     </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>109</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="20" spans="3:3">
       <c r="C20" s="8"/>
     </row>
@@ -4340,40 +4354,32 @@
     </row>
     <row r="23" ht="28.5" spans="2:3">
       <c r="B23" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
       <c r="C25" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="C27" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
       <c r="C28" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4386,10 +4392,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A10"/>
+  <dimension ref="A10:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4401,6 +4407,11 @@
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -6093,19 +6104,19 @@
         <v>22</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6950,7 +6961,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B167" s="1">
         <f>SUM(B131:B165)</f>
@@ -6988,12 +6999,12 @@
   <sheetData>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="105">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -389,6 +389,12 @@
   </si>
   <si>
     <t>每次撞击墙壁会发射尖刺</t>
+  </si>
+  <si>
+    <t>木乃伊</t>
+  </si>
+  <si>
+    <t>骷髅</t>
   </si>
   <si>
     <t>暴击特效需要完善</t>
@@ -4213,10 +4219,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A5:C28"/>
+  <dimension ref="A5:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -4261,7 +4267,7 @@
       <c r="A11" s="4">
         <v>102</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -4381,6 +4387,16 @@
     <row r="28" spans="3:3">
       <c r="C28" s="1" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4406,12 +4422,12 @@
   <sheetData>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -6104,19 +6120,19 @@
         <v>22</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6961,7 +6977,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B167" s="1">
         <f>SUM(B131:B165)</f>
@@ -6999,12 +7015,12 @@
   <sheetData>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="106">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -367,6 +367,9 @@
   </si>
   <si>
     <t>死亡后分裂成小软泥怪</t>
+  </si>
+  <si>
+    <t>小软泥</t>
   </si>
   <si>
     <t>?</t>
@@ -4222,7 +4225,7 @@
   <dimension ref="A5:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -4322,7 +4325,7 @@
       <c r="A16" s="4">
         <v>107</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -4349,6 +4352,14 @@
         <v>85</v>
       </c>
     </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>110</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
     <row r="20" spans="3:3">
       <c r="C20" s="8"/>
     </row>
@@ -4360,43 +4371,43 @@
     </row>
     <row r="23" ht="28.5" spans="2:3">
       <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4422,12 +4433,12 @@
   <sheetData>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -6120,19 +6131,19 @@
         <v>22</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6977,7 +6988,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B167" s="1">
         <f>SUM(B131:B165)</f>
@@ -7015,12 +7026,12 @@
   <sheetData>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4225,7 +4225,7 @@
   <dimension ref="A5:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -4342,10 +4342,10 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
+      <c r="A18" s="4">
         <v>109</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -4353,10 +4353,10 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1">
+      <c r="A19" s="4">
         <v>110</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>86</v>
       </c>
     </row>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28260" windowHeight="14265" activeTab="5"/>
+    <workbookView windowWidth="28260" windowHeight="14265" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -12,10 +12,11 @@
     <sheet name="关卡数值" sheetId="16" r:id="rId3"/>
     <sheet name="头脑风暴" sheetId="13" r:id="rId4"/>
     <sheet name="武器" sheetId="11" r:id="rId5"/>
-    <sheet name="怪物" sheetId="9" r:id="rId6"/>
-    <sheet name="待完善" sheetId="18" r:id="rId7"/>
-    <sheet name="废弃" sheetId="14" r:id="rId8"/>
-    <sheet name="8.5" sheetId="20" r:id="rId9"/>
+    <sheet name="场景" sheetId="21" r:id="rId6"/>
+    <sheet name="怪物" sheetId="9" r:id="rId7"/>
+    <sheet name="待完善" sheetId="18" r:id="rId8"/>
+    <sheet name="废弃" sheetId="14" r:id="rId9"/>
+    <sheet name="8.5" sheetId="20" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="112">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -306,6 +307,21 @@
 可释放手里剑之类的</t>
   </si>
   <si>
+    <t>法阵草地</t>
+  </si>
+  <si>
+    <t>竞技场</t>
+  </si>
+  <si>
+    <t>圆塔</t>
+  </si>
+  <si>
+    <t>火山口</t>
+  </si>
+  <si>
+    <t>圆形法阵</t>
+  </si>
+  <si>
     <t>敌人是否拥有弱点？</t>
   </si>
   <si>
@@ -351,7 +367,7 @@
     <t>小蜘蛛</t>
   </si>
   <si>
-    <t>出生自带一个可抵挡2次攻击的护盾</t>
+    <t>出生自带一个可抵挡3次攻击的蛛网护盾</t>
   </si>
   <si>
     <t>食人花</t>
@@ -360,7 +376,10 @@
     <t>无法移动；定期发射3颗子弹，攻击频率高；</t>
   </si>
   <si>
-    <t>向四周喷吐2条蛛丝，碰撞到敌人则产生蛛网护盾</t>
+    <t>怪眼蜘蛛</t>
+  </si>
+  <si>
+    <t>周期性使2个友方产生蛛网护盾</t>
   </si>
   <si>
     <t>软泥怪</t>
@@ -1091,7 +1110,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1118,6 +1137,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1462,13 +1484,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="27" style="14" customWidth="1"/>
+    <col min="2" max="2" width="27" style="15" customWidth="1"/>
     <col min="3" max="3" width="92.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="114.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="114.125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="140" customHeight="1" spans="2:3">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1476,7 +1498,7 @@
       </c>
     </row>
     <row r="4" ht="101" customHeight="1" spans="2:3">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -1484,7 +1506,7 @@
       </c>
     </row>
     <row r="5" ht="101" customHeight="1" spans="2:3">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -1492,7 +1514,7 @@
       </c>
     </row>
     <row r="6" ht="103" customHeight="1" spans="2:3">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -1500,7 +1522,7 @@
       </c>
     </row>
     <row r="7" ht="103" customHeight="1" spans="2:3">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1508,7 +1530,7 @@
       </c>
     </row>
     <row r="8" ht="100" customHeight="1" spans="2:3">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -1516,20 +1538,47 @@
       </c>
     </row>
     <row r="9" ht="154" customHeight="1" spans="2:4">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" ht="76" customHeight="1" spans="2:3">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A12:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -4116,43 +4165,43 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="27" spans="1:7">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="10" customFormat="1" ht="27" spans="1:7">
+      <c r="A1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" ht="273" customHeight="1" spans="1:7">
-      <c r="A2" s="11">
+      <c r="A2" s="12">
         <v>10000</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>50</v>
       </c>
       <c r="F2" s="8" t="s">
@@ -4163,46 +4212,46 @@
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:7">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="12"/>
       <c r="G3" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" ht="119" customHeight="1" spans="1:5">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" ht="118" customHeight="1" spans="1:5">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" ht="28.5" spans="2:3">
       <c r="B6" s="1" t="s">
@@ -4222,10 +4271,56 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A8:A16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.75" style="9" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="1:1">
+      <c r="A8" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" ht="27" customHeight="1" spans="1:1">
+      <c r="A10" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A5:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -4238,10 +4333,10 @@
   <sheetData>
     <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4249,10 +4344,10 @@
         <v>100</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4260,10 +4355,10 @@
         <v>101</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4271,10 +4366,10 @@
         <v>102</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4282,10 +4377,10 @@
         <v>103</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4293,10 +4388,10 @@
         <v>104</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4304,10 +4399,10 @@
         <v>105</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4315,10 +4410,10 @@
         <v>106</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4326,19 +4421,21 @@
         <v>107</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
+      <c r="A17" s="4">
         <v>108</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="C17" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4346,10 +4443,10 @@
         <v>109</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4357,7 +4454,7 @@
         <v>110</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="3:3">
@@ -4371,43 +4468,43 @@
     </row>
     <row r="23" ht="28.5" spans="2:3">
       <c r="B23" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4416,13 +4513,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A10:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4432,13 +4529,13 @@
   </cols>
   <sheetData>
     <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>96</v>
+      <c r="A10" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4447,7 +4544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F167"/>
@@ -6131,19 +6228,19 @@
         <v>22</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6988,7 +7085,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B167" s="1">
         <f>SUM(B131:B165)</f>
@@ -7005,33 +7102,6 @@
       <c r="E167" s="1">
         <f>SUM(E131:E165)</f>
         <v>619.75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A12:A13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28260" windowHeight="14265" activeTab="7"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="189">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -307,7 +307,7 @@
 可释放手里剑之类的</t>
   </si>
   <si>
-    <t>法阵草地</t>
+    <t>草地</t>
   </si>
   <si>
     <t>竞技场</t>
@@ -328,6 +328,294 @@
     <t>比如火、冰、雷等弱点?</t>
   </si>
   <si>
+    <t xml:space="preserve">地图设计
+</t>
+  </si>
+  <si>
+    <t>草地森林</t>
+  </si>
+  <si>
+    <t>野兔</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>大地之熊</t>
+  </si>
+  <si>
+    <t>高血量</t>
+  </si>
+  <si>
+    <t>黄蜂</t>
+  </si>
+  <si>
+    <t>皮薄，但是会发射子弹</t>
+  </si>
+  <si>
+    <t>蝙蝠</t>
+  </si>
+  <si>
+    <t>移动速度较快</t>
+  </si>
+  <si>
+    <t>野兽王Boss</t>
+  </si>
+  <si>
+    <t>草原狼的王者，拥有强大的群体指挥能力，能召唤大量狼群协助战斗</t>
+  </si>
+  <si>
+    <t>树精</t>
+  </si>
+  <si>
+    <t>高防御力，能通过根须抓住玩家并进行远程攻击</t>
+  </si>
+  <si>
+    <t>藤蔓怪</t>
+  </si>
+  <si>
+    <t>能缠绕和减速玩家的植物型怪物</t>
+  </si>
+  <si>
+    <t>妖精女王Boss</t>
+  </si>
+  <si>
+    <t>控制森林的强大魔法生物，擅长使用迷惑和控制类技能，使玩家陷入混乱。</t>
+  </si>
+  <si>
+    <t>森林元素</t>
+  </si>
+  <si>
+    <t>由森林之力凝聚而成的元素生物，能操控植物攻击玩家</t>
+  </si>
+  <si>
+    <t>森林守护者Boss</t>
+  </si>
+  <si>
+    <t>巨大的树精首领，能够召唤藤蔓和森林生物助战，并且能治愈自己。</t>
+  </si>
+  <si>
+    <t>沙漠</t>
+  </si>
+  <si>
+    <t>沙漠蜥蜴</t>
+  </si>
+  <si>
+    <t>高速度和敏捷性，能潜伏在沙中并突然袭击玩家</t>
+  </si>
+  <si>
+    <t>巨蝎</t>
+  </si>
+  <si>
+    <t>拥有剧毒尾刺的巨型蝎子，攻击造成持续伤害</t>
+  </si>
+  <si>
+    <t>沙虫</t>
+  </si>
+  <si>
+    <t>描述：巨大的地下生物，能在沙漠地底穿行并突然冒出攻击。
+特点：高攻击力和生命值，难以预测其攻击位置。</t>
+  </si>
+  <si>
+    <t>仙人掌战士</t>
+  </si>
+  <si>
+    <t>由沙漠中的仙人掌变异而成的战士，攻击时会喷射毒刺</t>
+  </si>
+  <si>
+    <t>巨蝎皇Boss</t>
+  </si>
+  <si>
+    <t>攻击范围广且剧毒无比，能喷射毒液攻击远程目标。</t>
+  </si>
+  <si>
+    <t>幽灵</t>
+  </si>
+  <si>
+    <t>为周围的同伴恢复生命</t>
+  </si>
+  <si>
+    <t>沙暴精灵</t>
+  </si>
+  <si>
+    <t>能操控沙暴迷惑玩家视线的精灵型怪物。</t>
+  </si>
+  <si>
+    <t>沙漠之王Boss</t>
+  </si>
+  <si>
+    <t>统治沙漠的巨大沙虫，能引发沙暴并召唤小型沙虫协助战斗</t>
+  </si>
+  <si>
+    <t>沙傀儡</t>
+  </si>
+  <si>
+    <t>由沙土形成的巨型傀儡，具有很高的防御力和力量</t>
+  </si>
+  <si>
+    <t>沙之女皇Boss</t>
+  </si>
+  <si>
+    <t>强大的魔法生物，能操控沙尘暴并引发地面裂隙</t>
+  </si>
+  <si>
+    <t>雪地</t>
+  </si>
+  <si>
+    <t>雪熊</t>
+  </si>
+  <si>
+    <t>描述：巨大的白熊，擅长在雪地中狩猎。
+特点：强大的近战能力，厚实的毛皮提供额外防御，攻击时会造成减速效果。</t>
+  </si>
+  <si>
+    <t>雪狼</t>
+  </si>
+  <si>
+    <t>在雪地中行动迅捷的狼类生物，攻击时会导致出血效果</t>
+  </si>
+  <si>
+    <t>冰霜元素</t>
+  </si>
+  <si>
+    <t>描述：由冰霜能量凝聚成的元素生物。
+特点：远程攻击可以冻结玩家，制造冰墙阻碍玩家的移动。</t>
+  </si>
+  <si>
+    <t>冰霜巨魔</t>
+  </si>
+  <si>
+    <t>高防御力的巨型怪物，擅长近战攻击，能承受大量伤害</t>
+  </si>
+  <si>
+    <t>霜巨人Boss</t>
+  </si>
+  <si>
+    <t>拥有庞大身躯的巨人，能引发大规模的冰霜冲击，并操控冰雪形成屏障。</t>
+  </si>
+  <si>
+    <t>冰晶战士</t>
+  </si>
+  <si>
+    <t>由冰晶凝聚而成的战士，能够反射部分伤害</t>
+  </si>
+  <si>
+    <t>冰风暴幽灵</t>
+  </si>
+  <si>
+    <t>能引发冰风暴困扰玩家视线，并造成持续冰冻伤害</t>
+  </si>
+  <si>
+    <t>冰龙Boss</t>
+  </si>
+  <si>
+    <t>强大的冰系龙，能喷吐寒冰之息冻结整个战场，并召唤冰霜巨兵助战。</t>
+  </si>
+  <si>
+    <t>雪地恶魔</t>
+  </si>
+  <si>
+    <t>潜伏在雪地下的恶魔，能突然从地底冒出发动攻击</t>
+  </si>
+  <si>
+    <t>极地之主Boss</t>
+  </si>
+  <si>
+    <t>控制雪地的强大存在，能够在战斗中改变天气，召唤暴风雪攻击玩家。</t>
+  </si>
+  <si>
+    <t>毒气沼泽</t>
+  </si>
+  <si>
+    <t>毒蛇</t>
+  </si>
+  <si>
+    <t>描述：隐藏在沼泽中的剧毒蛇类。
+特点：迅速、致命的攻击，毒液能持续造成伤害，并且可能使玩家中毒。</t>
+  </si>
+  <si>
+    <t>软泥怪</t>
+  </si>
+  <si>
+    <t>死亡后分裂成小软泥怪</t>
+  </si>
+  <si>
+    <t>食人花</t>
+  </si>
+  <si>
+    <t>无法移动；定期发射3颗子弹，攻击频率高；</t>
+  </si>
+  <si>
+    <t>小蜘蛛</t>
+  </si>
+  <si>
+    <t>出生自带一个可抵挡3次攻击的蛛网护盾</t>
+  </si>
+  <si>
+    <t>怪眼蜘蛛Boss</t>
+  </si>
+  <si>
+    <t>周期性使2个友方产生蛛网护盾</t>
+  </si>
+  <si>
+    <t>腐蚀魔</t>
+  </si>
+  <si>
+    <t>描述：由毒气和废弃物形成的恶魔，散发着强烈的腐蚀性气息。
+特点：近战和远程攻击都带有毒性，能腐蚀玩家的装备，减少玩家的防御力。</t>
+  </si>
+  <si>
+    <t>瘟疫使者</t>
+  </si>
+  <si>
+    <t>描述：传染瘟疫的怪物，周围弥漫着致命的病毒。
+特点：能在战斗中生成瘟疫区域，进入其中的玩家会受到持续伤害和减益效果，且瘟疫会扩散到其他区域。</t>
+  </si>
+  <si>
+    <t>腐化之王</t>
+  </si>
+  <si>
+    <t>沼泽中的霸主，能够操控毒气并引发地震，腐蚀一切接触到的物体。</t>
+  </si>
+  <si>
+    <t>腐沼泥龙</t>
+  </si>
+  <si>
+    <t>小型龙类生物，能在泥泞地形中快速移动，并释放毒液攻击。</t>
+  </si>
+  <si>
+    <t>泥沼巨兽Boss</t>
+  </si>
+  <si>
+    <t>巨大的泥沼怪物，拥有极高的生命值和防御力，能引发泥石流淹没战场。</t>
+  </si>
+  <si>
+    <t>火山地带</t>
+  </si>
+  <si>
+    <t>熔岩巨人</t>
+  </si>
+  <si>
+    <t>描述：由熔岩构成的巨型怪物，拥有极高的攻击力。
+特点：能发射岩浆球进行远程攻击，接触会造成燃烧伤害，且能恢复生命值。</t>
+  </si>
+  <si>
+    <t>火蜥蜴</t>
+  </si>
+  <si>
+    <t>描述：生活在火山地带的生物，能在岩浆中自由穿梭。
+特点：快速移动，能吐出火焰攻击玩家，火焰攻击具有溅射效果。</t>
+  </si>
+  <si>
+    <t>火焰蚁</t>
+  </si>
+  <si>
+    <t>攻击时会造成灼烧伤害。</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>小僵尸</t>
   </si>
   <si>
@@ -340,58 +628,10 @@
     <t>是普通怪物血量的2倍</t>
   </si>
   <si>
-    <t>黄蜂</t>
-  </si>
-  <si>
-    <t>皮薄，但是会发射子弹</t>
-  </si>
-  <si>
-    <t>蝙蝠</t>
-  </si>
-  <si>
-    <t>移动速度较快</t>
-  </si>
-  <si>
-    <t>幽灵</t>
-  </si>
-  <si>
-    <t>为周围的同伴恢复生命</t>
-  </si>
-  <si>
     <t>眼魔</t>
   </si>
   <si>
     <t>朝周围发射6颗子弹</t>
-  </si>
-  <si>
-    <t>小蜘蛛</t>
-  </si>
-  <si>
-    <t>出生自带一个可抵挡3次攻击的蛛网护盾</t>
-  </si>
-  <si>
-    <t>食人花</t>
-  </si>
-  <si>
-    <t>无法移动；定期发射3颗子弹，攻击频率高；</t>
-  </si>
-  <si>
-    <t>怪眼蜘蛛</t>
-  </si>
-  <si>
-    <t>周期性使2个友方产生蛛网护盾</t>
-  </si>
-  <si>
-    <t>软泥怪</t>
-  </si>
-  <si>
-    <t>死亡后分裂成小软泥怪</t>
-  </si>
-  <si>
-    <t>小软泥</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>会发射子弹。
@@ -459,7 +699,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,6 +715,18 @@
     </font>
     <font>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="方正粗黑宋简体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="方正粗黑宋简体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="方正粗黑宋简体"/>
       <charset val="134"/>
@@ -687,6 +939,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -826,12 +1084,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,137 +1232,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1135,16 +1387,31 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1156,13 +1423,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1478,76 +1745,76 @@
   <sheetPr/>
   <dimension ref="B3:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="27" style="15" customWidth="1"/>
+    <col min="2" max="2" width="27" style="20" customWidth="1"/>
     <col min="3" max="3" width="92.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="114.125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="114.125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="140" customHeight="1" spans="2:3">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="101" customHeight="1" spans="2:3">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="101" customHeight="1" spans="2:3">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="103" customHeight="1" spans="2:3">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="103" customHeight="1" spans="2:3">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="100" customHeight="1" spans="2:3">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" ht="154" customHeight="1" spans="2:4">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" ht="76" customHeight="1" spans="2:3">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1573,12 +1840,12 @@
   <sheetData>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4114,12 +4381,12 @@
   </cols>
   <sheetData>
     <row r="12" ht="219" customHeight="1" spans="1:1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4129,7 +4396,7 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="11" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4165,46 +4432,46 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="27" spans="1:7">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="15" customFormat="1" ht="27" spans="1:7">
+      <c r="A1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" ht="273" customHeight="1" spans="1:7">
-      <c r="A2" s="12">
+      <c r="A2" s="17">
         <v>10000</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="11" t="s">
         <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -4212,52 +4479,52 @@
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:7">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="17"/>
       <c r="G3" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" ht="119" customHeight="1" spans="1:5">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" ht="118" customHeight="1" spans="1:5">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" ht="28.5" spans="2:3">
       <c r="B6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="11" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4274,37 +4541,37 @@
   <dimension ref="A8:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="9" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="79.125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="1:1">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1" spans="1:1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4317,194 +4584,686 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A5:C36"/>
+  <dimension ref="A5:E95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="29.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="61" style="1" customWidth="1"/>
+    <col min="5" max="5" width="53.75" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:4">
       <c r="B5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4">
+    <row r="7" ht="63" customHeight="1" spans="2:3">
+      <c r="B7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="10" ht="16.5" spans="2:5">
+      <c r="B10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="10">
         <v>100</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4">
+      <c r="D10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="2:5">
+      <c r="B11" s="9"/>
+      <c r="C11" s="10">
         <v>101</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4">
+      <c r="D11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="2:5">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10">
         <v>102</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="4">
+      <c r="D12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="C13" s="4">
         <v>103</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4">
+      <c r="D13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="1">
         <v>104</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4">
+      <c r="D14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="C15" s="1">
         <v>105</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4">
+      <c r="D15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="C16" s="1">
         <v>106</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4">
+      <c r="D16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="2:5">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9">
         <v>107</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="4">
+      <c r="D17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="2:5">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9">
         <v>108</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4">
+      <c r="D18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="2:5">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9">
         <v>109</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="4">
+      <c r="D19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="2:3">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" ht="16.5" spans="2:3">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" ht="16.5" spans="2:3">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" ht="16.5" spans="2:3">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" ht="16.5" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" ht="16.5" spans="2:3">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" ht="16.5" spans="2:3">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" ht="16.5" spans="2:3">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" ht="16.5" spans="2:5">
+      <c r="B28" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="9">
+        <v>200</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="2:5">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9">
+        <v>201</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" ht="42.75" spans="3:5">
+      <c r="C30" s="1">
+        <v>202</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="C31" s="1">
+        <v>203</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5">
+      <c r="C32" s="1">
+        <v>204</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="4">
+        <v>205</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34" s="1">
+        <v>206</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35" s="1">
+        <v>207</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" ht="28.5" spans="2:3">
-      <c r="B23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="1" t="s">
-        <v>101</v>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" s="1">
+        <v>208</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37" s="1">
+        <v>209</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5" spans="2:5">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" ht="16.5" spans="2:5">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" ht="16.5" spans="2:5">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" ht="16.5" spans="2:5">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" ht="42.75" spans="2:5">
+      <c r="B42" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="9">
+        <v>300</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="C43" s="1">
+        <v>301</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" ht="28.5" spans="3:5">
+      <c r="C44" s="1">
+        <v>302</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="C45" s="1">
+        <v>303</v>
+      </c>
+      <c r="D45" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5">
+      <c r="C46" s="1">
+        <v>304</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5">
+      <c r="C47" s="1">
+        <v>305</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5">
+      <c r="C48" s="1">
+        <v>306</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5">
+      <c r="C49" s="1">
+        <v>307</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5">
+      <c r="C50" s="1">
+        <v>308</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5">
+      <c r="C51" s="1">
+        <v>309</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" ht="42.75" spans="2:5">
+      <c r="B53" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="9">
+        <v>400</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5">
+      <c r="C54" s="1">
+        <v>401</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5">
+      <c r="C55" s="1">
+        <v>402</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5">
+      <c r="C56" s="1">
+        <v>403</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5">
+      <c r="C57" s="1">
+        <v>404</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" ht="57" spans="3:5">
+      <c r="C58" s="1">
+        <v>405</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" ht="42.75" spans="3:5">
+      <c r="C59" s="1">
+        <v>406</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" ht="28.5" spans="2:5">
+      <c r="B60" s="9"/>
+      <c r="C60" s="1">
+        <v>407</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" ht="28.5" spans="2:5">
+      <c r="B61" s="9"/>
+      <c r="C61" s="1">
+        <v>408</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" ht="28.5" spans="2:5">
+      <c r="B62" s="9"/>
+      <c r="C62" s="1">
+        <v>409</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" ht="16.5" spans="2:5">
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="E63" s="11"/>
+    </row>
+    <row r="64" ht="16.5" spans="2:5">
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="E64" s="11"/>
+    </row>
+    <row r="65" ht="42.75" spans="2:5">
+      <c r="B65" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" ht="40.5" spans="4:5">
+      <c r="D66" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5">
+      <c r="D67" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E67" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4">
+      <c r="D74" s="11"/>
+    </row>
+    <row r="75" spans="4:4">
+      <c r="D75" s="11"/>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="D76" s="11"/>
+    </row>
+    <row r="77" spans="4:4">
+      <c r="D77" s="11"/>
+    </row>
+    <row r="78" spans="4:4">
+      <c r="D78" s="11"/>
+    </row>
+    <row r="79" spans="4:4">
+      <c r="D79" s="11"/>
+    </row>
+    <row r="80" spans="4:4">
+      <c r="D80" s="11"/>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81" s="11"/>
+    </row>
+    <row r="82" ht="28.5" spans="2:4">
+      <c r="B82" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4">
+      <c r="D84" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4">
+      <c r="D85" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4">
+      <c r="D87" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4518,7 +5277,7 @@
   <sheetPr/>
   <dimension ref="A10:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -4530,12 +5289,12 @@
   <sheetData>
     <row r="10" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>102</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>103</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6228,19 +6987,19 @@
         <v>22</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -7085,7 +7844,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="B167" s="1">
         <f>SUM(B131:B165)</f>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="6"/>
+    <workbookView windowWidth="26265" windowHeight="14265" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="191">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -359,10 +359,10 @@
     <t>移动速度较快</t>
   </si>
   <si>
-    <t>野兽王Boss</t>
-  </si>
-  <si>
-    <t>草原狼的王者，拥有强大的群体指挥能力，能召唤大量狼群协助战斗</t>
+    <t>狼王Boss</t>
+  </si>
+  <si>
+    <t>能召唤大量二哈协助战斗</t>
   </si>
   <si>
     <t>树精</t>
@@ -393,6 +393,12 @@
   </si>
   <si>
     <t>巨大的树精首领，能够召唤藤蔓和森林生物助战，并且能治愈自己。</t>
+  </si>
+  <si>
+    <t>二哈</t>
+  </si>
+  <si>
+    <t>狼王Boss召唤出的产物</t>
   </si>
   <si>
     <t>沙漠</t>
@@ -1840,12 +1846,12 @@
   <sheetData>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4586,8 +4592,8 @@
   <sheetPr/>
   <dimension ref="A5:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -4664,13 +4670,13 @@
       </c>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>104</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4740,9 +4746,17 @@
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
     </row>
-    <row r="22" ht="16.5" spans="2:3">
+    <row r="22" ht="16.5" spans="2:5">
       <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
+      <c r="C22" s="9">
+        <v>150</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="23" ht="16.5" spans="2:3">
       <c r="B23" s="9"/>
@@ -4766,16 +4780,16 @@
     </row>
     <row r="28" ht="16.5" spans="2:5">
       <c r="B28" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C28" s="9">
         <v>200</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="2:5">
@@ -4784,10 +4798,10 @@
         <v>201</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" ht="42.75" spans="3:5">
@@ -4795,10 +4809,10 @@
         <v>202</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="3:5">
@@ -4806,10 +4820,10 @@
         <v>203</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="3:5">
@@ -4817,10 +4831,10 @@
         <v>204</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="3:5">
@@ -4828,10 +4842,10 @@
         <v>205</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="3:5">
@@ -4839,10 +4853,10 @@
         <v>206</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="3:5">
@@ -4850,10 +4864,10 @@
         <v>207</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="3:5">
@@ -4861,10 +4875,10 @@
         <v>208</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="3:5">
@@ -4872,10 +4886,10 @@
         <v>209</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="2:5">
@@ -4900,16 +4914,16 @@
     </row>
     <row r="42" ht="42.75" spans="2:5">
       <c r="B42" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C42" s="9">
         <v>300</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="3:5">
@@ -4917,10 +4931,10 @@
         <v>301</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" ht="28.5" spans="3:5">
@@ -4928,10 +4942,10 @@
         <v>302</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="3:5">
@@ -4939,10 +4953,10 @@
         <v>303</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="3:5">
@@ -4950,10 +4964,10 @@
         <v>304</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="3:5">
@@ -4961,10 +4975,10 @@
         <v>305</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="3:5">
@@ -4972,10 +4986,10 @@
         <v>306</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="3:5">
@@ -4983,10 +4997,10 @@
         <v>307</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="3:5">
@@ -4994,10 +5008,10 @@
         <v>308</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="3:5">
@@ -5005,24 +5019,24 @@
         <v>309</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" ht="42.75" spans="2:5">
       <c r="B53" s="9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C53" s="9">
         <v>400</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="3:5">
@@ -5030,10 +5044,10 @@
         <v>401</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="3:5">
@@ -5041,10 +5055,10 @@
         <v>402</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="3:5">
@@ -5052,10 +5066,10 @@
         <v>403</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="3:5">
@@ -5063,10 +5077,10 @@
         <v>404</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" ht="57" spans="3:5">
@@ -5074,10 +5088,10 @@
         <v>405</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" ht="42.75" spans="3:5">
@@ -5085,10 +5099,10 @@
         <v>406</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" ht="28.5" spans="2:5">
@@ -5097,10 +5111,10 @@
         <v>407</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" ht="28.5" spans="2:5">
@@ -5109,10 +5123,10 @@
         <v>408</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" ht="28.5" spans="2:5">
@@ -5121,10 +5135,10 @@
         <v>409</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" ht="16.5" spans="2:5">
@@ -5139,66 +5153,66 @@
     </row>
     <row r="65" ht="42.75" spans="2:5">
       <c r="B65" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" ht="40.5" spans="4:5">
       <c r="D66" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="4:5">
       <c r="D67" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E67" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C71" s="14"/>
       <c r="D71" s="14" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C72" s="14"/>
       <c r="D72" s="14" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C73" s="14"/>
       <c r="D73" s="14" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="4:4">
@@ -5227,43 +5241,43 @@
     </row>
     <row r="82" ht="28.5" spans="2:4">
       <c r="B82" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="4:4">
       <c r="D84" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="4:4">
       <c r="D85" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="4:4">
       <c r="D87" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5289,12 +5303,12 @@
   <sheetData>
     <row r="10" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6987,19 +7001,19 @@
         <v>22</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -7844,7 +7858,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B167" s="1">
         <f>SUM(B131:B165)</f>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="193">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -368,13 +368,13 @@
     <t>树精</t>
   </si>
   <si>
-    <t>高防御力，能通过根须抓住玩家并进行远程攻击</t>
-  </si>
-  <si>
-    <t>藤蔓怪</t>
-  </si>
-  <si>
-    <t>能缠绕和减速玩家的植物型怪物</t>
+    <t>可缠绕减速敌人</t>
+  </si>
+  <si>
+    <t>石头人</t>
+  </si>
+  <si>
+    <t>高血量且能发射子弹</t>
   </si>
   <si>
     <t>妖精女王Boss</t>
@@ -389,10 +389,10 @@
     <t>由森林之力凝聚而成的元素生物，能操控植物攻击玩家</t>
   </si>
   <si>
-    <t>森林守护者Boss</t>
-  </si>
-  <si>
-    <t>巨大的树精首领，能够召唤藤蔓和森林生物助战，并且能治愈自己。</t>
+    <t>鹿首精Boss</t>
+  </si>
+  <si>
+    <t>可在成功闪避攻击时发射子弹|周期性治疗自己</t>
   </si>
   <si>
     <t>二哈</t>
@@ -619,6 +619,9 @@
     <t>攻击时会造成灼烧伤害。</t>
   </si>
   <si>
+    <t>火苗</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
@@ -666,6 +669,9 @@
   </si>
   <si>
     <t>暴击特效需要完善</t>
+  </si>
+  <si>
+    <t>闪避特效</t>
   </si>
   <si>
     <t>蛛网的打击、破碎音效</t>
@@ -1846,12 +1852,12 @@
   <sheetData>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4593,7 +4599,7 @@
   <dimension ref="A5:E95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -4681,24 +4687,24 @@
       </c>
     </row>
     <row r="15" spans="3:5">
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>105</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="16" spans="3:5">
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>106</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4728,13 +4734,13 @@
     </row>
     <row r="19" ht="16.5" spans="2:5">
       <c r="B19" s="9"/>
-      <c r="C19" s="9">
+      <c r="C19" s="10">
         <v>109</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4748,13 +4754,13 @@
     </row>
     <row r="22" ht="16.5" spans="2:5">
       <c r="B22" s="9"/>
-      <c r="C22" s="9">
+      <c r="C22" s="10">
         <v>150</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="4" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5179,40 +5185,45 @@
         <v>165</v>
       </c>
     </row>
+    <row r="68" spans="4:4">
+      <c r="D68" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
     <row r="71" spans="1:4">
       <c r="A71" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C71" s="14"/>
       <c r="D71" s="14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C72" s="14"/>
       <c r="D72" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C73" s="14"/>
       <c r="D73" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="4:4">
@@ -5241,43 +5252,43 @@
     </row>
     <row r="82" ht="28.5" spans="2:4">
       <c r="B82" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="4:4">
       <c r="D84" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="85" spans="4:4">
       <c r="D85" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="4:4">
       <c r="D87" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -5292,7 +5303,7 @@
   <dimension ref="A10:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5303,12 +5314,17 @@
   <sheetData>
     <row r="10" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -7001,19 +7017,19 @@
         <v>22</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -7858,7 +7874,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B167" s="1">
         <f>SUM(B131:B165)</f>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -368,7 +368,7 @@
     <t>树精</t>
   </si>
   <si>
-    <t>可缠绕减速敌人</t>
+    <t>在场地边缘生成藤曼，可减速路过的敌人</t>
   </si>
   <si>
     <t>石头人</t>
@@ -377,10 +377,10 @@
     <t>高血量且能发射子弹</t>
   </si>
   <si>
-    <t>妖精女王Boss</t>
-  </si>
-  <si>
-    <t>控制森林的强大魔法生物，擅长使用迷惑和控制类技能，使玩家陷入混乱。</t>
+    <t>红蛙Boss</t>
+  </si>
+  <si>
+    <t>擅长使用迷惑和控制类技能，使玩家陷入混乱。</t>
   </si>
   <si>
     <t>森林元素</t>
@@ -4599,7 +4599,7 @@
   <dimension ref="A5:E95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -5318,7 +5318,7 @@
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>183</v>
       </c>
     </row>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26265" windowHeight="14265" activeTab="6"/>
+    <workbookView windowWidth="26265" windowHeight="14265" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -341,7 +341,7 @@
     <t>普通</t>
   </si>
   <si>
-    <t>大地之熊</t>
+    <t>熊</t>
   </si>
   <si>
     <t>高血量</t>
@@ -371,22 +371,19 @@
     <t>在场地边缘生成藤曼，可减速路过的敌人</t>
   </si>
   <si>
+    <t>猩猩</t>
+  </si>
+  <si>
+    <t>红蛙Boss</t>
+  </si>
+  <si>
+    <t>擅长使用迷惑和控制类技能，使玩家陷入混乱。</t>
+  </si>
+  <si>
     <t>石头人</t>
   </si>
   <si>
     <t>高血量且能发射子弹</t>
-  </si>
-  <si>
-    <t>红蛙Boss</t>
-  </si>
-  <si>
-    <t>擅长使用迷惑和控制类技能，使玩家陷入混乱。</t>
-  </si>
-  <si>
-    <t>森林元素</t>
-  </si>
-  <si>
-    <t>由森林之力凝聚而成的元素生物，能操控植物攻击玩家</t>
   </si>
   <si>
     <t>鹿首精Boss</t>
@@ -675,6 +672,9 @@
   </si>
   <si>
     <t>蛛网的打击、破碎音效</t>
+  </si>
+  <si>
+    <t>像素格式改版</t>
   </si>
   <si>
     <t>攻击消耗</t>
@@ -4598,8 +4598,8 @@
   <sheetPr/>
   <dimension ref="A5:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -4698,38 +4698,36 @@
       </c>
     </row>
     <row r="16" spans="3:5">
-      <c r="C16" s="4">
+      <c r="C16" s="5">
         <v>106</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" ht="16.5" spans="2:5">
       <c r="B17" s="9"/>
-      <c r="C17" s="9">
+      <c r="C17" s="10">
         <v>107</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="2:5">
       <c r="B18" s="9"/>
-      <c r="C18" s="9">
+      <c r="C18" s="10">
         <v>108</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="2:5">
@@ -4738,10 +4736,10 @@
         <v>109</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="2:3">
@@ -4758,10 +4756,10 @@
         <v>150</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="2:3">
@@ -4786,16 +4784,16 @@
     </row>
     <row r="28" ht="16.5" spans="2:5">
       <c r="B28" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="9">
         <v>200</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="2:5">
@@ -4804,10 +4802,10 @@
         <v>201</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="30" ht="42.75" spans="3:5">
@@ -4815,10 +4813,10 @@
         <v>202</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="31" spans="3:5">
@@ -4826,10 +4824,10 @@
         <v>203</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="32" spans="3:5">
@@ -4837,10 +4835,10 @@
         <v>204</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="33" spans="3:5">
@@ -4848,10 +4846,10 @@
         <v>205</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="34" spans="3:5">
@@ -4859,10 +4857,10 @@
         <v>206</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="35" spans="3:5">
@@ -4870,10 +4868,10 @@
         <v>207</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="36" spans="3:5">
@@ -4881,10 +4879,10 @@
         <v>208</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="37" spans="3:5">
@@ -4892,10 +4890,10 @@
         <v>209</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="2:5">
@@ -4920,16 +4918,16 @@
     </row>
     <row r="42" ht="42.75" spans="2:5">
       <c r="B42" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C42" s="9">
         <v>300</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="43" spans="3:5">
@@ -4937,10 +4935,10 @@
         <v>301</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="11" t="s">
         <v>120</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="44" ht="28.5" spans="3:5">
@@ -4948,10 +4946,10 @@
         <v>302</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="45" spans="3:5">
@@ -4959,10 +4957,10 @@
         <v>303</v>
       </c>
       <c r="D45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="46" spans="3:5">
@@ -4970,10 +4968,10 @@
         <v>304</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="47" spans="3:5">
@@ -4981,10 +4979,10 @@
         <v>305</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="48" spans="3:5">
@@ -4992,10 +4990,10 @@
         <v>306</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="49" spans="3:5">
@@ -5003,10 +5001,10 @@
         <v>307</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="50" spans="3:5">
@@ -5014,10 +5012,10 @@
         <v>308</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="51" spans="3:5">
@@ -5025,24 +5023,24 @@
         <v>309</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="53" ht="42.75" spans="2:5">
       <c r="B53" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C53" s="9">
         <v>400</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E53" s="11" t="s">
         <v>139</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="54" spans="3:5">
@@ -5050,10 +5048,10 @@
         <v>401</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="55" spans="3:5">
@@ -5061,10 +5059,10 @@
         <v>402</v>
       </c>
       <c r="D55" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E55" s="12" t="s">
         <v>143</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="56" spans="3:5">
@@ -5072,10 +5070,10 @@
         <v>403</v>
       </c>
       <c r="D56" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E56" s="12" t="s">
         <v>145</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="57" spans="3:5">
@@ -5083,10 +5081,10 @@
         <v>404</v>
       </c>
       <c r="D57" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E57" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="58" ht="57" spans="3:5">
@@ -5094,10 +5092,10 @@
         <v>405</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E58" s="11" t="s">
         <v>149</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="59" ht="42.75" spans="3:5">
@@ -5105,10 +5103,10 @@
         <v>406</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E59" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="60" ht="28.5" spans="2:5">
@@ -5117,10 +5115,10 @@
         <v>407</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E60" s="11" t="s">
         <v>153</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="61" ht="28.5" spans="2:5">
@@ -5129,10 +5127,10 @@
         <v>408</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E61" s="11" t="s">
         <v>155</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="62" ht="28.5" spans="2:5">
@@ -5141,10 +5139,10 @@
         <v>409</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E62" s="11" t="s">
         <v>157</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="63" ht="16.5" spans="2:5">
@@ -5159,71 +5157,71 @@
     </row>
     <row r="65" ht="42.75" spans="2:5">
       <c r="B65" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E65" s="11" t="s">
         <v>160</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="66" ht="40.5" spans="4:5">
       <c r="D66" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E66" s="13" t="s">
         <v>162</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="67" spans="4:5">
       <c r="D67" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E67" t="s">
         <v>164</v>
-      </c>
-      <c r="E67" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B71" s="14" t="s">
         <v>167</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>168</v>
       </c>
       <c r="C71" s="14"/>
       <c r="D71" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C72" s="14"/>
       <c r="D72" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C73" s="14"/>
       <c r="D73" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="4:4">
@@ -5252,43 +5250,43 @@
     </row>
     <row r="82" ht="28.5" spans="2:4">
       <c r="B82" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="4:4">
       <c r="D84" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="4:4">
       <c r="D85" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="87" spans="4:4">
       <c r="D87" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5300,10 +5298,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A10:A13"/>
+  <dimension ref="A10:A27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5314,16 +5312,21 @@
   <sheetData>
     <row r="10" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
         <v>184</v>
       </c>
     </row>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="194">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -671,10 +671,13 @@
     <t>闪避特效</t>
   </si>
   <si>
+    <t>像素格式改版</t>
+  </si>
+  <si>
     <t>蛛网的打击、破碎音效</t>
   </si>
   <si>
-    <t>像素格式改版</t>
+    <t>考虑把局外成长做成局内的肉鸽？</t>
   </si>
   <si>
     <t>攻击消耗</t>
@@ -1852,12 +1855,12 @@
   <sheetData>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -5298,10 +5301,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A10:A27"/>
+  <dimension ref="A10:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5320,14 +5323,19 @@
         <v>182</v>
       </c>
     </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
         <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -7020,19 +7028,19 @@
         <v>22</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -7877,7 +7885,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B167" s="1">
         <f>SUM(B131:B165)</f>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26265" windowHeight="14265" activeTab="7"/>
+    <workbookView windowWidth="26265" windowHeight="14265" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="193">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -371,7 +371,10 @@
     <t>在场地边缘生成藤曼，可减速路过的敌人</t>
   </si>
   <si>
-    <t>猩猩</t>
+    <t>食人花</t>
+  </si>
+  <si>
+    <t>无法移动；定期发射3颗子弹，攻击频率高；</t>
   </si>
   <si>
     <t>红蛙Boss</t>
@@ -541,12 +544,6 @@
   </si>
   <si>
     <t>死亡后分裂成小软泥怪</t>
-  </si>
-  <si>
-    <t>食人花</t>
-  </si>
-  <si>
-    <t>无法移动；定期发射3颗子弹，攻击频率高；</t>
   </si>
   <si>
     <t>小蜘蛛</t>
@@ -1377,7 +1374,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1411,10 +1408,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1766,70 +1766,70 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="27" style="20" customWidth="1"/>
+    <col min="2" max="2" width="27" style="21" customWidth="1"/>
     <col min="3" max="3" width="92.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="114.125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="114.125" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="140" customHeight="1" spans="2:3">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="101" customHeight="1" spans="2:3">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="101" customHeight="1" spans="2:3">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="103" customHeight="1" spans="2:3">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="103" customHeight="1" spans="2:3">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="100" customHeight="1" spans="2:3">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" ht="154" customHeight="1" spans="2:4">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="22"/>
+      <c r="D9" s="23"/>
     </row>
     <row r="10" ht="76" customHeight="1" spans="2:3">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1855,12 +1855,12 @@
   <sheetData>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4396,12 +4396,12 @@
   </cols>
   <sheetData>
     <row r="12" ht="219" customHeight="1" spans="1:1">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4447,46 +4447,46 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" ht="27" spans="1:7">
-      <c r="A1" s="16" t="s">
+    <row r="1" s="16" customFormat="1" ht="27" spans="1:7">
+      <c r="A1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" ht="273" customHeight="1" spans="1:7">
-      <c r="A2" s="17">
+      <c r="A2" s="18">
         <v>10000</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -4494,52 +4494,52 @@
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:7">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="18"/>
       <c r="G3" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" ht="119" customHeight="1" spans="1:5">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" ht="118" customHeight="1" spans="1:5">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="17"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" ht="28.5" spans="2:3">
       <c r="B6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4601,8 +4601,8 @@
   <sheetPr/>
   <dimension ref="A5:E95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -4701,13 +4701,15 @@
       </c>
     </row>
     <row r="16" spans="3:5">
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>106</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="11" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="17" ht="16.5" spans="2:5">
       <c r="B17" s="9"/>
@@ -4715,10 +4717,10 @@
         <v>107</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="2:5">
@@ -4727,10 +4729,10 @@
         <v>108</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="2:5">
@@ -4739,10 +4741,10 @@
         <v>109</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="2:3">
@@ -4759,10 +4761,10 @@
         <v>150</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="2:3">
@@ -4787,16 +4789,16 @@
     </row>
     <row r="28" ht="16.5" spans="2:5">
       <c r="B28" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C28" s="9">
         <v>200</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="2:5">
@@ -4805,10 +4807,10 @@
         <v>201</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" ht="42.75" spans="3:5">
@@ -4816,10 +4818,10 @@
         <v>202</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" s="11" t="s">
         <v>101</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="3:5">
@@ -4827,10 +4829,10 @@
         <v>203</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="3:5">
@@ -4838,10 +4840,10 @@
         <v>204</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="3:5">
@@ -4849,10 +4851,10 @@
         <v>205</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="3:5">
@@ -4860,10 +4862,10 @@
         <v>206</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="3:5">
@@ -4871,10 +4873,10 @@
         <v>207</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="3:5">
@@ -4882,10 +4884,10 @@
         <v>208</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="3:5">
@@ -4893,44 +4895,44 @@
         <v>209</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="2:5">
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
-      <c r="E38" s="11"/>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" ht="16.5" spans="2:5">
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
-      <c r="E39" s="11"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" ht="16.5" spans="2:5">
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
-      <c r="E40" s="11"/>
+      <c r="E40" s="12"/>
     </row>
     <row r="41" ht="16.5" spans="2:5">
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
-      <c r="E41" s="11"/>
+      <c r="E41" s="12"/>
     </row>
     <row r="42" ht="42.75" spans="2:5">
       <c r="B42" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C42" s="9">
         <v>300</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E42" s="11" t="s">
         <v>118</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="3:5">
@@ -4938,10 +4940,10 @@
         <v>301</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E43" s="11" t="s">
         <v>120</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="44" ht="28.5" spans="3:5">
@@ -4949,10 +4951,10 @@
         <v>302</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E44" s="11" t="s">
         <v>122</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="3:5">
@@ -4960,10 +4962,10 @@
         <v>303</v>
       </c>
       <c r="D45" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="3:5">
@@ -4971,10 +4973,10 @@
         <v>304</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="3:5">
@@ -4982,10 +4984,10 @@
         <v>305</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="3:5">
@@ -4993,10 +4995,10 @@
         <v>306</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="3:5">
@@ -5004,10 +5006,10 @@
         <v>307</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="3:5">
@@ -5015,10 +5017,10 @@
         <v>308</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="3:5">
@@ -5026,24 +5028,24 @@
         <v>309</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" ht="42.75" spans="2:5">
       <c r="B53" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C53" s="9">
         <v>400</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E53" s="11" t="s">
         <v>139</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="3:5">
@@ -5051,32 +5053,28 @@
         <v>401</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="3:5">
       <c r="C55" s="1">
         <v>402</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>143</v>
-      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="13"/>
     </row>
     <row r="56" spans="3:5">
       <c r="C56" s="1">
         <v>403</v>
       </c>
       <c r="D56" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56" s="11" t="s">
         <v>144</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="57" spans="3:5">
@@ -5084,10 +5082,10 @@
         <v>404</v>
       </c>
       <c r="D57" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57" s="11" t="s">
         <v>146</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="58" ht="57" spans="3:5">
@@ -5095,10 +5093,10 @@
         <v>405</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E58" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="59" ht="42.75" spans="3:5">
@@ -5106,10 +5104,10 @@
         <v>406</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E59" s="12" t="s">
         <v>150</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="60" ht="28.5" spans="2:5">
@@ -5118,10 +5116,10 @@
         <v>407</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E60" s="12" t="s">
         <v>152</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="61" ht="28.5" spans="2:5">
@@ -5130,10 +5128,10 @@
         <v>408</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61" s="12" t="s">
         <v>154</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="62" ht="28.5" spans="2:5">
@@ -5142,154 +5140,154 @@
         <v>409</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E62" s="12" t="s">
         <v>156</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="63" ht="16.5" spans="2:5">
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
-      <c r="E63" s="11"/>
+      <c r="E63" s="12"/>
     </row>
     <row r="64" ht="16.5" spans="2:5">
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
-      <c r="E64" s="11"/>
+      <c r="E64" s="12"/>
     </row>
     <row r="65" ht="42.75" spans="2:5">
       <c r="B65" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E65" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="66" ht="40.5" spans="4:5">
       <c r="D66" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E66" s="14" t="s">
         <v>161</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="67" spans="4:5">
       <c r="D67" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E67" t="s">
         <v>163</v>
-      </c>
-      <c r="E67" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="15" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="14" t="s">
+      <c r="B71" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="C71" s="15"/>
+      <c r="D71" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14" t="s">
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B72" s="15" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="B72" s="14" t="s">
+      <c r="C72" s="15"/>
+      <c r="D72" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14" t="s">
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B73" s="15" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="B73" s="14" t="s">
+      <c r="C73" s="15"/>
+      <c r="D73" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14" t="s">
-        <v>172</v>
-      </c>
     </row>
     <row r="74" spans="4:4">
-      <c r="D74" s="11"/>
+      <c r="D74" s="12"/>
     </row>
     <row r="75" spans="4:4">
-      <c r="D75" s="11"/>
+      <c r="D75" s="12"/>
     </row>
     <row r="76" spans="4:4">
-      <c r="D76" s="11"/>
+      <c r="D76" s="12"/>
     </row>
     <row r="77" spans="4:4">
-      <c r="D77" s="11"/>
+      <c r="D77" s="12"/>
     </row>
     <row r="78" spans="4:4">
-      <c r="D78" s="11"/>
+      <c r="D78" s="12"/>
     </row>
     <row r="79" spans="4:4">
-      <c r="D79" s="11"/>
+      <c r="D79" s="12"/>
     </row>
     <row r="80" spans="4:4">
-      <c r="D80" s="11"/>
+      <c r="D80" s="12"/>
     </row>
     <row r="81" spans="4:4">
-      <c r="D81" s="11"/>
+      <c r="D81" s="12"/>
     </row>
     <row r="82" ht="28.5" spans="2:4">
       <c r="B82" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>173</v>
+        <v>165</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="4:4">
       <c r="D84" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="4:4">
       <c r="D85" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="87" spans="4:4">
       <c r="D87" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -5303,7 +5301,7 @@
   <sheetPr/>
   <dimension ref="A10:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -5315,27 +5313,27 @@
   <sheetData>
     <row r="10" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -7028,19 +7026,19 @@
         <v>22</v>
       </c>
       <c r="B130" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C130" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="D130" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D130" s="7" t="s">
+      <c r="E130" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E130" s="7" t="s">
+      <c r="F130" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -7885,7 +7883,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B167" s="1">
         <f>SUM(B131:B165)</f>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4601,8 +4601,8 @@
   <sheetPr/>
   <dimension ref="A5:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -4696,7 +4696,7 @@
       <c r="D15" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>85</v>
       </c>
     </row>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26265" windowHeight="14265" activeTab="6"/>
+    <workbookView windowWidth="26265" windowHeight="14265" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -12,11 +12,9 @@
     <sheet name="关卡数值" sheetId="16" r:id="rId3"/>
     <sheet name="头脑风暴" sheetId="13" r:id="rId4"/>
     <sheet name="武器" sheetId="11" r:id="rId5"/>
-    <sheet name="场景" sheetId="21" r:id="rId6"/>
-    <sheet name="怪物" sheetId="9" r:id="rId7"/>
-    <sheet name="待完善" sheetId="18" r:id="rId8"/>
-    <sheet name="废弃" sheetId="14" r:id="rId9"/>
-    <sheet name="8.5" sheetId="20" r:id="rId10"/>
+    <sheet name="怪物" sheetId="9" r:id="rId6"/>
+    <sheet name="待完善" sheetId="18" r:id="rId7"/>
+    <sheet name="8.5" sheetId="20" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="183">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -202,7 +200,12 @@
     <t>每击杀一个敌人，提高1攻击力</t>
   </si>
   <si>
-    <t>打击感不足</t>
+    <t>远程只能环绕场地移动
+近战则可以在整个场地内进行移动，利用摇杆来控制方向？</t>
+  </si>
+  <si>
+    <t>把技能模块做成局内的肉鸽玩法？
+宝珠系统依然作为局外的模块。</t>
   </si>
   <si>
     <t>ID</t>
@@ -307,21 +310,6 @@
 可释放手里剑之类的</t>
   </si>
   <si>
-    <t>草地</t>
-  </si>
-  <si>
-    <t>竞技场</t>
-  </si>
-  <si>
-    <t>圆塔</t>
-  </si>
-  <si>
-    <t>火山口</t>
-  </si>
-  <si>
-    <t>圆形法阵</t>
-  </si>
-  <si>
     <t>敌人是否拥有弱点？</t>
   </si>
   <si>
@@ -675,24 +663,6 @@
   </si>
   <si>
     <t>考虑把局外成长做成局内的肉鸽？</t>
-  </si>
-  <si>
-    <t>攻击消耗</t>
-  </si>
-  <si>
-    <t>攻速消耗</t>
-  </si>
-  <si>
-    <t>总消耗</t>
-  </si>
-  <si>
-    <t>停留时间(分钟)</t>
-  </si>
-  <si>
-    <t>产出效率(分钟)</t>
-  </si>
-  <si>
-    <t>总计</t>
   </si>
   <si>
     <t>宝珠掉落逻辑</t>
@@ -726,12 +696,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="方正粗黑宋简体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="24"/>
       <color theme="1"/>
       <name val="方正粗黑宋简体"/>
@@ -745,6 +709,12 @@
     </font>
     <font>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="方正粗黑宋简体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="方正粗黑宋简体"/>
       <charset val="134"/>
@@ -921,12 +891,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -939,7 +903,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,7 +915,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1313,7 +1283,7 @@
     <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1325,7 +1295,7 @@
     <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1337,7 +1307,7 @@
     <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1361,7 +1331,7 @@
     <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1374,69 +1344,72 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1760,107 +1733,80 @@
   <sheetPr/>
   <dimension ref="B3:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="27" style="21" customWidth="1"/>
+    <col min="2" max="2" width="27" style="22" customWidth="1"/>
     <col min="3" max="3" width="92.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="114.125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="114.125" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="140" customHeight="1" spans="2:3">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="101" customHeight="1" spans="2:3">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="101" customHeight="1" spans="2:3">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="103" customHeight="1" spans="2:3">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="103" customHeight="1" spans="2:3">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="100" customHeight="1" spans="2:3">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" ht="154" customHeight="1" spans="2:4">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" ht="76" customHeight="1" spans="2:3">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A12:A13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1874,7 +1820,7 @@
   <sheetPr/>
   <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B67" sqref="B67:B116"/>
     </sheetView>
   </sheetViews>
@@ -1887,7 +1833,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1"/>
@@ -1895,18 +1841,18 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" ht="14.25" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
@@ -1931,26 +1877,26 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" ht="14.25" spans="1:4">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="21" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2805,19 +2751,19 @@
       </c>
     </row>
     <row r="58" ht="28.5" spans="1:4">
-      <c r="A58" s="2"/>
+      <c r="A58" s="19"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
     <row r="59" ht="28.5" spans="1:4">
-      <c r="A59" s="2"/>
+      <c r="A59" s="19"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
     <row r="60" ht="28.5" spans="1:4">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B60" s="1"/>
@@ -2825,20 +2771,20 @@
       <c r="D60" s="1"/>
     </row>
     <row r="61" ht="14.25" spans="1:4">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="2">
         <v>450</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
     <row r="62" ht="14.25" spans="1:4">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="2">
         <v>1</v>
       </c>
       <c r="C62" s="1"/>
@@ -2849,8 +2795,8 @@
         <v>19</v>
       </c>
       <c r="B63" s="1"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
     </row>
     <row r="64" ht="14.25" spans="1:4">
       <c r="A64" s="1" t="s">
@@ -2859,30 +2805,30 @@
       <c r="B64" s="1">
         <v>2</v>
       </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
     </row>
     <row r="65" ht="14.25" spans="1:4">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="8">
         <v>1.7</v>
       </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
     </row>
     <row r="66" ht="14.25" spans="1:4">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="21" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3749,7 +3695,7 @@
       <c r="D118" s="1"/>
     </row>
     <row r="119" ht="28.5" spans="1:4">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C119" s="1"/>
@@ -4187,10 +4133,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="18" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4383,10 +4329,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A12:A20"/>
+  <dimension ref="A12:A26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4396,12 +4342,12 @@
   </cols>
   <sheetData>
     <row r="12" ht="219" customHeight="1" spans="1:1">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4411,13 +4357,18 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
+    <row r="21" ht="28.5" spans="1:1">
+      <c r="A21" s="17" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="26" ht="42.75" spans="1:1">
+      <c r="A26" s="17" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -4447,100 +4398,100 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="1" ht="27" spans="1:7">
-      <c r="A1" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="17" t="s">
+    <row r="1" s="12" customFormat="1" ht="27" spans="1:7">
+      <c r="A1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="12" t="s">
         <v>46</v>
       </c>
+      <c r="G1" s="12" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="2" ht="273" customHeight="1" spans="1:7">
-      <c r="A2" s="18">
+      <c r="A2" s="14">
         <v>10000</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="D2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="16" t="s">
         <v>51</v>
       </c>
+      <c r="F2" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:7">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="18"/>
+      <c r="D3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="14"/>
       <c r="G3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" ht="119" customHeight="1" spans="1:5">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="19" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="D4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" ht="118" customHeight="1" spans="1:5">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="C5" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="D5" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" ht="28.5" spans="2:3">
       <c r="B6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="12" t="s">
         <v>64</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" ht="98" customHeight="1"/>
@@ -4553,56 +4504,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A8:A16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="79.125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" ht="27" customHeight="1" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A5:E95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -4617,200 +4522,200 @@
   <sheetData>
     <row r="5" spans="2:4">
       <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" ht="63" customHeight="1" spans="2:3">
+      <c r="B7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="10" ht="16.5" spans="2:5">
+      <c r="B10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="5">
+        <v>100</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" ht="63" customHeight="1" spans="2:3">
-      <c r="B7" s="8" t="s">
+    <row r="11" ht="16.5" spans="2:5">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5">
+        <v>101</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="10" ht="16.5" spans="2:5">
-      <c r="B10" s="9" t="s">
+      <c r="E11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="10">
-        <v>100</v>
-      </c>
-      <c r="D10" s="4" t="s">
+    </row>
+    <row r="12" ht="16.5" spans="2:5">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5">
+        <v>102</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="2:5">
-      <c r="B11" s="9"/>
-      <c r="C11" s="10">
-        <v>101</v>
-      </c>
-      <c r="D11" s="4" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="2">
+        <v>103</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="2:5">
-      <c r="B12" s="9"/>
-      <c r="C12" s="10">
-        <v>102</v>
-      </c>
-      <c r="D12" s="4" t="s">
+    <row r="14" spans="3:5">
+      <c r="C14" s="2">
+        <v>104</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="4">
-        <v>103</v>
-      </c>
-      <c r="D13" s="4" t="s">
+    <row r="15" spans="3:5">
+      <c r="C15" s="2">
+        <v>105</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="4">
-        <v>104</v>
-      </c>
-      <c r="D14" s="4" t="s">
+    <row r="16" spans="3:5">
+      <c r="C16" s="2">
+        <v>106</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E16" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="3:5">
-      <c r="C15" s="4">
-        <v>105</v>
-      </c>
-      <c r="D15" s="4" t="s">
+    <row r="17" ht="16.5" spans="2:5">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5">
+        <v>107</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E17" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="3:5">
-      <c r="C16" s="4">
-        <v>106</v>
-      </c>
-      <c r="D16" s="4" t="s">
+    <row r="18" ht="16.5" spans="2:5">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5">
+        <v>108</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E18" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="2:5">
-      <c r="B17" s="9"/>
-      <c r="C17" s="10">
-        <v>107</v>
-      </c>
-      <c r="D17" s="4" t="s">
+    <row r="19" ht="16.5" spans="2:5">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5">
+        <v>109</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E19" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="2:5">
-      <c r="B18" s="9"/>
-      <c r="C18" s="10">
-        <v>108</v>
-      </c>
-      <c r="D18" s="4" t="s">
+    <row r="20" ht="16.5" spans="2:3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" ht="16.5" spans="2:3">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" ht="16.5" spans="2:5">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5">
+        <v>150</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E22" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="2:5">
-      <c r="B19" s="9"/>
-      <c r="C19" s="10">
-        <v>109</v>
-      </c>
-      <c r="D19" s="4" t="s">
+    <row r="23" ht="16.5" spans="2:3">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" ht="16.5" spans="2:3">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" ht="16.5" spans="2:3">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" ht="16.5" spans="2:3">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" ht="16.5" spans="2:3">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" ht="16.5" spans="2:5">
+      <c r="B28" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="C28" s="4">
+        <v>200</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="20" ht="16.5" spans="2:3">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21" ht="16.5" spans="2:3">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" ht="16.5" spans="2:5">
-      <c r="B22" s="9"/>
-      <c r="C22" s="10">
-        <v>150</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="E28" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="4" t="s">
+    </row>
+    <row r="29" ht="16.5" spans="2:5">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4">
+        <v>201</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="23" ht="16.5" spans="2:3">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24" ht="16.5" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25" ht="16.5" spans="2:3">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" ht="16.5" spans="2:3">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" ht="16.5" spans="2:3">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" ht="16.5" spans="2:5">
-      <c r="B28" s="9" t="s">
+      <c r="E29" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C28" s="9">
-        <v>200</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" ht="16.5" spans="2:5">
-      <c r="B29" s="9"/>
-      <c r="C29" s="9">
-        <v>201</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="30" ht="42.75" spans="3:5">
@@ -4818,10 +4723,10 @@
         <v>202</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="3:5">
@@ -4829,10 +4734,10 @@
         <v>203</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="3:5">
@@ -4840,21 +4745,21 @@
         <v>204</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="3:5">
-      <c r="C33" s="4">
+      <c r="C33" s="2">
         <v>205</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>108</v>
+      <c r="D33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="3:5">
@@ -4862,10 +4767,10 @@
         <v>206</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="3:5">
@@ -4873,10 +4778,10 @@
         <v>207</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="3:5">
@@ -4884,10 +4789,10 @@
         <v>208</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="3:5">
@@ -4895,44 +4800,44 @@
         <v>209</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5" spans="2:5">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" ht="16.5" spans="2:5">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" ht="16.5" spans="2:5">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" ht="16.5" spans="2:5">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" ht="42.75" spans="2:5">
+      <c r="B42" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="4">
+        <v>300</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" ht="16.5" spans="2:5">
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="E38" s="12"/>
-    </row>
-    <row r="39" ht="16.5" spans="2:5">
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="E39" s="12"/>
-    </row>
-    <row r="40" ht="16.5" spans="2:5">
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="E40" s="12"/>
-    </row>
-    <row r="41" ht="16.5" spans="2:5">
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="E41" s="12"/>
-    </row>
-    <row r="42" ht="42.75" spans="2:5">
-      <c r="B42" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" s="9">
-        <v>300</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="43" spans="3:5">
@@ -4940,10 +4845,10 @@
         <v>301</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>121</v>
+        <v>116</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="44" ht="28.5" spans="3:5">
@@ -4951,10 +4856,10 @@
         <v>302</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>123</v>
+        <v>118</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="3:5">
@@ -4962,10 +4867,10 @@
         <v>303</v>
       </c>
       <c r="D45" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="3:5">
@@ -4973,10 +4878,10 @@
         <v>304</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="3:5">
@@ -4984,10 +4889,10 @@
         <v>305</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="3:5">
@@ -4995,10 +4900,10 @@
         <v>306</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="3:5">
@@ -5006,10 +4911,10 @@
         <v>307</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="3:5">
@@ -5017,10 +4922,10 @@
         <v>308</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="3:5">
@@ -5028,24 +4933,24 @@
         <v>309</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" ht="42.75" spans="2:5">
+      <c r="B53" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="4">
+        <v>400</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="53" ht="42.75" spans="2:5">
-      <c r="B53" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C53" s="9">
-        <v>400</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="54" spans="3:5">
@@ -5053,39 +4958,39 @@
         <v>401</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="3:5">
       <c r="C55" s="1">
         <v>402</v>
       </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="13"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="9"/>
     </row>
     <row r="56" spans="3:5">
       <c r="C56" s="1">
         <v>403</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>144</v>
+      <c r="D56" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="3:5">
       <c r="C57" s="1">
         <v>404</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>146</v>
+      <c r="D57" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="58" ht="57" spans="3:5">
@@ -5093,10 +4998,10 @@
         <v>405</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>148</v>
+        <v>143</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="59" ht="42.75" spans="3:5">
@@ -5104,190 +5009,190 @@
         <v>406</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>150</v>
+        <v>145</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="60" ht="28.5" spans="2:5">
-      <c r="B60" s="9"/>
+      <c r="B60" s="4"/>
       <c r="C60" s="1">
         <v>407</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>152</v>
+        <v>147</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="61" ht="28.5" spans="2:5">
-      <c r="B61" s="9"/>
+      <c r="B61" s="4"/>
       <c r="C61" s="1">
         <v>408</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="62" ht="28.5" spans="2:5">
-      <c r="B62" s="9"/>
+      <c r="B62" s="4"/>
       <c r="C62" s="1">
         <v>409</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" ht="16.5" spans="2:5">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" ht="16.5" spans="2:5">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" ht="42.75" spans="2:5">
+      <c r="B65" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="63" ht="16.5" spans="2:5">
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="E63" s="12"/>
-    </row>
-    <row r="64" ht="16.5" spans="2:5">
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="E64" s="12"/>
-    </row>
-    <row r="65" ht="42.75" spans="2:5">
-      <c r="B65" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="66" ht="40.5" spans="4:5">
       <c r="D66" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E66" s="14" t="s">
-        <v>161</v>
+        <v>156</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="4:5">
       <c r="D67" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E67" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B72" s="11" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="15" t="s">
+      <c r="C72" s="11"/>
+      <c r="D72" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B71" s="15" t="s">
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B73" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15" t="s">
+      <c r="C73" s="11"/>
+      <c r="D73" s="11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15" t="s">
-        <v>171</v>
-      </c>
-    </row>
     <row r="74" spans="4:4">
-      <c r="D74" s="12"/>
+      <c r="D74" s="7"/>
     </row>
     <row r="75" spans="4:4">
-      <c r="D75" s="12"/>
+      <c r="D75" s="7"/>
     </row>
     <row r="76" spans="4:4">
-      <c r="D76" s="12"/>
+      <c r="D76" s="7"/>
     </row>
     <row r="77" spans="4:4">
-      <c r="D77" s="12"/>
+      <c r="D77" s="7"/>
     </row>
     <row r="78" spans="4:4">
-      <c r="D78" s="12"/>
+      <c r="D78" s="7"/>
     </row>
     <row r="79" spans="4:4">
-      <c r="D79" s="12"/>
+      <c r="D79" s="7"/>
     </row>
     <row r="80" spans="4:4">
-      <c r="D80" s="12"/>
+      <c r="D80" s="7"/>
     </row>
     <row r="81" spans="4:4">
-      <c r="D81" s="12"/>
+      <c r="D81" s="7"/>
     </row>
     <row r="82" ht="28.5" spans="2:4">
       <c r="B82" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>172</v>
+        <v>161</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="4:4">
       <c r="D84" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="4:4">
       <c r="D85" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="4:4">
       <c r="D87" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -5296,7 +5201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A10:A21"/>
@@ -5312,28 +5217,28 @@
   </cols>
   <sheetData>
     <row r="10" spans="1:1">
-      <c r="A10" s="4" t="s">
-        <v>180</v>
+      <c r="A10" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="4" t="s">
-        <v>181</v>
+      <c r="A11" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="4" t="s">
-        <v>182</v>
+      <c r="A12" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5342,2564 +5247,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F167"/>
+  <dimension ref="A12:A13"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="D166" sqref="D166"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="28.5" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="5">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <f>FLOOR((A8-1)/3,1)+1</f>
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <f>$B$3+(A8-1)*B8</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <f>$B$5*POWER(A8,$B$6)*B8</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" ref="B9:B27" si="0">FLOOR((A9-1)/3,1)+1</f>
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" ref="C9:C43" si="1">$B$3+(A9-1)*B9</f>
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" ref="D9:D43" si="2">$B$5*POWER(A9,$B$6)*B9</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>7</v>
-      </c>
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="2"/>
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>8</v>
-      </c>
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="2"/>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="2"/>
-        <v>243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>10</v>
-      </c>
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="2"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>11</v>
-      </c>
-      <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="2"/>
-        <v>484</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>12</v>
-      </c>
-      <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="2"/>
-        <v>576</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>13</v>
-      </c>
-      <c r="B20" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="2"/>
-        <v>845</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>14</v>
-      </c>
-      <c r="B21" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="2"/>
-        <v>980</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>15</v>
-      </c>
-      <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="2"/>
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>16</v>
-      </c>
-      <c r="B23" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C23" s="1">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="2"/>
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>17</v>
-      </c>
-      <c r="B24" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C24" s="1">
-        <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="2"/>
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <v>18</v>
-      </c>
-      <c r="B25" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C25" s="1">
-        <f t="shared" si="1"/>
-        <v>103</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="2"/>
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
-        <v>19</v>
-      </c>
-      <c r="B26" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C26" s="1">
-        <f t="shared" si="1"/>
-        <v>127</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" si="2"/>
-        <v>2527</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1">
-        <v>20</v>
-      </c>
-      <c r="B27" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C27" s="1">
-        <f t="shared" si="1"/>
-        <v>134</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="2"/>
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1">
-        <v>21</v>
-      </c>
-      <c r="B28" s="1">
-        <f t="shared" ref="B28:B43" si="3">FLOOR((A28-1)/3,1)+1</f>
-        <v>7</v>
-      </c>
-      <c r="C28" s="1">
-        <f t="shared" si="1"/>
-        <v>141</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" si="2"/>
-        <v>3087</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1">
-        <v>22</v>
-      </c>
-      <c r="B29" s="1">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="C29" s="1">
-        <f t="shared" si="1"/>
-        <v>169</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="2"/>
-        <v>3872</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1">
-        <v>23</v>
-      </c>
-      <c r="B30" s="1">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="C30" s="1">
-        <f t="shared" si="1"/>
-        <v>177</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="2"/>
-        <v>4232</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1">
-        <v>24</v>
-      </c>
-      <c r="B31" s="1">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="C31" s="1">
-        <f t="shared" si="1"/>
-        <v>185</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="2"/>
-        <v>4608</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1">
-        <v>25</v>
-      </c>
-      <c r="B32" s="1">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="C32" s="1">
-        <f t="shared" si="1"/>
-        <v>217</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="2"/>
-        <v>5625</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1">
-        <v>26</v>
-      </c>
-      <c r="B33" s="1">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="C33" s="1">
-        <f t="shared" si="1"/>
-        <v>226</v>
-      </c>
-      <c r="D33" s="1">
-        <f t="shared" si="2"/>
-        <v>6084</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1">
-        <v>27</v>
-      </c>
-      <c r="B34" s="1">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="C34" s="1">
-        <f t="shared" si="1"/>
-        <v>235</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" si="2"/>
-        <v>6561</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1">
-        <v>28</v>
-      </c>
-      <c r="B35" s="1">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="C35" s="1">
-        <f t="shared" si="1"/>
-        <v>271</v>
-      </c>
-      <c r="D35" s="1">
-        <f t="shared" si="2"/>
-        <v>7840</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1">
-        <v>29</v>
-      </c>
-      <c r="B36" s="1">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="C36" s="1">
-        <f t="shared" si="1"/>
-        <v>281</v>
-      </c>
-      <c r="D36" s="1">
-        <f t="shared" si="2"/>
-        <v>8410</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1">
-        <v>30</v>
-      </c>
-      <c r="B37" s="1">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="C37" s="1">
-        <f t="shared" si="1"/>
-        <v>291</v>
-      </c>
-      <c r="D37" s="1">
-        <f t="shared" si="2"/>
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1">
-        <v>31</v>
-      </c>
-      <c r="B38" s="1">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="C38" s="1">
-        <f t="shared" si="1"/>
-        <v>331</v>
-      </c>
-      <c r="D38" s="1">
-        <f t="shared" si="2"/>
-        <v>10571</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1">
-        <v>32</v>
-      </c>
-      <c r="B39" s="1">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="C39" s="1">
-        <f t="shared" si="1"/>
-        <v>342</v>
-      </c>
-      <c r="D39" s="1">
-        <f t="shared" si="2"/>
-        <v>11264</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1">
-        <v>33</v>
-      </c>
-      <c r="B40" s="1">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="C40" s="1">
-        <f t="shared" si="1"/>
-        <v>353</v>
-      </c>
-      <c r="D40" s="1">
-        <f t="shared" si="2"/>
-        <v>11979</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1">
-        <v>34</v>
-      </c>
-      <c r="B41" s="1">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="C41" s="1">
-        <f t="shared" si="1"/>
-        <v>397</v>
-      </c>
-      <c r="D41" s="1">
-        <f t="shared" si="2"/>
-        <v>13872</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1">
-        <v>35</v>
-      </c>
-      <c r="B42" s="1">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="C42" s="1">
-        <f t="shared" si="1"/>
-        <v>409</v>
-      </c>
-      <c r="D42" s="1">
-        <f t="shared" si="2"/>
-        <v>14700</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1">
-        <v>36</v>
-      </c>
-      <c r="B43" s="1">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="C43" s="1">
-        <f t="shared" si="1"/>
-        <v>421</v>
-      </c>
-      <c r="D43" s="1">
-        <f t="shared" si="2"/>
-        <v>15552</v>
-      </c>
-    </row>
-    <row r="44" ht="28.5" spans="1:1">
-      <c r="A44" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="4">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" s="1">
-        <v>2</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" s="5">
-        <v>1.7</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="1">
-        <v>1</v>
-      </c>
-      <c r="B51" s="1">
-        <f>FLOOR((A51-1)/3,1)+1</f>
-        <v>1</v>
-      </c>
-      <c r="C51" s="1">
-        <f>$B$45/(1+((A51-1)*B51*$B$46)/100)</f>
-        <v>450</v>
-      </c>
-      <c r="D51" s="1">
-        <f>FLOOR($B$48*POWER(A51,$B$49)*B51,1)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="1">
-        <v>2</v>
-      </c>
-      <c r="B52" s="1">
-        <f t="shared" ref="B52:B85" si="4">FLOOR((A52-1)/3,1)+1</f>
-        <v>1</v>
-      </c>
-      <c r="C52" s="1">
-        <f t="shared" ref="C52:C85" si="5">$B$45/(1+((A52-1)*B52*$B$46)/100)</f>
-        <v>445.544554455446</v>
-      </c>
-      <c r="D52" s="1">
-        <f t="shared" ref="D52:D85" si="6">FLOOR($B$48*POWER(A52,$B$49)*B52,1)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="1">
-        <v>3</v>
-      </c>
-      <c r="B53" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="C53" s="1">
-        <f t="shared" si="5"/>
-        <v>441.176470588235</v>
-      </c>
-      <c r="D53" s="1">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="1">
-        <v>4</v>
-      </c>
-      <c r="B54" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="C54" s="1">
-        <f t="shared" si="5"/>
-        <v>424.528301886792</v>
-      </c>
-      <c r="D54" s="1">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="1">
-        <v>5</v>
-      </c>
-      <c r="B55" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="C55" s="1">
-        <f t="shared" si="5"/>
-        <v>416.666666666667</v>
-      </c>
-      <c r="D55" s="1">
-        <f t="shared" si="6"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="1">
-        <v>6</v>
-      </c>
-      <c r="B56" s="1">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="C56" s="1">
-        <f t="shared" si="5"/>
-        <v>409.090909090909</v>
-      </c>
-      <c r="D56" s="1">
-        <f t="shared" si="6"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="1">
-        <v>7</v>
-      </c>
-      <c r="B57" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C57" s="1">
-        <f t="shared" si="5"/>
-        <v>381.35593220339</v>
-      </c>
-      <c r="D57" s="1">
-        <f t="shared" si="6"/>
-        <v>163</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="1">
-        <v>8</v>
-      </c>
-      <c r="B58" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C58" s="1">
-        <f t="shared" si="5"/>
-        <v>371.900826446281</v>
-      </c>
-      <c r="D58" s="1">
-        <f t="shared" si="6"/>
-        <v>205</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="1">
-        <v>9</v>
-      </c>
-      <c r="B59" s="1">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="C59" s="1">
-        <f t="shared" si="5"/>
-        <v>362.903225806452</v>
-      </c>
-      <c r="D59" s="1">
-        <f t="shared" si="6"/>
-        <v>251</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="1">
-        <v>10</v>
-      </c>
-      <c r="B60" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="C60" s="1">
-        <f t="shared" si="5"/>
-        <v>330.882352941177</v>
-      </c>
-      <c r="D60" s="1">
-        <f t="shared" si="6"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="1">
-        <v>11</v>
-      </c>
-      <c r="B61" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="C61" s="1">
-        <f t="shared" si="5"/>
-        <v>321.428571428571</v>
-      </c>
-      <c r="D61" s="1">
-        <f t="shared" si="6"/>
-        <v>471</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="1">
-        <v>12</v>
-      </c>
-      <c r="B62" s="1">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="C62" s="1">
-        <f t="shared" si="5"/>
-        <v>312.5</v>
-      </c>
-      <c r="D62" s="1">
-        <f t="shared" si="6"/>
-        <v>546</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="1">
-        <v>13</v>
-      </c>
-      <c r="B63" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="C63" s="1">
-        <f t="shared" si="5"/>
-        <v>281.25</v>
-      </c>
-      <c r="D63" s="1">
-        <f t="shared" si="6"/>
-        <v>782</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="1">
-        <v>14</v>
-      </c>
-      <c r="B64" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="C64" s="1">
-        <f t="shared" si="5"/>
-        <v>272.727272727273</v>
-      </c>
-      <c r="D64" s="1">
-        <f t="shared" si="6"/>
-        <v>888</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="1">
-        <v>15</v>
-      </c>
-      <c r="B65" s="1">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="C65" s="1">
-        <f t="shared" si="5"/>
-        <v>264.705882352941</v>
-      </c>
-      <c r="D65" s="1">
-        <f t="shared" si="6"/>
-        <v>998</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="1">
-        <v>16</v>
-      </c>
-      <c r="B66" s="1">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="C66" s="1">
-        <f t="shared" si="5"/>
-        <v>236.842105263158</v>
-      </c>
-      <c r="D66" s="1">
-        <f t="shared" si="6"/>
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="1">
-        <v>17</v>
-      </c>
-      <c r="B67" s="1">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="C67" s="1">
-        <f t="shared" si="5"/>
-        <v>229.591836734694</v>
-      </c>
-      <c r="D67" s="1">
-        <f t="shared" si="6"/>
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="1">
-        <v>18</v>
-      </c>
-      <c r="B68" s="1">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="C68" s="1">
-        <f t="shared" si="5"/>
-        <v>222.772277227723</v>
-      </c>
-      <c r="D68" s="1">
-        <f t="shared" si="6"/>
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="1">
-        <v>19</v>
-      </c>
-      <c r="B69" s="1">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="C69" s="1">
-        <f t="shared" si="5"/>
-        <v>199.115044247788</v>
-      </c>
-      <c r="D69" s="1">
-        <f t="shared" si="6"/>
-        <v>2089</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="1">
-        <v>20</v>
-      </c>
-      <c r="B70" s="1">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="C70" s="1">
-        <f t="shared" si="5"/>
-        <v>193.1330472103</v>
-      </c>
-      <c r="D70" s="1">
-        <f t="shared" si="6"/>
-        <v>2279</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="1">
-        <v>21</v>
-      </c>
-      <c r="B71" s="1">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="C71" s="1">
-        <f t="shared" si="5"/>
-        <v>187.5</v>
-      </c>
-      <c r="D71" s="1">
-        <f t="shared" si="6"/>
-        <v>2476</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="1">
-        <v>22</v>
-      </c>
-      <c r="B72" s="1">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="C72" s="1">
-        <f t="shared" si="5"/>
-        <v>167.910447761194</v>
-      </c>
-      <c r="D72" s="1">
-        <f t="shared" si="6"/>
-        <v>3063</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="1">
-        <v>23</v>
-      </c>
-      <c r="B73" s="1">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="C73" s="1">
-        <f t="shared" si="5"/>
-        <v>163.04347826087</v>
-      </c>
-      <c r="D73" s="1">
-        <f t="shared" si="6"/>
-        <v>3304</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="1">
-        <v>24</v>
-      </c>
-      <c r="B74" s="1">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="C74" s="1">
-        <f t="shared" si="5"/>
-        <v>158.450704225352</v>
-      </c>
-      <c r="D74" s="1">
-        <f t="shared" si="6"/>
-        <v>3552</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="1">
-        <v>25</v>
-      </c>
-      <c r="B75" s="1">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="C75" s="1">
-        <f t="shared" si="5"/>
-        <v>142.405063291139</v>
-      </c>
-      <c r="D75" s="1">
-        <f t="shared" si="6"/>
-        <v>4283</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="1">
-        <v>26</v>
-      </c>
-      <c r="B76" s="1">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="C76" s="1">
-        <f t="shared" si="5"/>
-        <v>138.461538461538</v>
-      </c>
-      <c r="D76" s="1">
-        <f t="shared" si="6"/>
-        <v>4578</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="1">
-        <v>27</v>
-      </c>
-      <c r="B77" s="1">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="C77" s="1">
-        <f t="shared" si="5"/>
-        <v>134.730538922156</v>
-      </c>
-      <c r="D77" s="1">
-        <f t="shared" si="6"/>
-        <v>4881</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="1">
-        <v>28</v>
-      </c>
-      <c r="B78" s="1">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="C78" s="1">
-        <f t="shared" si="5"/>
-        <v>121.621621621622</v>
-      </c>
-      <c r="D78" s="1">
-        <f t="shared" si="6"/>
-        <v>5770</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="1">
-        <v>29</v>
-      </c>
-      <c r="B79" s="1">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="C79" s="1">
-        <f t="shared" si="5"/>
-        <v>118.421052631579</v>
-      </c>
-      <c r="D79" s="1">
-        <f t="shared" si="6"/>
-        <v>6125</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="1">
-        <v>30</v>
-      </c>
-      <c r="B80" s="1">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="C80" s="1">
-        <f t="shared" si="5"/>
-        <v>115.384615384615</v>
-      </c>
-      <c r="D80" s="1">
-        <f t="shared" si="6"/>
-        <v>6488</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="1">
-        <v>31</v>
-      </c>
-      <c r="B81" s="1">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="C81" s="1">
-        <f t="shared" si="5"/>
-        <v>104.651162790698</v>
-      </c>
-      <c r="D81" s="1">
-        <f t="shared" si="6"/>
-        <v>7546</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="1">
-        <v>32</v>
-      </c>
-      <c r="B82" s="1">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="C82" s="1">
-        <f t="shared" si="5"/>
-        <v>102.040816326531</v>
-      </c>
-      <c r="D82" s="1">
-        <f t="shared" si="6"/>
-        <v>7964</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="1">
-        <v>33</v>
-      </c>
-      <c r="B83" s="1">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="C83" s="1">
-        <f t="shared" si="5"/>
-        <v>99.5575221238938</v>
-      </c>
-      <c r="D83" s="1">
-        <f t="shared" si="6"/>
-        <v>8392</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="1">
-        <v>34</v>
-      </c>
-      <c r="B84" s="1">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="C84" s="1">
-        <f t="shared" si="5"/>
-        <v>90.7258064516129</v>
-      </c>
-      <c r="D84" s="1">
-        <f t="shared" si="6"/>
-        <v>9632</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="1">
-        <v>35</v>
-      </c>
-      <c r="B85" s="1">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="C85" s="1">
-        <f t="shared" si="5"/>
-        <v>88.5826771653543</v>
-      </c>
-      <c r="D85" s="1">
-        <f t="shared" si="6"/>
-        <v>10118</v>
-      </c>
-    </row>
-    <row r="88" ht="28.5" spans="1:1">
-      <c r="A88" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="1">
-        <v>1</v>
-      </c>
-      <c r="B90" s="1">
-        <f>C8/(C51/1000)</f>
-        <v>2.22222222222222</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="1">
-        <v>2</v>
-      </c>
-      <c r="B91" s="1">
-        <f t="shared" ref="B91:B124" si="7">C9/(C52/1000)</f>
-        <v>4.48888888888888</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="1">
-        <v>3</v>
-      </c>
-      <c r="B92" s="1">
-        <f t="shared" si="7"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="1">
-        <v>4</v>
-      </c>
-      <c r="B93" s="1">
-        <f t="shared" si="7"/>
-        <v>16.4888888888889</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="1">
-        <v>5</v>
-      </c>
-      <c r="B94" s="1">
-        <f t="shared" si="7"/>
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="1">
-        <v>6</v>
-      </c>
-      <c r="B95" s="1">
-        <f t="shared" si="7"/>
-        <v>26.8888888888889</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="1">
-        <v>7</v>
-      </c>
-      <c r="B96" s="1">
-        <f t="shared" si="7"/>
-        <v>49.8222222222222</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="1">
-        <v>8</v>
-      </c>
-      <c r="B97" s="1">
-        <f t="shared" si="7"/>
-        <v>59.1555555555556</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="1">
-        <v>9</v>
-      </c>
-      <c r="B98" s="1">
-        <f t="shared" si="7"/>
-        <v>68.8888888888888</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="1">
-        <v>10</v>
-      </c>
-      <c r="B99" s="1">
-        <f t="shared" si="7"/>
-        <v>111.822222222222</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="1">
-        <v>11</v>
-      </c>
-      <c r="B100" s="1">
-        <f t="shared" si="7"/>
-        <v>127.555555555556</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="1">
-        <v>12</v>
-      </c>
-      <c r="B101" s="1">
-        <f t="shared" si="7"/>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="1">
-        <v>13</v>
-      </c>
-      <c r="B102" s="1">
-        <f t="shared" si="7"/>
-        <v>216.888888888889</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="1">
-        <v>14</v>
-      </c>
-      <c r="B103" s="1">
-        <f t="shared" si="7"/>
-        <v>242</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="1">
-        <v>15</v>
-      </c>
-      <c r="B104" s="1">
-        <f t="shared" si="7"/>
-        <v>268.222222222222</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="1">
-        <v>16</v>
-      </c>
-      <c r="B105" s="1">
-        <f t="shared" si="7"/>
-        <v>384.222222222222</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="1">
-        <v>17</v>
-      </c>
-      <c r="B106" s="1">
-        <f t="shared" si="7"/>
-        <v>422.488888888889</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="1">
-        <v>18</v>
-      </c>
-      <c r="B107" s="1">
-        <f t="shared" si="7"/>
-        <v>462.355555555555</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="1">
-        <v>19</v>
-      </c>
-      <c r="B108" s="1">
-        <f t="shared" si="7"/>
-        <v>637.822222222221</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="1">
-        <v>20</v>
-      </c>
-      <c r="B109" s="1">
-        <f t="shared" si="7"/>
-        <v>693.822222222224</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="1">
-        <v>21</v>
-      </c>
-      <c r="B110" s="1">
-        <f t="shared" si="7"/>
-        <v>752</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="1">
-        <v>22</v>
-      </c>
-      <c r="B111" s="1">
-        <f t="shared" si="7"/>
-        <v>1006.48888888889</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="1">
-        <v>23</v>
-      </c>
-      <c r="B112" s="1">
-        <f t="shared" si="7"/>
-        <v>1085.6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="1">
-        <v>24</v>
-      </c>
-      <c r="B113" s="1">
-        <f t="shared" si="7"/>
-        <v>1167.55555555556</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="1">
-        <v>25</v>
-      </c>
-      <c r="B114" s="1">
-        <f t="shared" si="7"/>
-        <v>1523.82222222222</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="1">
-        <v>26</v>
-      </c>
-      <c r="B115" s="1">
-        <f t="shared" si="7"/>
-        <v>1632.22222222223</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="1">
-        <v>27</v>
-      </c>
-      <c r="B116" s="1">
-        <f t="shared" si="7"/>
-        <v>1744.22222222222</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="1">
-        <v>28</v>
-      </c>
-      <c r="B117" s="1">
-        <f t="shared" si="7"/>
-        <v>2228.22222222222</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="1">
-        <v>29</v>
-      </c>
-      <c r="B118" s="1">
-        <f t="shared" si="7"/>
-        <v>2372.88888888889</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="1">
-        <v>30</v>
-      </c>
-      <c r="B119" s="1">
-        <f t="shared" si="7"/>
-        <v>2522.00000000001</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="1">
-        <v>31</v>
-      </c>
-      <c r="B120" s="1">
-        <f t="shared" si="7"/>
-        <v>3162.88888888888</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="1">
-        <v>32</v>
-      </c>
-      <c r="B121" s="1">
-        <f t="shared" si="7"/>
-        <v>3351.59999999999</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="1">
-        <v>33</v>
-      </c>
-      <c r="B122" s="1">
-        <f t="shared" si="7"/>
-        <v>3545.68888888889</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="1">
-        <v>34</v>
-      </c>
-      <c r="B123" s="1">
-        <f t="shared" si="7"/>
-        <v>4375.82222222222</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="1">
-        <v>35</v>
-      </c>
-      <c r="B124" s="1">
-        <f t="shared" si="7"/>
-        <v>4617.15555555556</v>
-      </c>
-    </row>
-    <row r="129" ht="28.5" spans="1:1">
-      <c r="A129" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="1">
-        <v>1</v>
-      </c>
-      <c r="B131" s="1">
-        <f>D8</f>
-        <v>1</v>
-      </c>
-      <c r="C131" s="1">
-        <f>D51</f>
-        <v>2</v>
-      </c>
-      <c r="D131" s="1">
-        <f>B131+C131</f>
-        <v>3</v>
-      </c>
-      <c r="E131" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F131" s="1">
-        <f>D131/E131</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="1">
-        <v>2</v>
-      </c>
-      <c r="B132" s="1">
-        <f t="shared" ref="B132:B165" si="8">D9</f>
-        <v>4</v>
-      </c>
-      <c r="C132" s="1">
-        <f t="shared" ref="C132:C165" si="9">D52</f>
-        <v>6</v>
-      </c>
-      <c r="D132" s="1">
-        <f t="shared" ref="D132:D165" si="10">B132+C132</f>
-        <v>10</v>
-      </c>
-      <c r="E132" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="F132" s="1">
-        <f t="shared" ref="F132:F165" si="11">D132/E132</f>
-        <v>13.3333333333333</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="1">
-        <v>3</v>
-      </c>
-      <c r="B133" s="1">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="C133" s="1">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="D133" s="1">
-        <f t="shared" si="10"/>
-        <v>21</v>
-      </c>
-      <c r="E133" s="1">
-        <v>1</v>
-      </c>
-      <c r="F133" s="1">
-        <f t="shared" si="11"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="1">
-        <v>4</v>
-      </c>
-      <c r="B134" s="1">
-        <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="C134" s="1">
-        <f t="shared" si="9"/>
-        <v>42</v>
-      </c>
-      <c r="D134" s="1">
-        <f t="shared" si="10"/>
-        <v>74</v>
-      </c>
-      <c r="E134" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="F134" s="1">
-        <f t="shared" si="11"/>
-        <v>49.3333333333333</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="1">
-        <v>5</v>
-      </c>
-      <c r="B135" s="1">
-        <f t="shared" si="8"/>
-        <v>50</v>
-      </c>
-      <c r="C135" s="1">
-        <f t="shared" si="9"/>
-        <v>61</v>
-      </c>
-      <c r="D135" s="1">
-        <f t="shared" si="10"/>
-        <v>111</v>
-      </c>
-      <c r="E135" s="1">
-        <v>2</v>
-      </c>
-      <c r="F135" s="1">
-        <f t="shared" si="11"/>
-        <v>55.5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="1">
-        <v>6</v>
-      </c>
-      <c r="B136" s="1">
-        <f t="shared" si="8"/>
-        <v>72</v>
-      </c>
-      <c r="C136" s="1">
-        <f t="shared" si="9"/>
-        <v>84</v>
-      </c>
-      <c r="D136" s="1">
-        <f t="shared" si="10"/>
-        <v>156</v>
-      </c>
-      <c r="E136" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="F136" s="1">
-        <f t="shared" si="11"/>
-        <v>62.4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="1">
-        <v>7</v>
-      </c>
-      <c r="B137" s="1">
-        <f t="shared" si="8"/>
-        <v>147</v>
-      </c>
-      <c r="C137" s="1">
-        <f t="shared" si="9"/>
-        <v>163</v>
-      </c>
-      <c r="D137" s="1">
-        <f t="shared" si="10"/>
-        <v>310</v>
-      </c>
-      <c r="E137" s="1">
-        <v>3</v>
-      </c>
-      <c r="F137" s="1">
-        <f t="shared" si="11"/>
-        <v>103.333333333333</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="1">
-        <v>8</v>
-      </c>
-      <c r="B138" s="1">
-        <f t="shared" si="8"/>
-        <v>192</v>
-      </c>
-      <c r="C138" s="1">
-        <f t="shared" si="9"/>
-        <v>205</v>
-      </c>
-      <c r="D138" s="1">
-        <f t="shared" si="10"/>
-        <v>397</v>
-      </c>
-      <c r="E138" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="F138" s="1">
-        <f t="shared" si="11"/>
-        <v>113.428571428571</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="1">
-        <v>9</v>
-      </c>
-      <c r="B139" s="1">
-        <f t="shared" si="8"/>
-        <v>243</v>
-      </c>
-      <c r="C139" s="1">
-        <f t="shared" si="9"/>
-        <v>251</v>
-      </c>
-      <c r="D139" s="1">
-        <f t="shared" si="10"/>
-        <v>494</v>
-      </c>
-      <c r="E139" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="F139" s="1">
-        <f t="shared" si="11"/>
-        <v>109.777777777778</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="1">
-        <v>10</v>
-      </c>
-      <c r="B140" s="1">
-        <f t="shared" si="8"/>
-        <v>400</v>
-      </c>
-      <c r="C140" s="1">
-        <f t="shared" si="9"/>
-        <v>400</v>
-      </c>
-      <c r="D140" s="1">
-        <f t="shared" si="10"/>
-        <v>800</v>
-      </c>
-      <c r="E140" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="F140" s="1">
-        <f t="shared" si="11"/>
-        <v>145.454545454545</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="1">
-        <v>11</v>
-      </c>
-      <c r="B141" s="1">
-        <f t="shared" si="8"/>
-        <v>484</v>
-      </c>
-      <c r="C141" s="1">
-        <f t="shared" si="9"/>
-        <v>471</v>
-      </c>
-      <c r="D141" s="1">
-        <f t="shared" si="10"/>
-        <v>955</v>
-      </c>
-      <c r="E141" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="F141" s="1">
-        <f t="shared" si="11"/>
-        <v>146.923076923077</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="1">
-        <v>12</v>
-      </c>
-      <c r="B142" s="1">
-        <f t="shared" si="8"/>
-        <v>576</v>
-      </c>
-      <c r="C142" s="1">
-        <f t="shared" si="9"/>
-        <v>546</v>
-      </c>
-      <c r="D142" s="1">
-        <f t="shared" si="10"/>
-        <v>1122</v>
-      </c>
-      <c r="E142" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="F142" s="1">
-        <f t="shared" si="11"/>
-        <v>149.6</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="1">
-        <v>13</v>
-      </c>
-      <c r="B143" s="1">
-        <f t="shared" si="8"/>
-        <v>845</v>
-      </c>
-      <c r="C143" s="1">
-        <f t="shared" si="9"/>
-        <v>782</v>
-      </c>
-      <c r="D143" s="1">
-        <f t="shared" si="10"/>
-        <v>1627</v>
-      </c>
-      <c r="E143" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="F143" s="1">
-        <f t="shared" si="11"/>
-        <v>191.411764705882</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="1">
-        <v>14</v>
-      </c>
-      <c r="B144" s="1">
-        <f t="shared" si="8"/>
-        <v>980</v>
-      </c>
-      <c r="C144" s="1">
-        <f t="shared" si="9"/>
-        <v>888</v>
-      </c>
-      <c r="D144" s="1">
-        <f t="shared" si="10"/>
-        <v>1868</v>
-      </c>
-      <c r="E144" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="F144" s="1">
-        <f t="shared" si="11"/>
-        <v>196.631578947368</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="1">
-        <v>15</v>
-      </c>
-      <c r="B145" s="1">
-        <f t="shared" si="8"/>
-        <v>1125</v>
-      </c>
-      <c r="C145" s="1">
-        <f t="shared" si="9"/>
-        <v>998</v>
-      </c>
-      <c r="D145" s="1">
-        <f t="shared" si="10"/>
-        <v>2123</v>
-      </c>
-      <c r="E145" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="F145" s="1">
-        <f t="shared" si="11"/>
-        <v>202.190476190476</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146" s="1">
-        <v>16</v>
-      </c>
-      <c r="B146" s="1">
-        <f t="shared" si="8"/>
-        <v>1536</v>
-      </c>
-      <c r="C146" s="1">
-        <f t="shared" si="9"/>
-        <v>1337</v>
-      </c>
-      <c r="D146" s="1">
-        <f t="shared" si="10"/>
-        <v>2873</v>
-      </c>
-      <c r="E146" s="1">
-        <v>12</v>
-      </c>
-      <c r="F146" s="1">
-        <f t="shared" si="11"/>
-        <v>239.416666666667</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147" s="1">
-        <v>17</v>
-      </c>
-      <c r="B147" s="1">
-        <f t="shared" si="8"/>
-        <v>1734</v>
-      </c>
-      <c r="C147" s="1">
-        <f t="shared" si="9"/>
-        <v>1482</v>
-      </c>
-      <c r="D147" s="1">
-        <f t="shared" si="10"/>
-        <v>3216</v>
-      </c>
-      <c r="E147" s="1">
-        <v>13.5</v>
-      </c>
-      <c r="F147" s="1">
-        <f t="shared" si="11"/>
-        <v>238.222222222222</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="1">
-        <v>18</v>
-      </c>
-      <c r="B148" s="1">
-        <f t="shared" si="8"/>
-        <v>1944</v>
-      </c>
-      <c r="C148" s="1">
-        <f t="shared" si="9"/>
-        <v>1633</v>
-      </c>
-      <c r="D148" s="1">
-        <f t="shared" si="10"/>
-        <v>3577</v>
-      </c>
-      <c r="E148" s="1">
-        <v>15</v>
-      </c>
-      <c r="F148" s="1">
-        <f t="shared" si="11"/>
-        <v>238.466666666667</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="1">
-        <v>19</v>
-      </c>
-      <c r="B149" s="1">
-        <f t="shared" si="8"/>
-        <v>2527</v>
-      </c>
-      <c r="C149" s="1">
-        <f t="shared" si="9"/>
-        <v>2089</v>
-      </c>
-      <c r="D149" s="1">
-        <f t="shared" si="10"/>
-        <v>4616</v>
-      </c>
-      <c r="E149" s="1">
-        <v>16.5</v>
-      </c>
-      <c r="F149" s="1">
-        <f t="shared" si="11"/>
-        <v>279.757575757576</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="1">
-        <v>20</v>
-      </c>
-      <c r="B150" s="1">
-        <f t="shared" si="8"/>
-        <v>2800</v>
-      </c>
-      <c r="C150" s="1">
-        <f t="shared" si="9"/>
-        <v>2279</v>
-      </c>
-      <c r="D150" s="1">
-        <f t="shared" si="10"/>
-        <v>5079</v>
-      </c>
-      <c r="E150" s="1">
-        <v>18</v>
-      </c>
-      <c r="F150" s="1">
-        <f t="shared" si="11"/>
-        <v>282.166666666667</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="1">
-        <v>21</v>
-      </c>
-      <c r="B151" s="1">
-        <f t="shared" si="8"/>
-        <v>3087</v>
-      </c>
-      <c r="C151" s="1">
-        <f t="shared" si="9"/>
-        <v>2476</v>
-      </c>
-      <c r="D151" s="1">
-        <f t="shared" si="10"/>
-        <v>5563</v>
-      </c>
-      <c r="E151" s="1">
-        <v>19.5</v>
-      </c>
-      <c r="F151" s="1">
-        <f t="shared" si="11"/>
-        <v>285.282051282051</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="1">
-        <v>22</v>
-      </c>
-      <c r="B152" s="1">
-        <f t="shared" si="8"/>
-        <v>3872</v>
-      </c>
-      <c r="C152" s="1">
-        <f t="shared" si="9"/>
-        <v>3063</v>
-      </c>
-      <c r="D152" s="1">
-        <f t="shared" si="10"/>
-        <v>6935</v>
-      </c>
-      <c r="E152" s="1">
-        <v>21</v>
-      </c>
-      <c r="F152" s="1">
-        <f t="shared" si="11"/>
-        <v>330.238095238095</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="1">
-        <v>23</v>
-      </c>
-      <c r="B153" s="1">
-        <f t="shared" si="8"/>
-        <v>4232</v>
-      </c>
-      <c r="C153" s="1">
-        <f t="shared" si="9"/>
-        <v>3304</v>
-      </c>
-      <c r="D153" s="1">
-        <f t="shared" si="10"/>
-        <v>7536</v>
-      </c>
-      <c r="E153" s="1">
-        <v>22.5</v>
-      </c>
-      <c r="F153" s="1">
-        <f t="shared" si="11"/>
-        <v>334.933333333333</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154" s="1">
-        <v>24</v>
-      </c>
-      <c r="B154" s="1">
-        <f t="shared" si="8"/>
-        <v>4608</v>
-      </c>
-      <c r="C154" s="1">
-        <f t="shared" si="9"/>
-        <v>3552</v>
-      </c>
-      <c r="D154" s="1">
-        <f t="shared" si="10"/>
-        <v>8160</v>
-      </c>
-      <c r="E154" s="1">
-        <v>24</v>
-      </c>
-      <c r="F154" s="1">
-        <f t="shared" si="11"/>
-        <v>340</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155" s="1">
-        <v>25</v>
-      </c>
-      <c r="B155" s="1">
-        <f t="shared" si="8"/>
-        <v>5625</v>
-      </c>
-      <c r="C155" s="1">
-        <f t="shared" si="9"/>
-        <v>4283</v>
-      </c>
-      <c r="D155" s="1">
-        <f t="shared" si="10"/>
-        <v>9908</v>
-      </c>
-      <c r="E155" s="1">
-        <v>25.5</v>
-      </c>
-      <c r="F155" s="1">
-        <f t="shared" si="11"/>
-        <v>388.549019607843</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156" s="1">
-        <v>26</v>
-      </c>
-      <c r="B156" s="1">
-        <f t="shared" si="8"/>
-        <v>6084</v>
-      </c>
-      <c r="C156" s="1">
-        <f t="shared" si="9"/>
-        <v>4578</v>
-      </c>
-      <c r="D156" s="1">
-        <f t="shared" si="10"/>
-        <v>10662</v>
-      </c>
-      <c r="E156" s="1">
-        <v>27.5</v>
-      </c>
-      <c r="F156" s="1">
-        <f t="shared" si="11"/>
-        <v>387.709090909091</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157" s="1">
-        <v>27</v>
-      </c>
-      <c r="B157" s="1">
-        <f t="shared" si="8"/>
-        <v>6561</v>
-      </c>
-      <c r="C157" s="1">
-        <f t="shared" si="9"/>
-        <v>4881</v>
-      </c>
-      <c r="D157" s="1">
-        <f t="shared" si="10"/>
-        <v>11442</v>
-      </c>
-      <c r="E157" s="1">
-        <v>29.5</v>
-      </c>
-      <c r="F157" s="1">
-        <f t="shared" si="11"/>
-        <v>387.864406779661</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158" s="1">
-        <v>28</v>
-      </c>
-      <c r="B158" s="1">
-        <f t="shared" si="8"/>
-        <v>7840</v>
-      </c>
-      <c r="C158" s="1">
-        <f t="shared" si="9"/>
-        <v>5770</v>
-      </c>
-      <c r="D158" s="1">
-        <f t="shared" si="10"/>
-        <v>13610</v>
-      </c>
-      <c r="E158" s="1">
-        <v>31.5</v>
-      </c>
-      <c r="F158" s="1">
-        <f t="shared" si="11"/>
-        <v>432.063492063492</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159" s="1">
-        <v>29</v>
-      </c>
-      <c r="B159" s="1">
-        <f t="shared" si="8"/>
-        <v>8410</v>
-      </c>
-      <c r="C159" s="1">
-        <f t="shared" si="9"/>
-        <v>6125</v>
-      </c>
-      <c r="D159" s="1">
-        <f t="shared" si="10"/>
-        <v>14535</v>
-      </c>
-      <c r="E159" s="1">
-        <v>33.5</v>
-      </c>
-      <c r="F159" s="1">
-        <f t="shared" si="11"/>
-        <v>433.880597014925</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160" s="1">
-        <v>30</v>
-      </c>
-      <c r="B160" s="1">
-        <f t="shared" si="8"/>
-        <v>9000</v>
-      </c>
-      <c r="C160" s="1">
-        <f t="shared" si="9"/>
-        <v>6488</v>
-      </c>
-      <c r="D160" s="1">
-        <f t="shared" si="10"/>
-        <v>15488</v>
-      </c>
-      <c r="E160" s="1">
-        <v>35.5</v>
-      </c>
-      <c r="F160" s="1">
-        <f t="shared" si="11"/>
-        <v>436.281690140845</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161" s="1">
-        <v>31</v>
-      </c>
-      <c r="B161" s="1">
-        <f t="shared" si="8"/>
-        <v>10571</v>
-      </c>
-      <c r="C161" s="1">
-        <f t="shared" si="9"/>
-        <v>7546</v>
-      </c>
-      <c r="D161" s="1">
-        <f t="shared" si="10"/>
-        <v>18117</v>
-      </c>
-      <c r="E161" s="1">
-        <v>37.5</v>
-      </c>
-      <c r="F161" s="1">
-        <f t="shared" si="11"/>
-        <v>483.12</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162" s="1">
-        <v>32</v>
-      </c>
-      <c r="B162" s="1">
-        <f t="shared" si="8"/>
-        <v>11264</v>
-      </c>
-      <c r="C162" s="1">
-        <f t="shared" si="9"/>
-        <v>7964</v>
-      </c>
-      <c r="D162" s="1">
-        <f t="shared" si="10"/>
-        <v>19228</v>
-      </c>
-      <c r="E162" s="1">
-        <v>39.5</v>
-      </c>
-      <c r="F162" s="1">
-        <f t="shared" si="11"/>
-        <v>486.784810126582</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163" s="1">
-        <v>33</v>
-      </c>
-      <c r="B163" s="1">
-        <f t="shared" si="8"/>
-        <v>11979</v>
-      </c>
-      <c r="C163" s="1">
-        <f t="shared" si="9"/>
-        <v>8392</v>
-      </c>
-      <c r="D163" s="1">
-        <f t="shared" si="10"/>
-        <v>20371</v>
-      </c>
-      <c r="E163" s="1">
-        <v>41.5</v>
-      </c>
-      <c r="F163" s="1">
-        <f t="shared" si="11"/>
-        <v>490.867469879518</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164" s="1">
-        <v>34</v>
-      </c>
-      <c r="B164" s="1">
-        <f t="shared" si="8"/>
-        <v>13872</v>
-      </c>
-      <c r="C164" s="1">
-        <f t="shared" si="9"/>
-        <v>9632</v>
-      </c>
-      <c r="D164" s="1">
-        <f t="shared" si="10"/>
-        <v>23504</v>
-      </c>
-      <c r="E164" s="1">
-        <v>43.5</v>
-      </c>
-      <c r="F164" s="1">
-        <f t="shared" si="11"/>
-        <v>540.32183908046</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165" s="1">
-        <v>35</v>
-      </c>
-      <c r="B165" s="1">
-        <f t="shared" si="8"/>
-        <v>14700</v>
-      </c>
-      <c r="C165" s="1">
-        <f t="shared" si="9"/>
-        <v>10118</v>
-      </c>
-      <c r="D165" s="1">
-        <f t="shared" si="10"/>
-        <v>24818</v>
-      </c>
-      <c r="E165" s="1">
-        <v>45.5</v>
-      </c>
-      <c r="F165" s="1">
-        <f t="shared" si="11"/>
-        <v>545.450549450549</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B167" s="1">
-        <f>SUM(B131:B165)</f>
-        <v>137406</v>
-      </c>
-      <c r="C167" s="1">
-        <f>SUM(C131:C165)</f>
-        <v>101903</v>
-      </c>
-      <c r="D167" s="1">
-        <f>SUM(D131:D165)</f>
-        <v>239309</v>
-      </c>
-      <c r="E167" s="1">
-        <f>SUM(E131:E165)</f>
-        <v>619.75</v>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26265" windowHeight="14265" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="184">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -318,6 +318,10 @@
   <si>
     <t xml:space="preserve">地图设计
 </t>
+  </si>
+  <si>
+    <t>每个章节20关
+在第8、15、20关时出现Boss</t>
   </si>
   <si>
     <t>草地森林</t>
@@ -1357,6 +1361,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1395,9 +1402,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1748,7 +1752,7 @@
       <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1756,7 +1760,7 @@
       <c r="B4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1764,7 +1768,7 @@
       <c r="B5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1772,7 +1776,7 @@
       <c r="B6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1780,7 +1784,7 @@
       <c r="B7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1788,7 +1792,7 @@
       <c r="B8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1796,7 +1800,7 @@
       <c r="B9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="24"/>
@@ -1877,14 +1881,14 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>2</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" ht="14.25" spans="1:4">
       <c r="A7" s="21" t="s">
@@ -2795,8 +2799,8 @@
         <v>19</v>
       </c>
       <c r="B63" s="1"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
     </row>
     <row r="64" ht="14.25" spans="1:4">
       <c r="A64" s="1" t="s">
@@ -2805,18 +2809,18 @@
       <c r="B64" s="1">
         <v>2</v>
       </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
     </row>
     <row r="65" ht="14.25" spans="1:4">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="9">
         <v>1.7</v>
       </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
     </row>
     <row r="66" ht="14.25" spans="1:4">
       <c r="A66" s="21" t="s">
@@ -4342,12 +4346,12 @@
   </cols>
   <sheetData>
     <row r="12" ht="219" customHeight="1" spans="1:1">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4357,17 +4361,17 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" ht="28.5" spans="1:1">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" ht="42.75" spans="1:1">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4398,46 +4402,46 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="27" spans="1:7">
-      <c r="A1" s="13" t="s">
+    <row r="1" s="13" customFormat="1" ht="27" spans="1:7">
+      <c r="A1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" ht="273" customHeight="1" spans="1:7">
-      <c r="A2" s="14">
+      <c r="A2" s="15">
         <v>10000</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -4445,52 +4449,52 @@
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:7">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="15"/>
       <c r="G3" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" ht="119" customHeight="1" spans="1:5">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" ht="118" customHeight="1" spans="1:5">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" ht="28.5" spans="2:3">
       <c r="B6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4507,7 +4511,7 @@
   <dimension ref="A5:E95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -4528,48 +4532,51 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" ht="63" customHeight="1" spans="2:3">
+    <row r="7" ht="63" customHeight="1" spans="2:4">
       <c r="B7" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="3"/>
+      <c r="D7" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="10" ht="16.5" spans="2:5">
-      <c r="B10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="B10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="6">
         <v>100</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="2:5">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6">
         <v>101</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="2:5">
-      <c r="B12" s="4"/>
-      <c r="C12" s="5">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6">
         <v>102</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="3:5">
@@ -4577,10 +4584,10 @@
         <v>103</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="3:5">
@@ -4588,10 +4595,10 @@
         <v>104</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="3:5">
@@ -4599,10 +4606,10 @@
         <v>105</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="3:5">
@@ -4610,112 +4617,112 @@
         <v>106</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="6" t="s">
         <v>83</v>
       </c>
+      <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="17" ht="16.5" spans="2:5">
-      <c r="B17" s="4"/>
-      <c r="C17" s="5">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6">
         <v>107</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="2:5">
-      <c r="B18" s="4"/>
-      <c r="C18" s="5">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6">
         <v>108</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="2:5">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6">
         <v>109</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="2:3">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" ht="16.5" spans="2:3">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" ht="16.5" spans="2:5">
-      <c r="B22" s="4"/>
-      <c r="C22" s="5">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6">
         <v>150</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="2:3">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" ht="16.5" spans="2:3">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" ht="16.5" spans="2:3">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" ht="16.5" spans="2:3">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" ht="16.5" spans="2:3">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" ht="16.5" spans="2:5">
-      <c r="B28" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="4">
+      <c r="B28" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="5">
         <v>200</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="2:5">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5">
         <v>201</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" ht="42.75" spans="3:5">
@@ -4723,10 +4730,10 @@
         <v>202</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="7" t="s">
         <v>98</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="3:5">
@@ -4734,10 +4741,10 @@
         <v>203</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="3:5">
@@ -4745,10 +4752,10 @@
         <v>204</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="3:5">
@@ -4756,10 +4763,10 @@
         <v>205</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="3:5">
@@ -4767,10 +4774,10 @@
         <v>206</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="3:5">
@@ -4778,10 +4785,10 @@
         <v>207</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="3:5">
@@ -4789,10 +4796,10 @@
         <v>208</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="3:5">
@@ -4800,44 +4807,44 @@
         <v>209</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="2:5">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="E38" s="7"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" ht="16.5" spans="2:5">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="E39" s="7"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="E39" s="8"/>
     </row>
     <row r="40" ht="16.5" spans="2:5">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="E40" s="7"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="E40" s="8"/>
     </row>
     <row r="41" ht="16.5" spans="2:5">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="E41" s="7"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="E41" s="8"/>
     </row>
     <row r="42" ht="42.75" spans="2:5">
-      <c r="B42" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" s="4">
+      <c r="B42" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="5">
         <v>300</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" s="7" t="s">
         <v>115</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="3:5">
@@ -4845,10 +4852,10 @@
         <v>301</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E43" s="7" t="s">
         <v>117</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="44" ht="28.5" spans="3:5">
@@ -4856,10 +4863,10 @@
         <v>302</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E44" s="7" t="s">
         <v>119</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="3:5">
@@ -4867,10 +4874,10 @@
         <v>303</v>
       </c>
       <c r="D45" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="3:5">
@@ -4878,10 +4885,10 @@
         <v>304</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="3:5">
@@ -4889,10 +4896,10 @@
         <v>305</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="3:5">
@@ -4900,10 +4907,10 @@
         <v>306</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="3:5">
@@ -4911,10 +4918,10 @@
         <v>307</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="3:5">
@@ -4922,10 +4929,10 @@
         <v>308</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="3:5">
@@ -4933,24 +4940,24 @@
         <v>309</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" ht="42.75" spans="2:5">
-      <c r="B53" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C53" s="4">
+      <c r="B53" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" s="5">
         <v>400</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E53" s="7" t="s">
         <v>136</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="3:5">
@@ -4958,28 +4965,28 @@
         <v>401</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="3:5">
       <c r="C55" s="1">
         <v>402</v>
       </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="10"/>
     </row>
     <row r="56" spans="3:5">
       <c r="C56" s="1">
         <v>403</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E56" s="6" t="s">
         <v>140</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="3:5">
@@ -4987,10 +4994,10 @@
         <v>404</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E57" s="6" t="s">
         <v>142</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="58" ht="57" spans="3:5">
@@ -4998,10 +5005,10 @@
         <v>405</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E58" s="7" t="s">
         <v>144</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="59" ht="42.75" spans="3:5">
@@ -5009,190 +5016,190 @@
         <v>406</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E59" s="7" t="s">
         <v>146</v>
       </c>
+      <c r="E59" s="8" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="60" ht="28.5" spans="2:5">
-      <c r="B60" s="4"/>
+      <c r="B60" s="5"/>
       <c r="C60" s="1">
         <v>407</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E60" s="7" t="s">
         <v>148</v>
       </c>
+      <c r="E60" s="8" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="61" ht="28.5" spans="2:5">
-      <c r="B61" s="4"/>
+      <c r="B61" s="5"/>
       <c r="C61" s="1">
         <v>408</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E61" s="7" t="s">
         <v>150</v>
       </c>
+      <c r="E61" s="8" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="62" ht="28.5" spans="2:5">
-      <c r="B62" s="4"/>
+      <c r="B62" s="5"/>
       <c r="C62" s="1">
         <v>409</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E62" s="7" t="s">
         <v>152</v>
       </c>
+      <c r="E62" s="8" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="63" ht="16.5" spans="2:5">
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="E63" s="7"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="E63" s="8"/>
     </row>
     <row r="64" ht="16.5" spans="2:5">
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="E64" s="7"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="E64" s="8"/>
     </row>
     <row r="65" ht="42.75" spans="2:5">
-      <c r="B65" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C65" s="4"/>
+      <c r="B65" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" s="5"/>
       <c r="D65" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E65" s="7" t="s">
         <v>155</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="66" ht="40.5" spans="4:5">
       <c r="D66" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E66" s="10" t="s">
         <v>157</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="4:5">
       <c r="D67" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E67" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B71" s="11" t="s">
+      <c r="A71" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11" t="s">
+      <c r="B71" s="12" t="s">
         <v>163</v>
       </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11" t="s">
+      <c r="A72" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B72" s="12" t="s">
         <v>165</v>
       </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11" t="s">
+      <c r="A73" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" s="12" t="s">
         <v>167</v>
       </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="74" spans="4:4">
-      <c r="D74" s="7"/>
+      <c r="D74" s="8"/>
     </row>
     <row r="75" spans="4:4">
-      <c r="D75" s="7"/>
+      <c r="D75" s="8"/>
     </row>
     <row r="76" spans="4:4">
-      <c r="D76" s="7"/>
+      <c r="D76" s="8"/>
     </row>
     <row r="77" spans="4:4">
-      <c r="D77" s="7"/>
+      <c r="D77" s="8"/>
     </row>
     <row r="78" spans="4:4">
-      <c r="D78" s="7"/>
+      <c r="D78" s="8"/>
     </row>
     <row r="79" spans="4:4">
-      <c r="D79" s="7"/>
+      <c r="D79" s="8"/>
     </row>
     <row r="80" spans="4:4">
-      <c r="D80" s="7"/>
+      <c r="D80" s="8"/>
     </row>
     <row r="81" spans="4:4">
-      <c r="D81" s="7"/>
+      <c r="D81" s="8"/>
     </row>
     <row r="82" ht="28.5" spans="2:4">
       <c r="B82" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="4:4">
       <c r="D84" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="4:4">
       <c r="D85" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="87" spans="4:4">
       <c r="D87" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5218,27 +5225,27 @@
   <sheetData>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -5260,12 +5267,12 @@
   <sheetData>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="5"/>
+    <workbookView windowWidth="26265" windowHeight="14265" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -205,7 +205,12 @@
   </si>
   <si>
     <t>把技能模块做成局内的肉鸽玩法？
-宝珠系统依然作为局外的模块。</t>
+宝珠系统依然作为局外的模块。
+目前模式下
+广告点：过关多倍奖励、洗技能、解锁武器。
+肉鸽模式下
+广告店：过关多倍奖励、刷新技能、解锁武器
+肉鸽模式下的局外成长：宝珠系统。|| 攻击攻速加成还要吗?</t>
   </si>
   <si>
     <t>ID</t>
@@ -1348,7 +1353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1371,9 +1376,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1737,76 +1739,76 @@
   <sheetPr/>
   <dimension ref="B3:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="27" style="22" customWidth="1"/>
+    <col min="2" max="2" width="27" style="21" customWidth="1"/>
     <col min="3" max="3" width="92.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="114.125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="114.125" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="140" customHeight="1" spans="2:3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="101" customHeight="1" spans="2:3">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="101" customHeight="1" spans="2:3">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="103" customHeight="1" spans="2:3">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="103" customHeight="1" spans="2:3">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="100" customHeight="1" spans="2:3">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" ht="154" customHeight="1" spans="2:4">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="23"/>
     </row>
     <row r="10" ht="76" customHeight="1" spans="2:3">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1837,7 +1839,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="1:4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1"/>
@@ -1845,11 +1847,11 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" ht="14.25" spans="1:4">
@@ -1881,26 +1883,26 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" ht="14.25" spans="1:4">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2755,19 +2757,19 @@
       </c>
     </row>
     <row r="58" ht="28.5" spans="1:4">
-      <c r="A58" s="19"/>
+      <c r="A58" s="18"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
     <row r="59" ht="28.5" spans="1:4">
-      <c r="A59" s="19"/>
+      <c r="A59" s="18"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
     <row r="60" ht="28.5" spans="1:4">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B60" s="1"/>
@@ -2799,8 +2801,8 @@
         <v>19</v>
       </c>
       <c r="B63" s="1"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
     </row>
     <row r="64" ht="14.25" spans="1:4">
       <c r="A64" s="1" t="s">
@@ -2809,30 +2811,30 @@
       <c r="B64" s="1">
         <v>2</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
     </row>
     <row r="65" ht="14.25" spans="1:4">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="8">
         <v>1.7</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
     </row>
     <row r="66" ht="14.25" spans="1:4">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D66" s="21" t="s">
+      <c r="D66" s="20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3699,7 +3701,7 @@
       <c r="D118" s="1"/>
     </row>
     <row r="119" ht="28.5" spans="1:4">
-      <c r="A119" s="19" t="s">
+      <c r="A119" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C119" s="1"/>
@@ -4137,10 +4139,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4335,7 +4337,7 @@
   <sheetPr/>
   <dimension ref="A12:A26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -4346,12 +4348,12 @@
   </cols>
   <sheetData>
     <row r="12" ht="219" customHeight="1" spans="1:1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4361,7 +4363,7 @@
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4370,7 +4372,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" ht="42.75" spans="1:1">
+    <row r="26" ht="199.5" spans="1:1">
       <c r="A26" s="4" t="s">
         <v>40</v>
       </c>
@@ -4402,46 +4404,46 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1" ht="27" spans="1:7">
-      <c r="A1" s="14" t="s">
+    <row r="1" s="12" customFormat="1" ht="27" spans="1:7">
+      <c r="A1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="2" ht="273" customHeight="1" spans="1:7">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>10000</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -4449,52 +4451,52 @@
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:7">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="14"/>
       <c r="G3" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" ht="119" customHeight="1" spans="1:5">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" ht="118" customHeight="1" spans="1:5">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" ht="28.5" spans="2:3">
       <c r="B6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4510,7 +4512,7 @@
   <sheetPr/>
   <dimension ref="A5:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -4732,7 +4734,7 @@
       <c r="D30" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="4" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4816,22 +4818,22 @@
     <row r="38" ht="16.5" spans="2:5">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="E38" s="8"/>
+      <c r="E38" s="4"/>
     </row>
     <row r="39" ht="16.5" spans="2:5">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="E39" s="8"/>
+      <c r="E39" s="4"/>
     </row>
     <row r="40" ht="16.5" spans="2:5">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="E40" s="8"/>
+      <c r="E40" s="4"/>
     </row>
     <row r="41" ht="16.5" spans="2:5">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="E41" s="8"/>
+      <c r="E41" s="4"/>
     </row>
     <row r="42" ht="42.75" spans="2:5">
       <c r="B42" s="5" t="s">
@@ -4843,7 +4845,7 @@
       <c r="D42" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="4" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4854,7 +4856,7 @@
       <c r="D43" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="4" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4865,7 +4867,7 @@
       <c r="D44" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="4" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4956,7 +4958,7 @@
       <c r="D53" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="4" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4975,8 +4977,8 @@
       <c r="C55" s="1">
         <v>402</v>
       </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="10"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="9"/>
     </row>
     <row r="56" spans="3:5">
       <c r="C56" s="1">
@@ -5007,7 +5009,7 @@
       <c r="D58" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="4" t="s">
         <v>145</v>
       </c>
     </row>
@@ -5018,7 +5020,7 @@
       <c r="D59" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="4" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5030,7 +5032,7 @@
       <c r="D60" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="4" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5042,7 +5044,7 @@
       <c r="D61" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="4" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5054,19 +5056,19 @@
       <c r="D62" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="63" ht="16.5" spans="2:5">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
-      <c r="E63" s="8"/>
+      <c r="E63" s="4"/>
     </row>
     <row r="64" ht="16.5" spans="2:5">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
-      <c r="E64" s="8"/>
+      <c r="E64" s="4"/>
     </row>
     <row r="65" ht="42.75" spans="2:5">
       <c r="B65" s="5" t="s">
@@ -5076,7 +5078,7 @@
       <c r="D65" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="4" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5084,7 +5086,7 @@
       <c r="D66" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="10" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5102,70 +5104,70 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12" t="s">
+      <c r="C71" s="11"/>
+      <c r="D71" s="11" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12" t="s">
+      <c r="C72" s="11"/>
+      <c r="D72" s="11" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12" t="s">
+      <c r="C73" s="11"/>
+      <c r="D73" s="11" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="74" spans="4:4">
-      <c r="D74" s="8"/>
+      <c r="D74" s="4"/>
     </row>
     <row r="75" spans="4:4">
-      <c r="D75" s="8"/>
+      <c r="D75" s="4"/>
     </row>
     <row r="76" spans="4:4">
-      <c r="D76" s="8"/>
+      <c r="D76" s="4"/>
     </row>
     <row r="77" spans="4:4">
-      <c r="D77" s="8"/>
+      <c r="D77" s="4"/>
     </row>
     <row r="78" spans="4:4">
-      <c r="D78" s="8"/>
+      <c r="D78" s="4"/>
     </row>
     <row r="79" spans="4:4">
-      <c r="D79" s="8"/>
+      <c r="D79" s="4"/>
     </row>
     <row r="80" spans="4:4">
-      <c r="D80" s="8"/>
+      <c r="D80" s="4"/>
     </row>
     <row r="81" spans="4:4">
-      <c r="D81" s="8"/>
+      <c r="D81" s="4"/>
     </row>
     <row r="82" ht="28.5" spans="2:4">
       <c r="B82" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="4" t="s">
         <v>169</v>
       </c>
     </row>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26265" windowHeight="14265" activeTab="3"/>
+    <workbookView windowWidth="26265" windowHeight="12885" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -671,7 +671,7 @@
     <t>蛛网的打击、破碎音效</t>
   </si>
   <si>
-    <t>考虑把局外成长做成局内的肉鸽？</t>
+    <t>红蛙释放技能需要个特效</t>
   </si>
   <si>
     <t>宝珠掉落逻辑</t>
@@ -4111,10 +4111,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B25"/>
+  <dimension ref="A2:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -4324,6 +4324,186 @@
       <c r="B25" s="1">
         <f t="shared" si="1"/>
         <v>960</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" ref="B26:B40" si="2">($B$3*A26*A26)/2-($B$3*A26)/2+$B$2</f>
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="2"/>
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="2"/>
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="2"/>
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="2"/>
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
+        <v>26</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="2"/>
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
+        <v>27</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="2"/>
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
+        <v>28</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="2"/>
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="2"/>
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
+        <v>30</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="2"/>
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
+        <v>31</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="2"/>
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
+        <v>32</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="2"/>
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
+        <v>33</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="2"/>
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
+        <v>34</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="2"/>
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
+        <v>35</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="2"/>
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
+        <v>36</v>
+      </c>
+      <c r="B41" s="1">
+        <f>($B$3*A41*A41)/2-($B$3*A41)/2+$B$2</f>
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
+        <v>37</v>
+      </c>
+      <c r="B42" s="1">
+        <f>($B$3*A42*A42)/2-($B$3*A42)/2+$B$2</f>
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
+        <v>38</v>
+      </c>
+      <c r="B43" s="1">
+        <f>($B$3*A43*A43)/2-($B$3*A43)/2+$B$2</f>
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
+        <v>39</v>
+      </c>
+      <c r="B44" s="1">
+        <f>($B$3*A44*A44)/2-($B$3*A44)/2+$B$2</f>
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
+        <v>40</v>
+      </c>
+      <c r="B45" s="1">
+        <f>($B$3*A45*A45)/2-($B$3*A45)/2+$B$2</f>
+        <v>3910</v>
       </c>
     </row>
   </sheetData>
@@ -4337,7 +4517,7 @@
   <sheetPr/>
   <dimension ref="A12:A26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -4513,7 +4693,7 @@
   <dimension ref="A5:E95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -5213,10 +5393,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A10:A21"/>
+  <dimension ref="A10:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5245,8 +5425,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
         <v>181</v>
       </c>
     </row>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="188">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -672,6 +672,18 @@
   </si>
   <si>
     <t>红蛙释放技能需要个特效</t>
+  </si>
+  <si>
+    <t>混乱特效</t>
+  </si>
+  <si>
+    <t>易伤特效</t>
+  </si>
+  <si>
+    <t>晕眩特效</t>
+  </si>
+  <si>
+    <t>陷阱：投掷一个陷阱，N秒后拉拢范围内的所有敌人</t>
   </si>
   <si>
     <t>宝珠掉落逻辑</t>
@@ -4331,7 +4343,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" ref="B26:B40" si="2">($B$3*A26*A26)/2-($B$3*A26)/2+$B$2</f>
+        <f t="shared" ref="B26:B45" si="2">($B$3*A26*A26)/2-($B$3*A26)/2+$B$2</f>
         <v>1060</v>
       </c>
     </row>
@@ -4466,7 +4478,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="1">
-        <f>($B$3*A41*A41)/2-($B$3*A41)/2+$B$2</f>
+        <f t="shared" si="2"/>
         <v>3160</v>
       </c>
     </row>
@@ -4475,7 +4487,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="1">
-        <f>($B$3*A42*A42)/2-($B$3*A42)/2+$B$2</f>
+        <f t="shared" si="2"/>
         <v>3340</v>
       </c>
     </row>
@@ -4484,7 +4496,7 @@
         <v>38</v>
       </c>
       <c r="B43" s="1">
-        <f>($B$3*A43*A43)/2-($B$3*A43)/2+$B$2</f>
+        <f t="shared" si="2"/>
         <v>3525</v>
       </c>
     </row>
@@ -4493,7 +4505,7 @@
         <v>39</v>
       </c>
       <c r="B44" s="1">
-        <f>($B$3*A44*A44)/2-($B$3*A44)/2+$B$2</f>
+        <f t="shared" si="2"/>
         <v>3715</v>
       </c>
     </row>
@@ -4502,7 +4514,7 @@
         <v>40</v>
       </c>
       <c r="B45" s="1">
-        <f>($B$3*A45*A45)/2-($B$3*A45)/2+$B$2</f>
+        <f t="shared" si="2"/>
         <v>3910</v>
       </c>
     </row>
@@ -4693,7 +4705,7 @@
   <dimension ref="A5:E95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -5393,10 +5405,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A10:A14"/>
+  <dimension ref="A10:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5426,8 +5438,28 @@
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -5449,12 +5481,12 @@
   <sheetData>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26265" windowHeight="12885" activeTab="6"/>
+    <workbookView windowWidth="26265" windowHeight="12885" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="187">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -178,7 +178,7 @@
     <t>关卡</t>
   </si>
   <si>
-    <t>产出</t>
+    <t>碎片产出</t>
   </si>
   <si>
     <t xml:space="preserve">考虑把皮肤系统设计成武器，例如：弓箭、太刀、巨剑、铁锤等。
@@ -202,15 +202,6 @@
   <si>
     <t>远程只能环绕场地移动
 近战则可以在整个场地内进行移动，利用摇杆来控制方向？</t>
-  </si>
-  <si>
-    <t>把技能模块做成局内的肉鸽玩法？
-宝珠系统依然作为局外的模块。
-目前模式下
-广告点：过关多倍奖励、洗技能、解锁武器。
-肉鸽模式下
-广告店：过关多倍奖励、刷新技能、解锁武器
-肉鸽模式下的局外成长：宝珠系统。|| 攻击攻速加成还要吗?</t>
   </si>
   <si>
     <t>ID</t>
@@ -1420,10 +1411,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1751,7 +1742,7 @@
   <sheetPr/>
   <dimension ref="B3:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1851,7 +1842,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="1:4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1"/>
@@ -1859,11 +1850,11 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" ht="14.25" spans="1:4">
@@ -2769,19 +2760,19 @@
       </c>
     </row>
     <row r="58" ht="28.5" spans="1:4">
-      <c r="A58" s="18"/>
+      <c r="A58" s="19"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
     <row r="59" ht="28.5" spans="1:4">
-      <c r="A59" s="18"/>
+      <c r="A59" s="19"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
     <row r="60" ht="28.5" spans="1:4">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B60" s="1"/>
@@ -3713,7 +3704,7 @@
       <c r="D118" s="1"/>
     </row>
     <row r="119" ht="28.5" spans="1:4">
-      <c r="A119" s="18" t="s">
+      <c r="A119" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C119" s="1"/>
@@ -4126,12 +4117,14 @@
   <dimension ref="A2:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A25" sqref="A25:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -4330,10 +4323,10 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1">
+      <c r="A25" s="18">
         <v>20</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="18">
         <f t="shared" si="1"/>
         <v>960</v>
       </c>
@@ -4529,8 +4522,8 @@
   <sheetPr/>
   <dimension ref="A12:A26"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4564,10 +4557,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" ht="199.5" spans="1:1">
-      <c r="A26" s="4" t="s">
-        <v>40</v>
-      </c>
+    <row r="26" spans="1:1">
+      <c r="A26" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4598,25 +4589,25 @@
   <sheetData>
     <row r="1" s="12" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" ht="273" customHeight="1" spans="1:7">
@@ -4624,72 +4615,72 @@
         <v>10000</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:7">
       <c r="A3" s="14"/>
       <c r="B3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>56</v>
       </c>
       <c r="E3" s="14"/>
       <c r="G3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" ht="119" customHeight="1" spans="1:5">
       <c r="A4" s="14"/>
       <c r="B4" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>60</v>
       </c>
       <c r="E4" s="14"/>
     </row>
     <row r="5" ht="118" customHeight="1" spans="1:5">
       <c r="A5" s="14"/>
       <c r="B5" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>63</v>
       </c>
       <c r="E5" s="14"/>
     </row>
     <row r="6" ht="28.5" spans="2:3">
       <c r="B6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="13" ht="98" customHeight="1"/>
@@ -4720,33 +4711,33 @@
   <sheetData>
     <row r="5" spans="2:4">
       <c r="B5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" ht="63" customHeight="1" spans="2:4">
       <c r="B7" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="2:5">
       <c r="B10" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="6">
         <v>100</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="2:5">
@@ -4755,10 +4746,10 @@
         <v>101</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="2:5">
@@ -4767,10 +4758,10 @@
         <v>102</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="3:5">
@@ -4778,10 +4769,10 @@
         <v>103</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="3:5">
@@ -4789,10 +4780,10 @@
         <v>104</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="3:5">
@@ -4800,10 +4791,10 @@
         <v>105</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="16" spans="3:5">
@@ -4811,10 +4802,10 @@
         <v>106</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="2:5">
@@ -4823,10 +4814,10 @@
         <v>107</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="2:5">
@@ -4835,10 +4826,10 @@
         <v>108</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="2:5">
@@ -4847,10 +4838,10 @@
         <v>109</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="2:3">
@@ -4867,10 +4858,10 @@
         <v>150</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="2:3">
@@ -4895,16 +4886,16 @@
     </row>
     <row r="28" ht="16.5" spans="2:5">
       <c r="B28" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" s="5">
         <v>200</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="2:5">
@@ -4913,10 +4904,10 @@
         <v>201</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="30" ht="42.75" spans="3:5">
@@ -4924,10 +4915,10 @@
         <v>202</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="31" spans="3:5">
@@ -4935,10 +4926,10 @@
         <v>203</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="32" spans="3:5">
@@ -4946,10 +4937,10 @@
         <v>204</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="33" spans="3:5">
@@ -4957,10 +4948,10 @@
         <v>205</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="34" spans="3:5">
@@ -4968,10 +4959,10 @@
         <v>206</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="35" spans="3:5">
@@ -4979,10 +4970,10 @@
         <v>207</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="36" spans="3:5">
@@ -4990,10 +4981,10 @@
         <v>208</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="37" spans="3:5">
@@ -5001,10 +4992,10 @@
         <v>209</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="2:5">
@@ -5029,16 +5020,16 @@
     </row>
     <row r="42" ht="42.75" spans="2:5">
       <c r="B42" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C42" s="5">
         <v>300</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="43" spans="3:5">
@@ -5046,10 +5037,10 @@
         <v>301</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="44" ht="28.5" spans="3:5">
@@ -5057,10 +5048,10 @@
         <v>302</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="45" spans="3:5">
@@ -5068,10 +5059,10 @@
         <v>303</v>
       </c>
       <c r="D45" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="46" spans="3:5">
@@ -5079,10 +5070,10 @@
         <v>304</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="47" spans="3:5">
@@ -5090,10 +5081,10 @@
         <v>305</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="48" spans="3:5">
@@ -5101,10 +5092,10 @@
         <v>306</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="49" spans="3:5">
@@ -5112,10 +5103,10 @@
         <v>307</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="50" spans="3:5">
@@ -5123,10 +5114,10 @@
         <v>308</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="51" spans="3:5">
@@ -5134,24 +5125,24 @@
         <v>309</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="53" ht="42.75" spans="2:5">
       <c r="B53" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C53" s="5">
         <v>400</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="54" spans="3:5">
@@ -5159,10 +5150,10 @@
         <v>401</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="55" spans="3:5">
@@ -5177,10 +5168,10 @@
         <v>403</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="57" spans="3:5">
@@ -5188,10 +5179,10 @@
         <v>404</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="58" ht="57" spans="3:5">
@@ -5199,10 +5190,10 @@
         <v>405</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="59" ht="42.75" spans="3:5">
@@ -5210,10 +5201,10 @@
         <v>406</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="60" ht="28.5" spans="2:5">
@@ -5222,10 +5213,10 @@
         <v>407</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="61" ht="28.5" spans="2:5">
@@ -5234,10 +5225,10 @@
         <v>408</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="62" ht="28.5" spans="2:5">
@@ -5246,10 +5237,10 @@
         <v>409</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="63" ht="16.5" spans="2:5">
@@ -5264,71 +5255,71 @@
     </row>
     <row r="65" ht="42.75" spans="2:5">
       <c r="B65" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="66" ht="40.5" spans="4:5">
       <c r="D66" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E66" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="67" spans="4:5">
       <c r="D67" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E67" t="s">
         <v>159</v>
-      </c>
-      <c r="E67" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B71" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>163</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="4:4">
@@ -5357,43 +5348,43 @@
     </row>
     <row r="82" ht="28.5" spans="2:4">
       <c r="B82" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="4:4">
       <c r="D84" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="4:4">
       <c r="D85" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="87" spans="4:4">
       <c r="D87" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -5407,59 +5398,59 @@
   <sheetPr/>
   <dimension ref="A10:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="30.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="74.5" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="10" spans="1:1">
       <c r="A10" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -5473,7 +5464,7 @@
   <sheetPr/>
   <dimension ref="A12:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -5481,12 +5472,12 @@
   <sheetData>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26265" windowHeight="12885" activeTab="7"/>
+    <workbookView windowWidth="26265" windowHeight="12885" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="怪物" sheetId="9" r:id="rId6"/>
     <sheet name="待完善" sheetId="18" r:id="rId7"/>
     <sheet name="8.5" sheetId="20" r:id="rId8"/>
+    <sheet name="面试加强" sheetId="21" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="197">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -681,6 +682,36 @@
   </si>
   <si>
     <t>宝珠合成逻辑及UI</t>
+  </si>
+  <si>
+    <t>了解UGUI界面优化、Drawcall优化方案</t>
+  </si>
+  <si>
+    <t>了解AssetBundle打包的原理、依赖关系及循环依赖的解决办法，卸载时机</t>
+  </si>
+  <si>
+    <t>利用引用计数去判断卸载时机</t>
+  </si>
+  <si>
+    <t>Unity性能优化的常用方案</t>
+  </si>
+  <si>
+    <t>tcp和udp的区别</t>
+  </si>
+  <si>
+    <t>lua和c#相互调用的性能问题</t>
+  </si>
+  <si>
+    <t>查表和重建表的消耗</t>
+  </si>
+  <si>
+    <t>UGUI动态合批的优化</t>
+  </si>
+  <si>
+    <t>Unity常见问题大纲 背下来</t>
+  </si>
+  <si>
+    <t>ShareMaterial和Material的区别</t>
   </si>
 </sst>
 </file>
@@ -1356,8 +1387,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1748,73 +1782,73 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="27" style="21" customWidth="1"/>
-    <col min="3" max="3" width="92.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="114.125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="27" style="22" customWidth="1"/>
+    <col min="3" max="3" width="92.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="114.125" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="140" customHeight="1" spans="2:3">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="101" customHeight="1" spans="2:3">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="101" customHeight="1" spans="2:3">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="103" customHeight="1" spans="2:3">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="103" customHeight="1" spans="2:3">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="100" customHeight="1" spans="2:3">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" ht="154" customHeight="1" spans="2:4">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" ht="76" customHeight="1" spans="2:3">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1842,2268 +1876,2268 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="1:4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="1"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" ht="14.25" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" ht="14.25" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" ht="14.25" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>2</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" ht="14.25" spans="1:4">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <f t="shared" ref="B8:B42" si="0">FLOOR((A8-1)/3,1)+1</f>
         <v>1</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <f>$B$3+(A8-1)*B8</f>
         <v>1</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <f>$B$5*POWER(A8,$B$6)*B8</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <f>$B$3+(A9-1)*B9</f>
         <v>2</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <f>$B$5*POWER(A9,$B$6)*B9</f>
         <v>4</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:4">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <f>$B$3+(A10-1)*B10</f>
         <v>3</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <f>$B$5*POWER(A10,$B$6)*B10</f>
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:4">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <f>$B$3+(A11-1)*B11</f>
         <v>7</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <f>$B$5*POWER(A11,$B$6)*B11</f>
         <v>32</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:4">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>5</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <f>$B$3+(A12-1)*B12</f>
         <v>9</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <f>$B$5*POWER(A12,$B$6)*B12</f>
         <v>50</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:4">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>6</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <f>$B$3+(A13-1)*B13</f>
         <v>11</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <f>$B$5*POWER(A13,$B$6)*B13</f>
         <v>72</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:4">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>7</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <f>$B$3+(A14-1)*B14</f>
         <v>19</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <f>$B$5*POWER(A14,$B$6)*B14</f>
         <v>147</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:4">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>8</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <f>$B$3+(A15-1)*B15</f>
         <v>22</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <f>$B$5*POWER(A15,$B$6)*B15</f>
         <v>192</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:4">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>9</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <f>$B$3+(A16-1)*B16</f>
         <v>25</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <f>$B$5*POWER(A16,$B$6)*B16</f>
         <v>243</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:4">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>10</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <f>$B$3+(A17-1)*B17</f>
         <v>37</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <f>$B$5*POWER(A17,$B$6)*B17</f>
         <v>400</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:4">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>11</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <f>$B$3+(A18-1)*B18</f>
         <v>41</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <f>$B$5*POWER(A18,$B$6)*B18</f>
         <v>484</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:4">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>12</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <f>$B$3+(A19-1)*B19</f>
         <v>45</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <f>$B$5*POWER(A19,$B$6)*B19</f>
         <v>576</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:4">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>13</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <f>$B$3+(A20-1)*B20</f>
         <v>61</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <f>$B$5*POWER(A20,$B$6)*B20</f>
         <v>845</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:4">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>14</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <f>$B$3+(A21-1)*B21</f>
         <v>66</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <f>$B$5*POWER(A21,$B$6)*B21</f>
         <v>980</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:4">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>15</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <f>$B$3+(A22-1)*B22</f>
         <v>71</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <f>$B$5*POWER(A22,$B$6)*B22</f>
         <v>1125</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:4">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>16</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <f>$B$3+(A23-1)*B23</f>
         <v>91</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <f>$B$5*POWER(A23,$B$6)*B23</f>
         <v>1536</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:4">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>17</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <f>$B$3+(A24-1)*B24</f>
         <v>97</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <f>$B$5*POWER(A24,$B$6)*B24</f>
         <v>1734</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:4">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>18</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <f>$B$3+(A25-1)*B25</f>
         <v>103</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <f>$B$5*POWER(A25,$B$6)*B25</f>
         <v>1944</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:4">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>19</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <f>$B$3+(A26-1)*B26</f>
         <v>127</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <f>$B$5*POWER(A26,$B$6)*B26</f>
         <v>2527</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:4">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>20</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <f>$B$3+(A27-1)*B27</f>
         <v>134</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <f>$B$5*POWER(A27,$B$6)*B27</f>
         <v>2800</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:4">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>21</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <f>$B$3+(A28-1)*B28</f>
         <v>141</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <f>$B$5*POWER(A28,$B$6)*B28</f>
         <v>3087</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:4">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>22</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <f>$B$3+(A29-1)*B29</f>
         <v>169</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <f>$B$5*POWER(A29,$B$6)*B29</f>
         <v>3872</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:4">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>23</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <f>$B$3+(A30-1)*B30</f>
         <v>177</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <f>$B$5*POWER(A30,$B$6)*B30</f>
         <v>4232</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:4">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>24</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <f>$B$3+(A31-1)*B31</f>
         <v>185</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <f>$B$5*POWER(A31,$B$6)*B31</f>
         <v>4608</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:4">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>25</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <f>$B$3+(A32-1)*B32</f>
         <v>217</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <f>$B$5*POWER(A32,$B$6)*B32</f>
         <v>5625</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:4">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>26</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <f>$B$3+(A33-1)*B33</f>
         <v>226</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <f>$B$5*POWER(A33,$B$6)*B33</f>
         <v>6084</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:4">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>27</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2">
         <f>$B$3+(A34-1)*B34</f>
         <v>235</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <f>$B$5*POWER(A34,$B$6)*B34</f>
         <v>6561</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:4">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>28</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
         <f>$B$3+(A35-1)*B35</f>
         <v>271</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <f>$B$5*POWER(A35,$B$6)*B35</f>
         <v>7840</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:4">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>29</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
         <f>$B$3+(A36-1)*B36</f>
         <v>281</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <f>$B$5*POWER(A36,$B$6)*B36</f>
         <v>8410</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:4">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>30</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
         <f>$B$3+(A37-1)*B37</f>
         <v>291</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <f>$B$5*POWER(A37,$B$6)*B37</f>
         <v>9000</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:4">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>31</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="2">
         <f>$B$3+(A38-1)*B38</f>
         <v>331</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <f>$B$5*POWER(A38,$B$6)*B38</f>
         <v>10571</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:4">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>32</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="2">
         <f>$B$3+(A39-1)*B39</f>
         <v>342</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="2">
         <f>$B$5*POWER(A39,$B$6)*B39</f>
         <v>11264</v>
       </c>
     </row>
     <row r="40" ht="14.25" spans="1:4">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>33</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="2">
         <f>$B$3+(A40-1)*B40</f>
         <v>353</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="2">
         <f>$B$5*POWER(A40,$B$6)*B40</f>
         <v>11979</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:4">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>34</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="2">
         <f>$B$3+(A41-1)*B41</f>
         <v>397</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="2">
         <f>$B$5*POWER(A41,$B$6)*B41</f>
         <v>13872</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:4">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>35</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="2">
         <f>$B$3+(A42-1)*B42</f>
         <v>409</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="2">
         <f>$B$5*POWER(A42,$B$6)*B42</f>
         <v>14700</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:4">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>36</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <f t="shared" ref="B43:B57" si="1">FLOOR((A43-1)/3,1)+1</f>
         <v>12</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="2">
         <f t="shared" ref="C43:C57" si="2">$B$3+(A43-1)*B43</f>
         <v>421</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="2">
         <f t="shared" ref="D43:D57" si="3">$B$5*POWER(A43,$B$6)*B43</f>
         <v>15552</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:4">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>37</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="2">
         <f t="shared" si="2"/>
         <v>469</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="2">
         <f t="shared" si="3"/>
         <v>17797</v>
       </c>
     </row>
     <row r="45" ht="14.25" spans="1:4">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>38</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="2">
         <f t="shared" si="2"/>
         <v>482</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="2">
         <f t="shared" si="3"/>
         <v>18772</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:4">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>39</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="2">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="2">
         <f t="shared" si="2"/>
         <v>495</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="2">
         <f t="shared" si="3"/>
         <v>19773</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:4">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>40</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="2">
         <f t="shared" si="2"/>
         <v>547</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="2">
         <f t="shared" si="3"/>
         <v>22400</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:4">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>41</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="2">
         <f t="shared" si="2"/>
         <v>561</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="2">
         <f t="shared" si="3"/>
         <v>23534</v>
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:4">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>42</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="2">
         <f t="shared" si="2"/>
         <v>575</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="2">
         <f t="shared" si="3"/>
         <v>24696</v>
       </c>
     </row>
     <row r="50" ht="14.25" spans="1:4">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>43</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="2">
         <f t="shared" si="2"/>
         <v>631</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="2">
         <f t="shared" si="3"/>
         <v>27735</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:4">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>44</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="2">
         <f t="shared" si="2"/>
         <v>646</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="2">
         <f t="shared" si="3"/>
         <v>29040</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:4">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>45</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="2">
         <f t="shared" si="2"/>
         <v>661</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="2">
         <f t="shared" si="3"/>
         <v>30375</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:4">
-      <c r="A53" s="1">
+      <c r="A53" s="2">
         <v>46</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="2">
         <f t="shared" si="2"/>
         <v>721</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="2">
         <f t="shared" si="3"/>
         <v>33856</v>
       </c>
     </row>
     <row r="54" ht="14.25" spans="1:4">
-      <c r="A54" s="1">
+      <c r="A54" s="2">
         <v>47</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="2">
         <f t="shared" si="2"/>
         <v>737</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="2">
         <f t="shared" si="3"/>
         <v>35344</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:4">
-      <c r="A55" s="1">
+      <c r="A55" s="2">
         <v>48</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="2">
         <f t="shared" si="2"/>
         <v>753</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="2">
         <f t="shared" si="3"/>
         <v>36864</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:4">
-      <c r="A56" s="1">
+      <c r="A56" s="2">
         <v>49</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="2">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="2">
         <f t="shared" si="2"/>
         <v>817</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="2">
         <f t="shared" si="3"/>
         <v>40817</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:4">
-      <c r="A57" s="1">
+      <c r="A57" s="2">
         <v>50</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="2">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="2">
         <f t="shared" si="2"/>
         <v>834</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="2">
         <f t="shared" si="3"/>
         <v>42500</v>
       </c>
     </row>
     <row r="58" ht="28.5" spans="1:4">
-      <c r="A58" s="19"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
     </row>
     <row r="59" ht="28.5" spans="1:4">
-      <c r="A59" s="19"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
     </row>
     <row r="60" ht="28.5" spans="1:4">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
     </row>
     <row r="61" ht="14.25" spans="1:4">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="3">
         <v>450</v>
       </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
     </row>
     <row r="62" ht="14.25" spans="1:4">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="3">
         <v>1</v>
       </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
     </row>
     <row r="63" ht="14.25" spans="1:4">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
     </row>
     <row r="64" ht="14.25" spans="1:4">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="2">
         <v>2</v>
       </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
     </row>
     <row r="65" ht="14.25" spans="1:4">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="9">
         <v>1.7</v>
       </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
     </row>
     <row r="66" ht="14.25" spans="1:4">
-      <c r="A66" s="20" t="s">
+      <c r="A66" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="D66" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:4">
-      <c r="A67" s="1">
+      <c r="A67" s="2">
         <v>1</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="2">
         <f>FLOOR((A67-1)/(3),1)+1</f>
         <v>1</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="2">
         <f t="shared" ref="C67:C101" si="4">$B$61/(1+((A67-1)*B67*$B$62)/100)</f>
         <v>450</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="2">
         <f t="shared" ref="D67:D101" si="5">FLOOR($B$64*POWER(A67,$B$65)*B67,1)</f>
         <v>2</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:4">
-      <c r="A68" s="1">
+      <c r="A68" s="2">
         <v>2</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="2">
         <f t="shared" ref="B68:B99" si="6">FLOOR((A68-1)/(3),1)+1</f>
         <v>1</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" s="2">
         <f t="shared" si="4"/>
         <v>445.544554455446</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="2">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:4">
-      <c r="A69" s="1">
+      <c r="A69" s="2">
         <v>3</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="2">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="2">
         <f t="shared" si="4"/>
         <v>441.176470588235</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="2">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:4">
-      <c r="A70" s="1">
+      <c r="A70" s="2">
         <v>4</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="2">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="2">
         <f t="shared" si="4"/>
         <v>424.528301886792</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="2">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
     </row>
     <row r="71" ht="14.25" spans="1:4">
-      <c r="A71" s="1">
+      <c r="A71" s="2">
         <v>5</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="2">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="2">
         <f t="shared" si="4"/>
         <v>416.666666666667</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="2">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
     </row>
     <row r="72" ht="14.25" spans="1:4">
-      <c r="A72" s="1">
+      <c r="A72" s="2">
         <v>6</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="2">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="2">
         <f t="shared" si="4"/>
         <v>409.090909090909</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="2">
         <f t="shared" si="5"/>
         <v>84</v>
       </c>
     </row>
     <row r="73" ht="14.25" spans="1:4">
-      <c r="A73" s="1">
+      <c r="A73" s="2">
         <v>7</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="2">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="2">
         <f t="shared" si="4"/>
         <v>381.35593220339</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="2">
         <f t="shared" si="5"/>
         <v>163</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:4">
-      <c r="A74" s="1">
+      <c r="A74" s="2">
         <v>8</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="2">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="2">
         <f t="shared" si="4"/>
         <v>371.900826446281</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="2">
         <f t="shared" si="5"/>
         <v>205</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:4">
-      <c r="A75" s="1">
+      <c r="A75" s="2">
         <v>9</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="2">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="2">
         <f t="shared" si="4"/>
         <v>362.903225806452</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="2">
         <f t="shared" si="5"/>
         <v>251</v>
       </c>
     </row>
     <row r="76" ht="14.25" spans="1:4">
-      <c r="A76" s="1">
+      <c r="A76" s="2">
         <v>10</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="2">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="2">
         <f t="shared" si="4"/>
         <v>330.882352941177</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="2">
         <f t="shared" si="5"/>
         <v>400</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:4">
-      <c r="A77" s="1">
+      <c r="A77" s="2">
         <v>11</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="2">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="2">
         <f t="shared" si="4"/>
         <v>321.428571428571</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="2">
         <f t="shared" si="5"/>
         <v>471</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:4">
-      <c r="A78" s="1">
+      <c r="A78" s="2">
         <v>12</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="2">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="2">
         <f t="shared" si="4"/>
         <v>312.5</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="2">
         <f t="shared" si="5"/>
         <v>546</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:4">
-      <c r="A79" s="1">
+      <c r="A79" s="2">
         <v>13</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="2">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" s="2">
         <f t="shared" si="4"/>
         <v>281.25</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="2">
         <f t="shared" si="5"/>
         <v>782</v>
       </c>
     </row>
     <row r="80" ht="14.25" spans="1:4">
-      <c r="A80" s="1">
+      <c r="A80" s="2">
         <v>14</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="2">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="2">
         <f t="shared" si="4"/>
         <v>272.727272727273</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="2">
         <f t="shared" si="5"/>
         <v>888</v>
       </c>
     </row>
     <row r="81" ht="14.25" spans="1:4">
-      <c r="A81" s="1">
+      <c r="A81" s="2">
         <v>15</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="2">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="2">
         <f t="shared" si="4"/>
         <v>264.705882352941</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="2">
         <f t="shared" si="5"/>
         <v>998</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:4">
-      <c r="A82" s="1">
+      <c r="A82" s="2">
         <v>16</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="2">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="2">
         <f t="shared" si="4"/>
         <v>236.842105263158</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="2">
         <f t="shared" si="5"/>
         <v>1337</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:4">
-      <c r="A83" s="1">
+      <c r="A83" s="2">
         <v>17</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="2">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="2">
         <f t="shared" si="4"/>
         <v>229.591836734694</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="2">
         <f t="shared" si="5"/>
         <v>1482</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:4">
-      <c r="A84" s="1">
+      <c r="A84" s="2">
         <v>18</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="2">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="2">
         <f t="shared" si="4"/>
         <v>222.772277227723</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84" s="2">
         <f t="shared" si="5"/>
         <v>1633</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:4">
-      <c r="A85" s="1">
+      <c r="A85" s="2">
         <v>19</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="2">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="2">
         <f t="shared" si="4"/>
         <v>199.115044247788</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="2">
         <f t="shared" si="5"/>
         <v>2089</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:4">
-      <c r="A86" s="1">
+      <c r="A86" s="2">
         <v>20</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="2">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" s="2">
         <f t="shared" si="4"/>
         <v>193.1330472103</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="2">
         <f t="shared" si="5"/>
         <v>2279</v>
       </c>
     </row>
     <row r="87" ht="14.25" spans="1:4">
-      <c r="A87" s="1">
+      <c r="A87" s="2">
         <v>21</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="2">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="2">
         <f t="shared" si="4"/>
         <v>187.5</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="2">
         <f t="shared" si="5"/>
         <v>2476</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:4">
-      <c r="A88" s="1">
+      <c r="A88" s="2">
         <v>22</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="2">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="2">
         <f t="shared" si="4"/>
         <v>167.910447761194</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="2">
         <f t="shared" si="5"/>
         <v>3063</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:4">
-      <c r="A89" s="1">
+      <c r="A89" s="2">
         <v>23</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="2">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="2">
         <f t="shared" si="4"/>
         <v>163.04347826087</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="2">
         <f t="shared" si="5"/>
         <v>3304</v>
       </c>
     </row>
     <row r="90" ht="14.25" spans="1:4">
-      <c r="A90" s="1">
+      <c r="A90" s="2">
         <v>24</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="2">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="2">
         <f t="shared" si="4"/>
         <v>158.450704225352</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="2">
         <f t="shared" si="5"/>
         <v>3552</v>
       </c>
     </row>
     <row r="91" ht="14.25" spans="1:4">
-      <c r="A91" s="1">
+      <c r="A91" s="2">
         <v>25</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="2">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="2">
         <f t="shared" si="4"/>
         <v>142.405063291139</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="2">
         <f t="shared" si="5"/>
         <v>4283</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:4">
-      <c r="A92" s="1">
+      <c r="A92" s="2">
         <v>26</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="2">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" s="2">
         <f t="shared" si="4"/>
         <v>138.461538461538</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="2">
         <f t="shared" si="5"/>
         <v>4578</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:4">
-      <c r="A93" s="1">
+      <c r="A93" s="2">
         <v>27</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="2">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="2">
         <f t="shared" si="4"/>
         <v>134.730538922156</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93" s="2">
         <f t="shared" si="5"/>
         <v>4881</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:4">
-      <c r="A94" s="1">
+      <c r="A94" s="2">
         <v>28</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="2">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="2">
         <f t="shared" si="4"/>
         <v>121.621621621622</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94" s="2">
         <f t="shared" si="5"/>
         <v>5770</v>
       </c>
     </row>
     <row r="95" ht="14.25" spans="1:4">
-      <c r="A95" s="1">
+      <c r="A95" s="2">
         <v>29</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="2">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="2">
         <f t="shared" si="4"/>
         <v>118.421052631579</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="2">
         <f t="shared" si="5"/>
         <v>6125</v>
       </c>
     </row>
     <row r="96" ht="14.25" spans="1:4">
-      <c r="A96" s="1">
+      <c r="A96" s="2">
         <v>30</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="2">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="2">
         <f t="shared" si="4"/>
         <v>115.384615384615</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="2">
         <f t="shared" si="5"/>
         <v>6488</v>
       </c>
     </row>
     <row r="97" ht="14.25" spans="1:4">
-      <c r="A97" s="1">
+      <c r="A97" s="2">
         <v>31</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="2">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="2">
         <f t="shared" si="4"/>
         <v>104.651162790698</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97" s="2">
         <f t="shared" si="5"/>
         <v>7546</v>
       </c>
     </row>
     <row r="98" ht="14.25" spans="1:4">
-      <c r="A98" s="1">
+      <c r="A98" s="2">
         <v>32</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="2">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="2">
         <f t="shared" si="4"/>
         <v>102.040816326531</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="2">
         <f t="shared" si="5"/>
         <v>7964</v>
       </c>
     </row>
     <row r="99" ht="14.25" spans="1:4">
-      <c r="A99" s="1">
+      <c r="A99" s="2">
         <v>33</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="2">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="2">
         <f t="shared" si="4"/>
         <v>99.5575221238938</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="2">
         <f t="shared" si="5"/>
         <v>8392</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:4">
-      <c r="A100" s="1">
+      <c r="A100" s="2">
         <v>34</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="2">
         <f t="shared" ref="B100:B116" si="7">FLOOR((A100-1)/(3),1)+1</f>
         <v>12</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="2">
         <f t="shared" si="4"/>
         <v>90.7258064516129</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="2">
         <f t="shared" si="5"/>
         <v>9632</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:4">
-      <c r="A101" s="1">
+      <c r="A101" s="2">
         <v>35</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="2">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="2">
         <f t="shared" si="4"/>
         <v>88.5826771653543</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="2">
         <f t="shared" si="5"/>
         <v>10118</v>
       </c>
     </row>
     <row r="102" ht="14.25" spans="1:4">
-      <c r="A102" s="1">
+      <c r="A102" s="2">
         <v>36</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="2">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="2">
         <f t="shared" ref="C102:C116" si="8">$B$61/(1+((A102-1)*B102*$B$62)/100)</f>
         <v>86.5384615384615</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102" s="2">
         <f t="shared" ref="D102:D116" si="9">FLOOR($B$64*POWER(A102,$B$65)*B102,1)</f>
         <v>10615</v>
       </c>
     </row>
     <row r="103" ht="14.25" spans="1:4">
-      <c r="A103" s="1">
+      <c r="A103" s="2">
         <v>37</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="2">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" s="2">
         <f t="shared" si="8"/>
         <v>79.2253521126761</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103" s="2">
         <f t="shared" si="9"/>
         <v>12048</v>
       </c>
     </row>
     <row r="104" ht="14.25" spans="1:4">
-      <c r="A104" s="1">
+      <c r="A104" s="2">
         <v>38</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="2">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" s="2">
         <f t="shared" si="8"/>
         <v>77.4526678141136</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D104" s="2">
         <f t="shared" si="9"/>
         <v>12606</v>
       </c>
     </row>
     <row r="105" ht="14.25" spans="1:4">
-      <c r="A105" s="1">
+      <c r="A105" s="2">
         <v>39</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="2">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" s="2">
         <f t="shared" si="8"/>
         <v>75.7575757575758</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D105" s="2">
         <f t="shared" si="9"/>
         <v>13175</v>
       </c>
     </row>
     <row r="106" ht="14.25" spans="1:4">
-      <c r="A106" s="1">
+      <c r="A106" s="2">
         <v>40</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="2">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106" s="2">
         <f t="shared" si="8"/>
         <v>69.6594427244582</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106" s="2">
         <f t="shared" si="9"/>
         <v>14813</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:4">
-      <c r="A107" s="1">
+      <c r="A107" s="2">
         <v>41</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="2">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="2">
         <f t="shared" si="8"/>
         <v>68.1818181818182</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107" s="2">
         <f t="shared" si="9"/>
         <v>15448</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:4">
-      <c r="A108" s="1">
+      <c r="A108" s="2">
         <v>42</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="2">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="2">
         <f t="shared" si="8"/>
         <v>66.7655786350148</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D108" s="2">
         <f t="shared" si="9"/>
         <v>16094</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:4">
-      <c r="A109" s="1">
+      <c r="A109" s="2">
         <v>43</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="2">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" s="2">
         <f t="shared" si="8"/>
         <v>61.6438356164384</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D109" s="2">
         <f t="shared" si="9"/>
         <v>17948</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:4">
-      <c r="A110" s="1">
+      <c r="A110" s="2">
         <v>44</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="2">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110" s="2">
         <f t="shared" si="8"/>
         <v>60.4026845637584</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110" s="2">
         <f t="shared" si="9"/>
         <v>18663</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:4">
-      <c r="A111" s="1">
+      <c r="A111" s="2">
         <v>45</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="2">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="2">
         <f t="shared" si="8"/>
         <v>59.2105263157895</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D111" s="2">
         <f t="shared" si="9"/>
         <v>19390</v>
       </c>
     </row>
     <row r="112" ht="14.25" spans="1:4">
-      <c r="A112" s="1">
+      <c r="A112" s="2">
         <v>46</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="2">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" s="2">
         <f t="shared" si="8"/>
         <v>54.8780487804878</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112" s="2">
         <f t="shared" si="9"/>
         <v>21470</v>
       </c>
     </row>
     <row r="113" ht="14.25" spans="1:4">
-      <c r="A113" s="1">
+      <c r="A113" s="2">
         <v>47</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="2">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113" s="2">
         <f t="shared" si="8"/>
         <v>53.8277511961723</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113" s="2">
         <f t="shared" si="9"/>
         <v>22269</v>
       </c>
     </row>
     <row r="114" ht="14.25" spans="1:4">
-      <c r="A114" s="1">
+      <c r="A114" s="2">
         <v>48</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="2">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114" s="2">
         <f t="shared" si="8"/>
         <v>52.8169014084507</v>
       </c>
-      <c r="D114" s="1">
+      <c r="D114" s="2">
         <f t="shared" si="9"/>
         <v>23081</v>
       </c>
     </row>
     <row r="115" ht="14.25" spans="1:4">
-      <c r="A115" s="1">
+      <c r="A115" s="2">
         <v>49</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="2">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115" s="2">
         <f t="shared" si="8"/>
         <v>49.1266375545852</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D115" s="2">
         <f t="shared" si="9"/>
         <v>25398</v>
       </c>
     </row>
     <row r="116" ht="14.25" spans="1:4">
-      <c r="A116" s="1">
+      <c r="A116" s="2">
         <v>50</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="2">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116" s="2">
         <f t="shared" si="8"/>
         <v>48.2315112540193</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D116" s="2">
         <f t="shared" si="9"/>
         <v>26286</v>
       </c>
     </row>
     <row r="117" ht="14.25" spans="1:4">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
     </row>
     <row r="118" ht="14.25" spans="1:4">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
     </row>
     <row r="119" ht="28.5" spans="1:4">
-      <c r="A119" s="19" t="s">
+      <c r="A119" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
     </row>
     <row r="120" ht="14.25" spans="1:4">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
     </row>
     <row r="121" ht="14.25" spans="1:4">
-      <c r="A121" s="1">
+      <c r="A121" s="2">
         <v>1</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121" s="2">
         <f>C8/(C67/1000)</f>
         <v>2.22222222222222</v>
       </c>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
     </row>
     <row r="122" ht="14.25" spans="1:4">
-      <c r="A122" s="1">
+      <c r="A122" s="2">
         <v>2</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122" s="2">
         <f t="shared" ref="B122:B155" si="10">C9/(C68/1000)</f>
         <v>4.48888888888889</v>
       </c>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
     </row>
     <row r="123" ht="14.25" spans="1:4">
-      <c r="A123" s="1">
+      <c r="A123" s="2">
         <v>3</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123" s="2">
         <f t="shared" si="10"/>
         <v>6.8</v>
       </c>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
     </row>
     <row r="124" ht="14.25" spans="1:4">
-      <c r="A124" s="1">
+      <c r="A124" s="2">
         <v>4</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124" s="2">
         <f t="shared" si="10"/>
         <v>16.4888888888889</v>
       </c>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
     </row>
     <row r="125" ht="14.25" spans="1:4">
-      <c r="A125" s="1">
+      <c r="A125" s="2">
         <v>5</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125" s="2">
         <f t="shared" si="10"/>
         <v>21.6</v>
       </c>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
     </row>
     <row r="126" ht="14.25" spans="1:4">
-      <c r="A126" s="1">
+      <c r="A126" s="2">
         <v>6</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126" s="2">
         <f t="shared" si="10"/>
         <v>26.8888888888889</v>
       </c>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
     </row>
     <row r="127" ht="14.25" spans="1:4">
-      <c r="A127" s="1">
+      <c r="A127" s="2">
         <v>7</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127" s="2">
         <f t="shared" si="10"/>
         <v>49.8222222222222</v>
       </c>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
     </row>
     <row r="128" ht="14.25" spans="1:4">
-      <c r="A128" s="1">
+      <c r="A128" s="2">
         <v>8</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128" s="2">
         <f t="shared" si="10"/>
         <v>59.1555555555556</v>
       </c>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
     </row>
     <row r="129" ht="14.25" spans="1:4">
-      <c r="A129" s="1">
+      <c r="A129" s="2">
         <v>9</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129" s="2">
         <f t="shared" si="10"/>
         <v>68.8888888888889</v>
       </c>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
     </row>
     <row r="130" ht="14.25" spans="1:4">
-      <c r="A130" s="1">
+      <c r="A130" s="2">
         <v>10</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130" s="2">
         <f t="shared" si="10"/>
         <v>111.822222222222</v>
       </c>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
     </row>
     <row r="131" ht="14.25" spans="1:4">
-      <c r="A131" s="1">
+      <c r="A131" s="2">
         <v>11</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131" s="2">
         <f t="shared" si="10"/>
         <v>127.555555555556</v>
       </c>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
     </row>
     <row r="132" ht="14.25" spans="1:4">
-      <c r="A132" s="1">
+      <c r="A132" s="2">
         <v>12</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B132" s="2">
         <f t="shared" si="10"/>
         <v>144</v>
       </c>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
     </row>
     <row r="133" ht="14.25" spans="1:4">
-      <c r="A133" s="1">
+      <c r="A133" s="2">
         <v>13</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133" s="2">
         <f t="shared" si="10"/>
         <v>216.888888888889</v>
       </c>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
     </row>
     <row r="134" ht="14.25" spans="1:4">
-      <c r="A134" s="1">
+      <c r="A134" s="2">
         <v>14</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134" s="2">
         <f t="shared" si="10"/>
         <v>242</v>
       </c>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
     </row>
     <row r="135" ht="14.25" spans="1:4">
-      <c r="A135" s="1">
+      <c r="A135" s="2">
         <v>15</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135" s="2">
         <f t="shared" si="10"/>
         <v>268.222222222222</v>
       </c>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
     </row>
     <row r="136" ht="14.25" spans="1:4">
-      <c r="A136" s="1">
+      <c r="A136" s="2">
         <v>16</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136" s="2">
         <f t="shared" si="10"/>
         <v>384.222222222222</v>
       </c>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
     </row>
     <row r="137" ht="14.25" spans="1:4">
-      <c r="A137" s="1">
+      <c r="A137" s="2">
         <v>17</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137" s="2">
         <f t="shared" si="10"/>
         <v>422.488888888889</v>
       </c>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
     </row>
     <row r="138" ht="14.25" spans="1:4">
-      <c r="A138" s="1">
+      <c r="A138" s="2">
         <v>18</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138" s="2">
         <f t="shared" si="10"/>
         <v>462.355555555556</v>
       </c>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
     </row>
     <row r="139" ht="14.25" spans="1:4">
-      <c r="A139" s="1">
+      <c r="A139" s="2">
         <v>19</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139" s="2">
         <f t="shared" si="10"/>
         <v>637.822222222222</v>
       </c>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
     </row>
     <row r="140" ht="14.25" spans="1:4">
-      <c r="A140" s="1">
+      <c r="A140" s="2">
         <v>20</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B140" s="2">
         <f t="shared" si="10"/>
         <v>693.822222222222</v>
       </c>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
     </row>
     <row r="141" ht="14.25" spans="1:4">
-      <c r="A141" s="1">
+      <c r="A141" s="2">
         <v>21</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141" s="2">
         <f t="shared" si="10"/>
         <v>752</v>
       </c>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
     </row>
     <row r="142" ht="14.25" spans="1:4">
-      <c r="A142" s="1">
+      <c r="A142" s="2">
         <v>22</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142" s="2">
         <f t="shared" si="10"/>
         <v>1006.48888888889</v>
       </c>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
     </row>
     <row r="143" ht="14.25" spans="1:4">
-      <c r="A143" s="1">
+      <c r="A143" s="2">
         <v>23</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143" s="2">
         <f t="shared" si="10"/>
         <v>1085.6</v>
       </c>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
     </row>
     <row r="144" ht="14.25" spans="1:4">
-      <c r="A144" s="1">
+      <c r="A144" s="2">
         <v>24</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144" s="2">
         <f t="shared" si="10"/>
         <v>1167.55555555556</v>
       </c>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
     </row>
     <row r="145" ht="14.25" spans="1:4">
-      <c r="A145" s="1">
+      <c r="A145" s="2">
         <v>25</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145" s="2">
         <f t="shared" si="10"/>
         <v>1523.82222222222</v>
       </c>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
     </row>
     <row r="146" ht="14.25" spans="1:4">
-      <c r="A146" s="1">
+      <c r="A146" s="2">
         <v>26</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B146" s="2">
         <f t="shared" si="10"/>
         <v>1632.22222222222</v>
       </c>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
     </row>
     <row r="147" ht="14.25" spans="1:4">
-      <c r="A147" s="1">
+      <c r="A147" s="2">
         <v>27</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B147" s="2">
         <f t="shared" si="10"/>
         <v>1744.22222222222</v>
       </c>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
     </row>
     <row r="148" ht="14.25" spans="1:4">
-      <c r="A148" s="1">
+      <c r="A148" s="2">
         <v>28</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B148" s="2">
         <f t="shared" si="10"/>
         <v>2228.22222222222</v>
       </c>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
     </row>
     <row r="149" ht="14.25" spans="1:4">
-      <c r="A149" s="1">
+      <c r="A149" s="2">
         <v>29</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B149" s="2">
         <f t="shared" si="10"/>
         <v>2372.88888888889</v>
       </c>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
     </row>
     <row r="150" ht="14.25" spans="1:4">
-      <c r="A150" s="1">
+      <c r="A150" s="2">
         <v>30</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150" s="2">
         <f t="shared" si="10"/>
         <v>2522</v>
       </c>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
     </row>
     <row r="151" ht="14.25" spans="1:4">
-      <c r="A151" s="1">
+      <c r="A151" s="2">
         <v>31</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B151" s="2">
         <f t="shared" si="10"/>
         <v>3162.88888888889</v>
       </c>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
     </row>
     <row r="152" ht="14.25" spans="1:4">
-      <c r="A152" s="1">
+      <c r="A152" s="2">
         <v>32</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B152" s="2">
         <f t="shared" si="10"/>
         <v>3351.6</v>
       </c>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
     </row>
     <row r="153" ht="14.25" spans="1:4">
-      <c r="A153" s="1">
+      <c r="A153" s="2">
         <v>33</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B153" s="2">
         <f t="shared" si="10"/>
         <v>3545.68888888889</v>
       </c>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
     </row>
     <row r="154" ht="14.25" spans="1:4">
-      <c r="A154" s="1">
+      <c r="A154" s="2">
         <v>34</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B154" s="2">
         <f t="shared" si="10"/>
         <v>4375.82222222222</v>
       </c>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
     </row>
     <row r="155" ht="14.25" spans="1:4">
-      <c r="A155" s="1">
+      <c r="A155" s="2">
         <v>35</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B155" s="2">
         <f t="shared" si="10"/>
         <v>4617.15555555556</v>
       </c>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4122,391 +4156,391 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="16.375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <f>($B$3*A6*A6)/2-($B$3*A6)/2+$B$2</f>
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <f t="shared" ref="B7:B15" si="0">($B$3*A7*A7)/2-($B$3*A7)/2+$B$2</f>
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>4</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>6</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>7</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>8</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>9</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>10</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>11</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <f t="shared" ref="B16:B25" si="1">($B$3*A16*A16)/2-($B$3*A16)/2+$B$2</f>
         <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>12</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <f t="shared" si="1"/>
         <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>13</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>14</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>15</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <f t="shared" si="1"/>
         <v>535</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>16</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <f t="shared" si="1"/>
         <v>610</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>17</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>18</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <f t="shared" si="1"/>
         <v>775</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>19</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <f t="shared" si="1"/>
         <v>865</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="18">
+      <c r="A25" s="19">
         <v>20</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="19">
         <f t="shared" si="1"/>
         <v>960</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>21</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <f t="shared" ref="B26:B45" si="2">($B$3*A26*A26)/2-($B$3*A26)/2+$B$2</f>
         <v>1060</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>22</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <f t="shared" si="2"/>
         <v>1165</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>23</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <f t="shared" si="2"/>
         <v>1275</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>24</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <f t="shared" si="2"/>
         <v>1390</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>25</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <f t="shared" si="2"/>
         <v>1510</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>26</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <f t="shared" si="2"/>
         <v>1635</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>27</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <f t="shared" si="2"/>
         <v>1765</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>28</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <f t="shared" si="2"/>
         <v>1900</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>29</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <f t="shared" si="2"/>
         <v>2040</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>30</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <f t="shared" si="2"/>
         <v>2185</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>31</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <f t="shared" si="2"/>
         <v>2335</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>32</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <f t="shared" si="2"/>
         <v>2490</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>33</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <f t="shared" si="2"/>
         <v>2650</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>34</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <f t="shared" si="2"/>
         <v>2815</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>35</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <f t="shared" si="2"/>
         <v>2985</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>36</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <f t="shared" si="2"/>
         <v>3160</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>37</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <f t="shared" si="2"/>
         <v>3340</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>38</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <f t="shared" si="2"/>
         <v>3525</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>39</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <f t="shared" si="2"/>
         <v>3715</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>40</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <f t="shared" si="2"/>
         <v>3910</v>
       </c>
@@ -4528,37 +4562,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="101" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="101" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="12" ht="219" customHeight="1" spans="1:1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" ht="28.5" spans="1:1">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="4"/>
+      <c r="A26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4577,109 +4611,109 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="45.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="14.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="40.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="35.375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="27" spans="1:7">
-      <c r="A1" s="13" t="s">
+    <row r="1" s="13" customFormat="1" ht="27" spans="1:7">
+      <c r="A1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" ht="273" customHeight="1" spans="1:7">
-      <c r="A2" s="14">
+      <c r="A2" s="15">
         <v>10000</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:7">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="G3" s="1" t="s">
+      <c r="E3" s="15"/>
+      <c r="G3" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" ht="119" customHeight="1" spans="1:5">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" ht="118" customHeight="1" spans="1:5">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" ht="28.5" spans="2:3">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4701,580 +4735,580 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="61" style="1" customWidth="1"/>
-    <col min="5" max="5" width="53.75" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="61" style="2" customWidth="1"/>
+    <col min="5" max="5" width="53.75" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:4">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" ht="63" customHeight="1" spans="2:4">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="2:5">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="7">
         <v>100</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="2:5">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7">
         <v>101</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="2:5">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7">
         <v>102</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>103</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>104</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="3:5">
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>105</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="16" spans="3:5">
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>106</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="8" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="2:5">
-      <c r="B17" s="5"/>
-      <c r="C17" s="6">
+      <c r="B17" s="6"/>
+      <c r="C17" s="7">
         <v>107</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="2:5">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6">
+      <c r="B18" s="6"/>
+      <c r="C18" s="7">
         <v>108</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="2:5">
-      <c r="B19" s="5"/>
-      <c r="C19" s="6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7">
         <v>109</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="2:3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" ht="16.5" spans="2:3">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" ht="16.5" spans="2:5">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6">
+      <c r="B22" s="6"/>
+      <c r="C22" s="7">
         <v>150</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="2:3">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" ht="16.5" spans="2:3">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" ht="16.5" spans="2:3">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" ht="16.5" spans="2:3">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" ht="16.5" spans="2:3">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
     </row>
     <row r="28" ht="16.5" spans="2:5">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="6">
         <v>200</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="2:5">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6">
         <v>201</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="30" ht="42.75" spans="3:5">
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <v>202</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="31" spans="3:5">
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>203</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="32" spans="3:5">
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <v>204</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="33" spans="3:5">
-      <c r="C33" s="2">
+      <c r="C33" s="3">
         <v>205</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="34" spans="3:5">
-      <c r="C34" s="1">
+      <c r="C34" s="2">
         <v>206</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="35" spans="3:5">
-      <c r="C35" s="1">
+      <c r="C35" s="2">
         <v>207</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="36" spans="3:5">
-      <c r="C36" s="1">
+      <c r="C36" s="2">
         <v>208</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="37" spans="3:5">
-      <c r="C37" s="1">
+      <c r="C37" s="2">
         <v>209</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="2:5">
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="E38" s="4"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" ht="16.5" spans="2:5">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="E39" s="4"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="E39" s="5"/>
     </row>
     <row r="40" ht="16.5" spans="2:5">
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="E40" s="4"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="E40" s="5"/>
     </row>
     <row r="41" ht="16.5" spans="2:5">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="E41" s="4"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="E41" s="5"/>
     </row>
     <row r="42" ht="42.75" spans="2:5">
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="6">
         <v>300</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="5" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="43" spans="3:5">
-      <c r="C43" s="1">
+      <c r="C43" s="2">
         <v>301</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="44" ht="28.5" spans="3:5">
-      <c r="C44" s="1">
+      <c r="C44" s="2">
         <v>302</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="45" spans="3:5">
-      <c r="C45" s="1">
+      <c r="C45" s="2">
         <v>303</v>
       </c>
       <c r="D45" t="s">
         <v>120</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="46" spans="3:5">
-      <c r="C46" s="1">
+      <c r="C46" s="2">
         <v>304</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="47" spans="3:5">
-      <c r="C47" s="1">
+      <c r="C47" s="2">
         <v>305</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="48" spans="3:5">
-      <c r="C48" s="1">
+      <c r="C48" s="2">
         <v>306</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="49" spans="3:5">
-      <c r="C49" s="1">
+      <c r="C49" s="2">
         <v>307</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="50" spans="3:5">
-      <c r="C50" s="1">
+      <c r="C50" s="2">
         <v>308</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51" spans="3:5">
-      <c r="C51" s="1">
+      <c r="C51" s="2">
         <v>309</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="53" ht="42.75" spans="2:5">
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="6">
         <v>400</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="54" spans="3:5">
-      <c r="C54" s="1">
+      <c r="C54" s="2">
         <v>401</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="55" spans="3:5">
-      <c r="C55" s="1">
+      <c r="C55" s="2">
         <v>402</v>
       </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="10"/>
     </row>
     <row r="56" spans="3:5">
-      <c r="C56" s="1">
+      <c r="C56" s="2">
         <v>403</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="8" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="57" spans="3:5">
-      <c r="C57" s="1">
+      <c r="C57" s="2">
         <v>404</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="58" ht="57" spans="3:5">
-      <c r="C58" s="1">
+      <c r="C58" s="2">
         <v>405</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="59" ht="42.75" spans="3:5">
-      <c r="C59" s="1">
+      <c r="C59" s="2">
         <v>406</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="60" ht="28.5" spans="2:5">
-      <c r="B60" s="5"/>
-      <c r="C60" s="1">
+      <c r="B60" s="6"/>
+      <c r="C60" s="2">
         <v>407</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="61" ht="28.5" spans="2:5">
-      <c r="B61" s="5"/>
-      <c r="C61" s="1">
+      <c r="B61" s="6"/>
+      <c r="C61" s="2">
         <v>408</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="62" ht="28.5" spans="2:5">
-      <c r="B62" s="5"/>
-      <c r="C62" s="1">
+      <c r="B62" s="6"/>
+      <c r="C62" s="2">
         <v>409</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="63" ht="16.5" spans="2:5">
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="E63" s="4"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="E63" s="5"/>
     </row>
     <row r="64" ht="16.5" spans="2:5">
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="E64" s="4"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="E64" s="5"/>
     </row>
     <row r="65" ht="42.75" spans="2:5">
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="1" t="s">
+      <c r="C65" s="6"/>
+      <c r="D65" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="66" ht="40.5" spans="4:5">
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E66" s="11" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="67" spans="4:5">
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="2" t="s">
         <v>158</v>
       </c>
       <c r="E67" t="s">
@@ -5282,108 +5316,108 @@
       </c>
     </row>
     <row r="68" spans="4:4">
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11" t="s">
+      <c r="C71" s="12"/>
+      <c r="D71" s="12" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11" t="s">
+      <c r="C72" s="12"/>
+      <c r="D72" s="12" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11" t="s">
+      <c r="C73" s="12"/>
+      <c r="D73" s="12" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="74" spans="4:4">
-      <c r="D74" s="4"/>
+      <c r="D74" s="5"/>
     </row>
     <row r="75" spans="4:4">
-      <c r="D75" s="4"/>
+      <c r="D75" s="5"/>
     </row>
     <row r="76" spans="4:4">
-      <c r="D76" s="4"/>
+      <c r="D76" s="5"/>
     </row>
     <row r="77" spans="4:4">
-      <c r="D77" s="4"/>
+      <c r="D77" s="5"/>
     </row>
     <row r="78" spans="4:4">
-      <c r="D78" s="4"/>
+      <c r="D78" s="5"/>
     </row>
     <row r="79" spans="4:4">
-      <c r="D79" s="4"/>
+      <c r="D79" s="5"/>
     </row>
     <row r="80" spans="4:4">
-      <c r="D80" s="4"/>
+      <c r="D80" s="5"/>
     </row>
     <row r="81" spans="4:4">
-      <c r="D81" s="4"/>
+      <c r="D81" s="5"/>
     </row>
     <row r="82" ht="28.5" spans="2:4">
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="5" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="84" spans="4:4">
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="2" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="85" spans="4:4">
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="86" spans="2:4">
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="2" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="87" spans="4:4">
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="2" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="2" t="s">
         <v>175</v>
       </c>
     </row>
@@ -5404,52 +5438,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="74.5" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="74.5" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5464,7 +5498,7 @@
   <sheetPr/>
   <dimension ref="A12:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -5484,4 +5518,74 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="79.625" customWidth="1"/>
+    <col min="2" max="2" width="41.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:1">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26265" windowHeight="12885" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="198">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -687,12 +687,14 @@
     <t>了解UGUI界面优化、Drawcall优化方案</t>
   </si>
   <si>
+    <t>1.使用图集
+2.图片格式压缩(ASTC)
+3.无用的界面隐藏时，使用SetActive会造成Canvas重绘，比较好的做法是把界面移到摄像机外部或设置界面的Alpha=0</t>
+  </si>
+  <si>
     <t>了解AssetBundle打包的原理、依赖关系及循环依赖的解决办法，卸载时机</t>
   </si>
   <si>
-    <t>利用引用计数去判断卸载时机</t>
-  </si>
-  <si>
     <t>Unity性能优化的常用方案</t>
   </si>
   <si>
@@ -712,6 +714,9 @@
   </si>
   <si>
     <t>ShareMaterial和Material的区别</t>
+  </si>
+  <si>
+    <t>Overdraw怎么优化</t>
   </si>
 </sst>
 </file>
@@ -1387,12 +1392,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1782,73 +1790,73 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="27" style="22" customWidth="1"/>
-    <col min="3" max="3" width="92.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="114.125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="27" style="23" customWidth="1"/>
+    <col min="3" max="3" width="92.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="114.125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="140" customHeight="1" spans="2:3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="101" customHeight="1" spans="2:3">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="101" customHeight="1" spans="2:3">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="103" customHeight="1" spans="2:3">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="103" customHeight="1" spans="2:3">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="100" customHeight="1" spans="2:3">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" ht="154" customHeight="1" spans="2:4">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" ht="76" customHeight="1" spans="2:3">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1876,2268 +1884,2268 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="1:4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="2"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" ht="14.25" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" ht="14.25" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" ht="14.25" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="10">
         <v>2</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" ht="14.25" spans="1:4">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <f t="shared" ref="B8:B42" si="0">FLOOR((A8-1)/3,1)+1</f>
         <v>1</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <f>$B$3+(A8-1)*B8</f>
         <v>1</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <f>$B$5*POWER(A8,$B$6)*B8</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <f>$B$3+(A9-1)*B9</f>
         <v>2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <f>$B$5*POWER(A9,$B$6)*B9</f>
         <v>4</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:4">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <f>$B$3+(A10-1)*B10</f>
         <v>3</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <f>$B$5*POWER(A10,$B$6)*B10</f>
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:4">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>4</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <f>$B$3+(A11-1)*B11</f>
         <v>7</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <f>$B$5*POWER(A11,$B$6)*B11</f>
         <v>32</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:4">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>5</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <f>$B$3+(A12-1)*B12</f>
         <v>9</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <f>$B$5*POWER(A12,$B$6)*B12</f>
         <v>50</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:4">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>6</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <f>$B$3+(A13-1)*B13</f>
         <v>11</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <f>$B$5*POWER(A13,$B$6)*B13</f>
         <v>72</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:4">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>7</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <f>$B$3+(A14-1)*B14</f>
         <v>19</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <f>$B$5*POWER(A14,$B$6)*B14</f>
         <v>147</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:4">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>8</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <f>$B$3+(A15-1)*B15</f>
         <v>22</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <f>$B$5*POWER(A15,$B$6)*B15</f>
         <v>192</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:4">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>9</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <f>$B$3+(A16-1)*B16</f>
         <v>25</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <f>$B$5*POWER(A16,$B$6)*B16</f>
         <v>243</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:4">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>10</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <f>$B$3+(A17-1)*B17</f>
         <v>37</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <f>$B$5*POWER(A17,$B$6)*B17</f>
         <v>400</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:4">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>11</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <f>$B$3+(A18-1)*B18</f>
         <v>41</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <f>$B$5*POWER(A18,$B$6)*B18</f>
         <v>484</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:4">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>12</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <f>$B$3+(A19-1)*B19</f>
         <v>45</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <f>$B$5*POWER(A19,$B$6)*B19</f>
         <v>576</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:4">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>13</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <f>$B$3+(A20-1)*B20</f>
         <v>61</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <f>$B$5*POWER(A20,$B$6)*B20</f>
         <v>845</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:4">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>14</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <f>$B$3+(A21-1)*B21</f>
         <v>66</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <f>$B$5*POWER(A21,$B$6)*B21</f>
         <v>980</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:4">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>15</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <f>$B$3+(A22-1)*B22</f>
         <v>71</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <f>$B$5*POWER(A22,$B$6)*B22</f>
         <v>1125</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:4">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>16</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="3">
         <f>$B$3+(A23-1)*B23</f>
         <v>91</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="3">
         <f>$B$5*POWER(A23,$B$6)*B23</f>
         <v>1536</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:4">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>17</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="3">
         <f>$B$3+(A24-1)*B24</f>
         <v>97</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="3">
         <f>$B$5*POWER(A24,$B$6)*B24</f>
         <v>1734</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:4">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>18</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="3">
         <f>$B$3+(A25-1)*B25</f>
         <v>103</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="3">
         <f>$B$5*POWER(A25,$B$6)*B25</f>
         <v>1944</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:4">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>19</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="3">
         <f>$B$3+(A26-1)*B26</f>
         <v>127</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="3">
         <f>$B$5*POWER(A26,$B$6)*B26</f>
         <v>2527</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:4">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>20</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="3">
         <f>$B$3+(A27-1)*B27</f>
         <v>134</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="3">
         <f>$B$5*POWER(A27,$B$6)*B27</f>
         <v>2800</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:4">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>21</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="3">
         <f>$B$3+(A28-1)*B28</f>
         <v>141</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="3">
         <f>$B$5*POWER(A28,$B$6)*B28</f>
         <v>3087</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:4">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>22</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="3">
         <f>$B$3+(A29-1)*B29</f>
         <v>169</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="3">
         <f>$B$5*POWER(A29,$B$6)*B29</f>
         <v>3872</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:4">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>23</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="3">
         <f>$B$3+(A30-1)*B30</f>
         <v>177</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="3">
         <f>$B$5*POWER(A30,$B$6)*B30</f>
         <v>4232</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:4">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>24</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="3">
         <f>$B$3+(A31-1)*B31</f>
         <v>185</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="3">
         <f>$B$5*POWER(A31,$B$6)*B31</f>
         <v>4608</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:4">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>25</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="3">
         <f>$B$3+(A32-1)*B32</f>
         <v>217</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="3">
         <f>$B$5*POWER(A32,$B$6)*B32</f>
         <v>5625</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:4">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>26</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="3">
         <f>$B$3+(A33-1)*B33</f>
         <v>226</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="3">
         <f>$B$5*POWER(A33,$B$6)*B33</f>
         <v>6084</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:4">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>27</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="3">
         <f>$B$3+(A34-1)*B34</f>
         <v>235</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="3">
         <f>$B$5*POWER(A34,$B$6)*B34</f>
         <v>6561</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:4">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>28</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="3">
         <f>$B$3+(A35-1)*B35</f>
         <v>271</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="3">
         <f>$B$5*POWER(A35,$B$6)*B35</f>
         <v>7840</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:4">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>29</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="3">
         <f>$B$3+(A36-1)*B36</f>
         <v>281</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="3">
         <f>$B$5*POWER(A36,$B$6)*B36</f>
         <v>8410</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:4">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>30</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="3">
         <f>$B$3+(A37-1)*B37</f>
         <v>291</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="3">
         <f>$B$5*POWER(A37,$B$6)*B37</f>
         <v>9000</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:4">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>31</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="3">
         <f>$B$3+(A38-1)*B38</f>
         <v>331</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="3">
         <f>$B$5*POWER(A38,$B$6)*B38</f>
         <v>10571</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:4">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>32</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="3">
         <f>$B$3+(A39-1)*B39</f>
         <v>342</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="3">
         <f>$B$5*POWER(A39,$B$6)*B39</f>
         <v>11264</v>
       </c>
     </row>
     <row r="40" ht="14.25" spans="1:4">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>33</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="3">
         <f>$B$3+(A40-1)*B40</f>
         <v>353</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="3">
         <f>$B$5*POWER(A40,$B$6)*B40</f>
         <v>11979</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:4">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>34</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="3">
         <f>$B$3+(A41-1)*B41</f>
         <v>397</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="3">
         <f>$B$5*POWER(A41,$B$6)*B41</f>
         <v>13872</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:4">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>35</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="3">
         <f>$B$3+(A42-1)*B42</f>
         <v>409</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="3">
         <f>$B$5*POWER(A42,$B$6)*B42</f>
         <v>14700</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:4">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <v>36</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="3">
         <f t="shared" ref="B43:B57" si="1">FLOOR((A43-1)/3,1)+1</f>
         <v>12</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="3">
         <f t="shared" ref="C43:C57" si="2">$B$3+(A43-1)*B43</f>
         <v>421</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="3">
         <f t="shared" ref="D43:D57" si="3">$B$5*POWER(A43,$B$6)*B43</f>
         <v>15552</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:4">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>37</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="3">
         <f t="shared" si="2"/>
         <v>469</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="3">
         <f t="shared" si="3"/>
         <v>17797</v>
       </c>
     </row>
     <row r="45" ht="14.25" spans="1:4">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>38</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="3">
         <f t="shared" si="2"/>
         <v>482</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="3">
         <f t="shared" si="3"/>
         <v>18772</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:4">
-      <c r="A46" s="2">
+      <c r="A46" s="3">
         <v>39</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="3">
         <f t="shared" si="2"/>
         <v>495</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="3">
         <f t="shared" si="3"/>
         <v>19773</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:4">
-      <c r="A47" s="2">
+      <c r="A47" s="3">
         <v>40</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="3">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="3">
         <f t="shared" si="2"/>
         <v>547</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="3">
         <f t="shared" si="3"/>
         <v>22400</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:4">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>41</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="3">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="3">
         <f t="shared" si="2"/>
         <v>561</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="3">
         <f t="shared" si="3"/>
         <v>23534</v>
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:4">
-      <c r="A49" s="2">
+      <c r="A49" s="3">
         <v>42</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="3">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="3">
         <f t="shared" si="2"/>
         <v>575</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="3">
         <f t="shared" si="3"/>
         <v>24696</v>
       </c>
     </row>
     <row r="50" ht="14.25" spans="1:4">
-      <c r="A50" s="2">
+      <c r="A50" s="3">
         <v>43</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="3">
         <f t="shared" si="2"/>
         <v>631</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="3">
         <f t="shared" si="3"/>
         <v>27735</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:4">
-      <c r="A51" s="2">
+      <c r="A51" s="3">
         <v>44</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="3">
         <f t="shared" si="2"/>
         <v>646</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="3">
         <f t="shared" si="3"/>
         <v>29040</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:4">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <v>45</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="3">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="3">
         <f t="shared" si="2"/>
         <v>661</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="3">
         <f t="shared" si="3"/>
         <v>30375</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:4">
-      <c r="A53" s="2">
+      <c r="A53" s="3">
         <v>46</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="3">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="3">
         <f t="shared" si="2"/>
         <v>721</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="3">
         <f t="shared" si="3"/>
         <v>33856</v>
       </c>
     </row>
     <row r="54" ht="14.25" spans="1:4">
-      <c r="A54" s="2">
+      <c r="A54" s="3">
         <v>47</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="3">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="3">
         <f t="shared" si="2"/>
         <v>737</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="3">
         <f t="shared" si="3"/>
         <v>35344</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:4">
-      <c r="A55" s="2">
+      <c r="A55" s="3">
         <v>48</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="3">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="3">
         <f t="shared" si="2"/>
         <v>753</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="3">
         <f t="shared" si="3"/>
         <v>36864</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:4">
-      <c r="A56" s="2">
+      <c r="A56" s="3">
         <v>49</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="3">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="3">
         <f t="shared" si="2"/>
         <v>817</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="3">
         <f t="shared" si="3"/>
         <v>40817</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:4">
-      <c r="A57" s="2">
+      <c r="A57" s="3">
         <v>50</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="3">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="3">
         <f t="shared" si="2"/>
         <v>834</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="3">
         <f t="shared" si="3"/>
         <v>42500</v>
       </c>
     </row>
     <row r="58" ht="28.5" spans="1:4">
-      <c r="A58" s="20"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
     </row>
     <row r="59" ht="28.5" spans="1:4">
-      <c r="A59" s="20"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
     </row>
     <row r="60" ht="28.5" spans="1:4">
-      <c r="A60" s="20" t="s">
+      <c r="A60" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
     </row>
     <row r="61" ht="14.25" spans="1:4">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="4">
         <v>450</v>
       </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
     </row>
     <row r="62" ht="14.25" spans="1:4">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="4">
         <v>1</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
     </row>
     <row r="63" ht="14.25" spans="1:4">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
     </row>
     <row r="64" ht="14.25" spans="1:4">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="3">
         <v>2</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
     </row>
     <row r="65" ht="14.25" spans="1:4">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="10">
         <v>1.7</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
     </row>
     <row r="66" ht="14.25" spans="1:4">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D66" s="21" t="s">
+      <c r="D66" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:4">
-      <c r="A67" s="2">
+      <c r="A67" s="3">
         <v>1</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="3">
         <f>FLOOR((A67-1)/(3),1)+1</f>
         <v>1</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="3">
         <f t="shared" ref="C67:C101" si="4">$B$61/(1+((A67-1)*B67*$B$62)/100)</f>
         <v>450</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="3">
         <f t="shared" ref="D67:D101" si="5">FLOOR($B$64*POWER(A67,$B$65)*B67,1)</f>
         <v>2</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:4">
-      <c r="A68" s="2">
+      <c r="A68" s="3">
         <v>2</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="3">
         <f t="shared" ref="B68:B99" si="6">FLOOR((A68-1)/(3),1)+1</f>
         <v>1</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="3">
         <f t="shared" si="4"/>
         <v>445.544554455446</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="3">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:4">
-      <c r="A69" s="2">
+      <c r="A69" s="3">
         <v>3</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="3">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="3">
         <f t="shared" si="4"/>
         <v>441.176470588235</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="3">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:4">
-      <c r="A70" s="2">
+      <c r="A70" s="3">
         <v>4</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="3">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="3">
         <f t="shared" si="4"/>
         <v>424.528301886792</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="3">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
     </row>
     <row r="71" ht="14.25" spans="1:4">
-      <c r="A71" s="2">
+      <c r="A71" s="3">
         <v>5</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="3">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="3">
         <f t="shared" si="4"/>
         <v>416.666666666667</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="3">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
     </row>
     <row r="72" ht="14.25" spans="1:4">
-      <c r="A72" s="2">
+      <c r="A72" s="3">
         <v>6</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="3">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="3">
         <f t="shared" si="4"/>
         <v>409.090909090909</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="3">
         <f t="shared" si="5"/>
         <v>84</v>
       </c>
     </row>
     <row r="73" ht="14.25" spans="1:4">
-      <c r="A73" s="2">
+      <c r="A73" s="3">
         <v>7</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="3">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="3">
         <f t="shared" si="4"/>
         <v>381.35593220339</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="3">
         <f t="shared" si="5"/>
         <v>163</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:4">
-      <c r="A74" s="2">
+      <c r="A74" s="3">
         <v>8</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="3">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="3">
         <f t="shared" si="4"/>
         <v>371.900826446281</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="3">
         <f t="shared" si="5"/>
         <v>205</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:4">
-      <c r="A75" s="2">
+      <c r="A75" s="3">
         <v>9</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="3">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="3">
         <f t="shared" si="4"/>
         <v>362.903225806452</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="3">
         <f t="shared" si="5"/>
         <v>251</v>
       </c>
     </row>
     <row r="76" ht="14.25" spans="1:4">
-      <c r="A76" s="2">
+      <c r="A76" s="3">
         <v>10</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="3">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="3">
         <f t="shared" si="4"/>
         <v>330.882352941177</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="3">
         <f t="shared" si="5"/>
         <v>400</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:4">
-      <c r="A77" s="2">
+      <c r="A77" s="3">
         <v>11</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="3">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="3">
         <f t="shared" si="4"/>
         <v>321.428571428571</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="3">
         <f t="shared" si="5"/>
         <v>471</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:4">
-      <c r="A78" s="2">
+      <c r="A78" s="3">
         <v>12</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="3">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="3">
         <f t="shared" si="4"/>
         <v>312.5</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="3">
         <f t="shared" si="5"/>
         <v>546</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:4">
-      <c r="A79" s="2">
+      <c r="A79" s="3">
         <v>13</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="3">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="3">
         <f t="shared" si="4"/>
         <v>281.25</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="3">
         <f t="shared" si="5"/>
         <v>782</v>
       </c>
     </row>
     <row r="80" ht="14.25" spans="1:4">
-      <c r="A80" s="2">
+      <c r="A80" s="3">
         <v>14</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="3">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="3">
         <f t="shared" si="4"/>
         <v>272.727272727273</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="3">
         <f t="shared" si="5"/>
         <v>888</v>
       </c>
     </row>
     <row r="81" ht="14.25" spans="1:4">
-      <c r="A81" s="2">
+      <c r="A81" s="3">
         <v>15</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="3">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="3">
         <f t="shared" si="4"/>
         <v>264.705882352941</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="3">
         <f t="shared" si="5"/>
         <v>998</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:4">
-      <c r="A82" s="2">
+      <c r="A82" s="3">
         <v>16</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="3">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="3">
         <f t="shared" si="4"/>
         <v>236.842105263158</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="3">
         <f t="shared" si="5"/>
         <v>1337</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:4">
-      <c r="A83" s="2">
+      <c r="A83" s="3">
         <v>17</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="3">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="3">
         <f t="shared" si="4"/>
         <v>229.591836734694</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="3">
         <f t="shared" si="5"/>
         <v>1482</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:4">
-      <c r="A84" s="2">
+      <c r="A84" s="3">
         <v>18</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="3">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="3">
         <f t="shared" si="4"/>
         <v>222.772277227723</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="3">
         <f t="shared" si="5"/>
         <v>1633</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:4">
-      <c r="A85" s="2">
+      <c r="A85" s="3">
         <v>19</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="3">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="3">
         <f t="shared" si="4"/>
         <v>199.115044247788</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="3">
         <f t="shared" si="5"/>
         <v>2089</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:4">
-      <c r="A86" s="2">
+      <c r="A86" s="3">
         <v>20</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="3">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="3">
         <f t="shared" si="4"/>
         <v>193.1330472103</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="3">
         <f t="shared" si="5"/>
         <v>2279</v>
       </c>
     </row>
     <row r="87" ht="14.25" spans="1:4">
-      <c r="A87" s="2">
+      <c r="A87" s="3">
         <v>21</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="3">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="3">
         <f t="shared" si="4"/>
         <v>187.5</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="3">
         <f t="shared" si="5"/>
         <v>2476</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:4">
-      <c r="A88" s="2">
+      <c r="A88" s="3">
         <v>22</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="3">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88" s="3">
         <f t="shared" si="4"/>
         <v>167.910447761194</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="3">
         <f t="shared" si="5"/>
         <v>3063</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:4">
-      <c r="A89" s="2">
+      <c r="A89" s="3">
         <v>23</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="3">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="3">
         <f t="shared" si="4"/>
         <v>163.04347826087</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="3">
         <f t="shared" si="5"/>
         <v>3304</v>
       </c>
     </row>
     <row r="90" ht="14.25" spans="1:4">
-      <c r="A90" s="2">
+      <c r="A90" s="3">
         <v>24</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="3">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="3">
         <f t="shared" si="4"/>
         <v>158.450704225352</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="3">
         <f t="shared" si="5"/>
         <v>3552</v>
       </c>
     </row>
     <row r="91" ht="14.25" spans="1:4">
-      <c r="A91" s="2">
+      <c r="A91" s="3">
         <v>25</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="3">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="3">
         <f t="shared" si="4"/>
         <v>142.405063291139</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="3">
         <f t="shared" si="5"/>
         <v>4283</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:4">
-      <c r="A92" s="2">
+      <c r="A92" s="3">
         <v>26</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="3">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="3">
         <f t="shared" si="4"/>
         <v>138.461538461538</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="3">
         <f t="shared" si="5"/>
         <v>4578</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:4">
-      <c r="A93" s="2">
+      <c r="A93" s="3">
         <v>27</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="3">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="3">
         <f t="shared" si="4"/>
         <v>134.730538922156</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="3">
         <f t="shared" si="5"/>
         <v>4881</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:4">
-      <c r="A94" s="2">
+      <c r="A94" s="3">
         <v>28</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="3">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="3">
         <f t="shared" si="4"/>
         <v>121.621621621622</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="3">
         <f t="shared" si="5"/>
         <v>5770</v>
       </c>
     </row>
     <row r="95" ht="14.25" spans="1:4">
-      <c r="A95" s="2">
+      <c r="A95" s="3">
         <v>29</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="3">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95" s="3">
         <f t="shared" si="4"/>
         <v>118.421052631579</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="3">
         <f t="shared" si="5"/>
         <v>6125</v>
       </c>
     </row>
     <row r="96" ht="14.25" spans="1:4">
-      <c r="A96" s="2">
+      <c r="A96" s="3">
         <v>30</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="3">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="3">
         <f t="shared" si="4"/>
         <v>115.384615384615</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="3">
         <f t="shared" si="5"/>
         <v>6488</v>
       </c>
     </row>
     <row r="97" ht="14.25" spans="1:4">
-      <c r="A97" s="2">
+      <c r="A97" s="3">
         <v>31</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="3">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97" s="3">
         <f t="shared" si="4"/>
         <v>104.651162790698</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="3">
         <f t="shared" si="5"/>
         <v>7546</v>
       </c>
     </row>
     <row r="98" ht="14.25" spans="1:4">
-      <c r="A98" s="2">
+      <c r="A98" s="3">
         <v>32</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="3">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="3">
         <f t="shared" si="4"/>
         <v>102.040816326531</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="3">
         <f t="shared" si="5"/>
         <v>7964</v>
       </c>
     </row>
     <row r="99" ht="14.25" spans="1:4">
-      <c r="A99" s="2">
+      <c r="A99" s="3">
         <v>33</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="3">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99" s="3">
         <f t="shared" si="4"/>
         <v>99.5575221238938</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99" s="3">
         <f t="shared" si="5"/>
         <v>8392</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:4">
-      <c r="A100" s="2">
+      <c r="A100" s="3">
         <v>34</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="3">
         <f t="shared" ref="B100:B116" si="7">FLOOR((A100-1)/(3),1)+1</f>
         <v>12</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="3">
         <f t="shared" si="4"/>
         <v>90.7258064516129</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100" s="3">
         <f t="shared" si="5"/>
         <v>9632</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:4">
-      <c r="A101" s="2">
+      <c r="A101" s="3">
         <v>35</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="3">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="3">
         <f t="shared" si="4"/>
         <v>88.5826771653543</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="3">
         <f t="shared" si="5"/>
         <v>10118</v>
       </c>
     </row>
     <row r="102" ht="14.25" spans="1:4">
-      <c r="A102" s="2">
+      <c r="A102" s="3">
         <v>36</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="3">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="3">
         <f t="shared" ref="C102:C116" si="8">$B$61/(1+((A102-1)*B102*$B$62)/100)</f>
         <v>86.5384615384615</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="3">
         <f t="shared" ref="D102:D116" si="9">FLOOR($B$64*POWER(A102,$B$65)*B102,1)</f>
         <v>10615</v>
       </c>
     </row>
     <row r="103" ht="14.25" spans="1:4">
-      <c r="A103" s="2">
+      <c r="A103" s="3">
         <v>37</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="3">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103" s="3">
         <f t="shared" si="8"/>
         <v>79.2253521126761</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="3">
         <f t="shared" si="9"/>
         <v>12048</v>
       </c>
     </row>
     <row r="104" ht="14.25" spans="1:4">
-      <c r="A104" s="2">
+      <c r="A104" s="3">
         <v>38</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="3">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104" s="3">
         <f t="shared" si="8"/>
         <v>77.4526678141136</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="3">
         <f t="shared" si="9"/>
         <v>12606</v>
       </c>
     </row>
     <row r="105" ht="14.25" spans="1:4">
-      <c r="A105" s="2">
+      <c r="A105" s="3">
         <v>39</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="3">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105" s="3">
         <f t="shared" si="8"/>
         <v>75.7575757575758</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="3">
         <f t="shared" si="9"/>
         <v>13175</v>
       </c>
     </row>
     <row r="106" ht="14.25" spans="1:4">
-      <c r="A106" s="2">
+      <c r="A106" s="3">
         <v>40</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="3">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106" s="3">
         <f t="shared" si="8"/>
         <v>69.6594427244582</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="3">
         <f t="shared" si="9"/>
         <v>14813</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:4">
-      <c r="A107" s="2">
+      <c r="A107" s="3">
         <v>41</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="3">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="3">
         <f t="shared" si="8"/>
         <v>68.1818181818182</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="3">
         <f t="shared" si="9"/>
         <v>15448</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:4">
-      <c r="A108" s="2">
+      <c r="A108" s="3">
         <v>42</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="3">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="3">
         <f t="shared" si="8"/>
         <v>66.7655786350148</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="3">
         <f t="shared" si="9"/>
         <v>16094</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:4">
-      <c r="A109" s="2">
+      <c r="A109" s="3">
         <v>43</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="3">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="3">
         <f t="shared" si="8"/>
         <v>61.6438356164384</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="3">
         <f t="shared" si="9"/>
         <v>17948</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:4">
-      <c r="A110" s="2">
+      <c r="A110" s="3">
         <v>44</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="3">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="3">
         <f t="shared" si="8"/>
         <v>60.4026845637584</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110" s="3">
         <f t="shared" si="9"/>
         <v>18663</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:4">
-      <c r="A111" s="2">
+      <c r="A111" s="3">
         <v>45</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="3">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111" s="3">
         <f t="shared" si="8"/>
         <v>59.2105263157895</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111" s="3">
         <f t="shared" si="9"/>
         <v>19390</v>
       </c>
     </row>
     <row r="112" ht="14.25" spans="1:4">
-      <c r="A112" s="2">
+      <c r="A112" s="3">
         <v>46</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="3">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112" s="3">
         <f t="shared" si="8"/>
         <v>54.8780487804878</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112" s="3">
         <f t="shared" si="9"/>
         <v>21470</v>
       </c>
     </row>
     <row r="113" ht="14.25" spans="1:4">
-      <c r="A113" s="2">
+      <c r="A113" s="3">
         <v>47</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="3">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113" s="3">
         <f t="shared" si="8"/>
         <v>53.8277511961723</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113" s="3">
         <f t="shared" si="9"/>
         <v>22269</v>
       </c>
     </row>
     <row r="114" ht="14.25" spans="1:4">
-      <c r="A114" s="2">
+      <c r="A114" s="3">
         <v>48</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="3">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114" s="3">
         <f t="shared" si="8"/>
         <v>52.8169014084507</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" s="3">
         <f t="shared" si="9"/>
         <v>23081</v>
       </c>
     </row>
     <row r="115" ht="14.25" spans="1:4">
-      <c r="A115" s="2">
+      <c r="A115" s="3">
         <v>49</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="3">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115" s="3">
         <f t="shared" si="8"/>
         <v>49.1266375545852</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115" s="3">
         <f t="shared" si="9"/>
         <v>25398</v>
       </c>
     </row>
     <row r="116" ht="14.25" spans="1:4">
-      <c r="A116" s="2">
+      <c r="A116" s="3">
         <v>50</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="3">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116" s="3">
         <f t="shared" si="8"/>
         <v>48.2315112540193</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116" s="3">
         <f t="shared" si="9"/>
         <v>26286</v>
       </c>
     </row>
     <row r="117" ht="14.25" spans="1:4">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
     </row>
     <row r="118" ht="14.25" spans="1:4">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
     </row>
     <row r="119" ht="28.5" spans="1:4">
-      <c r="A119" s="20" t="s">
+      <c r="A119" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
     </row>
     <row r="120" ht="14.25" spans="1:4">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
     </row>
     <row r="121" ht="14.25" spans="1:4">
-      <c r="A121" s="2">
+      <c r="A121" s="3">
         <v>1</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="3">
         <f>C8/(C67/1000)</f>
         <v>2.22222222222222</v>
       </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
     </row>
     <row r="122" ht="14.25" spans="1:4">
-      <c r="A122" s="2">
+      <c r="A122" s="3">
         <v>2</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="3">
         <f t="shared" ref="B122:B155" si="10">C9/(C68/1000)</f>
         <v>4.48888888888889</v>
       </c>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
     </row>
     <row r="123" ht="14.25" spans="1:4">
-      <c r="A123" s="2">
+      <c r="A123" s="3">
         <v>3</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="3">
         <f t="shared" si="10"/>
         <v>6.8</v>
       </c>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
     </row>
     <row r="124" ht="14.25" spans="1:4">
-      <c r="A124" s="2">
+      <c r="A124" s="3">
         <v>4</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="3">
         <f t="shared" si="10"/>
         <v>16.4888888888889</v>
       </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
     </row>
     <row r="125" ht="14.25" spans="1:4">
-      <c r="A125" s="2">
+      <c r="A125" s="3">
         <v>5</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="3">
         <f t="shared" si="10"/>
         <v>21.6</v>
       </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
     </row>
     <row r="126" ht="14.25" spans="1:4">
-      <c r="A126" s="2">
+      <c r="A126" s="3">
         <v>6</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="3">
         <f t="shared" si="10"/>
         <v>26.8888888888889</v>
       </c>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
     </row>
     <row r="127" ht="14.25" spans="1:4">
-      <c r="A127" s="2">
+      <c r="A127" s="3">
         <v>7</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="3">
         <f t="shared" si="10"/>
         <v>49.8222222222222</v>
       </c>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
     </row>
     <row r="128" ht="14.25" spans="1:4">
-      <c r="A128" s="2">
+      <c r="A128" s="3">
         <v>8</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="3">
         <f t="shared" si="10"/>
         <v>59.1555555555556</v>
       </c>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
     </row>
     <row r="129" ht="14.25" spans="1:4">
-      <c r="A129" s="2">
+      <c r="A129" s="3">
         <v>9</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="3">
         <f t="shared" si="10"/>
         <v>68.8888888888889</v>
       </c>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
     </row>
     <row r="130" ht="14.25" spans="1:4">
-      <c r="A130" s="2">
+      <c r="A130" s="3">
         <v>10</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="3">
         <f t="shared" si="10"/>
         <v>111.822222222222</v>
       </c>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
     </row>
     <row r="131" ht="14.25" spans="1:4">
-      <c r="A131" s="2">
+      <c r="A131" s="3">
         <v>11</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="3">
         <f t="shared" si="10"/>
         <v>127.555555555556</v>
       </c>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
     </row>
     <row r="132" ht="14.25" spans="1:4">
-      <c r="A132" s="2">
+      <c r="A132" s="3">
         <v>12</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="3">
         <f t="shared" si="10"/>
         <v>144</v>
       </c>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
     </row>
     <row r="133" ht="14.25" spans="1:4">
-      <c r="A133" s="2">
+      <c r="A133" s="3">
         <v>13</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="3">
         <f t="shared" si="10"/>
         <v>216.888888888889</v>
       </c>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
     </row>
     <row r="134" ht="14.25" spans="1:4">
-      <c r="A134" s="2">
+      <c r="A134" s="3">
         <v>14</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="3">
         <f t="shared" si="10"/>
         <v>242</v>
       </c>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
     </row>
     <row r="135" ht="14.25" spans="1:4">
-      <c r="A135" s="2">
+      <c r="A135" s="3">
         <v>15</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="3">
         <f t="shared" si="10"/>
         <v>268.222222222222</v>
       </c>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
     </row>
     <row r="136" ht="14.25" spans="1:4">
-      <c r="A136" s="2">
+      <c r="A136" s="3">
         <v>16</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="3">
         <f t="shared" si="10"/>
         <v>384.222222222222</v>
       </c>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
     </row>
     <row r="137" ht="14.25" spans="1:4">
-      <c r="A137" s="2">
+      <c r="A137" s="3">
         <v>17</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="3">
         <f t="shared" si="10"/>
         <v>422.488888888889</v>
       </c>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
     </row>
     <row r="138" ht="14.25" spans="1:4">
-      <c r="A138" s="2">
+      <c r="A138" s="3">
         <v>18</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="3">
         <f t="shared" si="10"/>
         <v>462.355555555556</v>
       </c>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
     </row>
     <row r="139" ht="14.25" spans="1:4">
-      <c r="A139" s="2">
+      <c r="A139" s="3">
         <v>19</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="3">
         <f t="shared" si="10"/>
         <v>637.822222222222</v>
       </c>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
     </row>
     <row r="140" ht="14.25" spans="1:4">
-      <c r="A140" s="2">
+      <c r="A140" s="3">
         <v>20</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="3">
         <f t="shared" si="10"/>
         <v>693.822222222222</v>
       </c>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
     </row>
     <row r="141" ht="14.25" spans="1:4">
-      <c r="A141" s="2">
+      <c r="A141" s="3">
         <v>21</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="3">
         <f t="shared" si="10"/>
         <v>752</v>
       </c>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
     </row>
     <row r="142" ht="14.25" spans="1:4">
-      <c r="A142" s="2">
+      <c r="A142" s="3">
         <v>22</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="3">
         <f t="shared" si="10"/>
         <v>1006.48888888889</v>
       </c>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
     </row>
     <row r="143" ht="14.25" spans="1:4">
-      <c r="A143" s="2">
+      <c r="A143" s="3">
         <v>23</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="3">
         <f t="shared" si="10"/>
         <v>1085.6</v>
       </c>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
     </row>
     <row r="144" ht="14.25" spans="1:4">
-      <c r="A144" s="2">
+      <c r="A144" s="3">
         <v>24</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" s="3">
         <f t="shared" si="10"/>
         <v>1167.55555555556</v>
       </c>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
     </row>
     <row r="145" ht="14.25" spans="1:4">
-      <c r="A145" s="2">
+      <c r="A145" s="3">
         <v>25</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="3">
         <f t="shared" si="10"/>
         <v>1523.82222222222</v>
       </c>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
     </row>
     <row r="146" ht="14.25" spans="1:4">
-      <c r="A146" s="2">
+      <c r="A146" s="3">
         <v>26</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="3">
         <f t="shared" si="10"/>
         <v>1632.22222222222</v>
       </c>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
     </row>
     <row r="147" ht="14.25" spans="1:4">
-      <c r="A147" s="2">
+      <c r="A147" s="3">
         <v>27</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="3">
         <f t="shared" si="10"/>
         <v>1744.22222222222</v>
       </c>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
     </row>
     <row r="148" ht="14.25" spans="1:4">
-      <c r="A148" s="2">
+      <c r="A148" s="3">
         <v>28</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="3">
         <f t="shared" si="10"/>
         <v>2228.22222222222</v>
       </c>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
     </row>
     <row r="149" ht="14.25" spans="1:4">
-      <c r="A149" s="2">
+      <c r="A149" s="3">
         <v>29</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="3">
         <f t="shared" si="10"/>
         <v>2372.88888888889</v>
       </c>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
     </row>
     <row r="150" ht="14.25" spans="1:4">
-      <c r="A150" s="2">
+      <c r="A150" s="3">
         <v>30</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="3">
         <f t="shared" si="10"/>
         <v>2522</v>
       </c>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
     </row>
     <row r="151" ht="14.25" spans="1:4">
-      <c r="A151" s="2">
+      <c r="A151" s="3">
         <v>31</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="3">
         <f t="shared" si="10"/>
         <v>3162.88888888889</v>
       </c>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
     </row>
     <row r="152" ht="14.25" spans="1:4">
-      <c r="A152" s="2">
+      <c r="A152" s="3">
         <v>32</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="3">
         <f t="shared" si="10"/>
         <v>3351.6</v>
       </c>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
     </row>
     <row r="153" ht="14.25" spans="1:4">
-      <c r="A153" s="2">
+      <c r="A153" s="3">
         <v>33</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="3">
         <f t="shared" si="10"/>
         <v>3545.68888888889</v>
       </c>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
     </row>
     <row r="154" ht="14.25" spans="1:4">
-      <c r="A154" s="2">
+      <c r="A154" s="3">
         <v>34</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="3">
         <f t="shared" si="10"/>
         <v>4375.82222222222</v>
       </c>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
     </row>
     <row r="155" ht="14.25" spans="1:4">
-      <c r="A155" s="2">
+      <c r="A155" s="3">
         <v>35</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="3">
         <f t="shared" si="10"/>
         <v>4617.15555555556</v>
       </c>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4156,391 +4164,391 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="16.375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="16.375" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <f>($B$3*A6*A6)/2-($B$3*A6)/2+$B$2</f>
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <f t="shared" ref="B7:B15" si="0">($B$3*A7*A7)/2-($B$3*A7)/2+$B$2</f>
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <f t="shared" ref="B16:B25" si="1">($B$3*A16*A16)/2-($B$3*A16)/2+$B$2</f>
         <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <f t="shared" si="1"/>
         <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <f t="shared" si="1"/>
         <v>535</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <f t="shared" si="1"/>
         <v>610</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <f t="shared" si="1"/>
         <v>775</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <f t="shared" si="1"/>
         <v>865</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="19">
+      <c r="A25" s="20">
         <v>20</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="20">
         <f t="shared" si="1"/>
         <v>960</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>21</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <f t="shared" ref="B26:B45" si="2">($B$3*A26*A26)/2-($B$3*A26)/2+$B$2</f>
         <v>1060</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>22</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <f t="shared" si="2"/>
         <v>1165</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>23</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <f t="shared" si="2"/>
         <v>1275</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>24</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="3">
         <f t="shared" si="2"/>
         <v>1390</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>25</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <f t="shared" si="2"/>
         <v>1510</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>26</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="3">
         <f t="shared" si="2"/>
         <v>1635</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>27</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="3">
         <f t="shared" si="2"/>
         <v>1765</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>28</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="3">
         <f t="shared" si="2"/>
         <v>1900</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>29</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="3">
         <f t="shared" si="2"/>
         <v>2040</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>30</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="3">
         <f t="shared" si="2"/>
         <v>2185</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>31</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="3">
         <f t="shared" si="2"/>
         <v>2335</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>32</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="3">
         <f t="shared" si="2"/>
         <v>2490</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>33</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="3">
         <f t="shared" si="2"/>
         <v>2650</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>34</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="3">
         <f t="shared" si="2"/>
         <v>2815</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>35</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="3">
         <f t="shared" si="2"/>
         <v>2985</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>36</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="3">
         <f t="shared" si="2"/>
         <v>3160</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>37</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="3">
         <f t="shared" si="2"/>
         <v>3340</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="2">
+      <c r="A43" s="3">
         <v>38</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="3">
         <f t="shared" si="2"/>
         <v>3525</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="2">
+      <c r="A44" s="3">
         <v>39</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="3">
         <f t="shared" si="2"/>
         <v>3715</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="2">
+      <c r="A45" s="3">
         <v>40</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="3">
         <f t="shared" si="2"/>
         <v>3910</v>
       </c>
@@ -4562,37 +4570,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="101" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="101" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="12" ht="219" customHeight="1" spans="1:1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" ht="28.5" spans="1:1">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="5"/>
+      <c r="A26" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4611,109 +4619,109 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="14.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="45.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="40.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="35.375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="14.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="44.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="45.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="40.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="35.375" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1" ht="27" spans="1:7">
-      <c r="A1" s="14" t="s">
+    <row r="1" s="14" customFormat="1" ht="27" spans="1:7">
+      <c r="A1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" ht="273" customHeight="1" spans="1:7">
-      <c r="A2" s="15">
+      <c r="A2" s="16">
         <v>10000</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:7">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="G3" s="2" t="s">
+      <c r="E3" s="16"/>
+      <c r="G3" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" ht="119" customHeight="1" spans="1:5">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" ht="118" customHeight="1" spans="1:5">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" ht="28.5" spans="2:3">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4735,580 +4743,580 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="61" style="2" customWidth="1"/>
-    <col min="5" max="5" width="53.75" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="6.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="61" style="3" customWidth="1"/>
+    <col min="5" max="5" width="53.75" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:4">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" ht="63" customHeight="1" spans="2:4">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="2:5">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="8">
         <v>100</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="2:5">
-      <c r="B11" s="6"/>
-      <c r="C11" s="7">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8">
         <v>101</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="2:5">
-      <c r="B12" s="6"/>
-      <c r="C12" s="7">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8">
         <v>102</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>103</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <v>104</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="3:5">
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <v>105</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="16" spans="3:5">
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <v>106</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="2:5">
-      <c r="B17" s="6"/>
-      <c r="C17" s="7">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8">
         <v>107</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="2:5">
-      <c r="B18" s="6"/>
-      <c r="C18" s="7">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8">
         <v>108</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="2:5">
-      <c r="B19" s="6"/>
-      <c r="C19" s="7">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8">
         <v>109</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="2:3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" ht="16.5" spans="2:3">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" ht="16.5" spans="2:5">
-      <c r="B22" s="6"/>
-      <c r="C22" s="7">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8">
         <v>150</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="2:3">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
     </row>
     <row r="24" ht="16.5" spans="2:3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
     </row>
     <row r="25" ht="16.5" spans="2:3">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" ht="16.5" spans="2:3">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" ht="16.5" spans="2:3">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
     </row>
     <row r="28" ht="16.5" spans="2:5">
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="7">
         <v>200</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="2:5">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7">
         <v>201</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="30" ht="42.75" spans="3:5">
-      <c r="C30" s="2">
+      <c r="C30" s="3">
         <v>202</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="31" spans="3:5">
-      <c r="C31" s="2">
+      <c r="C31" s="3">
         <v>203</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="32" spans="3:5">
-      <c r="C32" s="2">
+      <c r="C32" s="3">
         <v>204</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="33" spans="3:5">
-      <c r="C33" s="3">
+      <c r="C33" s="4">
         <v>205</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="34" spans="3:5">
-      <c r="C34" s="2">
+      <c r="C34" s="3">
         <v>206</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="35" spans="3:5">
-      <c r="C35" s="2">
+      <c r="C35" s="3">
         <v>207</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="36" spans="3:5">
-      <c r="C36" s="2">
+      <c r="C36" s="3">
         <v>208</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="37" spans="3:5">
-      <c r="C37" s="2">
+      <c r="C37" s="3">
         <v>209</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="2:5">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="E38" s="5"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" ht="16.5" spans="2:5">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="E39" s="5"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="E39" s="6"/>
     </row>
     <row r="40" ht="16.5" spans="2:5">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="E40" s="5"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" ht="16.5" spans="2:5">
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="E41" s="5"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="E41" s="6"/>
     </row>
     <row r="42" ht="42.75" spans="2:5">
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="7">
         <v>300</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="43" spans="3:5">
-      <c r="C43" s="2">
+      <c r="C43" s="3">
         <v>301</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="44" ht="28.5" spans="3:5">
-      <c r="C44" s="2">
+      <c r="C44" s="3">
         <v>302</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="6" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="45" spans="3:5">
-      <c r="C45" s="2">
+      <c r="C45" s="3">
         <v>303</v>
       </c>
       <c r="D45" t="s">
         <v>120</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="3" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="46" spans="3:5">
-      <c r="C46" s="2">
+      <c r="C46" s="3">
         <v>304</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="47" spans="3:5">
-      <c r="C47" s="2">
+      <c r="C47" s="3">
         <v>305</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="48" spans="3:5">
-      <c r="C48" s="2">
+      <c r="C48" s="3">
         <v>306</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="49" spans="3:5">
-      <c r="C49" s="2">
+      <c r="C49" s="3">
         <v>307</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="50" spans="3:5">
-      <c r="C50" s="2">
+      <c r="C50" s="3">
         <v>308</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51" spans="3:5">
-      <c r="C51" s="2">
+      <c r="C51" s="3">
         <v>309</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="3" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="53" ht="42.75" spans="2:5">
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C53" s="7">
         <v>400</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="54" spans="3:5">
-      <c r="C54" s="2">
+      <c r="C54" s="3">
         <v>401</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="55" spans="3:5">
-      <c r="C55" s="2">
+      <c r="C55" s="3">
         <v>402</v>
       </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="11"/>
     </row>
     <row r="56" spans="3:5">
-      <c r="C56" s="2">
+      <c r="C56" s="3">
         <v>403</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="9" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="57" spans="3:5">
-      <c r="C57" s="2">
+      <c r="C57" s="3">
         <v>404</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="9" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="58" ht="57" spans="3:5">
-      <c r="C58" s="2">
+      <c r="C58" s="3">
         <v>405</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="6" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="59" ht="42.75" spans="3:5">
-      <c r="C59" s="2">
+      <c r="C59" s="3">
         <v>406</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="6" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="60" ht="28.5" spans="2:5">
-      <c r="B60" s="6"/>
-      <c r="C60" s="2">
+      <c r="B60" s="7"/>
+      <c r="C60" s="3">
         <v>407</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="61" ht="28.5" spans="2:5">
-      <c r="B61" s="6"/>
-      <c r="C61" s="2">
+      <c r="B61" s="7"/>
+      <c r="C61" s="3">
         <v>408</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="62" ht="28.5" spans="2:5">
-      <c r="B62" s="6"/>
-      <c r="C62" s="2">
+      <c r="B62" s="7"/>
+      <c r="C62" s="3">
         <v>409</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="63" ht="16.5" spans="2:5">
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="E63" s="5"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="E63" s="6"/>
     </row>
     <row r="64" ht="16.5" spans="2:5">
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="E64" s="5"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="E64" s="6"/>
     </row>
     <row r="65" ht="42.75" spans="2:5">
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="2" t="s">
+      <c r="C65" s="7"/>
+      <c r="D65" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="66" ht="40.5" spans="4:5">
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="12" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="67" spans="4:5">
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="3" t="s">
         <v>158</v>
       </c>
       <c r="E67" t="s">
@@ -5316,108 +5324,108 @@
       </c>
     </row>
     <row r="68" spans="4:4">
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12" t="s">
+      <c r="C71" s="13"/>
+      <c r="D71" s="13" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12" t="s">
+      <c r="C72" s="13"/>
+      <c r="D72" s="13" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12" t="s">
+      <c r="C73" s="13"/>
+      <c r="D73" s="13" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="74" spans="4:4">
-      <c r="D74" s="5"/>
+      <c r="D74" s="6"/>
     </row>
     <row r="75" spans="4:4">
-      <c r="D75" s="5"/>
+      <c r="D75" s="6"/>
     </row>
     <row r="76" spans="4:4">
-      <c r="D76" s="5"/>
+      <c r="D76" s="6"/>
     </row>
     <row r="77" spans="4:4">
-      <c r="D77" s="5"/>
+      <c r="D77" s="6"/>
     </row>
     <row r="78" spans="4:4">
-      <c r="D78" s="5"/>
+      <c r="D78" s="6"/>
     </row>
     <row r="79" spans="4:4">
-      <c r="D79" s="5"/>
+      <c r="D79" s="6"/>
     </row>
     <row r="80" spans="4:4">
-      <c r="D80" s="5"/>
+      <c r="D80" s="6"/>
     </row>
     <row r="81" spans="4:4">
-      <c r="D81" s="5"/>
+      <c r="D81" s="6"/>
     </row>
     <row r="82" ht="28.5" spans="2:4">
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="6" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="84" spans="4:4">
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="3" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="85" spans="4:4">
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="86" spans="2:4">
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="87" spans="4:4">
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="3" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="3" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="3" t="s">
         <v>175</v>
       </c>
     </row>
@@ -5438,52 +5446,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="74.5" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="74.5" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5523,10 +5531,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -5538,16 +5546,16 @@
     <row r="1" ht="14.25" spans="1:1">
       <c r="A1" s="1"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" ht="74" customHeight="1" spans="1:2">
       <c r="A13" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="B13" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>188</v>
-      </c>
-      <c r="B14" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5582,6 +5590,11 @@
     <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="8"/>
+    <workbookView windowWidth="26265" windowHeight="12885" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="玩法设计" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="202">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -684,20 +684,84 @@
     <t>宝珠合成逻辑及UI</t>
   </si>
   <si>
-    <t>了解UGUI界面优化、Drawcall优化方案</t>
-  </si>
-  <si>
-    <t>1.使用图集
+    <t>UI优化</t>
+  </si>
+  <si>
+    <r>
+      <t>1.使用图集
 2.图片格式压缩(ASTC)
 3.无用的界面隐藏时，使用SetActive会造成Canvas重绘，比较好的做法是把界面移到摄像机外部或设置界面的Alpha=0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进行动静分离拆分Canvas，把频繁移动的放到动态Canvas下，一方面可以降低静态元素的更新频率，另一方面可以减小重建时涉及到的Mesh大小（重建是以Canvas为单位进行的）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+避免频繁的销毁合创建一个界面
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>避免频繁的SetActive界面，可以用CanvasGroup进行代替</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Mask换Rect Mask 2D或者网上的Mask组件。mask以内和以外把UI分割成两个“世界”，依次计算两个“世界”的drawcall，然后再相加。
+避免Image Text 不需要RayCast Target的组件开启该功能。
+图集一定要规范，不要一个界面用很多图集中的图片, 影响drawcall数量的根本是batch（批处理数）,而batch是根本一个一个图集来进行批处理的,如果相邻的两张Image不是一个图集，那么就会造成两个Batch。
+图文交叉，比如 image1 image2 Text 这样的顺序下是两个Drawcall,如果换成 Image1 Text Imgae2 由于Text会打断合批，所以即使两个Image是同一个图集中的图片，也会产生3个Drawall。
+无用的Image以及Sprite为空的Image会打断合批，要谨慎使用。
+如果界面不显示了，该界面的一切周期函数比如Update一定要停掉。</t>
+    </r>
+  </si>
+  <si>
+    <t>性能优化</t>
+  </si>
+  <si>
+    <t>使用对象池</t>
   </si>
   <si>
     <t>了解AssetBundle打包的原理、依赖关系及循环依赖的解决办法，卸载时机</t>
   </si>
   <si>
-    <t>Unity性能优化的常用方案</t>
-  </si>
-  <si>
     <t>tcp和udp的区别</t>
   </si>
   <si>
@@ -717,6 +781,16 @@
   </si>
   <si>
     <t>Overdraw怎么优化</t>
+  </si>
+  <si>
+    <t>避免绘制不必要的透明或半透明图像。这种方式导致的过度绘制和 Alpha 混合会极大影响移动平台</t>
+  </si>
+  <si>
+    <t>曾经遇到的问题</t>
+  </si>
+  <si>
+    <t>游戏初始化时加载了大量的配置表及实例化对应的对象，导致启动卡顿时长过长
+后续改成按需加载，在用到的时候再生成，并存储下来，以便后续使用。</t>
   </si>
 </sst>
 </file>
@@ -729,7 +803,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -742,6 +816,13 @@
       <color theme="1"/>
       <name val="黑体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="24"/>
@@ -1262,142 +1343,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1408,16 +1492,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1435,10 +1519,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1456,19 +1540,19 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1790,73 +1874,73 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="27" style="23" customWidth="1"/>
-    <col min="3" max="3" width="92.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="114.125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="27" style="24" customWidth="1"/>
+    <col min="3" max="3" width="92.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="114.125" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="140" customHeight="1" spans="2:3">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="101" customHeight="1" spans="2:3">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="101" customHeight="1" spans="2:3">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="103" customHeight="1" spans="2:3">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="103" customHeight="1" spans="2:3">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="100" customHeight="1" spans="2:3">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" ht="154" customHeight="1" spans="2:4">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" ht="76" customHeight="1" spans="2:3">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1884,2268 +1968,2268 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="1:4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" ht="14.25" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" ht="14.25" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" ht="14.25" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="11">
         <v>2</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" ht="14.25" spans="1:4">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>1</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <f t="shared" ref="B8:B42" si="0">FLOOR((A8-1)/3,1)+1</f>
         <v>1</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <f>$B$3+(A8-1)*B8</f>
         <v>1</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <f>$B$5*POWER(A8,$B$6)*B8</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>2</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <f>$B$3+(A9-1)*B9</f>
         <v>2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <f>$B$5*POWER(A9,$B$6)*B9</f>
         <v>4</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:4">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>3</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <f>$B$3+(A10-1)*B10</f>
         <v>3</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <f>$B$5*POWER(A10,$B$6)*B10</f>
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:4">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>4</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <f>$B$3+(A11-1)*B11</f>
         <v>7</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <f>$B$5*POWER(A11,$B$6)*B11</f>
         <v>32</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:4">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>5</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <f>$B$3+(A12-1)*B12</f>
         <v>9</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <f>$B$5*POWER(A12,$B$6)*B12</f>
         <v>50</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:4">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>6</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <f>$B$3+(A13-1)*B13</f>
         <v>11</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <f>$B$5*POWER(A13,$B$6)*B13</f>
         <v>72</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:4">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>7</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <f>$B$3+(A14-1)*B14</f>
         <v>19</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <f>$B$5*POWER(A14,$B$6)*B14</f>
         <v>147</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:4">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>8</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <f>$B$3+(A15-1)*B15</f>
         <v>22</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <f>$B$5*POWER(A15,$B$6)*B15</f>
         <v>192</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:4">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>9</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <f>$B$3+(A16-1)*B16</f>
         <v>25</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <f>$B$5*POWER(A16,$B$6)*B16</f>
         <v>243</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:4">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>10</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <f>$B$3+(A17-1)*B17</f>
         <v>37</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="4">
         <f>$B$5*POWER(A17,$B$6)*B17</f>
         <v>400</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:4">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>11</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4">
         <f>$B$3+(A18-1)*B18</f>
         <v>41</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="4">
         <f>$B$5*POWER(A18,$B$6)*B18</f>
         <v>484</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:4">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>12</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4">
         <f>$B$3+(A19-1)*B19</f>
         <v>45</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <f>$B$5*POWER(A19,$B$6)*B19</f>
         <v>576</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:4">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>13</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4">
         <f>$B$3+(A20-1)*B20</f>
         <v>61</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="4">
         <f>$B$5*POWER(A20,$B$6)*B20</f>
         <v>845</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:4">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>14</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4">
         <f>$B$3+(A21-1)*B21</f>
         <v>66</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="4">
         <f>$B$5*POWER(A21,$B$6)*B21</f>
         <v>980</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:4">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>15</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="4">
         <f>$B$3+(A22-1)*B22</f>
         <v>71</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="4">
         <f>$B$5*POWER(A22,$B$6)*B22</f>
         <v>1125</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:4">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>16</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="4">
         <f>$B$3+(A23-1)*B23</f>
         <v>91</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4">
         <f>$B$5*POWER(A23,$B$6)*B23</f>
         <v>1536</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:4">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>17</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="4">
         <f>$B$3+(A24-1)*B24</f>
         <v>97</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="4">
         <f>$B$5*POWER(A24,$B$6)*B24</f>
         <v>1734</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:4">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>18</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="4">
         <f>$B$3+(A25-1)*B25</f>
         <v>103</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="4">
         <f>$B$5*POWER(A25,$B$6)*B25</f>
         <v>1944</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:4">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>19</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="4">
         <f>$B$3+(A26-1)*B26</f>
         <v>127</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="4">
         <f>$B$5*POWER(A26,$B$6)*B26</f>
         <v>2527</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:4">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>20</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="4">
         <f>$B$3+(A27-1)*B27</f>
         <v>134</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="4">
         <f>$B$5*POWER(A27,$B$6)*B27</f>
         <v>2800</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:4">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>21</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="4">
         <f>$B$3+(A28-1)*B28</f>
         <v>141</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="4">
         <f>$B$5*POWER(A28,$B$6)*B28</f>
         <v>3087</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:4">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>22</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="4">
         <f>$B$3+(A29-1)*B29</f>
         <v>169</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="4">
         <f>$B$5*POWER(A29,$B$6)*B29</f>
         <v>3872</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:4">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>23</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="4">
         <f>$B$3+(A30-1)*B30</f>
         <v>177</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="4">
         <f>$B$5*POWER(A30,$B$6)*B30</f>
         <v>4232</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:4">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>24</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="4">
         <f>$B$3+(A31-1)*B31</f>
         <v>185</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="4">
         <f>$B$5*POWER(A31,$B$6)*B31</f>
         <v>4608</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:4">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>25</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="4">
         <f>$B$3+(A32-1)*B32</f>
         <v>217</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="4">
         <f>$B$5*POWER(A32,$B$6)*B32</f>
         <v>5625</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:4">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>26</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="4">
         <f>$B$3+(A33-1)*B33</f>
         <v>226</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="4">
         <f>$B$5*POWER(A33,$B$6)*B33</f>
         <v>6084</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:4">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>27</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="4">
         <f>$B$3+(A34-1)*B34</f>
         <v>235</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="4">
         <f>$B$5*POWER(A34,$B$6)*B34</f>
         <v>6561</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:4">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>28</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="4">
         <f>$B$3+(A35-1)*B35</f>
         <v>271</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="4">
         <f>$B$5*POWER(A35,$B$6)*B35</f>
         <v>7840</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:4">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>29</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="4">
         <f>$B$3+(A36-1)*B36</f>
         <v>281</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="4">
         <f>$B$5*POWER(A36,$B$6)*B36</f>
         <v>8410</v>
       </c>
     </row>
     <row r="37" ht="14.25" spans="1:4">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>30</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="4">
         <f>$B$3+(A37-1)*B37</f>
         <v>291</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="4">
         <f>$B$5*POWER(A37,$B$6)*B37</f>
         <v>9000</v>
       </c>
     </row>
     <row r="38" ht="14.25" spans="1:4">
-      <c r="A38" s="3">
+      <c r="A38" s="4">
         <v>31</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="4">
         <f>$B$3+(A38-1)*B38</f>
         <v>331</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="4">
         <f>$B$5*POWER(A38,$B$6)*B38</f>
         <v>10571</v>
       </c>
     </row>
     <row r="39" ht="14.25" spans="1:4">
-      <c r="A39" s="3">
+      <c r="A39" s="4">
         <v>32</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="4">
         <f>$B$3+(A39-1)*B39</f>
         <v>342</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="4">
         <f>$B$5*POWER(A39,$B$6)*B39</f>
         <v>11264</v>
       </c>
     </row>
     <row r="40" ht="14.25" spans="1:4">
-      <c r="A40" s="3">
+      <c r="A40" s="4">
         <v>33</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="4">
         <f>$B$3+(A40-1)*B40</f>
         <v>353</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="4">
         <f>$B$5*POWER(A40,$B$6)*B40</f>
         <v>11979</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:4">
-      <c r="A41" s="3">
+      <c r="A41" s="4">
         <v>34</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="4">
         <f>$B$3+(A41-1)*B41</f>
         <v>397</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="4">
         <f>$B$5*POWER(A41,$B$6)*B41</f>
         <v>13872</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="1:4">
-      <c r="A42" s="3">
+      <c r="A42" s="4">
         <v>35</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="4">
         <f>$B$3+(A42-1)*B42</f>
         <v>409</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="4">
         <f>$B$5*POWER(A42,$B$6)*B42</f>
         <v>14700</v>
       </c>
     </row>
     <row r="43" ht="14.25" spans="1:4">
-      <c r="A43" s="3">
+      <c r="A43" s="4">
         <v>36</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="4">
         <f t="shared" ref="B43:B57" si="1">FLOOR((A43-1)/3,1)+1</f>
         <v>12</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="4">
         <f t="shared" ref="C43:C57" si="2">$B$3+(A43-1)*B43</f>
         <v>421</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="4">
         <f t="shared" ref="D43:D57" si="3">$B$5*POWER(A43,$B$6)*B43</f>
         <v>15552</v>
       </c>
     </row>
     <row r="44" ht="14.25" spans="1:4">
-      <c r="A44" s="3">
+      <c r="A44" s="4">
         <v>37</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="4">
         <f t="shared" si="2"/>
         <v>469</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="4">
         <f t="shared" si="3"/>
         <v>17797</v>
       </c>
     </row>
     <row r="45" ht="14.25" spans="1:4">
-      <c r="A45" s="3">
+      <c r="A45" s="4">
         <v>38</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="4">
         <f t="shared" si="2"/>
         <v>482</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="4">
         <f t="shared" si="3"/>
         <v>18772</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:4">
-      <c r="A46" s="3">
+      <c r="A46" s="4">
         <v>39</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="4">
         <f t="shared" si="2"/>
         <v>495</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="4">
         <f t="shared" si="3"/>
         <v>19773</v>
       </c>
     </row>
     <row r="47" ht="14.25" spans="1:4">
-      <c r="A47" s="3">
+      <c r="A47" s="4">
         <v>40</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="4">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="4">
         <f t="shared" si="2"/>
         <v>547</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="4">
         <f t="shared" si="3"/>
         <v>22400</v>
       </c>
     </row>
     <row r="48" ht="14.25" spans="1:4">
-      <c r="A48" s="3">
+      <c r="A48" s="4">
         <v>41</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="4">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="4">
         <f t="shared" si="2"/>
         <v>561</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="4">
         <f t="shared" si="3"/>
         <v>23534</v>
       </c>
     </row>
     <row r="49" ht="14.25" spans="1:4">
-      <c r="A49" s="3">
+      <c r="A49" s="4">
         <v>42</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="4">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="4">
         <f t="shared" si="2"/>
         <v>575</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="4">
         <f t="shared" si="3"/>
         <v>24696</v>
       </c>
     </row>
     <row r="50" ht="14.25" spans="1:4">
-      <c r="A50" s="3">
+      <c r="A50" s="4">
         <v>43</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="4">
         <f t="shared" si="2"/>
         <v>631</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="4">
         <f t="shared" si="3"/>
         <v>27735</v>
       </c>
     </row>
     <row r="51" ht="14.25" spans="1:4">
-      <c r="A51" s="3">
+      <c r="A51" s="4">
         <v>44</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="4">
         <f t="shared" si="2"/>
         <v>646</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="4">
         <f t="shared" si="3"/>
         <v>29040</v>
       </c>
     </row>
     <row r="52" ht="14.25" spans="1:4">
-      <c r="A52" s="3">
+      <c r="A52" s="4">
         <v>45</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="4">
         <f t="shared" si="2"/>
         <v>661</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="4">
         <f t="shared" si="3"/>
         <v>30375</v>
       </c>
     </row>
     <row r="53" ht="14.25" spans="1:4">
-      <c r="A53" s="3">
+      <c r="A53" s="4">
         <v>46</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="4">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="4">
         <f t="shared" si="2"/>
         <v>721</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="4">
         <f t="shared" si="3"/>
         <v>33856</v>
       </c>
     </row>
     <row r="54" ht="14.25" spans="1:4">
-      <c r="A54" s="3">
+      <c r="A54" s="4">
         <v>47</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="4">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="4">
         <f t="shared" si="2"/>
         <v>737</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="4">
         <f t="shared" si="3"/>
         <v>35344</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="1:4">
-      <c r="A55" s="3">
+      <c r="A55" s="4">
         <v>48</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="4">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="4">
         <f t="shared" si="2"/>
         <v>753</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="4">
         <f t="shared" si="3"/>
         <v>36864</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="1:4">
-      <c r="A56" s="3">
+      <c r="A56" s="4">
         <v>49</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="4">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="4">
         <f t="shared" si="2"/>
         <v>817</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="4">
         <f t="shared" si="3"/>
         <v>40817</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="1:4">
-      <c r="A57" s="3">
+      <c r="A57" s="4">
         <v>50</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="4">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="4">
         <f t="shared" si="2"/>
         <v>834</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="4">
         <f t="shared" si="3"/>
         <v>42500</v>
       </c>
     </row>
     <row r="58" ht="28.5" spans="1:4">
-      <c r="A58" s="21"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
+      <c r="A58" s="22"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
     </row>
     <row r="59" ht="28.5" spans="1:4">
-      <c r="A59" s="21"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
     </row>
     <row r="60" ht="28.5" spans="1:4">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
     </row>
     <row r="61" ht="14.25" spans="1:4">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="5">
         <v>450</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
     </row>
     <row r="62" ht="14.25" spans="1:4">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="5">
         <v>1</v>
       </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
     </row>
     <row r="63" ht="14.25" spans="1:4">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
     </row>
     <row r="64" ht="14.25" spans="1:4">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="4">
         <v>2</v>
       </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
     </row>
     <row r="65" ht="14.25" spans="1:4">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B65" s="10">
+      <c r="B65" s="11">
         <v>1.7</v>
       </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
     </row>
     <row r="66" ht="14.25" spans="1:4">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D66" s="22" t="s">
+      <c r="D66" s="23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="67" ht="14.25" spans="1:4">
-      <c r="A67" s="3">
+      <c r="A67" s="4">
         <v>1</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="4">
         <f>FLOOR((A67-1)/(3),1)+1</f>
         <v>1</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="4">
         <f t="shared" ref="C67:C101" si="4">$B$61/(1+((A67-1)*B67*$B$62)/100)</f>
         <v>450</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="4">
         <f t="shared" ref="D67:D101" si="5">FLOOR($B$64*POWER(A67,$B$65)*B67,1)</f>
         <v>2</v>
       </c>
     </row>
     <row r="68" ht="14.25" spans="1:4">
-      <c r="A68" s="3">
+      <c r="A68" s="4">
         <v>2</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="4">
         <f t="shared" ref="B68:B99" si="6">FLOOR((A68-1)/(3),1)+1</f>
         <v>1</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="4">
         <f t="shared" si="4"/>
         <v>445.544554455446</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="4">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:4">
-      <c r="A69" s="3">
+      <c r="A69" s="4">
         <v>3</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="4">
         <f t="shared" si="4"/>
         <v>441.176470588235</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="4">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
     <row r="70" ht="14.25" spans="1:4">
-      <c r="A70" s="3">
+      <c r="A70" s="4">
         <v>4</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="4">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="4">
         <f t="shared" si="4"/>
         <v>424.528301886792</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="4">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
     </row>
     <row r="71" ht="14.25" spans="1:4">
-      <c r="A71" s="3">
+      <c r="A71" s="4">
         <v>5</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="4">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="4">
         <f t="shared" si="4"/>
         <v>416.666666666667</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="4">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
     </row>
     <row r="72" ht="14.25" spans="1:4">
-      <c r="A72" s="3">
+      <c r="A72" s="4">
         <v>6</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="4">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="4">
         <f t="shared" si="4"/>
         <v>409.090909090909</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="4">
         <f t="shared" si="5"/>
         <v>84</v>
       </c>
     </row>
     <row r="73" ht="14.25" spans="1:4">
-      <c r="A73" s="3">
+      <c r="A73" s="4">
         <v>7</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="4">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="4">
         <f t="shared" si="4"/>
         <v>381.35593220339</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="4">
         <f t="shared" si="5"/>
         <v>163</v>
       </c>
     </row>
     <row r="74" ht="14.25" spans="1:4">
-      <c r="A74" s="3">
+      <c r="A74" s="4">
         <v>8</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="4">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="4">
         <f t="shared" si="4"/>
         <v>371.900826446281</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="4">
         <f t="shared" si="5"/>
         <v>205</v>
       </c>
     </row>
     <row r="75" ht="14.25" spans="1:4">
-      <c r="A75" s="3">
+      <c r="A75" s="4">
         <v>9</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="4">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="4">
         <f t="shared" si="4"/>
         <v>362.903225806452</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="4">
         <f t="shared" si="5"/>
         <v>251</v>
       </c>
     </row>
     <row r="76" ht="14.25" spans="1:4">
-      <c r="A76" s="3">
+      <c r="A76" s="4">
         <v>10</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="4">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="4">
         <f t="shared" si="4"/>
         <v>330.882352941177</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="4">
         <f t="shared" si="5"/>
         <v>400</v>
       </c>
     </row>
     <row r="77" ht="14.25" spans="1:4">
-      <c r="A77" s="3">
+      <c r="A77" s="4">
         <v>11</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="4">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="4">
         <f t="shared" si="4"/>
         <v>321.428571428571</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="4">
         <f t="shared" si="5"/>
         <v>471</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="1:4">
-      <c r="A78" s="3">
+      <c r="A78" s="4">
         <v>12</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="4">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="4">
         <f t="shared" si="4"/>
         <v>312.5</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="4">
         <f t="shared" si="5"/>
         <v>546</v>
       </c>
     </row>
     <row r="79" ht="14.25" spans="1:4">
-      <c r="A79" s="3">
+      <c r="A79" s="4">
         <v>13</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="4">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="4">
         <f t="shared" si="4"/>
         <v>281.25</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="4">
         <f t="shared" si="5"/>
         <v>782</v>
       </c>
     </row>
     <row r="80" ht="14.25" spans="1:4">
-      <c r="A80" s="3">
+      <c r="A80" s="4">
         <v>14</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="4">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="4">
         <f t="shared" si="4"/>
         <v>272.727272727273</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="4">
         <f t="shared" si="5"/>
         <v>888</v>
       </c>
     </row>
     <row r="81" ht="14.25" spans="1:4">
-      <c r="A81" s="3">
+      <c r="A81" s="4">
         <v>15</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="4">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="4">
         <f t="shared" si="4"/>
         <v>264.705882352941</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="4">
         <f t="shared" si="5"/>
         <v>998</v>
       </c>
     </row>
     <row r="82" ht="14.25" spans="1:4">
-      <c r="A82" s="3">
+      <c r="A82" s="4">
         <v>16</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="4">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="4">
         <f t="shared" si="4"/>
         <v>236.842105263158</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="4">
         <f t="shared" si="5"/>
         <v>1337</v>
       </c>
     </row>
     <row r="83" ht="14.25" spans="1:4">
-      <c r="A83" s="3">
+      <c r="A83" s="4">
         <v>17</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="4">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="4">
         <f t="shared" si="4"/>
         <v>229.591836734694</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="4">
         <f t="shared" si="5"/>
         <v>1482</v>
       </c>
     </row>
     <row r="84" ht="14.25" spans="1:4">
-      <c r="A84" s="3">
+      <c r="A84" s="4">
         <v>18</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="4">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="4">
         <f t="shared" si="4"/>
         <v>222.772277227723</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="4">
         <f t="shared" si="5"/>
         <v>1633</v>
       </c>
     </row>
     <row r="85" ht="14.25" spans="1:4">
-      <c r="A85" s="3">
+      <c r="A85" s="4">
         <v>19</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="4">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="4">
         <f t="shared" si="4"/>
         <v>199.115044247788</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="4">
         <f t="shared" si="5"/>
         <v>2089</v>
       </c>
     </row>
     <row r="86" ht="14.25" spans="1:4">
-      <c r="A86" s="3">
+      <c r="A86" s="4">
         <v>20</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="4">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="4">
         <f t="shared" si="4"/>
         <v>193.1330472103</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="4">
         <f t="shared" si="5"/>
         <v>2279</v>
       </c>
     </row>
     <row r="87" ht="14.25" spans="1:4">
-      <c r="A87" s="3">
+      <c r="A87" s="4">
         <v>21</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="4">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="4">
         <f t="shared" si="4"/>
         <v>187.5</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="4">
         <f t="shared" si="5"/>
         <v>2476</v>
       </c>
     </row>
     <row r="88" ht="14.25" spans="1:4">
-      <c r="A88" s="3">
+      <c r="A88" s="4">
         <v>22</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="4">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="4">
         <f t="shared" si="4"/>
         <v>167.910447761194</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="4">
         <f t="shared" si="5"/>
         <v>3063</v>
       </c>
     </row>
     <row r="89" ht="14.25" spans="1:4">
-      <c r="A89" s="3">
+      <c r="A89" s="4">
         <v>23</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="4">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="4">
         <f t="shared" si="4"/>
         <v>163.04347826087</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="4">
         <f t="shared" si="5"/>
         <v>3304</v>
       </c>
     </row>
     <row r="90" ht="14.25" spans="1:4">
-      <c r="A90" s="3">
+      <c r="A90" s="4">
         <v>24</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="4">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="4">
         <f t="shared" si="4"/>
         <v>158.450704225352</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="4">
         <f t="shared" si="5"/>
         <v>3552</v>
       </c>
     </row>
     <row r="91" ht="14.25" spans="1:4">
-      <c r="A91" s="3">
+      <c r="A91" s="4">
         <v>25</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="4">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="4">
         <f t="shared" si="4"/>
         <v>142.405063291139</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="4">
         <f t="shared" si="5"/>
         <v>4283</v>
       </c>
     </row>
     <row r="92" ht="14.25" spans="1:4">
-      <c r="A92" s="3">
+      <c r="A92" s="4">
         <v>26</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="4">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="4">
         <f t="shared" si="4"/>
         <v>138.461538461538</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="4">
         <f t="shared" si="5"/>
         <v>4578</v>
       </c>
     </row>
     <row r="93" ht="14.25" spans="1:4">
-      <c r="A93" s="3">
+      <c r="A93" s="4">
         <v>27</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="4">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="4">
         <f t="shared" si="4"/>
         <v>134.730538922156</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="4">
         <f t="shared" si="5"/>
         <v>4881</v>
       </c>
     </row>
     <row r="94" ht="14.25" spans="1:4">
-      <c r="A94" s="3">
+      <c r="A94" s="4">
         <v>28</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="4">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="4">
         <f t="shared" si="4"/>
         <v>121.621621621622</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="4">
         <f t="shared" si="5"/>
         <v>5770</v>
       </c>
     </row>
     <row r="95" ht="14.25" spans="1:4">
-      <c r="A95" s="3">
+      <c r="A95" s="4">
         <v>29</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="4">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="4">
         <f t="shared" si="4"/>
         <v>118.421052631579</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="4">
         <f t="shared" si="5"/>
         <v>6125</v>
       </c>
     </row>
     <row r="96" ht="14.25" spans="1:4">
-      <c r="A96" s="3">
+      <c r="A96" s="4">
         <v>30</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="4">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="4">
         <f t="shared" si="4"/>
         <v>115.384615384615</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="4">
         <f t="shared" si="5"/>
         <v>6488</v>
       </c>
     </row>
     <row r="97" ht="14.25" spans="1:4">
-      <c r="A97" s="3">
+      <c r="A97" s="4">
         <v>31</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="4">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="4">
         <f t="shared" si="4"/>
         <v>104.651162790698</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="4">
         <f t="shared" si="5"/>
         <v>7546</v>
       </c>
     </row>
     <row r="98" ht="14.25" spans="1:4">
-      <c r="A98" s="3">
+      <c r="A98" s="4">
         <v>32</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="4">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="4">
         <f t="shared" si="4"/>
         <v>102.040816326531</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="4">
         <f t="shared" si="5"/>
         <v>7964</v>
       </c>
     </row>
     <row r="99" ht="14.25" spans="1:4">
-      <c r="A99" s="3">
+      <c r="A99" s="4">
         <v>33</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="4">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="4">
         <f t="shared" si="4"/>
         <v>99.5575221238938</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="4">
         <f t="shared" si="5"/>
         <v>8392</v>
       </c>
     </row>
     <row r="100" ht="14.25" spans="1:4">
-      <c r="A100" s="3">
+      <c r="A100" s="4">
         <v>34</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="4">
         <f t="shared" ref="B100:B116" si="7">FLOOR((A100-1)/(3),1)+1</f>
         <v>12</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="4">
         <f t="shared" si="4"/>
         <v>90.7258064516129</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="4">
         <f t="shared" si="5"/>
         <v>9632</v>
       </c>
     </row>
     <row r="101" ht="14.25" spans="1:4">
-      <c r="A101" s="3">
+      <c r="A101" s="4">
         <v>35</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="4">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="4">
         <f t="shared" si="4"/>
         <v>88.5826771653543</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="4">
         <f t="shared" si="5"/>
         <v>10118</v>
       </c>
     </row>
     <row r="102" ht="14.25" spans="1:4">
-      <c r="A102" s="3">
+      <c r="A102" s="4">
         <v>36</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="4">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="4">
         <f t="shared" ref="C102:C116" si="8">$B$61/(1+((A102-1)*B102*$B$62)/100)</f>
         <v>86.5384615384615</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="4">
         <f t="shared" ref="D102:D116" si="9">FLOOR($B$64*POWER(A102,$B$65)*B102,1)</f>
         <v>10615</v>
       </c>
     </row>
     <row r="103" ht="14.25" spans="1:4">
-      <c r="A103" s="3">
+      <c r="A103" s="4">
         <v>37</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="4">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103" s="4">
         <f t="shared" si="8"/>
         <v>79.2253521126761</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103" s="4">
         <f t="shared" si="9"/>
         <v>12048</v>
       </c>
     </row>
     <row r="104" ht="14.25" spans="1:4">
-      <c r="A104" s="3">
+      <c r="A104" s="4">
         <v>38</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="4">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104" s="4">
         <f t="shared" si="8"/>
         <v>77.4526678141136</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="4">
         <f t="shared" si="9"/>
         <v>12606</v>
       </c>
     </row>
     <row r="105" ht="14.25" spans="1:4">
-      <c r="A105" s="3">
+      <c r="A105" s="4">
         <v>39</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="4">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="4">
         <f t="shared" si="8"/>
         <v>75.7575757575758</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="4">
         <f t="shared" si="9"/>
         <v>13175</v>
       </c>
     </row>
     <row r="106" ht="14.25" spans="1:4">
-      <c r="A106" s="3">
+      <c r="A106" s="4">
         <v>40</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="4">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="4">
         <f t="shared" si="8"/>
         <v>69.6594427244582</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="4">
         <f t="shared" si="9"/>
         <v>14813</v>
       </c>
     </row>
     <row r="107" ht="14.25" spans="1:4">
-      <c r="A107" s="3">
+      <c r="A107" s="4">
         <v>41</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="4">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="4">
         <f t="shared" si="8"/>
         <v>68.1818181818182</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="4">
         <f t="shared" si="9"/>
         <v>15448</v>
       </c>
     </row>
     <row r="108" ht="14.25" spans="1:4">
-      <c r="A108" s="3">
+      <c r="A108" s="4">
         <v>42</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="4">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="4">
         <f t="shared" si="8"/>
         <v>66.7655786350148</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108" s="4">
         <f t="shared" si="9"/>
         <v>16094</v>
       </c>
     </row>
     <row r="109" ht="14.25" spans="1:4">
-      <c r="A109" s="3">
+      <c r="A109" s="4">
         <v>43</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="4">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109" s="4">
         <f t="shared" si="8"/>
         <v>61.6438356164384</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109" s="4">
         <f t="shared" si="9"/>
         <v>17948</v>
       </c>
     </row>
     <row r="110" ht="14.25" spans="1:4">
-      <c r="A110" s="3">
+      <c r="A110" s="4">
         <v>44</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="4">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="4">
         <f t="shared" si="8"/>
         <v>60.4026845637584</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110" s="4">
         <f t="shared" si="9"/>
         <v>18663</v>
       </c>
     </row>
     <row r="111" ht="14.25" spans="1:4">
-      <c r="A111" s="3">
+      <c r="A111" s="4">
         <v>45</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="4">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="4">
         <f t="shared" si="8"/>
         <v>59.2105263157895</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111" s="4">
         <f t="shared" si="9"/>
         <v>19390</v>
       </c>
     </row>
     <row r="112" ht="14.25" spans="1:4">
-      <c r="A112" s="3">
+      <c r="A112" s="4">
         <v>46</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="4">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="4">
         <f t="shared" si="8"/>
         <v>54.8780487804878</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112" s="4">
         <f t="shared" si="9"/>
         <v>21470</v>
       </c>
     </row>
     <row r="113" ht="14.25" spans="1:4">
-      <c r="A113" s="3">
+      <c r="A113" s="4">
         <v>47</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="4">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="4">
         <f t="shared" si="8"/>
         <v>53.8277511961723</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113" s="4">
         <f t="shared" si="9"/>
         <v>22269</v>
       </c>
     </row>
     <row r="114" ht="14.25" spans="1:4">
-      <c r="A114" s="3">
+      <c r="A114" s="4">
         <v>48</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="4">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="4">
         <f t="shared" si="8"/>
         <v>52.8169014084507</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114" s="4">
         <f t="shared" si="9"/>
         <v>23081</v>
       </c>
     </row>
     <row r="115" ht="14.25" spans="1:4">
-      <c r="A115" s="3">
+      <c r="A115" s="4">
         <v>49</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="4">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="4">
         <f t="shared" si="8"/>
         <v>49.1266375545852</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="4">
         <f t="shared" si="9"/>
         <v>25398</v>
       </c>
     </row>
     <row r="116" ht="14.25" spans="1:4">
-      <c r="A116" s="3">
+      <c r="A116" s="4">
         <v>50</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="4">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="4">
         <f t="shared" si="8"/>
         <v>48.2315112540193</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116" s="4">
         <f t="shared" si="9"/>
         <v>26286</v>
       </c>
     </row>
     <row r="117" ht="14.25" spans="1:4">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
     </row>
     <row r="118" ht="14.25" spans="1:4">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
     </row>
     <row r="119" ht="28.5" spans="1:4">
-      <c r="A119" s="21" t="s">
+      <c r="A119" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
     </row>
     <row r="120" ht="14.25" spans="1:4">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
     </row>
     <row r="121" ht="14.25" spans="1:4">
-      <c r="A121" s="3">
+      <c r="A121" s="4">
         <v>1</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="4">
         <f>C8/(C67/1000)</f>
         <v>2.22222222222222</v>
       </c>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
     </row>
     <row r="122" ht="14.25" spans="1:4">
-      <c r="A122" s="3">
+      <c r="A122" s="4">
         <v>2</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="4">
         <f t="shared" ref="B122:B155" si="10">C9/(C68/1000)</f>
         <v>4.48888888888889</v>
       </c>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
     </row>
     <row r="123" ht="14.25" spans="1:4">
-      <c r="A123" s="3">
+      <c r="A123" s="4">
         <v>3</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="4">
         <f t="shared" si="10"/>
         <v>6.8</v>
       </c>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
     </row>
     <row r="124" ht="14.25" spans="1:4">
-      <c r="A124" s="3">
+      <c r="A124" s="4">
         <v>4</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="4">
         <f t="shared" si="10"/>
         <v>16.4888888888889</v>
       </c>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
     </row>
     <row r="125" ht="14.25" spans="1:4">
-      <c r="A125" s="3">
+      <c r="A125" s="4">
         <v>5</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="4">
         <f t="shared" si="10"/>
         <v>21.6</v>
       </c>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
     </row>
     <row r="126" ht="14.25" spans="1:4">
-      <c r="A126" s="3">
+      <c r="A126" s="4">
         <v>6</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="4">
         <f t="shared" si="10"/>
         <v>26.8888888888889</v>
       </c>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
     </row>
     <row r="127" ht="14.25" spans="1:4">
-      <c r="A127" s="3">
+      <c r="A127" s="4">
         <v>7</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" s="4">
         <f t="shared" si="10"/>
         <v>49.8222222222222</v>
       </c>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
     </row>
     <row r="128" ht="14.25" spans="1:4">
-      <c r="A128" s="3">
+      <c r="A128" s="4">
         <v>8</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" s="4">
         <f t="shared" si="10"/>
         <v>59.1555555555556</v>
       </c>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
     </row>
     <row r="129" ht="14.25" spans="1:4">
-      <c r="A129" s="3">
+      <c r="A129" s="4">
         <v>9</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="4">
         <f t="shared" si="10"/>
         <v>68.8888888888889</v>
       </c>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
     </row>
     <row r="130" ht="14.25" spans="1:4">
-      <c r="A130" s="3">
+      <c r="A130" s="4">
         <v>10</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="4">
         <f t="shared" si="10"/>
         <v>111.822222222222</v>
       </c>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
     </row>
     <row r="131" ht="14.25" spans="1:4">
-      <c r="A131" s="3">
+      <c r="A131" s="4">
         <v>11</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" s="4">
         <f t="shared" si="10"/>
         <v>127.555555555556</v>
       </c>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
     </row>
     <row r="132" ht="14.25" spans="1:4">
-      <c r="A132" s="3">
+      <c r="A132" s="4">
         <v>12</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" s="4">
         <f t="shared" si="10"/>
         <v>144</v>
       </c>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
     </row>
     <row r="133" ht="14.25" spans="1:4">
-      <c r="A133" s="3">
+      <c r="A133" s="4">
         <v>13</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" s="4">
         <f t="shared" si="10"/>
         <v>216.888888888889</v>
       </c>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
     </row>
     <row r="134" ht="14.25" spans="1:4">
-      <c r="A134" s="3">
+      <c r="A134" s="4">
         <v>14</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="4">
         <f t="shared" si="10"/>
         <v>242</v>
       </c>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
     </row>
     <row r="135" ht="14.25" spans="1:4">
-      <c r="A135" s="3">
+      <c r="A135" s="4">
         <v>15</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="4">
         <f t="shared" si="10"/>
         <v>268.222222222222</v>
       </c>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
     </row>
     <row r="136" ht="14.25" spans="1:4">
-      <c r="A136" s="3">
+      <c r="A136" s="4">
         <v>16</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="4">
         <f t="shared" si="10"/>
         <v>384.222222222222</v>
       </c>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
     </row>
     <row r="137" ht="14.25" spans="1:4">
-      <c r="A137" s="3">
+      <c r="A137" s="4">
         <v>17</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="4">
         <f t="shared" si="10"/>
         <v>422.488888888889</v>
       </c>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
     </row>
     <row r="138" ht="14.25" spans="1:4">
-      <c r="A138" s="3">
+      <c r="A138" s="4">
         <v>18</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="4">
         <f t="shared" si="10"/>
         <v>462.355555555556</v>
       </c>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
     </row>
     <row r="139" ht="14.25" spans="1:4">
-      <c r="A139" s="3">
+      <c r="A139" s="4">
         <v>19</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="4">
         <f t="shared" si="10"/>
         <v>637.822222222222</v>
       </c>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
     </row>
     <row r="140" ht="14.25" spans="1:4">
-      <c r="A140" s="3">
+      <c r="A140" s="4">
         <v>20</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="4">
         <f t="shared" si="10"/>
         <v>693.822222222222</v>
       </c>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
     </row>
     <row r="141" ht="14.25" spans="1:4">
-      <c r="A141" s="3">
+      <c r="A141" s="4">
         <v>21</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="4">
         <f t="shared" si="10"/>
         <v>752</v>
       </c>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
     </row>
     <row r="142" ht="14.25" spans="1:4">
-      <c r="A142" s="3">
+      <c r="A142" s="4">
         <v>22</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="4">
         <f t="shared" si="10"/>
         <v>1006.48888888889</v>
       </c>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
     </row>
     <row r="143" ht="14.25" spans="1:4">
-      <c r="A143" s="3">
+      <c r="A143" s="4">
         <v>23</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="4">
         <f t="shared" si="10"/>
         <v>1085.6</v>
       </c>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
     </row>
     <row r="144" ht="14.25" spans="1:4">
-      <c r="A144" s="3">
+      <c r="A144" s="4">
         <v>24</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="4">
         <f t="shared" si="10"/>
         <v>1167.55555555556</v>
       </c>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
     </row>
     <row r="145" ht="14.25" spans="1:4">
-      <c r="A145" s="3">
+      <c r="A145" s="4">
         <v>25</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="4">
         <f t="shared" si="10"/>
         <v>1523.82222222222</v>
       </c>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
     </row>
     <row r="146" ht="14.25" spans="1:4">
-      <c r="A146" s="3">
+      <c r="A146" s="4">
         <v>26</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="4">
         <f t="shared" si="10"/>
         <v>1632.22222222222</v>
       </c>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
     </row>
     <row r="147" ht="14.25" spans="1:4">
-      <c r="A147" s="3">
+      <c r="A147" s="4">
         <v>27</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="4">
         <f t="shared" si="10"/>
         <v>1744.22222222222</v>
       </c>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
     </row>
     <row r="148" ht="14.25" spans="1:4">
-      <c r="A148" s="3">
+      <c r="A148" s="4">
         <v>28</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" s="4">
         <f t="shared" si="10"/>
         <v>2228.22222222222</v>
       </c>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
     </row>
     <row r="149" ht="14.25" spans="1:4">
-      <c r="A149" s="3">
+      <c r="A149" s="4">
         <v>29</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149" s="4">
         <f t="shared" si="10"/>
         <v>2372.88888888889</v>
       </c>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
     </row>
     <row r="150" ht="14.25" spans="1:4">
-      <c r="A150" s="3">
+      <c r="A150" s="4">
         <v>30</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="4">
         <f t="shared" si="10"/>
         <v>2522</v>
       </c>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
     </row>
     <row r="151" ht="14.25" spans="1:4">
-      <c r="A151" s="3">
+      <c r="A151" s="4">
         <v>31</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="4">
         <f t="shared" si="10"/>
         <v>3162.88888888889</v>
       </c>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
     </row>
     <row r="152" ht="14.25" spans="1:4">
-      <c r="A152" s="3">
+      <c r="A152" s="4">
         <v>32</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="4">
         <f t="shared" si="10"/>
         <v>3351.6</v>
       </c>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
     </row>
     <row r="153" ht="14.25" spans="1:4">
-      <c r="A153" s="3">
+      <c r="A153" s="4">
         <v>33</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153" s="4">
         <f t="shared" si="10"/>
         <v>3545.68888888889</v>
       </c>
-      <c r="C153" s="3"/>
-      <c r="D153" s="3"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
     </row>
     <row r="154" ht="14.25" spans="1:4">
-      <c r="A154" s="3">
+      <c r="A154" s="4">
         <v>34</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" s="4">
         <f t="shared" si="10"/>
         <v>4375.82222222222</v>
       </c>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
     </row>
     <row r="155" ht="14.25" spans="1:4">
-      <c r="A155" s="3">
+      <c r="A155" s="4">
         <v>35</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" s="4">
         <f t="shared" si="10"/>
         <v>4617.15555555556</v>
       </c>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4164,391 +4248,391 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="16.375" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="16.375" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <f>($B$3*A6*A6)/2-($B$3*A6)/2+$B$2</f>
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <f t="shared" ref="B7:B15" si="0">($B$3*A7*A7)/2-($B$3*A7)/2+$B$2</f>
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <f t="shared" ref="B16:B25" si="1">($B$3*A16*A16)/2-($B$3*A16)/2+$B$2</f>
         <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <f t="shared" si="1"/>
         <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <f t="shared" si="1"/>
         <v>535</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <f t="shared" si="1"/>
         <v>610</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <f t="shared" si="1"/>
         <v>775</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <f t="shared" si="1"/>
         <v>865</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="20">
+      <c r="A25" s="21">
         <v>20</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="21">
         <f t="shared" si="1"/>
         <v>960</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <f t="shared" ref="B26:B45" si="2">($B$3*A26*A26)/2-($B$3*A26)/2+$B$2</f>
         <v>1060</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <f t="shared" si="2"/>
         <v>1165</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <f t="shared" si="2"/>
         <v>1275</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <f t="shared" si="2"/>
         <v>1390</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="4">
         <f t="shared" si="2"/>
         <v>1510</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="4">
         <f t="shared" si="2"/>
         <v>1635</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <f t="shared" si="2"/>
         <v>1765</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="4">
         <f t="shared" si="2"/>
         <v>1900</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="4">
         <f t="shared" si="2"/>
         <v>2040</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="4">
         <f t="shared" si="2"/>
         <v>2185</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="4">
         <f t="shared" si="2"/>
         <v>2335</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="4">
         <f t="shared" si="2"/>
         <v>2490</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="3">
+      <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="4">
         <f t="shared" si="2"/>
         <v>2650</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="3">
+      <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="4">
         <f t="shared" si="2"/>
         <v>2815</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="3">
+      <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="4">
         <f t="shared" si="2"/>
         <v>2985</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="3">
+      <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="4">
         <f t="shared" si="2"/>
         <v>3160</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="3">
+      <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="4">
         <f t="shared" si="2"/>
         <v>3340</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="3">
+      <c r="A43" s="4">
         <v>38</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="4">
         <f t="shared" si="2"/>
         <v>3525</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="3">
+      <c r="A44" s="4">
         <v>39</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="4">
         <f t="shared" si="2"/>
         <v>3715</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="3">
+      <c r="A45" s="4">
         <v>40</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="4">
         <f t="shared" si="2"/>
         <v>3910</v>
       </c>
@@ -4570,37 +4654,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="101" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="101" style="4" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="12" ht="219" customHeight="1" spans="1:1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" ht="28.5" spans="1:1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="6"/>
+      <c r="A26" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4619,109 +4703,109 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="14.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="30.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="44.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="45.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="40.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="35.375" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="14.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="44.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="45.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="40.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="35.375" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" ht="27" spans="1:7">
-      <c r="A1" s="15" t="s">
+    <row r="1" s="15" customFormat="1" ht="27" spans="1:7">
+      <c r="A1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" ht="273" customHeight="1" spans="1:7">
-      <c r="A2" s="16">
+      <c r="A2" s="17">
         <v>10000</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" ht="102" customHeight="1" spans="1:7">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="G3" s="3" t="s">
+      <c r="E3" s="17"/>
+      <c r="G3" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" ht="119" customHeight="1" spans="1:5">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" ht="118" customHeight="1" spans="1:5">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" ht="28.5" spans="2:3">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4743,580 +4827,580 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="61" style="3" customWidth="1"/>
-    <col min="5" max="5" width="53.75" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="6.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="29.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="61" style="4" customWidth="1"/>
+    <col min="5" max="5" width="53.75" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:4">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" ht="63" customHeight="1" spans="2:4">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="2:5">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="9">
         <v>100</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="2:5">
-      <c r="B11" s="7"/>
-      <c r="C11" s="8">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9">
         <v>101</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="2:5">
-      <c r="B12" s="7"/>
-      <c r="C12" s="8">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9">
         <v>102</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <v>103</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="4">
+      <c r="C14" s="5">
         <v>104</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="3:5">
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <v>105</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="16" spans="3:5">
-      <c r="C16" s="4">
+      <c r="C16" s="5">
         <v>106</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="2:5">
-      <c r="B17" s="7"/>
-      <c r="C17" s="8">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9">
         <v>107</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="2:5">
-      <c r="B18" s="7"/>
-      <c r="C18" s="8">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9">
         <v>108</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="2:5">
-      <c r="B19" s="7"/>
-      <c r="C19" s="8">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9">
         <v>109</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="20" ht="16.5" spans="2:3">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" ht="16.5" spans="2:3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
     </row>
     <row r="22" ht="16.5" spans="2:5">
-      <c r="B22" s="7"/>
-      <c r="C22" s="8">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9">
         <v>150</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="2:3">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" ht="16.5" spans="2:3">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" ht="16.5" spans="2:3">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
     </row>
     <row r="26" ht="16.5" spans="2:3">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
     </row>
     <row r="27" ht="16.5" spans="2:3">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
     </row>
     <row r="28" ht="16.5" spans="2:5">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="8">
         <v>200</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="2:5">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8">
         <v>201</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="30" ht="42.75" spans="3:5">
-      <c r="C30" s="3">
+      <c r="C30" s="4">
         <v>202</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="31" spans="3:5">
-      <c r="C31" s="3">
+      <c r="C31" s="4">
         <v>203</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="32" spans="3:5">
-      <c r="C32" s="3">
+      <c r="C32" s="4">
         <v>204</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="33" spans="3:5">
-      <c r="C33" s="4">
+      <c r="C33" s="5">
         <v>205</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="34" spans="3:5">
-      <c r="C34" s="3">
+      <c r="C34" s="4">
         <v>206</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="35" spans="3:5">
-      <c r="C35" s="3">
+      <c r="C35" s="4">
         <v>207</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="36" spans="3:5">
-      <c r="C36" s="3">
+      <c r="C36" s="4">
         <v>208</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="37" spans="3:5">
-      <c r="C37" s="3">
+      <c r="C37" s="4">
         <v>209</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="2:5">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="E38" s="6"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="E38" s="7"/>
     </row>
     <row r="39" ht="16.5" spans="2:5">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="E39" s="6"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" ht="16.5" spans="2:5">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="E40" s="6"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="E40" s="7"/>
     </row>
     <row r="41" ht="16.5" spans="2:5">
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="E41" s="6"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" ht="42.75" spans="2:5">
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="8">
         <v>300</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="43" spans="3:5">
-      <c r="C43" s="3">
+      <c r="C43" s="4">
         <v>301</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="7" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="44" ht="28.5" spans="3:5">
-      <c r="C44" s="3">
+      <c r="C44" s="4">
         <v>302</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="45" spans="3:5">
-      <c r="C45" s="3">
+      <c r="C45" s="4">
         <v>303</v>
       </c>
       <c r="D45" t="s">
         <v>120</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="46" spans="3:5">
-      <c r="C46" s="3">
+      <c r="C46" s="4">
         <v>304</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="47" spans="3:5">
-      <c r="C47" s="3">
+      <c r="C47" s="4">
         <v>305</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="48" spans="3:5">
-      <c r="C48" s="3">
+      <c r="C48" s="4">
         <v>306</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="49" spans="3:5">
-      <c r="C49" s="3">
+      <c r="C49" s="4">
         <v>307</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="50" spans="3:5">
-      <c r="C50" s="3">
+      <c r="C50" s="4">
         <v>308</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51" spans="3:5">
-      <c r="C51" s="3">
+      <c r="C51" s="4">
         <v>309</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="53" ht="42.75" spans="2:5">
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="8">
         <v>400</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="54" spans="3:5">
-      <c r="C54" s="3">
+      <c r="C54" s="4">
         <v>401</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="55" spans="3:5">
-      <c r="C55" s="3">
+      <c r="C55" s="4">
         <v>402</v>
       </c>
-      <c r="D55" s="10"/>
-      <c r="E55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="12"/>
     </row>
     <row r="56" spans="3:5">
-      <c r="C56" s="3">
+      <c r="C56" s="4">
         <v>403</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="57" spans="3:5">
-      <c r="C57" s="3">
+      <c r="C57" s="4">
         <v>404</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E57" s="10" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="58" ht="57" spans="3:5">
-      <c r="C58" s="3">
+      <c r="C58" s="4">
         <v>405</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="59" ht="42.75" spans="3:5">
-      <c r="C59" s="3">
+      <c r="C59" s="4">
         <v>406</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="7" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="60" ht="28.5" spans="2:5">
-      <c r="B60" s="7"/>
-      <c r="C60" s="3">
+      <c r="B60" s="8"/>
+      <c r="C60" s="4">
         <v>407</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="7" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="61" ht="28.5" spans="2:5">
-      <c r="B61" s="7"/>
-      <c r="C61" s="3">
+      <c r="B61" s="8"/>
+      <c r="C61" s="4">
         <v>408</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="62" ht="28.5" spans="2:5">
-      <c r="B62" s="7"/>
-      <c r="C62" s="3">
+      <c r="B62" s="8"/>
+      <c r="C62" s="4">
         <v>409</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="7" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="63" ht="16.5" spans="2:5">
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="E63" s="6"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="E63" s="7"/>
     </row>
     <row r="64" ht="16.5" spans="2:5">
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="E64" s="6"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="E64" s="7"/>
     </row>
     <row r="65" ht="42.75" spans="2:5">
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="3" t="s">
+      <c r="C65" s="8"/>
+      <c r="D65" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="66" ht="40.5" spans="4:5">
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E66" s="12" t="s">
+      <c r="E66" s="13" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="67" spans="4:5">
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="4" t="s">
         <v>158</v>
       </c>
       <c r="E67" t="s">
@@ -5324,108 +5408,108 @@
       </c>
     </row>
     <row r="68" spans="4:4">
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="4" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13" t="s">
+      <c r="C71" s="14"/>
+      <c r="D71" s="14" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13" t="s">
+      <c r="C72" s="14"/>
+      <c r="D72" s="14" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13" t="s">
+      <c r="C73" s="14"/>
+      <c r="D73" s="14" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="74" spans="4:4">
-      <c r="D74" s="6"/>
+      <c r="D74" s="7"/>
     </row>
     <row r="75" spans="4:4">
-      <c r="D75" s="6"/>
+      <c r="D75" s="7"/>
     </row>
     <row r="76" spans="4:4">
-      <c r="D76" s="6"/>
+      <c r="D76" s="7"/>
     </row>
     <row r="77" spans="4:4">
-      <c r="D77" s="6"/>
+      <c r="D77" s="7"/>
     </row>
     <row r="78" spans="4:4">
-      <c r="D78" s="6"/>
+      <c r="D78" s="7"/>
     </row>
     <row r="79" spans="4:4">
-      <c r="D79" s="6"/>
+      <c r="D79" s="7"/>
     </row>
     <row r="80" spans="4:4">
-      <c r="D80" s="6"/>
+      <c r="D80" s="7"/>
     </row>
     <row r="81" spans="4:4">
-      <c r="D81" s="6"/>
+      <c r="D81" s="7"/>
     </row>
     <row r="82" ht="28.5" spans="2:4">
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D82" s="7" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="84" spans="4:4">
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="85" spans="4:4">
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="4" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="86" spans="2:4">
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="4" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="87" spans="4:4">
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="4" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="4" t="s">
         <v>175</v>
       </c>
     </row>
@@ -5446,52 +5530,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="74.5" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="74.5" style="4" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="10" spans="1:1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="4" t="s">
         <v>184</v>
       </c>
     </row>
@@ -5531,10 +5615,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -5546,55 +5630,69 @@
     <row r="1" ht="14.25" spans="1:1">
       <c r="A1" s="1"/>
     </row>
-    <row r="13" ht="74" customHeight="1" spans="1:2">
+    <row r="12" ht="409.5" spans="1:2">
+      <c r="A12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>193</v>
+      </c>
+      <c r="B16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>192</v>
-      </c>
-      <c r="B17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="B20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" ht="67.5" spans="1:2">
+      <c r="A23" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/表格/工作日志.xlsx
+++ b/表格/工作日志.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="203">
   <si>
     <t>核心玩法：</t>
   </si>
@@ -688,6 +688,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1.使用图集
 2.图片格式压缩(ASTC)
 3.无用的界面隐藏时，使用SetActive会造成Canvas重绘，比较好的做法是把界面移到摄像机外部或设置界面的Alpha=0</t>
@@ -763,6 +770,10 @@
   </si>
   <si>
     <t>tcp和udp的区别</t>
+  </si>
+  <si>
+    <t>TCP：面向连接，数据完整性高，有序，速率慢，开销大，适合传输文件.
+UDP：无连接，不保证数据的完整性，不保证有序，延迟低，开销小，适合在线游戏。</t>
   </si>
   <si>
     <t>lua和c#相互调用的性能问题</t>
@@ -1473,7 +1484,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1486,8 +1497,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1511,9 +1522,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1874,13 +1882,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="27" style="24" customWidth="1"/>
-    <col min="3" max="3" width="92.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="114.125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="27" style="23" customWidth="1"/>
+    <col min="3" max="3" width="92.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="114.125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" ht="140" customHeight="1" spans="2:3">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -1888,7 +1896,7 @@
       </c>
     </row>
     <row r="4" ht="101" customHeight="1" spans="2:3">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1896,7 +1904,7 @@
       </c>
     </row>
     <row r="5" ht="101" customHeight="1" spans="2:3">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1904,7 +1912,7 @@
       </c>
     </row>
     <row r="6" ht="103" customHeight="1" spans="2:3">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1912,7 +1920,7 @@
       </c>
     </row>
     <row r="7" ht="103" customHeight="1" spans="2:3">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1920,7 +1928,7 @@
       </c>
     </row>
     <row r="8" ht="100" customHeight="1" spans="2:3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1928,19 +1936,19 @@
       </c>
     </row>
     <row r="9" ht="154" customHeight="1" spans="2:4">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="26"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" ht="76" customHeight="1" spans="2:3">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1968,20 +1976,20 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" spans="1:4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="5" t="s">
@@ -1990,26 +1998,26 @@
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" ht="14.25" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" ht="14.25" spans="1:4">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" ht="14.25" spans="1:4">
       <c r="A6" s="11" t="s">
@@ -2022,888 +2030,888 @@
       <c r="D6" s="11"/>
     </row>
     <row r="7" ht="14.25" spans="1:4">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:4">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="1">
         <f t="shared" ref="B8:B42" si="0">FLOOR((A8-1)/3,1)+1</f>
         <v>1</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <f>$B$3+(A8-1)*B8</f>
         <v>1</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <f>$B$5*POWER(A8,$B$6)*B8</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:4">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="1">
         <f>$B$3+(A9-1)*B9</f>
         <v>2</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <f>$B$5*POWER(A9,$B$6)*B9</f>
         <v>4</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:4">
-      <c r="A10" s="4">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="1">
         <f>$B$3+(A10-1)*B10</f>
         <v>3</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <f>$B$5*POWER(A10,$B$6)*B10</f>
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:4">
-      <c r="A11" s="4">
+      <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="1">
         <f>$B$3+(A11-1)*B11</f>
         <v>7</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
         <f>$B$5*POWER(A11,$B$6)*B11</f>
         <v>32</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:4">
-      <c r="A12" s="4">
+      <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="1">
         <f>$B$3+(A12-1)*B12</f>
         <v>9</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="1">
         <f>$B$5*POWER(A12,$B$6)*B12</f>
         <v>50</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:4">
-      <c r="A13" s="4">
+      <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="1">
         <f>$B$3+(A13-1)*B13</f>
         <v>11</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="1">
         <f>$B$5*POWER(A13,$B$6)*B13</f>
         <v>72</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:4">
-      <c r="A14" s="4">
+      <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="1">
         <f>$B$3+(A14-1)*B14</f>
         <v>19</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14"